--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$Q$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$78</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -506,10 +506,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
@@ -1168,9 +1168,9 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
@@ -1454,16 +1454,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2259,6 +2259,15 @@
     <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2289,11 +2298,50 @@
     <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2301,18 +2349,30 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="32" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="32" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2328,30 +2388,6 @@
     <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2361,12 +2397,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2376,51 +2439,33 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2457,13 +2502,19 @@
     <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2496,20 +2547,68 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2558,105 +2657,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2724,7 +2724,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2759,7 +2759,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2970,9 +2970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,15 +3024,15 @@
       <c r="H3" s="135"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="393" t="s">
+      <c r="A4" s="396" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="393"/>
-      <c r="C4" s="393"/>
-      <c r="D4" s="393"/>
-      <c r="E4" s="393"/>
-      <c r="F4" s="393"/>
-      <c r="G4" s="393"/>
+      <c r="B4" s="396"/>
+      <c r="C4" s="396"/>
+      <c r="D4" s="396"/>
+      <c r="E4" s="396"/>
+      <c r="F4" s="396"/>
+      <c r="G4" s="396"/>
       <c r="H4" s="135"/>
     </row>
     <row r="5" spans="1:8" s="133" customFormat="1" x14ac:dyDescent="0.25">
@@ -3044,28 +3044,28 @@
       <c r="G5" s="132"/>
     </row>
     <row r="6" spans="1:8" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="394" t="s">
+      <c r="A6" s="397" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="394" t="s">
+      <c r="B6" s="397" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="396" t="s">
+      <c r="C6" s="399" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="398" t="s">
+      <c r="D6" s="401" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="398"/>
-      <c r="F6" s="398" t="s">
+      <c r="E6" s="401"/>
+      <c r="F6" s="401" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="398"/>
+      <c r="G6" s="401"/>
     </row>
     <row r="7" spans="1:8" s="133" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="395"/>
-      <c r="B7" s="395"/>
-      <c r="C7" s="397"/>
+      <c r="A7" s="398"/>
+      <c r="B7" s="398"/>
+      <c r="C7" s="400"/>
       <c r="D7" s="137" t="s">
         <v>90</v>
       </c>
@@ -3712,11 +3712,11 @@
       <c r="G77" s="140"/>
     </row>
     <row r="78" spans="1:7" s="143" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="390" t="s">
+      <c r="A78" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="391"/>
-      <c r="C78" s="392"/>
+      <c r="B78" s="394"/>
+      <c r="C78" s="395"/>
       <c r="D78" s="142">
         <f>SUM(D8:D77)</f>
         <v>0</v>
@@ -3744,10 +3744,10 @@
       <c r="G79" s="145"/>
     </row>
     <row r="80" spans="1:7" s="143" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="389" t="s">
+      <c r="A80" s="392" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="389"/>
+      <c r="B80" s="392"/>
       <c r="C80" s="144"/>
       <c r="D80" s="145"/>
       <c r="E80" s="145"/>
@@ -3877,13 +3877,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="170" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="399" t="s">
+      <c r="A1" s="423" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
+      <c r="D1" s="423"/>
+      <c r="E1" s="423"/>
       <c r="H1" s="171"/>
       <c r="I1" s="171"/>
       <c r="J1" s="171"/>
@@ -3913,173 +3913,173 @@
       <c r="P2" s="171"/>
     </row>
     <row r="3" spans="1:17" s="170" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="399" t="s">
+      <c r="A3" s="423" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="399"/>
-      <c r="C3" s="399"/>
-      <c r="D3" s="399"/>
-      <c r="E3" s="399"/>
-      <c r="F3" s="399"/>
-      <c r="G3" s="399"/>
-      <c r="H3" s="399"/>
-      <c r="I3" s="399"/>
-      <c r="J3" s="399"/>
-      <c r="K3" s="399"/>
-      <c r="L3" s="399"/>
-      <c r="M3" s="399"/>
-      <c r="N3" s="399"/>
-      <c r="O3" s="399"/>
-      <c r="P3" s="399"/>
-      <c r="Q3" s="399"/>
+      <c r="B3" s="423"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="423"/>
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="423"/>
+      <c r="K3" s="423"/>
+      <c r="L3" s="423"/>
+      <c r="M3" s="423"/>
+      <c r="N3" s="423"/>
+      <c r="O3" s="423"/>
+      <c r="P3" s="423"/>
+      <c r="Q3" s="423"/>
     </row>
     <row r="4" spans="1:17" s="170" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="423" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
-      <c r="I4" s="399"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
-      <c r="N4" s="399"/>
-      <c r="O4" s="399"/>
-      <c r="P4" s="399"/>
-      <c r="Q4" s="399"/>
+      <c r="B4" s="423"/>
+      <c r="C4" s="423"/>
+      <c r="D4" s="423"/>
+      <c r="E4" s="423"/>
+      <c r="F4" s="423"/>
+      <c r="G4" s="423"/>
+      <c r="H4" s="423"/>
+      <c r="I4" s="423"/>
+      <c r="J4" s="423"/>
+      <c r="K4" s="423"/>
+      <c r="L4" s="423"/>
+      <c r="M4" s="423"/>
+      <c r="N4" s="423"/>
+      <c r="O4" s="423"/>
+      <c r="P4" s="423"/>
+      <c r="Q4" s="423"/>
     </row>
     <row r="5" spans="1:17" s="170" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="399"/>
-      <c r="B5" s="399"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="399"/>
-      <c r="J5" s="399"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="400"/>
+      <c r="A5" s="423"/>
+      <c r="B5" s="423"/>
+      <c r="C5" s="423"/>
+      <c r="D5" s="423"/>
+      <c r="E5" s="423"/>
+      <c r="F5" s="423"/>
+      <c r="G5" s="423"/>
+      <c r="H5" s="423"/>
+      <c r="I5" s="423"/>
+      <c r="J5" s="423"/>
+      <c r="K5" s="424"/>
+      <c r="L5" s="424"/>
       <c r="M5" s="177"/>
       <c r="N5" s="171"/>
       <c r="O5" s="171"/>
       <c r="P5" s="171"/>
     </row>
     <row r="6" spans="1:17" s="178" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="401" t="s">
+      <c r="A6" s="417" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="403" t="s">
+      <c r="B6" s="425" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="401" t="s">
+      <c r="C6" s="417" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="407" t="s">
+      <c r="D6" s="427" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="407"/>
-      <c r="F6" s="408" t="s">
+      <c r="E6" s="427"/>
+      <c r="F6" s="428" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="408"/>
-      <c r="H6" s="408"/>
-      <c r="I6" s="408"/>
-      <c r="J6" s="408"/>
-      <c r="K6" s="408"/>
-      <c r="L6" s="408"/>
-      <c r="M6" s="412" t="s">
+      <c r="G6" s="428"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="428"/>
+      <c r="J6" s="428"/>
+      <c r="K6" s="428"/>
+      <c r="L6" s="428"/>
+      <c r="M6" s="419" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="409"/>
-      <c r="O6" s="409"/>
-      <c r="P6" s="409"/>
-      <c r="Q6" s="410" t="s">
+      <c r="N6" s="429"/>
+      <c r="O6" s="429"/>
+      <c r="P6" s="429"/>
+      <c r="Q6" s="430" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="178" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="402"/>
-      <c r="B7" s="404"/>
-      <c r="C7" s="402"/>
-      <c r="D7" s="401" t="s">
+      <c r="A7" s="418"/>
+      <c r="B7" s="426"/>
+      <c r="C7" s="418"/>
+      <c r="D7" s="417" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="401" t="s">
+      <c r="E7" s="417" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="401" t="s">
+      <c r="F7" s="417" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="401" t="s">
+      <c r="G7" s="417" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="405" t="s">
+      <c r="H7" s="415" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="405" t="s">
+      <c r="I7" s="415" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="415" t="s">
+      <c r="J7" s="422" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="415"/>
-      <c r="L7" s="405" t="s">
+      <c r="K7" s="422"/>
+      <c r="L7" s="415" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="413"/>
-      <c r="N7" s="405" t="s">
+      <c r="M7" s="420"/>
+      <c r="N7" s="415" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="405" t="s">
+      <c r="O7" s="415" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="405" t="s">
+      <c r="P7" s="415" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="411"/>
+      <c r="Q7" s="431"/>
     </row>
     <row r="8" spans="1:17" s="178" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="402"/>
-      <c r="B8" s="404"/>
-      <c r="C8" s="402"/>
-      <c r="D8" s="402"/>
-      <c r="E8" s="402"/>
-      <c r="F8" s="402"/>
-      <c r="G8" s="402"/>
-      <c r="H8" s="406"/>
-      <c r="I8" s="406"/>
+      <c r="A8" s="418"/>
+      <c r="B8" s="426"/>
+      <c r="C8" s="418"/>
+      <c r="D8" s="418"/>
+      <c r="E8" s="418"/>
+      <c r="F8" s="418"/>
+      <c r="G8" s="418"/>
+      <c r="H8" s="416"/>
+      <c r="I8" s="416"/>
       <c r="J8" s="179" t="s">
         <v>93</v>
       </c>
       <c r="K8" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="406"/>
-      <c r="M8" s="414"/>
-      <c r="N8" s="406"/>
-      <c r="O8" s="406"/>
-      <c r="P8" s="406"/>
-      <c r="Q8" s="411"/>
+      <c r="L8" s="416"/>
+      <c r="M8" s="421"/>
+      <c r="N8" s="416"/>
+      <c r="O8" s="416"/>
+      <c r="P8" s="416"/>
+      <c r="Q8" s="431"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="510">
+      <c r="A9" s="389">
         <v>547</v>
       </c>
-      <c r="B9" s="511">
+      <c r="B9" s="390">
         <v>43974</v>
       </c>
-      <c r="C9" s="510" t="s">
+      <c r="C9" s="389" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="510" t="s">
+      <c r="D9" s="389" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="181" t="s">
@@ -4110,22 +4110,22 @@
       <c r="N9" s="183"/>
       <c r="O9" s="183"/>
       <c r="P9" s="183">
-        <f>L9</f>
+        <f t="shared" ref="P9:P16" si="0">L9</f>
         <v>560500.00000000012</v>
       </c>
       <c r="Q9" s="181"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="510">
+      <c r="A10" s="389">
         <v>550</v>
       </c>
-      <c r="B10" s="511">
+      <c r="B10" s="390">
         <v>43974</v>
       </c>
-      <c r="C10" s="510" t="s">
+      <c r="C10" s="389" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="510" t="s">
+      <c r="D10" s="389" t="s">
         <v>138</v>
       </c>
       <c r="E10" s="181" t="s">
@@ -4156,25 +4156,25 @@
       <c r="N10" s="183"/>
       <c r="O10" s="183"/>
       <c r="P10" s="183">
-        <f>L10</f>
+        <f t="shared" si="0"/>
         <v>840750.00000000012</v>
       </c>
       <c r="Q10" s="181"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="510">
+      <c r="A11" s="389">
         <v>556</v>
       </c>
-      <c r="B11" s="511">
+      <c r="B11" s="390">
         <v>43976</v>
       </c>
-      <c r="C11" s="510" t="s">
+      <c r="C11" s="389" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="510" t="s">
+      <c r="D11" s="389" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="510" t="s">
+      <c r="E11" s="389" t="s">
         <v>142</v>
       </c>
       <c r="F11" s="181" t="s">
@@ -4204,25 +4204,25 @@
       <c r="N11" s="183"/>
       <c r="O11" s="183"/>
       <c r="P11" s="183">
-        <f>L11</f>
+        <f t="shared" si="0"/>
         <v>3086000.0000000005</v>
       </c>
       <c r="Q11" s="181"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="513">
+      <c r="A12" s="405">
         <v>557</v>
       </c>
-      <c r="B12" s="515">
+      <c r="B12" s="407">
         <v>43981</v>
       </c>
-      <c r="C12" s="513" t="s">
+      <c r="C12" s="405" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="513" t="s">
+      <c r="D12" s="405" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="513" t="s">
+      <c r="E12" s="405" t="s">
         <v>144</v>
       </c>
       <c r="F12" s="181" t="s">
@@ -4235,7 +4235,7 @@
         <v>225000</v>
       </c>
       <c r="I12" s="183">
-        <f t="shared" ref="I12:I21" si="0">G12*H12</f>
+        <f t="shared" ref="I12:I21" si="1">G12*H12</f>
         <v>450000</v>
       </c>
       <c r="J12" s="183"/>
@@ -4243,24 +4243,24 @@
         <v>0.41</v>
       </c>
       <c r="L12" s="183">
-        <f t="shared" ref="L11:L21" si="1">I12*(1-K12)</f>
+        <f t="shared" ref="L12:L21" si="2">I12*(1-K12)</f>
         <v>265500.00000000006</v>
       </c>
       <c r="M12" s="183"/>
       <c r="N12" s="183"/>
       <c r="O12" s="183"/>
       <c r="P12" s="183">
-        <f>L12</f>
+        <f t="shared" si="0"/>
         <v>265500.00000000006</v>
       </c>
       <c r="Q12" s="181"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="514"/>
-      <c r="B13" s="516"/>
-      <c r="C13" s="514"/>
-      <c r="D13" s="514"/>
-      <c r="E13" s="514"/>
+      <c r="A13" s="406"/>
+      <c r="B13" s="408"/>
+      <c r="C13" s="406"/>
+      <c r="D13" s="406"/>
+      <c r="E13" s="406"/>
       <c r="F13" s="181" t="s">
         <v>145</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>235000</v>
       </c>
       <c r="I13" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>235000</v>
       </c>
       <c r="J13" s="187"/>
@@ -4279,30 +4279,30 @@
         <v>0.41</v>
       </c>
       <c r="L13" s="183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138650.00000000003</v>
       </c>
       <c r="M13" s="183"/>
       <c r="N13" s="187"/>
       <c r="O13" s="183"/>
       <c r="P13" s="183">
-        <f>L13</f>
+        <f t="shared" si="0"/>
         <v>138650.00000000003</v>
       </c>
       <c r="Q13" s="186"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="510">
+      <c r="A14" s="389">
         <v>558</v>
       </c>
-      <c r="B14" s="511">
+      <c r="B14" s="390">
         <v>43981</v>
       </c>
-      <c r="C14" s="517" t="s">
+      <c r="C14" s="402" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="518"/>
-      <c r="E14" s="519"/>
+      <c r="D14" s="403"/>
+      <c r="E14" s="404"/>
       <c r="F14" s="181" t="s">
         <v>147</v>
       </c>
@@ -4313,38 +4313,38 @@
         <v>485000</v>
       </c>
       <c r="I14" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5820000</v>
       </c>
       <c r="J14" s="187"/>
       <c r="K14" s="184"/>
       <c r="L14" s="183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5820000</v>
       </c>
       <c r="M14" s="183"/>
       <c r="N14" s="187"/>
       <c r="O14" s="183"/>
       <c r="P14" s="183">
-        <f>L14</f>
+        <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
       <c r="Q14" s="186"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="510">
+      <c r="A15" s="389">
         <v>559</v>
       </c>
-      <c r="B15" s="511">
+      <c r="B15" s="390">
         <v>43982</v>
       </c>
-      <c r="C15" s="510" t="s">
+      <c r="C15" s="389" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="512" t="s">
+      <c r="D15" s="391" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="512" t="s">
+      <c r="E15" s="391" t="s">
         <v>144</v>
       </c>
       <c r="F15" s="181" t="s">
@@ -4357,7 +4357,7 @@
         <v>455000</v>
       </c>
       <c r="I15" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>910000</v>
       </c>
       <c r="J15" s="187"/>
@@ -4365,32 +4365,32 @@
         <v>0.41</v>
       </c>
       <c r="L15" s="183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>536900.00000000012</v>
       </c>
       <c r="M15" s="183"/>
       <c r="N15" s="187"/>
       <c r="O15" s="183"/>
       <c r="P15" s="183">
-        <f>L15</f>
+        <f t="shared" si="0"/>
         <v>536900.00000000012</v>
       </c>
       <c r="Q15" s="186"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="510">
+      <c r="A16" s="389">
         <v>560</v>
       </c>
-      <c r="B16" s="511">
+      <c r="B16" s="390">
         <v>43983</v>
       </c>
-      <c r="C16" s="510" t="s">
+      <c r="C16" s="389" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="512" t="s">
+      <c r="D16" s="391" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="512" t="s">
+      <c r="E16" s="391" t="s">
         <v>150</v>
       </c>
       <c r="F16" s="181" t="s">
@@ -4403,7 +4403,7 @@
         <v>455000</v>
       </c>
       <c r="I16" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
       <c r="J16" s="187"/>
@@ -4411,32 +4411,32 @@
         <v>0.41</v>
       </c>
       <c r="L16" s="183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3221400.0000000005</v>
       </c>
       <c r="M16" s="183"/>
       <c r="N16" s="187"/>
       <c r="O16" s="183"/>
       <c r="P16" s="183">
-        <f>L16</f>
+        <f t="shared" si="0"/>
         <v>3221400.0000000005</v>
       </c>
       <c r="Q16" s="186"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="513">
+      <c r="A17" s="405">
         <v>563</v>
       </c>
-      <c r="B17" s="515">
+      <c r="B17" s="407">
         <v>43986</v>
       </c>
-      <c r="C17" s="513" t="s">
+      <c r="C17" s="405" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="520" t="s">
+      <c r="D17" s="409" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="520" t="s">
+      <c r="E17" s="409" t="s">
         <v>155</v>
       </c>
       <c r="F17" s="181" t="s">
@@ -4449,7 +4449,7 @@
         <v>550000</v>
       </c>
       <c r="I17" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>550000</v>
       </c>
       <c r="J17" s="187"/>
@@ -4457,7 +4457,7 @@
         <v>0.41</v>
       </c>
       <c r="L17" s="183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>324500.00000000006</v>
       </c>
       <c r="M17" s="183"/>
@@ -4470,11 +4470,11 @@
       <c r="Q17" s="186"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="514"/>
-      <c r="B18" s="516"/>
-      <c r="C18" s="514"/>
-      <c r="D18" s="521"/>
-      <c r="E18" s="521"/>
+      <c r="A18" s="406"/>
+      <c r="B18" s="408"/>
+      <c r="C18" s="406"/>
+      <c r="D18" s="410"/>
+      <c r="E18" s="410"/>
       <c r="F18" s="181" t="s">
         <v>151</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>455000</v>
       </c>
       <c r="I18" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>910000</v>
       </c>
       <c r="J18" s="187"/>
@@ -4493,7 +4493,7 @@
         <v>0.41</v>
       </c>
       <c r="L18" s="183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>536900.00000000012</v>
       </c>
       <c r="M18" s="183"/>
@@ -4506,19 +4506,19 @@
       <c r="Q18" s="186"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="510">
+      <c r="A19" s="389">
         <v>564</v>
       </c>
-      <c r="B19" s="511">
+      <c r="B19" s="390">
         <v>43986</v>
       </c>
-      <c r="C19" s="510" t="s">
+      <c r="C19" s="389" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="512" t="s">
+      <c r="D19" s="391" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="512" t="s">
+      <c r="E19" s="391" t="s">
         <v>158</v>
       </c>
       <c r="F19" s="181" t="s">
@@ -4531,7 +4531,7 @@
         <v>475000</v>
       </c>
       <c r="I19" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5700000</v>
       </c>
       <c r="J19" s="187"/>
@@ -4539,7 +4539,7 @@
         <v>0.41</v>
       </c>
       <c r="L19" s="183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3363000.0000000005</v>
       </c>
       <c r="M19" s="183"/>
@@ -4552,22 +4552,22 @@
       <c r="Q19" s="186"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="510"/>
-      <c r="B20" s="511"/>
-      <c r="C20" s="510"/>
-      <c r="D20" s="512"/>
-      <c r="E20" s="512"/>
+      <c r="A20" s="389"/>
+      <c r="B20" s="390"/>
+      <c r="C20" s="389"/>
+      <c r="D20" s="391"/>
+      <c r="E20" s="391"/>
       <c r="F20" s="181"/>
       <c r="G20" s="181"/>
       <c r="H20" s="181"/>
       <c r="I20" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="187"/>
       <c r="K20" s="184"/>
       <c r="L20" s="183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="183"/>
@@ -4577,22 +4577,22 @@
       <c r="Q20" s="186"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="510"/>
-      <c r="B21" s="511"/>
-      <c r="C21" s="510"/>
-      <c r="D21" s="512"/>
-      <c r="E21" s="512"/>
+      <c r="A21" s="389"/>
+      <c r="B21" s="390"/>
+      <c r="C21" s="389"/>
+      <c r="D21" s="391"/>
+      <c r="E21" s="391"/>
       <c r="F21" s="181"/>
       <c r="G21" s="181"/>
       <c r="H21" s="181"/>
       <c r="I21" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="187"/>
       <c r="K21" s="184"/>
       <c r="L21" s="183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="183"/>
@@ -6417,14 +6417,14 @@
       <c r="Q116" s="181"/>
     </row>
     <row r="117" spans="1:18" s="199" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A117" s="418" t="s">
+      <c r="A117" s="413" t="s">
         <v>86</v>
       </c>
-      <c r="B117" s="418"/>
-      <c r="C117" s="418"/>
-      <c r="D117" s="418"/>
-      <c r="E117" s="418"/>
-      <c r="F117" s="418"/>
+      <c r="B117" s="413"/>
+      <c r="C117" s="413"/>
+      <c r="D117" s="413"/>
+      <c r="E117" s="413"/>
+      <c r="F117" s="413"/>
       <c r="G117" s="193">
         <f>SUM(G9:G116)</f>
         <v>73</v>
@@ -6444,18 +6444,18 @@
       <c r="N117" s="194"/>
       <c r="O117" s="194"/>
       <c r="P117" s="194"/>
-      <c r="Q117" s="419"/>
-      <c r="R117" s="416"/>
+      <c r="Q117" s="414"/>
+      <c r="R117" s="411"/>
     </row>
     <row r="118" spans="1:18" s="199" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A118" s="417" t="s">
+      <c r="A118" s="412" t="s">
         <v>133</v>
       </c>
-      <c r="B118" s="417"/>
-      <c r="C118" s="417"/>
-      <c r="D118" s="417"/>
-      <c r="E118" s="417"/>
-      <c r="F118" s="417"/>
+      <c r="B118" s="412"/>
+      <c r="C118" s="412"/>
+      <c r="D118" s="412"/>
+      <c r="E118" s="412"/>
+      <c r="F118" s="412"/>
       <c r="G118" s="193">
         <f>G117</f>
         <v>73</v>
@@ -6472,18 +6472,18 @@
       <c r="N118" s="196"/>
       <c r="O118" s="196"/>
       <c r="P118" s="196"/>
-      <c r="Q118" s="419"/>
-      <c r="R118" s="416"/>
+      <c r="Q118" s="414"/>
+      <c r="R118" s="411"/>
     </row>
     <row r="119" spans="1:18" s="199" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A119" s="417" t="s">
+      <c r="A119" s="412" t="s">
         <v>87</v>
       </c>
-      <c r="B119" s="417"/>
-      <c r="C119" s="417"/>
-      <c r="D119" s="417"/>
-      <c r="E119" s="417"/>
-      <c r="F119" s="417"/>
+      <c r="B119" s="412"/>
+      <c r="C119" s="412"/>
+      <c r="D119" s="412"/>
+      <c r="E119" s="412"/>
+      <c r="F119" s="412"/>
       <c r="G119" s="200" t="s">
         <v>50</v>
       </c>
@@ -6501,14 +6501,14 @@
       <c r="P119" s="196"/>
     </row>
     <row r="120" spans="1:18" s="199" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A120" s="417" t="s">
+      <c r="A120" s="412" t="s">
         <v>88</v>
       </c>
-      <c r="B120" s="417"/>
-      <c r="C120" s="417"/>
-      <c r="D120" s="417"/>
-      <c r="E120" s="417"/>
-      <c r="F120" s="417"/>
+      <c r="B120" s="412"/>
+      <c r="C120" s="412"/>
+      <c r="D120" s="412"/>
+      <c r="E120" s="412"/>
+      <c r="F120" s="412"/>
       <c r="G120" s="200"/>
       <c r="H120" s="196"/>
       <c r="I120" s="194"/>
@@ -6524,14 +6524,14 @@
       <c r="P120" s="196"/>
     </row>
     <row r="121" spans="1:18" s="199" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A121" s="417" t="s">
+      <c r="A121" s="412" t="s">
         <v>89</v>
       </c>
-      <c r="B121" s="417"/>
-      <c r="C121" s="417"/>
-      <c r="D121" s="417"/>
-      <c r="E121" s="417"/>
-      <c r="F121" s="417"/>
+      <c r="B121" s="412"/>
+      <c r="C121" s="412"/>
+      <c r="D121" s="412"/>
+      <c r="E121" s="412"/>
+      <c r="F121" s="412"/>
       <c r="G121" s="200"/>
       <c r="H121" s="196"/>
       <c r="I121" s="194"/>
@@ -6614,31 +6614,6 @@
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
   <mergeCells count="41">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="Q117:Q118"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A4:Q4"/>
@@ -6655,6 +6630,31 @@
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="Q117:Q118"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -6743,14 +6743,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="420" t="s">
+      <c r="A4" s="432" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="420"/>
-      <c r="C4" s="420"/>
-      <c r="D4" s="420"/>
-      <c r="E4" s="420"/>
-      <c r="F4" s="420"/>
+      <c r="B4" s="432"/>
+      <c r="C4" s="432"/>
+      <c r="D4" s="432"/>
+      <c r="E4" s="432"/>
+      <c r="F4" s="432"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -6764,14 +6764,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="421" t="s">
+      <c r="A5" s="433" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="421"/>
-      <c r="C5" s="421"/>
-      <c r="D5" s="421"/>
-      <c r="E5" s="421"/>
-      <c r="F5" s="421"/>
+      <c r="B5" s="433"/>
+      <c r="C5" s="433"/>
+      <c r="D5" s="433"/>
+      <c r="E5" s="433"/>
+      <c r="F5" s="433"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -7118,10 +7118,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="422" t="s">
+      <c r="A25" s="434" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="422"/>
+      <c r="B25" s="434"/>
       <c r="C25" s="31"/>
       <c r="D25" s="356">
         <f>C24-D24</f>
@@ -7208,13 +7208,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="423" t="s">
+      <c r="A1" s="445" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="423"/>
-      <c r="C1" s="423"/>
-      <c r="D1" s="423"/>
-      <c r="E1" s="423"/>
+      <c r="B1" s="445"/>
+      <c r="C1" s="445"/>
+      <c r="D1" s="445"/>
+      <c r="E1" s="445"/>
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
       <c r="H1" s="74"/>
@@ -7242,134 +7242,134 @@
       <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="424" t="s">
+      <c r="A4" s="436" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="424"/>
-      <c r="C4" s="424"/>
-      <c r="D4" s="424"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="424"/>
-      <c r="H4" s="424"/>
-      <c r="I4" s="424"/>
-      <c r="J4" s="424"/>
-      <c r="K4" s="424"/>
-      <c r="L4" s="424"/>
-      <c r="M4" s="424"/>
-      <c r="N4" s="424"/>
-      <c r="O4" s="424"/>
-      <c r="P4" s="424"/>
+      <c r="B4" s="436"/>
+      <c r="C4" s="436"/>
+      <c r="D4" s="436"/>
+      <c r="E4" s="436"/>
+      <c r="F4" s="436"/>
+      <c r="G4" s="436"/>
+      <c r="H4" s="436"/>
+      <c r="I4" s="436"/>
+      <c r="J4" s="436"/>
+      <c r="K4" s="436"/>
+      <c r="L4" s="436"/>
+      <c r="M4" s="436"/>
+      <c r="N4" s="436"/>
+      <c r="O4" s="436"/>
+      <c r="P4" s="436"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="427"/>
-      <c r="B5" s="427"/>
-      <c r="C5" s="427"/>
-      <c r="D5" s="427"/>
-      <c r="E5" s="427"/>
-      <c r="F5" s="427"/>
-      <c r="G5" s="427"/>
-      <c r="H5" s="427"/>
-      <c r="I5" s="427"/>
-      <c r="J5" s="427"/>
-      <c r="K5" s="427"/>
-      <c r="L5" s="427"/>
-      <c r="M5" s="427"/>
-      <c r="N5" s="427"/>
-      <c r="O5" s="427"/>
-      <c r="P5" s="427"/>
+      <c r="A5" s="448"/>
+      <c r="B5" s="448"/>
+      <c r="C5" s="448"/>
+      <c r="D5" s="448"/>
+      <c r="E5" s="448"/>
+      <c r="F5" s="448"/>
+      <c r="G5" s="448"/>
+      <c r="H5" s="448"/>
+      <c r="I5" s="448"/>
+      <c r="J5" s="448"/>
+      <c r="K5" s="448"/>
+      <c r="L5" s="448"/>
+      <c r="M5" s="448"/>
+      <c r="N5" s="448"/>
+      <c r="O5" s="448"/>
+      <c r="P5" s="448"/>
     </row>
     <row r="6" spans="1:16" s="178" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="407" t="s">
+      <c r="A6" s="427" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="429" t="s">
+      <c r="B6" s="441" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="407" t="s">
+      <c r="C6" s="427" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="407" t="s">
+      <c r="D6" s="427" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="407"/>
-      <c r="F6" s="408" t="s">
+      <c r="E6" s="427"/>
+      <c r="F6" s="428" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="408"/>
-      <c r="H6" s="408"/>
-      <c r="I6" s="408"/>
-      <c r="J6" s="408"/>
-      <c r="K6" s="408"/>
-      <c r="L6" s="408"/>
-      <c r="M6" s="409"/>
-      <c r="N6" s="409"/>
-      <c r="O6" s="409"/>
-      <c r="P6" s="425" t="s">
+      <c r="G6" s="428"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="428"/>
+      <c r="J6" s="428"/>
+      <c r="K6" s="428"/>
+      <c r="L6" s="428"/>
+      <c r="M6" s="429"/>
+      <c r="N6" s="429"/>
+      <c r="O6" s="429"/>
+      <c r="P6" s="446" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="178" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="407"/>
-      <c r="B7" s="429"/>
-      <c r="C7" s="407"/>
-      <c r="D7" s="407" t="s">
+      <c r="A7" s="427"/>
+      <c r="B7" s="441"/>
+      <c r="C7" s="427"/>
+      <c r="D7" s="427" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="407" t="s">
+      <c r="E7" s="427" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="407" t="s">
+      <c r="F7" s="427" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="407" t="s">
+      <c r="G7" s="427" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="426" t="s">
+      <c r="H7" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="426" t="s">
+      <c r="I7" s="447" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="415" t="s">
+      <c r="J7" s="422" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="415"/>
-      <c r="L7" s="426" t="s">
+      <c r="K7" s="422"/>
+      <c r="L7" s="447" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="426" t="s">
+      <c r="M7" s="447" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="426" t="s">
+      <c r="N7" s="447" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="426" t="s">
+      <c r="O7" s="447" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="425"/>
+      <c r="P7" s="446"/>
     </row>
     <row r="8" spans="1:16" s="178" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="407"/>
-      <c r="B8" s="429"/>
-      <c r="C8" s="407"/>
-      <c r="D8" s="407"/>
-      <c r="E8" s="407"/>
-      <c r="F8" s="407"/>
-      <c r="G8" s="407"/>
-      <c r="H8" s="426"/>
-      <c r="I8" s="426"/>
+      <c r="A8" s="427"/>
+      <c r="B8" s="441"/>
+      <c r="C8" s="427"/>
+      <c r="D8" s="427"/>
+      <c r="E8" s="427"/>
+      <c r="F8" s="427"/>
+      <c r="G8" s="427"/>
+      <c r="H8" s="447"/>
+      <c r="I8" s="447"/>
       <c r="J8" s="243" t="s">
         <v>93</v>
       </c>
       <c r="K8" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="426"/>
-      <c r="M8" s="426"/>
-      <c r="N8" s="426"/>
-      <c r="O8" s="426"/>
-      <c r="P8" s="425"/>
+      <c r="L8" s="447"/>
+      <c r="M8" s="447"/>
+      <c r="N8" s="447"/>
+      <c r="O8" s="447"/>
+      <c r="P8" s="446"/>
     </row>
     <row r="9" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="359"/>
@@ -7579,7 +7579,7 @@
       <c r="G20" s="240"/>
       <c r="H20" s="224"/>
       <c r="I20" s="224"/>
-      <c r="J20" s="430"/>
+      <c r="J20" s="442"/>
       <c r="K20" s="225"/>
       <c r="L20" s="224"/>
       <c r="M20" s="224"/>
@@ -7597,7 +7597,7 @@
       <c r="G21" s="241"/>
       <c r="H21" s="226"/>
       <c r="I21" s="226"/>
-      <c r="J21" s="431"/>
+      <c r="J21" s="443"/>
       <c r="K21" s="227"/>
       <c r="L21" s="226"/>
       <c r="M21" s="226"/>
@@ -7615,7 +7615,7 @@
       <c r="G22" s="242"/>
       <c r="H22" s="228"/>
       <c r="I22" s="228"/>
-      <c r="J22" s="432"/>
+      <c r="J22" s="444"/>
       <c r="K22" s="229"/>
       <c r="L22" s="228"/>
       <c r="M22" s="228"/>
@@ -7786,16 +7786,16 @@
       <c r="P31" s="235"/>
     </row>
     <row r="32" spans="1:16" s="290" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="434" t="s">
+      <c r="A32" s="437" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="435"/>
-      <c r="C32" s="435"/>
-      <c r="D32" s="435"/>
-      <c r="E32" s="435"/>
-      <c r="F32" s="435"/>
-      <c r="G32" s="435"/>
-      <c r="H32" s="436"/>
+      <c r="B32" s="438"/>
+      <c r="C32" s="438"/>
+      <c r="D32" s="438"/>
+      <c r="E32" s="438"/>
+      <c r="F32" s="438"/>
+      <c r="G32" s="438"/>
+      <c r="H32" s="439"/>
       <c r="I32" s="291">
         <f>SUM(I9:I31)</f>
         <v>0</v>
@@ -7834,20 +7834,20 @@
     <row r="34" spans="1:15" s="298" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="296"/>
       <c r="B34" s="296"/>
-      <c r="C34" s="424" t="s">
+      <c r="C34" s="436" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="424"/>
-      <c r="E34" s="424"/>
+      <c r="D34" s="436"/>
+      <c r="E34" s="436"/>
       <c r="F34" s="296"/>
       <c r="G34" s="296"/>
       <c r="H34" s="296"/>
       <c r="I34" s="297"/>
       <c r="L34" s="297"/>
-      <c r="M34" s="433" t="s">
+      <c r="M34" s="435" t="s">
         <v>125</v>
       </c>
-      <c r="N34" s="433"/>
+      <c r="N34" s="435"/>
       <c r="O34" s="297"/>
     </row>
     <row r="35" spans="1:15" s="298" customFormat="1" x14ac:dyDescent="0.25">
@@ -8031,19 +8031,19 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="113"/>
-      <c r="B47" s="424" t="s">
+      <c r="B47" s="436" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="424"/>
-      <c r="D47" s="424"/>
+      <c r="C47" s="436"/>
+      <c r="D47" s="436"/>
       <c r="E47" s="113"/>
       <c r="F47" s="113"/>
       <c r="G47" s="113"/>
       <c r="H47" s="113"/>
-      <c r="I47" s="424" t="s">
+      <c r="I47" s="436" t="s">
         <v>125</v>
       </c>
-      <c r="J47" s="424"/>
+      <c r="J47" s="436"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="113"/>
@@ -8123,8 +8123,8 @@
       <c r="I54" s="294"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="428"/>
-      <c r="B55" s="428"/>
+      <c r="A55" s="440"/>
+      <c r="B55" s="440"/>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
@@ -8134,8 +8134,8 @@
       <c r="H57" s="295"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="428"/>
-      <c r="B59" s="428"/>
+      <c r="A59" s="440"/>
+      <c r="B59" s="440"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
@@ -8143,19 +8143,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="C34:E34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="P6:P8"/>
@@ -8172,6 +8159,19 @@
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A55:B55"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8712,16 +8712,16 @@
       <c r="C1" s="245"/>
       <c r="D1" s="245"/>
       <c r="E1" s="245"/>
-      <c r="Z1" s="455" t="s">
+      <c r="Z1" s="454" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="456"/>
-      <c r="AB1" s="456"/>
-      <c r="AC1" s="456"/>
-      <c r="AD1" s="456"/>
-      <c r="AE1" s="456"/>
-      <c r="AF1" s="456"/>
-      <c r="AG1" s="457"/>
+      <c r="AA1" s="455"/>
+      <c r="AB1" s="455"/>
+      <c r="AC1" s="455"/>
+      <c r="AD1" s="455"/>
+      <c r="AE1" s="455"/>
+      <c r="AF1" s="455"/>
+      <c r="AG1" s="456"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="248" t="s">
@@ -8731,18 +8731,18 @@
       <c r="C2" s="249"/>
       <c r="D2" s="249"/>
       <c r="E2" s="249"/>
-      <c r="Z2" s="438" t="s">
+      <c r="Z2" s="449" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" s="439"/>
-      <c r="AB2" s="439"/>
-      <c r="AC2" s="439"/>
-      <c r="AD2" s="439"/>
-      <c r="AE2" s="440"/>
-      <c r="AF2" s="441" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG2" s="442"/>
+      <c r="AA2" s="450"/>
+      <c r="AB2" s="450"/>
+      <c r="AC2" s="450"/>
+      <c r="AD2" s="450"/>
+      <c r="AE2" s="451"/>
+      <c r="AF2" s="452" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" s="453"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="248" t="s">
@@ -8752,18 +8752,18 @@
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
       <c r="E3" s="92"/>
-      <c r="Z3" s="438" t="s">
+      <c r="Z3" s="449" t="s">
         <v>100</v>
       </c>
-      <c r="AA3" s="439"/>
-      <c r="AB3" s="439"/>
-      <c r="AC3" s="439"/>
-      <c r="AD3" s="439"/>
-      <c r="AE3" s="440"/>
-      <c r="AF3" s="441" t="s">
+      <c r="AA3" s="450"/>
+      <c r="AB3" s="450"/>
+      <c r="AC3" s="450"/>
+      <c r="AD3" s="450"/>
+      <c r="AE3" s="451"/>
+      <c r="AF3" s="452" t="s">
         <v>101</v>
       </c>
-      <c r="AG3" s="442"/>
+      <c r="AG3" s="453"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="248" t="s">
@@ -8773,18 +8773,18 @@
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
       <c r="E4" s="92"/>
-      <c r="Z4" s="438" t="s">
+      <c r="Z4" s="449" t="s">
         <v>103</v>
       </c>
-      <c r="AA4" s="439"/>
-      <c r="AB4" s="439"/>
-      <c r="AC4" s="439"/>
-      <c r="AD4" s="439"/>
-      <c r="AE4" s="440"/>
-      <c r="AF4" s="441" t="s">
+      <c r="AA4" s="450"/>
+      <c r="AB4" s="450"/>
+      <c r="AC4" s="450"/>
+      <c r="AD4" s="450"/>
+      <c r="AE4" s="451"/>
+      <c r="AF4" s="452" t="s">
         <v>104</v>
       </c>
-      <c r="AG4" s="442"/>
+      <c r="AG4" s="453"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="248" t="s">
@@ -8794,18 +8794,18 @@
       <c r="C5" s="92"/>
       <c r="D5" s="92"/>
       <c r="E5" s="92"/>
-      <c r="Z5" s="438" t="s">
+      <c r="Z5" s="449" t="s">
         <v>106</v>
       </c>
-      <c r="AA5" s="439"/>
-      <c r="AB5" s="439"/>
-      <c r="AC5" s="439"/>
-      <c r="AD5" s="439"/>
-      <c r="AE5" s="440"/>
-      <c r="AF5" s="441" t="s">
+      <c r="AA5" s="450"/>
+      <c r="AB5" s="450"/>
+      <c r="AC5" s="450"/>
+      <c r="AD5" s="450"/>
+      <c r="AE5" s="451"/>
+      <c r="AF5" s="452" t="s">
         <v>107</v>
       </c>
-      <c r="AG5" s="442"/>
+      <c r="AG5" s="453"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="250"/>
@@ -8815,93 +8815,93 @@
       <c r="E6" s="250"/>
     </row>
     <row r="7" spans="1:40" s="253" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="443" t="s">
+      <c r="A7" s="458" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="443"/>
-      <c r="C7" s="443"/>
-      <c r="D7" s="443"/>
-      <c r="E7" s="443"/>
-      <c r="F7" s="443"/>
-      <c r="G7" s="443"/>
-      <c r="H7" s="443"/>
-      <c r="I7" s="443"/>
-      <c r="J7" s="443"/>
-      <c r="K7" s="443"/>
-      <c r="L7" s="443"/>
-      <c r="M7" s="443"/>
-      <c r="N7" s="443"/>
-      <c r="O7" s="443"/>
-      <c r="P7" s="443"/>
-      <c r="Q7" s="443"/>
-      <c r="R7" s="443"/>
-      <c r="S7" s="443"/>
-      <c r="T7" s="443"/>
-      <c r="U7" s="443"/>
-      <c r="V7" s="443"/>
-      <c r="W7" s="443"/>
-      <c r="X7" s="443"/>
-      <c r="Y7" s="443"/>
-      <c r="Z7" s="443"/>
-      <c r="AA7" s="443"/>
-      <c r="AB7" s="443"/>
-      <c r="AC7" s="443"/>
-      <c r="AD7" s="443"/>
-      <c r="AE7" s="443"/>
-      <c r="AF7" s="443"/>
-      <c r="AG7" s="443"/>
-      <c r="AH7" s="443"/>
-      <c r="AI7" s="443"/>
-      <c r="AJ7" s="443"/>
-      <c r="AK7" s="443"/>
-      <c r="AL7" s="443"/>
-      <c r="AM7" s="443"/>
+      <c r="B7" s="458"/>
+      <c r="C7" s="458"/>
+      <c r="D7" s="458"/>
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="458"/>
+      <c r="J7" s="458"/>
+      <c r="K7" s="458"/>
+      <c r="L7" s="458"/>
+      <c r="M7" s="458"/>
+      <c r="N7" s="458"/>
+      <c r="O7" s="458"/>
+      <c r="P7" s="458"/>
+      <c r="Q7" s="458"/>
+      <c r="R7" s="458"/>
+      <c r="S7" s="458"/>
+      <c r="T7" s="458"/>
+      <c r="U7" s="458"/>
+      <c r="V7" s="458"/>
+      <c r="W7" s="458"/>
+      <c r="X7" s="458"/>
+      <c r="Y7" s="458"/>
+      <c r="Z7" s="458"/>
+      <c r="AA7" s="458"/>
+      <c r="AB7" s="458"/>
+      <c r="AC7" s="458"/>
+      <c r="AD7" s="458"/>
+      <c r="AE7" s="458"/>
+      <c r="AF7" s="458"/>
+      <c r="AG7" s="458"/>
+      <c r="AH7" s="458"/>
+      <c r="AI7" s="458"/>
+      <c r="AJ7" s="458"/>
+      <c r="AK7" s="458"/>
+      <c r="AL7" s="458"/>
+      <c r="AM7" s="458"/>
       <c r="AN7" s="252"/>
     </row>
     <row r="9" spans="1:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="444" t="s">
+      <c r="A9" s="459" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="444" t="s">
+      <c r="B9" s="459" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="444" t="s">
+      <c r="C9" s="459" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="447" t="s">
+      <c r="D9" s="462" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="448"/>
-      <c r="F9" s="448"/>
-      <c r="G9" s="448"/>
-      <c r="H9" s="448"/>
-      <c r="I9" s="448"/>
-      <c r="J9" s="448"/>
-      <c r="K9" s="448"/>
-      <c r="L9" s="448"/>
-      <c r="M9" s="448"/>
-      <c r="N9" s="448"/>
-      <c r="O9" s="448"/>
-      <c r="P9" s="448"/>
-      <c r="Q9" s="448"/>
-      <c r="R9" s="448"/>
-      <c r="S9" s="448"/>
-      <c r="T9" s="448"/>
-      <c r="U9" s="448"/>
-      <c r="V9" s="448"/>
-      <c r="W9" s="448"/>
-      <c r="X9" s="448"/>
-      <c r="Y9" s="448"/>
-      <c r="Z9" s="448"/>
-      <c r="AA9" s="448"/>
-      <c r="AB9" s="448"/>
-      <c r="AC9" s="448"/>
-      <c r="AD9" s="448"/>
-      <c r="AE9" s="448"/>
-      <c r="AF9" s="448"/>
-      <c r="AG9" s="448"/>
-      <c r="AH9" s="449"/>
-      <c r="AI9" s="450" t="s">
+      <c r="E9" s="463"/>
+      <c r="F9" s="463"/>
+      <c r="G9" s="463"/>
+      <c r="H9" s="463"/>
+      <c r="I9" s="463"/>
+      <c r="J9" s="463"/>
+      <c r="K9" s="463"/>
+      <c r="L9" s="463"/>
+      <c r="M9" s="463"/>
+      <c r="N9" s="463"/>
+      <c r="O9" s="463"/>
+      <c r="P9" s="463"/>
+      <c r="Q9" s="463"/>
+      <c r="R9" s="463"/>
+      <c r="S9" s="463"/>
+      <c r="T9" s="463"/>
+      <c r="U9" s="463"/>
+      <c r="V9" s="463"/>
+      <c r="W9" s="463"/>
+      <c r="X9" s="463"/>
+      <c r="Y9" s="463"/>
+      <c r="Z9" s="463"/>
+      <c r="AA9" s="463"/>
+      <c r="AB9" s="463"/>
+      <c r="AC9" s="463"/>
+      <c r="AD9" s="463"/>
+      <c r="AE9" s="463"/>
+      <c r="AF9" s="463"/>
+      <c r="AG9" s="463"/>
+      <c r="AH9" s="464"/>
+      <c r="AI9" s="465" t="s">
         <v>112</v>
       </c>
       <c r="AJ9" s="254"/>
@@ -8911,9 +8911,9 @@
       <c r="AN9" s="257"/>
     </row>
     <row r="10" spans="1:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="445"/>
-      <c r="B10" s="445"/>
-      <c r="C10" s="445"/>
+      <c r="A10" s="460"/>
+      <c r="B10" s="460"/>
+      <c r="C10" s="460"/>
       <c r="D10" s="259">
         <v>1</v>
       </c>
@@ -9007,7 +9007,7 @@
       <c r="AH10" s="259">
         <v>31</v>
       </c>
-      <c r="AI10" s="450"/>
+      <c r="AI10" s="465"/>
       <c r="AJ10" s="260"/>
       <c r="AK10" s="256"/>
       <c r="AL10" s="256"/>
@@ -9015,9 +9015,9 @@
       <c r="AN10" s="257"/>
     </row>
     <row r="11" spans="1:40" s="266" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="446"/>
-      <c r="B11" s="446"/>
-      <c r="C11" s="446"/>
+      <c r="A11" s="461"/>
+      <c r="B11" s="461"/>
+      <c r="C11" s="461"/>
       <c r="D11" s="259" t="s">
         <v>116</v>
       </c>
@@ -9111,7 +9111,7 @@
       <c r="AH11" s="261" t="s">
         <v>118</v>
       </c>
-      <c r="AI11" s="450"/>
+      <c r="AI11" s="465"/>
       <c r="AJ11" s="265"/>
       <c r="AN11" s="267"/>
     </row>
@@ -9612,10 +9612,10 @@
       <c r="AN16" s="267"/>
     </row>
     <row r="17" spans="1:40" s="266" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="451" t="s">
+      <c r="A17" s="466" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="452"/>
+      <c r="B17" s="467"/>
       <c r="C17" s="274"/>
       <c r="D17" s="274"/>
       <c r="E17" s="275"/>
@@ -9658,49 +9658,49 @@
       <c r="AN17" s="267"/>
     </row>
     <row r="19" spans="1:40" s="284" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="453" t="s">
+      <c r="A19" s="468" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="453"/>
-      <c r="C19" s="453"/>
-      <c r="D19" s="453"/>
-      <c r="E19" s="453"/>
-      <c r="F19" s="453"/>
-      <c r="G19" s="453"/>
+      <c r="B19" s="468"/>
+      <c r="C19" s="468"/>
+      <c r="D19" s="468"/>
+      <c r="E19" s="468"/>
+      <c r="F19" s="468"/>
+      <c r="G19" s="468"/>
       <c r="H19" s="279"/>
-      <c r="I19" s="454"/>
-      <c r="J19" s="454"/>
-      <c r="K19" s="454"/>
-      <c r="L19" s="454"/>
-      <c r="M19" s="454"/>
+      <c r="I19" s="469"/>
+      <c r="J19" s="469"/>
+      <c r="K19" s="469"/>
+      <c r="L19" s="469"/>
+      <c r="M19" s="469"/>
       <c r="N19" s="280"/>
-      <c r="O19" s="454" t="s">
+      <c r="O19" s="469" t="s">
         <v>122</v>
       </c>
-      <c r="P19" s="454"/>
-      <c r="Q19" s="454"/>
-      <c r="R19" s="454"/>
-      <c r="S19" s="454"/>
-      <c r="T19" s="454"/>
-      <c r="U19" s="454"/>
-      <c r="V19" s="454"/>
-      <c r="W19" s="454"/>
-      <c r="X19" s="454"/>
-      <c r="Y19" s="454"/>
+      <c r="P19" s="469"/>
+      <c r="Q19" s="469"/>
+      <c r="R19" s="469"/>
+      <c r="S19" s="469"/>
+      <c r="T19" s="469"/>
+      <c r="U19" s="469"/>
+      <c r="V19" s="469"/>
+      <c r="W19" s="469"/>
+      <c r="X19" s="469"/>
+      <c r="Y19" s="469"/>
       <c r="Z19" s="281"/>
       <c r="AA19" s="281"/>
       <c r="AB19" s="282"/>
-      <c r="AC19" s="454"/>
-      <c r="AD19" s="454"/>
-      <c r="AE19" s="454"/>
-      <c r="AF19" s="454"/>
-      <c r="AG19" s="454"/>
-      <c r="AH19" s="454"/>
-      <c r="AI19" s="454"/>
-      <c r="AJ19" s="454"/>
-      <c r="AK19" s="454"/>
-      <c r="AL19" s="454"/>
-      <c r="AM19" s="454"/>
+      <c r="AC19" s="469"/>
+      <c r="AD19" s="469"/>
+      <c r="AE19" s="469"/>
+      <c r="AF19" s="469"/>
+      <c r="AG19" s="469"/>
+      <c r="AH19" s="469"/>
+      <c r="AI19" s="469"/>
+      <c r="AJ19" s="469"/>
+      <c r="AK19" s="469"/>
+      <c r="AL19" s="469"/>
+      <c r="AM19" s="469"/>
       <c r="AN19" s="283"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
@@ -9734,131 +9734,131 @@
       <c r="AN34" s="288"/>
     </row>
     <row r="35" spans="3:40" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="437"/>
-      <c r="H35" s="437"/>
-      <c r="I35" s="437"/>
-      <c r="J35" s="437"/>
-      <c r="K35" s="437"/>
-      <c r="L35" s="437"/>
-      <c r="M35" s="437"/>
-      <c r="N35" s="437"/>
-      <c r="O35" s="437"/>
-      <c r="P35" s="437"/>
-      <c r="Q35" s="437"/>
-      <c r="R35" s="437"/>
-      <c r="S35" s="437"/>
-      <c r="T35" s="437"/>
-      <c r="U35" s="437"/>
-      <c r="V35" s="437"/>
-      <c r="W35" s="437"/>
-      <c r="X35" s="437"/>
+      <c r="G35" s="457"/>
+      <c r="H35" s="457"/>
+      <c r="I35" s="457"/>
+      <c r="J35" s="457"/>
+      <c r="K35" s="457"/>
+      <c r="L35" s="457"/>
+      <c r="M35" s="457"/>
+      <c r="N35" s="457"/>
+      <c r="O35" s="457"/>
+      <c r="P35" s="457"/>
+      <c r="Q35" s="457"/>
+      <c r="R35" s="457"/>
+      <c r="S35" s="457"/>
+      <c r="T35" s="457"/>
+      <c r="U35" s="457"/>
+      <c r="V35" s="457"/>
+      <c r="W35" s="457"/>
+      <c r="X35" s="457"/>
       <c r="AN35" s="288"/>
     </row>
     <row r="36" spans="3:40" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="437"/>
-      <c r="H36" s="437"/>
-      <c r="I36" s="437"/>
-      <c r="J36" s="437"/>
-      <c r="K36" s="437"/>
-      <c r="L36" s="437"/>
-      <c r="M36" s="437"/>
-      <c r="N36" s="437"/>
-      <c r="O36" s="437"/>
-      <c r="P36" s="437"/>
-      <c r="Q36" s="437"/>
-      <c r="R36" s="437"/>
-      <c r="S36" s="437"/>
-      <c r="T36" s="437"/>
-      <c r="U36" s="437"/>
-      <c r="V36" s="437"/>
-      <c r="W36" s="437"/>
-      <c r="X36" s="437"/>
+      <c r="G36" s="457"/>
+      <c r="H36" s="457"/>
+      <c r="I36" s="457"/>
+      <c r="J36" s="457"/>
+      <c r="K36" s="457"/>
+      <c r="L36" s="457"/>
+      <c r="M36" s="457"/>
+      <c r="N36" s="457"/>
+      <c r="O36" s="457"/>
+      <c r="P36" s="457"/>
+      <c r="Q36" s="457"/>
+      <c r="R36" s="457"/>
+      <c r="S36" s="457"/>
+      <c r="T36" s="457"/>
+      <c r="U36" s="457"/>
+      <c r="V36" s="457"/>
+      <c r="W36" s="457"/>
+      <c r="X36" s="457"/>
       <c r="AN36" s="288"/>
     </row>
     <row r="37" spans="3:40" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="437"/>
-      <c r="H37" s="437"/>
-      <c r="I37" s="437"/>
-      <c r="J37" s="437"/>
-      <c r="K37" s="437"/>
-      <c r="L37" s="437"/>
-      <c r="M37" s="437"/>
-      <c r="N37" s="437"/>
-      <c r="O37" s="437"/>
-      <c r="P37" s="437"/>
-      <c r="Q37" s="437"/>
-      <c r="R37" s="437"/>
-      <c r="S37" s="437"/>
-      <c r="T37" s="437"/>
-      <c r="U37" s="437"/>
-      <c r="V37" s="437"/>
-      <c r="W37" s="437"/>
-      <c r="X37" s="437"/>
+      <c r="G37" s="457"/>
+      <c r="H37" s="457"/>
+      <c r="I37" s="457"/>
+      <c r="J37" s="457"/>
+      <c r="K37" s="457"/>
+      <c r="L37" s="457"/>
+      <c r="M37" s="457"/>
+      <c r="N37" s="457"/>
+      <c r="O37" s="457"/>
+      <c r="P37" s="457"/>
+      <c r="Q37" s="457"/>
+      <c r="R37" s="457"/>
+      <c r="S37" s="457"/>
+      <c r="T37" s="457"/>
+      <c r="U37" s="457"/>
+      <c r="V37" s="457"/>
+      <c r="W37" s="457"/>
+      <c r="X37" s="457"/>
       <c r="AN37" s="288"/>
     </row>
     <row r="38" spans="3:40" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="437"/>
-      <c r="H38" s="437"/>
-      <c r="I38" s="437"/>
-      <c r="J38" s="437"/>
-      <c r="K38" s="437"/>
-      <c r="L38" s="437"/>
-      <c r="M38" s="437"/>
-      <c r="N38" s="437"/>
-      <c r="O38" s="437"/>
-      <c r="P38" s="437"/>
-      <c r="Q38" s="437"/>
-      <c r="R38" s="437"/>
-      <c r="S38" s="437"/>
-      <c r="T38" s="437"/>
-      <c r="U38" s="437"/>
-      <c r="V38" s="437"/>
-      <c r="W38" s="437"/>
-      <c r="X38" s="437"/>
+      <c r="G38" s="457"/>
+      <c r="H38" s="457"/>
+      <c r="I38" s="457"/>
+      <c r="J38" s="457"/>
+      <c r="K38" s="457"/>
+      <c r="L38" s="457"/>
+      <c r="M38" s="457"/>
+      <c r="N38" s="457"/>
+      <c r="O38" s="457"/>
+      <c r="P38" s="457"/>
+      <c r="Q38" s="457"/>
+      <c r="R38" s="457"/>
+      <c r="S38" s="457"/>
+      <c r="T38" s="457"/>
+      <c r="U38" s="457"/>
+      <c r="V38" s="457"/>
+      <c r="W38" s="457"/>
+      <c r="X38" s="457"/>
       <c r="AN38" s="288"/>
     </row>
     <row r="39" spans="3:40" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="437"/>
-      <c r="H39" s="437"/>
-      <c r="I39" s="437"/>
-      <c r="J39" s="437"/>
-      <c r="K39" s="437"/>
-      <c r="L39" s="437"/>
-      <c r="M39" s="437"/>
-      <c r="N39" s="437"/>
-      <c r="O39" s="437"/>
-      <c r="P39" s="437"/>
-      <c r="Q39" s="437"/>
-      <c r="R39" s="437"/>
-      <c r="S39" s="437"/>
-      <c r="T39" s="437"/>
-      <c r="U39" s="437"/>
-      <c r="V39" s="437"/>
-      <c r="W39" s="437"/>
-      <c r="X39" s="437"/>
+      <c r="G39" s="457"/>
+      <c r="H39" s="457"/>
+      <c r="I39" s="457"/>
+      <c r="J39" s="457"/>
+      <c r="K39" s="457"/>
+      <c r="L39" s="457"/>
+      <c r="M39" s="457"/>
+      <c r="N39" s="457"/>
+      <c r="O39" s="457"/>
+      <c r="P39" s="457"/>
+      <c r="Q39" s="457"/>
+      <c r="R39" s="457"/>
+      <c r="S39" s="457"/>
+      <c r="T39" s="457"/>
+      <c r="U39" s="457"/>
+      <c r="V39" s="457"/>
+      <c r="W39" s="457"/>
+      <c r="X39" s="457"/>
       <c r="AN39" s="288"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="246"/>
       <c r="D40" s="246"/>
-      <c r="G40" s="437"/>
-      <c r="H40" s="437"/>
-      <c r="I40" s="437"/>
-      <c r="J40" s="437"/>
-      <c r="K40" s="437"/>
-      <c r="L40" s="437"/>
-      <c r="M40" s="437"/>
-      <c r="N40" s="437"/>
-      <c r="O40" s="437"/>
-      <c r="P40" s="437"/>
-      <c r="Q40" s="437"/>
-      <c r="R40" s="437"/>
-      <c r="S40" s="437"/>
-      <c r="T40" s="437"/>
-      <c r="U40" s="437"/>
-      <c r="V40" s="437"/>
-      <c r="W40" s="437"/>
-      <c r="X40" s="437"/>
+      <c r="G40" s="457"/>
+      <c r="H40" s="457"/>
+      <c r="I40" s="457"/>
+      <c r="J40" s="457"/>
+      <c r="K40" s="457"/>
+      <c r="L40" s="457"/>
+      <c r="M40" s="457"/>
+      <c r="N40" s="457"/>
+      <c r="O40" s="457"/>
+      <c r="P40" s="457"/>
+      <c r="Q40" s="457"/>
+      <c r="R40" s="457"/>
+      <c r="S40" s="457"/>
+      <c r="T40" s="457"/>
+      <c r="U40" s="457"/>
+      <c r="V40" s="457"/>
+      <c r="W40" s="457"/>
+      <c r="X40" s="457"/>
       <c r="AN40" s="246"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
@@ -9868,13 +9868,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -9889,6 +9882,13 @@
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="O19:Y19"/>
     <mergeCell ref="AC19:AM19"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10739,40 +10739,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="42" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="468" t="s">
+      <c r="A1" s="470" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="468"/>
-      <c r="C1" s="468"/>
-      <c r="D1" s="468"/>
+      <c r="B1" s="470"/>
+      <c r="C1" s="470"/>
+      <c r="D1" s="470"/>
       <c r="E1" s="93"/>
-      <c r="F1" s="469" t="s">
+      <c r="F1" s="471" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="469"/>
-      <c r="H1" s="469"/>
-      <c r="I1" s="469"/>
-      <c r="J1" s="469"/>
-      <c r="K1" s="469"/>
-      <c r="L1" s="469"/>
+      <c r="G1" s="471"/>
+      <c r="H1" s="471"/>
+      <c r="I1" s="471"/>
+      <c r="J1" s="471"/>
+      <c r="K1" s="471"/>
+      <c r="L1" s="471"/>
     </row>
     <row r="2" spans="1:13" s="42" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="470" t="s">
+      <c r="A2" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="470"/>
-      <c r="C2" s="470"/>
-      <c r="D2" s="470"/>
+      <c r="B2" s="472"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="472"/>
       <c r="E2" s="93"/>
-      <c r="F2" s="471" t="s">
+      <c r="F2" s="473" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="471"/>
-      <c r="H2" s="471"/>
-      <c r="I2" s="471"/>
-      <c r="J2" s="471"/>
-      <c r="K2" s="471"/>
-      <c r="L2" s="471"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="473"/>
+      <c r="I2" s="473"/>
+      <c r="J2" s="473"/>
+      <c r="K2" s="473"/>
+      <c r="L2" s="473"/>
     </row>
     <row r="3" spans="1:13" s="42" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
@@ -10786,45 +10786,45 @@
       <c r="J3" s="94"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="472" t="s">
+      <c r="A4" s="474" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="472"/>
-      <c r="C4" s="472"/>
-      <c r="D4" s="472"/>
-      <c r="E4" s="472"/>
-      <c r="F4" s="472"/>
-      <c r="G4" s="472"/>
-      <c r="H4" s="472"/>
-      <c r="I4" s="472"/>
-      <c r="J4" s="472"/>
-      <c r="K4" s="472"/>
-      <c r="L4" s="472"/>
-      <c r="M4" s="472"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="474"/>
+      <c r="D4" s="474"/>
+      <c r="E4" s="474"/>
+      <c r="F4" s="474"/>
+      <c r="G4" s="474"/>
+      <c r="H4" s="474"/>
+      <c r="I4" s="474"/>
+      <c r="J4" s="474"/>
+      <c r="K4" s="474"/>
+      <c r="L4" s="474"/>
+      <c r="M4" s="474"/>
     </row>
     <row r="5" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="458" t="s">
+      <c r="A5" s="475" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
-      <c r="D5" s="458"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="458"/>
-      <c r="G5" s="458"/>
-      <c r="H5" s="458"/>
-      <c r="I5" s="458"/>
-      <c r="J5" s="458"/>
-      <c r="K5" s="458"/>
-      <c r="L5" s="458"/>
-      <c r="M5" s="458"/>
+      <c r="B5" s="475"/>
+      <c r="C5" s="475"/>
+      <c r="D5" s="475"/>
+      <c r="E5" s="475"/>
+      <c r="F5" s="475"/>
+      <c r="G5" s="475"/>
+      <c r="H5" s="475"/>
+      <c r="I5" s="475"/>
+      <c r="J5" s="475"/>
+      <c r="K5" s="475"/>
+      <c r="L5" s="475"/>
+      <c r="M5" s="475"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="459" t="s">
+      <c r="K6" s="476" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="459"/>
-      <c r="M6" s="459"/>
+      <c r="L6" s="476"/>
+      <c r="M6" s="476"/>
     </row>
     <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
@@ -10895,10 +10895,10 @@
       <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="460" t="s">
+      <c r="A9" s="477" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="461"/>
+      <c r="B9" s="478"/>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
       <c r="E9" s="55"/>
@@ -11012,11 +11012,11 @@
       <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="465" t="s">
+      <c r="A13" s="482" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="466"/>
-      <c r="C13" s="467"/>
+      <c r="B13" s="483"/>
+      <c r="C13" s="484"/>
       <c r="D13" s="102">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -11050,10 +11050,10 @@
       <c r="M13" s="104"/>
     </row>
     <row r="14" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="462" t="s">
+      <c r="A14" s="479" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="463"/>
+      <c r="B14" s="480"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
       <c r="E14" s="111"/>
@@ -11131,11 +11131,11 @@
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="465" t="s">
+      <c r="A17" s="482" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="466"/>
-      <c r="C17" s="467"/>
+      <c r="B17" s="483"/>
+      <c r="C17" s="484"/>
       <c r="D17" s="105">
         <f>SUM(D15:D16)</f>
         <v>8000000</v>
@@ -11169,14 +11169,14 @@
       <c r="M17" s="104"/>
     </row>
     <row r="19" spans="1:13" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="464"/>
-      <c r="C19" s="464"/>
-      <c r="D19" s="464"/>
+      <c r="B19" s="481"/>
+      <c r="C19" s="481"/>
+      <c r="D19" s="481"/>
       <c r="E19" s="95"/>
-      <c r="I19" s="464"/>
-      <c r="J19" s="464"/>
-      <c r="K19" s="464"/>
-      <c r="L19" s="464"/>
+      <c r="I19" s="481"/>
+      <c r="J19" s="481"/>
+      <c r="K19" s="481"/>
+      <c r="L19" s="481"/>
     </row>
     <row r="20" spans="1:13" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="112" t="s">
@@ -11219,11 +11219,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -11232,6 +11227,11 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11272,83 +11272,83 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="474" t="s">
+      <c r="A3" s="507" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="474"/>
-      <c r="C3" s="474"/>
-      <c r="D3" s="474"/>
-      <c r="E3" s="474"/>
-      <c r="F3" s="474"/>
-      <c r="G3" s="474"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="474"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="474"/>
-      <c r="L3" s="474"/>
-      <c r="M3" s="474"/>
-      <c r="N3" s="474"/>
-      <c r="O3" s="474"/>
-      <c r="P3" s="474"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="507"/>
+      <c r="I3" s="507"/>
+      <c r="J3" s="507"/>
+      <c r="K3" s="507"/>
+      <c r="L3" s="507"/>
+      <c r="M3" s="507"/>
+      <c r="N3" s="507"/>
+      <c r="O3" s="507"/>
+      <c r="P3" s="507"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="475" t="s">
+      <c r="A4" s="508" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="475"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="475"/>
-      <c r="E4" s="475"/>
-      <c r="F4" s="475"/>
-      <c r="G4" s="475"/>
-      <c r="H4" s="475"/>
-      <c r="I4" s="475"/>
-      <c r="J4" s="475"/>
-      <c r="K4" s="476"/>
-      <c r="L4" s="475"/>
-      <c r="M4" s="475"/>
-      <c r="N4" s="475"/>
-      <c r="O4" s="475"/>
-      <c r="P4" s="475"/>
+      <c r="B4" s="508"/>
+      <c r="C4" s="508"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="508"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="508"/>
+      <c r="H4" s="508"/>
+      <c r="I4" s="508"/>
+      <c r="J4" s="508"/>
+      <c r="K4" s="509"/>
+      <c r="L4" s="508"/>
+      <c r="M4" s="508"/>
+      <c r="N4" s="508"/>
+      <c r="O4" s="508"/>
+      <c r="P4" s="508"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="477" t="s">
+      <c r="A5" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="479" t="s">
+      <c r="B5" s="512" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="481" t="s">
+      <c r="C5" s="514" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="481" t="s">
+      <c r="D5" s="514" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="481"/>
-      <c r="F5" s="481"/>
-      <c r="G5" s="483" t="s">
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="516" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="483"/>
-      <c r="I5" s="483"/>
-      <c r="J5" s="483"/>
-      <c r="K5" s="484"/>
-      <c r="L5" s="485" t="s">
+      <c r="H5" s="516"/>
+      <c r="I5" s="516"/>
+      <c r="J5" s="516"/>
+      <c r="K5" s="517"/>
+      <c r="L5" s="518" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="483" t="s">
+      <c r="M5" s="516" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="483"/>
-      <c r="O5" s="483"/>
-      <c r="P5" s="487" t="s">
+      <c r="N5" s="516"/>
+      <c r="O5" s="516"/>
+      <c r="P5" s="520" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="478"/>
-      <c r="B6" s="480"/>
-      <c r="C6" s="482"/>
+      <c r="A6" s="511"/>
+      <c r="B6" s="513"/>
+      <c r="C6" s="515"/>
       <c r="D6" s="90" t="s">
         <v>41</v>
       </c>
@@ -11373,7 +11373,7 @@
       <c r="K6" s="322" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="486"/>
+      <c r="L6" s="519"/>
       <c r="M6" s="90" t="s">
         <v>46</v>
       </c>
@@ -11383,7 +11383,7 @@
       <c r="O6" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="488"/>
+      <c r="P6" s="521"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="338">
@@ -11496,12 +11496,12 @@
       <c r="P11" s="164"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="489"/>
-      <c r="B12" s="492"/>
-      <c r="C12" s="495"/>
-      <c r="D12" s="498"/>
-      <c r="E12" s="495"/>
-      <c r="F12" s="495"/>
+      <c r="A12" s="488"/>
+      <c r="B12" s="500"/>
+      <c r="C12" s="497"/>
+      <c r="D12" s="503"/>
+      <c r="E12" s="497"/>
+      <c r="F12" s="497"/>
       <c r="G12" s="305"/>
       <c r="H12" s="305"/>
       <c r="I12" s="306"/>
@@ -11514,12 +11514,12 @@
       <c r="P12" s="309"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="490"/>
-      <c r="B13" s="493"/>
-      <c r="C13" s="496"/>
-      <c r="D13" s="499"/>
-      <c r="E13" s="496"/>
-      <c r="F13" s="496"/>
+      <c r="A13" s="489"/>
+      <c r="B13" s="501"/>
+      <c r="C13" s="498"/>
+      <c r="D13" s="504"/>
+      <c r="E13" s="498"/>
+      <c r="F13" s="498"/>
       <c r="G13" s="310"/>
       <c r="H13" s="310"/>
       <c r="I13" s="311"/>
@@ -11532,12 +11532,12 @@
       <c r="P13" s="314"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="490"/>
-      <c r="B14" s="493"/>
-      <c r="C14" s="496"/>
-      <c r="D14" s="499"/>
-      <c r="E14" s="496"/>
-      <c r="F14" s="496"/>
+      <c r="A14" s="489"/>
+      <c r="B14" s="501"/>
+      <c r="C14" s="498"/>
+      <c r="D14" s="504"/>
+      <c r="E14" s="498"/>
+      <c r="F14" s="498"/>
       <c r="G14" s="310"/>
       <c r="H14" s="310"/>
       <c r="I14" s="311"/>
@@ -11550,12 +11550,12 @@
       <c r="P14" s="314"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="490"/>
-      <c r="B15" s="493"/>
-      <c r="C15" s="496"/>
-      <c r="D15" s="499"/>
-      <c r="E15" s="496"/>
-      <c r="F15" s="496"/>
+      <c r="A15" s="489"/>
+      <c r="B15" s="501"/>
+      <c r="C15" s="498"/>
+      <c r="D15" s="504"/>
+      <c r="E15" s="498"/>
+      <c r="F15" s="498"/>
       <c r="G15" s="310"/>
       <c r="H15" s="310"/>
       <c r="I15" s="311"/>
@@ -11568,12 +11568,12 @@
       <c r="P15" s="314"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="490"/>
-      <c r="B16" s="493"/>
-      <c r="C16" s="496"/>
-      <c r="D16" s="499"/>
-      <c r="E16" s="496"/>
-      <c r="F16" s="496"/>
+      <c r="A16" s="489"/>
+      <c r="B16" s="501"/>
+      <c r="C16" s="498"/>
+      <c r="D16" s="504"/>
+      <c r="E16" s="498"/>
+      <c r="F16" s="498"/>
       <c r="G16" s="310"/>
       <c r="H16" s="310"/>
       <c r="I16" s="311"/>
@@ -11586,12 +11586,12 @@
       <c r="P16" s="314"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="490"/>
-      <c r="B17" s="493"/>
-      <c r="C17" s="496"/>
-      <c r="D17" s="499"/>
-      <c r="E17" s="496"/>
-      <c r="F17" s="496"/>
+      <c r="A17" s="489"/>
+      <c r="B17" s="501"/>
+      <c r="C17" s="498"/>
+      <c r="D17" s="504"/>
+      <c r="E17" s="498"/>
+      <c r="F17" s="498"/>
       <c r="G17" s="310"/>
       <c r="H17" s="310"/>
       <c r="I17" s="311"/>
@@ -11604,12 +11604,12 @@
       <c r="P17" s="314"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="490"/>
-      <c r="B18" s="493"/>
-      <c r="C18" s="496"/>
-      <c r="D18" s="499"/>
-      <c r="E18" s="496"/>
-      <c r="F18" s="496"/>
+      <c r="A18" s="489"/>
+      <c r="B18" s="501"/>
+      <c r="C18" s="498"/>
+      <c r="D18" s="504"/>
+      <c r="E18" s="498"/>
+      <c r="F18" s="498"/>
       <c r="G18" s="310"/>
       <c r="H18" s="310"/>
       <c r="I18" s="311"/>
@@ -11622,12 +11622,12 @@
       <c r="P18" s="314"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="490"/>
-      <c r="B19" s="493"/>
-      <c r="C19" s="496"/>
-      <c r="D19" s="499"/>
-      <c r="E19" s="496"/>
-      <c r="F19" s="496"/>
+      <c r="A19" s="489"/>
+      <c r="B19" s="501"/>
+      <c r="C19" s="498"/>
+      <c r="D19" s="504"/>
+      <c r="E19" s="498"/>
+      <c r="F19" s="498"/>
       <c r="G19" s="310"/>
       <c r="H19" s="310"/>
       <c r="I19" s="311"/>
@@ -11640,12 +11640,12 @@
       <c r="P19" s="314"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="491"/>
-      <c r="B20" s="494"/>
-      <c r="C20" s="497"/>
-      <c r="D20" s="500"/>
-      <c r="E20" s="497"/>
-      <c r="F20" s="497"/>
+      <c r="A20" s="490"/>
+      <c r="B20" s="502"/>
+      <c r="C20" s="499"/>
+      <c r="D20" s="505"/>
+      <c r="E20" s="499"/>
+      <c r="F20" s="499"/>
       <c r="G20" s="315"/>
       <c r="H20" s="315"/>
       <c r="I20" s="316"/>
@@ -11676,11 +11676,11 @@
       <c r="P21" s="323"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="489"/>
-      <c r="B22" s="504"/>
-      <c r="C22" s="489"/>
-      <c r="D22" s="507"/>
-      <c r="E22" s="489"/>
+      <c r="A22" s="488"/>
+      <c r="B22" s="491"/>
+      <c r="C22" s="488"/>
+      <c r="D22" s="494"/>
+      <c r="E22" s="488"/>
       <c r="F22" s="324"/>
       <c r="G22" s="324"/>
       <c r="H22" s="324"/>
@@ -11694,11 +11694,11 @@
       <c r="P22" s="324"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="490"/>
-      <c r="B23" s="505"/>
-      <c r="C23" s="490"/>
-      <c r="D23" s="508"/>
-      <c r="E23" s="490"/>
+      <c r="A23" s="489"/>
+      <c r="B23" s="492"/>
+      <c r="C23" s="489"/>
+      <c r="D23" s="495"/>
+      <c r="E23" s="489"/>
       <c r="F23" s="325"/>
       <c r="G23" s="325"/>
       <c r="H23" s="325"/>
@@ -11712,11 +11712,11 @@
       <c r="P23" s="325"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="490"/>
-      <c r="B24" s="505"/>
-      <c r="C24" s="490"/>
-      <c r="D24" s="508"/>
-      <c r="E24" s="490"/>
+      <c r="A24" s="489"/>
+      <c r="B24" s="492"/>
+      <c r="C24" s="489"/>
+      <c r="D24" s="495"/>
+      <c r="E24" s="489"/>
       <c r="F24" s="325"/>
       <c r="G24" s="325"/>
       <c r="H24" s="325"/>
@@ -11730,11 +11730,11 @@
       <c r="P24" s="325"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="491"/>
-      <c r="B25" s="506"/>
-      <c r="C25" s="491"/>
-      <c r="D25" s="509"/>
-      <c r="E25" s="491"/>
+      <c r="A25" s="490"/>
+      <c r="B25" s="493"/>
+      <c r="C25" s="490"/>
+      <c r="D25" s="496"/>
+      <c r="E25" s="490"/>
       <c r="F25" s="326"/>
       <c r="G25" s="326"/>
       <c r="H25" s="326"/>
@@ -11748,10 +11748,10 @@
       <c r="P25" s="326"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="489"/>
-      <c r="B26" s="504"/>
-      <c r="C26" s="489"/>
-      <c r="D26" s="501"/>
+      <c r="A26" s="488"/>
+      <c r="B26" s="491"/>
+      <c r="C26" s="488"/>
+      <c r="D26" s="485"/>
       <c r="E26" s="324"/>
       <c r="F26" s="324"/>
       <c r="G26" s="324"/>
@@ -11766,10 +11766,10 @@
       <c r="P26" s="324"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="490"/>
-      <c r="B27" s="505"/>
-      <c r="C27" s="490"/>
-      <c r="D27" s="502"/>
+      <c r="A27" s="489"/>
+      <c r="B27" s="492"/>
+      <c r="C27" s="489"/>
+      <c r="D27" s="486"/>
       <c r="E27" s="325"/>
       <c r="F27" s="325"/>
       <c r="G27" s="325"/>
@@ -11784,10 +11784,10 @@
       <c r="P27" s="325"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="491"/>
-      <c r="B28" s="506"/>
-      <c r="C28" s="491"/>
-      <c r="D28" s="503"/>
+      <c r="A28" s="490"/>
+      <c r="B28" s="493"/>
+      <c r="C28" s="490"/>
+      <c r="D28" s="487"/>
       <c r="E28" s="326"/>
       <c r="F28" s="326"/>
       <c r="G28" s="326"/>
@@ -11820,14 +11820,14 @@
       <c r="P29" s="323"/>
     </row>
     <row r="30" spans="1:16" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="473" t="s">
+      <c r="A30" s="506" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="473"/>
-      <c r="C30" s="473"/>
-      <c r="D30" s="473"/>
-      <c r="E30" s="473"/>
-      <c r="F30" s="473"/>
+      <c r="B30" s="506"/>
+      <c r="C30" s="506"/>
+      <c r="D30" s="506"/>
+      <c r="E30" s="506"/>
+      <c r="F30" s="506"/>
       <c r="G30" s="149"/>
       <c r="H30" s="149">
         <f>SUM(H7:H28)</f>
@@ -11921,20 +11921,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="F12:F20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="E12:E20"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:P4"/>
@@ -11947,6 +11933,20 @@
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="A12:A20"/>
+    <mergeCell ref="F12:F20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
@@ -1202,7 +1202,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="525">
+  <cellXfs count="522">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1697,15 +1697,6 @@
     <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2208,9 +2199,6 @@
     <xf numFmtId="166" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2250,6 +2238,45 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2280,11 +2307,56 @@
     <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2292,17 +2364,35 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="32" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="32" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2319,57 +2409,6 @@
     <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2379,12 +2418,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2394,51 +2460,33 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2475,13 +2523,19 @@
     <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2514,20 +2568,50 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2577,24 +2661,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2613,86 +2679,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3013,7 +3004,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="218" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="215" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="122" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="122" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" style="127" bestFit="1" customWidth="1"/>
@@ -3024,7 +3015,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="123"/>
@@ -3037,7 +3028,7 @@
       <c r="H1" s="128"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="211" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="129"/>
@@ -3050,7 +3041,7 @@
       <c r="H2" s="133"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="214"/>
+      <c r="A3" s="211"/>
       <c r="B3" s="129"/>
       <c r="C3" s="130"/>
       <c r="D3" s="131"/>
@@ -3060,15 +3051,15 @@
       <c r="H3" s="135"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="381" t="s">
+      <c r="A4" s="390" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="381"/>
-      <c r="C4" s="381"/>
-      <c r="D4" s="381"/>
-      <c r="E4" s="381"/>
-      <c r="F4" s="381"/>
-      <c r="G4" s="381"/>
+      <c r="B4" s="390"/>
+      <c r="C4" s="390"/>
+      <c r="D4" s="390"/>
+      <c r="E4" s="390"/>
+      <c r="F4" s="390"/>
+      <c r="G4" s="390"/>
       <c r="H4" s="135"/>
     </row>
     <row r="5" spans="1:8" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3080,28 +3071,28 @@
       <c r="G5" s="132"/>
     </row>
     <row r="6" spans="1:8" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="382" t="s">
+      <c r="A6" s="391" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="382" t="s">
+      <c r="B6" s="391" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="384" t="s">
+      <c r="C6" s="393" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="386" t="s">
+      <c r="D6" s="395" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="386"/>
-      <c r="F6" s="386" t="s">
+      <c r="E6" s="395"/>
+      <c r="F6" s="395" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="386"/>
+      <c r="G6" s="395"/>
     </row>
     <row r="7" spans="1:8" s="133" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="383"/>
-      <c r="B7" s="383"/>
-      <c r="C7" s="385"/>
+      <c r="A7" s="392"/>
+      <c r="B7" s="392"/>
+      <c r="C7" s="394"/>
       <c r="D7" s="137" t="s">
         <v>90</v>
       </c>
@@ -3116,7 +3107,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="215"/>
+      <c r="A8" s="212"/>
       <c r="B8" s="119"/>
       <c r="C8" s="120"/>
       <c r="D8" s="121"/>
@@ -3125,7 +3116,7 @@
       <c r="G8" s="138"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="215"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="119"/>
       <c r="C9" s="120"/>
       <c r="D9" s="121"/>
@@ -3134,7 +3125,7 @@
       <c r="G9" s="138"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="215"/>
+      <c r="A10" s="212"/>
       <c r="B10" s="119"/>
       <c r="C10" s="120"/>
       <c r="D10" s="121"/>
@@ -3143,7 +3134,7 @@
       <c r="G10" s="138"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="215"/>
+      <c r="A11" s="212"/>
       <c r="B11" s="119"/>
       <c r="C11" s="120"/>
       <c r="D11" s="121"/>
@@ -3152,7 +3143,7 @@
       <c r="G11" s="138"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="215"/>
+      <c r="A12" s="212"/>
       <c r="B12" s="119"/>
       <c r="C12" s="120"/>
       <c r="D12" s="121"/>
@@ -3161,7 +3152,7 @@
       <c r="G12" s="138"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="215"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="119"/>
       <c r="C13" s="120"/>
       <c r="D13" s="121"/>
@@ -3170,7 +3161,7 @@
       <c r="G13" s="138"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="215"/>
+      <c r="A14" s="212"/>
       <c r="B14" s="119"/>
       <c r="C14" s="120"/>
       <c r="D14" s="121"/>
@@ -3179,7 +3170,7 @@
       <c r="G14" s="138"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="215"/>
+      <c r="A15" s="212"/>
       <c r="B15" s="119"/>
       <c r="C15" s="120"/>
       <c r="D15" s="121"/>
@@ -3188,7 +3179,7 @@
       <c r="G15" s="138"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="215"/>
+      <c r="A16" s="212"/>
       <c r="B16" s="119"/>
       <c r="C16" s="120"/>
       <c r="D16" s="121"/>
@@ -3197,7 +3188,7 @@
       <c r="G16" s="138"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="215"/>
+      <c r="A17" s="212"/>
       <c r="B17" s="119"/>
       <c r="C17" s="120"/>
       <c r="D17" s="121"/>
@@ -3206,7 +3197,7 @@
       <c r="G17" s="138"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="215"/>
+      <c r="A18" s="212"/>
       <c r="B18" s="119"/>
       <c r="C18" s="120"/>
       <c r="D18" s="121"/>
@@ -3215,7 +3206,7 @@
       <c r="G18" s="138"/>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="215"/>
+      <c r="A19" s="212"/>
       <c r="B19" s="119"/>
       <c r="C19" s="120"/>
       <c r="D19" s="121"/>
@@ -3224,7 +3215,7 @@
       <c r="G19" s="138"/>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="215"/>
+      <c r="A20" s="212"/>
       <c r="B20" s="119"/>
       <c r="C20" s="120"/>
       <c r="D20" s="121"/>
@@ -3233,7 +3224,7 @@
       <c r="G20" s="138"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="215"/>
+      <c r="A21" s="212"/>
       <c r="B21" s="119"/>
       <c r="C21" s="120"/>
       <c r="D21" s="121"/>
@@ -3242,7 +3233,7 @@
       <c r="G21" s="138"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="215"/>
+      <c r="A22" s="212"/>
       <c r="B22" s="119"/>
       <c r="C22" s="120"/>
       <c r="D22" s="121"/>
@@ -3251,7 +3242,7 @@
       <c r="G22" s="138"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="215"/>
+      <c r="A23" s="212"/>
       <c r="B23" s="119"/>
       <c r="C23" s="120"/>
       <c r="D23" s="121"/>
@@ -3260,7 +3251,7 @@
       <c r="G23" s="138"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="215"/>
+      <c r="A24" s="212"/>
       <c r="B24" s="119"/>
       <c r="C24" s="120"/>
       <c r="D24" s="121"/>
@@ -3269,7 +3260,7 @@
       <c r="G24" s="138"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="215"/>
+      <c r="A25" s="212"/>
       <c r="B25" s="119"/>
       <c r="C25" s="120"/>
       <c r="D25" s="121"/>
@@ -3278,7 +3269,7 @@
       <c r="G25" s="138"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="215"/>
+      <c r="A26" s="212"/>
       <c r="B26" s="119"/>
       <c r="C26" s="120"/>
       <c r="D26" s="121"/>
@@ -3287,7 +3278,7 @@
       <c r="G26" s="138"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="215"/>
+      <c r="A27" s="212"/>
       <c r="B27" s="119"/>
       <c r="C27" s="139"/>
       <c r="D27" s="121"/>
@@ -3296,7 +3287,7 @@
       <c r="G27" s="138"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="215"/>
+      <c r="A28" s="212"/>
       <c r="B28" s="119"/>
       <c r="C28" s="120"/>
       <c r="D28" s="121"/>
@@ -3305,7 +3296,7 @@
       <c r="G28" s="140"/>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="215"/>
+      <c r="A29" s="212"/>
       <c r="B29" s="119"/>
       <c r="C29" s="120"/>
       <c r="D29" s="121"/>
@@ -3314,7 +3305,7 @@
       <c r="G29" s="140"/>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="215"/>
+      <c r="A30" s="212"/>
       <c r="B30" s="119"/>
       <c r="C30" s="120"/>
       <c r="D30" s="121"/>
@@ -3323,7 +3314,7 @@
       <c r="G30" s="140"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="215"/>
+      <c r="A31" s="212"/>
       <c r="B31" s="119"/>
       <c r="C31" s="141"/>
       <c r="D31" s="121"/>
@@ -3332,7 +3323,7 @@
       <c r="G31" s="140"/>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="215"/>
+      <c r="A32" s="212"/>
       <c r="B32" s="119"/>
       <c r="C32" s="120"/>
       <c r="D32" s="121"/>
@@ -3341,7 +3332,7 @@
       <c r="G32" s="140"/>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="215"/>
+      <c r="A33" s="212"/>
       <c r="B33" s="119"/>
       <c r="C33" s="139"/>
       <c r="D33" s="121"/>
@@ -3350,7 +3341,7 @@
       <c r="G33" s="140"/>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="215"/>
+      <c r="A34" s="212"/>
       <c r="B34" s="119"/>
       <c r="C34" s="139"/>
       <c r="D34" s="121"/>
@@ -3359,7 +3350,7 @@
       <c r="G34" s="140"/>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="215"/>
+      <c r="A35" s="212"/>
       <c r="B35" s="119"/>
       <c r="C35" s="120"/>
       <c r="D35" s="121"/>
@@ -3368,7 +3359,7 @@
       <c r="G35" s="140"/>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="215"/>
+      <c r="A36" s="212"/>
       <c r="B36" s="119"/>
       <c r="C36" s="120"/>
       <c r="D36" s="121"/>
@@ -3377,7 +3368,7 @@
       <c r="G36" s="140"/>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="215"/>
+      <c r="A37" s="212"/>
       <c r="B37" s="119"/>
       <c r="C37" s="120"/>
       <c r="D37" s="121"/>
@@ -3386,7 +3377,7 @@
       <c r="G37" s="140"/>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="215"/>
+      <c r="A38" s="212"/>
       <c r="B38" s="119"/>
       <c r="C38" s="120"/>
       <c r="D38" s="121"/>
@@ -3395,7 +3386,7 @@
       <c r="G38" s="140"/>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="215"/>
+      <c r="A39" s="212"/>
       <c r="B39" s="119"/>
       <c r="C39" s="120"/>
       <c r="D39" s="121"/>
@@ -3404,7 +3395,7 @@
       <c r="G39" s="140"/>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="215"/>
+      <c r="A40" s="212"/>
       <c r="B40" s="119"/>
       <c r="C40" s="120"/>
       <c r="D40" s="121"/>
@@ -3413,7 +3404,7 @@
       <c r="G40" s="140"/>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="215"/>
+      <c r="A41" s="212"/>
       <c r="B41" s="119"/>
       <c r="C41" s="120"/>
       <c r="D41" s="121"/>
@@ -3422,7 +3413,7 @@
       <c r="G41" s="140"/>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="215"/>
+      <c r="A42" s="212"/>
       <c r="B42" s="119"/>
       <c r="C42" s="120"/>
       <c r="D42" s="121"/>
@@ -3430,8 +3421,8 @@
       <c r="F42" s="121"/>
       <c r="G42" s="140"/>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="215"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="212"/>
       <c r="B43" s="119"/>
       <c r="C43" s="120"/>
       <c r="D43" s="121"/>
@@ -3439,8 +3430,8 @@
       <c r="F43" s="121"/>
       <c r="G43" s="140"/>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="215"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="212"/>
       <c r="B44" s="119"/>
       <c r="C44" s="120"/>
       <c r="D44" s="121"/>
@@ -3448,8 +3439,8 @@
       <c r="F44" s="121"/>
       <c r="G44" s="140"/>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="215"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="212"/>
       <c r="B45" s="119"/>
       <c r="C45" s="120"/>
       <c r="D45" s="121"/>
@@ -3457,8 +3448,8 @@
       <c r="F45" s="121"/>
       <c r="G45" s="140"/>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="215"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="212"/>
       <c r="B46" s="119"/>
       <c r="C46" s="120"/>
       <c r="D46" s="121"/>
@@ -3466,8 +3457,8 @@
       <c r="F46" s="121"/>
       <c r="G46" s="140"/>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="215"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="212"/>
       <c r="B47" s="119"/>
       <c r="C47" s="120"/>
       <c r="D47" s="121"/>
@@ -3475,8 +3466,8 @@
       <c r="F47" s="121"/>
       <c r="G47" s="140"/>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="215"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="212"/>
       <c r="B48" s="119"/>
       <c r="C48" s="120"/>
       <c r="D48" s="121"/>
@@ -3484,8 +3475,8 @@
       <c r="F48" s="121"/>
       <c r="G48" s="140"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="215"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="212"/>
       <c r="B49" s="119"/>
       <c r="C49" s="120"/>
       <c r="D49" s="121"/>
@@ -3493,8 +3484,8 @@
       <c r="F49" s="121"/>
       <c r="G49" s="140"/>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="215"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="212"/>
       <c r="B50" s="119"/>
       <c r="C50" s="120"/>
       <c r="D50" s="121"/>
@@ -3502,8 +3493,8 @@
       <c r="F50" s="121"/>
       <c r="G50" s="140"/>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="215"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="212"/>
       <c r="B51" s="119"/>
       <c r="C51" s="120"/>
       <c r="D51" s="121"/>
@@ -3511,8 +3502,8 @@
       <c r="F51" s="121"/>
       <c r="G51" s="140"/>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="215"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="212"/>
       <c r="B52" s="119"/>
       <c r="C52" s="120"/>
       <c r="D52" s="121"/>
@@ -3520,17 +3511,17 @@
       <c r="F52" s="121"/>
       <c r="G52" s="140"/>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="345"/>
-      <c r="B53" s="346"/>
-      <c r="C53" s="347"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="342"/>
+      <c r="B53" s="343"/>
+      <c r="C53" s="344"/>
       <c r="D53" s="121"/>
       <c r="E53" s="138"/>
       <c r="F53" s="121"/>
       <c r="G53" s="140"/>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="215"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="212"/>
       <c r="B54" s="119"/>
       <c r="C54" s="120"/>
       <c r="D54" s="121" t="s">
@@ -3540,8 +3531,8 @@
       <c r="F54" s="121"/>
       <c r="G54" s="140"/>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="215"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="212"/>
       <c r="B55" s="119"/>
       <c r="C55" s="120"/>
       <c r="D55" s="121"/>
@@ -3549,8 +3540,8 @@
       <c r="F55" s="121"/>
       <c r="G55" s="140"/>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="215"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="212"/>
       <c r="B56" s="119"/>
       <c r="C56" s="120"/>
       <c r="D56" s="121"/>
@@ -3558,8 +3549,8 @@
       <c r="F56" s="121"/>
       <c r="G56" s="140"/>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="215"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="212"/>
       <c r="B57" s="119"/>
       <c r="C57" s="120"/>
       <c r="D57" s="121"/>
@@ -3567,8 +3558,8 @@
       <c r="F57" s="121"/>
       <c r="G57" s="140"/>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="215"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="212"/>
       <c r="B58" s="119"/>
       <c r="C58" s="120"/>
       <c r="D58" s="121"/>
@@ -3576,8 +3567,8 @@
       <c r="F58" s="121"/>
       <c r="G58" s="140"/>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="215"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="212"/>
       <c r="B59" s="119"/>
       <c r="C59" s="120"/>
       <c r="D59" s="121"/>
@@ -3585,8 +3576,8 @@
       <c r="F59" s="121"/>
       <c r="G59" s="140"/>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="215"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="212"/>
       <c r="B60" s="119"/>
       <c r="C60" s="120"/>
       <c r="D60" s="121"/>
@@ -3594,8 +3585,8 @@
       <c r="F60" s="121"/>
       <c r="G60" s="140"/>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="215"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="212"/>
       <c r="B61" s="119"/>
       <c r="C61" s="120"/>
       <c r="D61" s="121"/>
@@ -3604,7 +3595,7 @@
       <c r="G61" s="140"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="215"/>
+      <c r="A62" s="212"/>
       <c r="B62" s="119"/>
       <c r="C62" s="120"/>
       <c r="D62" s="121"/>
@@ -3613,7 +3604,7 @@
       <c r="G62" s="140"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="215"/>
+      <c r="A63" s="212"/>
       <c r="B63" s="119"/>
       <c r="C63" s="120"/>
       <c r="D63" s="121"/>
@@ -3622,7 +3613,7 @@
       <c r="G63" s="140"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="215"/>
+      <c r="A64" s="212"/>
       <c r="B64" s="119"/>
       <c r="C64" s="120"/>
       <c r="D64" s="121"/>
@@ -3631,7 +3622,7 @@
       <c r="G64" s="140"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="215"/>
+      <c r="A65" s="212"/>
       <c r="B65" s="119"/>
       <c r="C65" s="120"/>
       <c r="D65" s="121"/>
@@ -3640,7 +3631,7 @@
       <c r="G65" s="140"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="215"/>
+      <c r="A66" s="212"/>
       <c r="B66" s="119"/>
       <c r="C66" s="141"/>
       <c r="D66" s="121"/>
@@ -3649,7 +3640,7 @@
       <c r="G66" s="140"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="215"/>
+      <c r="A67" s="212"/>
       <c r="B67" s="119"/>
       <c r="C67" s="141"/>
       <c r="D67" s="121"/>
@@ -3658,7 +3649,7 @@
       <c r="G67" s="140"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="215"/>
+      <c r="A68" s="212"/>
       <c r="B68" s="119"/>
       <c r="C68" s="141"/>
       <c r="D68" s="121"/>
@@ -3667,7 +3658,7 @@
       <c r="G68" s="140"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="215"/>
+      <c r="A69" s="212"/>
       <c r="B69" s="119"/>
       <c r="C69" s="120"/>
       <c r="D69" s="121"/>
@@ -3676,7 +3667,7 @@
       <c r="G69" s="140"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="215"/>
+      <c r="A70" s="212"/>
       <c r="B70" s="119"/>
       <c r="C70" s="120"/>
       <c r="D70" s="121"/>
@@ -3685,7 +3676,7 @@
       <c r="G70" s="140"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="215"/>
+      <c r="A71" s="212"/>
       <c r="B71" s="119"/>
       <c r="C71" s="120"/>
       <c r="D71" s="121"/>
@@ -3694,7 +3685,7 @@
       <c r="G71" s="140"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="215"/>
+      <c r="A72" s="212"/>
       <c r="B72" s="119"/>
       <c r="C72" s="120"/>
       <c r="D72" s="121"/>
@@ -3703,7 +3694,7 @@
       <c r="G72" s="140"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="215"/>
+      <c r="A73" s="212"/>
       <c r="B73" s="119"/>
       <c r="C73" s="120"/>
       <c r="D73" s="121"/>
@@ -3712,7 +3703,7 @@
       <c r="G73" s="140"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="215"/>
+      <c r="A74" s="212"/>
       <c r="B74" s="119"/>
       <c r="C74" s="120"/>
       <c r="D74" s="121"/>
@@ -3721,7 +3712,7 @@
       <c r="G74" s="140"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="215"/>
+      <c r="A75" s="212"/>
       <c r="B75" s="119"/>
       <c r="C75" s="120"/>
       <c r="D75" s="121"/>
@@ -3730,7 +3721,7 @@
       <c r="G75" s="140"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="215"/>
+      <c r="A76" s="212"/>
       <c r="B76" s="119"/>
       <c r="C76" s="120"/>
       <c r="D76" s="121"/>
@@ -3739,7 +3730,7 @@
       <c r="G76" s="140"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="215"/>
+      <c r="A77" s="212"/>
       <c r="B77" s="119"/>
       <c r="C77" s="120"/>
       <c r="D77" s="121"/>
@@ -3748,11 +3739,11 @@
       <c r="G77" s="140"/>
     </row>
     <row r="78" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="378" t="s">
+      <c r="A78" s="387" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="379"/>
-      <c r="C78" s="380"/>
+      <c r="B78" s="388"/>
+      <c r="C78" s="389"/>
       <c r="D78" s="142">
         <f>SUM(D8:D77)</f>
         <v>0</v>
@@ -3771,7 +3762,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="216"/>
+      <c r="A79" s="213"/>
       <c r="B79" s="144"/>
       <c r="C79" s="144"/>
       <c r="D79" s="145"/>
@@ -3780,10 +3771,10 @@
       <c r="G79" s="145"/>
     </row>
     <row r="80" spans="1:7" s="143" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A80" s="377" t="s">
+      <c r="A80" s="386" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="377"/>
+      <c r="B80" s="386"/>
       <c r="C80" s="144"/>
       <c r="D80" s="145"/>
       <c r="E80" s="145"/>
@@ -3791,7 +3782,7 @@
       <c r="G80" s="145"/>
     </row>
     <row r="81" spans="1:8" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="216"/>
+      <c r="A81" s="213"/>
       <c r="B81" s="144"/>
       <c r="C81" s="144"/>
       <c r="D81" s="145"/>
@@ -3800,25 +3791,25 @@
       <c r="G81" s="145"/>
     </row>
     <row r="82" spans="1:8" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="339"/>
-      <c r="B82" s="340"/>
-      <c r="C82" s="341"/>
-      <c r="D82" s="342"/>
-      <c r="E82" s="343"/>
-      <c r="F82" s="342"/>
-      <c r="G82" s="344"/>
+      <c r="A82" s="336"/>
+      <c r="B82" s="337"/>
+      <c r="C82" s="338"/>
+      <c r="D82" s="339"/>
+      <c r="E82" s="340"/>
+      <c r="F82" s="339"/>
+      <c r="G82" s="341"/>
     </row>
     <row r="83" spans="1:8" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="339"/>
-      <c r="B83" s="340"/>
-      <c r="C83" s="341"/>
-      <c r="D83" s="342"/>
-      <c r="E83" s="343"/>
-      <c r="F83" s="342"/>
-      <c r="G83" s="344"/>
+      <c r="A83" s="336"/>
+      <c r="B83" s="337"/>
+      <c r="C83" s="338"/>
+      <c r="D83" s="339"/>
+      <c r="E83" s="340"/>
+      <c r="F83" s="339"/>
+      <c r="G83" s="341"/>
     </row>
     <row r="84" spans="1:8" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="216"/>
+      <c r="A84" s="213"/>
       <c r="B84" s="144"/>
       <c r="C84" s="144"/>
       <c r="D84" s="145"/>
@@ -3827,7 +3818,7 @@
       <c r="G84" s="145"/>
     </row>
     <row r="85" spans="1:8" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="217"/>
+      <c r="A85" s="214"/>
       <c r="B85" s="112" t="s">
         <v>120</v>
       </c>
@@ -3841,7 +3832,7 @@
       <c r="H85" s="75"/>
     </row>
     <row r="86" spans="1:8" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="217"/>
+      <c r="A86" s="214"/>
       <c r="B86" s="4" t="s">
         <v>15</v>
       </c>
@@ -3886,40 +3877,40 @@
   <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="185"/>
-    <col min="2" max="2" width="11.5546875" style="201" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="518"/>
+    <col min="2" max="2" width="11.5546875" style="198" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="379"/>
     <col min="4" max="4" width="12.6640625" style="185" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="185" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.109375" style="185"/>
-    <col min="8" max="8" width="13.33203125" style="202" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="202" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="202" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="203"/>
-    <col min="12" max="12" width="15.88671875" style="202" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="202" customWidth="1"/>
-    <col min="14" max="14" width="15" style="202" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="202" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" style="202" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="199" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="199" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="199" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="200"/>
+    <col min="12" max="12" width="15.88671875" style="199" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="199" customWidth="1"/>
+    <col min="14" max="14" width="15" style="199" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="199" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="199" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" style="185" customWidth="1"/>
     <col min="18" max="18" width="13" style="185" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.109375" style="185"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="170" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="419" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
+      <c r="B1" s="419"/>
+      <c r="C1" s="419"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="419"/>
       <c r="H1" s="171"/>
       <c r="I1" s="171"/>
       <c r="J1" s="171"/>
@@ -3935,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="175"/>
-      <c r="C2" s="508"/>
+      <c r="C2" s="374"/>
       <c r="D2" s="174"/>
       <c r="E2" s="174"/>
       <c r="H2" s="171"/>
@@ -3949,173 +3940,173 @@
       <c r="P2" s="171"/>
     </row>
     <row r="3" spans="1:18" s="170" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="387" t="s">
+      <c r="A3" s="419" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="387"/>
-      <c r="C3" s="387"/>
-      <c r="D3" s="387"/>
-      <c r="E3" s="387"/>
-      <c r="F3" s="387"/>
-      <c r="G3" s="387"/>
-      <c r="H3" s="387"/>
-      <c r="I3" s="387"/>
-      <c r="J3" s="387"/>
-      <c r="K3" s="387"/>
-      <c r="L3" s="387"/>
-      <c r="M3" s="387"/>
-      <c r="N3" s="387"/>
-      <c r="O3" s="387"/>
-      <c r="P3" s="387"/>
-      <c r="Q3" s="387"/>
+      <c r="B3" s="419"/>
+      <c r="C3" s="419"/>
+      <c r="D3" s="419"/>
+      <c r="E3" s="419"/>
+      <c r="F3" s="419"/>
+      <c r="G3" s="419"/>
+      <c r="H3" s="419"/>
+      <c r="I3" s="419"/>
+      <c r="J3" s="419"/>
+      <c r="K3" s="419"/>
+      <c r="L3" s="419"/>
+      <c r="M3" s="419"/>
+      <c r="N3" s="419"/>
+      <c r="O3" s="419"/>
+      <c r="P3" s="419"/>
+      <c r="Q3" s="419"/>
     </row>
     <row r="4" spans="1:18" s="170" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="387" t="s">
+      <c r="A4" s="419" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="387"/>
-      <c r="C4" s="387"/>
-      <c r="D4" s="387"/>
-      <c r="E4" s="387"/>
-      <c r="F4" s="387"/>
-      <c r="G4" s="387"/>
-      <c r="H4" s="387"/>
-      <c r="I4" s="387"/>
-      <c r="J4" s="387"/>
-      <c r="K4" s="387"/>
-      <c r="L4" s="387"/>
-      <c r="M4" s="387"/>
-      <c r="N4" s="387"/>
-      <c r="O4" s="387"/>
-      <c r="P4" s="387"/>
-      <c r="Q4" s="387"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="419"/>
+      <c r="D4" s="419"/>
+      <c r="E4" s="419"/>
+      <c r="F4" s="419"/>
+      <c r="G4" s="419"/>
+      <c r="H4" s="419"/>
+      <c r="I4" s="419"/>
+      <c r="J4" s="419"/>
+      <c r="K4" s="419"/>
+      <c r="L4" s="419"/>
+      <c r="M4" s="419"/>
+      <c r="N4" s="419"/>
+      <c r="O4" s="419"/>
+      <c r="P4" s="419"/>
+      <c r="Q4" s="419"/>
     </row>
     <row r="5" spans="1:18" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="387"/>
-      <c r="B5" s="387"/>
-      <c r="C5" s="387"/>
-      <c r="D5" s="387"/>
-      <c r="E5" s="387"/>
-      <c r="F5" s="387"/>
-      <c r="G5" s="387"/>
-      <c r="H5" s="387"/>
-      <c r="I5" s="387"/>
-      <c r="J5" s="387"/>
-      <c r="K5" s="388"/>
-      <c r="L5" s="388"/>
+      <c r="A5" s="419"/>
+      <c r="B5" s="419"/>
+      <c r="C5" s="419"/>
+      <c r="D5" s="419"/>
+      <c r="E5" s="419"/>
+      <c r="F5" s="419"/>
+      <c r="G5" s="419"/>
+      <c r="H5" s="419"/>
+      <c r="I5" s="419"/>
+      <c r="J5" s="419"/>
+      <c r="K5" s="420"/>
+      <c r="L5" s="420"/>
       <c r="M5" s="177"/>
       <c r="N5" s="171"/>
       <c r="O5" s="171"/>
       <c r="P5" s="171"/>
     </row>
     <row r="6" spans="1:18" s="178" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="413" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="391" t="s">
+      <c r="B6" s="421" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="509" t="s">
+      <c r="C6" s="423" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="395" t="s">
+      <c r="D6" s="425" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="395"/>
-      <c r="F6" s="396" t="s">
+      <c r="E6" s="425"/>
+      <c r="F6" s="426" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="396"/>
-      <c r="H6" s="396"/>
-      <c r="I6" s="396"/>
-      <c r="J6" s="396"/>
-      <c r="K6" s="396"/>
-      <c r="L6" s="396"/>
-      <c r="M6" s="400" t="s">
+      <c r="G6" s="426"/>
+      <c r="H6" s="426"/>
+      <c r="I6" s="426"/>
+      <c r="J6" s="426"/>
+      <c r="K6" s="426"/>
+      <c r="L6" s="426"/>
+      <c r="M6" s="415" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="397"/>
-      <c r="O6" s="397"/>
-      <c r="P6" s="397"/>
-      <c r="Q6" s="398" t="s">
+      <c r="N6" s="427"/>
+      <c r="O6" s="427"/>
+      <c r="P6" s="427"/>
+      <c r="Q6" s="428" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="178" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
-      <c r="B7" s="392"/>
-      <c r="C7" s="510"/>
-      <c r="D7" s="389" t="s">
+      <c r="A7" s="414"/>
+      <c r="B7" s="422"/>
+      <c r="C7" s="424"/>
+      <c r="D7" s="413" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="389" t="s">
+      <c r="E7" s="413" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="389" t="s">
+      <c r="F7" s="413" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="389" t="s">
+      <c r="G7" s="413" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="393" t="s">
+      <c r="H7" s="411" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="393" t="s">
+      <c r="I7" s="411" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="403" t="s">
+      <c r="J7" s="418" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="403"/>
-      <c r="L7" s="393" t="s">
+      <c r="K7" s="418"/>
+      <c r="L7" s="411" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="401"/>
-      <c r="N7" s="393" t="s">
+      <c r="M7" s="416"/>
+      <c r="N7" s="411" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="393" t="s">
+      <c r="O7" s="411" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="393" t="s">
+      <c r="P7" s="411" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="399"/>
+      <c r="Q7" s="429"/>
     </row>
     <row r="8" spans="1:18" s="178" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="390"/>
-      <c r="B8" s="392"/>
-      <c r="C8" s="510"/>
-      <c r="D8" s="390"/>
-      <c r="E8" s="390"/>
-      <c r="F8" s="390"/>
-      <c r="G8" s="390"/>
-      <c r="H8" s="394"/>
-      <c r="I8" s="394"/>
+      <c r="A8" s="414"/>
+      <c r="B8" s="422"/>
+      <c r="C8" s="424"/>
+      <c r="D8" s="414"/>
+      <c r="E8" s="414"/>
+      <c r="F8" s="414"/>
+      <c r="G8" s="414"/>
+      <c r="H8" s="412"/>
+      <c r="I8" s="412"/>
       <c r="J8" s="179" t="s">
         <v>93</v>
       </c>
       <c r="K8" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="394"/>
-      <c r="M8" s="402"/>
-      <c r="N8" s="394"/>
-      <c r="O8" s="394"/>
-      <c r="P8" s="394"/>
-      <c r="Q8" s="399"/>
+      <c r="L8" s="412"/>
+      <c r="M8" s="417"/>
+      <c r="N8" s="412"/>
+      <c r="O8" s="412"/>
+      <c r="P8" s="412"/>
+      <c r="Q8" s="429"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="181">
         <v>547</v>
       </c>
-      <c r="B9" s="374">
+      <c r="B9" s="370">
         <v>43974</v>
       </c>
-      <c r="C9" s="511" t="s">
+      <c r="C9" s="375" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="373" t="s">
+      <c r="D9" s="369" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="181" t="s">
@@ -4155,13 +4146,13 @@
       <c r="A10" s="181">
         <v>550</v>
       </c>
-      <c r="B10" s="374">
+      <c r="B10" s="370">
         <v>43974</v>
       </c>
-      <c r="C10" s="511" t="s">
+      <c r="C10" s="375" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="373" t="s">
+      <c r="D10" s="369" t="s">
         <v>138</v>
       </c>
       <c r="E10" s="181" t="s">
@@ -4201,14 +4192,14 @@
       <c r="A11" s="181">
         <v>556</v>
       </c>
-      <c r="B11" s="374">
+      <c r="B11" s="370">
         <v>43976</v>
       </c>
-      <c r="C11" s="511"/>
-      <c r="D11" s="373" t="s">
+      <c r="C11" s="375"/>
+      <c r="D11" s="369" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="373" t="s">
+      <c r="E11" s="369" t="s">
         <v>142</v>
       </c>
       <c r="F11" s="181" t="s">
@@ -4244,19 +4235,19 @@
       <c r="Q11" s="181"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="408">
+      <c r="A12" s="396">
         <v>557</v>
       </c>
-      <c r="B12" s="410">
+      <c r="B12" s="398">
         <v>43981</v>
       </c>
-      <c r="C12" s="512" t="s">
+      <c r="C12" s="405" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="408" t="s">
+      <c r="D12" s="396" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="408" t="s">
+      <c r="E12" s="396" t="s">
         <v>144</v>
       </c>
       <c r="F12" s="181" t="s">
@@ -4288,17 +4279,17 @@
         <v>265500.00000000006</v>
       </c>
       <c r="Q12" s="181"/>
-      <c r="R12" s="192">
+      <c r="R12" s="189">
         <f>2100000-(P12+P13+P15+L31)</f>
         <v>834449.99999999977</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="409"/>
-      <c r="B13" s="411"/>
-      <c r="C13" s="513"/>
-      <c r="D13" s="409"/>
-      <c r="E13" s="409"/>
+      <c r="A13" s="397"/>
+      <c r="B13" s="399"/>
+      <c r="C13" s="406"/>
+      <c r="D13" s="397"/>
+      <c r="E13" s="397"/>
       <c r="F13" s="181" t="s">
         <v>145</v>
       </c>
@@ -4333,14 +4324,14 @@
       <c r="A14" s="181">
         <v>558</v>
       </c>
-      <c r="B14" s="374">
+      <c r="B14" s="370">
         <v>43981</v>
       </c>
-      <c r="C14" s="412" t="s">
+      <c r="C14" s="402" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="413"/>
-      <c r="E14" s="414"/>
+      <c r="D14" s="403"/>
+      <c r="E14" s="404"/>
       <c r="F14" s="181" t="s">
         <v>147</v>
       </c>
@@ -4373,16 +4364,16 @@
       <c r="A15" s="181">
         <v>559</v>
       </c>
-      <c r="B15" s="374">
+      <c r="B15" s="370">
         <v>43982</v>
       </c>
-      <c r="C15" s="511" t="s">
+      <c r="C15" s="375" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="375" t="s">
+      <c r="D15" s="371" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="375" t="s">
+      <c r="E15" s="371" t="s">
         <v>144</v>
       </c>
       <c r="F15" s="181" t="s">
@@ -4419,16 +4410,16 @@
       <c r="A16" s="181">
         <v>560</v>
       </c>
-      <c r="B16" s="374">
+      <c r="B16" s="370">
         <v>43983</v>
       </c>
-      <c r="C16" s="511" t="s">
+      <c r="C16" s="375" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="375" t="s">
+      <c r="D16" s="371" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="375" t="s">
+      <c r="E16" s="371" t="s">
         <v>150</v>
       </c>
       <c r="F16" s="181" t="s">
@@ -4462,19 +4453,19 @@
       <c r="Q16" s="186"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="408">
+      <c r="A17" s="396">
         <v>563</v>
       </c>
-      <c r="B17" s="410">
+      <c r="B17" s="398">
         <v>43986</v>
       </c>
-      <c r="C17" s="512" t="s">
+      <c r="C17" s="405" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="415" t="s">
+      <c r="D17" s="400" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="415" t="s">
+      <c r="E17" s="400" t="s">
         <v>155</v>
       </c>
       <c r="F17" s="181" t="s">
@@ -4508,11 +4499,11 @@
       <c r="Q17" s="186"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="409"/>
-      <c r="B18" s="411"/>
-      <c r="C18" s="513"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="416"/>
+      <c r="A18" s="397"/>
+      <c r="B18" s="399"/>
+      <c r="C18" s="406"/>
+      <c r="D18" s="401"/>
+      <c r="E18" s="401"/>
       <c r="F18" s="181" t="s">
         <v>151</v>
       </c>
@@ -4547,16 +4538,16 @@
       <c r="A19" s="181">
         <v>564</v>
       </c>
-      <c r="B19" s="374">
+      <c r="B19" s="370">
         <v>43986</v>
       </c>
-      <c r="C19" s="511" t="s">
+      <c r="C19" s="375" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="375" t="s">
+      <c r="D19" s="371" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="375" t="s">
+      <c r="E19" s="371" t="s">
         <v>158</v>
       </c>
       <c r="F19" s="181" t="s">
@@ -4593,14 +4584,14 @@
       <c r="A20" s="181">
         <v>566</v>
       </c>
-      <c r="B20" s="374">
+      <c r="B20" s="370">
         <v>43990</v>
       </c>
-      <c r="C20" s="511"/>
-      <c r="D20" s="373" t="s">
+      <c r="C20" s="375"/>
+      <c r="D20" s="369" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="373" t="s">
+      <c r="E20" s="369" t="s">
         <v>142</v>
       </c>
       <c r="F20" s="181" t="s">
@@ -4634,17 +4625,17 @@
       <c r="Q20" s="186"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="408">
+      <c r="A21" s="396">
         <v>567</v>
       </c>
-      <c r="B21" s="410">
+      <c r="B21" s="398">
         <v>43990</v>
       </c>
-      <c r="C21" s="408"/>
-      <c r="D21" s="415" t="s">
+      <c r="C21" s="396"/>
+      <c r="D21" s="400" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="415" t="s">
+      <c r="E21" s="400" t="s">
         <v>161</v>
       </c>
       <c r="F21" s="181" t="s">
@@ -4678,11 +4669,11 @@
       <c r="Q21" s="186"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="409"/>
-      <c r="B22" s="411"/>
-      <c r="C22" s="409"/>
-      <c r="D22" s="416"/>
-      <c r="E22" s="416"/>
+      <c r="A22" s="397"/>
+      <c r="B22" s="399"/>
+      <c r="C22" s="397"/>
+      <c r="D22" s="401"/>
+      <c r="E22" s="401"/>
       <c r="F22" s="181" t="s">
         <v>148</v>
       </c>
@@ -4696,16 +4687,16 @@
         <f t="shared" si="1"/>
         <v>1365000</v>
       </c>
-      <c r="J22" s="519"/>
+      <c r="J22" s="380"/>
       <c r="K22" s="184">
         <v>0.41</v>
       </c>
-      <c r="L22" s="520">
+      <c r="L22" s="381">
         <f t="shared" si="2"/>
         <v>805350.00000000012</v>
       </c>
       <c r="M22" s="183"/>
-      <c r="N22" s="520"/>
+      <c r="N22" s="381"/>
       <c r="O22" s="183"/>
       <c r="P22" s="183">
         <f>L22</f>
@@ -4714,17 +4705,17 @@
       <c r="Q22" s="186"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="181">
-        <v>568</v>
-      </c>
-      <c r="B23" s="374">
+      <c r="A23" s="396">
+        <v>571</v>
+      </c>
+      <c r="B23" s="398">
         <v>43990</v>
       </c>
-      <c r="C23" s="511"/>
-      <c r="D23" s="373" t="s">
+      <c r="C23" s="396"/>
+      <c r="D23" s="396" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="373" t="s">
+      <c r="E23" s="396" t="s">
         <v>163</v>
       </c>
       <c r="F23" s="181" t="s">
@@ -4740,24 +4731,27 @@
         <f t="shared" si="1"/>
         <v>18360000</v>
       </c>
-      <c r="J23" s="519"/>
+      <c r="J23" s="380"/>
       <c r="K23" s="184"/>
-      <c r="L23" s="520">
+      <c r="L23" s="381">
         <f t="shared" si="2"/>
         <v>18360000</v>
       </c>
       <c r="M23" s="183"/>
-      <c r="N23" s="520"/>
+      <c r="N23" s="381"/>
       <c r="O23" s="183"/>
-      <c r="P23" s="183"/>
+      <c r="P23" s="183">
+        <f>L23</f>
+        <v>18360000</v>
+      </c>
       <c r="Q23" s="181"/>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
-      <c r="B24" s="374"/>
-      <c r="C24" s="511"/>
-      <c r="D24" s="373"/>
-      <c r="E24" s="373"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="520"/>
+      <c r="B24" s="521"/>
+      <c r="C24" s="520"/>
+      <c r="D24" s="520"/>
+      <c r="E24" s="520"/>
       <c r="F24" s="181" t="s">
         <v>159</v>
       </c>
@@ -4771,24 +4765,27 @@
         <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-      <c r="J24" s="519"/>
+      <c r="J24" s="380"/>
       <c r="K24" s="184"/>
-      <c r="L24" s="520">
+      <c r="L24" s="381">
         <f t="shared" si="2"/>
         <v>16380000</v>
       </c>
       <c r="M24" s="183"/>
-      <c r="N24" s="520"/>
+      <c r="N24" s="381"/>
       <c r="O24" s="183"/>
-      <c r="P24" s="183"/>
+      <c r="P24" s="183">
+        <f t="shared" ref="P24:P30" si="3">L24</f>
+        <v>16380000</v>
+      </c>
       <c r="Q24" s="181"/>
     </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="181"/>
-      <c r="B25" s="374"/>
-      <c r="C25" s="511"/>
-      <c r="D25" s="373"/>
-      <c r="E25" s="375"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="520"/>
+      <c r="B25" s="521"/>
+      <c r="C25" s="520"/>
+      <c r="D25" s="520"/>
+      <c r="E25" s="520"/>
       <c r="F25" s="181" t="s">
         <v>164</v>
       </c>
@@ -4802,24 +4799,27 @@
         <f t="shared" si="1"/>
         <v>39060000</v>
       </c>
-      <c r="J25" s="519"/>
+      <c r="J25" s="380"/>
       <c r="K25" s="184"/>
-      <c r="L25" s="520">
+      <c r="L25" s="381">
         <f t="shared" si="2"/>
         <v>39060000</v>
       </c>
       <c r="M25" s="183"/>
       <c r="N25" s="183"/>
       <c r="O25" s="183"/>
-      <c r="P25" s="183"/>
+      <c r="P25" s="183">
+        <f t="shared" si="3"/>
+        <v>39060000</v>
+      </c>
       <c r="Q25" s="181"/>
     </row>
-    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
-      <c r="B26" s="374"/>
-      <c r="C26" s="511"/>
-      <c r="D26" s="373"/>
-      <c r="E26" s="375"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="520"/>
+      <c r="B26" s="521"/>
+      <c r="C26" s="520"/>
+      <c r="D26" s="520"/>
+      <c r="E26" s="520"/>
       <c r="F26" s="181" t="s">
         <v>139</v>
       </c>
@@ -4833,55 +4833,61 @@
         <f t="shared" si="1"/>
         <v>5700000</v>
       </c>
-      <c r="J26" s="519"/>
+      <c r="J26" s="380"/>
       <c r="K26" s="184"/>
-      <c r="L26" s="520">
+      <c r="L26" s="381">
         <f t="shared" si="2"/>
         <v>5700000</v>
       </c>
       <c r="M26" s="183"/>
       <c r="N26" s="183"/>
       <c r="O26" s="183"/>
-      <c r="P26" s="183"/>
+      <c r="P26" s="183">
+        <f t="shared" si="3"/>
+        <v>5700000</v>
+      </c>
       <c r="Q26" s="181"/>
     </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="376"/>
-      <c r="B27" s="362"/>
-      <c r="C27" s="514"/>
-      <c r="D27" s="359"/>
-      <c r="E27" s="363"/>
-      <c r="F27" s="376" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="520"/>
+      <c r="B27" s="521"/>
+      <c r="C27" s="520"/>
+      <c r="D27" s="520"/>
+      <c r="E27" s="520"/>
+      <c r="F27" s="372" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="376">
+      <c r="G27" s="372">
         <v>60</v>
       </c>
-      <c r="H27" s="231">
+      <c r="H27" s="228">
         <v>485000</v>
       </c>
-      <c r="I27" s="231">
+      <c r="I27" s="228">
         <f t="shared" si="1"/>
         <v>29100000</v>
       </c>
-      <c r="J27" s="364"/>
-      <c r="K27" s="287"/>
-      <c r="L27" s="520">
+      <c r="J27" s="360"/>
+      <c r="K27" s="284"/>
+      <c r="L27" s="381">
         <f t="shared" si="2"/>
         <v>29100000</v>
       </c>
-      <c r="M27" s="231"/>
-      <c r="N27" s="231"/>
-      <c r="O27" s="231"/>
-      <c r="P27" s="231"/>
+      <c r="M27" s="228"/>
+      <c r="N27" s="228"/>
+      <c r="O27" s="228"/>
+      <c r="P27" s="183">
+        <f t="shared" si="3"/>
+        <v>29100000</v>
+      </c>
       <c r="Q27" s="181"/>
     </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="376"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="514"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="188"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="520"/>
+      <c r="B28" s="521"/>
+      <c r="C28" s="520"/>
+      <c r="D28" s="520"/>
+      <c r="E28" s="520"/>
       <c r="F28" s="181" t="s">
         <v>156</v>
       </c>
@@ -4895,24 +4901,27 @@
         <f t="shared" si="1"/>
         <v>13200000</v>
       </c>
-      <c r="J28" s="191"/>
+      <c r="J28" s="188"/>
       <c r="K28" s="184"/>
-      <c r="L28" s="520">
+      <c r="L28" s="381">
         <f t="shared" si="2"/>
         <v>13200000</v>
       </c>
       <c r="M28" s="183"/>
       <c r="N28" s="183"/>
       <c r="O28" s="183"/>
-      <c r="P28" s="183"/>
+      <c r="P28" s="183">
+        <f t="shared" si="3"/>
+        <v>13200000</v>
+      </c>
       <c r="Q28" s="181"/>
     </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="181"/>
-      <c r="B29" s="182"/>
-      <c r="C29" s="511"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="186"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="520"/>
+      <c r="B29" s="521"/>
+      <c r="C29" s="520"/>
+      <c r="D29" s="520"/>
+      <c r="E29" s="520"/>
       <c r="F29" s="181" t="s">
         <v>166</v>
       </c>
@@ -4928,22 +4937,25 @@
       </c>
       <c r="J29" s="183"/>
       <c r="K29" s="184"/>
-      <c r="L29" s="520">
+      <c r="L29" s="381">
         <f t="shared" si="2"/>
         <v>21840000</v>
       </c>
       <c r="M29" s="183"/>
       <c r="N29" s="183"/>
       <c r="O29" s="183"/>
-      <c r="P29" s="183"/>
+      <c r="P29" s="183">
+        <f t="shared" si="3"/>
+        <v>21840000</v>
+      </c>
       <c r="Q29" s="186"/>
     </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
-      <c r="B30" s="521"/>
-      <c r="C30" s="511"/>
-      <c r="D30" s="373"/>
-      <c r="E30" s="375"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="397"/>
+      <c r="B30" s="399"/>
+      <c r="C30" s="397"/>
+      <c r="D30" s="397"/>
+      <c r="E30" s="397"/>
       <c r="F30" s="181" t="s">
         <v>167</v>
       </c>
@@ -4959,30 +4971,33 @@
       </c>
       <c r="J30" s="183"/>
       <c r="K30" s="184"/>
-      <c r="L30" s="520">
+      <c r="L30" s="381">
         <f t="shared" si="2"/>
         <v>5460000</v>
       </c>
       <c r="M30" s="183"/>
       <c r="N30" s="183"/>
       <c r="O30" s="183"/>
-      <c r="P30" s="183"/>
+      <c r="P30" s="183">
+        <f t="shared" si="3"/>
+        <v>5460000</v>
+      </c>
       <c r="Q30" s="181"/>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="181">
         <v>569</v>
       </c>
-      <c r="B31" s="374">
+      <c r="B31" s="370">
         <v>43991</v>
       </c>
-      <c r="C31" s="511" t="s">
+      <c r="C31" s="375" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="373" t="s">
+      <c r="D31" s="369" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="375"/>
+      <c r="E31" s="371"/>
       <c r="F31" s="181" t="s">
         <v>156</v>
       </c>
@@ -5017,16 +5032,16 @@
       <c r="A32" s="181">
         <v>570</v>
       </c>
-      <c r="B32" s="374">
+      <c r="B32" s="370">
         <v>43992</v>
       </c>
-      <c r="C32" s="511" t="s">
+      <c r="C32" s="375" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="375" t="s">
+      <c r="D32" s="371" t="s">
         <v>136</v>
       </c>
-      <c r="E32" s="373"/>
+      <c r="E32" s="369"/>
       <c r="F32" s="181" t="s">
         <v>156</v>
       </c>
@@ -5059,10 +5074,10 @@
     </row>
     <row r="33" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="165"/>
-      <c r="B33" s="522"/>
-      <c r="C33" s="515"/>
-      <c r="D33" s="523"/>
-      <c r="E33" s="507"/>
+      <c r="B33" s="383"/>
+      <c r="C33" s="376"/>
+      <c r="D33" s="384"/>
+      <c r="E33" s="373"/>
       <c r="F33" s="165"/>
       <c r="G33" s="165"/>
       <c r="H33" s="166"/>
@@ -5081,10 +5096,10 @@
     </row>
     <row r="34" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="165"/>
-      <c r="B34" s="522"/>
-      <c r="C34" s="515"/>
-      <c r="D34" s="523"/>
-      <c r="E34" s="507"/>
+      <c r="B34" s="383"/>
+      <c r="C34" s="376"/>
+      <c r="D34" s="384"/>
+      <c r="E34" s="373"/>
       <c r="F34" s="165"/>
       <c r="G34" s="165"/>
       <c r="H34" s="166"/>
@@ -5103,10 +5118,10 @@
     </row>
     <row r="35" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="165"/>
-      <c r="B35" s="522"/>
-      <c r="C35" s="515"/>
-      <c r="D35" s="523"/>
-      <c r="E35" s="507"/>
+      <c r="B35" s="383"/>
+      <c r="C35" s="376"/>
+      <c r="D35" s="384"/>
+      <c r="E35" s="373"/>
       <c r="F35" s="165"/>
       <c r="G35" s="165"/>
       <c r="H35" s="166"/>
@@ -5125,10 +5140,10 @@
     </row>
     <row r="36" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="165"/>
-      <c r="B36" s="522"/>
-      <c r="C36" s="515"/>
-      <c r="D36" s="523"/>
-      <c r="E36" s="507"/>
+      <c r="B36" s="383"/>
+      <c r="C36" s="376"/>
+      <c r="D36" s="384"/>
+      <c r="E36" s="373"/>
       <c r="F36" s="165"/>
       <c r="G36" s="165"/>
       <c r="H36" s="166"/>
@@ -5147,10 +5162,10 @@
     </row>
     <row r="37" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="165"/>
-      <c r="B37" s="522"/>
-      <c r="C37" s="515"/>
-      <c r="D37" s="523"/>
-      <c r="E37" s="507"/>
+      <c r="B37" s="383"/>
+      <c r="C37" s="376"/>
+      <c r="D37" s="384"/>
+      <c r="E37" s="373"/>
       <c r="F37" s="165"/>
       <c r="G37" s="165"/>
       <c r="H37" s="166"/>
@@ -5169,10 +5184,10 @@
     </row>
     <row r="38" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="165"/>
-      <c r="B38" s="522"/>
-      <c r="C38" s="515"/>
-      <c r="D38" s="523"/>
-      <c r="E38" s="507"/>
+      <c r="B38" s="383"/>
+      <c r="C38" s="376"/>
+      <c r="D38" s="384"/>
+      <c r="E38" s="373"/>
       <c r="F38" s="165"/>
       <c r="G38" s="165"/>
       <c r="H38" s="166"/>
@@ -5191,10 +5206,10 @@
     </row>
     <row r="39" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="165"/>
-      <c r="B39" s="522"/>
-      <c r="C39" s="515"/>
-      <c r="D39" s="523"/>
-      <c r="E39" s="507"/>
+      <c r="B39" s="383"/>
+      <c r="C39" s="376"/>
+      <c r="D39" s="384"/>
+      <c r="E39" s="373"/>
       <c r="F39" s="165"/>
       <c r="G39" s="165"/>
       <c r="H39" s="166"/>
@@ -5210,10 +5225,10 @@
     </row>
     <row r="40" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="165"/>
-      <c r="B40" s="522"/>
-      <c r="C40" s="515"/>
-      <c r="D40" s="523"/>
-      <c r="E40" s="507"/>
+      <c r="B40" s="383"/>
+      <c r="C40" s="376"/>
+      <c r="D40" s="384"/>
+      <c r="E40" s="373"/>
       <c r="F40" s="165"/>
       <c r="G40" s="165"/>
       <c r="H40" s="166"/>
@@ -5229,10 +5244,10 @@
     </row>
     <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="181"/>
-      <c r="B41" s="374"/>
-      <c r="C41" s="511"/>
-      <c r="D41" s="375"/>
-      <c r="E41" s="373"/>
+      <c r="B41" s="370"/>
+      <c r="C41" s="375"/>
+      <c r="D41" s="371"/>
+      <c r="E41" s="369"/>
       <c r="F41" s="181"/>
       <c r="G41" s="181"/>
       <c r="H41" s="183"/>
@@ -5248,10 +5263,10 @@
     </row>
     <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="181"/>
-      <c r="B42" s="374"/>
-      <c r="C42" s="511"/>
-      <c r="D42" s="375"/>
-      <c r="E42" s="373"/>
+      <c r="B42" s="370"/>
+      <c r="C42" s="375"/>
+      <c r="D42" s="371"/>
+      <c r="E42" s="369"/>
       <c r="F42" s="181"/>
       <c r="G42" s="181"/>
       <c r="H42" s="183"/>
@@ -5267,10 +5282,10 @@
     </row>
     <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="181"/>
-      <c r="B43" s="374"/>
-      <c r="C43" s="511"/>
-      <c r="D43" s="375"/>
-      <c r="E43" s="373"/>
+      <c r="B43" s="370"/>
+      <c r="C43" s="375"/>
+      <c r="D43" s="371"/>
+      <c r="E43" s="369"/>
       <c r="F43" s="181"/>
       <c r="G43" s="181"/>
       <c r="H43" s="183"/>
@@ -5286,10 +5301,10 @@
     </row>
     <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="181"/>
-      <c r="B44" s="374"/>
-      <c r="C44" s="511"/>
-      <c r="D44" s="375"/>
-      <c r="E44" s="373"/>
+      <c r="B44" s="370"/>
+      <c r="C44" s="375"/>
+      <c r="D44" s="371"/>
+      <c r="E44" s="369"/>
       <c r="F44" s="181"/>
       <c r="G44" s="181"/>
       <c r="H44" s="183"/>
@@ -5305,10 +5320,10 @@
     </row>
     <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="181"/>
-      <c r="B45" s="374"/>
-      <c r="C45" s="511"/>
-      <c r="D45" s="375"/>
-      <c r="E45" s="373"/>
+      <c r="B45" s="370"/>
+      <c r="C45" s="375"/>
+      <c r="D45" s="371"/>
+      <c r="E45" s="369"/>
       <c r="F45" s="181"/>
       <c r="G45" s="181"/>
       <c r="H45" s="183"/>
@@ -5324,10 +5339,10 @@
     </row>
     <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="181"/>
-      <c r="B46" s="374"/>
-      <c r="C46" s="511"/>
-      <c r="D46" s="375"/>
-      <c r="E46" s="373"/>
+      <c r="B46" s="370"/>
+      <c r="C46" s="375"/>
+      <c r="D46" s="371"/>
+      <c r="E46" s="369"/>
       <c r="F46" s="181"/>
       <c r="G46" s="181"/>
       <c r="H46" s="183"/>
@@ -5344,7 +5359,7 @@
     <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="181"/>
       <c r="B47" s="182"/>
-      <c r="C47" s="511"/>
+      <c r="C47" s="375"/>
       <c r="D47" s="181"/>
       <c r="E47" s="181"/>
       <c r="F47" s="181"/>
@@ -5359,14 +5374,14 @@
       <c r="O47" s="183"/>
       <c r="P47" s="183"/>
       <c r="Q47" s="181"/>
-      <c r="R47" s="192"/>
+      <c r="R47" s="189"/>
     </row>
     <row r="48" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="165"/>
-      <c r="B48" s="524"/>
-      <c r="C48" s="515"/>
-      <c r="D48" s="523"/>
-      <c r="E48" s="507"/>
+      <c r="B48" s="385"/>
+      <c r="C48" s="376"/>
+      <c r="D48" s="384"/>
+      <c r="E48" s="373"/>
       <c r="F48" s="165"/>
       <c r="G48" s="165"/>
       <c r="H48" s="166"/>
@@ -5383,10 +5398,10 @@
     </row>
     <row r="49" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="165"/>
-      <c r="B49" s="522"/>
-      <c r="C49" s="515"/>
-      <c r="D49" s="523"/>
-      <c r="E49" s="507"/>
+      <c r="B49" s="383"/>
+      <c r="C49" s="376"/>
+      <c r="D49" s="384"/>
+      <c r="E49" s="373"/>
       <c r="F49" s="165"/>
       <c r="G49" s="165"/>
       <c r="H49" s="166"/>
@@ -5403,10 +5418,10 @@
     </row>
     <row r="50" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="165"/>
-      <c r="B50" s="522"/>
-      <c r="C50" s="515"/>
-      <c r="D50" s="523"/>
-      <c r="E50" s="507"/>
+      <c r="B50" s="383"/>
+      <c r="C50" s="376"/>
+      <c r="D50" s="384"/>
+      <c r="E50" s="373"/>
       <c r="F50" s="165"/>
       <c r="G50" s="165"/>
       <c r="H50" s="166"/>
@@ -5423,10 +5438,10 @@
     </row>
     <row r="51" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="165"/>
-      <c r="B51" s="522"/>
-      <c r="C51" s="515"/>
-      <c r="D51" s="523"/>
-      <c r="E51" s="507"/>
+      <c r="B51" s="383"/>
+      <c r="C51" s="376"/>
+      <c r="D51" s="384"/>
+      <c r="E51" s="373"/>
       <c r="F51" s="165"/>
       <c r="G51" s="165"/>
       <c r="H51" s="166"/>
@@ -5443,10 +5458,10 @@
     </row>
     <row r="52" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="165"/>
-      <c r="B52" s="522"/>
-      <c r="C52" s="515"/>
-      <c r="D52" s="523"/>
-      <c r="E52" s="507"/>
+      <c r="B52" s="383"/>
+      <c r="C52" s="376"/>
+      <c r="D52" s="384"/>
+      <c r="E52" s="373"/>
       <c r="F52" s="165"/>
       <c r="G52" s="165"/>
       <c r="H52" s="166"/>
@@ -5463,10 +5478,10 @@
     </row>
     <row r="53" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="165"/>
-      <c r="B53" s="522"/>
-      <c r="C53" s="515"/>
-      <c r="D53" s="523"/>
-      <c r="E53" s="507"/>
+      <c r="B53" s="383"/>
+      <c r="C53" s="376"/>
+      <c r="D53" s="384"/>
+      <c r="E53" s="373"/>
       <c r="F53" s="165"/>
       <c r="G53" s="165"/>
       <c r="H53" s="166"/>
@@ -5483,10 +5498,10 @@
     </row>
     <row r="54" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="165"/>
-      <c r="B54" s="522"/>
-      <c r="C54" s="515"/>
-      <c r="D54" s="523"/>
-      <c r="E54" s="507"/>
+      <c r="B54" s="383"/>
+      <c r="C54" s="376"/>
+      <c r="D54" s="384"/>
+      <c r="E54" s="373"/>
       <c r="F54" s="165"/>
       <c r="G54" s="165"/>
       <c r="H54" s="166"/>
@@ -5503,10 +5518,10 @@
     </row>
     <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="181"/>
-      <c r="B55" s="374"/>
-      <c r="C55" s="511"/>
-      <c r="D55" s="375"/>
-      <c r="E55" s="373"/>
+      <c r="B55" s="370"/>
+      <c r="C55" s="375"/>
+      <c r="D55" s="371"/>
+      <c r="E55" s="369"/>
       <c r="F55" s="181"/>
       <c r="G55" s="181"/>
       <c r="H55" s="183"/>
@@ -5519,14 +5534,14 @@
       <c r="O55" s="183"/>
       <c r="P55" s="183"/>
       <c r="Q55" s="181"/>
-      <c r="R55" s="192"/>
+      <c r="R55" s="189"/>
     </row>
     <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="181"/>
-      <c r="B56" s="374"/>
-      <c r="C56" s="511"/>
-      <c r="D56" s="375"/>
-      <c r="E56" s="373"/>
+      <c r="B56" s="370"/>
+      <c r="C56" s="375"/>
+      <c r="D56" s="371"/>
+      <c r="E56" s="369"/>
       <c r="F56" s="181"/>
       <c r="G56" s="181"/>
       <c r="H56" s="183"/>
@@ -5539,12 +5554,12 @@
       <c r="O56" s="183"/>
       <c r="P56" s="183"/>
       <c r="Q56" s="181"/>
-      <c r="R56" s="192"/>
+      <c r="R56" s="189"/>
     </row>
     <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="181"/>
-      <c r="B57" s="212"/>
-      <c r="C57" s="511"/>
+      <c r="B57" s="209"/>
+      <c r="C57" s="375"/>
       <c r="D57" s="181"/>
       <c r="E57" s="181"/>
       <c r="F57" s="181"/>
@@ -5562,8 +5577,8 @@
     </row>
     <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="181"/>
-      <c r="B58" s="212"/>
-      <c r="C58" s="511"/>
+      <c r="B58" s="209"/>
+      <c r="C58" s="375"/>
       <c r="D58" s="181"/>
       <c r="E58" s="181"/>
       <c r="F58" s="181"/>
@@ -5581,10 +5596,10 @@
     </row>
     <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="181"/>
-      <c r="B59" s="374"/>
-      <c r="C59" s="511"/>
-      <c r="D59" s="373"/>
-      <c r="E59" s="373"/>
+      <c r="B59" s="370"/>
+      <c r="C59" s="375"/>
+      <c r="D59" s="369"/>
+      <c r="E59" s="369"/>
       <c r="F59" s="181"/>
       <c r="G59" s="181"/>
       <c r="H59" s="183"/>
@@ -5600,10 +5615,10 @@
     </row>
     <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="181"/>
-      <c r="B60" s="374"/>
-      <c r="C60" s="511"/>
-      <c r="D60" s="373"/>
-      <c r="E60" s="373"/>
+      <c r="B60" s="370"/>
+      <c r="C60" s="375"/>
+      <c r="D60" s="369"/>
+      <c r="E60" s="369"/>
       <c r="F60" s="181"/>
       <c r="G60" s="181"/>
       <c r="H60" s="183"/>
@@ -5619,10 +5634,10 @@
     </row>
     <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="181"/>
-      <c r="B61" s="374"/>
-      <c r="C61" s="511"/>
-      <c r="D61" s="373"/>
-      <c r="E61" s="373"/>
+      <c r="B61" s="370"/>
+      <c r="C61" s="375"/>
+      <c r="D61" s="369"/>
+      <c r="E61" s="369"/>
       <c r="F61" s="181"/>
       <c r="G61" s="181"/>
       <c r="H61" s="183"/>
@@ -5638,10 +5653,10 @@
     </row>
     <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="181"/>
-      <c r="B62" s="374"/>
-      <c r="C62" s="511"/>
-      <c r="D62" s="375"/>
-      <c r="E62" s="373"/>
+      <c r="B62" s="370"/>
+      <c r="C62" s="375"/>
+      <c r="D62" s="371"/>
+      <c r="E62" s="369"/>
       <c r="F62" s="181"/>
       <c r="G62" s="181"/>
       <c r="H62" s="183"/>
@@ -5655,12 +5670,12 @@
       <c r="P62" s="183"/>
       <c r="Q62" s="181"/>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="181"/>
-      <c r="B63" s="374"/>
-      <c r="C63" s="511"/>
-      <c r="D63" s="375"/>
-      <c r="E63" s="373"/>
+      <c r="B63" s="370"/>
+      <c r="C63" s="375"/>
+      <c r="D63" s="371"/>
+      <c r="E63" s="369"/>
       <c r="F63" s="181"/>
       <c r="G63" s="181"/>
       <c r="H63" s="183"/>
@@ -5674,10 +5689,10 @@
       <c r="P63" s="183"/>
       <c r="Q63" s="181"/>
     </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="181"/>
       <c r="B64" s="182"/>
-      <c r="C64" s="511"/>
+      <c r="C64" s="375"/>
       <c r="D64" s="186"/>
       <c r="E64" s="181"/>
       <c r="F64" s="181"/>
@@ -5693,12 +5708,12 @@
       <c r="P64" s="183"/>
       <c r="Q64" s="181"/>
     </row>
-    <row r="65" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="181"/>
-      <c r="B65" s="521"/>
-      <c r="C65" s="511"/>
-      <c r="D65" s="373"/>
-      <c r="E65" s="373"/>
+      <c r="B65" s="382"/>
+      <c r="C65" s="375"/>
+      <c r="D65" s="369"/>
+      <c r="E65" s="369"/>
       <c r="F65" s="181"/>
       <c r="G65" s="181"/>
       <c r="H65" s="183"/>
@@ -5712,12 +5727,12 @@
       <c r="P65" s="183"/>
       <c r="Q65" s="181"/>
     </row>
-    <row r="66" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="181"/>
-      <c r="B66" s="521"/>
-      <c r="C66" s="511"/>
-      <c r="D66" s="373"/>
-      <c r="E66" s="373"/>
+      <c r="B66" s="382"/>
+      <c r="C66" s="375"/>
+      <c r="D66" s="369"/>
+      <c r="E66" s="369"/>
       <c r="F66" s="181"/>
       <c r="G66" s="181"/>
       <c r="H66" s="183"/>
@@ -5731,10 +5746,10 @@
       <c r="P66" s="183"/>
       <c r="Q66" s="181"/>
     </row>
-    <row r="67" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="181"/>
-      <c r="B67" s="212"/>
-      <c r="C67" s="511"/>
+      <c r="B67" s="209"/>
+      <c r="C67" s="375"/>
       <c r="D67" s="181"/>
       <c r="E67" s="181"/>
       <c r="F67" s="181"/>
@@ -5750,10 +5765,10 @@
       <c r="P67" s="183"/>
       <c r="Q67" s="181"/>
     </row>
-    <row r="68" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="181"/>
-      <c r="B68" s="212"/>
-      <c r="C68" s="511"/>
+      <c r="B68" s="209"/>
+      <c r="C68" s="375"/>
       <c r="D68" s="181"/>
       <c r="E68" s="181"/>
       <c r="F68" s="181"/>
@@ -5769,12 +5784,12 @@
       <c r="P68" s="183"/>
       <c r="Q68" s="181"/>
     </row>
-    <row r="69" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="181"/>
-      <c r="B69" s="521"/>
-      <c r="C69" s="511"/>
-      <c r="D69" s="375"/>
-      <c r="E69" s="373"/>
+      <c r="B69" s="382"/>
+      <c r="C69" s="375"/>
+      <c r="D69" s="371"/>
+      <c r="E69" s="369"/>
       <c r="F69" s="181"/>
       <c r="G69" s="181"/>
       <c r="H69" s="183"/>
@@ -5788,12 +5803,12 @@
       <c r="P69" s="183"/>
       <c r="Q69" s="181"/>
     </row>
-    <row r="70" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="181"/>
-      <c r="B70" s="521"/>
-      <c r="C70" s="511"/>
-      <c r="D70" s="375"/>
-      <c r="E70" s="373"/>
+      <c r="B70" s="382"/>
+      <c r="C70" s="375"/>
+      <c r="D70" s="371"/>
+      <c r="E70" s="369"/>
       <c r="F70" s="181"/>
       <c r="G70" s="181"/>
       <c r="H70" s="183"/>
@@ -5807,12 +5822,12 @@
       <c r="P70" s="183"/>
       <c r="Q70" s="181"/>
     </row>
-    <row r="71" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="181"/>
-      <c r="B71" s="521"/>
-      <c r="C71" s="511"/>
-      <c r="D71" s="375"/>
-      <c r="E71" s="373"/>
+      <c r="B71" s="382"/>
+      <c r="C71" s="375"/>
+      <c r="D71" s="371"/>
+      <c r="E71" s="369"/>
       <c r="F71" s="181"/>
       <c r="G71" s="181"/>
       <c r="H71" s="183"/>
@@ -5826,12 +5841,12 @@
       <c r="P71" s="183"/>
       <c r="Q71" s="181"/>
     </row>
-    <row r="72" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="181"/>
-      <c r="B72" s="521"/>
-      <c r="C72" s="511"/>
-      <c r="D72" s="375"/>
-      <c r="E72" s="373"/>
+      <c r="B72" s="382"/>
+      <c r="C72" s="375"/>
+      <c r="D72" s="371"/>
+      <c r="E72" s="369"/>
       <c r="F72" s="181"/>
       <c r="G72" s="181"/>
       <c r="H72" s="183"/>
@@ -5845,12 +5860,12 @@
       <c r="P72" s="183"/>
       <c r="Q72" s="181"/>
     </row>
-    <row r="73" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="181"/>
-      <c r="B73" s="521"/>
-      <c r="C73" s="511"/>
-      <c r="D73" s="375"/>
-      <c r="E73" s="373"/>
+      <c r="B73" s="382"/>
+      <c r="C73" s="375"/>
+      <c r="D73" s="371"/>
+      <c r="E73" s="369"/>
       <c r="F73" s="181"/>
       <c r="G73" s="181"/>
       <c r="H73" s="183"/>
@@ -5864,12 +5879,12 @@
       <c r="P73" s="183"/>
       <c r="Q73" s="181"/>
     </row>
-    <row r="74" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="181"/>
-      <c r="B74" s="521"/>
-      <c r="C74" s="511"/>
-      <c r="D74" s="375"/>
-      <c r="E74" s="373"/>
+      <c r="B74" s="382"/>
+      <c r="C74" s="375"/>
+      <c r="D74" s="371"/>
+      <c r="E74" s="369"/>
       <c r="F74" s="181"/>
       <c r="G74" s="181"/>
       <c r="H74" s="183"/>
@@ -5883,11 +5898,11 @@
       <c r="P74" s="183"/>
       <c r="Q74" s="181"/>
     </row>
-    <row r="75" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="181"/>
-      <c r="B75" s="521"/>
-      <c r="C75" s="511"/>
-      <c r="D75" s="373"/>
+      <c r="B75" s="382"/>
+      <c r="C75" s="375"/>
+      <c r="D75" s="369"/>
       <c r="E75" s="181"/>
       <c r="F75" s="181"/>
       <c r="G75" s="181"/>
@@ -5902,11 +5917,11 @@
       <c r="P75" s="183"/>
       <c r="Q75" s="181"/>
     </row>
-    <row r="76" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="181"/>
-      <c r="B76" s="521"/>
-      <c r="C76" s="511"/>
-      <c r="D76" s="373"/>
+      <c r="B76" s="382"/>
+      <c r="C76" s="375"/>
+      <c r="D76" s="369"/>
       <c r="E76" s="181"/>
       <c r="F76" s="181"/>
       <c r="G76" s="181"/>
@@ -5921,10 +5936,10 @@
       <c r="P76" s="183"/>
       <c r="Q76" s="181"/>
     </row>
-    <row r="77" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="181"/>
-      <c r="B77" s="212"/>
-      <c r="C77" s="511"/>
+      <c r="B77" s="209"/>
+      <c r="C77" s="375"/>
       <c r="D77" s="181"/>
       <c r="E77" s="181"/>
       <c r="F77" s="181"/>
@@ -5940,10 +5955,10 @@
       <c r="P77" s="183"/>
       <c r="Q77" s="181"/>
     </row>
-    <row r="78" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="181"/>
-      <c r="B78" s="212"/>
-      <c r="C78" s="511"/>
+      <c r="B78" s="209"/>
+      <c r="C78" s="375"/>
       <c r="D78" s="181"/>
       <c r="E78" s="181"/>
       <c r="F78" s="181"/>
@@ -5959,12 +5974,12 @@
       <c r="P78" s="183"/>
       <c r="Q78" s="181"/>
     </row>
-    <row r="79" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="181"/>
-      <c r="B79" s="521"/>
-      <c r="C79" s="511"/>
-      <c r="D79" s="373"/>
-      <c r="E79" s="373"/>
+      <c r="B79" s="382"/>
+      <c r="C79" s="375"/>
+      <c r="D79" s="369"/>
+      <c r="E79" s="369"/>
       <c r="F79" s="181"/>
       <c r="G79" s="181"/>
       <c r="H79" s="183"/>
@@ -5978,12 +5993,12 @@
       <c r="P79" s="183"/>
       <c r="Q79" s="181"/>
     </row>
-    <row r="80" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="181"/>
-      <c r="B80" s="521"/>
-      <c r="C80" s="511"/>
-      <c r="D80" s="373"/>
-      <c r="E80" s="373"/>
+      <c r="B80" s="382"/>
+      <c r="C80" s="375"/>
+      <c r="D80" s="369"/>
+      <c r="E80" s="369"/>
       <c r="F80" s="181"/>
       <c r="G80" s="181"/>
       <c r="H80" s="183"/>
@@ -5997,12 +6012,12 @@
       <c r="P80" s="183"/>
       <c r="Q80" s="181"/>
     </row>
-    <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="181"/>
-      <c r="B81" s="521"/>
-      <c r="C81" s="511"/>
-      <c r="D81" s="373"/>
-      <c r="E81" s="373"/>
+      <c r="B81" s="382"/>
+      <c r="C81" s="375"/>
+      <c r="D81" s="369"/>
+      <c r="E81" s="369"/>
       <c r="F81" s="181"/>
       <c r="G81" s="181"/>
       <c r="H81" s="183"/>
@@ -6016,12 +6031,12 @@
       <c r="P81" s="183"/>
       <c r="Q81" s="181"/>
     </row>
-    <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="181"/>
-      <c r="B82" s="521"/>
-      <c r="C82" s="511"/>
-      <c r="D82" s="373"/>
-      <c r="E82" s="373"/>
+      <c r="B82" s="382"/>
+      <c r="C82" s="375"/>
+      <c r="D82" s="369"/>
+      <c r="E82" s="369"/>
       <c r="F82" s="181"/>
       <c r="G82" s="181"/>
       <c r="H82" s="183"/>
@@ -6035,12 +6050,12 @@
       <c r="P82" s="183"/>
       <c r="Q82" s="181"/>
     </row>
-    <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="181"/>
-      <c r="B83" s="521"/>
-      <c r="C83" s="511"/>
-      <c r="D83" s="373"/>
-      <c r="E83" s="373"/>
+      <c r="B83" s="382"/>
+      <c r="C83" s="375"/>
+      <c r="D83" s="369"/>
+      <c r="E83" s="369"/>
       <c r="F83" s="181"/>
       <c r="G83" s="181"/>
       <c r="H83" s="183"/>
@@ -6054,12 +6069,12 @@
       <c r="P83" s="183"/>
       <c r="Q83" s="181"/>
     </row>
-    <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="181"/>
-      <c r="B84" s="521"/>
-      <c r="C84" s="511"/>
-      <c r="D84" s="373"/>
-      <c r="E84" s="373"/>
+      <c r="B84" s="382"/>
+      <c r="C84" s="375"/>
+      <c r="D84" s="369"/>
+      <c r="E84" s="369"/>
       <c r="F84" s="181"/>
       <c r="G84" s="181"/>
       <c r="H84" s="183"/>
@@ -6073,17 +6088,17 @@
       <c r="P84" s="183"/>
       <c r="Q84" s="181"/>
     </row>
-    <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="181"/>
-      <c r="B85" s="521"/>
-      <c r="C85" s="511"/>
-      <c r="D85" s="373"/>
-      <c r="E85" s="373"/>
+      <c r="B85" s="382"/>
+      <c r="C85" s="375"/>
+      <c r="D85" s="369"/>
+      <c r="E85" s="369"/>
       <c r="F85" s="181"/>
       <c r="G85" s="181"/>
       <c r="H85" s="183"/>
       <c r="I85" s="183"/>
-      <c r="J85" s="365"/>
+      <c r="J85" s="361"/>
       <c r="K85" s="184"/>
       <c r="L85" s="183"/>
       <c r="M85" s="183"/>
@@ -6092,17 +6107,17 @@
       <c r="P85" s="183"/>
       <c r="Q85" s="181"/>
     </row>
-    <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="181"/>
-      <c r="B86" s="521"/>
-      <c r="C86" s="511"/>
-      <c r="D86" s="373"/>
-      <c r="E86" s="373"/>
+      <c r="B86" s="382"/>
+      <c r="C86" s="375"/>
+      <c r="D86" s="369"/>
+      <c r="E86" s="369"/>
       <c r="F86" s="181"/>
       <c r="G86" s="181"/>
       <c r="H86" s="183"/>
       <c r="I86" s="183"/>
-      <c r="J86" s="366"/>
+      <c r="J86" s="362"/>
       <c r="K86" s="184"/>
       <c r="L86" s="183"/>
       <c r="M86" s="183"/>
@@ -6111,17 +6126,17 @@
       <c r="P86" s="183"/>
       <c r="Q86" s="181"/>
     </row>
-    <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="181"/>
-      <c r="B87" s="521"/>
-      <c r="C87" s="511"/>
-      <c r="D87" s="373"/>
-      <c r="E87" s="373"/>
+      <c r="B87" s="382"/>
+      <c r="C87" s="375"/>
+      <c r="D87" s="369"/>
+      <c r="E87" s="369"/>
       <c r="F87" s="181"/>
       <c r="G87" s="181"/>
       <c r="H87" s="183"/>
       <c r="I87" s="183"/>
-      <c r="J87" s="367"/>
+      <c r="J87" s="363"/>
       <c r="K87" s="184"/>
       <c r="L87" s="183"/>
       <c r="M87" s="183"/>
@@ -6130,10 +6145,10 @@
       <c r="P87" s="183"/>
       <c r="Q87" s="181"/>
     </row>
-    <row r="88" spans="1:17" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="165"/>
-      <c r="B88" s="220"/>
-      <c r="C88" s="515"/>
+      <c r="B88" s="217"/>
+      <c r="C88" s="376"/>
       <c r="D88" s="165"/>
       <c r="E88" s="165"/>
       <c r="F88" s="165"/>
@@ -6149,17 +6164,17 @@
       <c r="P88" s="166"/>
       <c r="Q88" s="165"/>
     </row>
-    <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="181"/>
-      <c r="B89" s="521"/>
-      <c r="C89" s="511"/>
-      <c r="D89" s="375"/>
-      <c r="E89" s="375"/>
+      <c r="B89" s="382"/>
+      <c r="C89" s="375"/>
+      <c r="D89" s="371"/>
+      <c r="E89" s="371"/>
       <c r="F89" s="181"/>
       <c r="G89" s="181"/>
       <c r="H89" s="183"/>
       <c r="I89" s="183"/>
-      <c r="J89" s="365"/>
+      <c r="J89" s="361"/>
       <c r="K89" s="184"/>
       <c r="L89" s="183"/>
       <c r="M89" s="183"/>
@@ -6168,17 +6183,17 @@
       <c r="P89" s="183"/>
       <c r="Q89" s="181"/>
     </row>
-    <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="181"/>
-      <c r="B90" s="521"/>
-      <c r="C90" s="511"/>
-      <c r="D90" s="375"/>
-      <c r="E90" s="375"/>
+      <c r="B90" s="382"/>
+      <c r="C90" s="375"/>
+      <c r="D90" s="371"/>
+      <c r="E90" s="371"/>
       <c r="F90" s="181"/>
       <c r="G90" s="181"/>
       <c r="H90" s="183"/>
       <c r="I90" s="183"/>
-      <c r="J90" s="366"/>
+      <c r="J90" s="362"/>
       <c r="K90" s="184"/>
       <c r="L90" s="183"/>
       <c r="M90" s="183"/>
@@ -6187,17 +6202,17 @@
       <c r="P90" s="183"/>
       <c r="Q90" s="181"/>
     </row>
-    <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="181"/>
-      <c r="B91" s="521"/>
-      <c r="C91" s="511"/>
-      <c r="D91" s="375"/>
-      <c r="E91" s="375"/>
+      <c r="B91" s="382"/>
+      <c r="C91" s="375"/>
+      <c r="D91" s="371"/>
+      <c r="E91" s="371"/>
       <c r="F91" s="181"/>
       <c r="G91" s="181"/>
       <c r="H91" s="183"/>
       <c r="I91" s="183"/>
-      <c r="J91" s="366"/>
+      <c r="J91" s="362"/>
       <c r="K91" s="184"/>
       <c r="L91" s="183"/>
       <c r="M91" s="183"/>
@@ -6206,17 +6221,17 @@
       <c r="P91" s="183"/>
       <c r="Q91" s="181"/>
     </row>
-    <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="181"/>
-      <c r="B92" s="521"/>
-      <c r="C92" s="511"/>
-      <c r="D92" s="375"/>
-      <c r="E92" s="375"/>
+      <c r="B92" s="382"/>
+      <c r="C92" s="375"/>
+      <c r="D92" s="371"/>
+      <c r="E92" s="371"/>
       <c r="F92" s="181"/>
       <c r="G92" s="181"/>
       <c r="H92" s="183"/>
       <c r="I92" s="183"/>
-      <c r="J92" s="367"/>
+      <c r="J92" s="363"/>
       <c r="K92" s="184"/>
       <c r="L92" s="183"/>
       <c r="M92" s="183"/>
@@ -6225,10 +6240,10 @@
       <c r="P92" s="183"/>
       <c r="Q92" s="181"/>
     </row>
-    <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="181"/>
-      <c r="B93" s="212"/>
-      <c r="C93" s="511"/>
+      <c r="B93" s="209"/>
+      <c r="C93" s="375"/>
       <c r="D93" s="181"/>
       <c r="E93" s="181"/>
       <c r="F93" s="181"/>
@@ -6244,12 +6259,12 @@
       <c r="P93" s="183"/>
       <c r="Q93" s="181"/>
     </row>
-    <row r="94" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="181"/>
-      <c r="B94" s="521"/>
-      <c r="C94" s="511"/>
-      <c r="D94" s="373"/>
-      <c r="E94" s="373"/>
+      <c r="B94" s="382"/>
+      <c r="C94" s="375"/>
+      <c r="D94" s="369"/>
+      <c r="E94" s="369"/>
       <c r="F94" s="181"/>
       <c r="G94" s="181"/>
       <c r="H94" s="183"/>
@@ -6263,12 +6278,12 @@
       <c r="P94" s="183"/>
       <c r="Q94" s="181"/>
     </row>
-    <row r="95" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="181"/>
-      <c r="B95" s="521"/>
-      <c r="C95" s="511"/>
-      <c r="D95" s="373"/>
-      <c r="E95" s="373"/>
+      <c r="B95" s="382"/>
+      <c r="C95" s="375"/>
+      <c r="D95" s="369"/>
+      <c r="E95" s="369"/>
       <c r="F95" s="181"/>
       <c r="G95" s="181"/>
       <c r="H95" s="183"/>
@@ -6282,12 +6297,12 @@
       <c r="P95" s="183"/>
       <c r="Q95" s="181"/>
     </row>
-    <row r="96" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="181"/>
-      <c r="B96" s="521"/>
-      <c r="C96" s="511"/>
-      <c r="D96" s="373"/>
-      <c r="E96" s="373"/>
+      <c r="B96" s="382"/>
+      <c r="C96" s="375"/>
+      <c r="D96" s="369"/>
+      <c r="E96" s="369"/>
       <c r="F96" s="181"/>
       <c r="G96" s="181"/>
       <c r="H96" s="183"/>
@@ -6301,12 +6316,12 @@
       <c r="P96" s="183"/>
       <c r="Q96" s="181"/>
     </row>
-    <row r="97" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="181"/>
-      <c r="B97" s="521"/>
-      <c r="C97" s="511"/>
-      <c r="D97" s="373"/>
-      <c r="E97" s="373"/>
+      <c r="B97" s="382"/>
+      <c r="C97" s="375"/>
+      <c r="D97" s="369"/>
+      <c r="E97" s="369"/>
       <c r="F97" s="181"/>
       <c r="G97" s="181"/>
       <c r="H97" s="183"/>
@@ -6320,10 +6335,10 @@
       <c r="P97" s="183"/>
       <c r="Q97" s="181"/>
     </row>
-    <row r="98" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="181"/>
-      <c r="B98" s="212"/>
-      <c r="C98" s="511"/>
+      <c r="B98" s="209"/>
+      <c r="C98" s="375"/>
       <c r="D98" s="181"/>
       <c r="E98" s="181"/>
       <c r="F98" s="181"/>
@@ -6339,10 +6354,10 @@
       <c r="P98" s="183"/>
       <c r="Q98" s="181"/>
     </row>
-    <row r="99" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="181"/>
-      <c r="B99" s="212"/>
-      <c r="C99" s="511"/>
+      <c r="B99" s="209"/>
+      <c r="C99" s="375"/>
       <c r="D99" s="181"/>
       <c r="E99" s="181"/>
       <c r="F99" s="181"/>
@@ -6358,10 +6373,10 @@
       <c r="P99" s="183"/>
       <c r="Q99" s="181"/>
     </row>
-    <row r="100" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="181"/>
-      <c r="B100" s="212"/>
-      <c r="C100" s="511"/>
+      <c r="B100" s="209"/>
+      <c r="C100" s="375"/>
       <c r="D100" s="181"/>
       <c r="E100" s="181"/>
       <c r="F100" s="181"/>
@@ -6377,10 +6392,10 @@
       <c r="P100" s="183"/>
       <c r="Q100" s="181"/>
     </row>
-    <row r="101" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="181"/>
-      <c r="B101" s="212"/>
-      <c r="C101" s="511"/>
+      <c r="B101" s="209"/>
+      <c r="C101" s="375"/>
       <c r="D101" s="181"/>
       <c r="E101" s="181"/>
       <c r="F101" s="181"/>
@@ -6396,12 +6411,12 @@
       <c r="P101" s="183"/>
       <c r="Q101" s="181"/>
     </row>
-    <row r="102" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="181"/>
-      <c r="B102" s="374"/>
-      <c r="C102" s="511"/>
-      <c r="D102" s="373"/>
-      <c r="E102" s="373"/>
+      <c r="B102" s="370"/>
+      <c r="C102" s="375"/>
+      <c r="D102" s="369"/>
+      <c r="E102" s="369"/>
       <c r="F102" s="181"/>
       <c r="G102" s="181"/>
       <c r="H102" s="183"/>
@@ -6415,12 +6430,12 @@
       <c r="P102" s="183"/>
       <c r="Q102" s="181"/>
     </row>
-    <row r="103" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="181"/>
-      <c r="B103" s="374"/>
-      <c r="C103" s="511"/>
-      <c r="D103" s="373"/>
-      <c r="E103" s="373"/>
+      <c r="B103" s="370"/>
+      <c r="C103" s="375"/>
+      <c r="D103" s="369"/>
+      <c r="E103" s="369"/>
       <c r="F103" s="181"/>
       <c r="G103" s="181"/>
       <c r="H103" s="183"/>
@@ -6434,12 +6449,12 @@
       <c r="P103" s="183"/>
       <c r="Q103" s="181"/>
     </row>
-    <row r="104" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="181"/>
-      <c r="B104" s="374"/>
-      <c r="C104" s="511"/>
-      <c r="D104" s="373"/>
-      <c r="E104" s="373"/>
+      <c r="B104" s="370"/>
+      <c r="C104" s="375"/>
+      <c r="D104" s="369"/>
+      <c r="E104" s="369"/>
       <c r="F104" s="181"/>
       <c r="G104" s="181"/>
       <c r="H104" s="183"/>
@@ -6453,12 +6468,12 @@
       <c r="P104" s="183"/>
       <c r="Q104" s="181"/>
     </row>
-    <row r="105" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="181"/>
-      <c r="B105" s="374"/>
-      <c r="C105" s="511"/>
-      <c r="D105" s="373"/>
-      <c r="E105" s="373"/>
+      <c r="B105" s="370"/>
+      <c r="C105" s="375"/>
+      <c r="D105" s="369"/>
+      <c r="E105" s="369"/>
       <c r="F105" s="181"/>
       <c r="G105" s="181"/>
       <c r="H105" s="183"/>
@@ -6472,12 +6487,12 @@
       <c r="P105" s="183"/>
       <c r="Q105" s="181"/>
     </row>
-    <row r="106" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="181"/>
-      <c r="B106" s="374"/>
-      <c r="C106" s="511"/>
-      <c r="D106" s="373"/>
-      <c r="E106" s="373"/>
+      <c r="B106" s="370"/>
+      <c r="C106" s="375"/>
+      <c r="D106" s="369"/>
+      <c r="E106" s="369"/>
       <c r="F106" s="181"/>
       <c r="G106" s="181"/>
       <c r="H106" s="183"/>
@@ -6491,12 +6506,12 @@
       <c r="P106" s="183"/>
       <c r="Q106" s="181"/>
     </row>
-    <row r="107" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="181"/>
-      <c r="B107" s="374"/>
-      <c r="C107" s="511"/>
-      <c r="D107" s="373"/>
-      <c r="E107" s="373"/>
+      <c r="B107" s="370"/>
+      <c r="C107" s="375"/>
+      <c r="D107" s="369"/>
+      <c r="E107" s="369"/>
       <c r="F107" s="181"/>
       <c r="G107" s="181"/>
       <c r="H107" s="183"/>
@@ -6510,12 +6525,12 @@
       <c r="P107" s="183"/>
       <c r="Q107" s="181"/>
     </row>
-    <row r="108" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="181"/>
-      <c r="B108" s="374"/>
-      <c r="C108" s="511"/>
-      <c r="D108" s="373"/>
-      <c r="E108" s="373"/>
+      <c r="B108" s="370"/>
+      <c r="C108" s="375"/>
+      <c r="D108" s="369"/>
+      <c r="E108" s="369"/>
       <c r="F108" s="181"/>
       <c r="G108" s="181"/>
       <c r="H108" s="183"/>
@@ -6529,10 +6544,10 @@
       <c r="P108" s="183"/>
       <c r="Q108" s="181"/>
     </row>
-    <row r="109" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="181"/>
       <c r="B109" s="182"/>
-      <c r="C109" s="511"/>
+      <c r="C109" s="375"/>
       <c r="D109" s="181"/>
       <c r="E109" s="181"/>
       <c r="F109" s="181"/>
@@ -6548,12 +6563,12 @@
       <c r="P109" s="183"/>
       <c r="Q109" s="181"/>
     </row>
-    <row r="110" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="181"/>
-      <c r="B110" s="374"/>
-      <c r="C110" s="511"/>
-      <c r="D110" s="373"/>
-      <c r="E110" s="373"/>
+      <c r="B110" s="370"/>
+      <c r="C110" s="375"/>
+      <c r="D110" s="369"/>
+      <c r="E110" s="369"/>
       <c r="F110" s="181"/>
       <c r="G110" s="181"/>
       <c r="H110" s="183"/>
@@ -6567,12 +6582,12 @@
       <c r="P110" s="183"/>
       <c r="Q110" s="181"/>
     </row>
-    <row r="111" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="181"/>
-      <c r="B111" s="374"/>
-      <c r="C111" s="511"/>
-      <c r="D111" s="373"/>
-      <c r="E111" s="373"/>
+      <c r="B111" s="370"/>
+      <c r="C111" s="375"/>
+      <c r="D111" s="369"/>
+      <c r="E111" s="369"/>
       <c r="F111" s="181"/>
       <c r="G111" s="181"/>
       <c r="H111" s="183"/>
@@ -6586,12 +6601,12 @@
       <c r="P111" s="183"/>
       <c r="Q111" s="181"/>
     </row>
-    <row r="112" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="181"/>
-      <c r="B112" s="374"/>
-      <c r="C112" s="511"/>
-      <c r="D112" s="373"/>
-      <c r="E112" s="373"/>
+      <c r="B112" s="370"/>
+      <c r="C112" s="375"/>
+      <c r="D112" s="369"/>
+      <c r="E112" s="369"/>
       <c r="F112" s="181"/>
       <c r="G112" s="181"/>
       <c r="H112" s="183"/>
@@ -6605,12 +6620,12 @@
       <c r="P112" s="183"/>
       <c r="Q112" s="181"/>
     </row>
-    <row r="113" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="181"/>
-      <c r="B113" s="374"/>
-      <c r="C113" s="511"/>
-      <c r="D113" s="373"/>
-      <c r="E113" s="373"/>
+      <c r="B113" s="370"/>
+      <c r="C113" s="375"/>
+      <c r="D113" s="369"/>
+      <c r="E113" s="369"/>
       <c r="F113" s="181"/>
       <c r="G113" s="181"/>
       <c r="H113" s="183"/>
@@ -6624,12 +6639,12 @@
       <c r="P113" s="183"/>
       <c r="Q113" s="181"/>
     </row>
-    <row r="114" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="181"/>
-      <c r="B114" s="374"/>
-      <c r="C114" s="511"/>
-      <c r="D114" s="373"/>
-      <c r="E114" s="373"/>
+      <c r="B114" s="370"/>
+      <c r="C114" s="375"/>
+      <c r="D114" s="369"/>
+      <c r="E114" s="369"/>
       <c r="F114" s="181"/>
       <c r="G114" s="181"/>
       <c r="H114" s="183"/>
@@ -6643,10 +6658,10 @@
       <c r="P114" s="183"/>
       <c r="Q114" s="181"/>
     </row>
-    <row r="115" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="181"/>
       <c r="B115" s="182"/>
-      <c r="C115" s="511"/>
+      <c r="C115" s="375"/>
       <c r="D115" s="181"/>
       <c r="E115" s="181"/>
       <c r="F115" s="181"/>
@@ -6662,10 +6677,10 @@
       <c r="P115" s="183"/>
       <c r="Q115" s="181"/>
     </row>
-    <row r="116" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="181"/>
       <c r="B116" s="182"/>
-      <c r="C116" s="511"/>
+      <c r="C116" s="375"/>
       <c r="D116" s="181"/>
       <c r="E116" s="181"/>
       <c r="F116" s="181"/>
@@ -6681,190 +6696,190 @@
       <c r="P116" s="183"/>
       <c r="Q116" s="181"/>
     </row>
-    <row r="117" spans="1:18" s="199" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="406" t="s">
+    <row r="117" spans="1:18" s="196" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A117" s="409" t="s">
         <v>86</v>
       </c>
-      <c r="B117" s="406"/>
-      <c r="C117" s="406"/>
-      <c r="D117" s="406"/>
-      <c r="E117" s="406"/>
-      <c r="F117" s="406"/>
-      <c r="G117" s="193">
+      <c r="B117" s="409"/>
+      <c r="C117" s="409"/>
+      <c r="D117" s="409"/>
+      <c r="E117" s="409"/>
+      <c r="F117" s="409"/>
+      <c r="G117" s="190">
         <f>SUM(G9:G116)</f>
         <v>459</v>
       </c>
-      <c r="H117" s="194"/>
-      <c r="I117" s="195">
+      <c r="H117" s="191"/>
+      <c r="I117" s="192">
         <f>SUM(I9:I116)</f>
         <v>194390000</v>
       </c>
-      <c r="J117" s="196"/>
-      <c r="K117" s="197"/>
-      <c r="L117" s="198">
+      <c r="J117" s="193"/>
+      <c r="K117" s="194"/>
+      <c r="L117" s="195">
         <f>SUM(L9:L116)</f>
         <v>178107300</v>
       </c>
-      <c r="M117" s="194"/>
-      <c r="N117" s="194"/>
-      <c r="O117" s="194"/>
-      <c r="P117" s="194"/>
-      <c r="Q117" s="407"/>
-      <c r="R117" s="404"/>
-    </row>
-    <row r="118" spans="1:18" s="199" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="405" t="s">
+      <c r="M117" s="191"/>
+      <c r="N117" s="191"/>
+      <c r="O117" s="191"/>
+      <c r="P117" s="191"/>
+      <c r="Q117" s="410"/>
+      <c r="R117" s="407"/>
+    </row>
+    <row r="118" spans="1:18" s="196" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A118" s="408" t="s">
         <v>133</v>
       </c>
-      <c r="B118" s="405"/>
-      <c r="C118" s="405"/>
-      <c r="D118" s="405"/>
-      <c r="E118" s="405"/>
-      <c r="F118" s="405"/>
-      <c r="G118" s="193">
+      <c r="B118" s="408"/>
+      <c r="C118" s="408"/>
+      <c r="D118" s="408"/>
+      <c r="E118" s="408"/>
+      <c r="F118" s="408"/>
+      <c r="G118" s="190">
         <f>G117</f>
         <v>459</v>
       </c>
-      <c r="H118" s="196"/>
-      <c r="I118" s="195"/>
-      <c r="J118" s="196"/>
-      <c r="K118" s="197"/>
-      <c r="L118" s="198">
+      <c r="H118" s="193"/>
+      <c r="I118" s="192"/>
+      <c r="J118" s="193"/>
+      <c r="K118" s="194"/>
+      <c r="L118" s="195">
         <f>L117</f>
         <v>178107300</v>
       </c>
-      <c r="M118" s="196"/>
-      <c r="N118" s="196"/>
-      <c r="O118" s="196"/>
-      <c r="P118" s="196"/>
-      <c r="Q118" s="407"/>
-      <c r="R118" s="404"/>
-    </row>
-    <row r="119" spans="1:18" s="199" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="405" t="s">
+      <c r="M118" s="193"/>
+      <c r="N118" s="193"/>
+      <c r="O118" s="193"/>
+      <c r="P118" s="193"/>
+      <c r="Q118" s="410"/>
+      <c r="R118" s="407"/>
+    </row>
+    <row r="119" spans="1:18" s="196" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="408" t="s">
         <v>87</v>
       </c>
-      <c r="B119" s="405"/>
-      <c r="C119" s="405"/>
-      <c r="D119" s="405"/>
-      <c r="E119" s="405"/>
-      <c r="F119" s="405"/>
-      <c r="G119" s="200" t="s">
+      <c r="B119" s="408"/>
+      <c r="C119" s="408"/>
+      <c r="D119" s="408"/>
+      <c r="E119" s="408"/>
+      <c r="F119" s="408"/>
+      <c r="G119" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="H119" s="196"/>
-      <c r="I119" s="196"/>
-      <c r="J119" s="196"/>
-      <c r="K119" s="200"/>
-      <c r="L119" s="198">
+      <c r="H119" s="193"/>
+      <c r="I119" s="193"/>
+      <c r="J119" s="193"/>
+      <c r="K119" s="197"/>
+      <c r="L119" s="195">
         <f>SUM(N9:N116)</f>
         <v>0</v>
       </c>
-      <c r="M119" s="196"/>
-      <c r="N119" s="196"/>
-      <c r="O119" s="196"/>
-      <c r="P119" s="196"/>
-    </row>
-    <row r="120" spans="1:18" s="199" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="405" t="s">
+      <c r="M119" s="193"/>
+      <c r="N119" s="193"/>
+      <c r="O119" s="193"/>
+      <c r="P119" s="193"/>
+    </row>
+    <row r="120" spans="1:18" s="196" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="408" t="s">
         <v>88</v>
       </c>
-      <c r="B120" s="405"/>
-      <c r="C120" s="405"/>
-      <c r="D120" s="405"/>
-      <c r="E120" s="405"/>
-      <c r="F120" s="405"/>
-      <c r="G120" s="200"/>
-      <c r="H120" s="196"/>
-      <c r="I120" s="194"/>
-      <c r="J120" s="196"/>
-      <c r="K120" s="197"/>
-      <c r="L120" s="198">
+      <c r="B120" s="408"/>
+      <c r="C120" s="408"/>
+      <c r="D120" s="408"/>
+      <c r="E120" s="408"/>
+      <c r="F120" s="408"/>
+      <c r="G120" s="197"/>
+      <c r="H120" s="193"/>
+      <c r="I120" s="191"/>
+      <c r="J120" s="193"/>
+      <c r="K120" s="194"/>
+      <c r="L120" s="195">
         <f>SUM(O9:O116)</f>
         <v>861400.00000000023</v>
       </c>
-      <c r="M120" s="196"/>
-      <c r="N120" s="196"/>
-      <c r="O120" s="196"/>
-      <c r="P120" s="196"/>
-    </row>
-    <row r="121" spans="1:18" s="199" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="405" t="s">
+      <c r="M120" s="193"/>
+      <c r="N120" s="193"/>
+      <c r="O120" s="193"/>
+      <c r="P120" s="193"/>
+    </row>
+    <row r="121" spans="1:18" s="196" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="408" t="s">
         <v>89</v>
       </c>
-      <c r="B121" s="405"/>
-      <c r="C121" s="405"/>
-      <c r="D121" s="405"/>
-      <c r="E121" s="405"/>
-      <c r="F121" s="405"/>
-      <c r="G121" s="200"/>
-      <c r="H121" s="196"/>
-      <c r="I121" s="194"/>
-      <c r="J121" s="196"/>
-      <c r="K121" s="197"/>
-      <c r="L121" s="198">
+      <c r="B121" s="408"/>
+      <c r="C121" s="408"/>
+      <c r="D121" s="408"/>
+      <c r="E121" s="408"/>
+      <c r="F121" s="408"/>
+      <c r="G121" s="197"/>
+      <c r="H121" s="193"/>
+      <c r="I121" s="191"/>
+      <c r="J121" s="193"/>
+      <c r="K121" s="194"/>
+      <c r="L121" s="195">
         <f>SUM(P9:P116)</f>
-        <v>28145900</v>
-      </c>
-      <c r="M121" s="196"/>
-      <c r="N121" s="196"/>
-      <c r="O121" s="196"/>
-      <c r="P121" s="196"/>
+        <v>177245900</v>
+      </c>
+      <c r="M121" s="193"/>
+      <c r="N121" s="193"/>
+      <c r="O121" s="193"/>
+      <c r="P121" s="193"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C124" s="516"/>
-      <c r="E124" s="204" t="s">
+      <c r="C124" s="377"/>
+      <c r="E124" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="F124" s="204"/>
-      <c r="G124" s="204"/>
-      <c r="H124" s="205"/>
-      <c r="I124" s="205"/>
-      <c r="J124" s="206"/>
+      <c r="F124" s="201"/>
+      <c r="G124" s="201"/>
+      <c r="H124" s="202"/>
+      <c r="I124" s="202"/>
+      <c r="J124" s="203"/>
       <c r="K124" s="185"/>
-      <c r="L124" s="206"/>
-      <c r="M124" s="205" t="s">
+      <c r="L124" s="203"/>
+      <c r="M124" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="N124" s="206"/>
-      <c r="O124" s="206"/>
-      <c r="P124" s="206"/>
+      <c r="N124" s="203"/>
+      <c r="O124" s="203"/>
+      <c r="P124" s="203"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C125" s="517"/>
-      <c r="E125" s="207" t="s">
+      <c r="C125" s="378"/>
+      <c r="E125" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="207"/>
-      <c r="G125" s="207"/>
-      <c r="H125" s="208"/>
-      <c r="I125" s="208"/>
-      <c r="J125" s="206"/>
+      <c r="F125" s="204"/>
+      <c r="G125" s="204"/>
+      <c r="H125" s="205"/>
+      <c r="I125" s="205"/>
+      <c r="J125" s="203"/>
       <c r="K125" s="185"/>
-      <c r="L125" s="206"/>
-      <c r="M125" s="208" t="s">
+      <c r="L125" s="203"/>
+      <c r="M125" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="N125" s="206"/>
-      <c r="O125" s="206"/>
-      <c r="P125" s="206"/>
+      <c r="N125" s="203"/>
+      <c r="O125" s="203"/>
+      <c r="P125" s="203"/>
     </row>
     <row r="128" spans="1:18" s="135" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="209"/>
-      <c r="C128" s="516"/>
-      <c r="E128" s="204"/>
+      <c r="B128" s="206"/>
+      <c r="C128" s="377"/>
+      <c r="E128" s="201"/>
       <c r="F128" s="134"/>
       <c r="G128" s="134"/>
-      <c r="H128" s="210"/>
-      <c r="I128" s="210"/>
-      <c r="J128" s="210"/>
-      <c r="L128" s="210"/>
-      <c r="M128" s="211" t="s">
+      <c r="H128" s="207"/>
+      <c r="I128" s="207"/>
+      <c r="J128" s="207"/>
+      <c r="L128" s="207"/>
+      <c r="M128" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="N128" s="210"/>
-      <c r="O128" s="210"/>
-      <c r="P128" s="210"/>
+      <c r="N128" s="207"/>
+      <c r="O128" s="207"/>
+      <c r="P128" s="207"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:Q121">
@@ -6878,37 +6893,12 @@
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
-  <mergeCells count="46">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="Q117:Q118"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+  <mergeCells count="51">
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="C23:C30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A4:Q4"/>
@@ -6925,6 +6915,36 @@
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="Q117:Q118"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7013,14 +7033,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="417" t="s">
+      <c r="A4" s="430" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="417"/>
-      <c r="C4" s="417"/>
-      <c r="D4" s="417"/>
-      <c r="E4" s="417"/>
-      <c r="F4" s="417"/>
+      <c r="B4" s="430"/>
+      <c r="C4" s="430"/>
+      <c r="D4" s="430"/>
+      <c r="E4" s="430"/>
+      <c r="F4" s="430"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -7034,14 +7054,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="418" t="s">
+      <c r="A5" s="431" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="418"/>
-      <c r="C5" s="418"/>
-      <c r="D5" s="418"/>
-      <c r="E5" s="418"/>
-      <c r="F5" s="418"/>
+      <c r="B5" s="431"/>
+      <c r="C5" s="431"/>
+      <c r="D5" s="431"/>
+      <c r="E5" s="431"/>
+      <c r="F5" s="431"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -7294,17 +7314,17 @@
         <v>23</v>
       </c>
       <c r="C16" s="30"/>
-      <c r="D16" s="351"/>
+      <c r="D16" s="348"/>
       <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="348" t="s">
+      <c r="B17" s="345" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="349"/>
-      <c r="D17" s="352"/>
-      <c r="E17" s="350"/>
+      <c r="C17" s="346"/>
+      <c r="D17" s="349"/>
+      <c r="E17" s="347"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
@@ -7314,7 +7334,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="352"/>
+      <c r="D18" s="349"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -7325,7 +7345,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="23"/>
-      <c r="D19" s="352"/>
+      <c r="D19" s="349"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -7336,7 +7356,7 @@
         <v>130</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="352"/>
+      <c r="D20" s="349"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -7347,7 +7367,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="23"/>
-      <c r="D21" s="352"/>
+      <c r="D21" s="349"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -7358,7 +7378,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="23"/>
-      <c r="D22" s="352"/>
+      <c r="D22" s="349"/>
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -7369,7 +7389,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="353"/>
+      <c r="D23" s="350"/>
       <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7381,19 +7401,19 @@
         <f>SUM(C16:C23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="354">
+      <c r="D24" s="351">
         <f>SUM(D16:D23)</f>
         <v>0</v>
       </c>
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="419" t="s">
+      <c r="A25" s="432" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="419"/>
+      <c r="B25" s="432"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="354">
+      <c r="D25" s="351">
         <f>C24-D24</f>
         <v>0</v>
       </c>
@@ -7478,13 +7498,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="443" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="420"/>
+      <c r="B1" s="443"/>
+      <c r="C1" s="443"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
       <c r="H1" s="74"/>
@@ -7512,188 +7532,188 @@
       <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="421" t="s">
+      <c r="A4" s="434" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="421"/>
-      <c r="C4" s="421"/>
-      <c r="D4" s="421"/>
-      <c r="E4" s="421"/>
-      <c r="F4" s="421"/>
-      <c r="G4" s="421"/>
-      <c r="H4" s="421"/>
-      <c r="I4" s="421"/>
-      <c r="J4" s="421"/>
-      <c r="K4" s="421"/>
-      <c r="L4" s="421"/>
-      <c r="M4" s="421"/>
-      <c r="N4" s="421"/>
-      <c r="O4" s="421"/>
-      <c r="P4" s="421"/>
+      <c r="B4" s="434"/>
+      <c r="C4" s="434"/>
+      <c r="D4" s="434"/>
+      <c r="E4" s="434"/>
+      <c r="F4" s="434"/>
+      <c r="G4" s="434"/>
+      <c r="H4" s="434"/>
+      <c r="I4" s="434"/>
+      <c r="J4" s="434"/>
+      <c r="K4" s="434"/>
+      <c r="L4" s="434"/>
+      <c r="M4" s="434"/>
+      <c r="N4" s="434"/>
+      <c r="O4" s="434"/>
+      <c r="P4" s="434"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="424"/>
-      <c r="B5" s="424"/>
-      <c r="C5" s="424"/>
-      <c r="D5" s="424"/>
-      <c r="E5" s="424"/>
-      <c r="F5" s="424"/>
-      <c r="G5" s="424"/>
-      <c r="H5" s="424"/>
-      <c r="I5" s="424"/>
-      <c r="J5" s="424"/>
-      <c r="K5" s="424"/>
-      <c r="L5" s="424"/>
-      <c r="M5" s="424"/>
-      <c r="N5" s="424"/>
-      <c r="O5" s="424"/>
-      <c r="P5" s="424"/>
+      <c r="A5" s="446"/>
+      <c r="B5" s="446"/>
+      <c r="C5" s="446"/>
+      <c r="D5" s="446"/>
+      <c r="E5" s="446"/>
+      <c r="F5" s="446"/>
+      <c r="G5" s="446"/>
+      <c r="H5" s="446"/>
+      <c r="I5" s="446"/>
+      <c r="J5" s="446"/>
+      <c r="K5" s="446"/>
+      <c r="L5" s="446"/>
+      <c r="M5" s="446"/>
+      <c r="N5" s="446"/>
+      <c r="O5" s="446"/>
+      <c r="P5" s="446"/>
     </row>
     <row r="6" spans="1:16" s="178" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="395" t="s">
+      <c r="A6" s="425" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="426" t="s">
+      <c r="B6" s="439" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="395" t="s">
+      <c r="C6" s="425" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="395" t="s">
+      <c r="D6" s="425" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="395"/>
-      <c r="F6" s="396" t="s">
+      <c r="E6" s="425"/>
+      <c r="F6" s="426" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="396"/>
-      <c r="H6" s="396"/>
-      <c r="I6" s="396"/>
-      <c r="J6" s="396"/>
-      <c r="K6" s="396"/>
-      <c r="L6" s="396"/>
-      <c r="M6" s="397"/>
-      <c r="N6" s="397"/>
-      <c r="O6" s="397"/>
-      <c r="P6" s="422" t="s">
+      <c r="G6" s="426"/>
+      <c r="H6" s="426"/>
+      <c r="I6" s="426"/>
+      <c r="J6" s="426"/>
+      <c r="K6" s="426"/>
+      <c r="L6" s="426"/>
+      <c r="M6" s="427"/>
+      <c r="N6" s="427"/>
+      <c r="O6" s="427"/>
+      <c r="P6" s="444" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="178" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="395"/>
-      <c r="B7" s="426"/>
-      <c r="C7" s="395"/>
-      <c r="D7" s="395" t="s">
+      <c r="A7" s="425"/>
+      <c r="B7" s="439"/>
+      <c r="C7" s="425"/>
+      <c r="D7" s="425" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="395" t="s">
+      <c r="E7" s="425" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="395" t="s">
+      <c r="F7" s="425" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="395" t="s">
+      <c r="G7" s="425" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="423" t="s">
+      <c r="H7" s="445" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="423" t="s">
+      <c r="I7" s="445" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="403" t="s">
+      <c r="J7" s="418" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="403"/>
-      <c r="L7" s="423" t="s">
+      <c r="K7" s="418"/>
+      <c r="L7" s="445" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="423" t="s">
+      <c r="M7" s="445" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="423" t="s">
+      <c r="N7" s="445" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="423" t="s">
+      <c r="O7" s="445" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="422"/>
+      <c r="P7" s="444"/>
     </row>
     <row r="8" spans="1:16" s="178" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="395"/>
-      <c r="B8" s="426"/>
-      <c r="C8" s="395"/>
-      <c r="D8" s="395"/>
-      <c r="E8" s="395"/>
-      <c r="F8" s="395"/>
-      <c r="G8" s="395"/>
-      <c r="H8" s="423"/>
-      <c r="I8" s="423"/>
-      <c r="J8" s="241" t="s">
+      <c r="A8" s="425"/>
+      <c r="B8" s="439"/>
+      <c r="C8" s="425"/>
+      <c r="D8" s="425"/>
+      <c r="E8" s="425"/>
+      <c r="F8" s="425"/>
+      <c r="G8" s="425"/>
+      <c r="H8" s="445"/>
+      <c r="I8" s="445"/>
+      <c r="J8" s="238" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="221" t="s">
+      <c r="K8" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="423"/>
-      <c r="M8" s="423"/>
-      <c r="N8" s="423"/>
-      <c r="O8" s="423"/>
-      <c r="P8" s="422"/>
+      <c r="L8" s="445"/>
+      <c r="M8" s="445"/>
+      <c r="N8" s="445"/>
+      <c r="O8" s="445"/>
+      <c r="P8" s="444"/>
     </row>
     <row r="9" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="357"/>
-      <c r="B9" s="360"/>
-      <c r="C9" s="357"/>
-      <c r="D9" s="357"/>
-      <c r="E9" s="357"/>
-      <c r="F9" s="238"/>
-      <c r="G9" s="238"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="222"/>
-      <c r="J9" s="222"/>
-      <c r="K9" s="223"/>
-      <c r="L9" s="222"/>
-      <c r="M9" s="222"/>
-      <c r="N9" s="222"/>
-      <c r="O9" s="222"/>
-      <c r="P9" s="238"/>
+      <c r="A9" s="354"/>
+      <c r="B9" s="357"/>
+      <c r="C9" s="354"/>
+      <c r="D9" s="354"/>
+      <c r="E9" s="354"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="220"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="235"/>
     </row>
     <row r="10" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="358"/>
-      <c r="B10" s="361"/>
-      <c r="C10" s="358"/>
-      <c r="D10" s="358"/>
-      <c r="E10" s="358"/>
-      <c r="F10" s="239"/>
-      <c r="G10" s="239"/>
-      <c r="H10" s="224"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="225"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="224"/>
-      <c r="N10" s="224"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="239"/>
+      <c r="A10" s="355"/>
+      <c r="B10" s="358"/>
+      <c r="C10" s="355"/>
+      <c r="D10" s="355"/>
+      <c r="E10" s="355"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="221"/>
+      <c r="N10" s="221"/>
+      <c r="O10" s="221"/>
+      <c r="P10" s="236"/>
     </row>
     <row r="11" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="359"/>
-      <c r="B11" s="362"/>
-      <c r="C11" s="359"/>
-      <c r="D11" s="359"/>
-      <c r="E11" s="359"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="226"/>
-      <c r="I11" s="226"/>
-      <c r="J11" s="226"/>
-      <c r="K11" s="227"/>
-      <c r="L11" s="226"/>
-      <c r="M11" s="226"/>
-      <c r="N11" s="226"/>
-      <c r="O11" s="226"/>
-      <c r="P11" s="228"/>
+      <c r="A11" s="356"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="356"/>
+      <c r="D11" s="356"/>
+      <c r="E11" s="356"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="223"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="225"/>
     </row>
     <row r="12" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="181"/>
@@ -7714,16 +7734,16 @@
       <c r="P12" s="186"/>
     </row>
     <row r="13" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="233"/>
-      <c r="B13" s="234"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="235"/>
+      <c r="A13" s="230"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="232"/>
       <c r="F13" s="181"/>
       <c r="G13" s="181"/>
       <c r="H13" s="183"/>
       <c r="I13" s="183"/>
-      <c r="J13" s="230"/>
+      <c r="J13" s="227"/>
       <c r="K13" s="184"/>
       <c r="L13" s="183"/>
       <c r="M13" s="183"/>
@@ -7733,7 +7753,7 @@
     </row>
     <row r="14" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="181"/>
-      <c r="B14" s="212"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="181"/>
       <c r="D14" s="181"/>
       <c r="E14" s="181"/>
@@ -7750,11 +7770,11 @@
       <c r="P14" s="181"/>
     </row>
     <row r="15" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="232"/>
-      <c r="B15" s="236"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="232"/>
+      <c r="A15" s="229"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="229"/>
       <c r="F15" s="181"/>
       <c r="G15" s="181"/>
       <c r="H15" s="183"/>
@@ -7768,44 +7788,44 @@
       <c r="P15" s="181"/>
     </row>
     <row r="16" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="357"/>
-      <c r="B16" s="368"/>
-      <c r="C16" s="357"/>
-      <c r="D16" s="357"/>
-      <c r="E16" s="357"/>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="223"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="222"/>
-      <c r="N16" s="222"/>
-      <c r="O16" s="222"/>
-      <c r="P16" s="238"/>
+      <c r="A16" s="354"/>
+      <c r="B16" s="364"/>
+      <c r="C16" s="354"/>
+      <c r="D16" s="354"/>
+      <c r="E16" s="354"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
+      <c r="K16" s="220"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="219"/>
+      <c r="N16" s="219"/>
+      <c r="O16" s="219"/>
+      <c r="P16" s="235"/>
     </row>
     <row r="17" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="359"/>
-      <c r="B17" s="369"/>
-      <c r="C17" s="359"/>
-      <c r="D17" s="359"/>
-      <c r="E17" s="359"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="226"/>
-      <c r="I17" s="226"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="226"/>
-      <c r="M17" s="226"/>
-      <c r="N17" s="226"/>
-      <c r="O17" s="226"/>
-      <c r="P17" s="240"/>
+      <c r="A17" s="356"/>
+      <c r="B17" s="365"/>
+      <c r="C17" s="356"/>
+      <c r="D17" s="356"/>
+      <c r="E17" s="356"/>
+      <c r="F17" s="237"/>
+      <c r="G17" s="237"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="224"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="237"/>
     </row>
     <row r="18" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="181"/>
-      <c r="B18" s="212"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="181"/>
       <c r="D18" s="181"/>
       <c r="E18" s="181"/>
@@ -7823,7 +7843,7 @@
     </row>
     <row r="19" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="181"/>
-      <c r="B19" s="212"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="181"/>
       <c r="D19" s="181"/>
       <c r="E19" s="181"/>
@@ -7840,62 +7860,62 @@
       <c r="P19" s="181"/>
     </row>
     <row r="20" spans="1:16" s="185" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="357"/>
-      <c r="B20" s="368"/>
-      <c r="C20" s="357"/>
-      <c r="D20" s="357"/>
-      <c r="E20" s="357"/>
-      <c r="F20" s="238"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="222"/>
-      <c r="I20" s="222"/>
-      <c r="J20" s="427"/>
-      <c r="K20" s="223"/>
-      <c r="L20" s="222"/>
-      <c r="M20" s="222"/>
-      <c r="N20" s="222"/>
-      <c r="O20" s="222"/>
-      <c r="P20" s="238"/>
+      <c r="A20" s="354"/>
+      <c r="B20" s="364"/>
+      <c r="C20" s="354"/>
+      <c r="D20" s="354"/>
+      <c r="E20" s="354"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="440"/>
+      <c r="K20" s="220"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="235"/>
     </row>
     <row r="21" spans="1:16" s="185" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="358"/>
-      <c r="B21" s="370"/>
-      <c r="C21" s="358"/>
-      <c r="D21" s="358"/>
-      <c r="E21" s="358"/>
-      <c r="F21" s="239"/>
-      <c r="G21" s="239"/>
-      <c r="H21" s="224"/>
-      <c r="I21" s="224"/>
-      <c r="J21" s="428"/>
-      <c r="K21" s="225"/>
-      <c r="L21" s="224"/>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="239"/>
+      <c r="A21" s="355"/>
+      <c r="B21" s="366"/>
+      <c r="C21" s="355"/>
+      <c r="D21" s="355"/>
+      <c r="E21" s="355"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="441"/>
+      <c r="K21" s="222"/>
+      <c r="L21" s="221"/>
+      <c r="M21" s="221"/>
+      <c r="N21" s="221"/>
+      <c r="O21" s="221"/>
+      <c r="P21" s="236"/>
     </row>
     <row r="22" spans="1:16" s="185" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="359"/>
-      <c r="B22" s="369"/>
-      <c r="C22" s="359"/>
-      <c r="D22" s="359"/>
-      <c r="E22" s="359"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="226"/>
-      <c r="J22" s="429"/>
-      <c r="K22" s="227"/>
-      <c r="L22" s="226"/>
-      <c r="M22" s="226"/>
-      <c r="N22" s="226"/>
-      <c r="O22" s="226"/>
-      <c r="P22" s="240"/>
+      <c r="A22" s="356"/>
+      <c r="B22" s="365"/>
+      <c r="C22" s="356"/>
+      <c r="D22" s="356"/>
+      <c r="E22" s="356"/>
+      <c r="F22" s="237"/>
+      <c r="G22" s="237"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="442"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="223"/>
+      <c r="O22" s="223"/>
+      <c r="P22" s="237"/>
     </row>
     <row r="23" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="181"/>
-      <c r="B23" s="212"/>
+      <c r="B23" s="209"/>
       <c r="C23" s="181"/>
       <c r="D23" s="181"/>
       <c r="E23" s="181"/>
@@ -7912,408 +7932,408 @@
       <c r="P23" s="181"/>
     </row>
     <row r="24" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="357"/>
-      <c r="B24" s="368"/>
-      <c r="C24" s="357"/>
-      <c r="D24" s="357"/>
-      <c r="E24" s="357"/>
-      <c r="F24" s="238"/>
-      <c r="G24" s="238"/>
-      <c r="H24" s="222"/>
-      <c r="I24" s="222"/>
-      <c r="J24" s="222"/>
-      <c r="K24" s="223"/>
-      <c r="L24" s="222"/>
-      <c r="M24" s="222"/>
-      <c r="N24" s="222"/>
-      <c r="O24" s="222"/>
-      <c r="P24" s="238"/>
+      <c r="A24" s="354"/>
+      <c r="B24" s="364"/>
+      <c r="C24" s="354"/>
+      <c r="D24" s="354"/>
+      <c r="E24" s="354"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="219"/>
+      <c r="N24" s="219"/>
+      <c r="O24" s="219"/>
+      <c r="P24" s="235"/>
     </row>
     <row r="25" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="359"/>
-      <c r="B25" s="369"/>
-      <c r="C25" s="359"/>
-      <c r="D25" s="359"/>
-      <c r="E25" s="359"/>
-      <c r="F25" s="240"/>
-      <c r="G25" s="240"/>
-      <c r="H25" s="226"/>
-      <c r="I25" s="226"/>
-      <c r="J25" s="226"/>
-      <c r="K25" s="227"/>
-      <c r="L25" s="226"/>
-      <c r="M25" s="226"/>
-      <c r="N25" s="226"/>
-      <c r="O25" s="226"/>
-      <c r="P25" s="240"/>
+      <c r="A25" s="356"/>
+      <c r="B25" s="365"/>
+      <c r="C25" s="356"/>
+      <c r="D25" s="356"/>
+      <c r="E25" s="356"/>
+      <c r="F25" s="237"/>
+      <c r="G25" s="237"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="223"/>
+      <c r="M25" s="223"/>
+      <c r="N25" s="223"/>
+      <c r="O25" s="223"/>
+      <c r="P25" s="237"/>
     </row>
     <row r="26" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="357"/>
-      <c r="B26" s="368"/>
-      <c r="C26" s="357"/>
-      <c r="D26" s="357"/>
-      <c r="E26" s="357"/>
-      <c r="F26" s="238"/>
-      <c r="G26" s="238"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="222"/>
-      <c r="J26" s="222"/>
-      <c r="K26" s="223"/>
-      <c r="L26" s="222"/>
-      <c r="M26" s="222"/>
-      <c r="N26" s="222"/>
-      <c r="O26" s="222"/>
-      <c r="P26" s="238"/>
+      <c r="A26" s="354"/>
+      <c r="B26" s="364"/>
+      <c r="C26" s="354"/>
+      <c r="D26" s="354"/>
+      <c r="E26" s="354"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="220"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="235"/>
     </row>
     <row r="27" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="359"/>
-      <c r="B27" s="369"/>
-      <c r="C27" s="359"/>
-      <c r="D27" s="359"/>
-      <c r="E27" s="359"/>
-      <c r="F27" s="240"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="226"/>
-      <c r="I27" s="226"/>
-      <c r="J27" s="226"/>
-      <c r="K27" s="227"/>
-      <c r="L27" s="226"/>
-      <c r="M27" s="226"/>
-      <c r="N27" s="226"/>
-      <c r="O27" s="226"/>
-      <c r="P27" s="240"/>
+      <c r="A27" s="356"/>
+      <c r="B27" s="365"/>
+      <c r="C27" s="356"/>
+      <c r="D27" s="356"/>
+      <c r="E27" s="356"/>
+      <c r="F27" s="237"/>
+      <c r="G27" s="237"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="223"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="223"/>
+      <c r="O27" s="223"/>
+      <c r="P27" s="237"/>
     </row>
     <row r="28" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="233"/>
-      <c r="B28" s="237"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="233"/>
-      <c r="G28" s="233"/>
-      <c r="H28" s="231"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="231"/>
-      <c r="K28" s="287"/>
-      <c r="L28" s="231"/>
-      <c r="M28" s="231"/>
-      <c r="N28" s="231"/>
-      <c r="O28" s="231"/>
-      <c r="P28" s="233"/>
+      <c r="A28" s="230"/>
+      <c r="B28" s="234"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="228"/>
+      <c r="J28" s="228"/>
+      <c r="K28" s="284"/>
+      <c r="L28" s="228"/>
+      <c r="M28" s="228"/>
+      <c r="N28" s="228"/>
+      <c r="O28" s="228"/>
+      <c r="P28" s="230"/>
     </row>
     <row r="29" spans="1:16" s="185" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="233"/>
-      <c r="B29" s="237"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="233"/>
-      <c r="H29" s="231"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="287"/>
-      <c r="L29" s="231"/>
-      <c r="M29" s="231"/>
-      <c r="N29" s="231"/>
-      <c r="O29" s="231"/>
-      <c r="P29" s="233"/>
+      <c r="A29" s="230"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
+      <c r="E29" s="230"/>
+      <c r="F29" s="230"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="228"/>
+      <c r="K29" s="284"/>
+      <c r="L29" s="228"/>
+      <c r="M29" s="228"/>
+      <c r="N29" s="228"/>
+      <c r="O29" s="228"/>
+      <c r="P29" s="230"/>
     </row>
     <row r="30" spans="1:16" s="185" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="233"/>
-      <c r="B30" s="237"/>
-      <c r="C30" s="233"/>
-      <c r="D30" s="233"/>
-      <c r="E30" s="233"/>
-      <c r="F30" s="233"/>
-      <c r="G30" s="233"/>
-      <c r="H30" s="231"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="287"/>
-      <c r="L30" s="231"/>
-      <c r="M30" s="231"/>
-      <c r="N30" s="231"/>
-      <c r="O30" s="231"/>
-      <c r="P30" s="233"/>
+      <c r="A30" s="230"/>
+      <c r="B30" s="234"/>
+      <c r="C30" s="230"/>
+      <c r="D30" s="230"/>
+      <c r="E30" s="230"/>
+      <c r="F30" s="230"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="228"/>
+      <c r="K30" s="284"/>
+      <c r="L30" s="228"/>
+      <c r="M30" s="228"/>
+      <c r="N30" s="228"/>
+      <c r="O30" s="228"/>
+      <c r="P30" s="230"/>
     </row>
     <row r="31" spans="1:16" s="185" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="233"/>
-      <c r="B31" s="237"/>
-      <c r="C31" s="233"/>
-      <c r="D31" s="233"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="233"/>
-      <c r="G31" s="233"/>
-      <c r="H31" s="231"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="287"/>
-      <c r="L31" s="231"/>
-      <c r="M31" s="231"/>
-      <c r="N31" s="231"/>
-      <c r="O31" s="231"/>
-      <c r="P31" s="233"/>
-    </row>
-    <row r="32" spans="1:16" s="288" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="431" t="s">
+      <c r="A31" s="230"/>
+      <c r="B31" s="234"/>
+      <c r="C31" s="230"/>
+      <c r="D31" s="230"/>
+      <c r="E31" s="230"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="228"/>
+      <c r="K31" s="284"/>
+      <c r="L31" s="228"/>
+      <c r="M31" s="228"/>
+      <c r="N31" s="228"/>
+      <c r="O31" s="228"/>
+      <c r="P31" s="230"/>
+    </row>
+    <row r="32" spans="1:16" s="285" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="435" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="432"/>
-      <c r="C32" s="432"/>
-      <c r="D32" s="432"/>
-      <c r="E32" s="432"/>
-      <c r="F32" s="432"/>
-      <c r="G32" s="432"/>
-      <c r="H32" s="433"/>
-      <c r="I32" s="289">
+      <c r="B32" s="436"/>
+      <c r="C32" s="436"/>
+      <c r="D32" s="436"/>
+      <c r="E32" s="436"/>
+      <c r="F32" s="436"/>
+      <c r="G32" s="436"/>
+      <c r="H32" s="437"/>
+      <c r="I32" s="286">
         <f>SUM(I9:I31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="290"/>
-      <c r="K32" s="290"/>
-      <c r="L32" s="289">
+      <c r="J32" s="287"/>
+      <c r="K32" s="287"/>
+      <c r="L32" s="286">
         <f>SUM(L9:L31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="290"/>
-      <c r="N32" s="289">
+      <c r="M32" s="287"/>
+      <c r="N32" s="286">
         <f>SUM(N9:N31)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="289">
+      <c r="O32" s="286">
         <f>SUM(O9:O31)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="290"/>
-    </row>
-    <row r="33" spans="1:15" s="296" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="294"/>
-      <c r="B33" s="294"/>
-      <c r="C33" s="294"/>
-      <c r="D33" s="294"/>
-      <c r="E33" s="294"/>
-      <c r="F33" s="294"/>
-      <c r="G33" s="294"/>
-      <c r="H33" s="294"/>
-      <c r="I33" s="295"/>
-      <c r="L33" s="295"/>
-      <c r="N33" s="295"/>
-      <c r="O33" s="295"/>
-    </row>
-    <row r="34" spans="1:15" s="296" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="294"/>
-      <c r="B34" s="294"/>
-      <c r="C34" s="421" t="s">
+      <c r="P32" s="287"/>
+    </row>
+    <row r="33" spans="1:15" s="293" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="291"/>
+      <c r="B33" s="291"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="291"/>
+      <c r="F33" s="291"/>
+      <c r="G33" s="291"/>
+      <c r="H33" s="291"/>
+      <c r="I33" s="292"/>
+      <c r="L33" s="292"/>
+      <c r="N33" s="292"/>
+      <c r="O33" s="292"/>
+    </row>
+    <row r="34" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="291"/>
+      <c r="B34" s="291"/>
+      <c r="C34" s="434" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="421"/>
-      <c r="E34" s="421"/>
-      <c r="F34" s="294"/>
-      <c r="G34" s="294"/>
-      <c r="H34" s="294"/>
-      <c r="I34" s="295"/>
-      <c r="L34" s="295"/>
-      <c r="M34" s="430" t="s">
+      <c r="D34" s="434"/>
+      <c r="E34" s="434"/>
+      <c r="F34" s="291"/>
+      <c r="G34" s="291"/>
+      <c r="H34" s="291"/>
+      <c r="I34" s="292"/>
+      <c r="L34" s="292"/>
+      <c r="M34" s="433" t="s">
         <v>125</v>
       </c>
-      <c r="N34" s="430"/>
-      <c r="O34" s="295"/>
-    </row>
-    <row r="35" spans="1:15" s="296" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="355"/>
-      <c r="B35" s="355"/>
-      <c r="C35" s="355"/>
-      <c r="D35" s="355"/>
-      <c r="E35" s="355"/>
-      <c r="F35" s="355"/>
-      <c r="G35" s="355"/>
-      <c r="H35" s="355"/>
-      <c r="I35" s="295"/>
-      <c r="L35" s="295"/>
-      <c r="M35" s="356"/>
-      <c r="N35" s="356"/>
-      <c r="O35" s="295"/>
-    </row>
-    <row r="36" spans="1:15" s="296" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="355"/>
-      <c r="B36" s="355"/>
-      <c r="C36" s="355"/>
-      <c r="D36" s="355"/>
-      <c r="E36" s="355"/>
-      <c r="F36" s="355"/>
-      <c r="G36" s="355"/>
-      <c r="H36" s="355"/>
-      <c r="I36" s="295"/>
-      <c r="L36" s="295"/>
-      <c r="M36" s="356"/>
-      <c r="N36" s="356"/>
-      <c r="O36" s="295"/>
-    </row>
-    <row r="37" spans="1:15" s="296" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="355"/>
-      <c r="B37" s="355"/>
-      <c r="C37" s="355"/>
-      <c r="D37" s="355"/>
-      <c r="E37" s="355"/>
-      <c r="F37" s="355"/>
-      <c r="G37" s="355"/>
-      <c r="H37" s="355"/>
-      <c r="I37" s="295"/>
-      <c r="L37" s="295"/>
-      <c r="M37" s="356"/>
-      <c r="N37" s="356"/>
-      <c r="O37" s="295"/>
-    </row>
-    <row r="38" spans="1:15" s="296" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="355"/>
-      <c r="B38" s="355"/>
-      <c r="C38" s="355"/>
-      <c r="D38" s="355"/>
-      <c r="E38" s="355"/>
-      <c r="F38" s="355"/>
-      <c r="G38" s="355"/>
-      <c r="H38" s="355"/>
-      <c r="I38" s="295"/>
-      <c r="L38" s="295"/>
-      <c r="M38" s="356"/>
-      <c r="N38" s="356"/>
-      <c r="O38" s="295"/>
-    </row>
-    <row r="39" spans="1:15" s="296" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="355"/>
-      <c r="B39" s="355"/>
-      <c r="C39" s="355"/>
-      <c r="D39" s="355"/>
-      <c r="E39" s="355"/>
-      <c r="F39" s="355"/>
-      <c r="G39" s="355"/>
-      <c r="H39" s="355"/>
-      <c r="I39" s="295"/>
-      <c r="L39" s="295"/>
-      <c r="M39" s="356"/>
-      <c r="N39" s="356"/>
-      <c r="O39" s="295"/>
-    </row>
-    <row r="40" spans="1:15" s="296" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="355"/>
-      <c r="B40" s="355"/>
-      <c r="C40" s="355"/>
-      <c r="D40" s="355"/>
-      <c r="E40" s="355"/>
-      <c r="F40" s="355"/>
-      <c r="G40" s="355"/>
-      <c r="H40" s="355"/>
-      <c r="I40" s="295"/>
-      <c r="L40" s="295"/>
-      <c r="M40" s="356"/>
-      <c r="N40" s="356"/>
-      <c r="O40" s="295"/>
-    </row>
-    <row r="41" spans="1:15" s="296" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="355"/>
-      <c r="B41" s="355"/>
-      <c r="C41" s="355"/>
-      <c r="D41" s="355"/>
-      <c r="E41" s="355"/>
-      <c r="F41" s="355"/>
-      <c r="G41" s="355"/>
-      <c r="H41" s="355"/>
-      <c r="I41" s="295"/>
-      <c r="L41" s="295"/>
-      <c r="M41" s="356"/>
-      <c r="N41" s="356"/>
-      <c r="O41" s="295"/>
-    </row>
-    <row r="42" spans="1:15" s="296" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="355"/>
-      <c r="B42" s="355"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="355"/>
-      <c r="F42" s="355"/>
-      <c r="G42" s="355"/>
-      <c r="H42" s="355"/>
-      <c r="I42" s="295"/>
-      <c r="L42" s="295"/>
-      <c r="M42" s="356"/>
-      <c r="N42" s="356"/>
-      <c r="O42" s="295"/>
-    </row>
-    <row r="43" spans="1:15" s="296" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="355"/>
-      <c r="B43" s="355"/>
-      <c r="C43" s="355"/>
-      <c r="D43" s="355"/>
-      <c r="E43" s="355"/>
-      <c r="F43" s="355"/>
-      <c r="G43" s="355"/>
-      <c r="H43" s="355"/>
-      <c r="I43" s="295"/>
-      <c r="L43" s="295"/>
-      <c r="M43" s="356"/>
-      <c r="N43" s="356"/>
-      <c r="O43" s="295"/>
-    </row>
-    <row r="44" spans="1:15" s="296" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="355"/>
-      <c r="B44" s="355"/>
-      <c r="C44" s="355"/>
-      <c r="D44" s="355"/>
-      <c r="E44" s="355"/>
-      <c r="F44" s="355"/>
-      <c r="G44" s="355"/>
-      <c r="H44" s="355"/>
-      <c r="I44" s="295"/>
-      <c r="L44" s="295"/>
-      <c r="M44" s="356"/>
-      <c r="N44" s="356"/>
-      <c r="O44" s="295"/>
-    </row>
-    <row r="45" spans="1:15" s="296" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="355"/>
-      <c r="B45" s="355"/>
-      <c r="C45" s="355"/>
-      <c r="D45" s="355"/>
-      <c r="E45" s="355"/>
-      <c r="F45" s="355"/>
-      <c r="G45" s="355"/>
-      <c r="H45" s="355"/>
-      <c r="I45" s="295"/>
-      <c r="L45" s="295"/>
-      <c r="M45" s="356"/>
-      <c r="N45" s="356"/>
-      <c r="O45" s="295"/>
-    </row>
-    <row r="46" spans="1:15" s="296" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="294"/>
-      <c r="B46" s="294"/>
-      <c r="C46" s="294"/>
-      <c r="D46" s="294"/>
-      <c r="E46" s="294"/>
-      <c r="F46" s="294"/>
-      <c r="G46" s="294"/>
-      <c r="H46" s="294"/>
-      <c r="I46" s="295"/>
-      <c r="L46" s="295"/>
-      <c r="N46" s="295"/>
-      <c r="O46" s="295"/>
+      <c r="N34" s="433"/>
+      <c r="O34" s="292"/>
+    </row>
+    <row r="35" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="352"/>
+      <c r="B35" s="352"/>
+      <c r="C35" s="352"/>
+      <c r="D35" s="352"/>
+      <c r="E35" s="352"/>
+      <c r="F35" s="352"/>
+      <c r="G35" s="352"/>
+      <c r="H35" s="352"/>
+      <c r="I35" s="292"/>
+      <c r="L35" s="292"/>
+      <c r="M35" s="353"/>
+      <c r="N35" s="353"/>
+      <c r="O35" s="292"/>
+    </row>
+    <row r="36" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="352"/>
+      <c r="B36" s="352"/>
+      <c r="C36" s="352"/>
+      <c r="D36" s="352"/>
+      <c r="E36" s="352"/>
+      <c r="F36" s="352"/>
+      <c r="G36" s="352"/>
+      <c r="H36" s="352"/>
+      <c r="I36" s="292"/>
+      <c r="L36" s="292"/>
+      <c r="M36" s="353"/>
+      <c r="N36" s="353"/>
+      <c r="O36" s="292"/>
+    </row>
+    <row r="37" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="352"/>
+      <c r="B37" s="352"/>
+      <c r="C37" s="352"/>
+      <c r="D37" s="352"/>
+      <c r="E37" s="352"/>
+      <c r="F37" s="352"/>
+      <c r="G37" s="352"/>
+      <c r="H37" s="352"/>
+      <c r="I37" s="292"/>
+      <c r="L37" s="292"/>
+      <c r="M37" s="353"/>
+      <c r="N37" s="353"/>
+      <c r="O37" s="292"/>
+    </row>
+    <row r="38" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="352"/>
+      <c r="B38" s="352"/>
+      <c r="C38" s="352"/>
+      <c r="D38" s="352"/>
+      <c r="E38" s="352"/>
+      <c r="F38" s="352"/>
+      <c r="G38" s="352"/>
+      <c r="H38" s="352"/>
+      <c r="I38" s="292"/>
+      <c r="L38" s="292"/>
+      <c r="M38" s="353"/>
+      <c r="N38" s="353"/>
+      <c r="O38" s="292"/>
+    </row>
+    <row r="39" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="352"/>
+      <c r="B39" s="352"/>
+      <c r="C39" s="352"/>
+      <c r="D39" s="352"/>
+      <c r="E39" s="352"/>
+      <c r="F39" s="352"/>
+      <c r="G39" s="352"/>
+      <c r="H39" s="352"/>
+      <c r="I39" s="292"/>
+      <c r="L39" s="292"/>
+      <c r="M39" s="353"/>
+      <c r="N39" s="353"/>
+      <c r="O39" s="292"/>
+    </row>
+    <row r="40" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="352"/>
+      <c r="B40" s="352"/>
+      <c r="C40" s="352"/>
+      <c r="D40" s="352"/>
+      <c r="E40" s="352"/>
+      <c r="F40" s="352"/>
+      <c r="G40" s="352"/>
+      <c r="H40" s="352"/>
+      <c r="I40" s="292"/>
+      <c r="L40" s="292"/>
+      <c r="M40" s="353"/>
+      <c r="N40" s="353"/>
+      <c r="O40" s="292"/>
+    </row>
+    <row r="41" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="352"/>
+      <c r="B41" s="352"/>
+      <c r="C41" s="352"/>
+      <c r="D41" s="352"/>
+      <c r="E41" s="352"/>
+      <c r="F41" s="352"/>
+      <c r="G41" s="352"/>
+      <c r="H41" s="352"/>
+      <c r="I41" s="292"/>
+      <c r="L41" s="292"/>
+      <c r="M41" s="353"/>
+      <c r="N41" s="353"/>
+      <c r="O41" s="292"/>
+    </row>
+    <row r="42" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="352"/>
+      <c r="B42" s="352"/>
+      <c r="C42" s="352"/>
+      <c r="D42" s="352"/>
+      <c r="E42" s="352"/>
+      <c r="F42" s="352"/>
+      <c r="G42" s="352"/>
+      <c r="H42" s="352"/>
+      <c r="I42" s="292"/>
+      <c r="L42" s="292"/>
+      <c r="M42" s="353"/>
+      <c r="N42" s="353"/>
+      <c r="O42" s="292"/>
+    </row>
+    <row r="43" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="352"/>
+      <c r="B43" s="352"/>
+      <c r="C43" s="352"/>
+      <c r="D43" s="352"/>
+      <c r="E43" s="352"/>
+      <c r="F43" s="352"/>
+      <c r="G43" s="352"/>
+      <c r="H43" s="352"/>
+      <c r="I43" s="292"/>
+      <c r="L43" s="292"/>
+      <c r="M43" s="353"/>
+      <c r="N43" s="353"/>
+      <c r="O43" s="292"/>
+    </row>
+    <row r="44" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="352"/>
+      <c r="B44" s="352"/>
+      <c r="C44" s="352"/>
+      <c r="D44" s="352"/>
+      <c r="E44" s="352"/>
+      <c r="F44" s="352"/>
+      <c r="G44" s="352"/>
+      <c r="H44" s="352"/>
+      <c r="I44" s="292"/>
+      <c r="L44" s="292"/>
+      <c r="M44" s="353"/>
+      <c r="N44" s="353"/>
+      <c r="O44" s="292"/>
+    </row>
+    <row r="45" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="352"/>
+      <c r="B45" s="352"/>
+      <c r="C45" s="352"/>
+      <c r="D45" s="352"/>
+      <c r="E45" s="352"/>
+      <c r="F45" s="352"/>
+      <c r="G45" s="352"/>
+      <c r="H45" s="352"/>
+      <c r="I45" s="292"/>
+      <c r="L45" s="292"/>
+      <c r="M45" s="353"/>
+      <c r="N45" s="353"/>
+      <c r="O45" s="292"/>
+    </row>
+    <row r="46" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="291"/>
+      <c r="B46" s="291"/>
+      <c r="C46" s="291"/>
+      <c r="D46" s="291"/>
+      <c r="E46" s="291"/>
+      <c r="F46" s="291"/>
+      <c r="G46" s="291"/>
+      <c r="H46" s="291"/>
+      <c r="I46" s="292"/>
+      <c r="L46" s="292"/>
+      <c r="N46" s="292"/>
+      <c r="O46" s="292"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="113"/>
-      <c r="B47" s="421" t="s">
+      <c r="B47" s="434" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="421"/>
-      <c r="D47" s="421"/>
+      <c r="C47" s="434"/>
+      <c r="D47" s="434"/>
       <c r="E47" s="113"/>
       <c r="F47" s="113"/>
       <c r="G47" s="113"/>
       <c r="H47" s="113"/>
-      <c r="I47" s="421" t="s">
+      <c r="I47" s="434" t="s">
         <v>125</v>
       </c>
-      <c r="J47" s="421"/>
+      <c r="J47" s="434"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="113"/>
@@ -8324,7 +8344,7 @@
       <c r="F48" s="113"/>
       <c r="G48" s="113"/>
       <c r="H48" s="113"/>
-      <c r="I48" s="291"/>
+      <c r="I48" s="288"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="113"/>
@@ -8335,7 +8355,7 @@
       <c r="F49" s="113"/>
       <c r="G49" s="113"/>
       <c r="H49" s="113"/>
-      <c r="I49" s="291"/>
+      <c r="I49" s="288"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="113"/>
@@ -8346,7 +8366,7 @@
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
       <c r="H50" s="113"/>
-      <c r="I50" s="291"/>
+      <c r="I50" s="288"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="113"/>
@@ -8357,7 +8377,7 @@
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
       <c r="H51" s="113"/>
-      <c r="I51" s="291"/>
+      <c r="I51" s="288"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="113"/>
@@ -8368,7 +8388,7 @@
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
       <c r="H52" s="113"/>
-      <c r="I52" s="291"/>
+      <c r="I52" s="288"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="113"/>
@@ -8379,7 +8399,7 @@
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
       <c r="H53" s="113"/>
-      <c r="I53" s="291"/>
+      <c r="I53" s="288"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="117"/>
@@ -8390,22 +8410,22 @@
       <c r="F54" s="117"/>
       <c r="G54" s="117"/>
       <c r="H54" s="117"/>
-      <c r="I54" s="292"/>
+      <c r="I54" s="289"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="425"/>
-      <c r="B55" s="425"/>
+      <c r="A55" s="438"/>
+      <c r="B55" s="438"/>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H57" s="293"/>
+      <c r="H57" s="290"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="425"/>
-      <c r="B59" s="425"/>
+      <c r="A59" s="438"/>
+      <c r="B59" s="438"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
@@ -8413,19 +8433,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="C34:E34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="P6:P8"/>
@@ -8442,6 +8449,19 @@
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A55:B55"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8458,530 +8478,530 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="244" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="244" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="245" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" style="245" customWidth="1"/>
-    <col min="5" max="34" width="2.5546875" style="244" customWidth="1"/>
-    <col min="35" max="35" width="7.44140625" style="244" customWidth="1"/>
-    <col min="36" max="38" width="2.5546875" style="244" customWidth="1"/>
-    <col min="39" max="39" width="4.44140625" style="244" customWidth="1"/>
-    <col min="40" max="40" width="19.44140625" style="245" customWidth="1"/>
-    <col min="41" max="260" width="9" style="244"/>
-    <col min="261" max="261" width="3.33203125" style="244" customWidth="1"/>
-    <col min="262" max="262" width="20" style="244" customWidth="1"/>
-    <col min="263" max="263" width="24.5546875" style="244" customWidth="1"/>
-    <col min="264" max="293" width="4.44140625" style="244" customWidth="1"/>
-    <col min="294" max="294" width="2.5546875" style="244" customWidth="1"/>
-    <col min="295" max="295" width="6.109375" style="244" customWidth="1"/>
-    <col min="296" max="296" width="19.44140625" style="244" customWidth="1"/>
-    <col min="297" max="516" width="9" style="244"/>
-    <col min="517" max="517" width="3.33203125" style="244" customWidth="1"/>
-    <col min="518" max="518" width="20" style="244" customWidth="1"/>
-    <col min="519" max="519" width="24.5546875" style="244" customWidth="1"/>
-    <col min="520" max="549" width="4.44140625" style="244" customWidth="1"/>
-    <col min="550" max="550" width="2.5546875" style="244" customWidth="1"/>
-    <col min="551" max="551" width="6.109375" style="244" customWidth="1"/>
-    <col min="552" max="552" width="19.44140625" style="244" customWidth="1"/>
-    <col min="553" max="772" width="9" style="244"/>
-    <col min="773" max="773" width="3.33203125" style="244" customWidth="1"/>
-    <col min="774" max="774" width="20" style="244" customWidth="1"/>
-    <col min="775" max="775" width="24.5546875" style="244" customWidth="1"/>
-    <col min="776" max="805" width="4.44140625" style="244" customWidth="1"/>
-    <col min="806" max="806" width="2.5546875" style="244" customWidth="1"/>
-    <col min="807" max="807" width="6.109375" style="244" customWidth="1"/>
-    <col min="808" max="808" width="19.44140625" style="244" customWidth="1"/>
-    <col min="809" max="1028" width="9" style="244"/>
-    <col min="1029" max="1029" width="3.33203125" style="244" customWidth="1"/>
-    <col min="1030" max="1030" width="20" style="244" customWidth="1"/>
-    <col min="1031" max="1031" width="24.5546875" style="244" customWidth="1"/>
-    <col min="1032" max="1061" width="4.44140625" style="244" customWidth="1"/>
-    <col min="1062" max="1062" width="2.5546875" style="244" customWidth="1"/>
-    <col min="1063" max="1063" width="6.109375" style="244" customWidth="1"/>
-    <col min="1064" max="1064" width="19.44140625" style="244" customWidth="1"/>
-    <col min="1065" max="1284" width="9" style="244"/>
-    <col min="1285" max="1285" width="3.33203125" style="244" customWidth="1"/>
-    <col min="1286" max="1286" width="20" style="244" customWidth="1"/>
-    <col min="1287" max="1287" width="24.5546875" style="244" customWidth="1"/>
-    <col min="1288" max="1317" width="4.44140625" style="244" customWidth="1"/>
-    <col min="1318" max="1318" width="2.5546875" style="244" customWidth="1"/>
-    <col min="1319" max="1319" width="6.109375" style="244" customWidth="1"/>
-    <col min="1320" max="1320" width="19.44140625" style="244" customWidth="1"/>
-    <col min="1321" max="1540" width="9" style="244"/>
-    <col min="1541" max="1541" width="3.33203125" style="244" customWidth="1"/>
-    <col min="1542" max="1542" width="20" style="244" customWidth="1"/>
-    <col min="1543" max="1543" width="24.5546875" style="244" customWidth="1"/>
-    <col min="1544" max="1573" width="4.44140625" style="244" customWidth="1"/>
-    <col min="1574" max="1574" width="2.5546875" style="244" customWidth="1"/>
-    <col min="1575" max="1575" width="6.109375" style="244" customWidth="1"/>
-    <col min="1576" max="1576" width="19.44140625" style="244" customWidth="1"/>
-    <col min="1577" max="1796" width="9" style="244"/>
-    <col min="1797" max="1797" width="3.33203125" style="244" customWidth="1"/>
-    <col min="1798" max="1798" width="20" style="244" customWidth="1"/>
-    <col min="1799" max="1799" width="24.5546875" style="244" customWidth="1"/>
-    <col min="1800" max="1829" width="4.44140625" style="244" customWidth="1"/>
-    <col min="1830" max="1830" width="2.5546875" style="244" customWidth="1"/>
-    <col min="1831" max="1831" width="6.109375" style="244" customWidth="1"/>
-    <col min="1832" max="1832" width="19.44140625" style="244" customWidth="1"/>
-    <col min="1833" max="2052" width="9" style="244"/>
-    <col min="2053" max="2053" width="3.33203125" style="244" customWidth="1"/>
-    <col min="2054" max="2054" width="20" style="244" customWidth="1"/>
-    <col min="2055" max="2055" width="24.5546875" style="244" customWidth="1"/>
-    <col min="2056" max="2085" width="4.44140625" style="244" customWidth="1"/>
-    <col min="2086" max="2086" width="2.5546875" style="244" customWidth="1"/>
-    <col min="2087" max="2087" width="6.109375" style="244" customWidth="1"/>
-    <col min="2088" max="2088" width="19.44140625" style="244" customWidth="1"/>
-    <col min="2089" max="2308" width="9" style="244"/>
-    <col min="2309" max="2309" width="3.33203125" style="244" customWidth="1"/>
-    <col min="2310" max="2310" width="20" style="244" customWidth="1"/>
-    <col min="2311" max="2311" width="24.5546875" style="244" customWidth="1"/>
-    <col min="2312" max="2341" width="4.44140625" style="244" customWidth="1"/>
-    <col min="2342" max="2342" width="2.5546875" style="244" customWidth="1"/>
-    <col min="2343" max="2343" width="6.109375" style="244" customWidth="1"/>
-    <col min="2344" max="2344" width="19.44140625" style="244" customWidth="1"/>
-    <col min="2345" max="2564" width="9" style="244"/>
-    <col min="2565" max="2565" width="3.33203125" style="244" customWidth="1"/>
-    <col min="2566" max="2566" width="20" style="244" customWidth="1"/>
-    <col min="2567" max="2567" width="24.5546875" style="244" customWidth="1"/>
-    <col min="2568" max="2597" width="4.44140625" style="244" customWidth="1"/>
-    <col min="2598" max="2598" width="2.5546875" style="244" customWidth="1"/>
-    <col min="2599" max="2599" width="6.109375" style="244" customWidth="1"/>
-    <col min="2600" max="2600" width="19.44140625" style="244" customWidth="1"/>
-    <col min="2601" max="2820" width="9" style="244"/>
-    <col min="2821" max="2821" width="3.33203125" style="244" customWidth="1"/>
-    <col min="2822" max="2822" width="20" style="244" customWidth="1"/>
-    <col min="2823" max="2823" width="24.5546875" style="244" customWidth="1"/>
-    <col min="2824" max="2853" width="4.44140625" style="244" customWidth="1"/>
-    <col min="2854" max="2854" width="2.5546875" style="244" customWidth="1"/>
-    <col min="2855" max="2855" width="6.109375" style="244" customWidth="1"/>
-    <col min="2856" max="2856" width="19.44140625" style="244" customWidth="1"/>
-    <col min="2857" max="3076" width="9" style="244"/>
-    <col min="3077" max="3077" width="3.33203125" style="244" customWidth="1"/>
-    <col min="3078" max="3078" width="20" style="244" customWidth="1"/>
-    <col min="3079" max="3079" width="24.5546875" style="244" customWidth="1"/>
-    <col min="3080" max="3109" width="4.44140625" style="244" customWidth="1"/>
-    <col min="3110" max="3110" width="2.5546875" style="244" customWidth="1"/>
-    <col min="3111" max="3111" width="6.109375" style="244" customWidth="1"/>
-    <col min="3112" max="3112" width="19.44140625" style="244" customWidth="1"/>
-    <col min="3113" max="3332" width="9" style="244"/>
-    <col min="3333" max="3333" width="3.33203125" style="244" customWidth="1"/>
-    <col min="3334" max="3334" width="20" style="244" customWidth="1"/>
-    <col min="3335" max="3335" width="24.5546875" style="244" customWidth="1"/>
-    <col min="3336" max="3365" width="4.44140625" style="244" customWidth="1"/>
-    <col min="3366" max="3366" width="2.5546875" style="244" customWidth="1"/>
-    <col min="3367" max="3367" width="6.109375" style="244" customWidth="1"/>
-    <col min="3368" max="3368" width="19.44140625" style="244" customWidth="1"/>
-    <col min="3369" max="3588" width="9" style="244"/>
-    <col min="3589" max="3589" width="3.33203125" style="244" customWidth="1"/>
-    <col min="3590" max="3590" width="20" style="244" customWidth="1"/>
-    <col min="3591" max="3591" width="24.5546875" style="244" customWidth="1"/>
-    <col min="3592" max="3621" width="4.44140625" style="244" customWidth="1"/>
-    <col min="3622" max="3622" width="2.5546875" style="244" customWidth="1"/>
-    <col min="3623" max="3623" width="6.109375" style="244" customWidth="1"/>
-    <col min="3624" max="3624" width="19.44140625" style="244" customWidth="1"/>
-    <col min="3625" max="3844" width="9" style="244"/>
-    <col min="3845" max="3845" width="3.33203125" style="244" customWidth="1"/>
-    <col min="3846" max="3846" width="20" style="244" customWidth="1"/>
-    <col min="3847" max="3847" width="24.5546875" style="244" customWidth="1"/>
-    <col min="3848" max="3877" width="4.44140625" style="244" customWidth="1"/>
-    <col min="3878" max="3878" width="2.5546875" style="244" customWidth="1"/>
-    <col min="3879" max="3879" width="6.109375" style="244" customWidth="1"/>
-    <col min="3880" max="3880" width="19.44140625" style="244" customWidth="1"/>
-    <col min="3881" max="4100" width="9" style="244"/>
-    <col min="4101" max="4101" width="3.33203125" style="244" customWidth="1"/>
-    <col min="4102" max="4102" width="20" style="244" customWidth="1"/>
-    <col min="4103" max="4103" width="24.5546875" style="244" customWidth="1"/>
-    <col min="4104" max="4133" width="4.44140625" style="244" customWidth="1"/>
-    <col min="4134" max="4134" width="2.5546875" style="244" customWidth="1"/>
-    <col min="4135" max="4135" width="6.109375" style="244" customWidth="1"/>
-    <col min="4136" max="4136" width="19.44140625" style="244" customWidth="1"/>
-    <col min="4137" max="4356" width="9" style="244"/>
-    <col min="4357" max="4357" width="3.33203125" style="244" customWidth="1"/>
-    <col min="4358" max="4358" width="20" style="244" customWidth="1"/>
-    <col min="4359" max="4359" width="24.5546875" style="244" customWidth="1"/>
-    <col min="4360" max="4389" width="4.44140625" style="244" customWidth="1"/>
-    <col min="4390" max="4390" width="2.5546875" style="244" customWidth="1"/>
-    <col min="4391" max="4391" width="6.109375" style="244" customWidth="1"/>
-    <col min="4392" max="4392" width="19.44140625" style="244" customWidth="1"/>
-    <col min="4393" max="4612" width="9" style="244"/>
-    <col min="4613" max="4613" width="3.33203125" style="244" customWidth="1"/>
-    <col min="4614" max="4614" width="20" style="244" customWidth="1"/>
-    <col min="4615" max="4615" width="24.5546875" style="244" customWidth="1"/>
-    <col min="4616" max="4645" width="4.44140625" style="244" customWidth="1"/>
-    <col min="4646" max="4646" width="2.5546875" style="244" customWidth="1"/>
-    <col min="4647" max="4647" width="6.109375" style="244" customWidth="1"/>
-    <col min="4648" max="4648" width="19.44140625" style="244" customWidth="1"/>
-    <col min="4649" max="4868" width="9" style="244"/>
-    <col min="4869" max="4869" width="3.33203125" style="244" customWidth="1"/>
-    <col min="4870" max="4870" width="20" style="244" customWidth="1"/>
-    <col min="4871" max="4871" width="24.5546875" style="244" customWidth="1"/>
-    <col min="4872" max="4901" width="4.44140625" style="244" customWidth="1"/>
-    <col min="4902" max="4902" width="2.5546875" style="244" customWidth="1"/>
-    <col min="4903" max="4903" width="6.109375" style="244" customWidth="1"/>
-    <col min="4904" max="4904" width="19.44140625" style="244" customWidth="1"/>
-    <col min="4905" max="5124" width="9" style="244"/>
-    <col min="5125" max="5125" width="3.33203125" style="244" customWidth="1"/>
-    <col min="5126" max="5126" width="20" style="244" customWidth="1"/>
-    <col min="5127" max="5127" width="24.5546875" style="244" customWidth="1"/>
-    <col min="5128" max="5157" width="4.44140625" style="244" customWidth="1"/>
-    <col min="5158" max="5158" width="2.5546875" style="244" customWidth="1"/>
-    <col min="5159" max="5159" width="6.109375" style="244" customWidth="1"/>
-    <col min="5160" max="5160" width="19.44140625" style="244" customWidth="1"/>
-    <col min="5161" max="5380" width="9" style="244"/>
-    <col min="5381" max="5381" width="3.33203125" style="244" customWidth="1"/>
-    <col min="5382" max="5382" width="20" style="244" customWidth="1"/>
-    <col min="5383" max="5383" width="24.5546875" style="244" customWidth="1"/>
-    <col min="5384" max="5413" width="4.44140625" style="244" customWidth="1"/>
-    <col min="5414" max="5414" width="2.5546875" style="244" customWidth="1"/>
-    <col min="5415" max="5415" width="6.109375" style="244" customWidth="1"/>
-    <col min="5416" max="5416" width="19.44140625" style="244" customWidth="1"/>
-    <col min="5417" max="5636" width="9" style="244"/>
-    <col min="5637" max="5637" width="3.33203125" style="244" customWidth="1"/>
-    <col min="5638" max="5638" width="20" style="244" customWidth="1"/>
-    <col min="5639" max="5639" width="24.5546875" style="244" customWidth="1"/>
-    <col min="5640" max="5669" width="4.44140625" style="244" customWidth="1"/>
-    <col min="5670" max="5670" width="2.5546875" style="244" customWidth="1"/>
-    <col min="5671" max="5671" width="6.109375" style="244" customWidth="1"/>
-    <col min="5672" max="5672" width="19.44140625" style="244" customWidth="1"/>
-    <col min="5673" max="5892" width="9" style="244"/>
-    <col min="5893" max="5893" width="3.33203125" style="244" customWidth="1"/>
-    <col min="5894" max="5894" width="20" style="244" customWidth="1"/>
-    <col min="5895" max="5895" width="24.5546875" style="244" customWidth="1"/>
-    <col min="5896" max="5925" width="4.44140625" style="244" customWidth="1"/>
-    <col min="5926" max="5926" width="2.5546875" style="244" customWidth="1"/>
-    <col min="5927" max="5927" width="6.109375" style="244" customWidth="1"/>
-    <col min="5928" max="5928" width="19.44140625" style="244" customWidth="1"/>
-    <col min="5929" max="6148" width="9" style="244"/>
-    <col min="6149" max="6149" width="3.33203125" style="244" customWidth="1"/>
-    <col min="6150" max="6150" width="20" style="244" customWidth="1"/>
-    <col min="6151" max="6151" width="24.5546875" style="244" customWidth="1"/>
-    <col min="6152" max="6181" width="4.44140625" style="244" customWidth="1"/>
-    <col min="6182" max="6182" width="2.5546875" style="244" customWidth="1"/>
-    <col min="6183" max="6183" width="6.109375" style="244" customWidth="1"/>
-    <col min="6184" max="6184" width="19.44140625" style="244" customWidth="1"/>
-    <col min="6185" max="6404" width="9" style="244"/>
-    <col min="6405" max="6405" width="3.33203125" style="244" customWidth="1"/>
-    <col min="6406" max="6406" width="20" style="244" customWidth="1"/>
-    <col min="6407" max="6407" width="24.5546875" style="244" customWidth="1"/>
-    <col min="6408" max="6437" width="4.44140625" style="244" customWidth="1"/>
-    <col min="6438" max="6438" width="2.5546875" style="244" customWidth="1"/>
-    <col min="6439" max="6439" width="6.109375" style="244" customWidth="1"/>
-    <col min="6440" max="6440" width="19.44140625" style="244" customWidth="1"/>
-    <col min="6441" max="6660" width="9" style="244"/>
-    <col min="6661" max="6661" width="3.33203125" style="244" customWidth="1"/>
-    <col min="6662" max="6662" width="20" style="244" customWidth="1"/>
-    <col min="6663" max="6663" width="24.5546875" style="244" customWidth="1"/>
-    <col min="6664" max="6693" width="4.44140625" style="244" customWidth="1"/>
-    <col min="6694" max="6694" width="2.5546875" style="244" customWidth="1"/>
-    <col min="6695" max="6695" width="6.109375" style="244" customWidth="1"/>
-    <col min="6696" max="6696" width="19.44140625" style="244" customWidth="1"/>
-    <col min="6697" max="6916" width="9" style="244"/>
-    <col min="6917" max="6917" width="3.33203125" style="244" customWidth="1"/>
-    <col min="6918" max="6918" width="20" style="244" customWidth="1"/>
-    <col min="6919" max="6919" width="24.5546875" style="244" customWidth="1"/>
-    <col min="6920" max="6949" width="4.44140625" style="244" customWidth="1"/>
-    <col min="6950" max="6950" width="2.5546875" style="244" customWidth="1"/>
-    <col min="6951" max="6951" width="6.109375" style="244" customWidth="1"/>
-    <col min="6952" max="6952" width="19.44140625" style="244" customWidth="1"/>
-    <col min="6953" max="7172" width="9" style="244"/>
-    <col min="7173" max="7173" width="3.33203125" style="244" customWidth="1"/>
-    <col min="7174" max="7174" width="20" style="244" customWidth="1"/>
-    <col min="7175" max="7175" width="24.5546875" style="244" customWidth="1"/>
-    <col min="7176" max="7205" width="4.44140625" style="244" customWidth="1"/>
-    <col min="7206" max="7206" width="2.5546875" style="244" customWidth="1"/>
-    <col min="7207" max="7207" width="6.109375" style="244" customWidth="1"/>
-    <col min="7208" max="7208" width="19.44140625" style="244" customWidth="1"/>
-    <col min="7209" max="7428" width="9" style="244"/>
-    <col min="7429" max="7429" width="3.33203125" style="244" customWidth="1"/>
-    <col min="7430" max="7430" width="20" style="244" customWidth="1"/>
-    <col min="7431" max="7431" width="24.5546875" style="244" customWidth="1"/>
-    <col min="7432" max="7461" width="4.44140625" style="244" customWidth="1"/>
-    <col min="7462" max="7462" width="2.5546875" style="244" customWidth="1"/>
-    <col min="7463" max="7463" width="6.109375" style="244" customWidth="1"/>
-    <col min="7464" max="7464" width="19.44140625" style="244" customWidth="1"/>
-    <col min="7465" max="7684" width="9" style="244"/>
-    <col min="7685" max="7685" width="3.33203125" style="244" customWidth="1"/>
-    <col min="7686" max="7686" width="20" style="244" customWidth="1"/>
-    <col min="7687" max="7687" width="24.5546875" style="244" customWidth="1"/>
-    <col min="7688" max="7717" width="4.44140625" style="244" customWidth="1"/>
-    <col min="7718" max="7718" width="2.5546875" style="244" customWidth="1"/>
-    <col min="7719" max="7719" width="6.109375" style="244" customWidth="1"/>
-    <col min="7720" max="7720" width="19.44140625" style="244" customWidth="1"/>
-    <col min="7721" max="7940" width="9" style="244"/>
-    <col min="7941" max="7941" width="3.33203125" style="244" customWidth="1"/>
-    <col min="7942" max="7942" width="20" style="244" customWidth="1"/>
-    <col min="7943" max="7943" width="24.5546875" style="244" customWidth="1"/>
-    <col min="7944" max="7973" width="4.44140625" style="244" customWidth="1"/>
-    <col min="7974" max="7974" width="2.5546875" style="244" customWidth="1"/>
-    <col min="7975" max="7975" width="6.109375" style="244" customWidth="1"/>
-    <col min="7976" max="7976" width="19.44140625" style="244" customWidth="1"/>
-    <col min="7977" max="8196" width="9" style="244"/>
-    <col min="8197" max="8197" width="3.33203125" style="244" customWidth="1"/>
-    <col min="8198" max="8198" width="20" style="244" customWidth="1"/>
-    <col min="8199" max="8199" width="24.5546875" style="244" customWidth="1"/>
-    <col min="8200" max="8229" width="4.44140625" style="244" customWidth="1"/>
-    <col min="8230" max="8230" width="2.5546875" style="244" customWidth="1"/>
-    <col min="8231" max="8231" width="6.109375" style="244" customWidth="1"/>
-    <col min="8232" max="8232" width="19.44140625" style="244" customWidth="1"/>
-    <col min="8233" max="8452" width="9" style="244"/>
-    <col min="8453" max="8453" width="3.33203125" style="244" customWidth="1"/>
-    <col min="8454" max="8454" width="20" style="244" customWidth="1"/>
-    <col min="8455" max="8455" width="24.5546875" style="244" customWidth="1"/>
-    <col min="8456" max="8485" width="4.44140625" style="244" customWidth="1"/>
-    <col min="8486" max="8486" width="2.5546875" style="244" customWidth="1"/>
-    <col min="8487" max="8487" width="6.109375" style="244" customWidth="1"/>
-    <col min="8488" max="8488" width="19.44140625" style="244" customWidth="1"/>
-    <col min="8489" max="8708" width="9" style="244"/>
-    <col min="8709" max="8709" width="3.33203125" style="244" customWidth="1"/>
-    <col min="8710" max="8710" width="20" style="244" customWidth="1"/>
-    <col min="8711" max="8711" width="24.5546875" style="244" customWidth="1"/>
-    <col min="8712" max="8741" width="4.44140625" style="244" customWidth="1"/>
-    <col min="8742" max="8742" width="2.5546875" style="244" customWidth="1"/>
-    <col min="8743" max="8743" width="6.109375" style="244" customWidth="1"/>
-    <col min="8744" max="8744" width="19.44140625" style="244" customWidth="1"/>
-    <col min="8745" max="8964" width="9" style="244"/>
-    <col min="8965" max="8965" width="3.33203125" style="244" customWidth="1"/>
-    <col min="8966" max="8966" width="20" style="244" customWidth="1"/>
-    <col min="8967" max="8967" width="24.5546875" style="244" customWidth="1"/>
-    <col min="8968" max="8997" width="4.44140625" style="244" customWidth="1"/>
-    <col min="8998" max="8998" width="2.5546875" style="244" customWidth="1"/>
-    <col min="8999" max="8999" width="6.109375" style="244" customWidth="1"/>
-    <col min="9000" max="9000" width="19.44140625" style="244" customWidth="1"/>
-    <col min="9001" max="9220" width="9" style="244"/>
-    <col min="9221" max="9221" width="3.33203125" style="244" customWidth="1"/>
-    <col min="9222" max="9222" width="20" style="244" customWidth="1"/>
-    <col min="9223" max="9223" width="24.5546875" style="244" customWidth="1"/>
-    <col min="9224" max="9253" width="4.44140625" style="244" customWidth="1"/>
-    <col min="9254" max="9254" width="2.5546875" style="244" customWidth="1"/>
-    <col min="9255" max="9255" width="6.109375" style="244" customWidth="1"/>
-    <col min="9256" max="9256" width="19.44140625" style="244" customWidth="1"/>
-    <col min="9257" max="9476" width="9" style="244"/>
-    <col min="9477" max="9477" width="3.33203125" style="244" customWidth="1"/>
-    <col min="9478" max="9478" width="20" style="244" customWidth="1"/>
-    <col min="9479" max="9479" width="24.5546875" style="244" customWidth="1"/>
-    <col min="9480" max="9509" width="4.44140625" style="244" customWidth="1"/>
-    <col min="9510" max="9510" width="2.5546875" style="244" customWidth="1"/>
-    <col min="9511" max="9511" width="6.109375" style="244" customWidth="1"/>
-    <col min="9512" max="9512" width="19.44140625" style="244" customWidth="1"/>
-    <col min="9513" max="9732" width="9" style="244"/>
-    <col min="9733" max="9733" width="3.33203125" style="244" customWidth="1"/>
-    <col min="9734" max="9734" width="20" style="244" customWidth="1"/>
-    <col min="9735" max="9735" width="24.5546875" style="244" customWidth="1"/>
-    <col min="9736" max="9765" width="4.44140625" style="244" customWidth="1"/>
-    <col min="9766" max="9766" width="2.5546875" style="244" customWidth="1"/>
-    <col min="9767" max="9767" width="6.109375" style="244" customWidth="1"/>
-    <col min="9768" max="9768" width="19.44140625" style="244" customWidth="1"/>
-    <col min="9769" max="9988" width="9" style="244"/>
-    <col min="9989" max="9989" width="3.33203125" style="244" customWidth="1"/>
-    <col min="9990" max="9990" width="20" style="244" customWidth="1"/>
-    <col min="9991" max="9991" width="24.5546875" style="244" customWidth="1"/>
-    <col min="9992" max="10021" width="4.44140625" style="244" customWidth="1"/>
-    <col min="10022" max="10022" width="2.5546875" style="244" customWidth="1"/>
-    <col min="10023" max="10023" width="6.109375" style="244" customWidth="1"/>
-    <col min="10024" max="10024" width="19.44140625" style="244" customWidth="1"/>
-    <col min="10025" max="10244" width="9" style="244"/>
-    <col min="10245" max="10245" width="3.33203125" style="244" customWidth="1"/>
-    <col min="10246" max="10246" width="20" style="244" customWidth="1"/>
-    <col min="10247" max="10247" width="24.5546875" style="244" customWidth="1"/>
-    <col min="10248" max="10277" width="4.44140625" style="244" customWidth="1"/>
-    <col min="10278" max="10278" width="2.5546875" style="244" customWidth="1"/>
-    <col min="10279" max="10279" width="6.109375" style="244" customWidth="1"/>
-    <col min="10280" max="10280" width="19.44140625" style="244" customWidth="1"/>
-    <col min="10281" max="10500" width="9" style="244"/>
-    <col min="10501" max="10501" width="3.33203125" style="244" customWidth="1"/>
-    <col min="10502" max="10502" width="20" style="244" customWidth="1"/>
-    <col min="10503" max="10503" width="24.5546875" style="244" customWidth="1"/>
-    <col min="10504" max="10533" width="4.44140625" style="244" customWidth="1"/>
-    <col min="10534" max="10534" width="2.5546875" style="244" customWidth="1"/>
-    <col min="10535" max="10535" width="6.109375" style="244" customWidth="1"/>
-    <col min="10536" max="10536" width="19.44140625" style="244" customWidth="1"/>
-    <col min="10537" max="10756" width="9" style="244"/>
-    <col min="10757" max="10757" width="3.33203125" style="244" customWidth="1"/>
-    <col min="10758" max="10758" width="20" style="244" customWidth="1"/>
-    <col min="10759" max="10759" width="24.5546875" style="244" customWidth="1"/>
-    <col min="10760" max="10789" width="4.44140625" style="244" customWidth="1"/>
-    <col min="10790" max="10790" width="2.5546875" style="244" customWidth="1"/>
-    <col min="10791" max="10791" width="6.109375" style="244" customWidth="1"/>
-    <col min="10792" max="10792" width="19.44140625" style="244" customWidth="1"/>
-    <col min="10793" max="11012" width="9" style="244"/>
-    <col min="11013" max="11013" width="3.33203125" style="244" customWidth="1"/>
-    <col min="11014" max="11014" width="20" style="244" customWidth="1"/>
-    <col min="11015" max="11015" width="24.5546875" style="244" customWidth="1"/>
-    <col min="11016" max="11045" width="4.44140625" style="244" customWidth="1"/>
-    <col min="11046" max="11046" width="2.5546875" style="244" customWidth="1"/>
-    <col min="11047" max="11047" width="6.109375" style="244" customWidth="1"/>
-    <col min="11048" max="11048" width="19.44140625" style="244" customWidth="1"/>
-    <col min="11049" max="11268" width="9" style="244"/>
-    <col min="11269" max="11269" width="3.33203125" style="244" customWidth="1"/>
-    <col min="11270" max="11270" width="20" style="244" customWidth="1"/>
-    <col min="11271" max="11271" width="24.5546875" style="244" customWidth="1"/>
-    <col min="11272" max="11301" width="4.44140625" style="244" customWidth="1"/>
-    <col min="11302" max="11302" width="2.5546875" style="244" customWidth="1"/>
-    <col min="11303" max="11303" width="6.109375" style="244" customWidth="1"/>
-    <col min="11304" max="11304" width="19.44140625" style="244" customWidth="1"/>
-    <col min="11305" max="11524" width="9" style="244"/>
-    <col min="11525" max="11525" width="3.33203125" style="244" customWidth="1"/>
-    <col min="11526" max="11526" width="20" style="244" customWidth="1"/>
-    <col min="11527" max="11527" width="24.5546875" style="244" customWidth="1"/>
-    <col min="11528" max="11557" width="4.44140625" style="244" customWidth="1"/>
-    <col min="11558" max="11558" width="2.5546875" style="244" customWidth="1"/>
-    <col min="11559" max="11559" width="6.109375" style="244" customWidth="1"/>
-    <col min="11560" max="11560" width="19.44140625" style="244" customWidth="1"/>
-    <col min="11561" max="11780" width="9" style="244"/>
-    <col min="11781" max="11781" width="3.33203125" style="244" customWidth="1"/>
-    <col min="11782" max="11782" width="20" style="244" customWidth="1"/>
-    <col min="11783" max="11783" width="24.5546875" style="244" customWidth="1"/>
-    <col min="11784" max="11813" width="4.44140625" style="244" customWidth="1"/>
-    <col min="11814" max="11814" width="2.5546875" style="244" customWidth="1"/>
-    <col min="11815" max="11815" width="6.109375" style="244" customWidth="1"/>
-    <col min="11816" max="11816" width="19.44140625" style="244" customWidth="1"/>
-    <col min="11817" max="12036" width="9" style="244"/>
-    <col min="12037" max="12037" width="3.33203125" style="244" customWidth="1"/>
-    <col min="12038" max="12038" width="20" style="244" customWidth="1"/>
-    <col min="12039" max="12039" width="24.5546875" style="244" customWidth="1"/>
-    <col min="12040" max="12069" width="4.44140625" style="244" customWidth="1"/>
-    <col min="12070" max="12070" width="2.5546875" style="244" customWidth="1"/>
-    <col min="12071" max="12071" width="6.109375" style="244" customWidth="1"/>
-    <col min="12072" max="12072" width="19.44140625" style="244" customWidth="1"/>
-    <col min="12073" max="12292" width="9" style="244"/>
-    <col min="12293" max="12293" width="3.33203125" style="244" customWidth="1"/>
-    <col min="12294" max="12294" width="20" style="244" customWidth="1"/>
-    <col min="12295" max="12295" width="24.5546875" style="244" customWidth="1"/>
-    <col min="12296" max="12325" width="4.44140625" style="244" customWidth="1"/>
-    <col min="12326" max="12326" width="2.5546875" style="244" customWidth="1"/>
-    <col min="12327" max="12327" width="6.109375" style="244" customWidth="1"/>
-    <col min="12328" max="12328" width="19.44140625" style="244" customWidth="1"/>
-    <col min="12329" max="12548" width="9" style="244"/>
-    <col min="12549" max="12549" width="3.33203125" style="244" customWidth="1"/>
-    <col min="12550" max="12550" width="20" style="244" customWidth="1"/>
-    <col min="12551" max="12551" width="24.5546875" style="244" customWidth="1"/>
-    <col min="12552" max="12581" width="4.44140625" style="244" customWidth="1"/>
-    <col min="12582" max="12582" width="2.5546875" style="244" customWidth="1"/>
-    <col min="12583" max="12583" width="6.109375" style="244" customWidth="1"/>
-    <col min="12584" max="12584" width="19.44140625" style="244" customWidth="1"/>
-    <col min="12585" max="12804" width="9" style="244"/>
-    <col min="12805" max="12805" width="3.33203125" style="244" customWidth="1"/>
-    <col min="12806" max="12806" width="20" style="244" customWidth="1"/>
-    <col min="12807" max="12807" width="24.5546875" style="244" customWidth="1"/>
-    <col min="12808" max="12837" width="4.44140625" style="244" customWidth="1"/>
-    <col min="12838" max="12838" width="2.5546875" style="244" customWidth="1"/>
-    <col min="12839" max="12839" width="6.109375" style="244" customWidth="1"/>
-    <col min="12840" max="12840" width="19.44140625" style="244" customWidth="1"/>
-    <col min="12841" max="13060" width="9" style="244"/>
-    <col min="13061" max="13061" width="3.33203125" style="244" customWidth="1"/>
-    <col min="13062" max="13062" width="20" style="244" customWidth="1"/>
-    <col min="13063" max="13063" width="24.5546875" style="244" customWidth="1"/>
-    <col min="13064" max="13093" width="4.44140625" style="244" customWidth="1"/>
-    <col min="13094" max="13094" width="2.5546875" style="244" customWidth="1"/>
-    <col min="13095" max="13095" width="6.109375" style="244" customWidth="1"/>
-    <col min="13096" max="13096" width="19.44140625" style="244" customWidth="1"/>
-    <col min="13097" max="13316" width="9" style="244"/>
-    <col min="13317" max="13317" width="3.33203125" style="244" customWidth="1"/>
-    <col min="13318" max="13318" width="20" style="244" customWidth="1"/>
-    <col min="13319" max="13319" width="24.5546875" style="244" customWidth="1"/>
-    <col min="13320" max="13349" width="4.44140625" style="244" customWidth="1"/>
-    <col min="13350" max="13350" width="2.5546875" style="244" customWidth="1"/>
-    <col min="13351" max="13351" width="6.109375" style="244" customWidth="1"/>
-    <col min="13352" max="13352" width="19.44140625" style="244" customWidth="1"/>
-    <col min="13353" max="13572" width="9" style="244"/>
-    <col min="13573" max="13573" width="3.33203125" style="244" customWidth="1"/>
-    <col min="13574" max="13574" width="20" style="244" customWidth="1"/>
-    <col min="13575" max="13575" width="24.5546875" style="244" customWidth="1"/>
-    <col min="13576" max="13605" width="4.44140625" style="244" customWidth="1"/>
-    <col min="13606" max="13606" width="2.5546875" style="244" customWidth="1"/>
-    <col min="13607" max="13607" width="6.109375" style="244" customWidth="1"/>
-    <col min="13608" max="13608" width="19.44140625" style="244" customWidth="1"/>
-    <col min="13609" max="13828" width="9" style="244"/>
-    <col min="13829" max="13829" width="3.33203125" style="244" customWidth="1"/>
-    <col min="13830" max="13830" width="20" style="244" customWidth="1"/>
-    <col min="13831" max="13831" width="24.5546875" style="244" customWidth="1"/>
-    <col min="13832" max="13861" width="4.44140625" style="244" customWidth="1"/>
-    <col min="13862" max="13862" width="2.5546875" style="244" customWidth="1"/>
-    <col min="13863" max="13863" width="6.109375" style="244" customWidth="1"/>
-    <col min="13864" max="13864" width="19.44140625" style="244" customWidth="1"/>
-    <col min="13865" max="14084" width="9" style="244"/>
-    <col min="14085" max="14085" width="3.33203125" style="244" customWidth="1"/>
-    <col min="14086" max="14086" width="20" style="244" customWidth="1"/>
-    <col min="14087" max="14087" width="24.5546875" style="244" customWidth="1"/>
-    <col min="14088" max="14117" width="4.44140625" style="244" customWidth="1"/>
-    <col min="14118" max="14118" width="2.5546875" style="244" customWidth="1"/>
-    <col min="14119" max="14119" width="6.109375" style="244" customWidth="1"/>
-    <col min="14120" max="14120" width="19.44140625" style="244" customWidth="1"/>
-    <col min="14121" max="14340" width="9" style="244"/>
-    <col min="14341" max="14341" width="3.33203125" style="244" customWidth="1"/>
-    <col min="14342" max="14342" width="20" style="244" customWidth="1"/>
-    <col min="14343" max="14343" width="24.5546875" style="244" customWidth="1"/>
-    <col min="14344" max="14373" width="4.44140625" style="244" customWidth="1"/>
-    <col min="14374" max="14374" width="2.5546875" style="244" customWidth="1"/>
-    <col min="14375" max="14375" width="6.109375" style="244" customWidth="1"/>
-    <col min="14376" max="14376" width="19.44140625" style="244" customWidth="1"/>
-    <col min="14377" max="14596" width="9" style="244"/>
-    <col min="14597" max="14597" width="3.33203125" style="244" customWidth="1"/>
-    <col min="14598" max="14598" width="20" style="244" customWidth="1"/>
-    <col min="14599" max="14599" width="24.5546875" style="244" customWidth="1"/>
-    <col min="14600" max="14629" width="4.44140625" style="244" customWidth="1"/>
-    <col min="14630" max="14630" width="2.5546875" style="244" customWidth="1"/>
-    <col min="14631" max="14631" width="6.109375" style="244" customWidth="1"/>
-    <col min="14632" max="14632" width="19.44140625" style="244" customWidth="1"/>
-    <col min="14633" max="14852" width="9" style="244"/>
-    <col min="14853" max="14853" width="3.33203125" style="244" customWidth="1"/>
-    <col min="14854" max="14854" width="20" style="244" customWidth="1"/>
-    <col min="14855" max="14855" width="24.5546875" style="244" customWidth="1"/>
-    <col min="14856" max="14885" width="4.44140625" style="244" customWidth="1"/>
-    <col min="14886" max="14886" width="2.5546875" style="244" customWidth="1"/>
-    <col min="14887" max="14887" width="6.109375" style="244" customWidth="1"/>
-    <col min="14888" max="14888" width="19.44140625" style="244" customWidth="1"/>
-    <col min="14889" max="15108" width="9" style="244"/>
-    <col min="15109" max="15109" width="3.33203125" style="244" customWidth="1"/>
-    <col min="15110" max="15110" width="20" style="244" customWidth="1"/>
-    <col min="15111" max="15111" width="24.5546875" style="244" customWidth="1"/>
-    <col min="15112" max="15141" width="4.44140625" style="244" customWidth="1"/>
-    <col min="15142" max="15142" width="2.5546875" style="244" customWidth="1"/>
-    <col min="15143" max="15143" width="6.109375" style="244" customWidth="1"/>
-    <col min="15144" max="15144" width="19.44140625" style="244" customWidth="1"/>
-    <col min="15145" max="15364" width="9" style="244"/>
-    <col min="15365" max="15365" width="3.33203125" style="244" customWidth="1"/>
-    <col min="15366" max="15366" width="20" style="244" customWidth="1"/>
-    <col min="15367" max="15367" width="24.5546875" style="244" customWidth="1"/>
-    <col min="15368" max="15397" width="4.44140625" style="244" customWidth="1"/>
-    <col min="15398" max="15398" width="2.5546875" style="244" customWidth="1"/>
-    <col min="15399" max="15399" width="6.109375" style="244" customWidth="1"/>
-    <col min="15400" max="15400" width="19.44140625" style="244" customWidth="1"/>
-    <col min="15401" max="15620" width="9" style="244"/>
-    <col min="15621" max="15621" width="3.33203125" style="244" customWidth="1"/>
-    <col min="15622" max="15622" width="20" style="244" customWidth="1"/>
-    <col min="15623" max="15623" width="24.5546875" style="244" customWidth="1"/>
-    <col min="15624" max="15653" width="4.44140625" style="244" customWidth="1"/>
-    <col min="15654" max="15654" width="2.5546875" style="244" customWidth="1"/>
-    <col min="15655" max="15655" width="6.109375" style="244" customWidth="1"/>
-    <col min="15656" max="15656" width="19.44140625" style="244" customWidth="1"/>
-    <col min="15657" max="15876" width="9" style="244"/>
-    <col min="15877" max="15877" width="3.33203125" style="244" customWidth="1"/>
-    <col min="15878" max="15878" width="20" style="244" customWidth="1"/>
-    <col min="15879" max="15879" width="24.5546875" style="244" customWidth="1"/>
-    <col min="15880" max="15909" width="4.44140625" style="244" customWidth="1"/>
-    <col min="15910" max="15910" width="2.5546875" style="244" customWidth="1"/>
-    <col min="15911" max="15911" width="6.109375" style="244" customWidth="1"/>
-    <col min="15912" max="15912" width="19.44140625" style="244" customWidth="1"/>
-    <col min="15913" max="16132" width="9" style="244"/>
-    <col min="16133" max="16133" width="3.33203125" style="244" customWidth="1"/>
-    <col min="16134" max="16134" width="20" style="244" customWidth="1"/>
-    <col min="16135" max="16135" width="24.5546875" style="244" customWidth="1"/>
-    <col min="16136" max="16165" width="4.44140625" style="244" customWidth="1"/>
-    <col min="16166" max="16166" width="2.5546875" style="244" customWidth="1"/>
-    <col min="16167" max="16167" width="6.109375" style="244" customWidth="1"/>
-    <col min="16168" max="16168" width="19.44140625" style="244" customWidth="1"/>
-    <col min="16169" max="16384" width="9" style="244"/>
+    <col min="1" max="1" width="2.5546875" style="241" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="241" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="242" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="242" customWidth="1"/>
+    <col min="5" max="34" width="2.5546875" style="241" customWidth="1"/>
+    <col min="35" max="35" width="7.44140625" style="241" customWidth="1"/>
+    <col min="36" max="38" width="2.5546875" style="241" customWidth="1"/>
+    <col min="39" max="39" width="4.44140625" style="241" customWidth="1"/>
+    <col min="40" max="40" width="19.44140625" style="242" customWidth="1"/>
+    <col min="41" max="260" width="9" style="241"/>
+    <col min="261" max="261" width="3.33203125" style="241" customWidth="1"/>
+    <col min="262" max="262" width="20" style="241" customWidth="1"/>
+    <col min="263" max="263" width="24.5546875" style="241" customWidth="1"/>
+    <col min="264" max="293" width="4.44140625" style="241" customWidth="1"/>
+    <col min="294" max="294" width="2.5546875" style="241" customWidth="1"/>
+    <col min="295" max="295" width="6.109375" style="241" customWidth="1"/>
+    <col min="296" max="296" width="19.44140625" style="241" customWidth="1"/>
+    <col min="297" max="516" width="9" style="241"/>
+    <col min="517" max="517" width="3.33203125" style="241" customWidth="1"/>
+    <col min="518" max="518" width="20" style="241" customWidth="1"/>
+    <col min="519" max="519" width="24.5546875" style="241" customWidth="1"/>
+    <col min="520" max="549" width="4.44140625" style="241" customWidth="1"/>
+    <col min="550" max="550" width="2.5546875" style="241" customWidth="1"/>
+    <col min="551" max="551" width="6.109375" style="241" customWidth="1"/>
+    <col min="552" max="552" width="19.44140625" style="241" customWidth="1"/>
+    <col min="553" max="772" width="9" style="241"/>
+    <col min="773" max="773" width="3.33203125" style="241" customWidth="1"/>
+    <col min="774" max="774" width="20" style="241" customWidth="1"/>
+    <col min="775" max="775" width="24.5546875" style="241" customWidth="1"/>
+    <col min="776" max="805" width="4.44140625" style="241" customWidth="1"/>
+    <col min="806" max="806" width="2.5546875" style="241" customWidth="1"/>
+    <col min="807" max="807" width="6.109375" style="241" customWidth="1"/>
+    <col min="808" max="808" width="19.44140625" style="241" customWidth="1"/>
+    <col min="809" max="1028" width="9" style="241"/>
+    <col min="1029" max="1029" width="3.33203125" style="241" customWidth="1"/>
+    <col min="1030" max="1030" width="20" style="241" customWidth="1"/>
+    <col min="1031" max="1031" width="24.5546875" style="241" customWidth="1"/>
+    <col min="1032" max="1061" width="4.44140625" style="241" customWidth="1"/>
+    <col min="1062" max="1062" width="2.5546875" style="241" customWidth="1"/>
+    <col min="1063" max="1063" width="6.109375" style="241" customWidth="1"/>
+    <col min="1064" max="1064" width="19.44140625" style="241" customWidth="1"/>
+    <col min="1065" max="1284" width="9" style="241"/>
+    <col min="1285" max="1285" width="3.33203125" style="241" customWidth="1"/>
+    <col min="1286" max="1286" width="20" style="241" customWidth="1"/>
+    <col min="1287" max="1287" width="24.5546875" style="241" customWidth="1"/>
+    <col min="1288" max="1317" width="4.44140625" style="241" customWidth="1"/>
+    <col min="1318" max="1318" width="2.5546875" style="241" customWidth="1"/>
+    <col min="1319" max="1319" width="6.109375" style="241" customWidth="1"/>
+    <col min="1320" max="1320" width="19.44140625" style="241" customWidth="1"/>
+    <col min="1321" max="1540" width="9" style="241"/>
+    <col min="1541" max="1541" width="3.33203125" style="241" customWidth="1"/>
+    <col min="1542" max="1542" width="20" style="241" customWidth="1"/>
+    <col min="1543" max="1543" width="24.5546875" style="241" customWidth="1"/>
+    <col min="1544" max="1573" width="4.44140625" style="241" customWidth="1"/>
+    <col min="1574" max="1574" width="2.5546875" style="241" customWidth="1"/>
+    <col min="1575" max="1575" width="6.109375" style="241" customWidth="1"/>
+    <col min="1576" max="1576" width="19.44140625" style="241" customWidth="1"/>
+    <col min="1577" max="1796" width="9" style="241"/>
+    <col min="1797" max="1797" width="3.33203125" style="241" customWidth="1"/>
+    <col min="1798" max="1798" width="20" style="241" customWidth="1"/>
+    <col min="1799" max="1799" width="24.5546875" style="241" customWidth="1"/>
+    <col min="1800" max="1829" width="4.44140625" style="241" customWidth="1"/>
+    <col min="1830" max="1830" width="2.5546875" style="241" customWidth="1"/>
+    <col min="1831" max="1831" width="6.109375" style="241" customWidth="1"/>
+    <col min="1832" max="1832" width="19.44140625" style="241" customWidth="1"/>
+    <col min="1833" max="2052" width="9" style="241"/>
+    <col min="2053" max="2053" width="3.33203125" style="241" customWidth="1"/>
+    <col min="2054" max="2054" width="20" style="241" customWidth="1"/>
+    <col min="2055" max="2055" width="24.5546875" style="241" customWidth="1"/>
+    <col min="2056" max="2085" width="4.44140625" style="241" customWidth="1"/>
+    <col min="2086" max="2086" width="2.5546875" style="241" customWidth="1"/>
+    <col min="2087" max="2087" width="6.109375" style="241" customWidth="1"/>
+    <col min="2088" max="2088" width="19.44140625" style="241" customWidth="1"/>
+    <col min="2089" max="2308" width="9" style="241"/>
+    <col min="2309" max="2309" width="3.33203125" style="241" customWidth="1"/>
+    <col min="2310" max="2310" width="20" style="241" customWidth="1"/>
+    <col min="2311" max="2311" width="24.5546875" style="241" customWidth="1"/>
+    <col min="2312" max="2341" width="4.44140625" style="241" customWidth="1"/>
+    <col min="2342" max="2342" width="2.5546875" style="241" customWidth="1"/>
+    <col min="2343" max="2343" width="6.109375" style="241" customWidth="1"/>
+    <col min="2344" max="2344" width="19.44140625" style="241" customWidth="1"/>
+    <col min="2345" max="2564" width="9" style="241"/>
+    <col min="2565" max="2565" width="3.33203125" style="241" customWidth="1"/>
+    <col min="2566" max="2566" width="20" style="241" customWidth="1"/>
+    <col min="2567" max="2567" width="24.5546875" style="241" customWidth="1"/>
+    <col min="2568" max="2597" width="4.44140625" style="241" customWidth="1"/>
+    <col min="2598" max="2598" width="2.5546875" style="241" customWidth="1"/>
+    <col min="2599" max="2599" width="6.109375" style="241" customWidth="1"/>
+    <col min="2600" max="2600" width="19.44140625" style="241" customWidth="1"/>
+    <col min="2601" max="2820" width="9" style="241"/>
+    <col min="2821" max="2821" width="3.33203125" style="241" customWidth="1"/>
+    <col min="2822" max="2822" width="20" style="241" customWidth="1"/>
+    <col min="2823" max="2823" width="24.5546875" style="241" customWidth="1"/>
+    <col min="2824" max="2853" width="4.44140625" style="241" customWidth="1"/>
+    <col min="2854" max="2854" width="2.5546875" style="241" customWidth="1"/>
+    <col min="2855" max="2855" width="6.109375" style="241" customWidth="1"/>
+    <col min="2856" max="2856" width="19.44140625" style="241" customWidth="1"/>
+    <col min="2857" max="3076" width="9" style="241"/>
+    <col min="3077" max="3077" width="3.33203125" style="241" customWidth="1"/>
+    <col min="3078" max="3078" width="20" style="241" customWidth="1"/>
+    <col min="3079" max="3079" width="24.5546875" style="241" customWidth="1"/>
+    <col min="3080" max="3109" width="4.44140625" style="241" customWidth="1"/>
+    <col min="3110" max="3110" width="2.5546875" style="241" customWidth="1"/>
+    <col min="3111" max="3111" width="6.109375" style="241" customWidth="1"/>
+    <col min="3112" max="3112" width="19.44140625" style="241" customWidth="1"/>
+    <col min="3113" max="3332" width="9" style="241"/>
+    <col min="3333" max="3333" width="3.33203125" style="241" customWidth="1"/>
+    <col min="3334" max="3334" width="20" style="241" customWidth="1"/>
+    <col min="3335" max="3335" width="24.5546875" style="241" customWidth="1"/>
+    <col min="3336" max="3365" width="4.44140625" style="241" customWidth="1"/>
+    <col min="3366" max="3366" width="2.5546875" style="241" customWidth="1"/>
+    <col min="3367" max="3367" width="6.109375" style="241" customWidth="1"/>
+    <col min="3368" max="3368" width="19.44140625" style="241" customWidth="1"/>
+    <col min="3369" max="3588" width="9" style="241"/>
+    <col min="3589" max="3589" width="3.33203125" style="241" customWidth="1"/>
+    <col min="3590" max="3590" width="20" style="241" customWidth="1"/>
+    <col min="3591" max="3591" width="24.5546875" style="241" customWidth="1"/>
+    <col min="3592" max="3621" width="4.44140625" style="241" customWidth="1"/>
+    <col min="3622" max="3622" width="2.5546875" style="241" customWidth="1"/>
+    <col min="3623" max="3623" width="6.109375" style="241" customWidth="1"/>
+    <col min="3624" max="3624" width="19.44140625" style="241" customWidth="1"/>
+    <col min="3625" max="3844" width="9" style="241"/>
+    <col min="3845" max="3845" width="3.33203125" style="241" customWidth="1"/>
+    <col min="3846" max="3846" width="20" style="241" customWidth="1"/>
+    <col min="3847" max="3847" width="24.5546875" style="241" customWidth="1"/>
+    <col min="3848" max="3877" width="4.44140625" style="241" customWidth="1"/>
+    <col min="3878" max="3878" width="2.5546875" style="241" customWidth="1"/>
+    <col min="3879" max="3879" width="6.109375" style="241" customWidth="1"/>
+    <col min="3880" max="3880" width="19.44140625" style="241" customWidth="1"/>
+    <col min="3881" max="4100" width="9" style="241"/>
+    <col min="4101" max="4101" width="3.33203125" style="241" customWidth="1"/>
+    <col min="4102" max="4102" width="20" style="241" customWidth="1"/>
+    <col min="4103" max="4103" width="24.5546875" style="241" customWidth="1"/>
+    <col min="4104" max="4133" width="4.44140625" style="241" customWidth="1"/>
+    <col min="4134" max="4134" width="2.5546875" style="241" customWidth="1"/>
+    <col min="4135" max="4135" width="6.109375" style="241" customWidth="1"/>
+    <col min="4136" max="4136" width="19.44140625" style="241" customWidth="1"/>
+    <col min="4137" max="4356" width="9" style="241"/>
+    <col min="4357" max="4357" width="3.33203125" style="241" customWidth="1"/>
+    <col min="4358" max="4358" width="20" style="241" customWidth="1"/>
+    <col min="4359" max="4359" width="24.5546875" style="241" customWidth="1"/>
+    <col min="4360" max="4389" width="4.44140625" style="241" customWidth="1"/>
+    <col min="4390" max="4390" width="2.5546875" style="241" customWidth="1"/>
+    <col min="4391" max="4391" width="6.109375" style="241" customWidth="1"/>
+    <col min="4392" max="4392" width="19.44140625" style="241" customWidth="1"/>
+    <col min="4393" max="4612" width="9" style="241"/>
+    <col min="4613" max="4613" width="3.33203125" style="241" customWidth="1"/>
+    <col min="4614" max="4614" width="20" style="241" customWidth="1"/>
+    <col min="4615" max="4615" width="24.5546875" style="241" customWidth="1"/>
+    <col min="4616" max="4645" width="4.44140625" style="241" customWidth="1"/>
+    <col min="4646" max="4646" width="2.5546875" style="241" customWidth="1"/>
+    <col min="4647" max="4647" width="6.109375" style="241" customWidth="1"/>
+    <col min="4648" max="4648" width="19.44140625" style="241" customWidth="1"/>
+    <col min="4649" max="4868" width="9" style="241"/>
+    <col min="4869" max="4869" width="3.33203125" style="241" customWidth="1"/>
+    <col min="4870" max="4870" width="20" style="241" customWidth="1"/>
+    <col min="4871" max="4871" width="24.5546875" style="241" customWidth="1"/>
+    <col min="4872" max="4901" width="4.44140625" style="241" customWidth="1"/>
+    <col min="4902" max="4902" width="2.5546875" style="241" customWidth="1"/>
+    <col min="4903" max="4903" width="6.109375" style="241" customWidth="1"/>
+    <col min="4904" max="4904" width="19.44140625" style="241" customWidth="1"/>
+    <col min="4905" max="5124" width="9" style="241"/>
+    <col min="5125" max="5125" width="3.33203125" style="241" customWidth="1"/>
+    <col min="5126" max="5126" width="20" style="241" customWidth="1"/>
+    <col min="5127" max="5127" width="24.5546875" style="241" customWidth="1"/>
+    <col min="5128" max="5157" width="4.44140625" style="241" customWidth="1"/>
+    <col min="5158" max="5158" width="2.5546875" style="241" customWidth="1"/>
+    <col min="5159" max="5159" width="6.109375" style="241" customWidth="1"/>
+    <col min="5160" max="5160" width="19.44140625" style="241" customWidth="1"/>
+    <col min="5161" max="5380" width="9" style="241"/>
+    <col min="5381" max="5381" width="3.33203125" style="241" customWidth="1"/>
+    <col min="5382" max="5382" width="20" style="241" customWidth="1"/>
+    <col min="5383" max="5383" width="24.5546875" style="241" customWidth="1"/>
+    <col min="5384" max="5413" width="4.44140625" style="241" customWidth="1"/>
+    <col min="5414" max="5414" width="2.5546875" style="241" customWidth="1"/>
+    <col min="5415" max="5415" width="6.109375" style="241" customWidth="1"/>
+    <col min="5416" max="5416" width="19.44140625" style="241" customWidth="1"/>
+    <col min="5417" max="5636" width="9" style="241"/>
+    <col min="5637" max="5637" width="3.33203125" style="241" customWidth="1"/>
+    <col min="5638" max="5638" width="20" style="241" customWidth="1"/>
+    <col min="5639" max="5639" width="24.5546875" style="241" customWidth="1"/>
+    <col min="5640" max="5669" width="4.44140625" style="241" customWidth="1"/>
+    <col min="5670" max="5670" width="2.5546875" style="241" customWidth="1"/>
+    <col min="5671" max="5671" width="6.109375" style="241" customWidth="1"/>
+    <col min="5672" max="5672" width="19.44140625" style="241" customWidth="1"/>
+    <col min="5673" max="5892" width="9" style="241"/>
+    <col min="5893" max="5893" width="3.33203125" style="241" customWidth="1"/>
+    <col min="5894" max="5894" width="20" style="241" customWidth="1"/>
+    <col min="5895" max="5895" width="24.5546875" style="241" customWidth="1"/>
+    <col min="5896" max="5925" width="4.44140625" style="241" customWidth="1"/>
+    <col min="5926" max="5926" width="2.5546875" style="241" customWidth="1"/>
+    <col min="5927" max="5927" width="6.109375" style="241" customWidth="1"/>
+    <col min="5928" max="5928" width="19.44140625" style="241" customWidth="1"/>
+    <col min="5929" max="6148" width="9" style="241"/>
+    <col min="6149" max="6149" width="3.33203125" style="241" customWidth="1"/>
+    <col min="6150" max="6150" width="20" style="241" customWidth="1"/>
+    <col min="6151" max="6151" width="24.5546875" style="241" customWidth="1"/>
+    <col min="6152" max="6181" width="4.44140625" style="241" customWidth="1"/>
+    <col min="6182" max="6182" width="2.5546875" style="241" customWidth="1"/>
+    <col min="6183" max="6183" width="6.109375" style="241" customWidth="1"/>
+    <col min="6184" max="6184" width="19.44140625" style="241" customWidth="1"/>
+    <col min="6185" max="6404" width="9" style="241"/>
+    <col min="6405" max="6405" width="3.33203125" style="241" customWidth="1"/>
+    <col min="6406" max="6406" width="20" style="241" customWidth="1"/>
+    <col min="6407" max="6407" width="24.5546875" style="241" customWidth="1"/>
+    <col min="6408" max="6437" width="4.44140625" style="241" customWidth="1"/>
+    <col min="6438" max="6438" width="2.5546875" style="241" customWidth="1"/>
+    <col min="6439" max="6439" width="6.109375" style="241" customWidth="1"/>
+    <col min="6440" max="6440" width="19.44140625" style="241" customWidth="1"/>
+    <col min="6441" max="6660" width="9" style="241"/>
+    <col min="6661" max="6661" width="3.33203125" style="241" customWidth="1"/>
+    <col min="6662" max="6662" width="20" style="241" customWidth="1"/>
+    <col min="6663" max="6663" width="24.5546875" style="241" customWidth="1"/>
+    <col min="6664" max="6693" width="4.44140625" style="241" customWidth="1"/>
+    <col min="6694" max="6694" width="2.5546875" style="241" customWidth="1"/>
+    <col min="6695" max="6695" width="6.109375" style="241" customWidth="1"/>
+    <col min="6696" max="6696" width="19.44140625" style="241" customWidth="1"/>
+    <col min="6697" max="6916" width="9" style="241"/>
+    <col min="6917" max="6917" width="3.33203125" style="241" customWidth="1"/>
+    <col min="6918" max="6918" width="20" style="241" customWidth="1"/>
+    <col min="6919" max="6919" width="24.5546875" style="241" customWidth="1"/>
+    <col min="6920" max="6949" width="4.44140625" style="241" customWidth="1"/>
+    <col min="6950" max="6950" width="2.5546875" style="241" customWidth="1"/>
+    <col min="6951" max="6951" width="6.109375" style="241" customWidth="1"/>
+    <col min="6952" max="6952" width="19.44140625" style="241" customWidth="1"/>
+    <col min="6953" max="7172" width="9" style="241"/>
+    <col min="7173" max="7173" width="3.33203125" style="241" customWidth="1"/>
+    <col min="7174" max="7174" width="20" style="241" customWidth="1"/>
+    <col min="7175" max="7175" width="24.5546875" style="241" customWidth="1"/>
+    <col min="7176" max="7205" width="4.44140625" style="241" customWidth="1"/>
+    <col min="7206" max="7206" width="2.5546875" style="241" customWidth="1"/>
+    <col min="7207" max="7207" width="6.109375" style="241" customWidth="1"/>
+    <col min="7208" max="7208" width="19.44140625" style="241" customWidth="1"/>
+    <col min="7209" max="7428" width="9" style="241"/>
+    <col min="7429" max="7429" width="3.33203125" style="241" customWidth="1"/>
+    <col min="7430" max="7430" width="20" style="241" customWidth="1"/>
+    <col min="7431" max="7431" width="24.5546875" style="241" customWidth="1"/>
+    <col min="7432" max="7461" width="4.44140625" style="241" customWidth="1"/>
+    <col min="7462" max="7462" width="2.5546875" style="241" customWidth="1"/>
+    <col min="7463" max="7463" width="6.109375" style="241" customWidth="1"/>
+    <col min="7464" max="7464" width="19.44140625" style="241" customWidth="1"/>
+    <col min="7465" max="7684" width="9" style="241"/>
+    <col min="7685" max="7685" width="3.33203125" style="241" customWidth="1"/>
+    <col min="7686" max="7686" width="20" style="241" customWidth="1"/>
+    <col min="7687" max="7687" width="24.5546875" style="241" customWidth="1"/>
+    <col min="7688" max="7717" width="4.44140625" style="241" customWidth="1"/>
+    <col min="7718" max="7718" width="2.5546875" style="241" customWidth="1"/>
+    <col min="7719" max="7719" width="6.109375" style="241" customWidth="1"/>
+    <col min="7720" max="7720" width="19.44140625" style="241" customWidth="1"/>
+    <col min="7721" max="7940" width="9" style="241"/>
+    <col min="7941" max="7941" width="3.33203125" style="241" customWidth="1"/>
+    <col min="7942" max="7942" width="20" style="241" customWidth="1"/>
+    <col min="7943" max="7943" width="24.5546875" style="241" customWidth="1"/>
+    <col min="7944" max="7973" width="4.44140625" style="241" customWidth="1"/>
+    <col min="7974" max="7974" width="2.5546875" style="241" customWidth="1"/>
+    <col min="7975" max="7975" width="6.109375" style="241" customWidth="1"/>
+    <col min="7976" max="7976" width="19.44140625" style="241" customWidth="1"/>
+    <col min="7977" max="8196" width="9" style="241"/>
+    <col min="8197" max="8197" width="3.33203125" style="241" customWidth="1"/>
+    <col min="8198" max="8198" width="20" style="241" customWidth="1"/>
+    <col min="8199" max="8199" width="24.5546875" style="241" customWidth="1"/>
+    <col min="8200" max="8229" width="4.44140625" style="241" customWidth="1"/>
+    <col min="8230" max="8230" width="2.5546875" style="241" customWidth="1"/>
+    <col min="8231" max="8231" width="6.109375" style="241" customWidth="1"/>
+    <col min="8232" max="8232" width="19.44140625" style="241" customWidth="1"/>
+    <col min="8233" max="8452" width="9" style="241"/>
+    <col min="8453" max="8453" width="3.33203125" style="241" customWidth="1"/>
+    <col min="8454" max="8454" width="20" style="241" customWidth="1"/>
+    <col min="8455" max="8455" width="24.5546875" style="241" customWidth="1"/>
+    <col min="8456" max="8485" width="4.44140625" style="241" customWidth="1"/>
+    <col min="8486" max="8486" width="2.5546875" style="241" customWidth="1"/>
+    <col min="8487" max="8487" width="6.109375" style="241" customWidth="1"/>
+    <col min="8488" max="8488" width="19.44140625" style="241" customWidth="1"/>
+    <col min="8489" max="8708" width="9" style="241"/>
+    <col min="8709" max="8709" width="3.33203125" style="241" customWidth="1"/>
+    <col min="8710" max="8710" width="20" style="241" customWidth="1"/>
+    <col min="8711" max="8711" width="24.5546875" style="241" customWidth="1"/>
+    <col min="8712" max="8741" width="4.44140625" style="241" customWidth="1"/>
+    <col min="8742" max="8742" width="2.5546875" style="241" customWidth="1"/>
+    <col min="8743" max="8743" width="6.109375" style="241" customWidth="1"/>
+    <col min="8744" max="8744" width="19.44140625" style="241" customWidth="1"/>
+    <col min="8745" max="8964" width="9" style="241"/>
+    <col min="8965" max="8965" width="3.33203125" style="241" customWidth="1"/>
+    <col min="8966" max="8966" width="20" style="241" customWidth="1"/>
+    <col min="8967" max="8967" width="24.5546875" style="241" customWidth="1"/>
+    <col min="8968" max="8997" width="4.44140625" style="241" customWidth="1"/>
+    <col min="8998" max="8998" width="2.5546875" style="241" customWidth="1"/>
+    <col min="8999" max="8999" width="6.109375" style="241" customWidth="1"/>
+    <col min="9000" max="9000" width="19.44140625" style="241" customWidth="1"/>
+    <col min="9001" max="9220" width="9" style="241"/>
+    <col min="9221" max="9221" width="3.33203125" style="241" customWidth="1"/>
+    <col min="9222" max="9222" width="20" style="241" customWidth="1"/>
+    <col min="9223" max="9223" width="24.5546875" style="241" customWidth="1"/>
+    <col min="9224" max="9253" width="4.44140625" style="241" customWidth="1"/>
+    <col min="9254" max="9254" width="2.5546875" style="241" customWidth="1"/>
+    <col min="9255" max="9255" width="6.109375" style="241" customWidth="1"/>
+    <col min="9256" max="9256" width="19.44140625" style="241" customWidth="1"/>
+    <col min="9257" max="9476" width="9" style="241"/>
+    <col min="9477" max="9477" width="3.33203125" style="241" customWidth="1"/>
+    <col min="9478" max="9478" width="20" style="241" customWidth="1"/>
+    <col min="9479" max="9479" width="24.5546875" style="241" customWidth="1"/>
+    <col min="9480" max="9509" width="4.44140625" style="241" customWidth="1"/>
+    <col min="9510" max="9510" width="2.5546875" style="241" customWidth="1"/>
+    <col min="9511" max="9511" width="6.109375" style="241" customWidth="1"/>
+    <col min="9512" max="9512" width="19.44140625" style="241" customWidth="1"/>
+    <col min="9513" max="9732" width="9" style="241"/>
+    <col min="9733" max="9733" width="3.33203125" style="241" customWidth="1"/>
+    <col min="9734" max="9734" width="20" style="241" customWidth="1"/>
+    <col min="9735" max="9735" width="24.5546875" style="241" customWidth="1"/>
+    <col min="9736" max="9765" width="4.44140625" style="241" customWidth="1"/>
+    <col min="9766" max="9766" width="2.5546875" style="241" customWidth="1"/>
+    <col min="9767" max="9767" width="6.109375" style="241" customWidth="1"/>
+    <col min="9768" max="9768" width="19.44140625" style="241" customWidth="1"/>
+    <col min="9769" max="9988" width="9" style="241"/>
+    <col min="9989" max="9989" width="3.33203125" style="241" customWidth="1"/>
+    <col min="9990" max="9990" width="20" style="241" customWidth="1"/>
+    <col min="9991" max="9991" width="24.5546875" style="241" customWidth="1"/>
+    <col min="9992" max="10021" width="4.44140625" style="241" customWidth="1"/>
+    <col min="10022" max="10022" width="2.5546875" style="241" customWidth="1"/>
+    <col min="10023" max="10023" width="6.109375" style="241" customWidth="1"/>
+    <col min="10024" max="10024" width="19.44140625" style="241" customWidth="1"/>
+    <col min="10025" max="10244" width="9" style="241"/>
+    <col min="10245" max="10245" width="3.33203125" style="241" customWidth="1"/>
+    <col min="10246" max="10246" width="20" style="241" customWidth="1"/>
+    <col min="10247" max="10247" width="24.5546875" style="241" customWidth="1"/>
+    <col min="10248" max="10277" width="4.44140625" style="241" customWidth="1"/>
+    <col min="10278" max="10278" width="2.5546875" style="241" customWidth="1"/>
+    <col min="10279" max="10279" width="6.109375" style="241" customWidth="1"/>
+    <col min="10280" max="10280" width="19.44140625" style="241" customWidth="1"/>
+    <col min="10281" max="10500" width="9" style="241"/>
+    <col min="10501" max="10501" width="3.33203125" style="241" customWidth="1"/>
+    <col min="10502" max="10502" width="20" style="241" customWidth="1"/>
+    <col min="10503" max="10503" width="24.5546875" style="241" customWidth="1"/>
+    <col min="10504" max="10533" width="4.44140625" style="241" customWidth="1"/>
+    <col min="10534" max="10534" width="2.5546875" style="241" customWidth="1"/>
+    <col min="10535" max="10535" width="6.109375" style="241" customWidth="1"/>
+    <col min="10536" max="10536" width="19.44140625" style="241" customWidth="1"/>
+    <col min="10537" max="10756" width="9" style="241"/>
+    <col min="10757" max="10757" width="3.33203125" style="241" customWidth="1"/>
+    <col min="10758" max="10758" width="20" style="241" customWidth="1"/>
+    <col min="10759" max="10759" width="24.5546875" style="241" customWidth="1"/>
+    <col min="10760" max="10789" width="4.44140625" style="241" customWidth="1"/>
+    <col min="10790" max="10790" width="2.5546875" style="241" customWidth="1"/>
+    <col min="10791" max="10791" width="6.109375" style="241" customWidth="1"/>
+    <col min="10792" max="10792" width="19.44140625" style="241" customWidth="1"/>
+    <col min="10793" max="11012" width="9" style="241"/>
+    <col min="11013" max="11013" width="3.33203125" style="241" customWidth="1"/>
+    <col min="11014" max="11014" width="20" style="241" customWidth="1"/>
+    <col min="11015" max="11015" width="24.5546875" style="241" customWidth="1"/>
+    <col min="11016" max="11045" width="4.44140625" style="241" customWidth="1"/>
+    <col min="11046" max="11046" width="2.5546875" style="241" customWidth="1"/>
+    <col min="11047" max="11047" width="6.109375" style="241" customWidth="1"/>
+    <col min="11048" max="11048" width="19.44140625" style="241" customWidth="1"/>
+    <col min="11049" max="11268" width="9" style="241"/>
+    <col min="11269" max="11269" width="3.33203125" style="241" customWidth="1"/>
+    <col min="11270" max="11270" width="20" style="241" customWidth="1"/>
+    <col min="11271" max="11271" width="24.5546875" style="241" customWidth="1"/>
+    <col min="11272" max="11301" width="4.44140625" style="241" customWidth="1"/>
+    <col min="11302" max="11302" width="2.5546875" style="241" customWidth="1"/>
+    <col min="11303" max="11303" width="6.109375" style="241" customWidth="1"/>
+    <col min="11304" max="11304" width="19.44140625" style="241" customWidth="1"/>
+    <col min="11305" max="11524" width="9" style="241"/>
+    <col min="11525" max="11525" width="3.33203125" style="241" customWidth="1"/>
+    <col min="11526" max="11526" width="20" style="241" customWidth="1"/>
+    <col min="11527" max="11527" width="24.5546875" style="241" customWidth="1"/>
+    <col min="11528" max="11557" width="4.44140625" style="241" customWidth="1"/>
+    <col min="11558" max="11558" width="2.5546875" style="241" customWidth="1"/>
+    <col min="11559" max="11559" width="6.109375" style="241" customWidth="1"/>
+    <col min="11560" max="11560" width="19.44140625" style="241" customWidth="1"/>
+    <col min="11561" max="11780" width="9" style="241"/>
+    <col min="11781" max="11781" width="3.33203125" style="241" customWidth="1"/>
+    <col min="11782" max="11782" width="20" style="241" customWidth="1"/>
+    <col min="11783" max="11783" width="24.5546875" style="241" customWidth="1"/>
+    <col min="11784" max="11813" width="4.44140625" style="241" customWidth="1"/>
+    <col min="11814" max="11814" width="2.5546875" style="241" customWidth="1"/>
+    <col min="11815" max="11815" width="6.109375" style="241" customWidth="1"/>
+    <col min="11816" max="11816" width="19.44140625" style="241" customWidth="1"/>
+    <col min="11817" max="12036" width="9" style="241"/>
+    <col min="12037" max="12037" width="3.33203125" style="241" customWidth="1"/>
+    <col min="12038" max="12038" width="20" style="241" customWidth="1"/>
+    <col min="12039" max="12039" width="24.5546875" style="241" customWidth="1"/>
+    <col min="12040" max="12069" width="4.44140625" style="241" customWidth="1"/>
+    <col min="12070" max="12070" width="2.5546875" style="241" customWidth="1"/>
+    <col min="12071" max="12071" width="6.109375" style="241" customWidth="1"/>
+    <col min="12072" max="12072" width="19.44140625" style="241" customWidth="1"/>
+    <col min="12073" max="12292" width="9" style="241"/>
+    <col min="12293" max="12293" width="3.33203125" style="241" customWidth="1"/>
+    <col min="12294" max="12294" width="20" style="241" customWidth="1"/>
+    <col min="12295" max="12295" width="24.5546875" style="241" customWidth="1"/>
+    <col min="12296" max="12325" width="4.44140625" style="241" customWidth="1"/>
+    <col min="12326" max="12326" width="2.5546875" style="241" customWidth="1"/>
+    <col min="12327" max="12327" width="6.109375" style="241" customWidth="1"/>
+    <col min="12328" max="12328" width="19.44140625" style="241" customWidth="1"/>
+    <col min="12329" max="12548" width="9" style="241"/>
+    <col min="12549" max="12549" width="3.33203125" style="241" customWidth="1"/>
+    <col min="12550" max="12550" width="20" style="241" customWidth="1"/>
+    <col min="12551" max="12551" width="24.5546875" style="241" customWidth="1"/>
+    <col min="12552" max="12581" width="4.44140625" style="241" customWidth="1"/>
+    <col min="12582" max="12582" width="2.5546875" style="241" customWidth="1"/>
+    <col min="12583" max="12583" width="6.109375" style="241" customWidth="1"/>
+    <col min="12584" max="12584" width="19.44140625" style="241" customWidth="1"/>
+    <col min="12585" max="12804" width="9" style="241"/>
+    <col min="12805" max="12805" width="3.33203125" style="241" customWidth="1"/>
+    <col min="12806" max="12806" width="20" style="241" customWidth="1"/>
+    <col min="12807" max="12807" width="24.5546875" style="241" customWidth="1"/>
+    <col min="12808" max="12837" width="4.44140625" style="241" customWidth="1"/>
+    <col min="12838" max="12838" width="2.5546875" style="241" customWidth="1"/>
+    <col min="12839" max="12839" width="6.109375" style="241" customWidth="1"/>
+    <col min="12840" max="12840" width="19.44140625" style="241" customWidth="1"/>
+    <col min="12841" max="13060" width="9" style="241"/>
+    <col min="13061" max="13061" width="3.33203125" style="241" customWidth="1"/>
+    <col min="13062" max="13062" width="20" style="241" customWidth="1"/>
+    <col min="13063" max="13063" width="24.5546875" style="241" customWidth="1"/>
+    <col min="13064" max="13093" width="4.44140625" style="241" customWidth="1"/>
+    <col min="13094" max="13094" width="2.5546875" style="241" customWidth="1"/>
+    <col min="13095" max="13095" width="6.109375" style="241" customWidth="1"/>
+    <col min="13096" max="13096" width="19.44140625" style="241" customWidth="1"/>
+    <col min="13097" max="13316" width="9" style="241"/>
+    <col min="13317" max="13317" width="3.33203125" style="241" customWidth="1"/>
+    <col min="13318" max="13318" width="20" style="241" customWidth="1"/>
+    <col min="13319" max="13319" width="24.5546875" style="241" customWidth="1"/>
+    <col min="13320" max="13349" width="4.44140625" style="241" customWidth="1"/>
+    <col min="13350" max="13350" width="2.5546875" style="241" customWidth="1"/>
+    <col min="13351" max="13351" width="6.109375" style="241" customWidth="1"/>
+    <col min="13352" max="13352" width="19.44140625" style="241" customWidth="1"/>
+    <col min="13353" max="13572" width="9" style="241"/>
+    <col min="13573" max="13573" width="3.33203125" style="241" customWidth="1"/>
+    <col min="13574" max="13574" width="20" style="241" customWidth="1"/>
+    <col min="13575" max="13575" width="24.5546875" style="241" customWidth="1"/>
+    <col min="13576" max="13605" width="4.44140625" style="241" customWidth="1"/>
+    <col min="13606" max="13606" width="2.5546875" style="241" customWidth="1"/>
+    <col min="13607" max="13607" width="6.109375" style="241" customWidth="1"/>
+    <col min="13608" max="13608" width="19.44140625" style="241" customWidth="1"/>
+    <col min="13609" max="13828" width="9" style="241"/>
+    <col min="13829" max="13829" width="3.33203125" style="241" customWidth="1"/>
+    <col min="13830" max="13830" width="20" style="241" customWidth="1"/>
+    <col min="13831" max="13831" width="24.5546875" style="241" customWidth="1"/>
+    <col min="13832" max="13861" width="4.44140625" style="241" customWidth="1"/>
+    <col min="13862" max="13862" width="2.5546875" style="241" customWidth="1"/>
+    <col min="13863" max="13863" width="6.109375" style="241" customWidth="1"/>
+    <col min="13864" max="13864" width="19.44140625" style="241" customWidth="1"/>
+    <col min="13865" max="14084" width="9" style="241"/>
+    <col min="14085" max="14085" width="3.33203125" style="241" customWidth="1"/>
+    <col min="14086" max="14086" width="20" style="241" customWidth="1"/>
+    <col min="14087" max="14087" width="24.5546875" style="241" customWidth="1"/>
+    <col min="14088" max="14117" width="4.44140625" style="241" customWidth="1"/>
+    <col min="14118" max="14118" width="2.5546875" style="241" customWidth="1"/>
+    <col min="14119" max="14119" width="6.109375" style="241" customWidth="1"/>
+    <col min="14120" max="14120" width="19.44140625" style="241" customWidth="1"/>
+    <col min="14121" max="14340" width="9" style="241"/>
+    <col min="14341" max="14341" width="3.33203125" style="241" customWidth="1"/>
+    <col min="14342" max="14342" width="20" style="241" customWidth="1"/>
+    <col min="14343" max="14343" width="24.5546875" style="241" customWidth="1"/>
+    <col min="14344" max="14373" width="4.44140625" style="241" customWidth="1"/>
+    <col min="14374" max="14374" width="2.5546875" style="241" customWidth="1"/>
+    <col min="14375" max="14375" width="6.109375" style="241" customWidth="1"/>
+    <col min="14376" max="14376" width="19.44140625" style="241" customWidth="1"/>
+    <col min="14377" max="14596" width="9" style="241"/>
+    <col min="14597" max="14597" width="3.33203125" style="241" customWidth="1"/>
+    <col min="14598" max="14598" width="20" style="241" customWidth="1"/>
+    <col min="14599" max="14599" width="24.5546875" style="241" customWidth="1"/>
+    <col min="14600" max="14629" width="4.44140625" style="241" customWidth="1"/>
+    <col min="14630" max="14630" width="2.5546875" style="241" customWidth="1"/>
+    <col min="14631" max="14631" width="6.109375" style="241" customWidth="1"/>
+    <col min="14632" max="14632" width="19.44140625" style="241" customWidth="1"/>
+    <col min="14633" max="14852" width="9" style="241"/>
+    <col min="14853" max="14853" width="3.33203125" style="241" customWidth="1"/>
+    <col min="14854" max="14854" width="20" style="241" customWidth="1"/>
+    <col min="14855" max="14855" width="24.5546875" style="241" customWidth="1"/>
+    <col min="14856" max="14885" width="4.44140625" style="241" customWidth="1"/>
+    <col min="14886" max="14886" width="2.5546875" style="241" customWidth="1"/>
+    <col min="14887" max="14887" width="6.109375" style="241" customWidth="1"/>
+    <col min="14888" max="14888" width="19.44140625" style="241" customWidth="1"/>
+    <col min="14889" max="15108" width="9" style="241"/>
+    <col min="15109" max="15109" width="3.33203125" style="241" customWidth="1"/>
+    <col min="15110" max="15110" width="20" style="241" customWidth="1"/>
+    <col min="15111" max="15111" width="24.5546875" style="241" customWidth="1"/>
+    <col min="15112" max="15141" width="4.44140625" style="241" customWidth="1"/>
+    <col min="15142" max="15142" width="2.5546875" style="241" customWidth="1"/>
+    <col min="15143" max="15143" width="6.109375" style="241" customWidth="1"/>
+    <col min="15144" max="15144" width="19.44140625" style="241" customWidth="1"/>
+    <col min="15145" max="15364" width="9" style="241"/>
+    <col min="15365" max="15365" width="3.33203125" style="241" customWidth="1"/>
+    <col min="15366" max="15366" width="20" style="241" customWidth="1"/>
+    <col min="15367" max="15367" width="24.5546875" style="241" customWidth="1"/>
+    <col min="15368" max="15397" width="4.44140625" style="241" customWidth="1"/>
+    <col min="15398" max="15398" width="2.5546875" style="241" customWidth="1"/>
+    <col min="15399" max="15399" width="6.109375" style="241" customWidth="1"/>
+    <col min="15400" max="15400" width="19.44140625" style="241" customWidth="1"/>
+    <col min="15401" max="15620" width="9" style="241"/>
+    <col min="15621" max="15621" width="3.33203125" style="241" customWidth="1"/>
+    <col min="15622" max="15622" width="20" style="241" customWidth="1"/>
+    <col min="15623" max="15623" width="24.5546875" style="241" customWidth="1"/>
+    <col min="15624" max="15653" width="4.44140625" style="241" customWidth="1"/>
+    <col min="15654" max="15654" width="2.5546875" style="241" customWidth="1"/>
+    <col min="15655" max="15655" width="6.109375" style="241" customWidth="1"/>
+    <col min="15656" max="15656" width="19.44140625" style="241" customWidth="1"/>
+    <col min="15657" max="15876" width="9" style="241"/>
+    <col min="15877" max="15877" width="3.33203125" style="241" customWidth="1"/>
+    <col min="15878" max="15878" width="20" style="241" customWidth="1"/>
+    <col min="15879" max="15879" width="24.5546875" style="241" customWidth="1"/>
+    <col min="15880" max="15909" width="4.44140625" style="241" customWidth="1"/>
+    <col min="15910" max="15910" width="2.5546875" style="241" customWidth="1"/>
+    <col min="15911" max="15911" width="6.109375" style="241" customWidth="1"/>
+    <col min="15912" max="15912" width="19.44140625" style="241" customWidth="1"/>
+    <col min="15913" max="16132" width="9" style="241"/>
+    <col min="16133" max="16133" width="3.33203125" style="241" customWidth="1"/>
+    <col min="16134" max="16134" width="20" style="241" customWidth="1"/>
+    <col min="16135" max="16135" width="24.5546875" style="241" customWidth="1"/>
+    <col min="16136" max="16165" width="4.44140625" style="241" customWidth="1"/>
+    <col min="16166" max="16166" width="2.5546875" style="241" customWidth="1"/>
+    <col min="16167" max="16167" width="6.109375" style="241" customWidth="1"/>
+    <col min="16168" max="16168" width="19.44140625" style="241" customWidth="1"/>
+    <col min="16169" max="16384" width="9" style="241"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
       <c r="Z1" s="452" t="s">
         <v>20</v>
       </c>
@@ -8994,1157 +9014,1150 @@
       <c r="AG1" s="454"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="Z2" s="435" t="s">
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="Z2" s="447" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" s="436"/>
-      <c r="AB2" s="436"/>
-      <c r="AC2" s="436"/>
-      <c r="AD2" s="436"/>
-      <c r="AE2" s="437"/>
-      <c r="AF2" s="438" t="s">
+      <c r="AA2" s="448"/>
+      <c r="AB2" s="448"/>
+      <c r="AC2" s="448"/>
+      <c r="AD2" s="448"/>
+      <c r="AE2" s="449"/>
+      <c r="AF2" s="450" t="s">
         <v>98</v>
       </c>
-      <c r="AG2" s="439"/>
+      <c r="AG2" s="451"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="92"/>
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
       <c r="E3" s="92"/>
-      <c r="Z3" s="435" t="s">
+      <c r="Z3" s="447" t="s">
         <v>100</v>
       </c>
-      <c r="AA3" s="436"/>
-      <c r="AB3" s="436"/>
-      <c r="AC3" s="436"/>
-      <c r="AD3" s="436"/>
-      <c r="AE3" s="437"/>
-      <c r="AF3" s="438" t="s">
+      <c r="AA3" s="448"/>
+      <c r="AB3" s="448"/>
+      <c r="AC3" s="448"/>
+      <c r="AD3" s="448"/>
+      <c r="AE3" s="449"/>
+      <c r="AF3" s="450" t="s">
         <v>101</v>
       </c>
-      <c r="AG3" s="439"/>
+      <c r="AG3" s="451"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A4" s="246" t="s">
+      <c r="A4" s="243" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="92"/>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
       <c r="E4" s="92"/>
-      <c r="Z4" s="435" t="s">
+      <c r="Z4" s="447" t="s">
         <v>103</v>
       </c>
-      <c r="AA4" s="436"/>
-      <c r="AB4" s="436"/>
-      <c r="AC4" s="436"/>
-      <c r="AD4" s="436"/>
-      <c r="AE4" s="437"/>
-      <c r="AF4" s="438" t="s">
+      <c r="AA4" s="448"/>
+      <c r="AB4" s="448"/>
+      <c r="AC4" s="448"/>
+      <c r="AD4" s="448"/>
+      <c r="AE4" s="449"/>
+      <c r="AF4" s="450" t="s">
         <v>104</v>
       </c>
-      <c r="AG4" s="439"/>
+      <c r="AG4" s="451"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="243" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
       <c r="D5" s="92"/>
       <c r="E5" s="92"/>
-      <c r="Z5" s="435" t="s">
+      <c r="Z5" s="447" t="s">
         <v>106</v>
       </c>
-      <c r="AA5" s="436"/>
-      <c r="AB5" s="436"/>
-      <c r="AC5" s="436"/>
-      <c r="AD5" s="436"/>
-      <c r="AE5" s="437"/>
-      <c r="AF5" s="438" t="s">
+      <c r="AA5" s="448"/>
+      <c r="AB5" s="448"/>
+      <c r="AC5" s="448"/>
+      <c r="AD5" s="448"/>
+      <c r="AE5" s="449"/>
+      <c r="AF5" s="450" t="s">
         <v>107</v>
       </c>
-      <c r="AG5" s="439"/>
+      <c r="AG5" s="451"/>
     </row>
     <row r="6" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="248"/>
-      <c r="B6" s="248"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
-      <c r="E6" s="248"/>
-    </row>
-    <row r="7" spans="1:40" s="251" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="440" t="s">
+      <c r="A6" s="245"/>
+      <c r="B6" s="245"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="245"/>
+    </row>
+    <row r="7" spans="1:40" s="248" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="456" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="440"/>
-      <c r="C7" s="440"/>
-      <c r="D7" s="440"/>
-      <c r="E7" s="440"/>
-      <c r="F7" s="440"/>
-      <c r="G7" s="440"/>
-      <c r="H7" s="440"/>
-      <c r="I7" s="440"/>
-      <c r="J7" s="440"/>
-      <c r="K7" s="440"/>
-      <c r="L7" s="440"/>
-      <c r="M7" s="440"/>
-      <c r="N7" s="440"/>
-      <c r="O7" s="440"/>
-      <c r="P7" s="440"/>
-      <c r="Q7" s="440"/>
-      <c r="R7" s="440"/>
-      <c r="S7" s="440"/>
-      <c r="T7" s="440"/>
-      <c r="U7" s="440"/>
-      <c r="V7" s="440"/>
-      <c r="W7" s="440"/>
-      <c r="X7" s="440"/>
-      <c r="Y7" s="440"/>
-      <c r="Z7" s="440"/>
-      <c r="AA7" s="440"/>
-      <c r="AB7" s="440"/>
-      <c r="AC7" s="440"/>
-      <c r="AD7" s="440"/>
-      <c r="AE7" s="440"/>
-      <c r="AF7" s="440"/>
-      <c r="AG7" s="440"/>
-      <c r="AH7" s="440"/>
-      <c r="AI7" s="440"/>
-      <c r="AJ7" s="440"/>
-      <c r="AK7" s="440"/>
-      <c r="AL7" s="440"/>
-      <c r="AM7" s="440"/>
-      <c r="AN7" s="250"/>
-    </row>
-    <row r="9" spans="1:40" s="256" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="441" t="s">
+      <c r="B7" s="456"/>
+      <c r="C7" s="456"/>
+      <c r="D7" s="456"/>
+      <c r="E7" s="456"/>
+      <c r="F7" s="456"/>
+      <c r="G7" s="456"/>
+      <c r="H7" s="456"/>
+      <c r="I7" s="456"/>
+      <c r="J7" s="456"/>
+      <c r="K7" s="456"/>
+      <c r="L7" s="456"/>
+      <c r="M7" s="456"/>
+      <c r="N7" s="456"/>
+      <c r="O7" s="456"/>
+      <c r="P7" s="456"/>
+      <c r="Q7" s="456"/>
+      <c r="R7" s="456"/>
+      <c r="S7" s="456"/>
+      <c r="T7" s="456"/>
+      <c r="U7" s="456"/>
+      <c r="V7" s="456"/>
+      <c r="W7" s="456"/>
+      <c r="X7" s="456"/>
+      <c r="Y7" s="456"/>
+      <c r="Z7" s="456"/>
+      <c r="AA7" s="456"/>
+      <c r="AB7" s="456"/>
+      <c r="AC7" s="456"/>
+      <c r="AD7" s="456"/>
+      <c r="AE7" s="456"/>
+      <c r="AF7" s="456"/>
+      <c r="AG7" s="456"/>
+      <c r="AH7" s="456"/>
+      <c r="AI7" s="456"/>
+      <c r="AJ7" s="456"/>
+      <c r="AK7" s="456"/>
+      <c r="AL7" s="456"/>
+      <c r="AM7" s="456"/>
+      <c r="AN7" s="247"/>
+    </row>
+    <row r="9" spans="1:40" s="253" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="457" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="441" t="s">
+      <c r="B9" s="457" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="441" t="s">
+      <c r="C9" s="457" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="444" t="s">
+      <c r="D9" s="460" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="445"/>
-      <c r="F9" s="445"/>
-      <c r="G9" s="445"/>
-      <c r="H9" s="445"/>
-      <c r="I9" s="445"/>
-      <c r="J9" s="445"/>
-      <c r="K9" s="445"/>
-      <c r="L9" s="445"/>
-      <c r="M9" s="445"/>
-      <c r="N9" s="445"/>
-      <c r="O9" s="445"/>
-      <c r="P9" s="445"/>
-      <c r="Q9" s="445"/>
-      <c r="R9" s="445"/>
-      <c r="S9" s="445"/>
-      <c r="T9" s="445"/>
-      <c r="U9" s="445"/>
-      <c r="V9" s="445"/>
-      <c r="W9" s="445"/>
-      <c r="X9" s="445"/>
-      <c r="Y9" s="445"/>
-      <c r="Z9" s="445"/>
-      <c r="AA9" s="445"/>
-      <c r="AB9" s="445"/>
-      <c r="AC9" s="445"/>
-      <c r="AD9" s="445"/>
-      <c r="AE9" s="445"/>
-      <c r="AF9" s="445"/>
-      <c r="AG9" s="445"/>
-      <c r="AH9" s="446"/>
-      <c r="AI9" s="447" t="s">
+      <c r="E9" s="461"/>
+      <c r="F9" s="461"/>
+      <c r="G9" s="461"/>
+      <c r="H9" s="461"/>
+      <c r="I9" s="461"/>
+      <c r="J9" s="461"/>
+      <c r="K9" s="461"/>
+      <c r="L9" s="461"/>
+      <c r="M9" s="461"/>
+      <c r="N9" s="461"/>
+      <c r="O9" s="461"/>
+      <c r="P9" s="461"/>
+      <c r="Q9" s="461"/>
+      <c r="R9" s="461"/>
+      <c r="S9" s="461"/>
+      <c r="T9" s="461"/>
+      <c r="U9" s="461"/>
+      <c r="V9" s="461"/>
+      <c r="W9" s="461"/>
+      <c r="X9" s="461"/>
+      <c r="Y9" s="461"/>
+      <c r="Z9" s="461"/>
+      <c r="AA9" s="461"/>
+      <c r="AB9" s="461"/>
+      <c r="AC9" s="461"/>
+      <c r="AD9" s="461"/>
+      <c r="AE9" s="461"/>
+      <c r="AF9" s="461"/>
+      <c r="AG9" s="461"/>
+      <c r="AH9" s="462"/>
+      <c r="AI9" s="463" t="s">
         <v>112</v>
       </c>
-      <c r="AJ9" s="252"/>
-      <c r="AK9" s="253"/>
-      <c r="AL9" s="253"/>
-      <c r="AM9" s="254"/>
-      <c r="AN9" s="255"/>
-    </row>
-    <row r="10" spans="1:40" s="256" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="442"/>
-      <c r="B10" s="442"/>
-      <c r="C10" s="442"/>
-      <c r="D10" s="257">
+      <c r="AJ9" s="249"/>
+      <c r="AK9" s="250"/>
+      <c r="AL9" s="250"/>
+      <c r="AM9" s="251"/>
+      <c r="AN9" s="252"/>
+    </row>
+    <row r="10" spans="1:40" s="253" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="458"/>
+      <c r="B10" s="458"/>
+      <c r="C10" s="458"/>
+      <c r="D10" s="254">
         <v>1</v>
       </c>
-      <c r="E10" s="257">
+      <c r="E10" s="254">
         <v>2</v>
       </c>
-      <c r="F10" s="257">
+      <c r="F10" s="254">
         <v>3</v>
       </c>
-      <c r="G10" s="257">
+      <c r="G10" s="254">
         <v>4</v>
       </c>
-      <c r="H10" s="257">
+      <c r="H10" s="254">
         <v>5</v>
       </c>
-      <c r="I10" s="257">
+      <c r="I10" s="254">
         <v>6</v>
       </c>
-      <c r="J10" s="257">
+      <c r="J10" s="254">
         <v>7</v>
       </c>
-      <c r="K10" s="257">
+      <c r="K10" s="254">
         <v>8</v>
       </c>
-      <c r="L10" s="257">
+      <c r="L10" s="254">
         <v>9</v>
       </c>
-      <c r="M10" s="257">
+      <c r="M10" s="254">
         <v>10</v>
       </c>
-      <c r="N10" s="257">
+      <c r="N10" s="254">
         <v>11</v>
       </c>
-      <c r="O10" s="257">
+      <c r="O10" s="254">
         <v>12</v>
       </c>
-      <c r="P10" s="257">
+      <c r="P10" s="254">
         <v>13</v>
       </c>
-      <c r="Q10" s="257">
+      <c r="Q10" s="254">
         <v>14</v>
       </c>
-      <c r="R10" s="257">
+      <c r="R10" s="254">
         <v>15</v>
       </c>
-      <c r="S10" s="257">
+      <c r="S10" s="254">
         <v>16</v>
       </c>
-      <c r="T10" s="257">
+      <c r="T10" s="254">
         <v>17</v>
       </c>
-      <c r="U10" s="257">
+      <c r="U10" s="254">
         <v>18</v>
       </c>
-      <c r="V10" s="257">
+      <c r="V10" s="254">
         <v>19</v>
       </c>
-      <c r="W10" s="257">
+      <c r="W10" s="254">
         <v>20</v>
       </c>
-      <c r="X10" s="257">
+      <c r="X10" s="254">
         <v>21</v>
       </c>
-      <c r="Y10" s="257">
+      <c r="Y10" s="254">
         <v>22</v>
       </c>
-      <c r="Z10" s="257">
+      <c r="Z10" s="254">
         <v>23</v>
       </c>
-      <c r="AA10" s="257">
+      <c r="AA10" s="254">
         <v>24</v>
       </c>
-      <c r="AB10" s="257">
+      <c r="AB10" s="254">
         <v>25</v>
       </c>
-      <c r="AC10" s="257">
+      <c r="AC10" s="254">
         <v>26</v>
       </c>
-      <c r="AD10" s="257">
+      <c r="AD10" s="254">
         <v>27</v>
       </c>
-      <c r="AE10" s="257">
+      <c r="AE10" s="254">
         <v>28</v>
       </c>
-      <c r="AF10" s="257">
+      <c r="AF10" s="254">
         <v>29</v>
       </c>
-      <c r="AG10" s="257">
+      <c r="AG10" s="254">
         <v>30</v>
       </c>
-      <c r="AH10" s="257">
+      <c r="AH10" s="254">
         <v>31</v>
       </c>
-      <c r="AI10" s="447"/>
-      <c r="AJ10" s="258"/>
-      <c r="AK10" s="254"/>
-      <c r="AL10" s="254"/>
-      <c r="AM10" s="254"/>
-      <c r="AN10" s="255"/>
-    </row>
-    <row r="11" spans="1:40" s="264" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="443"/>
-      <c r="B11" s="443"/>
-      <c r="C11" s="443"/>
-      <c r="D11" s="257" t="s">
+      <c r="AI10" s="463"/>
+      <c r="AJ10" s="255"/>
+      <c r="AK10" s="251"/>
+      <c r="AL10" s="251"/>
+      <c r="AM10" s="251"/>
+      <c r="AN10" s="252"/>
+    </row>
+    <row r="11" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="459"/>
+      <c r="B11" s="459"/>
+      <c r="C11" s="459"/>
+      <c r="D11" s="254" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="259" t="s">
+      <c r="E11" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="257" t="s">
+      <c r="F11" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="259" t="s">
+      <c r="G11" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="261" t="s">
+      <c r="H11" s="258" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="262" t="s">
+      <c r="I11" s="259" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="260" t="s">
+      <c r="J11" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="257" t="s">
+      <c r="K11" s="254" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="259" t="s">
+      <c r="L11" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="M11" s="257" t="s">
+      <c r="M11" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="N11" s="259" t="s">
+      <c r="N11" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="261" t="s">
+      <c r="O11" s="258" t="s">
         <v>113</v>
       </c>
-      <c r="P11" s="262" t="s">
+      <c r="P11" s="259" t="s">
         <v>114</v>
       </c>
-      <c r="Q11" s="260" t="s">
+      <c r="Q11" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="R11" s="257" t="s">
+      <c r="R11" s="254" t="s">
         <v>116</v>
       </c>
-      <c r="S11" s="259" t="s">
+      <c r="S11" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="T11" s="257" t="s">
+      <c r="T11" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="U11" s="259" t="s">
+      <c r="U11" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="V11" s="261" t="s">
+      <c r="V11" s="258" t="s">
         <v>113</v>
       </c>
-      <c r="W11" s="262" t="s">
+      <c r="W11" s="259" t="s">
         <v>114</v>
       </c>
-      <c r="X11" s="260" t="s">
+      <c r="X11" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="Y11" s="257" t="s">
+      <c r="Y11" s="254" t="s">
         <v>116</v>
       </c>
-      <c r="Z11" s="259" t="s">
+      <c r="Z11" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="AA11" s="257" t="s">
+      <c r="AA11" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="AB11" s="259" t="s">
+      <c r="AB11" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="AC11" s="261" t="s">
+      <c r="AC11" s="258" t="s">
         <v>113</v>
       </c>
-      <c r="AD11" s="262" t="s">
+      <c r="AD11" s="259" t="s">
         <v>114</v>
       </c>
-      <c r="AE11" s="260" t="s">
+      <c r="AE11" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="AF11" s="259" t="s">
+      <c r="AF11" s="256" t="s">
         <v>116</v>
       </c>
-      <c r="AG11" s="259" t="s">
+      <c r="AG11" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="AH11" s="259" t="s">
+      <c r="AH11" s="256" t="s">
         <v>118</v>
       </c>
-      <c r="AI11" s="447"/>
-      <c r="AJ11" s="263"/>
-      <c r="AN11" s="265"/>
-    </row>
-    <row r="12" spans="1:40" s="264" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="297">
+      <c r="AI11" s="463"/>
+      <c r="AJ11" s="260"/>
+      <c r="AN11" s="262"/>
+    </row>
+    <row r="12" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="294">
         <v>1</v>
       </c>
-      <c r="B12" s="297" t="s">
+      <c r="B12" s="294" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="297" t="s">
+      <c r="C12" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="266" t="s">
+      <c r="D12" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="266" t="s">
+      <c r="E12" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="266" t="s">
+      <c r="F12" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="266" t="s">
+      <c r="G12" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="268" t="s">
+      <c r="I12" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="267"/>
-      <c r="K12" s="268" t="s">
+      <c r="J12" s="264"/>
+      <c r="K12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="268" t="s">
+      <c r="L12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="M12" s="266" t="s">
+      <c r="M12" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="268" t="s">
+      <c r="N12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="O12" s="268" t="s">
+      <c r="O12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="P12" s="268" t="s">
+      <c r="P12" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="Q12" s="267"/>
-      <c r="R12" s="268" t="s">
+      <c r="Q12" s="264"/>
+      <c r="R12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="S12" s="268" t="s">
+      <c r="S12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="T12" s="266" t="s">
+      <c r="T12" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="268" t="s">
+      <c r="U12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="V12" s="268" t="s">
+      <c r="V12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="W12" s="268" t="s">
+      <c r="W12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="X12" s="267"/>
-      <c r="Y12" s="268" t="s">
+      <c r="X12" s="264"/>
+      <c r="Y12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="Z12" s="268" t="s">
+      <c r="Z12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AA12" s="266" t="s">
+      <c r="AA12" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AB12" s="268" t="s">
+      <c r="AB12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AC12" s="268" t="s">
+      <c r="AC12" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AD12" s="269" t="s">
+      <c r="AD12" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="AE12" s="271"/>
-      <c r="AF12" s="266" t="s">
+      <c r="AE12" s="268"/>
+      <c r="AF12" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AG12" s="266" t="s">
+      <c r="AG12" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AH12" s="371" t="s">
+      <c r="AH12" s="367" t="s">
         <v>98</v>
       </c>
-      <c r="AI12" s="270">
+      <c r="AI12" s="267">
         <f>COUNTIF(D12:AH12,"x")+ COUNTIF(D12:AH12,"x/2")/2+COUNTIF(D12:AH12,"CT")+COUNTIF(D12:AH12,"TT")</f>
         <v>26</v>
       </c>
-      <c r="AJ12" s="263"/>
-      <c r="AN12" s="265"/>
-    </row>
-    <row r="13" spans="1:40" s="264" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="297">
+      <c r="AJ12" s="260"/>
+      <c r="AN12" s="262"/>
+    </row>
+    <row r="13" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="294">
         <v>3</v>
       </c>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="297" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="299" t="s">
+      <c r="C13" s="296" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="266"/>
-      <c r="H13" s="268"/>
-      <c r="I13" s="268"/>
-      <c r="J13" s="267"/>
-      <c r="K13" s="268" t="s">
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="265"/>
+      <c r="I13" s="265"/>
+      <c r="J13" s="264"/>
+      <c r="K13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="L13" s="268" t="s">
+      <c r="L13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="266" t="s">
+      <c r="M13" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="268" t="s">
+      <c r="N13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="268" t="s">
+      <c r="O13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="P13" s="268" t="s">
+      <c r="P13" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="Q13" s="267"/>
-      <c r="R13" s="268" t="s">
+      <c r="Q13" s="264"/>
+      <c r="R13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="S13" s="268" t="s">
+      <c r="S13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="T13" s="266" t="s">
+      <c r="T13" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="U13" s="268" t="s">
+      <c r="U13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="V13" s="268" t="s">
+      <c r="V13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="W13" s="268" t="s">
+      <c r="W13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="X13" s="267"/>
-      <c r="Y13" s="268" t="s">
+      <c r="X13" s="264"/>
+      <c r="Y13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="Z13" s="268" t="s">
+      <c r="Z13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AA13" s="266" t="s">
+      <c r="AA13" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AB13" s="268" t="s">
+      <c r="AB13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AC13" s="268" t="s">
+      <c r="AC13" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="269" t="s">
+      <c r="AD13" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="AE13" s="271"/>
-      <c r="AF13" s="266" t="s">
+      <c r="AE13" s="268"/>
+      <c r="AF13" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AG13" s="266" t="s">
+      <c r="AG13" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AH13" s="371" t="s">
+      <c r="AH13" s="367" t="s">
         <v>98</v>
       </c>
-      <c r="AI13" s="270">
+      <c r="AI13" s="267">
         <f t="shared" ref="AI13:AI16" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
         <v>20.5</v>
       </c>
-      <c r="AJ13" s="263"/>
-      <c r="AN13" s="265"/>
-    </row>
-    <row r="14" spans="1:40" s="264" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="297">
+      <c r="AJ13" s="260"/>
+      <c r="AN13" s="262"/>
+    </row>
+    <row r="14" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="294">
         <v>4</v>
       </c>
-      <c r="B14" s="298" t="s">
+      <c r="B14" s="295" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="299" t="s">
+      <c r="C14" s="296" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="266" t="s">
+      <c r="D14" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="266" t="s">
+      <c r="E14" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="266" t="s">
+      <c r="F14" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="266" t="s">
+      <c r="G14" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="268" t="s">
+      <c r="H14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="268" t="s">
+      <c r="I14" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="267"/>
-      <c r="K14" s="268" t="s">
+      <c r="J14" s="264"/>
+      <c r="K14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="268" t="s">
+      <c r="L14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="266" t="s">
+      <c r="M14" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="268" t="s">
+      <c r="N14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="268" t="s">
+      <c r="O14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="268" t="s">
+      <c r="P14" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="Q14" s="267"/>
-      <c r="R14" s="268" t="s">
+      <c r="Q14" s="264"/>
+      <c r="R14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="S14" s="268" t="s">
+      <c r="S14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="T14" s="266" t="s">
+      <c r="T14" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="U14" s="268" t="s">
+      <c r="U14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="V14" s="268" t="s">
+      <c r="V14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="W14" s="268" t="s">
+      <c r="W14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="X14" s="267"/>
-      <c r="Y14" s="268" t="s">
+      <c r="X14" s="264"/>
+      <c r="Y14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="Z14" s="268" t="s">
+      <c r="Z14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AA14" s="266" t="s">
+      <c r="AA14" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AB14" s="268" t="s">
+      <c r="AB14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AC14" s="268" t="s">
+      <c r="AC14" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AD14" s="269" t="s">
+      <c r="AD14" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="AE14" s="271"/>
-      <c r="AF14" s="266" t="s">
+      <c r="AE14" s="268"/>
+      <c r="AF14" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AG14" s="266" t="s">
+      <c r="AG14" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AH14" s="371" t="s">
+      <c r="AH14" s="367" t="s">
         <v>98</v>
       </c>
-      <c r="AI14" s="270">
+      <c r="AI14" s="267">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AJ14" s="263"/>
-      <c r="AN14" s="265"/>
-    </row>
-    <row r="15" spans="1:40" s="264" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="297">
+      <c r="AJ14" s="260"/>
+      <c r="AN14" s="262"/>
+    </row>
+    <row r="15" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="294">
         <v>5</v>
       </c>
-      <c r="B15" s="297" t="s">
+      <c r="B15" s="294" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="299" t="s">
+      <c r="C15" s="296" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="266" t="s">
+      <c r="D15" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="266" t="s">
+      <c r="E15" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="266" t="s">
+      <c r="F15" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="266" t="s">
+      <c r="G15" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="268" t="s">
+      <c r="H15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="268" t="s">
+      <c r="I15" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="267"/>
-      <c r="K15" s="268" t="s">
+      <c r="J15" s="264"/>
+      <c r="K15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="L15" s="268" t="s">
+      <c r="L15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="266" t="s">
+      <c r="M15" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="N15" s="268" t="s">
+      <c r="N15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="O15" s="268" t="s">
+      <c r="O15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="P15" s="268" t="s">
+      <c r="P15" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="Q15" s="267"/>
-      <c r="R15" s="268" t="s">
+      <c r="Q15" s="264"/>
+      <c r="R15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="S15" s="268" t="s">
+      <c r="S15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="T15" s="266" t="s">
+      <c r="T15" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="U15" s="268" t="s">
+      <c r="U15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="V15" s="268" t="s">
+      <c r="V15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="W15" s="268" t="s">
+      <c r="W15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="X15" s="267"/>
-      <c r="Y15" s="268" t="s">
+      <c r="X15" s="264"/>
+      <c r="Y15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="Z15" s="268" t="s">
+      <c r="Z15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AA15" s="266" t="s">
+      <c r="AA15" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AB15" s="268" t="s">
+      <c r="AB15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AC15" s="268" t="s">
+      <c r="AC15" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AD15" s="269" t="s">
+      <c r="AD15" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="AE15" s="271"/>
-      <c r="AF15" s="266" t="s">
+      <c r="AE15" s="268"/>
+      <c r="AF15" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AG15" s="266" t="s">
+      <c r="AG15" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AH15" s="371" t="s">
+      <c r="AH15" s="367" t="s">
         <v>98</v>
       </c>
-      <c r="AI15" s="270">
+      <c r="AI15" s="267">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AJ15" s="263"/>
-      <c r="AN15" s="265"/>
-    </row>
-    <row r="16" spans="1:40" s="264" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="297">
+      <c r="AJ15" s="260"/>
+      <c r="AN15" s="262"/>
+    </row>
+    <row r="16" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="294">
         <v>6</v>
       </c>
-      <c r="B16" s="297" t="s">
+      <c r="B16" s="294" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="299"/>
-      <c r="D16" s="266" t="s">
+      <c r="C16" s="296"/>
+      <c r="D16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="266" t="s">
+      <c r="E16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="266" t="s">
+      <c r="F16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="266" t="s">
+      <c r="G16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="268" t="s">
+      <c r="H16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="268" t="s">
+      <c r="I16" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="267"/>
-      <c r="K16" s="268" t="s">
+      <c r="J16" s="264"/>
+      <c r="K16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="L16" s="268" t="s">
+      <c r="L16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="M16" s="266" t="s">
+      <c r="M16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="268" t="s">
+      <c r="N16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="O16" s="268" t="s">
+      <c r="O16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="268" t="s">
+      <c r="P16" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="Q16" s="267"/>
-      <c r="R16" s="268" t="s">
+      <c r="Q16" s="264"/>
+      <c r="R16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="S16" s="268" t="s">
+      <c r="S16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="T16" s="266" t="s">
+      <c r="T16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="U16" s="268" t="s">
+      <c r="U16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="V16" s="268" t="s">
+      <c r="V16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="W16" s="268" t="s">
+      <c r="W16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="X16" s="267"/>
-      <c r="Y16" s="268" t="s">
+      <c r="X16" s="264"/>
+      <c r="Y16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="Z16" s="268" t="s">
+      <c r="Z16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AA16" s="266" t="s">
+      <c r="AA16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AB16" s="268" t="s">
+      <c r="AB16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AC16" s="268" t="s">
+      <c r="AC16" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AD16" s="269" t="s">
+      <c r="AD16" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="AE16" s="271"/>
-      <c r="AF16" s="266" t="s">
+      <c r="AE16" s="268"/>
+      <c r="AF16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AG16" s="266" t="s">
+      <c r="AG16" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="AH16" s="371" t="s">
+      <c r="AH16" s="367" t="s">
         <v>98</v>
       </c>
-      <c r="AI16" s="270">
+      <c r="AI16" s="267">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AJ16" s="263"/>
-      <c r="AN16" s="265"/>
-    </row>
-    <row r="17" spans="1:40" s="264" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="448" t="s">
+      <c r="AJ16" s="260"/>
+      <c r="AN16" s="262"/>
+    </row>
+    <row r="17" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="464" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="449"/>
-      <c r="C17" s="272"/>
-      <c r="D17" s="272"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="273"/>
-      <c r="G17" s="273"/>
-      <c r="H17" s="273"/>
-      <c r="I17" s="273"/>
-      <c r="J17" s="273"/>
-      <c r="K17" s="273"/>
-      <c r="L17" s="273"/>
-      <c r="M17" s="273"/>
-      <c r="N17" s="273"/>
-      <c r="O17" s="273"/>
-      <c r="P17" s="273"/>
-      <c r="Q17" s="273"/>
-      <c r="R17" s="273"/>
-      <c r="S17" s="273"/>
-      <c r="T17" s="273"/>
-      <c r="U17" s="273"/>
-      <c r="V17" s="273"/>
-      <c r="W17" s="273"/>
-      <c r="X17" s="273"/>
-      <c r="Y17" s="273"/>
-      <c r="Z17" s="273"/>
-      <c r="AA17" s="273"/>
-      <c r="AB17" s="273"/>
-      <c r="AC17" s="273"/>
-      <c r="AD17" s="273"/>
-      <c r="AE17" s="273"/>
-      <c r="AF17" s="273"/>
-      <c r="AG17" s="273"/>
-      <c r="AH17" s="273"/>
-      <c r="AI17" s="274">
+      <c r="B17" s="465"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="270"/>
+      <c r="F17" s="270"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="270"/>
+      <c r="I17" s="270"/>
+      <c r="J17" s="270"/>
+      <c r="K17" s="270"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="270"/>
+      <c r="N17" s="270"/>
+      <c r="O17" s="270"/>
+      <c r="P17" s="270"/>
+      <c r="Q17" s="270"/>
+      <c r="R17" s="270"/>
+      <c r="S17" s="270"/>
+      <c r="T17" s="270"/>
+      <c r="U17" s="270"/>
+      <c r="V17" s="270"/>
+      <c r="W17" s="270"/>
+      <c r="X17" s="270"/>
+      <c r="Y17" s="270"/>
+      <c r="Z17" s="270"/>
+      <c r="AA17" s="270"/>
+      <c r="AB17" s="270"/>
+      <c r="AC17" s="270"/>
+      <c r="AD17" s="270"/>
+      <c r="AE17" s="270"/>
+      <c r="AF17" s="270"/>
+      <c r="AG17" s="270"/>
+      <c r="AH17" s="270"/>
+      <c r="AI17" s="271">
         <f>SUM(AI12:AI15)</f>
         <v>98.5</v>
       </c>
-      <c r="AJ17" s="275"/>
-      <c r="AK17" s="276"/>
-      <c r="AL17" s="276"/>
-      <c r="AN17" s="265"/>
-    </row>
-    <row r="19" spans="1:40" s="282" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="450" t="s">
+      <c r="AJ17" s="272"/>
+      <c r="AK17" s="273"/>
+      <c r="AL17" s="273"/>
+      <c r="AN17" s="262"/>
+    </row>
+    <row r="19" spans="1:40" s="279" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="466" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="450"/>
-      <c r="C19" s="450"/>
-      <c r="D19" s="450"/>
-      <c r="E19" s="450"/>
-      <c r="F19" s="450"/>
-      <c r="G19" s="450"/>
-      <c r="H19" s="277"/>
-      <c r="I19" s="451"/>
-      <c r="J19" s="451"/>
-      <c r="K19" s="451"/>
-      <c r="L19" s="451"/>
-      <c r="M19" s="451"/>
-      <c r="N19" s="278"/>
-      <c r="O19" s="451" t="s">
+      <c r="B19" s="466"/>
+      <c r="C19" s="466"/>
+      <c r="D19" s="466"/>
+      <c r="E19" s="466"/>
+      <c r="F19" s="466"/>
+      <c r="G19" s="466"/>
+      <c r="H19" s="274"/>
+      <c r="I19" s="467"/>
+      <c r="J19" s="467"/>
+      <c r="K19" s="467"/>
+      <c r="L19" s="467"/>
+      <c r="M19" s="467"/>
+      <c r="N19" s="275"/>
+      <c r="O19" s="467" t="s">
         <v>122</v>
       </c>
-      <c r="P19" s="451"/>
-      <c r="Q19" s="451"/>
-      <c r="R19" s="451"/>
-      <c r="S19" s="451"/>
-      <c r="T19" s="451"/>
-      <c r="U19" s="451"/>
-      <c r="V19" s="451"/>
-      <c r="W19" s="451"/>
-      <c r="X19" s="451"/>
-      <c r="Y19" s="451"/>
-      <c r="Z19" s="279"/>
-      <c r="AA19" s="279"/>
-      <c r="AB19" s="280"/>
-      <c r="AC19" s="451"/>
-      <c r="AD19" s="451"/>
-      <c r="AE19" s="451"/>
-      <c r="AF19" s="451"/>
-      <c r="AG19" s="451"/>
-      <c r="AH19" s="451"/>
-      <c r="AI19" s="451"/>
-      <c r="AJ19" s="451"/>
-      <c r="AK19" s="451"/>
-      <c r="AL19" s="451"/>
-      <c r="AM19" s="451"/>
-      <c r="AN19" s="281"/>
+      <c r="P19" s="467"/>
+      <c r="Q19" s="467"/>
+      <c r="R19" s="467"/>
+      <c r="S19" s="467"/>
+      <c r="T19" s="467"/>
+      <c r="U19" s="467"/>
+      <c r="V19" s="467"/>
+      <c r="W19" s="467"/>
+      <c r="X19" s="467"/>
+      <c r="Y19" s="467"/>
+      <c r="Z19" s="276"/>
+      <c r="AA19" s="276"/>
+      <c r="AB19" s="277"/>
+      <c r="AC19" s="467"/>
+      <c r="AD19" s="467"/>
+      <c r="AE19" s="467"/>
+      <c r="AF19" s="467"/>
+      <c r="AG19" s="467"/>
+      <c r="AH19" s="467"/>
+      <c r="AI19" s="467"/>
+      <c r="AJ19" s="467"/>
+      <c r="AK19" s="467"/>
+      <c r="AL19" s="467"/>
+      <c r="AM19" s="467"/>
+      <c r="AN19" s="278"/>
     </row>
     <row r="26" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="283"/>
-      <c r="B26" s="284"/>
-      <c r="C26" s="283"/>
-      <c r="D26" s="283"/>
+      <c r="A26" s="280"/>
+      <c r="B26" s="281"/>
+      <c r="C26" s="280"/>
+      <c r="D26" s="280"/>
     </row>
     <row r="27" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="283"/>
-      <c r="B27" s="284"/>
-      <c r="C27" s="283"/>
-      <c r="D27" s="283"/>
+      <c r="A27" s="280"/>
+      <c r="B27" s="281"/>
+      <c r="C27" s="280"/>
+      <c r="D27" s="280"/>
     </row>
     <row r="28" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="248"/>
-      <c r="B28" s="249"/>
-      <c r="C28" s="248"/>
-      <c r="D28" s="248"/>
+      <c r="A28" s="245"/>
+      <c r="B28" s="246"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="245"/>
     </row>
     <row r="29" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="248"/>
-      <c r="B29" s="249"/>
-      <c r="C29" s="248"/>
-      <c r="D29" s="248"/>
-    </row>
-    <row r="33" spans="3:40" s="285" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="AN33" s="286"/>
-    </row>
-    <row r="34" spans="3:40" s="285" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="AN34" s="286"/>
-    </row>
-    <row r="35" spans="3:40" s="285" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="434"/>
-      <c r="H35" s="434"/>
-      <c r="I35" s="434"/>
-      <c r="J35" s="434"/>
-      <c r="K35" s="434"/>
-      <c r="L35" s="434"/>
-      <c r="M35" s="434"/>
-      <c r="N35" s="434"/>
-      <c r="O35" s="434"/>
-      <c r="P35" s="434"/>
-      <c r="Q35" s="434"/>
-      <c r="R35" s="434"/>
-      <c r="S35" s="434"/>
-      <c r="T35" s="434"/>
-      <c r="U35" s="434"/>
-      <c r="V35" s="434"/>
-      <c r="W35" s="434"/>
-      <c r="X35" s="434"/>
-      <c r="AN35" s="286"/>
-    </row>
-    <row r="36" spans="3:40" s="285" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="434"/>
-      <c r="H36" s="434"/>
-      <c r="I36" s="434"/>
-      <c r="J36" s="434"/>
-      <c r="K36" s="434"/>
-      <c r="L36" s="434"/>
-      <c r="M36" s="434"/>
-      <c r="N36" s="434"/>
-      <c r="O36" s="434"/>
-      <c r="P36" s="434"/>
-      <c r="Q36" s="434"/>
-      <c r="R36" s="434"/>
-      <c r="S36" s="434"/>
-      <c r="T36" s="434"/>
-      <c r="U36" s="434"/>
-      <c r="V36" s="434"/>
-      <c r="W36" s="434"/>
-      <c r="X36" s="434"/>
-      <c r="AN36" s="286"/>
-    </row>
-    <row r="37" spans="3:40" s="285" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="434"/>
-      <c r="H37" s="434"/>
-      <c r="I37" s="434"/>
-      <c r="J37" s="434"/>
-      <c r="K37" s="434"/>
-      <c r="L37" s="434"/>
-      <c r="M37" s="434"/>
-      <c r="N37" s="434"/>
-      <c r="O37" s="434"/>
-      <c r="P37" s="434"/>
-      <c r="Q37" s="434"/>
-      <c r="R37" s="434"/>
-      <c r="S37" s="434"/>
-      <c r="T37" s="434"/>
-      <c r="U37" s="434"/>
-      <c r="V37" s="434"/>
-      <c r="W37" s="434"/>
-      <c r="X37" s="434"/>
-      <c r="AN37" s="286"/>
-    </row>
-    <row r="38" spans="3:40" s="285" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="434"/>
-      <c r="H38" s="434"/>
-      <c r="I38" s="434"/>
-      <c r="J38" s="434"/>
-      <c r="K38" s="434"/>
-      <c r="L38" s="434"/>
-      <c r="M38" s="434"/>
-      <c r="N38" s="434"/>
-      <c r="O38" s="434"/>
-      <c r="P38" s="434"/>
-      <c r="Q38" s="434"/>
-      <c r="R38" s="434"/>
-      <c r="S38" s="434"/>
-      <c r="T38" s="434"/>
-      <c r="U38" s="434"/>
-      <c r="V38" s="434"/>
-      <c r="W38" s="434"/>
-      <c r="X38" s="434"/>
-      <c r="AN38" s="286"/>
-    </row>
-    <row r="39" spans="3:40" s="285" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="434"/>
-      <c r="H39" s="434"/>
-      <c r="I39" s="434"/>
-      <c r="J39" s="434"/>
-      <c r="K39" s="434"/>
-      <c r="L39" s="434"/>
-      <c r="M39" s="434"/>
-      <c r="N39" s="434"/>
-      <c r="O39" s="434"/>
-      <c r="P39" s="434"/>
-      <c r="Q39" s="434"/>
-      <c r="R39" s="434"/>
-      <c r="S39" s="434"/>
-      <c r="T39" s="434"/>
-      <c r="U39" s="434"/>
-      <c r="V39" s="434"/>
-      <c r="W39" s="434"/>
-      <c r="X39" s="434"/>
-      <c r="AN39" s="286"/>
+      <c r="A29" s="245"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="245"/>
+    </row>
+    <row r="33" spans="3:40" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN33" s="283"/>
+    </row>
+    <row r="34" spans="3:40" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN34" s="283"/>
+    </row>
+    <row r="35" spans="3:40" s="282" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="455"/>
+      <c r="H35" s="455"/>
+      <c r="I35" s="455"/>
+      <c r="J35" s="455"/>
+      <c r="K35" s="455"/>
+      <c r="L35" s="455"/>
+      <c r="M35" s="455"/>
+      <c r="N35" s="455"/>
+      <c r="O35" s="455"/>
+      <c r="P35" s="455"/>
+      <c r="Q35" s="455"/>
+      <c r="R35" s="455"/>
+      <c r="S35" s="455"/>
+      <c r="T35" s="455"/>
+      <c r="U35" s="455"/>
+      <c r="V35" s="455"/>
+      <c r="W35" s="455"/>
+      <c r="X35" s="455"/>
+      <c r="AN35" s="283"/>
+    </row>
+    <row r="36" spans="3:40" s="282" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="455"/>
+      <c r="H36" s="455"/>
+      <c r="I36" s="455"/>
+      <c r="J36" s="455"/>
+      <c r="K36" s="455"/>
+      <c r="L36" s="455"/>
+      <c r="M36" s="455"/>
+      <c r="N36" s="455"/>
+      <c r="O36" s="455"/>
+      <c r="P36" s="455"/>
+      <c r="Q36" s="455"/>
+      <c r="R36" s="455"/>
+      <c r="S36" s="455"/>
+      <c r="T36" s="455"/>
+      <c r="U36" s="455"/>
+      <c r="V36" s="455"/>
+      <c r="W36" s="455"/>
+      <c r="X36" s="455"/>
+      <c r="AN36" s="283"/>
+    </row>
+    <row r="37" spans="3:40" s="282" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="455"/>
+      <c r="H37" s="455"/>
+      <c r="I37" s="455"/>
+      <c r="J37" s="455"/>
+      <c r="K37" s="455"/>
+      <c r="L37" s="455"/>
+      <c r="M37" s="455"/>
+      <c r="N37" s="455"/>
+      <c r="O37" s="455"/>
+      <c r="P37" s="455"/>
+      <c r="Q37" s="455"/>
+      <c r="R37" s="455"/>
+      <c r="S37" s="455"/>
+      <c r="T37" s="455"/>
+      <c r="U37" s="455"/>
+      <c r="V37" s="455"/>
+      <c r="W37" s="455"/>
+      <c r="X37" s="455"/>
+      <c r="AN37" s="283"/>
+    </row>
+    <row r="38" spans="3:40" s="282" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="455"/>
+      <c r="H38" s="455"/>
+      <c r="I38" s="455"/>
+      <c r="J38" s="455"/>
+      <c r="K38" s="455"/>
+      <c r="L38" s="455"/>
+      <c r="M38" s="455"/>
+      <c r="N38" s="455"/>
+      <c r="O38" s="455"/>
+      <c r="P38" s="455"/>
+      <c r="Q38" s="455"/>
+      <c r="R38" s="455"/>
+      <c r="S38" s="455"/>
+      <c r="T38" s="455"/>
+      <c r="U38" s="455"/>
+      <c r="V38" s="455"/>
+      <c r="W38" s="455"/>
+      <c r="X38" s="455"/>
+      <c r="AN38" s="283"/>
+    </row>
+    <row r="39" spans="3:40" s="282" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="455"/>
+      <c r="H39" s="455"/>
+      <c r="I39" s="455"/>
+      <c r="J39" s="455"/>
+      <c r="K39" s="455"/>
+      <c r="L39" s="455"/>
+      <c r="M39" s="455"/>
+      <c r="N39" s="455"/>
+      <c r="O39" s="455"/>
+      <c r="P39" s="455"/>
+      <c r="Q39" s="455"/>
+      <c r="R39" s="455"/>
+      <c r="S39" s="455"/>
+      <c r="T39" s="455"/>
+      <c r="U39" s="455"/>
+      <c r="V39" s="455"/>
+      <c r="W39" s="455"/>
+      <c r="X39" s="455"/>
+      <c r="AN39" s="283"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C40" s="244"/>
-      <c r="D40" s="244"/>
-      <c r="G40" s="434"/>
-      <c r="H40" s="434"/>
-      <c r="I40" s="434"/>
-      <c r="J40" s="434"/>
-      <c r="K40" s="434"/>
-      <c r="L40" s="434"/>
-      <c r="M40" s="434"/>
-      <c r="N40" s="434"/>
-      <c r="O40" s="434"/>
-      <c r="P40" s="434"/>
-      <c r="Q40" s="434"/>
-      <c r="R40" s="434"/>
-      <c r="S40" s="434"/>
-      <c r="T40" s="434"/>
-      <c r="U40" s="434"/>
-      <c r="V40" s="434"/>
-      <c r="W40" s="434"/>
-      <c r="X40" s="434"/>
-      <c r="AN40" s="244"/>
+      <c r="C40" s="241"/>
+      <c r="D40" s="241"/>
+      <c r="G40" s="455"/>
+      <c r="H40" s="455"/>
+      <c r="I40" s="455"/>
+      <c r="J40" s="455"/>
+      <c r="K40" s="455"/>
+      <c r="L40" s="455"/>
+      <c r="M40" s="455"/>
+      <c r="N40" s="455"/>
+      <c r="O40" s="455"/>
+      <c r="P40" s="455"/>
+      <c r="Q40" s="455"/>
+      <c r="R40" s="455"/>
+      <c r="S40" s="455"/>
+      <c r="T40" s="455"/>
+      <c r="U40" s="455"/>
+      <c r="V40" s="455"/>
+      <c r="W40" s="455"/>
+      <c r="X40" s="455"/>
+      <c r="AN40" s="241"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C41" s="244"/>
-      <c r="D41" s="244"/>
-      <c r="AN41" s="244"/>
+      <c r="C41" s="241"/>
+      <c r="D41" s="241"/>
+      <c r="AN41" s="241"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -10159,6 +10172,13 @@
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="O19:Y19"/>
     <mergeCell ref="AC19:AM19"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11009,40 +11029,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="42" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="465" t="s">
+      <c r="A1" s="468" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="465"/>
-      <c r="C1" s="465"/>
-      <c r="D1" s="465"/>
+      <c r="B1" s="468"/>
+      <c r="C1" s="468"/>
+      <c r="D1" s="468"/>
       <c r="E1" s="93"/>
-      <c r="F1" s="466" t="s">
+      <c r="F1" s="469" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="466"/>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
-      <c r="L1" s="466"/>
+      <c r="G1" s="469"/>
+      <c r="H1" s="469"/>
+      <c r="I1" s="469"/>
+      <c r="J1" s="469"/>
+      <c r="K1" s="469"/>
+      <c r="L1" s="469"/>
     </row>
     <row r="2" spans="1:13" s="42" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="467" t="s">
+      <c r="A2" s="470" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
+      <c r="B2" s="470"/>
+      <c r="C2" s="470"/>
+      <c r="D2" s="470"/>
       <c r="E2" s="93"/>
-      <c r="F2" s="468" t="s">
+      <c r="F2" s="471" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="468"/>
-      <c r="H2" s="468"/>
-      <c r="I2" s="468"/>
-      <c r="J2" s="468"/>
-      <c r="K2" s="468"/>
-      <c r="L2" s="468"/>
+      <c r="G2" s="471"/>
+      <c r="H2" s="471"/>
+      <c r="I2" s="471"/>
+      <c r="J2" s="471"/>
+      <c r="K2" s="471"/>
+      <c r="L2" s="471"/>
     </row>
     <row r="3" spans="1:13" s="42" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
@@ -11056,45 +11076,45 @@
       <c r="J3" s="94"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="469" t="s">
+      <c r="A4" s="472" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="469"/>
-      <c r="C4" s="469"/>
-      <c r="D4" s="469"/>
-      <c r="E4" s="469"/>
-      <c r="F4" s="469"/>
-      <c r="G4" s="469"/>
-      <c r="H4" s="469"/>
-      <c r="I4" s="469"/>
-      <c r="J4" s="469"/>
-      <c r="K4" s="469"/>
-      <c r="L4" s="469"/>
-      <c r="M4" s="469"/>
+      <c r="B4" s="472"/>
+      <c r="C4" s="472"/>
+      <c r="D4" s="472"/>
+      <c r="E4" s="472"/>
+      <c r="F4" s="472"/>
+      <c r="G4" s="472"/>
+      <c r="H4" s="472"/>
+      <c r="I4" s="472"/>
+      <c r="J4" s="472"/>
+      <c r="K4" s="472"/>
+      <c r="L4" s="472"/>
+      <c r="M4" s="472"/>
     </row>
     <row r="5" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="455" t="s">
+      <c r="A5" s="473" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="455"/>
-      <c r="C5" s="455"/>
-      <c r="D5" s="455"/>
-      <c r="E5" s="455"/>
-      <c r="F5" s="455"/>
-      <c r="G5" s="455"/>
-      <c r="H5" s="455"/>
-      <c r="I5" s="455"/>
-      <c r="J5" s="455"/>
-      <c r="K5" s="455"/>
-      <c r="L5" s="455"/>
-      <c r="M5" s="455"/>
+      <c r="B5" s="473"/>
+      <c r="C5" s="473"/>
+      <c r="D5" s="473"/>
+      <c r="E5" s="473"/>
+      <c r="F5" s="473"/>
+      <c r="G5" s="473"/>
+      <c r="H5" s="473"/>
+      <c r="I5" s="473"/>
+      <c r="J5" s="473"/>
+      <c r="K5" s="473"/>
+      <c r="L5" s="473"/>
+      <c r="M5" s="473"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K6" s="456" t="s">
+      <c r="K6" s="474" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="456"/>
-      <c r="M6" s="456"/>
+      <c r="L6" s="474"/>
+      <c r="M6" s="474"/>
     </row>
     <row r="7" spans="1:13" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
@@ -11165,10 +11185,10 @@
       <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="457" t="s">
+      <c r="A9" s="475" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="458"/>
+      <c r="B9" s="476"/>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
       <c r="E9" s="55"/>
@@ -11282,17 +11302,17 @@
       <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" s="70" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="462" t="s">
+      <c r="A13" s="480" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="463"/>
-      <c r="C13" s="464"/>
+      <c r="B13" s="481"/>
+      <c r="C13" s="482"/>
       <c r="D13" s="102">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
       </c>
       <c r="E13" s="110"/>
-      <c r="F13" s="372">
+      <c r="F13" s="368">
         <f>SUM(F10:F12)</f>
         <v>27000000</v>
       </c>
@@ -11320,10 +11340,10 @@
       <c r="M13" s="104"/>
     </row>
     <row r="14" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="459" t="s">
+      <c r="A14" s="477" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="460"/>
+      <c r="B14" s="478"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
       <c r="E14" s="111"/>
@@ -11401,11 +11421,11 @@
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" s="70" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="462" t="s">
+      <c r="A17" s="480" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="463"/>
-      <c r="C17" s="464"/>
+      <c r="B17" s="481"/>
+      <c r="C17" s="482"/>
       <c r="D17" s="105">
         <f>SUM(D15:D16)</f>
         <v>8000000</v>
@@ -11439,14 +11459,14 @@
       <c r="M17" s="104"/>
     </row>
     <row r="19" spans="1:13" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="461"/>
-      <c r="C19" s="461"/>
-      <c r="D19" s="461"/>
+      <c r="B19" s="479"/>
+      <c r="C19" s="479"/>
+      <c r="D19" s="479"/>
       <c r="E19" s="95"/>
-      <c r="I19" s="461"/>
-      <c r="J19" s="461"/>
-      <c r="K19" s="461"/>
-      <c r="L19" s="461"/>
+      <c r="I19" s="479"/>
+      <c r="J19" s="479"/>
+      <c r="K19" s="479"/>
+      <c r="L19" s="479"/>
     </row>
     <row r="20" spans="1:13" s="73" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C20" s="112" t="s">
@@ -11460,13 +11480,13 @@
         <v>14</v>
       </c>
       <c r="J20" s="75"/>
-      <c r="K20" s="302"/>
+      <c r="K20" s="299"/>
     </row>
     <row r="21" spans="1:13" s="73" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="229"/>
+      <c r="E21" s="226"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -11476,7 +11496,7 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="F22" s="219"/>
+      <c r="F22" s="216"/>
     </row>
     <row r="24" spans="1:13" s="122" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C24" s="112"/>
@@ -11489,11 +11509,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -11502,6 +11517,11 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11518,7 +11538,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="337"/>
+    <col min="1" max="1" width="9.109375" style="334"/>
     <col min="2" max="2" width="12" style="91" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="91"/>
     <col min="4" max="4" width="12.6640625" style="91" bestFit="1" customWidth="1"/>
@@ -11532,93 +11552,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="331" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="332" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="471" t="s">
+      <c r="A3" s="499" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="471"/>
-      <c r="E3" s="471"/>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="471"/>
-      <c r="I3" s="471"/>
-      <c r="J3" s="471"/>
-      <c r="K3" s="471"/>
-      <c r="L3" s="471"/>
-      <c r="M3" s="471"/>
-      <c r="N3" s="471"/>
-      <c r="O3" s="471"/>
-      <c r="P3" s="471"/>
+      <c r="B3" s="499"/>
+      <c r="C3" s="499"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="499"/>
+      <c r="F3" s="499"/>
+      <c r="G3" s="499"/>
+      <c r="H3" s="499"/>
+      <c r="I3" s="499"/>
+      <c r="J3" s="499"/>
+      <c r="K3" s="499"/>
+      <c r="L3" s="499"/>
+      <c r="M3" s="499"/>
+      <c r="N3" s="499"/>
+      <c r="O3" s="499"/>
+      <c r="P3" s="499"/>
     </row>
     <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="472" t="s">
+      <c r="A4" s="500" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="472"/>
-      <c r="C4" s="472"/>
-      <c r="D4" s="472"/>
-      <c r="E4" s="472"/>
-      <c r="F4" s="472"/>
-      <c r="G4" s="472"/>
-      <c r="H4" s="472"/>
-      <c r="I4" s="472"/>
-      <c r="J4" s="472"/>
-      <c r="K4" s="473"/>
-      <c r="L4" s="472"/>
-      <c r="M4" s="472"/>
-      <c r="N4" s="472"/>
-      <c r="O4" s="472"/>
-      <c r="P4" s="472"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="500"/>
+      <c r="F4" s="500"/>
+      <c r="G4" s="500"/>
+      <c r="H4" s="500"/>
+      <c r="I4" s="500"/>
+      <c r="J4" s="500"/>
+      <c r="K4" s="501"/>
+      <c r="L4" s="500"/>
+      <c r="M4" s="500"/>
+      <c r="N4" s="500"/>
+      <c r="O4" s="500"/>
+      <c r="P4" s="500"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="474" t="s">
+      <c r="A5" s="502" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="476" t="s">
+      <c r="B5" s="504" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="478" t="s">
+      <c r="C5" s="506" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="478" t="s">
+      <c r="D5" s="506" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="478"/>
-      <c r="F5" s="478"/>
-      <c r="G5" s="480" t="s">
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="508" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="480"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="480"/>
-      <c r="K5" s="481"/>
-      <c r="L5" s="482" t="s">
+      <c r="H5" s="508"/>
+      <c r="I5" s="508"/>
+      <c r="J5" s="508"/>
+      <c r="K5" s="509"/>
+      <c r="L5" s="510" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="480" t="s">
+      <c r="M5" s="508" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="480"/>
-      <c r="O5" s="480"/>
-      <c r="P5" s="484" t="s">
+      <c r="N5" s="508"/>
+      <c r="O5" s="508"/>
+      <c r="P5" s="512" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="475"/>
-      <c r="B6" s="477"/>
-      <c r="C6" s="479"/>
+      <c r="A6" s="503"/>
+      <c r="B6" s="505"/>
+      <c r="C6" s="507"/>
       <c r="D6" s="90" t="s">
         <v>41</v>
       </c>
@@ -11634,16 +11654,16 @@
       <c r="H6" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="318" t="s">
+      <c r="I6" s="315" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="319" t="s">
+      <c r="J6" s="316" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="320" t="s">
+      <c r="K6" s="317" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="483"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="90" t="s">
         <v>46</v>
       </c>
@@ -11653,10 +11673,10 @@
       <c r="O6" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="485"/>
+      <c r="P6" s="513"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="336">
+      <c r="A7" s="333">
         <v>562</v>
       </c>
       <c r="B7" s="162">
@@ -11700,16 +11720,16 @@
       <c r="D8" s="159"/>
       <c r="E8" s="164"/>
       <c r="F8" s="159"/>
-      <c r="G8" s="308"/>
-      <c r="H8" s="308"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="309"/>
-      <c r="K8" s="310"/>
-      <c r="L8" s="311"/>
-      <c r="M8" s="308"/>
-      <c r="N8" s="308"/>
-      <c r="O8" s="308"/>
-      <c r="P8" s="312"/>
+      <c r="G8" s="305"/>
+      <c r="H8" s="305"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
+      <c r="K8" s="307"/>
+      <c r="L8" s="308"/>
+      <c r="M8" s="305"/>
+      <c r="N8" s="305"/>
+      <c r="O8" s="305"/>
+      <c r="P8" s="309"/>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="159"/>
@@ -11718,19 +11738,19 @@
       <c r="D9" s="159"/>
       <c r="E9" s="164"/>
       <c r="F9" s="159"/>
-      <c r="G9" s="313"/>
-      <c r="H9" s="313"/>
-      <c r="I9" s="314"/>
-      <c r="J9" s="314"/>
-      <c r="K9" s="315"/>
-      <c r="L9" s="316"/>
-      <c r="M9" s="313"/>
-      <c r="N9" s="313"/>
-      <c r="O9" s="313"/>
-      <c r="P9" s="317"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="311"/>
+      <c r="J9" s="311"/>
+      <c r="K9" s="312"/>
+      <c r="L9" s="313"/>
+      <c r="M9" s="310"/>
+      <c r="N9" s="310"/>
+      <c r="O9" s="310"/>
+      <c r="P9" s="314"/>
     </row>
     <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="336"/>
+      <c r="A10" s="333"/>
       <c r="B10" s="162"/>
       <c r="C10" s="159"/>
       <c r="D10" s="159"/>
@@ -11748,7 +11768,7 @@
       <c r="P10" s="164"/>
     </row>
     <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="336"/>
+      <c r="A11" s="333"/>
       <c r="B11" s="162"/>
       <c r="C11" s="159"/>
       <c r="D11" s="159"/>
@@ -11766,338 +11786,338 @@
       <c r="P11" s="164"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="486"/>
-      <c r="B12" s="492"/>
-      <c r="C12" s="489"/>
-      <c r="D12" s="495"/>
-      <c r="E12" s="489"/>
-      <c r="F12" s="489"/>
-      <c r="G12" s="303"/>
-      <c r="H12" s="303"/>
-      <c r="I12" s="304"/>
-      <c r="J12" s="304"/>
-      <c r="K12" s="305"/>
-      <c r="L12" s="306"/>
-      <c r="M12" s="303"/>
-      <c r="N12" s="303"/>
-      <c r="O12" s="303"/>
-      <c r="P12" s="307"/>
+      <c r="A12" s="489"/>
+      <c r="B12" s="514"/>
+      <c r="C12" s="483"/>
+      <c r="D12" s="517"/>
+      <c r="E12" s="483"/>
+      <c r="F12" s="483"/>
+      <c r="G12" s="300"/>
+      <c r="H12" s="300"/>
+      <c r="I12" s="301"/>
+      <c r="J12" s="301"/>
+      <c r="K12" s="302"/>
+      <c r="L12" s="303"/>
+      <c r="M12" s="300"/>
+      <c r="N12" s="300"/>
+      <c r="O12" s="300"/>
+      <c r="P12" s="304"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="487"/>
-      <c r="B13" s="493"/>
-      <c r="C13" s="490"/>
-      <c r="D13" s="496"/>
-      <c r="E13" s="490"/>
-      <c r="F13" s="490"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="309"/>
-      <c r="J13" s="309"/>
-      <c r="K13" s="310"/>
-      <c r="L13" s="311"/>
-      <c r="M13" s="308"/>
-      <c r="N13" s="308"/>
-      <c r="O13" s="308"/>
-      <c r="P13" s="312"/>
+      <c r="A13" s="490"/>
+      <c r="B13" s="515"/>
+      <c r="C13" s="484"/>
+      <c r="D13" s="518"/>
+      <c r="E13" s="484"/>
+      <c r="F13" s="484"/>
+      <c r="G13" s="305"/>
+      <c r="H13" s="305"/>
+      <c r="I13" s="306"/>
+      <c r="J13" s="306"/>
+      <c r="K13" s="307"/>
+      <c r="L13" s="308"/>
+      <c r="M13" s="305"/>
+      <c r="N13" s="305"/>
+      <c r="O13" s="305"/>
+      <c r="P13" s="309"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="487"/>
-      <c r="B14" s="493"/>
-      <c r="C14" s="490"/>
-      <c r="D14" s="496"/>
-      <c r="E14" s="490"/>
-      <c r="F14" s="490"/>
-      <c r="G14" s="308"/>
-      <c r="H14" s="308"/>
-      <c r="I14" s="309"/>
-      <c r="J14" s="309"/>
-      <c r="K14" s="310"/>
-      <c r="L14" s="311"/>
-      <c r="M14" s="308"/>
-      <c r="N14" s="308"/>
-      <c r="O14" s="308"/>
-      <c r="P14" s="312"/>
+      <c r="A14" s="490"/>
+      <c r="B14" s="515"/>
+      <c r="C14" s="484"/>
+      <c r="D14" s="518"/>
+      <c r="E14" s="484"/>
+      <c r="F14" s="484"/>
+      <c r="G14" s="305"/>
+      <c r="H14" s="305"/>
+      <c r="I14" s="306"/>
+      <c r="J14" s="306"/>
+      <c r="K14" s="307"/>
+      <c r="L14" s="308"/>
+      <c r="M14" s="305"/>
+      <c r="N14" s="305"/>
+      <c r="O14" s="305"/>
+      <c r="P14" s="309"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="487"/>
-      <c r="B15" s="493"/>
-      <c r="C15" s="490"/>
-      <c r="D15" s="496"/>
-      <c r="E15" s="490"/>
-      <c r="F15" s="490"/>
-      <c r="G15" s="308"/>
-      <c r="H15" s="308"/>
-      <c r="I15" s="309"/>
-      <c r="J15" s="309"/>
-      <c r="K15" s="310"/>
-      <c r="L15" s="311"/>
-      <c r="M15" s="308"/>
-      <c r="N15" s="308"/>
-      <c r="O15" s="308"/>
-      <c r="P15" s="312"/>
+      <c r="A15" s="490"/>
+      <c r="B15" s="515"/>
+      <c r="C15" s="484"/>
+      <c r="D15" s="518"/>
+      <c r="E15" s="484"/>
+      <c r="F15" s="484"/>
+      <c r="G15" s="305"/>
+      <c r="H15" s="305"/>
+      <c r="I15" s="306"/>
+      <c r="J15" s="306"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="308"/>
+      <c r="M15" s="305"/>
+      <c r="N15" s="305"/>
+      <c r="O15" s="305"/>
+      <c r="P15" s="309"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="487"/>
-      <c r="B16" s="493"/>
-      <c r="C16" s="490"/>
-      <c r="D16" s="496"/>
-      <c r="E16" s="490"/>
-      <c r="F16" s="490"/>
-      <c r="G16" s="308"/>
-      <c r="H16" s="308"/>
-      <c r="I16" s="309"/>
-      <c r="J16" s="309"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="311"/>
-      <c r="M16" s="308"/>
-      <c r="N16" s="308"/>
-      <c r="O16" s="308"/>
-      <c r="P16" s="312"/>
+      <c r="A16" s="490"/>
+      <c r="B16" s="515"/>
+      <c r="C16" s="484"/>
+      <c r="D16" s="518"/>
+      <c r="E16" s="484"/>
+      <c r="F16" s="484"/>
+      <c r="G16" s="305"/>
+      <c r="H16" s="305"/>
+      <c r="I16" s="306"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="308"/>
+      <c r="M16" s="305"/>
+      <c r="N16" s="305"/>
+      <c r="O16" s="305"/>
+      <c r="P16" s="309"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="487"/>
-      <c r="B17" s="493"/>
-      <c r="C17" s="490"/>
-      <c r="D17" s="496"/>
-      <c r="E17" s="490"/>
-      <c r="F17" s="490"/>
-      <c r="G17" s="308"/>
-      <c r="H17" s="308"/>
-      <c r="I17" s="309"/>
-      <c r="J17" s="309"/>
-      <c r="K17" s="310"/>
-      <c r="L17" s="311"/>
-      <c r="M17" s="308"/>
-      <c r="N17" s="308"/>
-      <c r="O17" s="308"/>
-      <c r="P17" s="312"/>
+      <c r="A17" s="490"/>
+      <c r="B17" s="515"/>
+      <c r="C17" s="484"/>
+      <c r="D17" s="518"/>
+      <c r="E17" s="484"/>
+      <c r="F17" s="484"/>
+      <c r="G17" s="305"/>
+      <c r="H17" s="305"/>
+      <c r="I17" s="306"/>
+      <c r="J17" s="306"/>
+      <c r="K17" s="307"/>
+      <c r="L17" s="308"/>
+      <c r="M17" s="305"/>
+      <c r="N17" s="305"/>
+      <c r="O17" s="305"/>
+      <c r="P17" s="309"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="487"/>
-      <c r="B18" s="493"/>
-      <c r="C18" s="490"/>
-      <c r="D18" s="496"/>
-      <c r="E18" s="490"/>
-      <c r="F18" s="490"/>
-      <c r="G18" s="308"/>
-      <c r="H18" s="308"/>
-      <c r="I18" s="309"/>
-      <c r="J18" s="309"/>
-      <c r="K18" s="310"/>
-      <c r="L18" s="311"/>
-      <c r="M18" s="308"/>
-      <c r="N18" s="308"/>
-      <c r="O18" s="308"/>
-      <c r="P18" s="312"/>
+      <c r="A18" s="490"/>
+      <c r="B18" s="515"/>
+      <c r="C18" s="484"/>
+      <c r="D18" s="518"/>
+      <c r="E18" s="484"/>
+      <c r="F18" s="484"/>
+      <c r="G18" s="305"/>
+      <c r="H18" s="305"/>
+      <c r="I18" s="306"/>
+      <c r="J18" s="306"/>
+      <c r="K18" s="307"/>
+      <c r="L18" s="308"/>
+      <c r="M18" s="305"/>
+      <c r="N18" s="305"/>
+      <c r="O18" s="305"/>
+      <c r="P18" s="309"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="487"/>
-      <c r="B19" s="493"/>
-      <c r="C19" s="490"/>
-      <c r="D19" s="496"/>
-      <c r="E19" s="490"/>
-      <c r="F19" s="490"/>
-      <c r="G19" s="308"/>
-      <c r="H19" s="308"/>
-      <c r="I19" s="309"/>
-      <c r="J19" s="309"/>
-      <c r="K19" s="310"/>
-      <c r="L19" s="311"/>
-      <c r="M19" s="308"/>
-      <c r="N19" s="308"/>
-      <c r="O19" s="308"/>
-      <c r="P19" s="312"/>
+      <c r="A19" s="490"/>
+      <c r="B19" s="515"/>
+      <c r="C19" s="484"/>
+      <c r="D19" s="518"/>
+      <c r="E19" s="484"/>
+      <c r="F19" s="484"/>
+      <c r="G19" s="305"/>
+      <c r="H19" s="305"/>
+      <c r="I19" s="306"/>
+      <c r="J19" s="306"/>
+      <c r="K19" s="307"/>
+      <c r="L19" s="308"/>
+      <c r="M19" s="305"/>
+      <c r="N19" s="305"/>
+      <c r="O19" s="305"/>
+      <c r="P19" s="309"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="488"/>
-      <c r="B20" s="494"/>
-      <c r="C20" s="491"/>
-      <c r="D20" s="497"/>
-      <c r="E20" s="491"/>
-      <c r="F20" s="491"/>
-      <c r="G20" s="313"/>
-      <c r="H20" s="313"/>
-      <c r="I20" s="314"/>
-      <c r="J20" s="314"/>
-      <c r="K20" s="315"/>
-      <c r="L20" s="316"/>
-      <c r="M20" s="313"/>
-      <c r="N20" s="313"/>
-      <c r="O20" s="313"/>
-      <c r="P20" s="313"/>
+      <c r="A20" s="491"/>
+      <c r="B20" s="516"/>
+      <c r="C20" s="485"/>
+      <c r="D20" s="519"/>
+      <c r="E20" s="485"/>
+      <c r="F20" s="485"/>
+      <c r="G20" s="310"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="311"/>
+      <c r="J20" s="311"/>
+      <c r="K20" s="312"/>
+      <c r="L20" s="313"/>
+      <c r="M20" s="310"/>
+      <c r="N20" s="310"/>
+      <c r="O20" s="310"/>
+      <c r="P20" s="310"/>
     </row>
     <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="333"/>
-      <c r="B21" s="329"/>
-      <c r="C21" s="321"/>
-      <c r="D21" s="325"/>
-      <c r="E21" s="321"/>
-      <c r="F21" s="321"/>
-      <c r="G21" s="321"/>
-      <c r="H21" s="321"/>
-      <c r="I21" s="330"/>
-      <c r="J21" s="330"/>
-      <c r="K21" s="331"/>
-      <c r="L21" s="332"/>
-      <c r="M21" s="321"/>
-      <c r="N21" s="321"/>
-      <c r="O21" s="321"/>
-      <c r="P21" s="321"/>
+      <c r="A21" s="330"/>
+      <c r="B21" s="326"/>
+      <c r="C21" s="318"/>
+      <c r="D21" s="322"/>
+      <c r="E21" s="318"/>
+      <c r="F21" s="318"/>
+      <c r="G21" s="318"/>
+      <c r="H21" s="318"/>
+      <c r="I21" s="327"/>
+      <c r="J21" s="327"/>
+      <c r="K21" s="328"/>
+      <c r="L21" s="329"/>
+      <c r="M21" s="318"/>
+      <c r="N21" s="318"/>
+      <c r="O21" s="318"/>
+      <c r="P21" s="318"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="486"/>
-      <c r="B22" s="501"/>
-      <c r="C22" s="486"/>
-      <c r="D22" s="504"/>
-      <c r="E22" s="486"/>
-      <c r="F22" s="322"/>
-      <c r="G22" s="322"/>
-      <c r="H22" s="322"/>
-      <c r="I22" s="304"/>
-      <c r="J22" s="304"/>
-      <c r="K22" s="305"/>
-      <c r="L22" s="306"/>
-      <c r="M22" s="322"/>
-      <c r="N22" s="322"/>
-      <c r="O22" s="322"/>
-      <c r="P22" s="322"/>
+      <c r="A22" s="489"/>
+      <c r="B22" s="492"/>
+      <c r="C22" s="489"/>
+      <c r="D22" s="495"/>
+      <c r="E22" s="489"/>
+      <c r="F22" s="319"/>
+      <c r="G22" s="319"/>
+      <c r="H22" s="319"/>
+      <c r="I22" s="301"/>
+      <c r="J22" s="301"/>
+      <c r="K22" s="302"/>
+      <c r="L22" s="303"/>
+      <c r="M22" s="319"/>
+      <c r="N22" s="319"/>
+      <c r="O22" s="319"/>
+      <c r="P22" s="319"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="487"/>
-      <c r="B23" s="502"/>
-      <c r="C23" s="487"/>
-      <c r="D23" s="505"/>
-      <c r="E23" s="487"/>
-      <c r="F23" s="323"/>
-      <c r="G23" s="323"/>
-      <c r="H23" s="323"/>
-      <c r="I23" s="309"/>
-      <c r="J23" s="309"/>
-      <c r="K23" s="310"/>
-      <c r="L23" s="311"/>
-      <c r="M23" s="323"/>
-      <c r="N23" s="323"/>
-      <c r="O23" s="323"/>
-      <c r="P23" s="323"/>
+      <c r="A23" s="490"/>
+      <c r="B23" s="493"/>
+      <c r="C23" s="490"/>
+      <c r="D23" s="496"/>
+      <c r="E23" s="490"/>
+      <c r="F23" s="320"/>
+      <c r="G23" s="320"/>
+      <c r="H23" s="320"/>
+      <c r="I23" s="306"/>
+      <c r="J23" s="306"/>
+      <c r="K23" s="307"/>
+      <c r="L23" s="308"/>
+      <c r="M23" s="320"/>
+      <c r="N23" s="320"/>
+      <c r="O23" s="320"/>
+      <c r="P23" s="320"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="487"/>
-      <c r="B24" s="502"/>
-      <c r="C24" s="487"/>
-      <c r="D24" s="505"/>
-      <c r="E24" s="487"/>
-      <c r="F24" s="323"/>
-      <c r="G24" s="323"/>
-      <c r="H24" s="323"/>
-      <c r="I24" s="309"/>
-      <c r="J24" s="309"/>
-      <c r="K24" s="310"/>
-      <c r="L24" s="311"/>
-      <c r="M24" s="323"/>
-      <c r="N24" s="323"/>
-      <c r="O24" s="323"/>
-      <c r="P24" s="323"/>
+      <c r="A24" s="490"/>
+      <c r="B24" s="493"/>
+      <c r="C24" s="490"/>
+      <c r="D24" s="496"/>
+      <c r="E24" s="490"/>
+      <c r="F24" s="320"/>
+      <c r="G24" s="320"/>
+      <c r="H24" s="320"/>
+      <c r="I24" s="306"/>
+      <c r="J24" s="306"/>
+      <c r="K24" s="307"/>
+      <c r="L24" s="308"/>
+      <c r="M24" s="320"/>
+      <c r="N24" s="320"/>
+      <c r="O24" s="320"/>
+      <c r="P24" s="320"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="488"/>
-      <c r="B25" s="503"/>
-      <c r="C25" s="488"/>
-      <c r="D25" s="506"/>
-      <c r="E25" s="488"/>
-      <c r="F25" s="324"/>
-      <c r="G25" s="324"/>
-      <c r="H25" s="324"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="314"/>
-      <c r="K25" s="315"/>
-      <c r="L25" s="316"/>
-      <c r="M25" s="324"/>
-      <c r="N25" s="324"/>
-      <c r="O25" s="324"/>
-      <c r="P25" s="324"/>
+      <c r="A25" s="491"/>
+      <c r="B25" s="494"/>
+      <c r="C25" s="491"/>
+      <c r="D25" s="497"/>
+      <c r="E25" s="491"/>
+      <c r="F25" s="321"/>
+      <c r="G25" s="321"/>
+      <c r="H25" s="321"/>
+      <c r="I25" s="311"/>
+      <c r="J25" s="311"/>
+      <c r="K25" s="312"/>
+      <c r="L25" s="313"/>
+      <c r="M25" s="321"/>
+      <c r="N25" s="321"/>
+      <c r="O25" s="321"/>
+      <c r="P25" s="321"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="486"/>
-      <c r="B26" s="501"/>
-      <c r="C26" s="486"/>
-      <c r="D26" s="498"/>
-      <c r="E26" s="322"/>
-      <c r="F26" s="322"/>
-      <c r="G26" s="322"/>
-      <c r="H26" s="322"/>
-      <c r="I26" s="304"/>
-      <c r="J26" s="304"/>
-      <c r="K26" s="305"/>
-      <c r="L26" s="306"/>
-      <c r="M26" s="322"/>
-      <c r="N26" s="322"/>
-      <c r="O26" s="322"/>
-      <c r="P26" s="322"/>
+      <c r="A26" s="489"/>
+      <c r="B26" s="492"/>
+      <c r="C26" s="489"/>
+      <c r="D26" s="486"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="319"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="319"/>
+      <c r="I26" s="301"/>
+      <c r="J26" s="301"/>
+      <c r="K26" s="302"/>
+      <c r="L26" s="303"/>
+      <c r="M26" s="319"/>
+      <c r="N26" s="319"/>
+      <c r="O26" s="319"/>
+      <c r="P26" s="319"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="487"/>
-      <c r="B27" s="502"/>
-      <c r="C27" s="487"/>
-      <c r="D27" s="499"/>
-      <c r="E27" s="323"/>
-      <c r="F27" s="323"/>
-      <c r="G27" s="323"/>
-      <c r="H27" s="323"/>
-      <c r="I27" s="309"/>
-      <c r="J27" s="309"/>
-      <c r="K27" s="310"/>
-      <c r="L27" s="311"/>
-      <c r="M27" s="323"/>
-      <c r="N27" s="323"/>
-      <c r="O27" s="323"/>
-      <c r="P27" s="323"/>
+      <c r="A27" s="490"/>
+      <c r="B27" s="493"/>
+      <c r="C27" s="490"/>
+      <c r="D27" s="487"/>
+      <c r="E27" s="320"/>
+      <c r="F27" s="320"/>
+      <c r="G27" s="320"/>
+      <c r="H27" s="320"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
+      <c r="K27" s="307"/>
+      <c r="L27" s="308"/>
+      <c r="M27" s="320"/>
+      <c r="N27" s="320"/>
+      <c r="O27" s="320"/>
+      <c r="P27" s="320"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="488"/>
-      <c r="B28" s="503"/>
-      <c r="C28" s="488"/>
-      <c r="D28" s="500"/>
-      <c r="E28" s="324"/>
-      <c r="F28" s="324"/>
-      <c r="G28" s="324"/>
-      <c r="H28" s="324"/>
-      <c r="I28" s="314"/>
-      <c r="J28" s="314"/>
-      <c r="K28" s="315"/>
-      <c r="L28" s="316"/>
-      <c r="M28" s="324"/>
-      <c r="N28" s="324"/>
-      <c r="O28" s="324"/>
-      <c r="P28" s="324"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="333"/>
-      <c r="B29" s="329"/>
-      <c r="C29" s="321"/>
-      <c r="D29" s="325"/>
-      <c r="E29" s="321"/>
-      <c r="F29" s="321"/>
-      <c r="G29" s="321"/>
-      <c r="H29" s="321"/>
-      <c r="I29" s="330"/>
-      <c r="J29" s="330"/>
-      <c r="K29" s="331"/>
-      <c r="L29" s="332"/>
-      <c r="M29" s="321"/>
-      <c r="N29" s="321"/>
-      <c r="O29" s="321"/>
-      <c r="P29" s="321"/>
+      <c r="A28" s="491"/>
+      <c r="B28" s="494"/>
+      <c r="C28" s="491"/>
+      <c r="D28" s="488"/>
+      <c r="E28" s="321"/>
+      <c r="F28" s="321"/>
+      <c r="G28" s="321"/>
+      <c r="H28" s="321"/>
+      <c r="I28" s="311"/>
+      <c r="J28" s="311"/>
+      <c r="K28" s="312"/>
+      <c r="L28" s="313"/>
+      <c r="M28" s="321"/>
+      <c r="N28" s="321"/>
+      <c r="O28" s="321"/>
+      <c r="P28" s="321"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="330"/>
+      <c r="B29" s="326"/>
+      <c r="C29" s="318"/>
+      <c r="D29" s="322"/>
+      <c r="E29" s="318"/>
+      <c r="F29" s="318"/>
+      <c r="G29" s="318"/>
+      <c r="H29" s="318"/>
+      <c r="I29" s="327"/>
+      <c r="J29" s="327"/>
+      <c r="K29" s="328"/>
+      <c r="L29" s="329"/>
+      <c r="M29" s="318"/>
+      <c r="N29" s="318"/>
+      <c r="O29" s="318"/>
+      <c r="P29" s="318"/>
     </row>
     <row r="30" spans="1:16" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="470" t="s">
+      <c r="A30" s="498" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="470"/>
-      <c r="C30" s="470"/>
-      <c r="D30" s="470"/>
-      <c r="E30" s="470"/>
-      <c r="F30" s="470"/>
+      <c r="B30" s="498"/>
+      <c r="C30" s="498"/>
+      <c r="D30" s="498"/>
+      <c r="E30" s="498"/>
+      <c r="F30" s="498"/>
       <c r="G30" s="149"/>
       <c r="H30" s="149">
         <f>SUM(H7:H28)</f>
@@ -12121,7 +12141,7 @@
       <c r="O30" s="149"/>
       <c r="P30" s="149"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H31" s="92"/>
       <c r="I31" s="92"/>
     </row>
@@ -12129,22 +12149,22 @@
       <c r="H32" s="92"/>
       <c r="I32" s="92"/>
     </row>
-    <row r="33" spans="1:12" s="301" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="338"/>
-      <c r="C33" s="288"/>
-      <c r="E33" s="326" t="s">
+    <row r="33" spans="1:12" s="298" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="335"/>
+      <c r="C33" s="285"/>
+      <c r="E33" s="323" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="288"/>
-      <c r="G33" s="288"/>
-      <c r="H33" s="288"/>
-      <c r="I33" s="288"/>
-      <c r="L33" s="326" t="s">
+      <c r="F33" s="285"/>
+      <c r="G33" s="285"/>
+      <c r="H33" s="285"/>
+      <c r="I33" s="285"/>
+      <c r="L33" s="323" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="301" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="338"/>
+    <row r="34" spans="1:12" s="298" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="335"/>
       <c r="C34" s="11"/>
       <c r="E34" s="13" t="s">
         <v>15</v>
@@ -12160,20 +12180,20 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H35" s="92"/>
       <c r="I35" s="92"/>
-      <c r="L35" s="327"/>
+      <c r="L35" s="324"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H36" s="92"/>
       <c r="I36" s="92"/>
-      <c r="L36" s="327"/>
+      <c r="L36" s="324"/>
     </row>
     <row r="37" spans="1:12" s="133" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="135"/>
-      <c r="C37" s="288"/>
-      <c r="E37" s="288"/>
+      <c r="C37" s="285"/>
+      <c r="E37" s="285"/>
       <c r="F37" s="132"/>
       <c r="G37" s="132"/>
-      <c r="L37" s="328" t="s">
+      <c r="L37" s="325" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12191,16 +12211,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:P4"/>
@@ -12217,6 +12227,16 @@
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="D12:D20"/>
     <mergeCell ref="C12:C20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11352" tabRatio="834" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11352" tabRatio="834" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="168">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -257,15 +257,9 @@
     <t>Giám Đốc</t>
   </si>
   <si>
-    <t>Phòng Kinh doanh</t>
-  </si>
-  <si>
     <t>Vũ Hoài Thanh</t>
   </si>
   <si>
-    <t>Kế toán Thuế- Kế toán trưởng</t>
-  </si>
-  <si>
     <t>Kế toán tổng hợp</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
     <t>Lò Thị Minh Tâm</t>
   </si>
   <si>
-    <t>Phòng kế toán</t>
-  </si>
-  <si>
     <t>Số HĐ</t>
   </si>
   <si>
@@ -528,6 +519,15 @@
   </si>
   <si>
     <t>TĐ12</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Hoàng</t>
+  </si>
+  <si>
+    <t>Kho</t>
+  </si>
+  <si>
+    <t>kế toán trưởng</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1202,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="522">
+  <cellXfs count="520">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1916,23 +1916,8 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="40" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="40" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -2220,9 +2205,6 @@
     <xf numFmtId="166" fontId="28" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2310,13 +2292,103 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2325,90 +2397,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2418,19 +2406,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2448,45 +2436,36 @@
     <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2523,6 +2502,45 @@
     <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2538,34 +2556,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2577,6 +2622,24 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2586,15 +2649,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2613,76 +2667,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3051,15 +3045,15 @@
       <c r="H3" s="135"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="390" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="390"/>
-      <c r="C4" s="390"/>
-      <c r="D4" s="390"/>
-      <c r="E4" s="390"/>
-      <c r="F4" s="390"/>
-      <c r="G4" s="390"/>
+      <c r="A4" s="384" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="384"/>
+      <c r="C4" s="384"/>
+      <c r="D4" s="384"/>
+      <c r="E4" s="384"/>
+      <c r="F4" s="384"/>
+      <c r="G4" s="384"/>
       <c r="H4" s="135"/>
     </row>
     <row r="5" spans="1:8" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3071,36 +3065,36 @@
       <c r="G5" s="132"/>
     </row>
     <row r="6" spans="1:8" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="391" t="s">
+      <c r="A6" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="391" t="s">
+      <c r="B6" s="385" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="393" t="s">
+      <c r="C6" s="387" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="395" t="s">
+      <c r="D6" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="395"/>
-      <c r="F6" s="395" t="s">
+      <c r="E6" s="389"/>
+      <c r="F6" s="389" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="395"/>
+      <c r="G6" s="389"/>
     </row>
     <row r="7" spans="1:8" s="133" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="392"/>
-      <c r="B7" s="392"/>
-      <c r="C7" s="394"/>
+      <c r="A7" s="386"/>
+      <c r="B7" s="386"/>
+      <c r="C7" s="388"/>
       <c r="D7" s="137" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E7" s="137" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="137" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G7" s="137" t="s">
         <v>57</v>
@@ -3512,9 +3506,9 @@
       <c r="G52" s="140"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="342"/>
-      <c r="B53" s="343"/>
-      <c r="C53" s="344"/>
+      <c r="A53" s="337"/>
+      <c r="B53" s="338"/>
+      <c r="C53" s="339"/>
       <c r="D53" s="121"/>
       <c r="E53" s="138"/>
       <c r="F53" s="121"/>
@@ -3739,11 +3733,11 @@
       <c r="G77" s="140"/>
     </row>
     <row r="78" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="387" t="s">
+      <c r="A78" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="388"/>
-      <c r="C78" s="389"/>
+      <c r="B78" s="382"/>
+      <c r="C78" s="383"/>
       <c r="D78" s="142">
         <f>SUM(D8:D77)</f>
         <v>0</v>
@@ -3771,10 +3765,10 @@
       <c r="G79" s="145"/>
     </row>
     <row r="80" spans="1:7" s="143" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A80" s="386" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80" s="386"/>
+      <c r="A80" s="380" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="380"/>
       <c r="C80" s="144"/>
       <c r="D80" s="145"/>
       <c r="E80" s="145"/>
@@ -3791,22 +3785,22 @@
       <c r="G81" s="145"/>
     </row>
     <row r="82" spans="1:8" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="336"/>
-      <c r="B82" s="337"/>
-      <c r="C82" s="338"/>
-      <c r="D82" s="339"/>
-      <c r="E82" s="340"/>
-      <c r="F82" s="339"/>
-      <c r="G82" s="341"/>
+      <c r="A82" s="331"/>
+      <c r="B82" s="332"/>
+      <c r="C82" s="333"/>
+      <c r="D82" s="334"/>
+      <c r="E82" s="335"/>
+      <c r="F82" s="334"/>
+      <c r="G82" s="336"/>
     </row>
     <row r="83" spans="1:8" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="336"/>
-      <c r="B83" s="337"/>
-      <c r="C83" s="338"/>
-      <c r="D83" s="339"/>
-      <c r="E83" s="340"/>
-      <c r="F83" s="339"/>
-      <c r="G83" s="341"/>
+      <c r="A83" s="331"/>
+      <c r="B83" s="332"/>
+      <c r="C83" s="333"/>
+      <c r="D83" s="334"/>
+      <c r="E83" s="335"/>
+      <c r="F83" s="334"/>
+      <c r="G83" s="336"/>
     </row>
     <row r="84" spans="1:8" s="143" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="213"/>
@@ -3820,7 +3814,7 @@
     <row r="85" spans="1:8" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="214"/>
       <c r="B85" s="112" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C85" s="75"/>
       <c r="D85" s="112" t="s">
@@ -3876,7 +3870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
@@ -3885,7 +3879,7 @@
   <cols>
     <col min="1" max="1" width="9.109375" style="185"/>
     <col min="2" max="2" width="11.5546875" style="198" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="379"/>
+    <col min="3" max="3" width="9.109375" style="373"/>
     <col min="4" max="4" width="12.6640625" style="185" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="185" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.109375" style="185"/>
@@ -3904,13 +3898,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="170" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="419" t="s">
+      <c r="A1" s="396" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="419"/>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="419"/>
+      <c r="B1" s="396"/>
+      <c r="C1" s="396"/>
+      <c r="D1" s="396"/>
+      <c r="E1" s="396"/>
       <c r="H1" s="171"/>
       <c r="I1" s="171"/>
       <c r="J1" s="171"/>
@@ -3926,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="175"/>
-      <c r="C2" s="374"/>
+      <c r="C2" s="368"/>
       <c r="D2" s="174"/>
       <c r="E2" s="174"/>
       <c r="H2" s="171"/>
@@ -3940,180 +3934,180 @@
       <c r="P2" s="171"/>
     </row>
     <row r="3" spans="1:18" s="170" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="419" t="s">
+      <c r="A3" s="396" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="419"/>
-      <c r="C3" s="419"/>
-      <c r="D3" s="419"/>
-      <c r="E3" s="419"/>
-      <c r="F3" s="419"/>
-      <c r="G3" s="419"/>
-      <c r="H3" s="419"/>
-      <c r="I3" s="419"/>
-      <c r="J3" s="419"/>
-      <c r="K3" s="419"/>
-      <c r="L3" s="419"/>
-      <c r="M3" s="419"/>
-      <c r="N3" s="419"/>
-      <c r="O3" s="419"/>
-      <c r="P3" s="419"/>
-      <c r="Q3" s="419"/>
+      <c r="B3" s="396"/>
+      <c r="C3" s="396"/>
+      <c r="D3" s="396"/>
+      <c r="E3" s="396"/>
+      <c r="F3" s="396"/>
+      <c r="G3" s="396"/>
+      <c r="H3" s="396"/>
+      <c r="I3" s="396"/>
+      <c r="J3" s="396"/>
+      <c r="K3" s="396"/>
+      <c r="L3" s="396"/>
+      <c r="M3" s="396"/>
+      <c r="N3" s="396"/>
+      <c r="O3" s="396"/>
+      <c r="P3" s="396"/>
+      <c r="Q3" s="396"/>
     </row>
     <row r="4" spans="1:18" s="170" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="419" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="419"/>
-      <c r="C4" s="419"/>
-      <c r="D4" s="419"/>
-      <c r="E4" s="419"/>
-      <c r="F4" s="419"/>
-      <c r="G4" s="419"/>
-      <c r="H4" s="419"/>
-      <c r="I4" s="419"/>
-      <c r="J4" s="419"/>
-      <c r="K4" s="419"/>
-      <c r="L4" s="419"/>
-      <c r="M4" s="419"/>
-      <c r="N4" s="419"/>
-      <c r="O4" s="419"/>
-      <c r="P4" s="419"/>
-      <c r="Q4" s="419"/>
+      <c r="A4" s="396" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="396"/>
+      <c r="C4" s="396"/>
+      <c r="D4" s="396"/>
+      <c r="E4" s="396"/>
+      <c r="F4" s="396"/>
+      <c r="G4" s="396"/>
+      <c r="H4" s="396"/>
+      <c r="I4" s="396"/>
+      <c r="J4" s="396"/>
+      <c r="K4" s="396"/>
+      <c r="L4" s="396"/>
+      <c r="M4" s="396"/>
+      <c r="N4" s="396"/>
+      <c r="O4" s="396"/>
+      <c r="P4" s="396"/>
+      <c r="Q4" s="396"/>
     </row>
     <row r="5" spans="1:18" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="419"/>
-      <c r="B5" s="419"/>
-      <c r="C5" s="419"/>
-      <c r="D5" s="419"/>
-      <c r="E5" s="419"/>
-      <c r="F5" s="419"/>
-      <c r="G5" s="419"/>
-      <c r="H5" s="419"/>
-      <c r="I5" s="419"/>
-      <c r="J5" s="419"/>
-      <c r="K5" s="420"/>
-      <c r="L5" s="420"/>
+      <c r="A5" s="396"/>
+      <c r="B5" s="396"/>
+      <c r="C5" s="396"/>
+      <c r="D5" s="396"/>
+      <c r="E5" s="396"/>
+      <c r="F5" s="396"/>
+      <c r="G5" s="396"/>
+      <c r="H5" s="396"/>
+      <c r="I5" s="396"/>
+      <c r="J5" s="396"/>
+      <c r="K5" s="397"/>
+      <c r="L5" s="397"/>
       <c r="M5" s="177"/>
       <c r="N5" s="171"/>
       <c r="O5" s="171"/>
       <c r="P5" s="171"/>
     </row>
     <row r="6" spans="1:18" s="178" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="413" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="421" t="s">
+      <c r="A6" s="398" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="400" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="423" t="s">
+      <c r="C6" s="404" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="425" t="s">
+      <c r="D6" s="406" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="425"/>
-      <c r="F6" s="426" t="s">
+      <c r="E6" s="406"/>
+      <c r="F6" s="407" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="426"/>
-      <c r="H6" s="426"/>
-      <c r="I6" s="426"/>
-      <c r="J6" s="426"/>
-      <c r="K6" s="426"/>
-      <c r="L6" s="426"/>
-      <c r="M6" s="415" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="427"/>
-      <c r="O6" s="427"/>
-      <c r="P6" s="427"/>
-      <c r="Q6" s="428" t="s">
+      <c r="G6" s="407"/>
+      <c r="H6" s="407"/>
+      <c r="I6" s="407"/>
+      <c r="J6" s="407"/>
+      <c r="K6" s="407"/>
+      <c r="L6" s="407"/>
+      <c r="M6" s="411" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="408"/>
+      <c r="O6" s="408"/>
+      <c r="P6" s="408"/>
+      <c r="Q6" s="409" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="178" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="414"/>
-      <c r="B7" s="422"/>
-      <c r="C7" s="424"/>
-      <c r="D7" s="413" t="s">
+      <c r="A7" s="399"/>
+      <c r="B7" s="401"/>
+      <c r="C7" s="405"/>
+      <c r="D7" s="398" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="413" t="s">
+      <c r="E7" s="398" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="413" t="s">
+      <c r="F7" s="398" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="413" t="s">
+      <c r="G7" s="398" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="411" t="s">
+      <c r="H7" s="402" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="411" t="s">
+      <c r="I7" s="402" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="418" t="s">
+      <c r="J7" s="414" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="418"/>
-      <c r="L7" s="411" t="s">
+      <c r="K7" s="414"/>
+      <c r="L7" s="402" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="416"/>
-      <c r="N7" s="411" t="s">
+      <c r="M7" s="412"/>
+      <c r="N7" s="402" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="411" t="s">
+      <c r="O7" s="402" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="411" t="s">
+      <c r="P7" s="402" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="429"/>
+      <c r="Q7" s="410"/>
     </row>
     <row r="8" spans="1:18" s="178" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="414"/>
-      <c r="B8" s="422"/>
-      <c r="C8" s="424"/>
-      <c r="D8" s="414"/>
-      <c r="E8" s="414"/>
-      <c r="F8" s="414"/>
-      <c r="G8" s="414"/>
-      <c r="H8" s="412"/>
-      <c r="I8" s="412"/>
+      <c r="A8" s="399"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="399"/>
+      <c r="E8" s="399"/>
+      <c r="F8" s="399"/>
+      <c r="G8" s="399"/>
+      <c r="H8" s="403"/>
+      <c r="I8" s="403"/>
       <c r="J8" s="179" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K8" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="412"/>
-      <c r="M8" s="417"/>
-      <c r="N8" s="412"/>
-      <c r="O8" s="412"/>
-      <c r="P8" s="412"/>
-      <c r="Q8" s="429"/>
+      <c r="L8" s="403"/>
+      <c r="M8" s="413"/>
+      <c r="N8" s="403"/>
+      <c r="O8" s="403"/>
+      <c r="P8" s="403"/>
+      <c r="Q8" s="410"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="181">
         <v>547</v>
       </c>
-      <c r="B9" s="370">
+      <c r="B9" s="364">
         <v>43974</v>
       </c>
-      <c r="C9" s="375" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="369" t="s">
-        <v>138</v>
+      <c r="C9" s="369" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="363" t="s">
+        <v>135</v>
       </c>
       <c r="E9" s="181" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F9" s="181" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G9" s="181">
         <v>2</v>
@@ -4146,20 +4140,20 @@
       <c r="A10" s="181">
         <v>550</v>
       </c>
-      <c r="B10" s="370">
+      <c r="B10" s="364">
         <v>43974</v>
       </c>
-      <c r="C10" s="375" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="369" t="s">
-        <v>138</v>
+      <c r="C10" s="369" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="363" t="s">
+        <v>135</v>
       </c>
       <c r="E10" s="181" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F10" s="181" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G10" s="181">
         <v>3</v>
@@ -4192,18 +4186,18 @@
       <c r="A11" s="181">
         <v>556</v>
       </c>
-      <c r="B11" s="370">
+      <c r="B11" s="364">
         <v>43976</v>
       </c>
-      <c r="C11" s="375"/>
-      <c r="D11" s="369" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="369" t="s">
-        <v>142</v>
+      <c r="C11" s="369"/>
+      <c r="D11" s="363" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="363" t="s">
+        <v>139</v>
       </c>
       <c r="F11" s="181" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G11" s="181">
         <v>24</v>
@@ -4235,23 +4229,23 @@
       <c r="Q11" s="181"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="396">
+      <c r="A12" s="390">
         <v>557</v>
       </c>
-      <c r="B12" s="398">
+      <c r="B12" s="393">
         <v>43981</v>
       </c>
-      <c r="C12" s="405" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="396" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="396" t="s">
-        <v>144</v>
+      <c r="C12" s="419" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="390" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="390" t="s">
+        <v>141</v>
       </c>
       <c r="F12" s="181" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G12" s="181">
         <v>2</v>
@@ -4285,13 +4279,13 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="397"/>
-      <c r="B13" s="399"/>
-      <c r="C13" s="406"/>
-      <c r="D13" s="397"/>
-      <c r="E13" s="397"/>
+      <c r="A13" s="392"/>
+      <c r="B13" s="395"/>
+      <c r="C13" s="420"/>
+      <c r="D13" s="392"/>
+      <c r="E13" s="392"/>
       <c r="F13" s="181" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G13" s="181">
         <v>1</v>
@@ -4324,16 +4318,16 @@
       <c r="A14" s="181">
         <v>558</v>
       </c>
-      <c r="B14" s="370">
+      <c r="B14" s="364">
         <v>43981</v>
       </c>
-      <c r="C14" s="402" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="403"/>
-      <c r="E14" s="404"/>
+      <c r="C14" s="421" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="422"/>
+      <c r="E14" s="423"/>
       <c r="F14" s="181" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G14" s="181">
         <v>12</v>
@@ -4364,20 +4358,20 @@
       <c r="A15" s="181">
         <v>559</v>
       </c>
-      <c r="B15" s="370">
+      <c r="B15" s="364">
         <v>43982</v>
       </c>
-      <c r="C15" s="375" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="371" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="371" t="s">
-        <v>144</v>
+      <c r="C15" s="369" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="365" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="365" t="s">
+        <v>141</v>
       </c>
       <c r="F15" s="181" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G15" s="181">
         <v>2</v>
@@ -4410,20 +4404,20 @@
       <c r="A16" s="181">
         <v>560</v>
       </c>
-      <c r="B16" s="370">
+      <c r="B16" s="364">
         <v>43983</v>
       </c>
-      <c r="C16" s="375" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="371" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="371" t="s">
-        <v>150</v>
+      <c r="C16" s="369" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="365" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="365" t="s">
+        <v>147</v>
       </c>
       <c r="F16" s="181" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G16" s="181">
         <v>12</v>
@@ -4453,23 +4447,23 @@
       <c r="Q16" s="186"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="396">
+      <c r="A17" s="390">
         <v>563</v>
       </c>
-      <c r="B17" s="398">
+      <c r="B17" s="393">
         <v>43986</v>
       </c>
-      <c r="C17" s="405" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="400" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="400" t="s">
-        <v>155</v>
+      <c r="C17" s="419" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="424" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="424" t="s">
+        <v>152</v>
       </c>
       <c r="F17" s="181" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G17" s="181">
         <v>1</v>
@@ -4499,13 +4493,13 @@
       <c r="Q17" s="186"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="397"/>
-      <c r="B18" s="399"/>
-      <c r="C18" s="406"/>
-      <c r="D18" s="401"/>
-      <c r="E18" s="401"/>
+      <c r="A18" s="392"/>
+      <c r="B18" s="395"/>
+      <c r="C18" s="420"/>
+      <c r="D18" s="425"/>
+      <c r="E18" s="425"/>
       <c r="F18" s="181" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G18" s="181">
         <v>2</v>
@@ -4538,20 +4532,20 @@
       <c r="A19" s="181">
         <v>564</v>
       </c>
-      <c r="B19" s="370">
+      <c r="B19" s="364">
         <v>43986</v>
       </c>
-      <c r="C19" s="375" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="371" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="371" t="s">
-        <v>158</v>
+      <c r="C19" s="369" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="365" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="365" t="s">
+        <v>155</v>
       </c>
       <c r="F19" s="181" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G19" s="181">
         <v>12</v>
@@ -4584,18 +4578,18 @@
       <c r="A20" s="181">
         <v>566</v>
       </c>
-      <c r="B20" s="370">
+      <c r="B20" s="364">
         <v>43990</v>
       </c>
-      <c r="C20" s="375"/>
-      <c r="D20" s="369" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="369" t="s">
-        <v>142</v>
+      <c r="C20" s="369"/>
+      <c r="D20" s="363" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="363" t="s">
+        <v>139</v>
       </c>
       <c r="F20" s="181" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G20" s="181">
         <v>24</v>
@@ -4625,21 +4619,21 @@
       <c r="Q20" s="186"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="396">
+      <c r="A21" s="390">
         <v>567</v>
       </c>
-      <c r="B21" s="398">
+      <c r="B21" s="393">
         <v>43990</v>
       </c>
-      <c r="C21" s="396"/>
-      <c r="D21" s="400" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="400" t="s">
-        <v>161</v>
+      <c r="C21" s="390"/>
+      <c r="D21" s="424" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="424" t="s">
+        <v>158</v>
       </c>
       <c r="F21" s="181" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G21" s="181">
         <v>9</v>
@@ -4669,13 +4663,13 @@
       <c r="Q21" s="186"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="397"/>
-      <c r="B22" s="399"/>
-      <c r="C22" s="397"/>
-      <c r="D22" s="401"/>
-      <c r="E22" s="401"/>
+      <c r="A22" s="392"/>
+      <c r="B22" s="395"/>
+      <c r="C22" s="392"/>
+      <c r="D22" s="425"/>
+      <c r="E22" s="425"/>
       <c r="F22" s="181" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G22" s="181">
         <v>3</v>
@@ -4687,16 +4681,16 @@
         <f t="shared" si="1"/>
         <v>1365000</v>
       </c>
-      <c r="J22" s="380"/>
+      <c r="J22" s="374"/>
       <c r="K22" s="184">
         <v>0.41</v>
       </c>
-      <c r="L22" s="381">
+      <c r="L22" s="375">
         <f t="shared" si="2"/>
         <v>805350.00000000012</v>
       </c>
       <c r="M22" s="183"/>
-      <c r="N22" s="381"/>
+      <c r="N22" s="375"/>
       <c r="O22" s="183"/>
       <c r="P22" s="183">
         <f>L22</f>
@@ -4705,21 +4699,21 @@
       <c r="Q22" s="186"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="396">
+      <c r="A23" s="390">
         <v>571</v>
       </c>
-      <c r="B23" s="398">
+      <c r="B23" s="393">
         <v>43990</v>
       </c>
-      <c r="C23" s="396"/>
-      <c r="D23" s="396" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="396" t="s">
-        <v>163</v>
+      <c r="C23" s="390"/>
+      <c r="D23" s="390" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="390" t="s">
+        <v>160</v>
       </c>
       <c r="F23" s="181" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G23" s="181">
         <v>72</v>
@@ -4731,14 +4725,14 @@
         <f t="shared" si="1"/>
         <v>18360000</v>
       </c>
-      <c r="J23" s="380"/>
+      <c r="J23" s="374"/>
       <c r="K23" s="184"/>
-      <c r="L23" s="381">
+      <c r="L23" s="375">
         <f t="shared" si="2"/>
         <v>18360000</v>
       </c>
       <c r="M23" s="183"/>
-      <c r="N23" s="381"/>
+      <c r="N23" s="375"/>
       <c r="O23" s="183"/>
       <c r="P23" s="183">
         <f>L23</f>
@@ -4747,13 +4741,13 @@
       <c r="Q23" s="181"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="520"/>
-      <c r="B24" s="521"/>
-      <c r="C24" s="520"/>
-      <c r="D24" s="520"/>
-      <c r="E24" s="520"/>
+      <c r="A24" s="391"/>
+      <c r="B24" s="394"/>
+      <c r="C24" s="391"/>
+      <c r="D24" s="391"/>
+      <c r="E24" s="391"/>
       <c r="F24" s="181" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G24" s="181">
         <v>36</v>
@@ -4765,14 +4759,14 @@
         <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-      <c r="J24" s="380"/>
+      <c r="J24" s="374"/>
       <c r="K24" s="184"/>
-      <c r="L24" s="381">
+      <c r="L24" s="375">
         <f t="shared" si="2"/>
         <v>16380000</v>
       </c>
       <c r="M24" s="183"/>
-      <c r="N24" s="381"/>
+      <c r="N24" s="375"/>
       <c r="O24" s="183"/>
       <c r="P24" s="183">
         <f t="shared" ref="P24:P30" si="3">L24</f>
@@ -4781,13 +4775,13 @@
       <c r="Q24" s="181"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="520"/>
-      <c r="B25" s="521"/>
-      <c r="C25" s="520"/>
-      <c r="D25" s="520"/>
-      <c r="E25" s="520"/>
+      <c r="A25" s="391"/>
+      <c r="B25" s="394"/>
+      <c r="C25" s="391"/>
+      <c r="D25" s="391"/>
+      <c r="E25" s="391"/>
       <c r="F25" s="181" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G25" s="181">
         <v>84</v>
@@ -4799,9 +4793,9 @@
         <f t="shared" si="1"/>
         <v>39060000</v>
       </c>
-      <c r="J25" s="380"/>
+      <c r="J25" s="374"/>
       <c r="K25" s="184"/>
-      <c r="L25" s="381">
+      <c r="L25" s="375">
         <f t="shared" si="2"/>
         <v>39060000</v>
       </c>
@@ -4815,13 +4809,13 @@
       <c r="Q25" s="181"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="520"/>
-      <c r="B26" s="521"/>
-      <c r="C26" s="520"/>
-      <c r="D26" s="520"/>
-      <c r="E26" s="520"/>
+      <c r="A26" s="391"/>
+      <c r="B26" s="394"/>
+      <c r="C26" s="391"/>
+      <c r="D26" s="391"/>
+      <c r="E26" s="391"/>
       <c r="F26" s="181" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G26" s="181">
         <v>12</v>
@@ -4833,9 +4827,9 @@
         <f t="shared" si="1"/>
         <v>5700000</v>
       </c>
-      <c r="J26" s="380"/>
+      <c r="J26" s="374"/>
       <c r="K26" s="184"/>
-      <c r="L26" s="381">
+      <c r="L26" s="375">
         <f t="shared" si="2"/>
         <v>5700000</v>
       </c>
@@ -4849,15 +4843,15 @@
       <c r="Q26" s="181"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="520"/>
-      <c r="B27" s="521"/>
-      <c r="C27" s="520"/>
-      <c r="D27" s="520"/>
-      <c r="E27" s="520"/>
-      <c r="F27" s="372" t="s">
-        <v>165</v>
-      </c>
-      <c r="G27" s="372">
+      <c r="A27" s="391"/>
+      <c r="B27" s="394"/>
+      <c r="C27" s="391"/>
+      <c r="D27" s="391"/>
+      <c r="E27" s="391"/>
+      <c r="F27" s="366" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="366">
         <v>60</v>
       </c>
       <c r="H27" s="228">
@@ -4867,9 +4861,9 @@
         <f t="shared" si="1"/>
         <v>29100000</v>
       </c>
-      <c r="J27" s="360"/>
-      <c r="K27" s="284"/>
-      <c r="L27" s="381">
+      <c r="J27" s="355"/>
+      <c r="K27" s="279"/>
+      <c r="L27" s="375">
         <f t="shared" si="2"/>
         <v>29100000</v>
       </c>
@@ -4883,13 +4877,13 @@
       <c r="Q27" s="181"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="520"/>
-      <c r="B28" s="521"/>
-      <c r="C28" s="520"/>
-      <c r="D28" s="520"/>
-      <c r="E28" s="520"/>
+      <c r="A28" s="391"/>
+      <c r="B28" s="394"/>
+      <c r="C28" s="391"/>
+      <c r="D28" s="391"/>
+      <c r="E28" s="391"/>
       <c r="F28" s="181" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G28" s="181">
         <v>24</v>
@@ -4903,7 +4897,7 @@
       </c>
       <c r="J28" s="188"/>
       <c r="K28" s="184"/>
-      <c r="L28" s="381">
+      <c r="L28" s="375">
         <f t="shared" si="2"/>
         <v>13200000</v>
       </c>
@@ -4917,13 +4911,13 @@
       <c r="Q28" s="181"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="520"/>
-      <c r="B29" s="521"/>
-      <c r="C29" s="520"/>
-      <c r="D29" s="520"/>
-      <c r="E29" s="520"/>
+      <c r="A29" s="391"/>
+      <c r="B29" s="394"/>
+      <c r="C29" s="391"/>
+      <c r="D29" s="391"/>
+      <c r="E29" s="391"/>
       <c r="F29" s="181" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G29" s="181">
         <v>48</v>
@@ -4937,7 +4931,7 @@
       </c>
       <c r="J29" s="183"/>
       <c r="K29" s="184"/>
-      <c r="L29" s="381">
+      <c r="L29" s="375">
         <f t="shared" si="2"/>
         <v>21840000</v>
       </c>
@@ -4951,13 +4945,13 @@
       <c r="Q29" s="186"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="397"/>
-      <c r="B30" s="399"/>
-      <c r="C30" s="397"/>
-      <c r="D30" s="397"/>
-      <c r="E30" s="397"/>
+      <c r="A30" s="392"/>
+      <c r="B30" s="395"/>
+      <c r="C30" s="392"/>
+      <c r="D30" s="392"/>
+      <c r="E30" s="392"/>
       <c r="F30" s="181" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G30" s="181">
         <v>12</v>
@@ -4971,7 +4965,7 @@
       </c>
       <c r="J30" s="183"/>
       <c r="K30" s="184"/>
-      <c r="L30" s="381">
+      <c r="L30" s="375">
         <f t="shared" si="2"/>
         <v>5460000</v>
       </c>
@@ -4988,18 +4982,18 @@
       <c r="A31" s="181">
         <v>569</v>
       </c>
-      <c r="B31" s="370">
+      <c r="B31" s="364">
         <v>43991</v>
       </c>
-      <c r="C31" s="375" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="369" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="371"/>
+      <c r="C31" s="369" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="363" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="365"/>
       <c r="F31" s="181" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G31" s="181">
         <v>1</v>
@@ -5032,18 +5026,18 @@
       <c r="A32" s="181">
         <v>570</v>
       </c>
-      <c r="B32" s="370">
+      <c r="B32" s="364">
         <v>43992</v>
       </c>
-      <c r="C32" s="375" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="371" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="369"/>
+      <c r="C32" s="369" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="365" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="363"/>
       <c r="F32" s="181" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G32" s="181">
         <v>1</v>
@@ -5074,10 +5068,10 @@
     </row>
     <row r="33" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="165"/>
-      <c r="B33" s="383"/>
-      <c r="C33" s="376"/>
-      <c r="D33" s="384"/>
-      <c r="E33" s="373"/>
+      <c r="B33" s="377"/>
+      <c r="C33" s="370"/>
+      <c r="D33" s="378"/>
+      <c r="E33" s="367"/>
       <c r="F33" s="165"/>
       <c r="G33" s="165"/>
       <c r="H33" s="166"/>
@@ -5096,10 +5090,10 @@
     </row>
     <row r="34" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="165"/>
-      <c r="B34" s="383"/>
-      <c r="C34" s="376"/>
-      <c r="D34" s="384"/>
-      <c r="E34" s="373"/>
+      <c r="B34" s="377"/>
+      <c r="C34" s="370"/>
+      <c r="D34" s="378"/>
+      <c r="E34" s="367"/>
       <c r="F34" s="165"/>
       <c r="G34" s="165"/>
       <c r="H34" s="166"/>
@@ -5118,10 +5112,10 @@
     </row>
     <row r="35" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="165"/>
-      <c r="B35" s="383"/>
-      <c r="C35" s="376"/>
-      <c r="D35" s="384"/>
-      <c r="E35" s="373"/>
+      <c r="B35" s="377"/>
+      <c r="C35" s="370"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="367"/>
       <c r="F35" s="165"/>
       <c r="G35" s="165"/>
       <c r="H35" s="166"/>
@@ -5140,10 +5134,10 @@
     </row>
     <row r="36" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="165"/>
-      <c r="B36" s="383"/>
-      <c r="C36" s="376"/>
-      <c r="D36" s="384"/>
-      <c r="E36" s="373"/>
+      <c r="B36" s="377"/>
+      <c r="C36" s="370"/>
+      <c r="D36" s="378"/>
+      <c r="E36" s="367"/>
       <c r="F36" s="165"/>
       <c r="G36" s="165"/>
       <c r="H36" s="166"/>
@@ -5162,10 +5156,10 @@
     </row>
     <row r="37" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="165"/>
-      <c r="B37" s="383"/>
-      <c r="C37" s="376"/>
-      <c r="D37" s="384"/>
-      <c r="E37" s="373"/>
+      <c r="B37" s="377"/>
+      <c r="C37" s="370"/>
+      <c r="D37" s="378"/>
+      <c r="E37" s="367"/>
       <c r="F37" s="165"/>
       <c r="G37" s="165"/>
       <c r="H37" s="166"/>
@@ -5184,10 +5178,10 @@
     </row>
     <row r="38" spans="1:18" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="165"/>
-      <c r="B38" s="383"/>
-      <c r="C38" s="376"/>
-      <c r="D38" s="384"/>
-      <c r="E38" s="373"/>
+      <c r="B38" s="377"/>
+      <c r="C38" s="370"/>
+      <c r="D38" s="378"/>
+      <c r="E38" s="367"/>
       <c r="F38" s="165"/>
       <c r="G38" s="165"/>
       <c r="H38" s="166"/>
@@ -5206,10 +5200,10 @@
     </row>
     <row r="39" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="165"/>
-      <c r="B39" s="383"/>
-      <c r="C39" s="376"/>
-      <c r="D39" s="384"/>
-      <c r="E39" s="373"/>
+      <c r="B39" s="377"/>
+      <c r="C39" s="370"/>
+      <c r="D39" s="378"/>
+      <c r="E39" s="367"/>
       <c r="F39" s="165"/>
       <c r="G39" s="165"/>
       <c r="H39" s="166"/>
@@ -5225,10 +5219,10 @@
     </row>
     <row r="40" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="165"/>
-      <c r="B40" s="383"/>
-      <c r="C40" s="376"/>
-      <c r="D40" s="384"/>
-      <c r="E40" s="373"/>
+      <c r="B40" s="377"/>
+      <c r="C40" s="370"/>
+      <c r="D40" s="378"/>
+      <c r="E40" s="367"/>
       <c r="F40" s="165"/>
       <c r="G40" s="165"/>
       <c r="H40" s="166"/>
@@ -5244,10 +5238,10 @@
     </row>
     <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="181"/>
-      <c r="B41" s="370"/>
-      <c r="C41" s="375"/>
-      <c r="D41" s="371"/>
-      <c r="E41" s="369"/>
+      <c r="B41" s="364"/>
+      <c r="C41" s="369"/>
+      <c r="D41" s="365"/>
+      <c r="E41" s="363"/>
       <c r="F41" s="181"/>
       <c r="G41" s="181"/>
       <c r="H41" s="183"/>
@@ -5263,10 +5257,10 @@
     </row>
     <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="181"/>
-      <c r="B42" s="370"/>
-      <c r="C42" s="375"/>
-      <c r="D42" s="371"/>
-      <c r="E42" s="369"/>
+      <c r="B42" s="364"/>
+      <c r="C42" s="369"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="363"/>
       <c r="F42" s="181"/>
       <c r="G42" s="181"/>
       <c r="H42" s="183"/>
@@ -5282,10 +5276,10 @@
     </row>
     <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="181"/>
-      <c r="B43" s="370"/>
-      <c r="C43" s="375"/>
-      <c r="D43" s="371"/>
-      <c r="E43" s="369"/>
+      <c r="B43" s="364"/>
+      <c r="C43" s="369"/>
+      <c r="D43" s="365"/>
+      <c r="E43" s="363"/>
       <c r="F43" s="181"/>
       <c r="G43" s="181"/>
       <c r="H43" s="183"/>
@@ -5301,10 +5295,10 @@
     </row>
     <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="181"/>
-      <c r="B44" s="370"/>
-      <c r="C44" s="375"/>
-      <c r="D44" s="371"/>
-      <c r="E44" s="369"/>
+      <c r="B44" s="364"/>
+      <c r="C44" s="369"/>
+      <c r="D44" s="365"/>
+      <c r="E44" s="363"/>
       <c r="F44" s="181"/>
       <c r="G44" s="181"/>
       <c r="H44" s="183"/>
@@ -5320,10 +5314,10 @@
     </row>
     <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="181"/>
-      <c r="B45" s="370"/>
-      <c r="C45" s="375"/>
-      <c r="D45" s="371"/>
-      <c r="E45" s="369"/>
+      <c r="B45" s="364"/>
+      <c r="C45" s="369"/>
+      <c r="D45" s="365"/>
+      <c r="E45" s="363"/>
       <c r="F45" s="181"/>
       <c r="G45" s="181"/>
       <c r="H45" s="183"/>
@@ -5339,10 +5333,10 @@
     </row>
     <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="181"/>
-      <c r="B46" s="370"/>
-      <c r="C46" s="375"/>
-      <c r="D46" s="371"/>
-      <c r="E46" s="369"/>
+      <c r="B46" s="364"/>
+      <c r="C46" s="369"/>
+      <c r="D46" s="365"/>
+      <c r="E46" s="363"/>
       <c r="F46" s="181"/>
       <c r="G46" s="181"/>
       <c r="H46" s="183"/>
@@ -5359,7 +5353,7 @@
     <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="181"/>
       <c r="B47" s="182"/>
-      <c r="C47" s="375"/>
+      <c r="C47" s="369"/>
       <c r="D47" s="181"/>
       <c r="E47" s="181"/>
       <c r="F47" s="181"/>
@@ -5378,10 +5372,10 @@
     </row>
     <row r="48" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="165"/>
-      <c r="B48" s="385"/>
-      <c r="C48" s="376"/>
-      <c r="D48" s="384"/>
-      <c r="E48" s="373"/>
+      <c r="B48" s="379"/>
+      <c r="C48" s="370"/>
+      <c r="D48" s="378"/>
+      <c r="E48" s="367"/>
       <c r="F48" s="165"/>
       <c r="G48" s="165"/>
       <c r="H48" s="166"/>
@@ -5398,10 +5392,10 @@
     </row>
     <row r="49" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="165"/>
-      <c r="B49" s="383"/>
-      <c r="C49" s="376"/>
-      <c r="D49" s="384"/>
-      <c r="E49" s="373"/>
+      <c r="B49" s="377"/>
+      <c r="C49" s="370"/>
+      <c r="D49" s="378"/>
+      <c r="E49" s="367"/>
       <c r="F49" s="165"/>
       <c r="G49" s="165"/>
       <c r="H49" s="166"/>
@@ -5418,10 +5412,10 @@
     </row>
     <row r="50" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="165"/>
-      <c r="B50" s="383"/>
-      <c r="C50" s="376"/>
-      <c r="D50" s="384"/>
-      <c r="E50" s="373"/>
+      <c r="B50" s="377"/>
+      <c r="C50" s="370"/>
+      <c r="D50" s="378"/>
+      <c r="E50" s="367"/>
       <c r="F50" s="165"/>
       <c r="G50" s="165"/>
       <c r="H50" s="166"/>
@@ -5438,10 +5432,10 @@
     </row>
     <row r="51" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="165"/>
-      <c r="B51" s="383"/>
-      <c r="C51" s="376"/>
-      <c r="D51" s="384"/>
-      <c r="E51" s="373"/>
+      <c r="B51" s="377"/>
+      <c r="C51" s="370"/>
+      <c r="D51" s="378"/>
+      <c r="E51" s="367"/>
       <c r="F51" s="165"/>
       <c r="G51" s="165"/>
       <c r="H51" s="166"/>
@@ -5458,10 +5452,10 @@
     </row>
     <row r="52" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="165"/>
-      <c r="B52" s="383"/>
-      <c r="C52" s="376"/>
-      <c r="D52" s="384"/>
-      <c r="E52" s="373"/>
+      <c r="B52" s="377"/>
+      <c r="C52" s="370"/>
+      <c r="D52" s="378"/>
+      <c r="E52" s="367"/>
       <c r="F52" s="165"/>
       <c r="G52" s="165"/>
       <c r="H52" s="166"/>
@@ -5478,10 +5472,10 @@
     </row>
     <row r="53" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="165"/>
-      <c r="B53" s="383"/>
-      <c r="C53" s="376"/>
-      <c r="D53" s="384"/>
-      <c r="E53" s="373"/>
+      <c r="B53" s="377"/>
+      <c r="C53" s="370"/>
+      <c r="D53" s="378"/>
+      <c r="E53" s="367"/>
       <c r="F53" s="165"/>
       <c r="G53" s="165"/>
       <c r="H53" s="166"/>
@@ -5498,10 +5492,10 @@
     </row>
     <row r="54" spans="1:18" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="165"/>
-      <c r="B54" s="383"/>
-      <c r="C54" s="376"/>
-      <c r="D54" s="384"/>
-      <c r="E54" s="373"/>
+      <c r="B54" s="377"/>
+      <c r="C54" s="370"/>
+      <c r="D54" s="378"/>
+      <c r="E54" s="367"/>
       <c r="F54" s="165"/>
       <c r="G54" s="165"/>
       <c r="H54" s="166"/>
@@ -5516,12 +5510,12 @@
       <c r="Q54" s="165"/>
       <c r="R54" s="169"/>
     </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="181"/>
-      <c r="B55" s="370"/>
-      <c r="C55" s="375"/>
-      <c r="D55" s="371"/>
-      <c r="E55" s="369"/>
+      <c r="B55" s="364"/>
+      <c r="C55" s="369"/>
+      <c r="D55" s="365"/>
+      <c r="E55" s="363"/>
       <c r="F55" s="181"/>
       <c r="G55" s="181"/>
       <c r="H55" s="183"/>
@@ -5536,12 +5530,12 @@
       <c r="Q55" s="181"/>
       <c r="R55" s="189"/>
     </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="181"/>
-      <c r="B56" s="370"/>
-      <c r="C56" s="375"/>
-      <c r="D56" s="371"/>
-      <c r="E56" s="369"/>
+      <c r="B56" s="364"/>
+      <c r="C56" s="369"/>
+      <c r="D56" s="365"/>
+      <c r="E56" s="363"/>
       <c r="F56" s="181"/>
       <c r="G56" s="181"/>
       <c r="H56" s="183"/>
@@ -5556,10 +5550,10 @@
       <c r="Q56" s="181"/>
       <c r="R56" s="189"/>
     </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="181"/>
       <c r="B57" s="209"/>
-      <c r="C57" s="375"/>
+      <c r="C57" s="369"/>
       <c r="D57" s="181"/>
       <c r="E57" s="181"/>
       <c r="F57" s="181"/>
@@ -5575,10 +5569,10 @@
       <c r="P57" s="183"/>
       <c r="Q57" s="181"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="181"/>
       <c r="B58" s="209"/>
-      <c r="C58" s="375"/>
+      <c r="C58" s="369"/>
       <c r="D58" s="181"/>
       <c r="E58" s="181"/>
       <c r="F58" s="181"/>
@@ -5594,12 +5588,12 @@
       <c r="P58" s="183"/>
       <c r="Q58" s="181"/>
     </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="181"/>
-      <c r="B59" s="370"/>
-      <c r="C59" s="375"/>
-      <c r="D59" s="369"/>
-      <c r="E59" s="369"/>
+      <c r="B59" s="364"/>
+      <c r="C59" s="369"/>
+      <c r="D59" s="363"/>
+      <c r="E59" s="363"/>
       <c r="F59" s="181"/>
       <c r="G59" s="181"/>
       <c r="H59" s="183"/>
@@ -5613,12 +5607,12 @@
       <c r="P59" s="183"/>
       <c r="Q59" s="181"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="181"/>
-      <c r="B60" s="370"/>
-      <c r="C60" s="375"/>
-      <c r="D60" s="369"/>
-      <c r="E60" s="369"/>
+      <c r="B60" s="364"/>
+      <c r="C60" s="369"/>
+      <c r="D60" s="363"/>
+      <c r="E60" s="363"/>
       <c r="F60" s="181"/>
       <c r="G60" s="181"/>
       <c r="H60" s="183"/>
@@ -5632,12 +5626,12 @@
       <c r="P60" s="183"/>
       <c r="Q60" s="181"/>
     </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="181"/>
-      <c r="B61" s="370"/>
-      <c r="C61" s="375"/>
-      <c r="D61" s="369"/>
-      <c r="E61" s="369"/>
+      <c r="B61" s="364"/>
+      <c r="C61" s="369"/>
+      <c r="D61" s="363"/>
+      <c r="E61" s="363"/>
       <c r="F61" s="181"/>
       <c r="G61" s="181"/>
       <c r="H61" s="183"/>
@@ -5651,12 +5645,12 @@
       <c r="P61" s="183"/>
       <c r="Q61" s="181"/>
     </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="181"/>
-      <c r="B62" s="370"/>
-      <c r="C62" s="375"/>
-      <c r="D62" s="371"/>
-      <c r="E62" s="369"/>
+      <c r="B62" s="364"/>
+      <c r="C62" s="369"/>
+      <c r="D62" s="365"/>
+      <c r="E62" s="363"/>
       <c r="F62" s="181"/>
       <c r="G62" s="181"/>
       <c r="H62" s="183"/>
@@ -5672,10 +5666,10 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="181"/>
-      <c r="B63" s="370"/>
-      <c r="C63" s="375"/>
-      <c r="D63" s="371"/>
-      <c r="E63" s="369"/>
+      <c r="B63" s="364"/>
+      <c r="C63" s="369"/>
+      <c r="D63" s="365"/>
+      <c r="E63" s="363"/>
       <c r="F63" s="181"/>
       <c r="G63" s="181"/>
       <c r="H63" s="183"/>
@@ -5692,7 +5686,7 @@
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="181"/>
       <c r="B64" s="182"/>
-      <c r="C64" s="375"/>
+      <c r="C64" s="369"/>
       <c r="D64" s="186"/>
       <c r="E64" s="181"/>
       <c r="F64" s="181"/>
@@ -5710,10 +5704,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="181"/>
-      <c r="B65" s="382"/>
-      <c r="C65" s="375"/>
-      <c r="D65" s="369"/>
-      <c r="E65" s="369"/>
+      <c r="B65" s="376"/>
+      <c r="C65" s="369"/>
+      <c r="D65" s="363"/>
+      <c r="E65" s="363"/>
       <c r="F65" s="181"/>
       <c r="G65" s="181"/>
       <c r="H65" s="183"/>
@@ -5729,10 +5723,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="181"/>
-      <c r="B66" s="382"/>
-      <c r="C66" s="375"/>
-      <c r="D66" s="369"/>
-      <c r="E66" s="369"/>
+      <c r="B66" s="376"/>
+      <c r="C66" s="369"/>
+      <c r="D66" s="363"/>
+      <c r="E66" s="363"/>
       <c r="F66" s="181"/>
       <c r="G66" s="181"/>
       <c r="H66" s="183"/>
@@ -5749,7 +5743,7 @@
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="181"/>
       <c r="B67" s="209"/>
-      <c r="C67" s="375"/>
+      <c r="C67" s="369"/>
       <c r="D67" s="181"/>
       <c r="E67" s="181"/>
       <c r="F67" s="181"/>
@@ -5768,7 +5762,7 @@
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="181"/>
       <c r="B68" s="209"/>
-      <c r="C68" s="375"/>
+      <c r="C68" s="369"/>
       <c r="D68" s="181"/>
       <c r="E68" s="181"/>
       <c r="F68" s="181"/>
@@ -5786,10 +5780,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="181"/>
-      <c r="B69" s="382"/>
-      <c r="C69" s="375"/>
-      <c r="D69" s="371"/>
-      <c r="E69" s="369"/>
+      <c r="B69" s="376"/>
+      <c r="C69" s="369"/>
+      <c r="D69" s="365"/>
+      <c r="E69" s="363"/>
       <c r="F69" s="181"/>
       <c r="G69" s="181"/>
       <c r="H69" s="183"/>
@@ -5805,10 +5799,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="181"/>
-      <c r="B70" s="382"/>
-      <c r="C70" s="375"/>
-      <c r="D70" s="371"/>
-      <c r="E70" s="369"/>
+      <c r="B70" s="376"/>
+      <c r="C70" s="369"/>
+      <c r="D70" s="365"/>
+      <c r="E70" s="363"/>
       <c r="F70" s="181"/>
       <c r="G70" s="181"/>
       <c r="H70" s="183"/>
@@ -5824,10 +5818,10 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="181"/>
-      <c r="B71" s="382"/>
-      <c r="C71" s="375"/>
-      <c r="D71" s="371"/>
-      <c r="E71" s="369"/>
+      <c r="B71" s="376"/>
+      <c r="C71" s="369"/>
+      <c r="D71" s="365"/>
+      <c r="E71" s="363"/>
       <c r="F71" s="181"/>
       <c r="G71" s="181"/>
       <c r="H71" s="183"/>
@@ -5843,10 +5837,10 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="181"/>
-      <c r="B72" s="382"/>
-      <c r="C72" s="375"/>
-      <c r="D72" s="371"/>
-      <c r="E72" s="369"/>
+      <c r="B72" s="376"/>
+      <c r="C72" s="369"/>
+      <c r="D72" s="365"/>
+      <c r="E72" s="363"/>
       <c r="F72" s="181"/>
       <c r="G72" s="181"/>
       <c r="H72" s="183"/>
@@ -5862,10 +5856,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="181"/>
-      <c r="B73" s="382"/>
-      <c r="C73" s="375"/>
-      <c r="D73" s="371"/>
-      <c r="E73" s="369"/>
+      <c r="B73" s="376"/>
+      <c r="C73" s="369"/>
+      <c r="D73" s="365"/>
+      <c r="E73" s="363"/>
       <c r="F73" s="181"/>
       <c r="G73" s="181"/>
       <c r="H73" s="183"/>
@@ -5881,10 +5875,10 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="181"/>
-      <c r="B74" s="382"/>
-      <c r="C74" s="375"/>
-      <c r="D74" s="371"/>
-      <c r="E74" s="369"/>
+      <c r="B74" s="376"/>
+      <c r="C74" s="369"/>
+      <c r="D74" s="365"/>
+      <c r="E74" s="363"/>
       <c r="F74" s="181"/>
       <c r="G74" s="181"/>
       <c r="H74" s="183"/>
@@ -5900,9 +5894,9 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="181"/>
-      <c r="B75" s="382"/>
-      <c r="C75" s="375"/>
-      <c r="D75" s="369"/>
+      <c r="B75" s="376"/>
+      <c r="C75" s="369"/>
+      <c r="D75" s="363"/>
       <c r="E75" s="181"/>
       <c r="F75" s="181"/>
       <c r="G75" s="181"/>
@@ -5919,9 +5913,9 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="181"/>
-      <c r="B76" s="382"/>
-      <c r="C76" s="375"/>
-      <c r="D76" s="369"/>
+      <c r="B76" s="376"/>
+      <c r="C76" s="369"/>
+      <c r="D76" s="363"/>
       <c r="E76" s="181"/>
       <c r="F76" s="181"/>
       <c r="G76" s="181"/>
@@ -5939,7 +5933,7 @@
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="181"/>
       <c r="B77" s="209"/>
-      <c r="C77" s="375"/>
+      <c r="C77" s="369"/>
       <c r="D77" s="181"/>
       <c r="E77" s="181"/>
       <c r="F77" s="181"/>
@@ -5958,7 +5952,7 @@
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="181"/>
       <c r="B78" s="209"/>
-      <c r="C78" s="375"/>
+      <c r="C78" s="369"/>
       <c r="D78" s="181"/>
       <c r="E78" s="181"/>
       <c r="F78" s="181"/>
@@ -5976,10 +5970,10 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="181"/>
-      <c r="B79" s="382"/>
-      <c r="C79" s="375"/>
-      <c r="D79" s="369"/>
-      <c r="E79" s="369"/>
+      <c r="B79" s="376"/>
+      <c r="C79" s="369"/>
+      <c r="D79" s="363"/>
+      <c r="E79" s="363"/>
       <c r="F79" s="181"/>
       <c r="G79" s="181"/>
       <c r="H79" s="183"/>
@@ -5995,10 +5989,10 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="181"/>
-      <c r="B80" s="382"/>
-      <c r="C80" s="375"/>
-      <c r="D80" s="369"/>
-      <c r="E80" s="369"/>
+      <c r="B80" s="376"/>
+      <c r="C80" s="369"/>
+      <c r="D80" s="363"/>
+      <c r="E80" s="363"/>
       <c r="F80" s="181"/>
       <c r="G80" s="181"/>
       <c r="H80" s="183"/>
@@ -6014,10 +6008,10 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="181"/>
-      <c r="B81" s="382"/>
-      <c r="C81" s="375"/>
-      <c r="D81" s="369"/>
-      <c r="E81" s="369"/>
+      <c r="B81" s="376"/>
+      <c r="C81" s="369"/>
+      <c r="D81" s="363"/>
+      <c r="E81" s="363"/>
       <c r="F81" s="181"/>
       <c r="G81" s="181"/>
       <c r="H81" s="183"/>
@@ -6033,10 +6027,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="181"/>
-      <c r="B82" s="382"/>
-      <c r="C82" s="375"/>
-      <c r="D82" s="369"/>
-      <c r="E82" s="369"/>
+      <c r="B82" s="376"/>
+      <c r="C82" s="369"/>
+      <c r="D82" s="363"/>
+      <c r="E82" s="363"/>
       <c r="F82" s="181"/>
       <c r="G82" s="181"/>
       <c r="H82" s="183"/>
@@ -6052,10 +6046,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="181"/>
-      <c r="B83" s="382"/>
-      <c r="C83" s="375"/>
-      <c r="D83" s="369"/>
-      <c r="E83" s="369"/>
+      <c r="B83" s="376"/>
+      <c r="C83" s="369"/>
+      <c r="D83" s="363"/>
+      <c r="E83" s="363"/>
       <c r="F83" s="181"/>
       <c r="G83" s="181"/>
       <c r="H83" s="183"/>
@@ -6071,10 +6065,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="181"/>
-      <c r="B84" s="382"/>
-      <c r="C84" s="375"/>
-      <c r="D84" s="369"/>
-      <c r="E84" s="369"/>
+      <c r="B84" s="376"/>
+      <c r="C84" s="369"/>
+      <c r="D84" s="363"/>
+      <c r="E84" s="363"/>
       <c r="F84" s="181"/>
       <c r="G84" s="181"/>
       <c r="H84" s="183"/>
@@ -6090,15 +6084,15 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="181"/>
-      <c r="B85" s="382"/>
-      <c r="C85" s="375"/>
-      <c r="D85" s="369"/>
-      <c r="E85" s="369"/>
+      <c r="B85" s="376"/>
+      <c r="C85" s="369"/>
+      <c r="D85" s="363"/>
+      <c r="E85" s="363"/>
       <c r="F85" s="181"/>
       <c r="G85" s="181"/>
       <c r="H85" s="183"/>
       <c r="I85" s="183"/>
-      <c r="J85" s="361"/>
+      <c r="J85" s="356"/>
       <c r="K85" s="184"/>
       <c r="L85" s="183"/>
       <c r="M85" s="183"/>
@@ -6109,15 +6103,15 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="181"/>
-      <c r="B86" s="382"/>
-      <c r="C86" s="375"/>
-      <c r="D86" s="369"/>
-      <c r="E86" s="369"/>
+      <c r="B86" s="376"/>
+      <c r="C86" s="369"/>
+      <c r="D86" s="363"/>
+      <c r="E86" s="363"/>
       <c r="F86" s="181"/>
       <c r="G86" s="181"/>
       <c r="H86" s="183"/>
       <c r="I86" s="183"/>
-      <c r="J86" s="362"/>
+      <c r="J86" s="357"/>
       <c r="K86" s="184"/>
       <c r="L86" s="183"/>
       <c r="M86" s="183"/>
@@ -6128,15 +6122,15 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="181"/>
-      <c r="B87" s="382"/>
-      <c r="C87" s="375"/>
-      <c r="D87" s="369"/>
-      <c r="E87" s="369"/>
+      <c r="B87" s="376"/>
+      <c r="C87" s="369"/>
+      <c r="D87" s="363"/>
+      <c r="E87" s="363"/>
       <c r="F87" s="181"/>
       <c r="G87" s="181"/>
       <c r="H87" s="183"/>
       <c r="I87" s="183"/>
-      <c r="J87" s="363"/>
+      <c r="J87" s="358"/>
       <c r="K87" s="184"/>
       <c r="L87" s="183"/>
       <c r="M87" s="183"/>
@@ -6148,7 +6142,7 @@
     <row r="88" spans="1:17" s="168" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="165"/>
       <c r="B88" s="217"/>
-      <c r="C88" s="376"/>
+      <c r="C88" s="370"/>
       <c r="D88" s="165"/>
       <c r="E88" s="165"/>
       <c r="F88" s="165"/>
@@ -6166,15 +6160,15 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="181"/>
-      <c r="B89" s="382"/>
-      <c r="C89" s="375"/>
-      <c r="D89" s="371"/>
-      <c r="E89" s="371"/>
+      <c r="B89" s="376"/>
+      <c r="C89" s="369"/>
+      <c r="D89" s="365"/>
+      <c r="E89" s="365"/>
       <c r="F89" s="181"/>
       <c r="G89" s="181"/>
       <c r="H89" s="183"/>
       <c r="I89" s="183"/>
-      <c r="J89" s="361"/>
+      <c r="J89" s="356"/>
       <c r="K89" s="184"/>
       <c r="L89" s="183"/>
       <c r="M89" s="183"/>
@@ -6185,15 +6179,15 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="181"/>
-      <c r="B90" s="382"/>
-      <c r="C90" s="375"/>
-      <c r="D90" s="371"/>
-      <c r="E90" s="371"/>
+      <c r="B90" s="376"/>
+      <c r="C90" s="369"/>
+      <c r="D90" s="365"/>
+      <c r="E90" s="365"/>
       <c r="F90" s="181"/>
       <c r="G90" s="181"/>
       <c r="H90" s="183"/>
       <c r="I90" s="183"/>
-      <c r="J90" s="362"/>
+      <c r="J90" s="357"/>
       <c r="K90" s="184"/>
       <c r="L90" s="183"/>
       <c r="M90" s="183"/>
@@ -6204,15 +6198,15 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="181"/>
-      <c r="B91" s="382"/>
-      <c r="C91" s="375"/>
-      <c r="D91" s="371"/>
-      <c r="E91" s="371"/>
+      <c r="B91" s="376"/>
+      <c r="C91" s="369"/>
+      <c r="D91" s="365"/>
+      <c r="E91" s="365"/>
       <c r="F91" s="181"/>
       <c r="G91" s="181"/>
       <c r="H91" s="183"/>
       <c r="I91" s="183"/>
-      <c r="J91" s="362"/>
+      <c r="J91" s="357"/>
       <c r="K91" s="184"/>
       <c r="L91" s="183"/>
       <c r="M91" s="183"/>
@@ -6223,15 +6217,15 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="181"/>
-      <c r="B92" s="382"/>
-      <c r="C92" s="375"/>
-      <c r="D92" s="371"/>
-      <c r="E92" s="371"/>
+      <c r="B92" s="376"/>
+      <c r="C92" s="369"/>
+      <c r="D92" s="365"/>
+      <c r="E92" s="365"/>
       <c r="F92" s="181"/>
       <c r="G92" s="181"/>
       <c r="H92" s="183"/>
       <c r="I92" s="183"/>
-      <c r="J92" s="363"/>
+      <c r="J92" s="358"/>
       <c r="K92" s="184"/>
       <c r="L92" s="183"/>
       <c r="M92" s="183"/>
@@ -6243,7 +6237,7 @@
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="181"/>
       <c r="B93" s="209"/>
-      <c r="C93" s="375"/>
+      <c r="C93" s="369"/>
       <c r="D93" s="181"/>
       <c r="E93" s="181"/>
       <c r="F93" s="181"/>
@@ -6261,10 +6255,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="181"/>
-      <c r="B94" s="382"/>
-      <c r="C94" s="375"/>
-      <c r="D94" s="369"/>
-      <c r="E94" s="369"/>
+      <c r="B94" s="376"/>
+      <c r="C94" s="369"/>
+      <c r="D94" s="363"/>
+      <c r="E94" s="363"/>
       <c r="F94" s="181"/>
       <c r="G94" s="181"/>
       <c r="H94" s="183"/>
@@ -6280,10 +6274,10 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="181"/>
-      <c r="B95" s="382"/>
-      <c r="C95" s="375"/>
-      <c r="D95" s="369"/>
-      <c r="E95" s="369"/>
+      <c r="B95" s="376"/>
+      <c r="C95" s="369"/>
+      <c r="D95" s="363"/>
+      <c r="E95" s="363"/>
       <c r="F95" s="181"/>
       <c r="G95" s="181"/>
       <c r="H95" s="183"/>
@@ -6299,10 +6293,10 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="181"/>
-      <c r="B96" s="382"/>
-      <c r="C96" s="375"/>
-      <c r="D96" s="369"/>
-      <c r="E96" s="369"/>
+      <c r="B96" s="376"/>
+      <c r="C96" s="369"/>
+      <c r="D96" s="363"/>
+      <c r="E96" s="363"/>
       <c r="F96" s="181"/>
       <c r="G96" s="181"/>
       <c r="H96" s="183"/>
@@ -6318,10 +6312,10 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="181"/>
-      <c r="B97" s="382"/>
-      <c r="C97" s="375"/>
-      <c r="D97" s="369"/>
-      <c r="E97" s="369"/>
+      <c r="B97" s="376"/>
+      <c r="C97" s="369"/>
+      <c r="D97" s="363"/>
+      <c r="E97" s="363"/>
       <c r="F97" s="181"/>
       <c r="G97" s="181"/>
       <c r="H97" s="183"/>
@@ -6338,7 +6332,7 @@
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="181"/>
       <c r="B98" s="209"/>
-      <c r="C98" s="375"/>
+      <c r="C98" s="369"/>
       <c r="D98" s="181"/>
       <c r="E98" s="181"/>
       <c r="F98" s="181"/>
@@ -6357,7 +6351,7 @@
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="181"/>
       <c r="B99" s="209"/>
-      <c r="C99" s="375"/>
+      <c r="C99" s="369"/>
       <c r="D99" s="181"/>
       <c r="E99" s="181"/>
       <c r="F99" s="181"/>
@@ -6376,7 +6370,7 @@
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="181"/>
       <c r="B100" s="209"/>
-      <c r="C100" s="375"/>
+      <c r="C100" s="369"/>
       <c r="D100" s="181"/>
       <c r="E100" s="181"/>
       <c r="F100" s="181"/>
@@ -6395,7 +6389,7 @@
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="181"/>
       <c r="B101" s="209"/>
-      <c r="C101" s="375"/>
+      <c r="C101" s="369"/>
       <c r="D101" s="181"/>
       <c r="E101" s="181"/>
       <c r="F101" s="181"/>
@@ -6413,10 +6407,10 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="181"/>
-      <c r="B102" s="370"/>
-      <c r="C102" s="375"/>
-      <c r="D102" s="369"/>
-      <c r="E102" s="369"/>
+      <c r="B102" s="364"/>
+      <c r="C102" s="369"/>
+      <c r="D102" s="363"/>
+      <c r="E102" s="363"/>
       <c r="F102" s="181"/>
       <c r="G102" s="181"/>
       <c r="H102" s="183"/>
@@ -6432,10 +6426,10 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="181"/>
-      <c r="B103" s="370"/>
-      <c r="C103" s="375"/>
-      <c r="D103" s="369"/>
-      <c r="E103" s="369"/>
+      <c r="B103" s="364"/>
+      <c r="C103" s="369"/>
+      <c r="D103" s="363"/>
+      <c r="E103" s="363"/>
       <c r="F103" s="181"/>
       <c r="G103" s="181"/>
       <c r="H103" s="183"/>
@@ -6451,10 +6445,10 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="181"/>
-      <c r="B104" s="370"/>
-      <c r="C104" s="375"/>
-      <c r="D104" s="369"/>
-      <c r="E104" s="369"/>
+      <c r="B104" s="364"/>
+      <c r="C104" s="369"/>
+      <c r="D104" s="363"/>
+      <c r="E104" s="363"/>
       <c r="F104" s="181"/>
       <c r="G104" s="181"/>
       <c r="H104" s="183"/>
@@ -6470,10 +6464,10 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="181"/>
-      <c r="B105" s="370"/>
-      <c r="C105" s="375"/>
-      <c r="D105" s="369"/>
-      <c r="E105" s="369"/>
+      <c r="B105" s="364"/>
+      <c r="C105" s="369"/>
+      <c r="D105" s="363"/>
+      <c r="E105" s="363"/>
       <c r="F105" s="181"/>
       <c r="G105" s="181"/>
       <c r="H105" s="183"/>
@@ -6489,10 +6483,10 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="181"/>
-      <c r="B106" s="370"/>
-      <c r="C106" s="375"/>
-      <c r="D106" s="369"/>
-      <c r="E106" s="369"/>
+      <c r="B106" s="364"/>
+      <c r="C106" s="369"/>
+      <c r="D106" s="363"/>
+      <c r="E106" s="363"/>
       <c r="F106" s="181"/>
       <c r="G106" s="181"/>
       <c r="H106" s="183"/>
@@ -6508,10 +6502,10 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="181"/>
-      <c r="B107" s="370"/>
-      <c r="C107" s="375"/>
-      <c r="D107" s="369"/>
-      <c r="E107" s="369"/>
+      <c r="B107" s="364"/>
+      <c r="C107" s="369"/>
+      <c r="D107" s="363"/>
+      <c r="E107" s="363"/>
       <c r="F107" s="181"/>
       <c r="G107" s="181"/>
       <c r="H107" s="183"/>
@@ -6527,10 +6521,10 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="181"/>
-      <c r="B108" s="370"/>
-      <c r="C108" s="375"/>
-      <c r="D108" s="369"/>
-      <c r="E108" s="369"/>
+      <c r="B108" s="364"/>
+      <c r="C108" s="369"/>
+      <c r="D108" s="363"/>
+      <c r="E108" s="363"/>
       <c r="F108" s="181"/>
       <c r="G108" s="181"/>
       <c r="H108" s="183"/>
@@ -6547,7 +6541,7 @@
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="181"/>
       <c r="B109" s="182"/>
-      <c r="C109" s="375"/>
+      <c r="C109" s="369"/>
       <c r="D109" s="181"/>
       <c r="E109" s="181"/>
       <c r="F109" s="181"/>
@@ -6565,10 +6559,10 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="181"/>
-      <c r="B110" s="370"/>
-      <c r="C110" s="375"/>
-      <c r="D110" s="369"/>
-      <c r="E110" s="369"/>
+      <c r="B110" s="364"/>
+      <c r="C110" s="369"/>
+      <c r="D110" s="363"/>
+      <c r="E110" s="363"/>
       <c r="F110" s="181"/>
       <c r="G110" s="181"/>
       <c r="H110" s="183"/>
@@ -6584,10 +6578,10 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="181"/>
-      <c r="B111" s="370"/>
-      <c r="C111" s="375"/>
-      <c r="D111" s="369"/>
-      <c r="E111" s="369"/>
+      <c r="B111" s="364"/>
+      <c r="C111" s="369"/>
+      <c r="D111" s="363"/>
+      <c r="E111" s="363"/>
       <c r="F111" s="181"/>
       <c r="G111" s="181"/>
       <c r="H111" s="183"/>
@@ -6603,10 +6597,10 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="181"/>
-      <c r="B112" s="370"/>
-      <c r="C112" s="375"/>
-      <c r="D112" s="369"/>
-      <c r="E112" s="369"/>
+      <c r="B112" s="364"/>
+      <c r="C112" s="369"/>
+      <c r="D112" s="363"/>
+      <c r="E112" s="363"/>
       <c r="F112" s="181"/>
       <c r="G112" s="181"/>
       <c r="H112" s="183"/>
@@ -6622,10 +6616,10 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="181"/>
-      <c r="B113" s="370"/>
-      <c r="C113" s="375"/>
-      <c r="D113" s="369"/>
-      <c r="E113" s="369"/>
+      <c r="B113" s="364"/>
+      <c r="C113" s="369"/>
+      <c r="D113" s="363"/>
+      <c r="E113" s="363"/>
       <c r="F113" s="181"/>
       <c r="G113" s="181"/>
       <c r="H113" s="183"/>
@@ -6641,10 +6635,10 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="181"/>
-      <c r="B114" s="370"/>
-      <c r="C114" s="375"/>
-      <c r="D114" s="369"/>
-      <c r="E114" s="369"/>
+      <c r="B114" s="364"/>
+      <c r="C114" s="369"/>
+      <c r="D114" s="363"/>
+      <c r="E114" s="363"/>
       <c r="F114" s="181"/>
       <c r="G114" s="181"/>
       <c r="H114" s="183"/>
@@ -6661,7 +6655,7 @@
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="181"/>
       <c r="B115" s="182"/>
-      <c r="C115" s="375"/>
+      <c r="C115" s="369"/>
       <c r="D115" s="181"/>
       <c r="E115" s="181"/>
       <c r="F115" s="181"/>
@@ -6680,7 +6674,7 @@
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="181"/>
       <c r="B116" s="182"/>
-      <c r="C116" s="375"/>
+      <c r="C116" s="369"/>
       <c r="D116" s="181"/>
       <c r="E116" s="181"/>
       <c r="F116" s="181"/>
@@ -6697,14 +6691,14 @@
       <c r="Q116" s="181"/>
     </row>
     <row r="117" spans="1:18" s="196" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="409" t="s">
-        <v>86</v>
-      </c>
-      <c r="B117" s="409"/>
-      <c r="C117" s="409"/>
-      <c r="D117" s="409"/>
-      <c r="E117" s="409"/>
-      <c r="F117" s="409"/>
+      <c r="A117" s="417" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" s="417"/>
+      <c r="C117" s="417"/>
+      <c r="D117" s="417"/>
+      <c r="E117" s="417"/>
+      <c r="F117" s="417"/>
       <c r="G117" s="190">
         <f>SUM(G9:G116)</f>
         <v>459</v>
@@ -6724,18 +6718,18 @@
       <c r="N117" s="191"/>
       <c r="O117" s="191"/>
       <c r="P117" s="191"/>
-      <c r="Q117" s="410"/>
-      <c r="R117" s="407"/>
+      <c r="Q117" s="418"/>
+      <c r="R117" s="415"/>
     </row>
     <row r="118" spans="1:18" s="196" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="408" t="s">
-        <v>133</v>
-      </c>
-      <c r="B118" s="408"/>
-      <c r="C118" s="408"/>
-      <c r="D118" s="408"/>
-      <c r="E118" s="408"/>
-      <c r="F118" s="408"/>
+      <c r="A118" s="416" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="416"/>
+      <c r="C118" s="416"/>
+      <c r="D118" s="416"/>
+      <c r="E118" s="416"/>
+      <c r="F118" s="416"/>
       <c r="G118" s="190">
         <f>G117</f>
         <v>459</v>
@@ -6752,18 +6746,18 @@
       <c r="N118" s="193"/>
       <c r="O118" s="193"/>
       <c r="P118" s="193"/>
-      <c r="Q118" s="410"/>
-      <c r="R118" s="407"/>
+      <c r="Q118" s="418"/>
+      <c r="R118" s="415"/>
     </row>
     <row r="119" spans="1:18" s="196" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="408" t="s">
-        <v>87</v>
-      </c>
-      <c r="B119" s="408"/>
-      <c r="C119" s="408"/>
-      <c r="D119" s="408"/>
-      <c r="E119" s="408"/>
-      <c r="F119" s="408"/>
+      <c r="A119" s="416" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="416"/>
+      <c r="C119" s="416"/>
+      <c r="D119" s="416"/>
+      <c r="E119" s="416"/>
+      <c r="F119" s="416"/>
       <c r="G119" s="197" t="s">
         <v>50</v>
       </c>
@@ -6781,14 +6775,14 @@
       <c r="P119" s="193"/>
     </row>
     <row r="120" spans="1:18" s="196" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="408" t="s">
-        <v>88</v>
-      </c>
-      <c r="B120" s="408"/>
-      <c r="C120" s="408"/>
-      <c r="D120" s="408"/>
-      <c r="E120" s="408"/>
-      <c r="F120" s="408"/>
+      <c r="A120" s="416" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" s="416"/>
+      <c r="C120" s="416"/>
+      <c r="D120" s="416"/>
+      <c r="E120" s="416"/>
+      <c r="F120" s="416"/>
       <c r="G120" s="197"/>
       <c r="H120" s="193"/>
       <c r="I120" s="191"/>
@@ -6804,14 +6798,14 @@
       <c r="P120" s="193"/>
     </row>
     <row r="121" spans="1:18" s="196" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="408" t="s">
-        <v>89</v>
-      </c>
-      <c r="B121" s="408"/>
-      <c r="C121" s="408"/>
-      <c r="D121" s="408"/>
-      <c r="E121" s="408"/>
-      <c r="F121" s="408"/>
+      <c r="A121" s="416" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" s="416"/>
+      <c r="C121" s="416"/>
+      <c r="D121" s="416"/>
+      <c r="E121" s="416"/>
+      <c r="F121" s="416"/>
       <c r="G121" s="197"/>
       <c r="H121" s="193"/>
       <c r="I121" s="191"/>
@@ -6827,9 +6821,9 @@
       <c r="P121" s="193"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C124" s="377"/>
+      <c r="C124" s="371"/>
       <c r="E124" s="201" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F124" s="201"/>
       <c r="G124" s="201"/>
@@ -6846,7 +6840,7 @@
       <c r="P124" s="203"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C125" s="378"/>
+      <c r="C125" s="372"/>
       <c r="E125" s="204" t="s">
         <v>15</v>
       </c>
@@ -6866,7 +6860,7 @@
     </row>
     <row r="128" spans="1:18" s="135" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B128" s="206"/>
-      <c r="C128" s="377"/>
+      <c r="C128" s="371"/>
       <c r="E128" s="201"/>
       <c r="F128" s="134"/>
       <c r="G128" s="134"/>
@@ -6894,11 +6888,36 @@
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="E23:E30"/>
-    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="Q117:Q118"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A4:Q4"/>
@@ -6915,36 +6934,11 @@
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="Q117:Q118"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="C23:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7033,14 +7027,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="430" t="s">
+      <c r="A4" s="426" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="430"/>
-      <c r="C4" s="430"/>
-      <c r="D4" s="430"/>
-      <c r="E4" s="430"/>
-      <c r="F4" s="430"/>
+      <c r="B4" s="426"/>
+      <c r="C4" s="426"/>
+      <c r="D4" s="426"/>
+      <c r="E4" s="426"/>
+      <c r="F4" s="426"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -7054,14 +7048,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="431" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="431"/>
-      <c r="C5" s="431"/>
-      <c r="D5" s="431"/>
-      <c r="E5" s="431"/>
-      <c r="F5" s="431"/>
+      <c r="A5" s="427" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="427"/>
+      <c r="C5" s="427"/>
+      <c r="D5" s="427"/>
+      <c r="E5" s="427"/>
+      <c r="F5" s="427"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -7206,7 +7200,7 @@
     <row r="11" spans="1:17" s="73" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="147"/>
       <c r="B11" s="154" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="156"/>
       <c r="D11" s="155">
@@ -7314,17 +7308,17 @@
         <v>23</v>
       </c>
       <c r="C16" s="30"/>
-      <c r="D16" s="348"/>
+      <c r="D16" s="343"/>
       <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="345" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="346"/>
-      <c r="D17" s="349"/>
-      <c r="E17" s="347"/>
+      <c r="B17" s="340" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="341"/>
+      <c r="D17" s="344"/>
+      <c r="E17" s="342"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
@@ -7334,7 +7328,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="349"/>
+      <c r="D18" s="344"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -7345,7 +7339,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="23"/>
-      <c r="D19" s="349"/>
+      <c r="D19" s="344"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -7353,10 +7347,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="349"/>
+      <c r="D20" s="344"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -7367,7 +7361,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="23"/>
-      <c r="D21" s="349"/>
+      <c r="D21" s="344"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -7378,7 +7372,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="23"/>
-      <c r="D22" s="349"/>
+      <c r="D22" s="344"/>
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -7389,7 +7383,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="350"/>
+      <c r="D23" s="345"/>
       <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7401,19 +7395,19 @@
         <f>SUM(C16:C23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="351">
+      <c r="D24" s="346">
         <f>SUM(D16:D23)</f>
         <v>0</v>
       </c>
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="432" t="s">
+      <c r="A25" s="428" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="432"/>
+      <c r="B25" s="428"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="351">
+      <c r="D25" s="346">
         <f>C24-D24</f>
         <v>0</v>
       </c>
@@ -7421,7 +7415,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
@@ -7498,13 +7492,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="443" t="s">
+      <c r="A1" s="429" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="443"/>
-      <c r="C1" s="443"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
       <c r="H1" s="74"/>
@@ -7532,141 +7526,141 @@
       <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="434" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="434"/>
-      <c r="C4" s="434"/>
-      <c r="D4" s="434"/>
-      <c r="E4" s="434"/>
-      <c r="F4" s="434"/>
-      <c r="G4" s="434"/>
-      <c r="H4" s="434"/>
-      <c r="I4" s="434"/>
-      <c r="J4" s="434"/>
-      <c r="K4" s="434"/>
-      <c r="L4" s="434"/>
-      <c r="M4" s="434"/>
-      <c r="N4" s="434"/>
-      <c r="O4" s="434"/>
-      <c r="P4" s="434"/>
+      <c r="A4" s="430" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="430"/>
+      <c r="C4" s="430"/>
+      <c r="D4" s="430"/>
+      <c r="E4" s="430"/>
+      <c r="F4" s="430"/>
+      <c r="G4" s="430"/>
+      <c r="H4" s="430"/>
+      <c r="I4" s="430"/>
+      <c r="J4" s="430"/>
+      <c r="K4" s="430"/>
+      <c r="L4" s="430"/>
+      <c r="M4" s="430"/>
+      <c r="N4" s="430"/>
+      <c r="O4" s="430"/>
+      <c r="P4" s="430"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="446"/>
-      <c r="B5" s="446"/>
-      <c r="C5" s="446"/>
-      <c r="D5" s="446"/>
-      <c r="E5" s="446"/>
-      <c r="F5" s="446"/>
-      <c r="G5" s="446"/>
-      <c r="H5" s="446"/>
-      <c r="I5" s="446"/>
-      <c r="J5" s="446"/>
-      <c r="K5" s="446"/>
-      <c r="L5" s="446"/>
-      <c r="M5" s="446"/>
-      <c r="N5" s="446"/>
-      <c r="O5" s="446"/>
-      <c r="P5" s="446"/>
+      <c r="A5" s="433"/>
+      <c r="B5" s="433"/>
+      <c r="C5" s="433"/>
+      <c r="D5" s="433"/>
+      <c r="E5" s="433"/>
+      <c r="F5" s="433"/>
+      <c r="G5" s="433"/>
+      <c r="H5" s="433"/>
+      <c r="I5" s="433"/>
+      <c r="J5" s="433"/>
+      <c r="K5" s="433"/>
+      <c r="L5" s="433"/>
+      <c r="M5" s="433"/>
+      <c r="N5" s="433"/>
+      <c r="O5" s="433"/>
+      <c r="P5" s="433"/>
     </row>
     <row r="6" spans="1:16" s="178" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="425" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="439" t="s">
+      <c r="A6" s="406" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="435" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="425" t="s">
+      <c r="C6" s="406" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="425" t="s">
+      <c r="D6" s="406" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="425"/>
-      <c r="F6" s="426" t="s">
+      <c r="E6" s="406"/>
+      <c r="F6" s="407" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="426"/>
-      <c r="H6" s="426"/>
-      <c r="I6" s="426"/>
-      <c r="J6" s="426"/>
-      <c r="K6" s="426"/>
-      <c r="L6" s="426"/>
-      <c r="M6" s="427"/>
-      <c r="N6" s="427"/>
-      <c r="O6" s="427"/>
-      <c r="P6" s="444" t="s">
+      <c r="G6" s="407"/>
+      <c r="H6" s="407"/>
+      <c r="I6" s="407"/>
+      <c r="J6" s="407"/>
+      <c r="K6" s="407"/>
+      <c r="L6" s="407"/>
+      <c r="M6" s="408"/>
+      <c r="N6" s="408"/>
+      <c r="O6" s="408"/>
+      <c r="P6" s="431" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="178" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="425"/>
-      <c r="B7" s="439"/>
-      <c r="C7" s="425"/>
-      <c r="D7" s="425" t="s">
+      <c r="A7" s="406"/>
+      <c r="B7" s="435"/>
+      <c r="C7" s="406"/>
+      <c r="D7" s="406" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="425" t="s">
+      <c r="E7" s="406" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="425" t="s">
+      <c r="F7" s="406" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="425" t="s">
+      <c r="G7" s="406" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="445" t="s">
+      <c r="H7" s="432" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="445" t="s">
+      <c r="I7" s="432" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="418" t="s">
+      <c r="J7" s="414" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="418"/>
-      <c r="L7" s="445" t="s">
+      <c r="K7" s="414"/>
+      <c r="L7" s="432" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="445" t="s">
+      <c r="M7" s="432" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="445" t="s">
+      <c r="N7" s="432" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="445" t="s">
+      <c r="O7" s="432" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="444"/>
+      <c r="P7" s="431"/>
     </row>
     <row r="8" spans="1:16" s="178" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="425"/>
-      <c r="B8" s="439"/>
-      <c r="C8" s="425"/>
-      <c r="D8" s="425"/>
-      <c r="E8" s="425"/>
-      <c r="F8" s="425"/>
-      <c r="G8" s="425"/>
-      <c r="H8" s="445"/>
-      <c r="I8" s="445"/>
+      <c r="A8" s="406"/>
+      <c r="B8" s="435"/>
+      <c r="C8" s="406"/>
+      <c r="D8" s="406"/>
+      <c r="E8" s="406"/>
+      <c r="F8" s="406"/>
+      <c r="G8" s="406"/>
+      <c r="H8" s="432"/>
+      <c r="I8" s="432"/>
       <c r="J8" s="238" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K8" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="445"/>
-      <c r="M8" s="445"/>
-      <c r="N8" s="445"/>
-      <c r="O8" s="445"/>
-      <c r="P8" s="444"/>
+      <c r="L8" s="432"/>
+      <c r="M8" s="432"/>
+      <c r="N8" s="432"/>
+      <c r="O8" s="432"/>
+      <c r="P8" s="431"/>
     </row>
     <row r="9" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="354"/>
-      <c r="B9" s="357"/>
-      <c r="C9" s="354"/>
-      <c r="D9" s="354"/>
-      <c r="E9" s="354"/>
+      <c r="A9" s="349"/>
+      <c r="B9" s="352"/>
+      <c r="C9" s="349"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
       <c r="F9" s="235"/>
       <c r="G9" s="235"/>
       <c r="H9" s="219"/>
@@ -7680,11 +7674,11 @@
       <c r="P9" s="235"/>
     </row>
     <row r="10" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="355"/>
-      <c r="B10" s="358"/>
-      <c r="C10" s="355"/>
-      <c r="D10" s="355"/>
-      <c r="E10" s="355"/>
+      <c r="A10" s="350"/>
+      <c r="B10" s="353"/>
+      <c r="C10" s="350"/>
+      <c r="D10" s="350"/>
+      <c r="E10" s="350"/>
       <c r="F10" s="236"/>
       <c r="G10" s="236"/>
       <c r="H10" s="221"/>
@@ -7698,11 +7692,11 @@
       <c r="P10" s="236"/>
     </row>
     <row r="11" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="356"/>
-      <c r="B11" s="359"/>
-      <c r="C11" s="356"/>
-      <c r="D11" s="356"/>
-      <c r="E11" s="356"/>
+      <c r="A11" s="351"/>
+      <c r="B11" s="354"/>
+      <c r="C11" s="351"/>
+      <c r="D11" s="351"/>
+      <c r="E11" s="351"/>
       <c r="F11" s="237"/>
       <c r="G11" s="237"/>
       <c r="H11" s="223"/>
@@ -7788,11 +7782,11 @@
       <c r="P15" s="181"/>
     </row>
     <row r="16" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="354"/>
-      <c r="B16" s="364"/>
-      <c r="C16" s="354"/>
-      <c r="D16" s="354"/>
-      <c r="E16" s="354"/>
+      <c r="A16" s="349"/>
+      <c r="B16" s="359"/>
+      <c r="C16" s="349"/>
+      <c r="D16" s="349"/>
+      <c r="E16" s="349"/>
       <c r="F16" s="235"/>
       <c r="G16" s="235"/>
       <c r="H16" s="219"/>
@@ -7806,11 +7800,11 @@
       <c r="P16" s="235"/>
     </row>
     <row r="17" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="356"/>
-      <c r="B17" s="365"/>
-      <c r="C17" s="356"/>
-      <c r="D17" s="356"/>
-      <c r="E17" s="356"/>
+      <c r="A17" s="351"/>
+      <c r="B17" s="360"/>
+      <c r="C17" s="351"/>
+      <c r="D17" s="351"/>
+      <c r="E17" s="351"/>
       <c r="F17" s="237"/>
       <c r="G17" s="237"/>
       <c r="H17" s="223"/>
@@ -7860,16 +7854,16 @@
       <c r="P19" s="181"/>
     </row>
     <row r="20" spans="1:16" s="185" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="354"/>
-      <c r="B20" s="364"/>
-      <c r="C20" s="354"/>
-      <c r="D20" s="354"/>
-      <c r="E20" s="354"/>
+      <c r="A20" s="349"/>
+      <c r="B20" s="359"/>
+      <c r="C20" s="349"/>
+      <c r="D20" s="349"/>
+      <c r="E20" s="349"/>
       <c r="F20" s="235"/>
       <c r="G20" s="235"/>
       <c r="H20" s="219"/>
       <c r="I20" s="219"/>
-      <c r="J20" s="440"/>
+      <c r="J20" s="436"/>
       <c r="K20" s="220"/>
       <c r="L20" s="219"/>
       <c r="M20" s="219"/>
@@ -7878,16 +7872,16 @@
       <c r="P20" s="235"/>
     </row>
     <row r="21" spans="1:16" s="185" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="355"/>
-      <c r="B21" s="366"/>
-      <c r="C21" s="355"/>
-      <c r="D21" s="355"/>
-      <c r="E21" s="355"/>
+      <c r="A21" s="350"/>
+      <c r="B21" s="361"/>
+      <c r="C21" s="350"/>
+      <c r="D21" s="350"/>
+      <c r="E21" s="350"/>
       <c r="F21" s="236"/>
       <c r="G21" s="236"/>
       <c r="H21" s="221"/>
       <c r="I21" s="221"/>
-      <c r="J21" s="441"/>
+      <c r="J21" s="437"/>
       <c r="K21" s="222"/>
       <c r="L21" s="221"/>
       <c r="M21" s="221"/>
@@ -7896,16 +7890,16 @@
       <c r="P21" s="236"/>
     </row>
     <row r="22" spans="1:16" s="185" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="356"/>
-      <c r="B22" s="365"/>
-      <c r="C22" s="356"/>
-      <c r="D22" s="356"/>
-      <c r="E22" s="356"/>
+      <c r="A22" s="351"/>
+      <c r="B22" s="360"/>
+      <c r="C22" s="351"/>
+      <c r="D22" s="351"/>
+      <c r="E22" s="351"/>
       <c r="F22" s="237"/>
       <c r="G22" s="237"/>
       <c r="H22" s="223"/>
       <c r="I22" s="223"/>
-      <c r="J22" s="442"/>
+      <c r="J22" s="438"/>
       <c r="K22" s="224"/>
       <c r="L22" s="223"/>
       <c r="M22" s="223"/>
@@ -7932,11 +7926,11 @@
       <c r="P23" s="181"/>
     </row>
     <row r="24" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="354"/>
-      <c r="B24" s="364"/>
-      <c r="C24" s="354"/>
-      <c r="D24" s="354"/>
-      <c r="E24" s="354"/>
+      <c r="A24" s="349"/>
+      <c r="B24" s="359"/>
+      <c r="C24" s="349"/>
+      <c r="D24" s="349"/>
+      <c r="E24" s="349"/>
       <c r="F24" s="235"/>
       <c r="G24" s="235"/>
       <c r="H24" s="219"/>
@@ -7950,11 +7944,11 @@
       <c r="P24" s="235"/>
     </row>
     <row r="25" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="356"/>
-      <c r="B25" s="365"/>
-      <c r="C25" s="356"/>
-      <c r="D25" s="356"/>
-      <c r="E25" s="356"/>
+      <c r="A25" s="351"/>
+      <c r="B25" s="360"/>
+      <c r="C25" s="351"/>
+      <c r="D25" s="351"/>
+      <c r="E25" s="351"/>
       <c r="F25" s="237"/>
       <c r="G25" s="237"/>
       <c r="H25" s="223"/>
@@ -7968,11 +7962,11 @@
       <c r="P25" s="237"/>
     </row>
     <row r="26" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="354"/>
-      <c r="B26" s="364"/>
-      <c r="C26" s="354"/>
-      <c r="D26" s="354"/>
-      <c r="E26" s="354"/>
+      <c r="A26" s="349"/>
+      <c r="B26" s="359"/>
+      <c r="C26" s="349"/>
+      <c r="D26" s="349"/>
+      <c r="E26" s="349"/>
       <c r="F26" s="235"/>
       <c r="G26" s="235"/>
       <c r="H26" s="219"/>
@@ -7986,11 +7980,11 @@
       <c r="P26" s="235"/>
     </row>
     <row r="27" spans="1:16" s="185" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="356"/>
-      <c r="B27" s="365"/>
-      <c r="C27" s="356"/>
-      <c r="D27" s="356"/>
-      <c r="E27" s="356"/>
+      <c r="A27" s="351"/>
+      <c r="B27" s="360"/>
+      <c r="C27" s="351"/>
+      <c r="D27" s="351"/>
+      <c r="E27" s="351"/>
       <c r="F27" s="237"/>
       <c r="G27" s="237"/>
       <c r="H27" s="223"/>
@@ -8014,7 +8008,7 @@
       <c r="H28" s="228"/>
       <c r="I28" s="228"/>
       <c r="J28" s="228"/>
-      <c r="K28" s="284"/>
+      <c r="K28" s="279"/>
       <c r="L28" s="228"/>
       <c r="M28" s="228"/>
       <c r="N28" s="228"/>
@@ -8032,7 +8026,7 @@
       <c r="H29" s="228"/>
       <c r="I29" s="228"/>
       <c r="J29" s="228"/>
-      <c r="K29" s="284"/>
+      <c r="K29" s="279"/>
       <c r="L29" s="228"/>
       <c r="M29" s="228"/>
       <c r="N29" s="228"/>
@@ -8050,7 +8044,7 @@
       <c r="H30" s="228"/>
       <c r="I30" s="228"/>
       <c r="J30" s="228"/>
-      <c r="K30" s="284"/>
+      <c r="K30" s="279"/>
       <c r="L30" s="228"/>
       <c r="M30" s="228"/>
       <c r="N30" s="228"/>
@@ -8068,272 +8062,272 @@
       <c r="H31" s="228"/>
       <c r="I31" s="228"/>
       <c r="J31" s="228"/>
-      <c r="K31" s="284"/>
+      <c r="K31" s="279"/>
       <c r="L31" s="228"/>
       <c r="M31" s="228"/>
       <c r="N31" s="228"/>
       <c r="O31" s="228"/>
       <c r="P31" s="230"/>
     </row>
-    <row r="32" spans="1:16" s="285" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="435" t="s">
+    <row r="32" spans="1:16" s="280" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="440" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="436"/>
-      <c r="C32" s="436"/>
-      <c r="D32" s="436"/>
-      <c r="E32" s="436"/>
-      <c r="F32" s="436"/>
-      <c r="G32" s="436"/>
-      <c r="H32" s="437"/>
-      <c r="I32" s="286">
+      <c r="B32" s="441"/>
+      <c r="C32" s="441"/>
+      <c r="D32" s="441"/>
+      <c r="E32" s="441"/>
+      <c r="F32" s="441"/>
+      <c r="G32" s="441"/>
+      <c r="H32" s="442"/>
+      <c r="I32" s="281">
         <f>SUM(I9:I31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="287"/>
-      <c r="K32" s="287"/>
-      <c r="L32" s="286">
+      <c r="J32" s="282"/>
+      <c r="K32" s="282"/>
+      <c r="L32" s="281">
         <f>SUM(L9:L31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="287"/>
-      <c r="N32" s="286">
+      <c r="M32" s="282"/>
+      <c r="N32" s="281">
         <f>SUM(N9:N31)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="286">
+      <c r="O32" s="281">
         <f>SUM(O9:O31)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="287"/>
-    </row>
-    <row r="33" spans="1:15" s="293" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="291"/>
-      <c r="B33" s="291"/>
-      <c r="C33" s="291"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="291"/>
-      <c r="F33" s="291"/>
-      <c r="G33" s="291"/>
-      <c r="H33" s="291"/>
-      <c r="I33" s="292"/>
-      <c r="L33" s="292"/>
-      <c r="N33" s="292"/>
-      <c r="O33" s="292"/>
-    </row>
-    <row r="34" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="291"/>
-      <c r="B34" s="291"/>
-      <c r="C34" s="434" t="s">
+      <c r="P32" s="282"/>
+    </row>
+    <row r="33" spans="1:15" s="288" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="286"/>
+      <c r="B33" s="286"/>
+      <c r="C33" s="286"/>
+      <c r="D33" s="286"/>
+      <c r="E33" s="286"/>
+      <c r="F33" s="286"/>
+      <c r="G33" s="286"/>
+      <c r="H33" s="286"/>
+      <c r="I33" s="287"/>
+      <c r="L33" s="287"/>
+      <c r="N33" s="287"/>
+      <c r="O33" s="287"/>
+    </row>
+    <row r="34" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="286"/>
+      <c r="B34" s="286"/>
+      <c r="C34" s="430" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="430"/>
+      <c r="E34" s="430"/>
+      <c r="F34" s="286"/>
+      <c r="G34" s="286"/>
+      <c r="H34" s="286"/>
+      <c r="I34" s="287"/>
+      <c r="L34" s="287"/>
+      <c r="M34" s="439" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="434"/>
-      <c r="E34" s="434"/>
-      <c r="F34" s="291"/>
-      <c r="G34" s="291"/>
-      <c r="H34" s="291"/>
-      <c r="I34" s="292"/>
-      <c r="L34" s="292"/>
-      <c r="M34" s="433" t="s">
-        <v>125</v>
-      </c>
-      <c r="N34" s="433"/>
-      <c r="O34" s="292"/>
-    </row>
-    <row r="35" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="352"/>
-      <c r="B35" s="352"/>
-      <c r="C35" s="352"/>
-      <c r="D35" s="352"/>
-      <c r="E35" s="352"/>
-      <c r="F35" s="352"/>
-      <c r="G35" s="352"/>
-      <c r="H35" s="352"/>
-      <c r="I35" s="292"/>
-      <c r="L35" s="292"/>
-      <c r="M35" s="353"/>
-      <c r="N35" s="353"/>
-      <c r="O35" s="292"/>
-    </row>
-    <row r="36" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="352"/>
-      <c r="B36" s="352"/>
-      <c r="C36" s="352"/>
-      <c r="D36" s="352"/>
-      <c r="E36" s="352"/>
-      <c r="F36" s="352"/>
-      <c r="G36" s="352"/>
-      <c r="H36" s="352"/>
-      <c r="I36" s="292"/>
-      <c r="L36" s="292"/>
-      <c r="M36" s="353"/>
-      <c r="N36" s="353"/>
-      <c r="O36" s="292"/>
-    </row>
-    <row r="37" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="352"/>
-      <c r="B37" s="352"/>
-      <c r="C37" s="352"/>
-      <c r="D37" s="352"/>
-      <c r="E37" s="352"/>
-      <c r="F37" s="352"/>
-      <c r="G37" s="352"/>
-      <c r="H37" s="352"/>
-      <c r="I37" s="292"/>
-      <c r="L37" s="292"/>
-      <c r="M37" s="353"/>
-      <c r="N37" s="353"/>
-      <c r="O37" s="292"/>
-    </row>
-    <row r="38" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="352"/>
-      <c r="B38" s="352"/>
-      <c r="C38" s="352"/>
-      <c r="D38" s="352"/>
-      <c r="E38" s="352"/>
-      <c r="F38" s="352"/>
-      <c r="G38" s="352"/>
-      <c r="H38" s="352"/>
-      <c r="I38" s="292"/>
-      <c r="L38" s="292"/>
-      <c r="M38" s="353"/>
-      <c r="N38" s="353"/>
-      <c r="O38" s="292"/>
-    </row>
-    <row r="39" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="352"/>
-      <c r="B39" s="352"/>
-      <c r="C39" s="352"/>
-      <c r="D39" s="352"/>
-      <c r="E39" s="352"/>
-      <c r="F39" s="352"/>
-      <c r="G39" s="352"/>
-      <c r="H39" s="352"/>
-      <c r="I39" s="292"/>
-      <c r="L39" s="292"/>
-      <c r="M39" s="353"/>
-      <c r="N39" s="353"/>
-      <c r="O39" s="292"/>
-    </row>
-    <row r="40" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="352"/>
-      <c r="B40" s="352"/>
-      <c r="C40" s="352"/>
-      <c r="D40" s="352"/>
-      <c r="E40" s="352"/>
-      <c r="F40" s="352"/>
-      <c r="G40" s="352"/>
-      <c r="H40" s="352"/>
-      <c r="I40" s="292"/>
-      <c r="L40" s="292"/>
-      <c r="M40" s="353"/>
-      <c r="N40" s="353"/>
-      <c r="O40" s="292"/>
-    </row>
-    <row r="41" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="352"/>
-      <c r="B41" s="352"/>
-      <c r="C41" s="352"/>
-      <c r="D41" s="352"/>
-      <c r="E41" s="352"/>
-      <c r="F41" s="352"/>
-      <c r="G41" s="352"/>
-      <c r="H41" s="352"/>
-      <c r="I41" s="292"/>
-      <c r="L41" s="292"/>
-      <c r="M41" s="353"/>
-      <c r="N41" s="353"/>
-      <c r="O41" s="292"/>
-    </row>
-    <row r="42" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="352"/>
-      <c r="B42" s="352"/>
-      <c r="C42" s="352"/>
-      <c r="D42" s="352"/>
-      <c r="E42" s="352"/>
-      <c r="F42" s="352"/>
-      <c r="G42" s="352"/>
-      <c r="H42" s="352"/>
-      <c r="I42" s="292"/>
-      <c r="L42" s="292"/>
-      <c r="M42" s="353"/>
-      <c r="N42" s="353"/>
-      <c r="O42" s="292"/>
-    </row>
-    <row r="43" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="352"/>
-      <c r="B43" s="352"/>
-      <c r="C43" s="352"/>
-      <c r="D43" s="352"/>
-      <c r="E43" s="352"/>
-      <c r="F43" s="352"/>
-      <c r="G43" s="352"/>
-      <c r="H43" s="352"/>
-      <c r="I43" s="292"/>
-      <c r="L43" s="292"/>
-      <c r="M43" s="353"/>
-      <c r="N43" s="353"/>
-      <c r="O43" s="292"/>
-    </row>
-    <row r="44" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="352"/>
-      <c r="B44" s="352"/>
-      <c r="C44" s="352"/>
-      <c r="D44" s="352"/>
-      <c r="E44" s="352"/>
-      <c r="F44" s="352"/>
-      <c r="G44" s="352"/>
-      <c r="H44" s="352"/>
-      <c r="I44" s="292"/>
-      <c r="L44" s="292"/>
-      <c r="M44" s="353"/>
-      <c r="N44" s="353"/>
-      <c r="O44" s="292"/>
-    </row>
-    <row r="45" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="352"/>
-      <c r="B45" s="352"/>
-      <c r="C45" s="352"/>
-      <c r="D45" s="352"/>
-      <c r="E45" s="352"/>
-      <c r="F45" s="352"/>
-      <c r="G45" s="352"/>
-      <c r="H45" s="352"/>
-      <c r="I45" s="292"/>
-      <c r="L45" s="292"/>
-      <c r="M45" s="353"/>
-      <c r="N45" s="353"/>
-      <c r="O45" s="292"/>
-    </row>
-    <row r="46" spans="1:15" s="293" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="291"/>
-      <c r="B46" s="291"/>
-      <c r="C46" s="291"/>
-      <c r="D46" s="291"/>
-      <c r="E46" s="291"/>
-      <c r="F46" s="291"/>
-      <c r="G46" s="291"/>
-      <c r="H46" s="291"/>
-      <c r="I46" s="292"/>
-      <c r="L46" s="292"/>
-      <c r="N46" s="292"/>
-      <c r="O46" s="292"/>
+      <c r="N34" s="439"/>
+      <c r="O34" s="287"/>
+    </row>
+    <row r="35" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="347"/>
+      <c r="B35" s="347"/>
+      <c r="C35" s="347"/>
+      <c r="D35" s="347"/>
+      <c r="E35" s="347"/>
+      <c r="F35" s="347"/>
+      <c r="G35" s="347"/>
+      <c r="H35" s="347"/>
+      <c r="I35" s="287"/>
+      <c r="L35" s="287"/>
+      <c r="M35" s="348"/>
+      <c r="N35" s="348"/>
+      <c r="O35" s="287"/>
+    </row>
+    <row r="36" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="347"/>
+      <c r="B36" s="347"/>
+      <c r="C36" s="347"/>
+      <c r="D36" s="347"/>
+      <c r="E36" s="347"/>
+      <c r="F36" s="347"/>
+      <c r="G36" s="347"/>
+      <c r="H36" s="347"/>
+      <c r="I36" s="287"/>
+      <c r="L36" s="287"/>
+      <c r="M36" s="348"/>
+      <c r="N36" s="348"/>
+      <c r="O36" s="287"/>
+    </row>
+    <row r="37" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="347"/>
+      <c r="B37" s="347"/>
+      <c r="C37" s="347"/>
+      <c r="D37" s="347"/>
+      <c r="E37" s="347"/>
+      <c r="F37" s="347"/>
+      <c r="G37" s="347"/>
+      <c r="H37" s="347"/>
+      <c r="I37" s="287"/>
+      <c r="L37" s="287"/>
+      <c r="M37" s="348"/>
+      <c r="N37" s="348"/>
+      <c r="O37" s="287"/>
+    </row>
+    <row r="38" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="347"/>
+      <c r="B38" s="347"/>
+      <c r="C38" s="347"/>
+      <c r="D38" s="347"/>
+      <c r="E38" s="347"/>
+      <c r="F38" s="347"/>
+      <c r="G38" s="347"/>
+      <c r="H38" s="347"/>
+      <c r="I38" s="287"/>
+      <c r="L38" s="287"/>
+      <c r="M38" s="348"/>
+      <c r="N38" s="348"/>
+      <c r="O38" s="287"/>
+    </row>
+    <row r="39" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="347"/>
+      <c r="B39" s="347"/>
+      <c r="C39" s="347"/>
+      <c r="D39" s="347"/>
+      <c r="E39" s="347"/>
+      <c r="F39" s="347"/>
+      <c r="G39" s="347"/>
+      <c r="H39" s="347"/>
+      <c r="I39" s="287"/>
+      <c r="L39" s="287"/>
+      <c r="M39" s="348"/>
+      <c r="N39" s="348"/>
+      <c r="O39" s="287"/>
+    </row>
+    <row r="40" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="347"/>
+      <c r="B40" s="347"/>
+      <c r="C40" s="347"/>
+      <c r="D40" s="347"/>
+      <c r="E40" s="347"/>
+      <c r="F40" s="347"/>
+      <c r="G40" s="347"/>
+      <c r="H40" s="347"/>
+      <c r="I40" s="287"/>
+      <c r="L40" s="287"/>
+      <c r="M40" s="348"/>
+      <c r="N40" s="348"/>
+      <c r="O40" s="287"/>
+    </row>
+    <row r="41" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="347"/>
+      <c r="B41" s="347"/>
+      <c r="C41" s="347"/>
+      <c r="D41" s="347"/>
+      <c r="E41" s="347"/>
+      <c r="F41" s="347"/>
+      <c r="G41" s="347"/>
+      <c r="H41" s="347"/>
+      <c r="I41" s="287"/>
+      <c r="L41" s="287"/>
+      <c r="M41" s="348"/>
+      <c r="N41" s="348"/>
+      <c r="O41" s="287"/>
+    </row>
+    <row r="42" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="347"/>
+      <c r="B42" s="347"/>
+      <c r="C42" s="347"/>
+      <c r="D42" s="347"/>
+      <c r="E42" s="347"/>
+      <c r="F42" s="347"/>
+      <c r="G42" s="347"/>
+      <c r="H42" s="347"/>
+      <c r="I42" s="287"/>
+      <c r="L42" s="287"/>
+      <c r="M42" s="348"/>
+      <c r="N42" s="348"/>
+      <c r="O42" s="287"/>
+    </row>
+    <row r="43" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="347"/>
+      <c r="B43" s="347"/>
+      <c r="C43" s="347"/>
+      <c r="D43" s="347"/>
+      <c r="E43" s="347"/>
+      <c r="F43" s="347"/>
+      <c r="G43" s="347"/>
+      <c r="H43" s="347"/>
+      <c r="I43" s="287"/>
+      <c r="L43" s="287"/>
+      <c r="M43" s="348"/>
+      <c r="N43" s="348"/>
+      <c r="O43" s="287"/>
+    </row>
+    <row r="44" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="347"/>
+      <c r="B44" s="347"/>
+      <c r="C44" s="347"/>
+      <c r="D44" s="347"/>
+      <c r="E44" s="347"/>
+      <c r="F44" s="347"/>
+      <c r="G44" s="347"/>
+      <c r="H44" s="347"/>
+      <c r="I44" s="287"/>
+      <c r="L44" s="287"/>
+      <c r="M44" s="348"/>
+      <c r="N44" s="348"/>
+      <c r="O44" s="287"/>
+    </row>
+    <row r="45" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="347"/>
+      <c r="B45" s="347"/>
+      <c r="C45" s="347"/>
+      <c r="D45" s="347"/>
+      <c r="E45" s="347"/>
+      <c r="F45" s="347"/>
+      <c r="G45" s="347"/>
+      <c r="H45" s="347"/>
+      <c r="I45" s="287"/>
+      <c r="L45" s="287"/>
+      <c r="M45" s="348"/>
+      <c r="N45" s="348"/>
+      <c r="O45" s="287"/>
+    </row>
+    <row r="46" spans="1:15" s="288" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="286"/>
+      <c r="B46" s="286"/>
+      <c r="C46" s="286"/>
+      <c r="D46" s="286"/>
+      <c r="E46" s="286"/>
+      <c r="F46" s="286"/>
+      <c r="G46" s="286"/>
+      <c r="H46" s="286"/>
+      <c r="I46" s="287"/>
+      <c r="L46" s="287"/>
+      <c r="N46" s="287"/>
+      <c r="O46" s="287"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="113"/>
-      <c r="B47" s="434" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="434"/>
-      <c r="D47" s="434"/>
+      <c r="B47" s="430" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="430"/>
+      <c r="D47" s="430"/>
       <c r="E47" s="113"/>
       <c r="F47" s="113"/>
       <c r="G47" s="113"/>
       <c r="H47" s="113"/>
-      <c r="I47" s="434" t="s">
-        <v>125</v>
-      </c>
-      <c r="J47" s="434"/>
+      <c r="I47" s="430" t="s">
+        <v>122</v>
+      </c>
+      <c r="J47" s="430"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="113"/>
@@ -8344,7 +8338,7 @@
       <c r="F48" s="113"/>
       <c r="G48" s="113"/>
       <c r="H48" s="113"/>
-      <c r="I48" s="288"/>
+      <c r="I48" s="283"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="113"/>
@@ -8355,7 +8349,7 @@
       <c r="F49" s="113"/>
       <c r="G49" s="113"/>
       <c r="H49" s="113"/>
-      <c r="I49" s="288"/>
+      <c r="I49" s="283"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="113"/>
@@ -8366,7 +8360,7 @@
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
       <c r="H50" s="113"/>
-      <c r="I50" s="288"/>
+      <c r="I50" s="283"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="113"/>
@@ -8377,7 +8371,7 @@
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
       <c r="H51" s="113"/>
-      <c r="I51" s="288"/>
+      <c r="I51" s="283"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="113"/>
@@ -8388,7 +8382,7 @@
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
       <c r="H52" s="113"/>
-      <c r="I52" s="288"/>
+      <c r="I52" s="283"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="113"/>
@@ -8399,7 +8393,7 @@
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
       <c r="H53" s="113"/>
-      <c r="I53" s="288"/>
+      <c r="I53" s="283"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="117"/>
@@ -8410,22 +8404,22 @@
       <c r="F54" s="117"/>
       <c r="G54" s="117"/>
       <c r="H54" s="117"/>
-      <c r="I54" s="289"/>
+      <c r="I54" s="284"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="438"/>
-      <c r="B55" s="438"/>
+      <c r="A55" s="434"/>
+      <c r="B55" s="434"/>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H57" s="290"/>
+      <c r="H57" s="285"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="438"/>
-      <c r="B59" s="438"/>
+      <c r="A59" s="434"/>
+      <c r="B59" s="434"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
@@ -8433,6 +8427,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="P6:P8"/>
@@ -8449,19 +8456,6 @@
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A55:B55"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8472,14 +8466,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5546875" style="241" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="241" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="241" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="242" customWidth="1"/>
     <col min="4" max="4" width="3.33203125" style="242" customWidth="1"/>
     <col min="5" max="34" width="2.5546875" style="241" customWidth="1"/>
@@ -9002,16 +8996,16 @@
       <c r="C1" s="240"/>
       <c r="D1" s="240"/>
       <c r="E1" s="240"/>
-      <c r="Z1" s="452" t="s">
+      <c r="Z1" s="461" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="453"/>
-      <c r="AB1" s="453"/>
-      <c r="AC1" s="453"/>
-      <c r="AD1" s="453"/>
-      <c r="AE1" s="453"/>
-      <c r="AF1" s="453"/>
-      <c r="AG1" s="454"/>
+      <c r="AA1" s="462"/>
+      <c r="AB1" s="462"/>
+      <c r="AC1" s="462"/>
+      <c r="AD1" s="462"/>
+      <c r="AE1" s="462"/>
+      <c r="AF1" s="462"/>
+      <c r="AG1" s="463"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="243" t="s">
@@ -9021,81 +9015,81 @@
       <c r="C2" s="244"/>
       <c r="D2" s="244"/>
       <c r="E2" s="244"/>
-      <c r="Z2" s="447" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" s="448"/>
-      <c r="AB2" s="448"/>
-      <c r="AC2" s="448"/>
-      <c r="AD2" s="448"/>
-      <c r="AE2" s="449"/>
-      <c r="AF2" s="450" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG2" s="451"/>
+      <c r="Z2" s="444" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" s="445"/>
+      <c r="AB2" s="445"/>
+      <c r="AC2" s="445"/>
+      <c r="AD2" s="445"/>
+      <c r="AE2" s="446"/>
+      <c r="AF2" s="447" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" s="448"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="243" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" s="92"/>
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
       <c r="E3" s="92"/>
-      <c r="Z3" s="447" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA3" s="448"/>
-      <c r="AB3" s="448"/>
-      <c r="AC3" s="448"/>
-      <c r="AD3" s="448"/>
-      <c r="AE3" s="449"/>
-      <c r="AF3" s="450" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG3" s="451"/>
+      <c r="Z3" s="444" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="445"/>
+      <c r="AB3" s="445"/>
+      <c r="AC3" s="445"/>
+      <c r="AD3" s="445"/>
+      <c r="AE3" s="446"/>
+      <c r="AF3" s="447" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG3" s="448"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="243" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="92"/>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
       <c r="E4" s="92"/>
-      <c r="Z4" s="447" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA4" s="448"/>
-      <c r="AB4" s="448"/>
-      <c r="AC4" s="448"/>
-      <c r="AD4" s="448"/>
-      <c r="AE4" s="449"/>
-      <c r="AF4" s="450" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG4" s="451"/>
+      <c r="Z4" s="444" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="445"/>
+      <c r="AB4" s="445"/>
+      <c r="AC4" s="445"/>
+      <c r="AD4" s="445"/>
+      <c r="AE4" s="446"/>
+      <c r="AF4" s="447" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG4" s="448"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="243" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
       <c r="D5" s="92"/>
       <c r="E5" s="92"/>
-      <c r="Z5" s="447" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA5" s="448"/>
-      <c r="AB5" s="448"/>
-      <c r="AC5" s="448"/>
-      <c r="AD5" s="448"/>
-      <c r="AE5" s="449"/>
-      <c r="AF5" s="450" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG5" s="451"/>
+      <c r="Z5" s="444" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA5" s="445"/>
+      <c r="AB5" s="445"/>
+      <c r="AC5" s="445"/>
+      <c r="AD5" s="445"/>
+      <c r="AE5" s="446"/>
+      <c r="AF5" s="447" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG5" s="448"/>
     </row>
     <row r="6" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="245"/>
@@ -9105,94 +9099,94 @@
       <c r="E6" s="245"/>
     </row>
     <row r="7" spans="1:40" s="248" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="456" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="456"/>
-      <c r="C7" s="456"/>
-      <c r="D7" s="456"/>
-      <c r="E7" s="456"/>
-      <c r="F7" s="456"/>
-      <c r="G7" s="456"/>
-      <c r="H7" s="456"/>
-      <c r="I7" s="456"/>
-      <c r="J7" s="456"/>
-      <c r="K7" s="456"/>
-      <c r="L7" s="456"/>
-      <c r="M7" s="456"/>
-      <c r="N7" s="456"/>
-      <c r="O7" s="456"/>
-      <c r="P7" s="456"/>
-      <c r="Q7" s="456"/>
-      <c r="R7" s="456"/>
-      <c r="S7" s="456"/>
-      <c r="T7" s="456"/>
-      <c r="U7" s="456"/>
-      <c r="V7" s="456"/>
-      <c r="W7" s="456"/>
-      <c r="X7" s="456"/>
-      <c r="Y7" s="456"/>
-      <c r="Z7" s="456"/>
-      <c r="AA7" s="456"/>
-      <c r="AB7" s="456"/>
-      <c r="AC7" s="456"/>
-      <c r="AD7" s="456"/>
-      <c r="AE7" s="456"/>
-      <c r="AF7" s="456"/>
-      <c r="AG7" s="456"/>
-      <c r="AH7" s="456"/>
-      <c r="AI7" s="456"/>
-      <c r="AJ7" s="456"/>
-      <c r="AK7" s="456"/>
-      <c r="AL7" s="456"/>
-      <c r="AM7" s="456"/>
+      <c r="A7" s="449" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="449"/>
+      <c r="C7" s="449"/>
+      <c r="D7" s="449"/>
+      <c r="E7" s="449"/>
+      <c r="F7" s="449"/>
+      <c r="G7" s="449"/>
+      <c r="H7" s="449"/>
+      <c r="I7" s="449"/>
+      <c r="J7" s="449"/>
+      <c r="K7" s="449"/>
+      <c r="L7" s="449"/>
+      <c r="M7" s="449"/>
+      <c r="N7" s="449"/>
+      <c r="O7" s="449"/>
+      <c r="P7" s="449"/>
+      <c r="Q7" s="449"/>
+      <c r="R7" s="449"/>
+      <c r="S7" s="449"/>
+      <c r="T7" s="449"/>
+      <c r="U7" s="449"/>
+      <c r="V7" s="449"/>
+      <c r="W7" s="449"/>
+      <c r="X7" s="449"/>
+      <c r="Y7" s="449"/>
+      <c r="Z7" s="449"/>
+      <c r="AA7" s="449"/>
+      <c r="AB7" s="449"/>
+      <c r="AC7" s="449"/>
+      <c r="AD7" s="449"/>
+      <c r="AE7" s="449"/>
+      <c r="AF7" s="449"/>
+      <c r="AG7" s="449"/>
+      <c r="AH7" s="449"/>
+      <c r="AI7" s="449"/>
+      <c r="AJ7" s="449"/>
+      <c r="AK7" s="449"/>
+      <c r="AL7" s="449"/>
+      <c r="AM7" s="449"/>
       <c r="AN7" s="247"/>
     </row>
     <row r="9" spans="1:40" s="253" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="457" t="s">
+      <c r="A9" s="450" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="450" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="450" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="453" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="457" t="s">
+      <c r="E9" s="454"/>
+      <c r="F9" s="454"/>
+      <c r="G9" s="454"/>
+      <c r="H9" s="454"/>
+      <c r="I9" s="454"/>
+      <c r="J9" s="454"/>
+      <c r="K9" s="454"/>
+      <c r="L9" s="454"/>
+      <c r="M9" s="454"/>
+      <c r="N9" s="454"/>
+      <c r="O9" s="454"/>
+      <c r="P9" s="454"/>
+      <c r="Q9" s="454"/>
+      <c r="R9" s="454"/>
+      <c r="S9" s="454"/>
+      <c r="T9" s="454"/>
+      <c r="U9" s="454"/>
+      <c r="V9" s="454"/>
+      <c r="W9" s="454"/>
+      <c r="X9" s="454"/>
+      <c r="Y9" s="454"/>
+      <c r="Z9" s="454"/>
+      <c r="AA9" s="454"/>
+      <c r="AB9" s="454"/>
+      <c r="AC9" s="454"/>
+      <c r="AD9" s="454"/>
+      <c r="AE9" s="454"/>
+      <c r="AF9" s="454"/>
+      <c r="AG9" s="454"/>
+      <c r="AH9" s="455"/>
+      <c r="AI9" s="456" t="s">
         <v>109</v>
-      </c>
-      <c r="C9" s="457" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="460" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="461"/>
-      <c r="F9" s="461"/>
-      <c r="G9" s="461"/>
-      <c r="H9" s="461"/>
-      <c r="I9" s="461"/>
-      <c r="J9" s="461"/>
-      <c r="K9" s="461"/>
-      <c r="L9" s="461"/>
-      <c r="M9" s="461"/>
-      <c r="N9" s="461"/>
-      <c r="O9" s="461"/>
-      <c r="P9" s="461"/>
-      <c r="Q9" s="461"/>
-      <c r="R9" s="461"/>
-      <c r="S9" s="461"/>
-      <c r="T9" s="461"/>
-      <c r="U9" s="461"/>
-      <c r="V9" s="461"/>
-      <c r="W9" s="461"/>
-      <c r="X9" s="461"/>
-      <c r="Y9" s="461"/>
-      <c r="Z9" s="461"/>
-      <c r="AA9" s="461"/>
-      <c r="AB9" s="461"/>
-      <c r="AC9" s="461"/>
-      <c r="AD9" s="461"/>
-      <c r="AE9" s="461"/>
-      <c r="AF9" s="461"/>
-      <c r="AG9" s="461"/>
-      <c r="AH9" s="462"/>
-      <c r="AI9" s="463" t="s">
-        <v>112</v>
       </c>
       <c r="AJ9" s="249"/>
       <c r="AK9" s="250"/>
@@ -9201,9 +9195,9 @@
       <c r="AN9" s="252"/>
     </row>
     <row r="10" spans="1:40" s="253" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="458"/>
-      <c r="B10" s="458"/>
-      <c r="C10" s="458"/>
+      <c r="A10" s="451"/>
+      <c r="B10" s="451"/>
+      <c r="C10" s="451"/>
       <c r="D10" s="254">
         <v>1</v>
       </c>
@@ -9297,7 +9291,7 @@
       <c r="AH10" s="254">
         <v>31</v>
       </c>
-      <c r="AI10" s="463"/>
+      <c r="AI10" s="456"/>
       <c r="AJ10" s="255"/>
       <c r="AK10" s="251"/>
       <c r="AL10" s="251"/>
@@ -9305,202 +9299,202 @@
       <c r="AN10" s="252"/>
     </row>
     <row r="11" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="459"/>
-      <c r="B11" s="459"/>
-      <c r="C11" s="459"/>
+      <c r="A11" s="452"/>
+      <c r="B11" s="452"/>
+      <c r="C11" s="452"/>
       <c r="D11" s="254" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="256" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="254" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="256" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="256" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="254" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="256" t="s">
-        <v>119</v>
-      </c>
       <c r="H11" s="258" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="259" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="257" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="254" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="259" t="s">
+      <c r="L11" s="256" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="257" t="s">
+      <c r="M11" s="254" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="254" t="s">
+      <c r="N11" s="256" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="256" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="254" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" s="256" t="s">
-        <v>119</v>
-      </c>
       <c r="O11" s="258" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="259" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q11" s="257" t="s">
+        <v>112</v>
+      </c>
+      <c r="R11" s="254" t="s">
         <v>113</v>
       </c>
-      <c r="P11" s="259" t="s">
+      <c r="S11" s="256" t="s">
         <v>114</v>
       </c>
-      <c r="Q11" s="257" t="s">
+      <c r="T11" s="254" t="s">
         <v>115</v>
       </c>
-      <c r="R11" s="254" t="s">
+      <c r="U11" s="256" t="s">
         <v>116</v>
       </c>
-      <c r="S11" s="256" t="s">
-        <v>117</v>
-      </c>
-      <c r="T11" s="254" t="s">
-        <v>118</v>
-      </c>
-      <c r="U11" s="256" t="s">
-        <v>119</v>
-      </c>
       <c r="V11" s="258" t="s">
+        <v>110</v>
+      </c>
+      <c r="W11" s="259" t="s">
+        <v>111</v>
+      </c>
+      <c r="X11" s="257" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y11" s="254" t="s">
         <v>113</v>
       </c>
-      <c r="W11" s="259" t="s">
+      <c r="Z11" s="256" t="s">
         <v>114</v>
       </c>
-      <c r="X11" s="257" t="s">
+      <c r="AA11" s="254" t="s">
         <v>115</v>
       </c>
-      <c r="Y11" s="254" t="s">
+      <c r="AB11" s="256" t="s">
         <v>116</v>
       </c>
-      <c r="Z11" s="256" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA11" s="254" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB11" s="256" t="s">
-        <v>119</v>
-      </c>
       <c r="AC11" s="258" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD11" s="259" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE11" s="257" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF11" s="256" t="s">
         <v>113</v>
       </c>
-      <c r="AD11" s="259" t="s">
+      <c r="AG11" s="256" t="s">
         <v>114</v>
       </c>
-      <c r="AE11" s="257" t="s">
+      <c r="AH11" s="256" t="s">
         <v>115</v>
       </c>
-      <c r="AF11" s="256" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG11" s="256" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH11" s="256" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI11" s="463"/>
+      <c r="AI11" s="456"/>
       <c r="AJ11" s="260"/>
       <c r="AN11" s="262"/>
     </row>
     <row r="12" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="294">
+      <c r="A12" s="289">
         <v>1</v>
       </c>
-      <c r="B12" s="294" t="s">
+      <c r="B12" s="289" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="294" t="s">
+      <c r="C12" s="289" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="263" t="s">
+      <c r="D12" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="263" t="s">
+      <c r="J12" s="516"/>
+      <c r="K12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="265" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="264"/>
-      <c r="K12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="265" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q12" s="264"/>
-      <c r="R12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="S12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="T12" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="U12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="V12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="W12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="X12" s="264"/>
-      <c r="Y12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA12" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC12" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD12" s="266" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE12" s="268"/>
-      <c r="AF12" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG12" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH12" s="367" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI12" s="267">
+      <c r="Q12" s="516"/>
+      <c r="R12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="W12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="X12" s="516"/>
+      <c r="Y12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA12" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC12" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD12" s="517" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE12" s="518"/>
+      <c r="AF12" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG12" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH12" s="519" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI12" s="263">
         <f>COUNTIF(D12:AH12,"x")+ COUNTIF(D12:AH12,"x/2")/2+COUNTIF(D12:AH12,"CT")+COUNTIF(D12:AH12,"TT")</f>
         <v>26</v>
       </c>
@@ -9508,502 +9502,512 @@
       <c r="AN12" s="262"/>
     </row>
     <row r="13" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="294">
+      <c r="A13" s="289">
         <v>3</v>
       </c>
-      <c r="B13" s="297" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="296" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="263"/>
-      <c r="E13" s="263"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="263"/>
-      <c r="H13" s="265"/>
-      <c r="I13" s="265"/>
-      <c r="J13" s="264"/>
-      <c r="K13" s="265" t="s">
+      <c r="B13" s="292" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="291" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="259"/>
+      <c r="J13" s="516"/>
+      <c r="K13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="L13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="265" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q13" s="264"/>
-      <c r="R13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="S13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="T13" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="U13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="V13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="W13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="X13" s="264"/>
-      <c r="Y13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA13" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD13" s="266" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE13" s="268"/>
-      <c r="AF13" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG13" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH13" s="367" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI13" s="267">
+      <c r="Q13" s="516" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="U13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="V13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="W13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="X13" s="516"/>
+      <c r="Y13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA13" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC13" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD13" s="517" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE13" s="518"/>
+      <c r="AF13" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG13" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH13" s="519" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI13" s="263">
         <f t="shared" ref="AI13:AI16" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="AJ13" s="260"/>
       <c r="AN13" s="262"/>
     </row>
     <row r="14" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="294">
+      <c r="A14" s="289">
         <v>4</v>
       </c>
-      <c r="B14" s="295" t="s">
+      <c r="B14" s="290" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="296" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="263" t="s">
+      <c r="C14" s="291" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="263" t="s">
+      <c r="J14" s="516" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="263" t="s">
+      <c r="Q14" s="516"/>
+      <c r="R14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="T14" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="U14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="W14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" s="516"/>
+      <c r="Y14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA14" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC14" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD14" s="517" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE14" s="518"/>
+      <c r="AF14" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG14" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH14" s="519" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI14" s="263">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AJ14" s="260"/>
+      <c r="AN14" s="262"/>
+    </row>
+    <row r="15" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="289">
+        <v>5</v>
+      </c>
+      <c r="B15" s="289" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="291" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="263" t="s">
+      <c r="J15" s="516"/>
+      <c r="K15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="265" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="264"/>
-      <c r="K14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="265" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="264"/>
-      <c r="R14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="S14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="T14" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="U14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="V14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="W14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="X14" s="264"/>
-      <c r="Y14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA14" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC14" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD14" s="266" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE14" s="268"/>
-      <c r="AF14" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG14" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH14" s="367" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI14" s="267">
+      <c r="Q15" s="516"/>
+      <c r="R15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="T15" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="U15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="V15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="W15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="X15" s="516"/>
+      <c r="Y15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA15" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC15" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD15" s="517" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE15" s="518"/>
+      <c r="AF15" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG15" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH15" s="519" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI15" s="263">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AJ14" s="260"/>
-      <c r="AN14" s="262"/>
-    </row>
-    <row r="15" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="294">
-        <v>5</v>
-      </c>
-      <c r="B15" s="294" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="296" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="265" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="264"/>
-      <c r="K15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="M15" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="N15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" s="265" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="264"/>
-      <c r="R15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="S15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="T15" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="U15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="V15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="W15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="X15" s="264"/>
-      <c r="Y15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA15" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC15" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD15" s="266" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE15" s="268"/>
-      <c r="AF15" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG15" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH15" s="367" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI15" s="267">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
       <c r="AJ15" s="260"/>
       <c r="AN15" s="262"/>
     </row>
     <row r="16" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="294">
+      <c r="A16" s="289">
         <v>6</v>
       </c>
-      <c r="B16" s="294" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="296"/>
-      <c r="D16" s="263" t="s">
+      <c r="B16" s="289" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="291" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="263" t="s">
+      <c r="J16" s="516"/>
+      <c r="K16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="265" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="264"/>
-      <c r="K16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="M16" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="N16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="P16" s="265" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q16" s="264"/>
-      <c r="R16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="S16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="T16" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="U16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="V16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="W16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="X16" s="264"/>
-      <c r="Y16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA16" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC16" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD16" s="266" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE16" s="268"/>
-      <c r="AF16" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG16" s="263" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH16" s="367" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI16" s="267">
+      <c r="Q16" s="516"/>
+      <c r="R16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="T16" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="U16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="V16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="W16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="X16" s="516" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA16" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC16" s="259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD16" s="517" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE16" s="518" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF16" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG16" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH16" s="519" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI16" s="263">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ16" s="260"/>
       <c r="AN16" s="262"/>
     </row>
     <row r="17" spans="1:40" s="261" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="464" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="465"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="270"/>
-      <c r="F17" s="270"/>
-      <c r="G17" s="270"/>
-      <c r="H17" s="270"/>
-      <c r="I17" s="270"/>
-      <c r="J17" s="270"/>
-      <c r="K17" s="270"/>
-      <c r="L17" s="270"/>
-      <c r="M17" s="270"/>
-      <c r="N17" s="270"/>
-      <c r="O17" s="270"/>
-      <c r="P17" s="270"/>
-      <c r="Q17" s="270"/>
-      <c r="R17" s="270"/>
-      <c r="S17" s="270"/>
-      <c r="T17" s="270"/>
-      <c r="U17" s="270"/>
-      <c r="V17" s="270"/>
-      <c r="W17" s="270"/>
-      <c r="X17" s="270"/>
-      <c r="Y17" s="270"/>
-      <c r="Z17" s="270"/>
-      <c r="AA17" s="270"/>
-      <c r="AB17" s="270"/>
-      <c r="AC17" s="270"/>
-      <c r="AD17" s="270"/>
-      <c r="AE17" s="270"/>
-      <c r="AF17" s="270"/>
-      <c r="AG17" s="270"/>
-      <c r="AH17" s="270"/>
-      <c r="AI17" s="271">
+      <c r="A17" s="457" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="458"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="265"/>
+      <c r="F17" s="265"/>
+      <c r="G17" s="265"/>
+      <c r="H17" s="265"/>
+      <c r="I17" s="265"/>
+      <c r="J17" s="265"/>
+      <c r="K17" s="265"/>
+      <c r="L17" s="265"/>
+      <c r="M17" s="265"/>
+      <c r="N17" s="265"/>
+      <c r="O17" s="265"/>
+      <c r="P17" s="265"/>
+      <c r="Q17" s="265"/>
+      <c r="R17" s="265"/>
+      <c r="S17" s="265"/>
+      <c r="T17" s="265"/>
+      <c r="U17" s="265"/>
+      <c r="V17" s="265"/>
+      <c r="W17" s="265"/>
+      <c r="X17" s="265"/>
+      <c r="Y17" s="265"/>
+      <c r="Z17" s="265"/>
+      <c r="AA17" s="265"/>
+      <c r="AB17" s="265"/>
+      <c r="AC17" s="265"/>
+      <c r="AD17" s="265"/>
+      <c r="AE17" s="265"/>
+      <c r="AF17" s="265"/>
+      <c r="AG17" s="265"/>
+      <c r="AH17" s="265"/>
+      <c r="AI17" s="266">
         <f>SUM(AI12:AI15)</f>
-        <v>98.5</v>
-      </c>
-      <c r="AJ17" s="272"/>
-      <c r="AK17" s="273"/>
-      <c r="AL17" s="273"/>
+        <v>100.5</v>
+      </c>
+      <c r="AJ17" s="267"/>
+      <c r="AK17" s="268"/>
+      <c r="AL17" s="268"/>
       <c r="AN17" s="262"/>
     </row>
-    <row r="19" spans="1:40" s="279" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="466" t="s">
+    <row r="19" spans="1:40" s="274" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="459" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="466"/>
-      <c r="C19" s="466"/>
-      <c r="D19" s="466"/>
-      <c r="E19" s="466"/>
-      <c r="F19" s="466"/>
-      <c r="G19" s="466"/>
-      <c r="H19" s="274"/>
-      <c r="I19" s="467"/>
-      <c r="J19" s="467"/>
-      <c r="K19" s="467"/>
-      <c r="L19" s="467"/>
-      <c r="M19" s="467"/>
-      <c r="N19" s="275"/>
-      <c r="O19" s="467" t="s">
-        <v>122</v>
-      </c>
-      <c r="P19" s="467"/>
-      <c r="Q19" s="467"/>
-      <c r="R19" s="467"/>
-      <c r="S19" s="467"/>
-      <c r="T19" s="467"/>
-      <c r="U19" s="467"/>
-      <c r="V19" s="467"/>
-      <c r="W19" s="467"/>
-      <c r="X19" s="467"/>
-      <c r="Y19" s="467"/>
-      <c r="Z19" s="276"/>
-      <c r="AA19" s="276"/>
-      <c r="AB19" s="277"/>
-      <c r="AC19" s="467"/>
-      <c r="AD19" s="467"/>
-      <c r="AE19" s="467"/>
-      <c r="AF19" s="467"/>
-      <c r="AG19" s="467"/>
-      <c r="AH19" s="467"/>
-      <c r="AI19" s="467"/>
-      <c r="AJ19" s="467"/>
-      <c r="AK19" s="467"/>
-      <c r="AL19" s="467"/>
-      <c r="AM19" s="467"/>
-      <c r="AN19" s="278"/>
+      <c r="B19" s="459"/>
+      <c r="C19" s="459"/>
+      <c r="D19" s="459"/>
+      <c r="E19" s="459"/>
+      <c r="F19" s="459"/>
+      <c r="G19" s="459"/>
+      <c r="H19" s="269"/>
+      <c r="I19" s="460"/>
+      <c r="J19" s="460"/>
+      <c r="K19" s="460"/>
+      <c r="L19" s="460"/>
+      <c r="M19" s="460"/>
+      <c r="N19" s="270"/>
+      <c r="O19" s="460" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" s="460"/>
+      <c r="Q19" s="460"/>
+      <c r="R19" s="460"/>
+      <c r="S19" s="460"/>
+      <c r="T19" s="460"/>
+      <c r="U19" s="460"/>
+      <c r="V19" s="460"/>
+      <c r="W19" s="460"/>
+      <c r="X19" s="460"/>
+      <c r="Y19" s="460"/>
+      <c r="Z19" s="271"/>
+      <c r="AA19" s="271"/>
+      <c r="AB19" s="272"/>
+      <c r="AC19" s="460"/>
+      <c r="AD19" s="460"/>
+      <c r="AE19" s="460"/>
+      <c r="AF19" s="460"/>
+      <c r="AG19" s="460"/>
+      <c r="AH19" s="460"/>
+      <c r="AI19" s="460"/>
+      <c r="AJ19" s="460"/>
+      <c r="AK19" s="460"/>
+      <c r="AL19" s="460"/>
+      <c r="AM19" s="460"/>
+      <c r="AN19" s="273"/>
     </row>
     <row r="26" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="280"/>
-      <c r="B26" s="281"/>
-      <c r="C26" s="280"/>
-      <c r="D26" s="280"/>
+      <c r="A26" s="275"/>
+      <c r="B26" s="276"/>
+      <c r="C26" s="275"/>
+      <c r="D26" s="275"/>
     </row>
     <row r="27" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="280"/>
-      <c r="B27" s="281"/>
-      <c r="C27" s="280"/>
-      <c r="D27" s="280"/>
+      <c r="A27" s="275"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="275"/>
+      <c r="D27" s="275"/>
     </row>
     <row r="28" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="245"/>
@@ -10017,138 +10021,138 @@
       <c r="C29" s="245"/>
       <c r="D29" s="245"/>
     </row>
-    <row r="33" spans="3:40" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="AN33" s="283"/>
-    </row>
-    <row r="34" spans="3:40" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="AN34" s="283"/>
-    </row>
-    <row r="35" spans="3:40" s="282" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="455"/>
-      <c r="H35" s="455"/>
-      <c r="I35" s="455"/>
-      <c r="J35" s="455"/>
-      <c r="K35" s="455"/>
-      <c r="L35" s="455"/>
-      <c r="M35" s="455"/>
-      <c r="N35" s="455"/>
-      <c r="O35" s="455"/>
-      <c r="P35" s="455"/>
-      <c r="Q35" s="455"/>
-      <c r="R35" s="455"/>
-      <c r="S35" s="455"/>
-      <c r="T35" s="455"/>
-      <c r="U35" s="455"/>
-      <c r="V35" s="455"/>
-      <c r="W35" s="455"/>
-      <c r="X35" s="455"/>
-      <c r="AN35" s="283"/>
-    </row>
-    <row r="36" spans="3:40" s="282" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="455"/>
-      <c r="H36" s="455"/>
-      <c r="I36" s="455"/>
-      <c r="J36" s="455"/>
-      <c r="K36" s="455"/>
-      <c r="L36" s="455"/>
-      <c r="M36" s="455"/>
-      <c r="N36" s="455"/>
-      <c r="O36" s="455"/>
-      <c r="P36" s="455"/>
-      <c r="Q36" s="455"/>
-      <c r="R36" s="455"/>
-      <c r="S36" s="455"/>
-      <c r="T36" s="455"/>
-      <c r="U36" s="455"/>
-      <c r="V36" s="455"/>
-      <c r="W36" s="455"/>
-      <c r="X36" s="455"/>
-      <c r="AN36" s="283"/>
-    </row>
-    <row r="37" spans="3:40" s="282" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="455"/>
-      <c r="H37" s="455"/>
-      <c r="I37" s="455"/>
-      <c r="J37" s="455"/>
-      <c r="K37" s="455"/>
-      <c r="L37" s="455"/>
-      <c r="M37" s="455"/>
-      <c r="N37" s="455"/>
-      <c r="O37" s="455"/>
-      <c r="P37" s="455"/>
-      <c r="Q37" s="455"/>
-      <c r="R37" s="455"/>
-      <c r="S37" s="455"/>
-      <c r="T37" s="455"/>
-      <c r="U37" s="455"/>
-      <c r="V37" s="455"/>
-      <c r="W37" s="455"/>
-      <c r="X37" s="455"/>
-      <c r="AN37" s="283"/>
-    </row>
-    <row r="38" spans="3:40" s="282" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="455"/>
-      <c r="H38" s="455"/>
-      <c r="I38" s="455"/>
-      <c r="J38" s="455"/>
-      <c r="K38" s="455"/>
-      <c r="L38" s="455"/>
-      <c r="M38" s="455"/>
-      <c r="N38" s="455"/>
-      <c r="O38" s="455"/>
-      <c r="P38" s="455"/>
-      <c r="Q38" s="455"/>
-      <c r="R38" s="455"/>
-      <c r="S38" s="455"/>
-      <c r="T38" s="455"/>
-      <c r="U38" s="455"/>
-      <c r="V38" s="455"/>
-      <c r="W38" s="455"/>
-      <c r="X38" s="455"/>
-      <c r="AN38" s="283"/>
-    </row>
-    <row r="39" spans="3:40" s="282" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="455"/>
-      <c r="H39" s="455"/>
-      <c r="I39" s="455"/>
-      <c r="J39" s="455"/>
-      <c r="K39" s="455"/>
-      <c r="L39" s="455"/>
-      <c r="M39" s="455"/>
-      <c r="N39" s="455"/>
-      <c r="O39" s="455"/>
-      <c r="P39" s="455"/>
-      <c r="Q39" s="455"/>
-      <c r="R39" s="455"/>
-      <c r="S39" s="455"/>
-      <c r="T39" s="455"/>
-      <c r="U39" s="455"/>
-      <c r="V39" s="455"/>
-      <c r="W39" s="455"/>
-      <c r="X39" s="455"/>
-      <c r="AN39" s="283"/>
+    <row r="33" spans="3:40" s="277" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN33" s="278"/>
+    </row>
+    <row r="34" spans="3:40" s="277" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN34" s="278"/>
+    </row>
+    <row r="35" spans="3:40" s="277" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="443"/>
+      <c r="H35" s="443"/>
+      <c r="I35" s="443"/>
+      <c r="J35" s="443"/>
+      <c r="K35" s="443"/>
+      <c r="L35" s="443"/>
+      <c r="M35" s="443"/>
+      <c r="N35" s="443"/>
+      <c r="O35" s="443"/>
+      <c r="P35" s="443"/>
+      <c r="Q35" s="443"/>
+      <c r="R35" s="443"/>
+      <c r="S35" s="443"/>
+      <c r="T35" s="443"/>
+      <c r="U35" s="443"/>
+      <c r="V35" s="443"/>
+      <c r="W35" s="443"/>
+      <c r="X35" s="443"/>
+      <c r="AN35" s="278"/>
+    </row>
+    <row r="36" spans="3:40" s="277" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="443"/>
+      <c r="H36" s="443"/>
+      <c r="I36" s="443"/>
+      <c r="J36" s="443"/>
+      <c r="K36" s="443"/>
+      <c r="L36" s="443"/>
+      <c r="M36" s="443"/>
+      <c r="N36" s="443"/>
+      <c r="O36" s="443"/>
+      <c r="P36" s="443"/>
+      <c r="Q36" s="443"/>
+      <c r="R36" s="443"/>
+      <c r="S36" s="443"/>
+      <c r="T36" s="443"/>
+      <c r="U36" s="443"/>
+      <c r="V36" s="443"/>
+      <c r="W36" s="443"/>
+      <c r="X36" s="443"/>
+      <c r="AN36" s="278"/>
+    </row>
+    <row r="37" spans="3:40" s="277" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="443"/>
+      <c r="H37" s="443"/>
+      <c r="I37" s="443"/>
+      <c r="J37" s="443"/>
+      <c r="K37" s="443"/>
+      <c r="L37" s="443"/>
+      <c r="M37" s="443"/>
+      <c r="N37" s="443"/>
+      <c r="O37" s="443"/>
+      <c r="P37" s="443"/>
+      <c r="Q37" s="443"/>
+      <c r="R37" s="443"/>
+      <c r="S37" s="443"/>
+      <c r="T37" s="443"/>
+      <c r="U37" s="443"/>
+      <c r="V37" s="443"/>
+      <c r="W37" s="443"/>
+      <c r="X37" s="443"/>
+      <c r="AN37" s="278"/>
+    </row>
+    <row r="38" spans="3:40" s="277" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="443"/>
+      <c r="H38" s="443"/>
+      <c r="I38" s="443"/>
+      <c r="J38" s="443"/>
+      <c r="K38" s="443"/>
+      <c r="L38" s="443"/>
+      <c r="M38" s="443"/>
+      <c r="N38" s="443"/>
+      <c r="O38" s="443"/>
+      <c r="P38" s="443"/>
+      <c r="Q38" s="443"/>
+      <c r="R38" s="443"/>
+      <c r="S38" s="443"/>
+      <c r="T38" s="443"/>
+      <c r="U38" s="443"/>
+      <c r="V38" s="443"/>
+      <c r="W38" s="443"/>
+      <c r="X38" s="443"/>
+      <c r="AN38" s="278"/>
+    </row>
+    <row r="39" spans="3:40" s="277" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="443"/>
+      <c r="H39" s="443"/>
+      <c r="I39" s="443"/>
+      <c r="J39" s="443"/>
+      <c r="K39" s="443"/>
+      <c r="L39" s="443"/>
+      <c r="M39" s="443"/>
+      <c r="N39" s="443"/>
+      <c r="O39" s="443"/>
+      <c r="P39" s="443"/>
+      <c r="Q39" s="443"/>
+      <c r="R39" s="443"/>
+      <c r="S39" s="443"/>
+      <c r="T39" s="443"/>
+      <c r="U39" s="443"/>
+      <c r="V39" s="443"/>
+      <c r="W39" s="443"/>
+      <c r="X39" s="443"/>
+      <c r="AN39" s="278"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C40" s="241"/>
       <c r="D40" s="241"/>
-      <c r="G40" s="455"/>
-      <c r="H40" s="455"/>
-      <c r="I40" s="455"/>
-      <c r="J40" s="455"/>
-      <c r="K40" s="455"/>
-      <c r="L40" s="455"/>
-      <c r="M40" s="455"/>
-      <c r="N40" s="455"/>
-      <c r="O40" s="455"/>
-      <c r="P40" s="455"/>
-      <c r="Q40" s="455"/>
-      <c r="R40" s="455"/>
-      <c r="S40" s="455"/>
-      <c r="T40" s="455"/>
-      <c r="U40" s="455"/>
-      <c r="V40" s="455"/>
-      <c r="W40" s="455"/>
-      <c r="X40" s="455"/>
+      <c r="G40" s="443"/>
+      <c r="H40" s="443"/>
+      <c r="I40" s="443"/>
+      <c r="J40" s="443"/>
+      <c r="K40" s="443"/>
+      <c r="L40" s="443"/>
+      <c r="M40" s="443"/>
+      <c r="N40" s="443"/>
+      <c r="O40" s="443"/>
+      <c r="P40" s="443"/>
+      <c r="Q40" s="443"/>
+      <c r="R40" s="443"/>
+      <c r="S40" s="443"/>
+      <c r="T40" s="443"/>
+      <c r="U40" s="443"/>
+      <c r="V40" s="443"/>
+      <c r="W40" s="443"/>
+      <c r="X40" s="443"/>
       <c r="AN40" s="241"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.3">
@@ -10158,6 +10162,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -10172,13 +10183,6 @@
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="O19:Y19"/>
     <mergeCell ref="AC19:AM19"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10190,16 +10194,16 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="47" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="47" customWidth="1"/>
     <col min="3" max="3" width="9" style="47" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="46" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" style="47" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.44140625" style="47" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" style="47" customWidth="1"/>
@@ -11029,40 +11033,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="42" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="468" t="s">
+      <c r="A1" s="474" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="468"/>
-      <c r="C1" s="468"/>
-      <c r="D1" s="468"/>
+      <c r="B1" s="474"/>
+      <c r="C1" s="474"/>
+      <c r="D1" s="474"/>
       <c r="E1" s="93"/>
-      <c r="F1" s="469" t="s">
+      <c r="F1" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="469"/>
-      <c r="H1" s="469"/>
-      <c r="I1" s="469"/>
-      <c r="J1" s="469"/>
-      <c r="K1" s="469"/>
-      <c r="L1" s="469"/>
+      <c r="G1" s="475"/>
+      <c r="H1" s="475"/>
+      <c r="I1" s="475"/>
+      <c r="J1" s="475"/>
+      <c r="K1" s="475"/>
+      <c r="L1" s="475"/>
     </row>
     <row r="2" spans="1:13" s="42" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="470" t="s">
+      <c r="A2" s="476" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="470"/>
-      <c r="C2" s="470"/>
-      <c r="D2" s="470"/>
+      <c r="B2" s="476"/>
+      <c r="C2" s="476"/>
+      <c r="D2" s="476"/>
       <c r="E2" s="93"/>
-      <c r="F2" s="471" t="s">
+      <c r="F2" s="477" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="471"/>
-      <c r="H2" s="471"/>
-      <c r="I2" s="471"/>
-      <c r="J2" s="471"/>
-      <c r="K2" s="471"/>
-      <c r="L2" s="471"/>
+      <c r="G2" s="477"/>
+      <c r="H2" s="477"/>
+      <c r="I2" s="477"/>
+      <c r="J2" s="477"/>
+      <c r="K2" s="477"/>
+      <c r="L2" s="477"/>
     </row>
     <row r="3" spans="1:13" s="42" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
@@ -11076,45 +11080,45 @@
       <c r="J3" s="94"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="472" t="s">
+      <c r="A4" s="478" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="472"/>
-      <c r="C4" s="472"/>
-      <c r="D4" s="472"/>
-      <c r="E4" s="472"/>
-      <c r="F4" s="472"/>
-      <c r="G4" s="472"/>
-      <c r="H4" s="472"/>
-      <c r="I4" s="472"/>
-      <c r="J4" s="472"/>
-      <c r="K4" s="472"/>
-      <c r="L4" s="472"/>
-      <c r="M4" s="472"/>
+      <c r="B4" s="478"/>
+      <c r="C4" s="478"/>
+      <c r="D4" s="478"/>
+      <c r="E4" s="478"/>
+      <c r="F4" s="478"/>
+      <c r="G4" s="478"/>
+      <c r="H4" s="478"/>
+      <c r="I4" s="478"/>
+      <c r="J4" s="478"/>
+      <c r="K4" s="478"/>
+      <c r="L4" s="478"/>
+      <c r="M4" s="478"/>
     </row>
     <row r="5" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="473" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="473"/>
-      <c r="C5" s="473"/>
-      <c r="D5" s="473"/>
-      <c r="E5" s="473"/>
-      <c r="F5" s="473"/>
-      <c r="G5" s="473"/>
-      <c r="H5" s="473"/>
-      <c r="I5" s="473"/>
-      <c r="J5" s="473"/>
-      <c r="K5" s="473"/>
-      <c r="L5" s="473"/>
-      <c r="M5" s="473"/>
+      <c r="A5" s="464" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="464"/>
+      <c r="C5" s="464"/>
+      <c r="D5" s="464"/>
+      <c r="E5" s="464"/>
+      <c r="F5" s="464"/>
+      <c r="G5" s="464"/>
+      <c r="H5" s="464"/>
+      <c r="I5" s="464"/>
+      <c r="J5" s="464"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="464"/>
+      <c r="M5" s="464"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K6" s="474" t="s">
+      <c r="K6" s="465" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="474"/>
-      <c r="M6" s="474"/>
+      <c r="L6" s="465"/>
+      <c r="M6" s="465"/>
     </row>
     <row r="7" spans="1:13" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
@@ -11136,16 +11140,16 @@
         <v>67</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H7" s="48" t="s">
         <v>68</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K7" s="48" t="s">
         <v>69</v>
@@ -11176,27 +11180,27 @@
         <v>74</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L8" s="53"/>
       <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="475" t="s">
+      <c r="A9" s="466" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="476"/>
+      <c r="B9" s="467"/>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
       <c r="E9" s="55"/>
       <c r="F9" s="54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
@@ -11237,15 +11241,15 @@
       <c r="L10" s="60"/>
       <c r="M10" s="57"/>
     </row>
-    <row r="11" spans="1:13" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="57">
         <v>3</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D11" s="59">
         <v>6000000</v>
@@ -11277,22 +11281,22 @@
         <v>37</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" s="64">
         <v>6000000</v>
       </c>
       <c r="E12" s="109">
         <f>'bảng chấm công'!AI14</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="64">
         <f t="shared" si="0"/>
-        <v>6000000</v>
+        <v>6230769.230769231</v>
       </c>
       <c r="G12" s="59">
         <f>F12*30%</f>
-        <v>1800000</v>
+        <v>1869230.7692307692</v>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="65"/>
@@ -11302,23 +11306,23 @@
       <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" s="70" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="480" t="s">
+      <c r="A13" s="471" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="481"/>
-      <c r="C13" s="482"/>
+      <c r="B13" s="472"/>
+      <c r="C13" s="473"/>
       <c r="D13" s="102">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
       </c>
       <c r="E13" s="110"/>
-      <c r="F13" s="368">
+      <c r="F13" s="362">
         <f>SUM(F10:F12)</f>
-        <v>27000000</v>
+        <v>27230769.230769232</v>
       </c>
       <c r="G13" s="102">
         <f>SUM(G10:G12)</f>
-        <v>8099999.9999999991</v>
+        <v>8169230.7692307681</v>
       </c>
       <c r="H13" s="103">
         <f>SUM(H11:H12)</f>
@@ -11340,10 +11344,10 @@
       <c r="M13" s="104"/>
     </row>
     <row r="14" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="477" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="478"/>
+      <c r="A14" s="468" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="469"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
       <c r="E14" s="111"/>
@@ -11356,30 +11360,30 @@
       <c r="L14" s="100"/>
       <c r="M14" s="101"/>
     </row>
-    <row r="15" spans="1:13" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>1</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D15" s="64">
         <v>3000000</v>
       </c>
       <c r="E15" s="108">
         <f>'bảng chấm công'!AI16</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="59">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>3230769.230769231</v>
       </c>
       <c r="G15" s="59">
         <f>F15*30%</f>
-        <v>900000</v>
+        <v>969230.76923076925</v>
       </c>
       <c r="H15" s="65"/>
       <c r="I15" s="65"/>
@@ -11388,30 +11392,30 @@
       <c r="L15" s="65"/>
       <c r="M15" s="62"/>
     </row>
-    <row r="16" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="66">
         <v>3</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="D16" s="68">
         <v>5000000</v>
       </c>
       <c r="E16" s="108">
         <f>'bảng chấm công'!AI13</f>
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="F16" s="59">
         <f t="shared" si="0"/>
-        <v>3942307.6923076925</v>
+        <v>4134615.3846153845</v>
       </c>
       <c r="G16" s="59">
         <f>F16*30%</f>
-        <v>1182692.3076923077</v>
+        <v>1240384.6153846153</v>
       </c>
       <c r="H16" s="69"/>
       <c r="I16" s="69"/>
@@ -11421,11 +11425,11 @@
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" s="70" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="480" t="s">
+      <c r="A17" s="471" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="481"/>
-      <c r="C17" s="482"/>
+      <c r="B17" s="472"/>
+      <c r="C17" s="473"/>
       <c r="D17" s="105">
         <f>SUM(D15:D16)</f>
         <v>8000000</v>
@@ -11433,11 +11437,11 @@
       <c r="E17" s="107"/>
       <c r="F17" s="105">
         <f>SUM(F15:F16)</f>
-        <v>6942307.692307692</v>
+        <v>7365384.615384616</v>
       </c>
       <c r="G17" s="105">
         <f>SUM(G15:G16)</f>
-        <v>2082692.3076923077</v>
+        <v>2209615.3846153845</v>
       </c>
       <c r="H17" s="105">
         <f>SUM(H15:H16)</f>
@@ -11459,18 +11463,18 @@
       <c r="M17" s="104"/>
     </row>
     <row r="19" spans="1:13" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="479"/>
-      <c r="C19" s="479"/>
-      <c r="D19" s="479"/>
+      <c r="B19" s="470"/>
+      <c r="C19" s="470"/>
+      <c r="D19" s="470"/>
       <c r="E19" s="95"/>
-      <c r="I19" s="479"/>
-      <c r="J19" s="479"/>
-      <c r="K19" s="479"/>
-      <c r="L19" s="479"/>
+      <c r="I19" s="470"/>
+      <c r="J19" s="470"/>
+      <c r="K19" s="470"/>
+      <c r="L19" s="470"/>
     </row>
     <row r="20" spans="1:13" s="73" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C20" s="112" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
@@ -11480,14 +11484,14 @@
         <v>14</v>
       </c>
       <c r="J20" s="75"/>
-      <c r="K20" s="299"/>
+      <c r="K20" s="294"/>
     </row>
     <row r="21" spans="1:13" s="73" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="226"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="226"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="4" t="s">
@@ -11509,6 +11513,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -11517,11 +11526,6 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11538,7 +11542,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="334"/>
+    <col min="1" max="1" width="9.109375" style="329"/>
     <col min="2" max="2" width="12" style="91" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="91"/>
     <col min="4" max="4" width="12.6640625" style="91" bestFit="1" customWidth="1"/>
@@ -11552,93 +11556,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="332" t="s">
+      <c r="A2" s="327" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="499" t="s">
+      <c r="A3" s="480" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="499"/>
-      <c r="C3" s="499"/>
-      <c r="D3" s="499"/>
-      <c r="E3" s="499"/>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="499"/>
-      <c r="I3" s="499"/>
-      <c r="J3" s="499"/>
-      <c r="K3" s="499"/>
-      <c r="L3" s="499"/>
-      <c r="M3" s="499"/>
-      <c r="N3" s="499"/>
-      <c r="O3" s="499"/>
-      <c r="P3" s="499"/>
+      <c r="B3" s="480"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="480"/>
+      <c r="F3" s="480"/>
+      <c r="G3" s="480"/>
+      <c r="H3" s="480"/>
+      <c r="I3" s="480"/>
+      <c r="J3" s="480"/>
+      <c r="K3" s="480"/>
+      <c r="L3" s="480"/>
+      <c r="M3" s="480"/>
+      <c r="N3" s="480"/>
+      <c r="O3" s="480"/>
+      <c r="P3" s="480"/>
     </row>
     <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="500" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="500"/>
-      <c r="C4" s="500"/>
-      <c r="D4" s="500"/>
-      <c r="E4" s="500"/>
-      <c r="F4" s="500"/>
-      <c r="G4" s="500"/>
-      <c r="H4" s="500"/>
-      <c r="I4" s="500"/>
-      <c r="J4" s="500"/>
-      <c r="K4" s="501"/>
-      <c r="L4" s="500"/>
-      <c r="M4" s="500"/>
-      <c r="N4" s="500"/>
-      <c r="O4" s="500"/>
-      <c r="P4" s="500"/>
+      <c r="A4" s="481" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="481"/>
+      <c r="C4" s="481"/>
+      <c r="D4" s="481"/>
+      <c r="E4" s="481"/>
+      <c r="F4" s="481"/>
+      <c r="G4" s="481"/>
+      <c r="H4" s="481"/>
+      <c r="I4" s="481"/>
+      <c r="J4" s="481"/>
+      <c r="K4" s="482"/>
+      <c r="L4" s="481"/>
+      <c r="M4" s="481"/>
+      <c r="N4" s="481"/>
+      <c r="O4" s="481"/>
+      <c r="P4" s="481"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="502" t="s">
+      <c r="A5" s="483" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="504" t="s">
+      <c r="B5" s="485" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="506" t="s">
+      <c r="C5" s="487" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="506" t="s">
+      <c r="D5" s="487" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="506"/>
-      <c r="F5" s="506"/>
-      <c r="G5" s="508" t="s">
+      <c r="E5" s="487"/>
+      <c r="F5" s="487"/>
+      <c r="G5" s="489" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="508"/>
-      <c r="I5" s="508"/>
-      <c r="J5" s="508"/>
-      <c r="K5" s="509"/>
-      <c r="L5" s="510" t="s">
+      <c r="H5" s="489"/>
+      <c r="I5" s="489"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="491" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="508" t="s">
+      <c r="M5" s="489" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="508"/>
-      <c r="O5" s="508"/>
-      <c r="P5" s="512" t="s">
+      <c r="N5" s="489"/>
+      <c r="O5" s="489"/>
+      <c r="P5" s="493" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="503"/>
-      <c r="B6" s="505"/>
-      <c r="C6" s="507"/>
+      <c r="A6" s="484"/>
+      <c r="B6" s="486"/>
+      <c r="C6" s="488"/>
       <c r="D6" s="90" t="s">
         <v>41</v>
       </c>
@@ -11654,16 +11658,16 @@
       <c r="H6" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="315" t="s">
+      <c r="I6" s="310" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="316" t="s">
+      <c r="J6" s="311" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="317" t="s">
+      <c r="K6" s="312" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="511"/>
+      <c r="L6" s="492"/>
       <c r="M6" s="90" t="s">
         <v>46</v>
       </c>
@@ -11673,23 +11677,23 @@
       <c r="O6" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="513"/>
+      <c r="P6" s="494"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="333">
+      <c r="A7" s="328">
         <v>562</v>
       </c>
       <c r="B7" s="162">
         <v>43983</v>
       </c>
       <c r="C7" s="159" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D7" s="159"/>
       <c r="E7" s="159"/>
       <c r="F7" s="159"/>
       <c r="G7" s="159" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H7" s="159">
         <v>37</v>
@@ -11720,16 +11724,16 @@
       <c r="D8" s="159"/>
       <c r="E8" s="164"/>
       <c r="F8" s="159"/>
-      <c r="G8" s="305"/>
-      <c r="H8" s="305"/>
-      <c r="I8" s="306"/>
-      <c r="J8" s="306"/>
-      <c r="K8" s="307"/>
-      <c r="L8" s="308"/>
-      <c r="M8" s="305"/>
-      <c r="N8" s="305"/>
-      <c r="O8" s="305"/>
-      <c r="P8" s="309"/>
+      <c r="G8" s="300"/>
+      <c r="H8" s="300"/>
+      <c r="I8" s="301"/>
+      <c r="J8" s="301"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="303"/>
+      <c r="M8" s="300"/>
+      <c r="N8" s="300"/>
+      <c r="O8" s="300"/>
+      <c r="P8" s="304"/>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="159"/>
@@ -11738,19 +11742,19 @@
       <c r="D9" s="159"/>
       <c r="E9" s="164"/>
       <c r="F9" s="159"/>
-      <c r="G9" s="310"/>
-      <c r="H9" s="310"/>
-      <c r="I9" s="311"/>
-      <c r="J9" s="311"/>
-      <c r="K9" s="312"/>
-      <c r="L9" s="313"/>
-      <c r="M9" s="310"/>
-      <c r="N9" s="310"/>
-      <c r="O9" s="310"/>
-      <c r="P9" s="314"/>
+      <c r="G9" s="305"/>
+      <c r="H9" s="305"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="306"/>
+      <c r="K9" s="307"/>
+      <c r="L9" s="308"/>
+      <c r="M9" s="305"/>
+      <c r="N9" s="305"/>
+      <c r="O9" s="305"/>
+      <c r="P9" s="309"/>
     </row>
     <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="333"/>
+      <c r="A10" s="328"/>
       <c r="B10" s="162"/>
       <c r="C10" s="159"/>
       <c r="D10" s="159"/>
@@ -11768,7 +11772,7 @@
       <c r="P10" s="164"/>
     </row>
     <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="333"/>
+      <c r="A11" s="328"/>
       <c r="B11" s="162"/>
       <c r="C11" s="159"/>
       <c r="D11" s="159"/>
@@ -11786,338 +11790,338 @@
       <c r="P11" s="164"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="489"/>
-      <c r="B12" s="514"/>
-      <c r="C12" s="483"/>
-      <c r="D12" s="517"/>
-      <c r="E12" s="483"/>
-      <c r="F12" s="483"/>
-      <c r="G12" s="300"/>
-      <c r="H12" s="300"/>
-      <c r="I12" s="301"/>
-      <c r="J12" s="301"/>
-      <c r="K12" s="302"/>
-      <c r="L12" s="303"/>
-      <c r="M12" s="300"/>
-      <c r="N12" s="300"/>
-      <c r="O12" s="300"/>
-      <c r="P12" s="304"/>
+      <c r="A12" s="495"/>
+      <c r="B12" s="501"/>
+      <c r="C12" s="498"/>
+      <c r="D12" s="504"/>
+      <c r="E12" s="498"/>
+      <c r="F12" s="498"/>
+      <c r="G12" s="295"/>
+      <c r="H12" s="295"/>
+      <c r="I12" s="296"/>
+      <c r="J12" s="296"/>
+      <c r="K12" s="297"/>
+      <c r="L12" s="298"/>
+      <c r="M12" s="295"/>
+      <c r="N12" s="295"/>
+      <c r="O12" s="295"/>
+      <c r="P12" s="299"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="490"/>
-      <c r="B13" s="515"/>
-      <c r="C13" s="484"/>
-      <c r="D13" s="518"/>
-      <c r="E13" s="484"/>
-      <c r="F13" s="484"/>
-      <c r="G13" s="305"/>
-      <c r="H13" s="305"/>
-      <c r="I13" s="306"/>
-      <c r="J13" s="306"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="308"/>
-      <c r="M13" s="305"/>
-      <c r="N13" s="305"/>
-      <c r="O13" s="305"/>
-      <c r="P13" s="309"/>
+      <c r="A13" s="496"/>
+      <c r="B13" s="502"/>
+      <c r="C13" s="499"/>
+      <c r="D13" s="505"/>
+      <c r="E13" s="499"/>
+      <c r="F13" s="499"/>
+      <c r="G13" s="300"/>
+      <c r="H13" s="300"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="302"/>
+      <c r="L13" s="303"/>
+      <c r="M13" s="300"/>
+      <c r="N13" s="300"/>
+      <c r="O13" s="300"/>
+      <c r="P13" s="304"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="490"/>
-      <c r="B14" s="515"/>
-      <c r="C14" s="484"/>
-      <c r="D14" s="518"/>
-      <c r="E14" s="484"/>
-      <c r="F14" s="484"/>
-      <c r="G14" s="305"/>
-      <c r="H14" s="305"/>
-      <c r="I14" s="306"/>
-      <c r="J14" s="306"/>
-      <c r="K14" s="307"/>
-      <c r="L14" s="308"/>
-      <c r="M14" s="305"/>
-      <c r="N14" s="305"/>
-      <c r="O14" s="305"/>
-      <c r="P14" s="309"/>
+      <c r="A14" s="496"/>
+      <c r="B14" s="502"/>
+      <c r="C14" s="499"/>
+      <c r="D14" s="505"/>
+      <c r="E14" s="499"/>
+      <c r="F14" s="499"/>
+      <c r="G14" s="300"/>
+      <c r="H14" s="300"/>
+      <c r="I14" s="301"/>
+      <c r="J14" s="301"/>
+      <c r="K14" s="302"/>
+      <c r="L14" s="303"/>
+      <c r="M14" s="300"/>
+      <c r="N14" s="300"/>
+      <c r="O14" s="300"/>
+      <c r="P14" s="304"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="490"/>
-      <c r="B15" s="515"/>
-      <c r="C15" s="484"/>
-      <c r="D15" s="518"/>
-      <c r="E15" s="484"/>
-      <c r="F15" s="484"/>
-      <c r="G15" s="305"/>
-      <c r="H15" s="305"/>
-      <c r="I15" s="306"/>
-      <c r="J15" s="306"/>
-      <c r="K15" s="307"/>
-      <c r="L15" s="308"/>
-      <c r="M15" s="305"/>
-      <c r="N15" s="305"/>
-      <c r="O15" s="305"/>
-      <c r="P15" s="309"/>
+      <c r="A15" s="496"/>
+      <c r="B15" s="502"/>
+      <c r="C15" s="499"/>
+      <c r="D15" s="505"/>
+      <c r="E15" s="499"/>
+      <c r="F15" s="499"/>
+      <c r="G15" s="300"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="301"/>
+      <c r="J15" s="301"/>
+      <c r="K15" s="302"/>
+      <c r="L15" s="303"/>
+      <c r="M15" s="300"/>
+      <c r="N15" s="300"/>
+      <c r="O15" s="300"/>
+      <c r="P15" s="304"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="490"/>
-      <c r="B16" s="515"/>
-      <c r="C16" s="484"/>
-      <c r="D16" s="518"/>
-      <c r="E16" s="484"/>
-      <c r="F16" s="484"/>
-      <c r="G16" s="305"/>
-      <c r="H16" s="305"/>
-      <c r="I16" s="306"/>
-      <c r="J16" s="306"/>
-      <c r="K16" s="307"/>
-      <c r="L16" s="308"/>
-      <c r="M16" s="305"/>
-      <c r="N16" s="305"/>
-      <c r="O16" s="305"/>
-      <c r="P16" s="309"/>
+      <c r="A16" s="496"/>
+      <c r="B16" s="502"/>
+      <c r="C16" s="499"/>
+      <c r="D16" s="505"/>
+      <c r="E16" s="499"/>
+      <c r="F16" s="499"/>
+      <c r="G16" s="300"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="301"/>
+      <c r="J16" s="301"/>
+      <c r="K16" s="302"/>
+      <c r="L16" s="303"/>
+      <c r="M16" s="300"/>
+      <c r="N16" s="300"/>
+      <c r="O16" s="300"/>
+      <c r="P16" s="304"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="490"/>
-      <c r="B17" s="515"/>
-      <c r="C17" s="484"/>
-      <c r="D17" s="518"/>
-      <c r="E17" s="484"/>
-      <c r="F17" s="484"/>
-      <c r="G17" s="305"/>
-      <c r="H17" s="305"/>
-      <c r="I17" s="306"/>
-      <c r="J17" s="306"/>
-      <c r="K17" s="307"/>
-      <c r="L17" s="308"/>
-      <c r="M17" s="305"/>
-      <c r="N17" s="305"/>
-      <c r="O17" s="305"/>
-      <c r="P17" s="309"/>
+      <c r="A17" s="496"/>
+      <c r="B17" s="502"/>
+      <c r="C17" s="499"/>
+      <c r="D17" s="505"/>
+      <c r="E17" s="499"/>
+      <c r="F17" s="499"/>
+      <c r="G17" s="300"/>
+      <c r="H17" s="300"/>
+      <c r="I17" s="301"/>
+      <c r="J17" s="301"/>
+      <c r="K17" s="302"/>
+      <c r="L17" s="303"/>
+      <c r="M17" s="300"/>
+      <c r="N17" s="300"/>
+      <c r="O17" s="300"/>
+      <c r="P17" s="304"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="490"/>
-      <c r="B18" s="515"/>
-      <c r="C18" s="484"/>
-      <c r="D18" s="518"/>
-      <c r="E18" s="484"/>
-      <c r="F18" s="484"/>
-      <c r="G18" s="305"/>
-      <c r="H18" s="305"/>
-      <c r="I18" s="306"/>
-      <c r="J18" s="306"/>
-      <c r="K18" s="307"/>
-      <c r="L18" s="308"/>
-      <c r="M18" s="305"/>
-      <c r="N18" s="305"/>
-      <c r="O18" s="305"/>
-      <c r="P18" s="309"/>
+      <c r="A18" s="496"/>
+      <c r="B18" s="502"/>
+      <c r="C18" s="499"/>
+      <c r="D18" s="505"/>
+      <c r="E18" s="499"/>
+      <c r="F18" s="499"/>
+      <c r="G18" s="300"/>
+      <c r="H18" s="300"/>
+      <c r="I18" s="301"/>
+      <c r="J18" s="301"/>
+      <c r="K18" s="302"/>
+      <c r="L18" s="303"/>
+      <c r="M18" s="300"/>
+      <c r="N18" s="300"/>
+      <c r="O18" s="300"/>
+      <c r="P18" s="304"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="490"/>
-      <c r="B19" s="515"/>
-      <c r="C19" s="484"/>
-      <c r="D19" s="518"/>
-      <c r="E19" s="484"/>
-      <c r="F19" s="484"/>
-      <c r="G19" s="305"/>
-      <c r="H19" s="305"/>
-      <c r="I19" s="306"/>
-      <c r="J19" s="306"/>
-      <c r="K19" s="307"/>
-      <c r="L19" s="308"/>
-      <c r="M19" s="305"/>
-      <c r="N19" s="305"/>
-      <c r="O19" s="305"/>
-      <c r="P19" s="309"/>
+      <c r="A19" s="496"/>
+      <c r="B19" s="502"/>
+      <c r="C19" s="499"/>
+      <c r="D19" s="505"/>
+      <c r="E19" s="499"/>
+      <c r="F19" s="499"/>
+      <c r="G19" s="300"/>
+      <c r="H19" s="300"/>
+      <c r="I19" s="301"/>
+      <c r="J19" s="301"/>
+      <c r="K19" s="302"/>
+      <c r="L19" s="303"/>
+      <c r="M19" s="300"/>
+      <c r="N19" s="300"/>
+      <c r="O19" s="300"/>
+      <c r="P19" s="304"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="491"/>
-      <c r="B20" s="516"/>
-      <c r="C20" s="485"/>
-      <c r="D20" s="519"/>
-      <c r="E20" s="485"/>
-      <c r="F20" s="485"/>
-      <c r="G20" s="310"/>
-      <c r="H20" s="310"/>
-      <c r="I20" s="311"/>
-      <c r="J20" s="311"/>
-      <c r="K20" s="312"/>
-      <c r="L20" s="313"/>
-      <c r="M20" s="310"/>
-      <c r="N20" s="310"/>
-      <c r="O20" s="310"/>
-      <c r="P20" s="310"/>
+      <c r="A20" s="497"/>
+      <c r="B20" s="503"/>
+      <c r="C20" s="500"/>
+      <c r="D20" s="506"/>
+      <c r="E20" s="500"/>
+      <c r="F20" s="500"/>
+      <c r="G20" s="305"/>
+      <c r="H20" s="305"/>
+      <c r="I20" s="306"/>
+      <c r="J20" s="306"/>
+      <c r="K20" s="307"/>
+      <c r="L20" s="308"/>
+      <c r="M20" s="305"/>
+      <c r="N20" s="305"/>
+      <c r="O20" s="305"/>
+      <c r="P20" s="305"/>
     </row>
     <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="330"/>
-      <c r="B21" s="326"/>
-      <c r="C21" s="318"/>
-      <c r="D21" s="322"/>
-      <c r="E21" s="318"/>
-      <c r="F21" s="318"/>
-      <c r="G21" s="318"/>
-      <c r="H21" s="318"/>
-      <c r="I21" s="327"/>
-      <c r="J21" s="327"/>
-      <c r="K21" s="328"/>
-      <c r="L21" s="329"/>
-      <c r="M21" s="318"/>
-      <c r="N21" s="318"/>
-      <c r="O21" s="318"/>
-      <c r="P21" s="318"/>
+      <c r="A21" s="325"/>
+      <c r="B21" s="321"/>
+      <c r="C21" s="313"/>
+      <c r="D21" s="317"/>
+      <c r="E21" s="313"/>
+      <c r="F21" s="313"/>
+      <c r="G21" s="313"/>
+      <c r="H21" s="313"/>
+      <c r="I21" s="322"/>
+      <c r="J21" s="322"/>
+      <c r="K21" s="323"/>
+      <c r="L21" s="324"/>
+      <c r="M21" s="313"/>
+      <c r="N21" s="313"/>
+      <c r="O21" s="313"/>
+      <c r="P21" s="313"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="489"/>
-      <c r="B22" s="492"/>
-      <c r="C22" s="489"/>
-      <c r="D22" s="495"/>
-      <c r="E22" s="489"/>
-      <c r="F22" s="319"/>
-      <c r="G22" s="319"/>
-      <c r="H22" s="319"/>
-      <c r="I22" s="301"/>
-      <c r="J22" s="301"/>
-      <c r="K22" s="302"/>
-      <c r="L22" s="303"/>
-      <c r="M22" s="319"/>
-      <c r="N22" s="319"/>
-      <c r="O22" s="319"/>
-      <c r="P22" s="319"/>
+      <c r="A22" s="495"/>
+      <c r="B22" s="510"/>
+      <c r="C22" s="495"/>
+      <c r="D22" s="513"/>
+      <c r="E22" s="495"/>
+      <c r="F22" s="314"/>
+      <c r="G22" s="314"/>
+      <c r="H22" s="314"/>
+      <c r="I22" s="296"/>
+      <c r="J22" s="296"/>
+      <c r="K22" s="297"/>
+      <c r="L22" s="298"/>
+      <c r="M22" s="314"/>
+      <c r="N22" s="314"/>
+      <c r="O22" s="314"/>
+      <c r="P22" s="314"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="490"/>
-      <c r="B23" s="493"/>
-      <c r="C23" s="490"/>
-      <c r="D23" s="496"/>
-      <c r="E23" s="490"/>
-      <c r="F23" s="320"/>
-      <c r="G23" s="320"/>
-      <c r="H23" s="320"/>
-      <c r="I23" s="306"/>
-      <c r="J23" s="306"/>
-      <c r="K23" s="307"/>
-      <c r="L23" s="308"/>
-      <c r="M23" s="320"/>
-      <c r="N23" s="320"/>
-      <c r="O23" s="320"/>
-      <c r="P23" s="320"/>
+      <c r="A23" s="496"/>
+      <c r="B23" s="511"/>
+      <c r="C23" s="496"/>
+      <c r="D23" s="514"/>
+      <c r="E23" s="496"/>
+      <c r="F23" s="315"/>
+      <c r="G23" s="315"/>
+      <c r="H23" s="315"/>
+      <c r="I23" s="301"/>
+      <c r="J23" s="301"/>
+      <c r="K23" s="302"/>
+      <c r="L23" s="303"/>
+      <c r="M23" s="315"/>
+      <c r="N23" s="315"/>
+      <c r="O23" s="315"/>
+      <c r="P23" s="315"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="490"/>
-      <c r="B24" s="493"/>
-      <c r="C24" s="490"/>
-      <c r="D24" s="496"/>
-      <c r="E24" s="490"/>
-      <c r="F24" s="320"/>
-      <c r="G24" s="320"/>
-      <c r="H24" s="320"/>
-      <c r="I24" s="306"/>
-      <c r="J24" s="306"/>
-      <c r="K24" s="307"/>
-      <c r="L24" s="308"/>
-      <c r="M24" s="320"/>
-      <c r="N24" s="320"/>
-      <c r="O24" s="320"/>
-      <c r="P24" s="320"/>
+      <c r="A24" s="496"/>
+      <c r="B24" s="511"/>
+      <c r="C24" s="496"/>
+      <c r="D24" s="514"/>
+      <c r="E24" s="496"/>
+      <c r="F24" s="315"/>
+      <c r="G24" s="315"/>
+      <c r="H24" s="315"/>
+      <c r="I24" s="301"/>
+      <c r="J24" s="301"/>
+      <c r="K24" s="302"/>
+      <c r="L24" s="303"/>
+      <c r="M24" s="315"/>
+      <c r="N24" s="315"/>
+      <c r="O24" s="315"/>
+      <c r="P24" s="315"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="491"/>
-      <c r="B25" s="494"/>
-      <c r="C25" s="491"/>
-      <c r="D25" s="497"/>
-      <c r="E25" s="491"/>
-      <c r="F25" s="321"/>
-      <c r="G25" s="321"/>
-      <c r="H25" s="321"/>
-      <c r="I25" s="311"/>
-      <c r="J25" s="311"/>
-      <c r="K25" s="312"/>
-      <c r="L25" s="313"/>
-      <c r="M25" s="321"/>
-      <c r="N25" s="321"/>
-      <c r="O25" s="321"/>
-      <c r="P25" s="321"/>
+      <c r="A25" s="497"/>
+      <c r="B25" s="512"/>
+      <c r="C25" s="497"/>
+      <c r="D25" s="515"/>
+      <c r="E25" s="497"/>
+      <c r="F25" s="316"/>
+      <c r="G25" s="316"/>
+      <c r="H25" s="316"/>
+      <c r="I25" s="306"/>
+      <c r="J25" s="306"/>
+      <c r="K25" s="307"/>
+      <c r="L25" s="308"/>
+      <c r="M25" s="316"/>
+      <c r="N25" s="316"/>
+      <c r="O25" s="316"/>
+      <c r="P25" s="316"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="489"/>
-      <c r="B26" s="492"/>
-      <c r="C26" s="489"/>
-      <c r="D26" s="486"/>
-      <c r="E26" s="319"/>
-      <c r="F26" s="319"/>
-      <c r="G26" s="319"/>
-      <c r="H26" s="319"/>
-      <c r="I26" s="301"/>
-      <c r="J26" s="301"/>
-      <c r="K26" s="302"/>
-      <c r="L26" s="303"/>
-      <c r="M26" s="319"/>
-      <c r="N26" s="319"/>
-      <c r="O26" s="319"/>
-      <c r="P26" s="319"/>
+      <c r="A26" s="495"/>
+      <c r="B26" s="510"/>
+      <c r="C26" s="495"/>
+      <c r="D26" s="507"/>
+      <c r="E26" s="314"/>
+      <c r="F26" s="314"/>
+      <c r="G26" s="314"/>
+      <c r="H26" s="314"/>
+      <c r="I26" s="296"/>
+      <c r="J26" s="296"/>
+      <c r="K26" s="297"/>
+      <c r="L26" s="298"/>
+      <c r="M26" s="314"/>
+      <c r="N26" s="314"/>
+      <c r="O26" s="314"/>
+      <c r="P26" s="314"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="490"/>
-      <c r="B27" s="493"/>
-      <c r="C27" s="490"/>
-      <c r="D27" s="487"/>
-      <c r="E27" s="320"/>
-      <c r="F27" s="320"/>
-      <c r="G27" s="320"/>
-      <c r="H27" s="320"/>
-      <c r="I27" s="306"/>
-      <c r="J27" s="306"/>
-      <c r="K27" s="307"/>
-      <c r="L27" s="308"/>
-      <c r="M27" s="320"/>
-      <c r="N27" s="320"/>
-      <c r="O27" s="320"/>
-      <c r="P27" s="320"/>
+      <c r="A27" s="496"/>
+      <c r="B27" s="511"/>
+      <c r="C27" s="496"/>
+      <c r="D27" s="508"/>
+      <c r="E27" s="315"/>
+      <c r="F27" s="315"/>
+      <c r="G27" s="315"/>
+      <c r="H27" s="315"/>
+      <c r="I27" s="301"/>
+      <c r="J27" s="301"/>
+      <c r="K27" s="302"/>
+      <c r="L27" s="303"/>
+      <c r="M27" s="315"/>
+      <c r="N27" s="315"/>
+      <c r="O27" s="315"/>
+      <c r="P27" s="315"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="491"/>
-      <c r="B28" s="494"/>
-      <c r="C28" s="491"/>
-      <c r="D28" s="488"/>
-      <c r="E28" s="321"/>
-      <c r="F28" s="321"/>
-      <c r="G28" s="321"/>
-      <c r="H28" s="321"/>
-      <c r="I28" s="311"/>
-      <c r="J28" s="311"/>
-      <c r="K28" s="312"/>
-      <c r="L28" s="313"/>
-      <c r="M28" s="321"/>
-      <c r="N28" s="321"/>
-      <c r="O28" s="321"/>
-      <c r="P28" s="321"/>
+      <c r="A28" s="497"/>
+      <c r="B28" s="512"/>
+      <c r="C28" s="497"/>
+      <c r="D28" s="509"/>
+      <c r="E28" s="316"/>
+      <c r="F28" s="316"/>
+      <c r="G28" s="316"/>
+      <c r="H28" s="316"/>
+      <c r="I28" s="306"/>
+      <c r="J28" s="306"/>
+      <c r="K28" s="307"/>
+      <c r="L28" s="308"/>
+      <c r="M28" s="316"/>
+      <c r="N28" s="316"/>
+      <c r="O28" s="316"/>
+      <c r="P28" s="316"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="330"/>
-      <c r="B29" s="326"/>
-      <c r="C29" s="318"/>
-      <c r="D29" s="322"/>
-      <c r="E29" s="318"/>
-      <c r="F29" s="318"/>
-      <c r="G29" s="318"/>
-      <c r="H29" s="318"/>
-      <c r="I29" s="327"/>
-      <c r="J29" s="327"/>
-      <c r="K29" s="328"/>
-      <c r="L29" s="329"/>
-      <c r="M29" s="318"/>
-      <c r="N29" s="318"/>
-      <c r="O29" s="318"/>
-      <c r="P29" s="318"/>
+      <c r="A29" s="325"/>
+      <c r="B29" s="321"/>
+      <c r="C29" s="313"/>
+      <c r="D29" s="317"/>
+      <c r="E29" s="313"/>
+      <c r="F29" s="313"/>
+      <c r="G29" s="313"/>
+      <c r="H29" s="313"/>
+      <c r="I29" s="322"/>
+      <c r="J29" s="322"/>
+      <c r="K29" s="323"/>
+      <c r="L29" s="324"/>
+      <c r="M29" s="313"/>
+      <c r="N29" s="313"/>
+      <c r="O29" s="313"/>
+      <c r="P29" s="313"/>
     </row>
     <row r="30" spans="1:16" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="498" t="s">
+      <c r="A30" s="479" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="498"/>
-      <c r="C30" s="498"/>
-      <c r="D30" s="498"/>
-      <c r="E30" s="498"/>
-      <c r="F30" s="498"/>
+      <c r="B30" s="479"/>
+      <c r="C30" s="479"/>
+      <c r="D30" s="479"/>
+      <c r="E30" s="479"/>
+      <c r="F30" s="479"/>
       <c r="G30" s="149"/>
       <c r="H30" s="149">
         <f>SUM(H7:H28)</f>
@@ -12149,22 +12153,22 @@
       <c r="H32" s="92"/>
       <c r="I32" s="92"/>
     </row>
-    <row r="33" spans="1:12" s="298" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="335"/>
-      <c r="C33" s="285"/>
-      <c r="E33" s="323" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="285"/>
-      <c r="G33" s="285"/>
-      <c r="H33" s="285"/>
-      <c r="I33" s="285"/>
-      <c r="L33" s="323" t="s">
+    <row r="33" spans="1:12" s="293" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="330"/>
+      <c r="C33" s="280"/>
+      <c r="E33" s="318" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="280"/>
+      <c r="G33" s="280"/>
+      <c r="H33" s="280"/>
+      <c r="I33" s="280"/>
+      <c r="L33" s="318" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="298" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="335"/>
+    <row r="34" spans="1:12" s="293" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="330"/>
       <c r="C34" s="11"/>
       <c r="E34" s="13" t="s">
         <v>15</v>
@@ -12180,20 +12184,20 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H35" s="92"/>
       <c r="I35" s="92"/>
-      <c r="L35" s="324"/>
+      <c r="L35" s="319"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H36" s="92"/>
       <c r="I36" s="92"/>
-      <c r="L36" s="324"/>
+      <c r="L36" s="319"/>
     </row>
     <row r="37" spans="1:12" s="133" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="135"/>
-      <c r="C37" s="285"/>
-      <c r="E37" s="285"/>
+      <c r="C37" s="280"/>
+      <c r="E37" s="280"/>
       <c r="F37" s="132"/>
       <c r="G37" s="132"/>
-      <c r="L37" s="325" t="s">
+      <c r="L37" s="320" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12211,6 +12215,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:P4"/>
@@ -12227,16 +12241,6 @@
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="D12:D20"/>
     <mergeCell ref="C12:C20"/>
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11352" tabRatio="834" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$Q$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$78</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="183">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
@@ -2304,402 +2304,12 @@
     <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2708,9 +2318,6 @@
     </xf>
     <xf numFmtId="167" fontId="41" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2733,34 +2340,13 @@
     <xf numFmtId="167" fontId="38" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="43" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2768,15 +2354,6 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2815,6 +2392,429 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2883,7 +2883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2918,7 +2918,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3134,16 +3134,16 @@
       <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="197" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="105" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="197" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="105" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="105" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="110" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="110" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="110" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="105"/>
+    <col min="4" max="4" width="15.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="110" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="110" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
       <c r="G2" s="115"/>
       <c r="H2" s="116"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="193"/>
       <c r="B3" s="112"/>
       <c r="C3" s="113"/>
@@ -3183,18 +3183,18 @@
       <c r="H3" s="118"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="367" t="s">
+      <c r="A4" s="409" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="367"/>
-      <c r="C4" s="367"/>
-      <c r="D4" s="367"/>
-      <c r="E4" s="367"/>
-      <c r="F4" s="367"/>
-      <c r="G4" s="367"/>
+      <c r="B4" s="409"/>
+      <c r="C4" s="409"/>
+      <c r="D4" s="409"/>
+      <c r="E4" s="409"/>
+      <c r="F4" s="409"/>
+      <c r="G4" s="409"/>
       <c r="H4" s="118"/>
     </row>
-    <row r="5" spans="1:8" s="116" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="116" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="119"/>
       <c r="B5" s="119"/>
       <c r="D5" s="115"/>
@@ -3202,29 +3202,29 @@
       <c r="F5" s="115"/>
       <c r="G5" s="115"/>
     </row>
-    <row r="6" spans="1:8" s="116" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="368" t="s">
+    <row r="6" spans="1:8" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="410" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="368" t="s">
+      <c r="B6" s="410" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="370" t="s">
+      <c r="C6" s="412" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="372"/>
-      <c r="F6" s="372" t="s">
+      <c r="E6" s="414"/>
+      <c r="F6" s="414" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="372"/>
-    </row>
-    <row r="7" spans="1:8" s="116" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="369"/>
-      <c r="B7" s="369"/>
-      <c r="C7" s="371"/>
+      <c r="G6" s="414"/>
+    </row>
+    <row r="7" spans="1:8" s="116" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="411"/>
+      <c r="B7" s="411"/>
+      <c r="C7" s="413"/>
       <c r="D7" s="120" t="s">
         <v>84</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="194"/>
       <c r="B8" s="102"/>
       <c r="C8" s="103"/>
@@ -3247,7 +3247,7 @@
       <c r="F8" s="104"/>
       <c r="G8" s="121"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="194"/>
       <c r="B9" s="102"/>
       <c r="C9" s="103"/>
@@ -3256,7 +3256,7 @@
       <c r="F9" s="104"/>
       <c r="G9" s="121"/>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="194"/>
       <c r="B10" s="102"/>
       <c r="C10" s="103"/>
@@ -3265,7 +3265,7 @@
       <c r="F10" s="104"/>
       <c r="G10" s="121"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="194"/>
       <c r="B11" s="102"/>
       <c r="C11" s="103"/>
@@ -3274,7 +3274,7 @@
       <c r="F11" s="104"/>
       <c r="G11" s="121"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="194"/>
       <c r="B12" s="102"/>
       <c r="C12" s="103"/>
@@ -3283,7 +3283,7 @@
       <c r="F12" s="104"/>
       <c r="G12" s="121"/>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="194"/>
       <c r="B13" s="102"/>
       <c r="C13" s="103"/>
@@ -3292,7 +3292,7 @@
       <c r="F13" s="104"/>
       <c r="G13" s="121"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="194"/>
       <c r="B14" s="102"/>
       <c r="C14" s="103"/>
@@ -3301,7 +3301,7 @@
       <c r="F14" s="104"/>
       <c r="G14" s="121"/>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="194"/>
       <c r="B15" s="102"/>
       <c r="C15" s="103"/>
@@ -3310,7 +3310,7 @@
       <c r="F15" s="104"/>
       <c r="G15" s="121"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="194"/>
       <c r="B16" s="102"/>
       <c r="C16" s="103"/>
@@ -3319,7 +3319,7 @@
       <c r="F16" s="104"/>
       <c r="G16" s="121"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="194"/>
       <c r="B17" s="102"/>
       <c r="C17" s="103"/>
@@ -3328,7 +3328,7 @@
       <c r="F17" s="104"/>
       <c r="G17" s="121"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="194"/>
       <c r="B18" s="102"/>
       <c r="C18" s="103"/>
@@ -3337,7 +3337,7 @@
       <c r="F18" s="104"/>
       <c r="G18" s="121"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="194"/>
       <c r="B19" s="102"/>
       <c r="C19" s="103"/>
@@ -3346,7 +3346,7 @@
       <c r="F19" s="104"/>
       <c r="G19" s="121"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="194"/>
       <c r="B20" s="102"/>
       <c r="C20" s="103"/>
@@ -3355,7 +3355,7 @@
       <c r="F20" s="104"/>
       <c r="G20" s="121"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="194"/>
       <c r="B21" s="102"/>
       <c r="C21" s="103"/>
@@ -3364,7 +3364,7 @@
       <c r="F21" s="104"/>
       <c r="G21" s="121"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="194"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
@@ -3373,7 +3373,7 @@
       <c r="F22" s="104"/>
       <c r="G22" s="121"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="194"/>
       <c r="B23" s="102"/>
       <c r="C23" s="103"/>
@@ -3382,7 +3382,7 @@
       <c r="F23" s="104"/>
       <c r="G23" s="121"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="194"/>
       <c r="B24" s="102"/>
       <c r="C24" s="103"/>
@@ -3391,7 +3391,7 @@
       <c r="F24" s="104"/>
       <c r="G24" s="121"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="194"/>
       <c r="B25" s="102"/>
       <c r="C25" s="103"/>
@@ -3400,7 +3400,7 @@
       <c r="F25" s="104"/>
       <c r="G25" s="121"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="194"/>
       <c r="B26" s="102"/>
       <c r="C26" s="103"/>
@@ -3409,7 +3409,7 @@
       <c r="F26" s="104"/>
       <c r="G26" s="121"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="194"/>
       <c r="B27" s="102"/>
       <c r="C27" s="122"/>
@@ -3418,7 +3418,7 @@
       <c r="F27" s="104"/>
       <c r="G27" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="194"/>
       <c r="B28" s="102"/>
       <c r="C28" s="103"/>
@@ -3427,7 +3427,7 @@
       <c r="F28" s="104"/>
       <c r="G28" s="123"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="194"/>
       <c r="B29" s="102"/>
       <c r="C29" s="103"/>
@@ -3436,7 +3436,7 @@
       <c r="F29" s="104"/>
       <c r="G29" s="123"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="194"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
@@ -3445,7 +3445,7 @@
       <c r="F30" s="104"/>
       <c r="G30" s="123"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="194"/>
       <c r="B31" s="102"/>
       <c r="C31" s="124"/>
@@ -3454,7 +3454,7 @@
       <c r="F31" s="104"/>
       <c r="G31" s="123"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="194"/>
       <c r="B32" s="102"/>
       <c r="C32" s="103"/>
@@ -3463,7 +3463,7 @@
       <c r="F32" s="104"/>
       <c r="G32" s="123"/>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="194"/>
       <c r="B33" s="102"/>
       <c r="C33" s="122"/>
@@ -3472,7 +3472,7 @@
       <c r="F33" s="104"/>
       <c r="G33" s="123"/>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="194"/>
       <c r="B34" s="102"/>
       <c r="C34" s="122"/>
@@ -3481,7 +3481,7 @@
       <c r="F34" s="104"/>
       <c r="G34" s="123"/>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="194"/>
       <c r="B35" s="102"/>
       <c r="C35" s="103"/>
@@ -3490,7 +3490,7 @@
       <c r="F35" s="104"/>
       <c r="G35" s="123"/>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="194"/>
       <c r="B36" s="102"/>
       <c r="C36" s="103"/>
@@ -3499,7 +3499,7 @@
       <c r="F36" s="104"/>
       <c r="G36" s="123"/>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="194"/>
       <c r="B37" s="102"/>
       <c r="C37" s="103"/>
@@ -3508,7 +3508,7 @@
       <c r="F37" s="104"/>
       <c r="G37" s="123"/>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="194"/>
       <c r="B38" s="102"/>
       <c r="C38" s="103"/>
@@ -3517,7 +3517,7 @@
       <c r="F38" s="104"/>
       <c r="G38" s="123"/>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="194"/>
       <c r="B39" s="102"/>
       <c r="C39" s="103"/>
@@ -3526,7 +3526,7 @@
       <c r="F39" s="104"/>
       <c r="G39" s="123"/>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="194"/>
       <c r="B40" s="102"/>
       <c r="C40" s="103"/>
@@ -3535,7 +3535,7 @@
       <c r="F40" s="104"/>
       <c r="G40" s="123"/>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="194"/>
       <c r="B41" s="102"/>
       <c r="C41" s="103"/>
@@ -3544,7 +3544,7 @@
       <c r="F41" s="104"/>
       <c r="G41" s="123"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="194"/>
       <c r="B42" s="102"/>
       <c r="C42" s="103"/>
@@ -3870,12 +3870,12 @@
       <c r="F77" s="104"/>
       <c r="G77" s="123"/>
     </row>
-    <row r="78" spans="1:7" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="364" t="s">
+    <row r="78" spans="1:7" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="406" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="365"/>
-      <c r="C78" s="366"/>
+      <c r="B78" s="407"/>
+      <c r="C78" s="408"/>
       <c r="D78" s="125">
         <f>SUM(D8:D77)</f>
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="126" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="195"/>
       <c r="B79" s="127"/>
       <c r="C79" s="127"/>
@@ -3902,18 +3902,18 @@
       <c r="F79" s="128"/>
       <c r="G79" s="128"/>
     </row>
-    <row r="80" spans="1:7" s="126" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A80" s="363" t="s">
+    <row r="80" spans="1:7" s="126" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="405" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="363"/>
+      <c r="B80" s="405"/>
       <c r="C80" s="127"/>
       <c r="D80" s="128"/>
       <c r="E80" s="128"/>
       <c r="F80" s="128"/>
       <c r="G80" s="128"/>
     </row>
-    <row r="81" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="195"/>
       <c r="B81" s="127"/>
       <c r="C81" s="127"/>
@@ -3940,7 +3940,7 @@
       <c r="F83" s="312"/>
       <c r="G83" s="314"/>
     </row>
-    <row r="84" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="195"/>
       <c r="B84" s="127"/>
       <c r="C84" s="127"/>
@@ -4013,36 +4013,36 @@
       <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="167"/>
-    <col min="2" max="2" width="11.5546875" style="180" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="351"/>
-    <col min="4" max="4" width="12.6640625" style="167" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="167" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="167"/>
-    <col min="8" max="8" width="13.33203125" style="181" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="181" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="181" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="182"/>
-    <col min="12" max="12" width="15.88671875" style="181" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="181" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="167"/>
+    <col min="2" max="2" width="11.5703125" style="180" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="351"/>
+    <col min="4" max="4" width="12.7109375" style="167" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="167" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="167"/>
+    <col min="8" max="8" width="13.28515625" style="181" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="181" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="181" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="182"/>
+    <col min="12" max="12" width="15.85546875" style="181" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="181" customWidth="1"/>
     <col min="14" max="14" width="15" style="181" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="181" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" style="181" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="167" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="181" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="181" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="167" customWidth="1"/>
     <col min="18" max="18" width="13" style="167" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="167"/>
+    <col min="19" max="16384" width="9.140625" style="167"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="396" t="s">
+    <row r="1" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="421" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
+      <c r="B1" s="421"/>
+      <c r="C1" s="421"/>
+      <c r="D1" s="421"/>
+      <c r="E1" s="421"/>
       <c r="H1" s="153"/>
       <c r="I1" s="153"/>
       <c r="J1" s="153"/>
@@ -4053,7 +4053,7 @@
       <c r="O1" s="155"/>
       <c r="P1" s="153"/>
     </row>
-    <row r="2" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
         <v>2</v>
       </c>
@@ -4071,164 +4071,164 @@
       <c r="O2" s="158"/>
       <c r="P2" s="153"/>
     </row>
-    <row r="3" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="396" t="s">
+    <row r="3" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="421" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="396"/>
-      <c r="C3" s="396"/>
-      <c r="D3" s="396"/>
-      <c r="E3" s="396"/>
-      <c r="F3" s="396"/>
-      <c r="G3" s="396"/>
-      <c r="H3" s="396"/>
-      <c r="I3" s="396"/>
-      <c r="J3" s="396"/>
-      <c r="K3" s="396"/>
-      <c r="L3" s="396"/>
-      <c r="M3" s="396"/>
-      <c r="N3" s="396"/>
-      <c r="O3" s="396"/>
-      <c r="P3" s="396"/>
-      <c r="Q3" s="396"/>
-    </row>
-    <row r="4" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="396" t="s">
+      <c r="B3" s="421"/>
+      <c r="C3" s="421"/>
+      <c r="D3" s="421"/>
+      <c r="E3" s="421"/>
+      <c r="F3" s="421"/>
+      <c r="G3" s="421"/>
+      <c r="H3" s="421"/>
+      <c r="I3" s="421"/>
+      <c r="J3" s="421"/>
+      <c r="K3" s="421"/>
+      <c r="L3" s="421"/>
+      <c r="M3" s="421"/>
+      <c r="N3" s="421"/>
+      <c r="O3" s="421"/>
+      <c r="P3" s="421"/>
+      <c r="Q3" s="421"/>
+    </row>
+    <row r="4" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="421" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="396"/>
-      <c r="C4" s="396"/>
-      <c r="D4" s="396"/>
-      <c r="E4" s="396"/>
-      <c r="F4" s="396"/>
-      <c r="G4" s="396"/>
-      <c r="H4" s="396"/>
-      <c r="I4" s="396"/>
-      <c r="J4" s="396"/>
-      <c r="K4" s="396"/>
-      <c r="L4" s="396"/>
-      <c r="M4" s="396"/>
-      <c r="N4" s="396"/>
-      <c r="O4" s="396"/>
-      <c r="P4" s="396"/>
-      <c r="Q4" s="396"/>
-    </row>
-    <row r="5" spans="1:18" s="152" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="396"/>
-      <c r="B5" s="396"/>
-      <c r="C5" s="396"/>
-      <c r="D5" s="396"/>
-      <c r="E5" s="396"/>
-      <c r="F5" s="396"/>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
-      <c r="I5" s="396"/>
-      <c r="J5" s="396"/>
-      <c r="K5" s="397"/>
-      <c r="L5" s="397"/>
+      <c r="B4" s="421"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="421"/>
+      <c r="F4" s="421"/>
+      <c r="G4" s="421"/>
+      <c r="H4" s="421"/>
+      <c r="I4" s="421"/>
+      <c r="J4" s="421"/>
+      <c r="K4" s="421"/>
+      <c r="L4" s="421"/>
+      <c r="M4" s="421"/>
+      <c r="N4" s="421"/>
+      <c r="O4" s="421"/>
+      <c r="P4" s="421"/>
+      <c r="Q4" s="421"/>
+    </row>
+    <row r="5" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="421"/>
+      <c r="B5" s="421"/>
+      <c r="C5" s="421"/>
+      <c r="D5" s="421"/>
+      <c r="E5" s="421"/>
+      <c r="F5" s="421"/>
+      <c r="G5" s="421"/>
+      <c r="H5" s="421"/>
+      <c r="I5" s="421"/>
+      <c r="J5" s="421"/>
+      <c r="K5" s="422"/>
+      <c r="L5" s="422"/>
       <c r="M5" s="159"/>
       <c r="N5" s="153"/>
       <c r="O5" s="153"/>
       <c r="P5" s="153"/>
     </row>
-    <row r="6" spans="1:18" s="160" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="390" t="s">
+    <row r="6" spans="1:18" s="160" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="423" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="398" t="s">
+      <c r="B6" s="425" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="400" t="s">
+      <c r="C6" s="429" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="402" t="s">
+      <c r="D6" s="431" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="402"/>
-      <c r="F6" s="403" t="s">
+      <c r="E6" s="431"/>
+      <c r="F6" s="432" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="403"/>
-      <c r="H6" s="403"/>
-      <c r="I6" s="403"/>
-      <c r="J6" s="403"/>
-      <c r="K6" s="403"/>
-      <c r="L6" s="403"/>
-      <c r="M6" s="392" t="s">
+      <c r="G6" s="432"/>
+      <c r="H6" s="432"/>
+      <c r="I6" s="432"/>
+      <c r="J6" s="432"/>
+      <c r="K6" s="432"/>
+      <c r="L6" s="432"/>
+      <c r="M6" s="436" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="404"/>
-      <c r="O6" s="404"/>
-      <c r="P6" s="404"/>
-      <c r="Q6" s="405" t="s">
+      <c r="N6" s="433"/>
+      <c r="O6" s="433"/>
+      <c r="P6" s="433"/>
+      <c r="Q6" s="434" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="160" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="391"/>
-      <c r="B7" s="399"/>
-      <c r="C7" s="401"/>
-      <c r="D7" s="390" t="s">
+    <row r="7" spans="1:18" s="160" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="424"/>
+      <c r="B7" s="426"/>
+      <c r="C7" s="430"/>
+      <c r="D7" s="423" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="390" t="s">
+      <c r="E7" s="423" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="390" t="s">
+      <c r="F7" s="423" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="390" t="s">
+      <c r="G7" s="423" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="388" t="s">
+      <c r="H7" s="427" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="388" t="s">
+      <c r="I7" s="427" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="395" t="s">
+      <c r="J7" s="439" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="395"/>
-      <c r="L7" s="388" t="s">
+      <c r="K7" s="439"/>
+      <c r="L7" s="427" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="393"/>
-      <c r="N7" s="388" t="s">
+      <c r="M7" s="437"/>
+      <c r="N7" s="427" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="388" t="s">
+      <c r="O7" s="427" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="388" t="s">
+      <c r="P7" s="427" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="406"/>
-    </row>
-    <row r="8" spans="1:18" s="160" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="391"/>
-      <c r="B8" s="399"/>
-      <c r="C8" s="401"/>
-      <c r="D8" s="391"/>
-      <c r="E8" s="391"/>
-      <c r="F8" s="391"/>
-      <c r="G8" s="391"/>
-      <c r="H8" s="389"/>
-      <c r="I8" s="389"/>
+      <c r="Q7" s="435"/>
+    </row>
+    <row r="8" spans="1:18" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="424"/>
+      <c r="B8" s="426"/>
+      <c r="C8" s="430"/>
+      <c r="D8" s="424"/>
+      <c r="E8" s="424"/>
+      <c r="F8" s="424"/>
+      <c r="G8" s="424"/>
+      <c r="H8" s="428"/>
+      <c r="I8" s="428"/>
       <c r="J8" s="161" t="s">
         <v>87</v>
       </c>
       <c r="K8" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="389"/>
-      <c r="M8" s="394"/>
-      <c r="N8" s="389"/>
-      <c r="O8" s="389"/>
-      <c r="P8" s="389"/>
-      <c r="Q8" s="406"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L8" s="428"/>
+      <c r="M8" s="438"/>
+      <c r="N8" s="428"/>
+      <c r="O8" s="428"/>
+      <c r="P8" s="428"/>
+      <c r="Q8" s="435"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="163">
         <v>547</v>
       </c>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="Q9" s="163"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="163">
         <v>550</v>
       </c>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="Q10" s="163"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="163">
         <v>556</v>
       </c>
@@ -4366,20 +4366,20 @@
       </c>
       <c r="Q11" s="163"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="373">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="415">
         <v>557</v>
       </c>
-      <c r="B12" s="375">
+      <c r="B12" s="418">
         <v>43981</v>
       </c>
-      <c r="C12" s="382" t="s">
+      <c r="C12" s="444" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="373" t="s">
+      <c r="D12" s="415" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="373" t="s">
+      <c r="E12" s="415" t="s">
         <v>137</v>
       </c>
       <c r="F12" s="163" t="s">
@@ -4416,12 +4416,12 @@
         <v>834449.99999999977</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="374"/>
-      <c r="B13" s="376"/>
-      <c r="C13" s="383"/>
-      <c r="D13" s="374"/>
-      <c r="E13" s="374"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="417"/>
+      <c r="B13" s="420"/>
+      <c r="C13" s="445"/>
+      <c r="D13" s="417"/>
+      <c r="E13" s="417"/>
       <c r="F13" s="163" t="s">
         <v>138</v>
       </c>
@@ -4452,18 +4452,18 @@
       </c>
       <c r="Q13" s="168"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="163">
         <v>558</v>
       </c>
       <c r="B14" s="342">
         <v>43981</v>
       </c>
-      <c r="C14" s="379" t="s">
+      <c r="C14" s="446" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="380"/>
-      <c r="E14" s="381"/>
+      <c r="D14" s="447"/>
+      <c r="E14" s="448"/>
       <c r="F14" s="163" t="s">
         <v>140</v>
       </c>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="Q14" s="168"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="163">
         <v>559</v>
       </c>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="Q15" s="168"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="163">
         <v>560</v>
       </c>
@@ -4584,20 +4584,20 @@
       </c>
       <c r="Q16" s="168"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="373">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="415">
         <v>563</v>
       </c>
-      <c r="B17" s="375">
+      <c r="B17" s="418">
         <v>43986</v>
       </c>
-      <c r="C17" s="382" t="s">
+      <c r="C17" s="444" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="377" t="s">
+      <c r="D17" s="449" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="377" t="s">
+      <c r="E17" s="449" t="s">
         <v>148</v>
       </c>
       <c r="F17" s="163" t="s">
@@ -4630,12 +4630,12 @@
       <c r="P17" s="165"/>
       <c r="Q17" s="168"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="374"/>
-      <c r="B18" s="376"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="378"/>
-      <c r="E18" s="378"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="417"/>
+      <c r="B18" s="420"/>
+      <c r="C18" s="445"/>
+      <c r="D18" s="450"/>
+      <c r="E18" s="450"/>
       <c r="F18" s="163" t="s">
         <v>144</v>
       </c>
@@ -4666,7 +4666,7 @@
       <c r="P18" s="165"/>
       <c r="Q18" s="168"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="163">
         <v>564</v>
       </c>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="Q19" s="168"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="163">
         <v>566</v>
       </c>
@@ -4756,18 +4756,18 @@
       </c>
       <c r="Q20" s="168"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="373">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="415">
         <v>567</v>
       </c>
-      <c r="B21" s="375">
+      <c r="B21" s="418">
         <v>43990</v>
       </c>
-      <c r="C21" s="373"/>
-      <c r="D21" s="377" t="s">
+      <c r="C21" s="415"/>
+      <c r="D21" s="449" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="377" t="s">
+      <c r="E21" s="449" t="s">
         <v>154</v>
       </c>
       <c r="F21" s="163" t="s">
@@ -4800,12 +4800,12 @@
       </c>
       <c r="Q21" s="168"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="374"/>
-      <c r="B22" s="376"/>
-      <c r="C22" s="374"/>
-      <c r="D22" s="378"/>
-      <c r="E22" s="378"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="417"/>
+      <c r="B22" s="420"/>
+      <c r="C22" s="417"/>
+      <c r="D22" s="450"/>
+      <c r="E22" s="450"/>
       <c r="F22" s="163" t="s">
         <v>141</v>
       </c>
@@ -4836,18 +4836,18 @@
       </c>
       <c r="Q22" s="168"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="373">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="415">
         <v>571</v>
       </c>
-      <c r="B23" s="375">
+      <c r="B23" s="418">
         <v>43990</v>
       </c>
-      <c r="C23" s="373"/>
-      <c r="D23" s="373" t="s">
+      <c r="C23" s="415"/>
+      <c r="D23" s="415" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="373" t="s">
+      <c r="E23" s="415" t="s">
         <v>156</v>
       </c>
       <c r="F23" s="163" t="s">
@@ -4878,12 +4878,12 @@
       </c>
       <c r="Q23" s="163"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="407"/>
-      <c r="B24" s="408"/>
-      <c r="C24" s="407"/>
-      <c r="D24" s="407"/>
-      <c r="E24" s="407"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="416"/>
+      <c r="B24" s="419"/>
+      <c r="C24" s="416"/>
+      <c r="D24" s="416"/>
+      <c r="E24" s="416"/>
       <c r="F24" s="163" t="s">
         <v>152</v>
       </c>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="Q24" s="163"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="407"/>
-      <c r="B25" s="408"/>
-      <c r="C25" s="407"/>
-      <c r="D25" s="407"/>
-      <c r="E25" s="407"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="416"/>
+      <c r="B25" s="419"/>
+      <c r="C25" s="416"/>
+      <c r="D25" s="416"/>
+      <c r="E25" s="416"/>
       <c r="F25" s="163" t="s">
         <v>157</v>
       </c>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="Q25" s="163"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="407"/>
-      <c r="B26" s="408"/>
-      <c r="C26" s="407"/>
-      <c r="D26" s="407"/>
-      <c r="E26" s="407"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="416"/>
+      <c r="B26" s="419"/>
+      <c r="C26" s="416"/>
+      <c r="D26" s="416"/>
+      <c r="E26" s="416"/>
       <c r="F26" s="163" t="s">
         <v>132</v>
       </c>
@@ -4980,12 +4980,12 @@
       </c>
       <c r="Q26" s="163"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="407"/>
-      <c r="B27" s="408"/>
-      <c r="C27" s="407"/>
-      <c r="D27" s="407"/>
-      <c r="E27" s="407"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="416"/>
+      <c r="B27" s="419"/>
+      <c r="C27" s="416"/>
+      <c r="D27" s="416"/>
+      <c r="E27" s="416"/>
       <c r="F27" s="344" t="s">
         <v>158</v>
       </c>
@@ -5014,12 +5014,12 @@
       </c>
       <c r="Q27" s="163"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="407"/>
-      <c r="B28" s="408"/>
-      <c r="C28" s="407"/>
-      <c r="D28" s="407"/>
-      <c r="E28" s="407"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="416"/>
+      <c r="B28" s="419"/>
+      <c r="C28" s="416"/>
+      <c r="D28" s="416"/>
+      <c r="E28" s="416"/>
       <c r="F28" s="163" t="s">
         <v>149</v>
       </c>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="Q28" s="163"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="407"/>
-      <c r="B29" s="408"/>
-      <c r="C29" s="407"/>
-      <c r="D29" s="407"/>
-      <c r="E29" s="407"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="416"/>
+      <c r="B29" s="419"/>
+      <c r="C29" s="416"/>
+      <c r="D29" s="416"/>
+      <c r="E29" s="416"/>
       <c r="F29" s="163" t="s">
         <v>159</v>
       </c>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="Q29" s="168"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="374"/>
-      <c r="B30" s="376"/>
-      <c r="C30" s="374"/>
-      <c r="D30" s="374"/>
-      <c r="E30" s="374"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="417"/>
+      <c r="B30" s="420"/>
+      <c r="C30" s="417"/>
+      <c r="D30" s="417"/>
+      <c r="E30" s="417"/>
       <c r="F30" s="163" t="s">
         <v>160</v>
       </c>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="Q30" s="163"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="163">
         <v>569</v>
       </c>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="Q31" s="163"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="163">
         <v>570</v>
       </c>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="Q32" s="163"/>
     </row>
-    <row r="33" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="147"/>
       <c r="B33" s="355"/>
       <c r="C33" s="348"/>
@@ -5226,7 +5226,7 @@
       <c r="P33" s="148"/>
       <c r="Q33" s="147"/>
     </row>
-    <row r="34" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="147"/>
       <c r="B34" s="355"/>
       <c r="C34" s="348"/>
@@ -5248,7 +5248,7 @@
       <c r="P34" s="148"/>
       <c r="Q34" s="147"/>
     </row>
-    <row r="35" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="147"/>
       <c r="B35" s="355"/>
       <c r="C35" s="348"/>
@@ -5270,7 +5270,7 @@
       <c r="P35" s="148"/>
       <c r="Q35" s="147"/>
     </row>
-    <row r="36" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="147"/>
       <c r="B36" s="355"/>
       <c r="C36" s="348"/>
@@ -5292,7 +5292,7 @@
       <c r="P36" s="148"/>
       <c r="Q36" s="147"/>
     </row>
-    <row r="37" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="147"/>
       <c r="B37" s="355"/>
       <c r="C37" s="348"/>
@@ -5314,7 +5314,7 @@
       <c r="P37" s="148"/>
       <c r="Q37" s="147"/>
     </row>
-    <row r="38" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="147"/>
       <c r="B38" s="355"/>
       <c r="C38" s="348"/>
@@ -5336,7 +5336,7 @@
       <c r="P38" s="148"/>
       <c r="Q38" s="147"/>
     </row>
-    <row r="39" spans="1:18" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="147"/>
       <c r="B39" s="355"/>
       <c r="C39" s="348"/>
@@ -5355,7 +5355,7 @@
       <c r="P39" s="148"/>
       <c r="Q39" s="147"/>
     </row>
-    <row r="40" spans="1:18" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="147"/>
       <c r="B40" s="355"/>
       <c r="C40" s="348"/>
@@ -5374,7 +5374,7 @@
       <c r="P40" s="148"/>
       <c r="Q40" s="147"/>
     </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="163"/>
       <c r="B41" s="342"/>
       <c r="C41" s="347"/>
@@ -5393,7 +5393,7 @@
       <c r="P41" s="165"/>
       <c r="Q41" s="163"/>
     </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="163"/>
       <c r="B42" s="342"/>
       <c r="C42" s="347"/>
@@ -5412,7 +5412,7 @@
       <c r="P42" s="165"/>
       <c r="Q42" s="163"/>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="163"/>
       <c r="B43" s="342"/>
       <c r="C43" s="347"/>
@@ -5431,7 +5431,7 @@
       <c r="P43" s="165"/>
       <c r="Q43" s="163"/>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="163"/>
       <c r="B44" s="342"/>
       <c r="C44" s="347"/>
@@ -5450,7 +5450,7 @@
       <c r="P44" s="165"/>
       <c r="Q44" s="163"/>
     </row>
-    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="163"/>
       <c r="B45" s="342"/>
       <c r="C45" s="347"/>
@@ -5469,7 +5469,7 @@
       <c r="P45" s="165"/>
       <c r="Q45" s="163"/>
     </row>
-    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="163"/>
       <c r="B46" s="342"/>
       <c r="C46" s="347"/>
@@ -5488,7 +5488,7 @@
       <c r="P46" s="165"/>
       <c r="Q46" s="163"/>
     </row>
-    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="163"/>
       <c r="B47" s="164"/>
       <c r="C47" s="347"/>
@@ -5508,7 +5508,7 @@
       <c r="Q47" s="163"/>
       <c r="R47" s="171"/>
     </row>
-    <row r="48" spans="1:18" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="147"/>
       <c r="B48" s="357"/>
       <c r="C48" s="348"/>
@@ -5528,7 +5528,7 @@
       <c r="Q48" s="147"/>
       <c r="R48" s="151"/>
     </row>
-    <row r="49" spans="1:18" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="147"/>
       <c r="B49" s="355"/>
       <c r="C49" s="348"/>
@@ -5548,7 +5548,7 @@
       <c r="Q49" s="147"/>
       <c r="R49" s="151"/>
     </row>
-    <row r="50" spans="1:18" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="147"/>
       <c r="B50" s="355"/>
       <c r="C50" s="348"/>
@@ -5568,7 +5568,7 @@
       <c r="Q50" s="147"/>
       <c r="R50" s="151"/>
     </row>
-    <row r="51" spans="1:18" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="147"/>
       <c r="B51" s="355"/>
       <c r="C51" s="348"/>
@@ -5588,7 +5588,7 @@
       <c r="Q51" s="147"/>
       <c r="R51" s="151"/>
     </row>
-    <row r="52" spans="1:18" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="147"/>
       <c r="B52" s="355"/>
       <c r="C52" s="348"/>
@@ -5608,7 +5608,7 @@
       <c r="Q52" s="147"/>
       <c r="R52" s="151"/>
     </row>
-    <row r="53" spans="1:18" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="147"/>
       <c r="B53" s="355"/>
       <c r="C53" s="348"/>
@@ -5628,7 +5628,7 @@
       <c r="Q53" s="147"/>
       <c r="R53" s="151"/>
     </row>
-    <row r="54" spans="1:18" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="147"/>
       <c r="B54" s="355"/>
       <c r="C54" s="348"/>
@@ -5648,7 +5648,7 @@
       <c r="Q54" s="147"/>
       <c r="R54" s="151"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="163"/>
       <c r="B55" s="342"/>
       <c r="C55" s="347"/>
@@ -5668,7 +5668,7 @@
       <c r="Q55" s="163"/>
       <c r="R55" s="171"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="163"/>
       <c r="B56" s="342"/>
       <c r="C56" s="347"/>
@@ -5688,7 +5688,7 @@
       <c r="Q56" s="163"/>
       <c r="R56" s="171"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="163"/>
       <c r="B57" s="191"/>
       <c r="C57" s="347"/>
@@ -5707,7 +5707,7 @@
       <c r="P57" s="165"/>
       <c r="Q57" s="163"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="163"/>
       <c r="B58" s="191"/>
       <c r="C58" s="347"/>
@@ -5726,7 +5726,7 @@
       <c r="P58" s="165"/>
       <c r="Q58" s="163"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="163"/>
       <c r="B59" s="342"/>
       <c r="C59" s="347"/>
@@ -5745,7 +5745,7 @@
       <c r="P59" s="165"/>
       <c r="Q59" s="163"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="163"/>
       <c r="B60" s="342"/>
       <c r="C60" s="347"/>
@@ -5764,7 +5764,7 @@
       <c r="P60" s="165"/>
       <c r="Q60" s="163"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="163"/>
       <c r="B61" s="342"/>
       <c r="C61" s="347"/>
@@ -5783,7 +5783,7 @@
       <c r="P61" s="165"/>
       <c r="Q61" s="163"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="163"/>
       <c r="B62" s="342"/>
       <c r="C62" s="347"/>
@@ -5802,7 +5802,7 @@
       <c r="P62" s="165"/>
       <c r="Q62" s="163"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="163"/>
       <c r="B63" s="342"/>
       <c r="C63" s="347"/>
@@ -5821,7 +5821,7 @@
       <c r="P63" s="165"/>
       <c r="Q63" s="163"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="163"/>
       <c r="B64" s="164"/>
       <c r="C64" s="347"/>
@@ -5840,7 +5840,7 @@
       <c r="P64" s="165"/>
       <c r="Q64" s="163"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="163"/>
       <c r="B65" s="354"/>
       <c r="C65" s="347"/>
@@ -5859,7 +5859,7 @@
       <c r="P65" s="165"/>
       <c r="Q65" s="163"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="163"/>
       <c r="B66" s="354"/>
       <c r="C66" s="347"/>
@@ -5878,7 +5878,7 @@
       <c r="P66" s="165"/>
       <c r="Q66" s="163"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="163"/>
       <c r="B67" s="191"/>
       <c r="C67" s="347"/>
@@ -5897,7 +5897,7 @@
       <c r="P67" s="165"/>
       <c r="Q67" s="163"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="163"/>
       <c r="B68" s="191"/>
       <c r="C68" s="347"/>
@@ -5916,7 +5916,7 @@
       <c r="P68" s="165"/>
       <c r="Q68" s="163"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="163"/>
       <c r="B69" s="354"/>
       <c r="C69" s="347"/>
@@ -5935,7 +5935,7 @@
       <c r="P69" s="165"/>
       <c r="Q69" s="163"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="163"/>
       <c r="B70" s="354"/>
       <c r="C70" s="347"/>
@@ -5954,7 +5954,7 @@
       <c r="P70" s="165"/>
       <c r="Q70" s="163"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="163"/>
       <c r="B71" s="354"/>
       <c r="C71" s="347"/>
@@ -5973,7 +5973,7 @@
       <c r="P71" s="165"/>
       <c r="Q71" s="163"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="163"/>
       <c r="B72" s="354"/>
       <c r="C72" s="347"/>
@@ -5992,7 +5992,7 @@
       <c r="P72" s="165"/>
       <c r="Q72" s="163"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="163"/>
       <c r="B73" s="354"/>
       <c r="C73" s="347"/>
@@ -6011,7 +6011,7 @@
       <c r="P73" s="165"/>
       <c r="Q73" s="163"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="163"/>
       <c r="B74" s="354"/>
       <c r="C74" s="347"/>
@@ -6030,7 +6030,7 @@
       <c r="P74" s="165"/>
       <c r="Q74" s="163"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="163"/>
       <c r="B75" s="354"/>
       <c r="C75" s="347"/>
@@ -6049,7 +6049,7 @@
       <c r="P75" s="165"/>
       <c r="Q75" s="163"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="163"/>
       <c r="B76" s="354"/>
       <c r="C76" s="347"/>
@@ -6068,7 +6068,7 @@
       <c r="P76" s="165"/>
       <c r="Q76" s="163"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="163"/>
       <c r="B77" s="191"/>
       <c r="C77" s="347"/>
@@ -6087,7 +6087,7 @@
       <c r="P77" s="165"/>
       <c r="Q77" s="163"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="163"/>
       <c r="B78" s="191"/>
       <c r="C78" s="347"/>
@@ -6106,7 +6106,7 @@
       <c r="P78" s="165"/>
       <c r="Q78" s="163"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="163"/>
       <c r="B79" s="354"/>
       <c r="C79" s="347"/>
@@ -6125,7 +6125,7 @@
       <c r="P79" s="165"/>
       <c r="Q79" s="163"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="163"/>
       <c r="B80" s="354"/>
       <c r="C80" s="347"/>
@@ -6144,7 +6144,7 @@
       <c r="P80" s="165"/>
       <c r="Q80" s="163"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="163"/>
       <c r="B81" s="354"/>
       <c r="C81" s="347"/>
@@ -6163,7 +6163,7 @@
       <c r="P81" s="165"/>
       <c r="Q81" s="163"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="163"/>
       <c r="B82" s="354"/>
       <c r="C82" s="347"/>
@@ -6182,7 +6182,7 @@
       <c r="P82" s="165"/>
       <c r="Q82" s="163"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="163"/>
       <c r="B83" s="354"/>
       <c r="C83" s="347"/>
@@ -6201,7 +6201,7 @@
       <c r="P83" s="165"/>
       <c r="Q83" s="163"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="163"/>
       <c r="B84" s="354"/>
       <c r="C84" s="347"/>
@@ -6220,7 +6220,7 @@
       <c r="P84" s="165"/>
       <c r="Q84" s="163"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="163"/>
       <c r="B85" s="354"/>
       <c r="C85" s="347"/>
@@ -6239,7 +6239,7 @@
       <c r="P85" s="165"/>
       <c r="Q85" s="163"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="163"/>
       <c r="B86" s="354"/>
       <c r="C86" s="347"/>
@@ -6258,7 +6258,7 @@
       <c r="P86" s="165"/>
       <c r="Q86" s="163"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="163"/>
       <c r="B87" s="354"/>
       <c r="C87" s="347"/>
@@ -6277,7 +6277,7 @@
       <c r="P87" s="165"/>
       <c r="Q87" s="163"/>
     </row>
-    <row r="88" spans="1:17" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="147"/>
       <c r="B88" s="199"/>
       <c r="C88" s="348"/>
@@ -6296,7 +6296,7 @@
       <c r="P88" s="148"/>
       <c r="Q88" s="147"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="163"/>
       <c r="B89" s="354"/>
       <c r="C89" s="347"/>
@@ -6315,7 +6315,7 @@
       <c r="P89" s="165"/>
       <c r="Q89" s="163"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="163"/>
       <c r="B90" s="354"/>
       <c r="C90" s="347"/>
@@ -6334,7 +6334,7 @@
       <c r="P90" s="165"/>
       <c r="Q90" s="163"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="163"/>
       <c r="B91" s="354"/>
       <c r="C91" s="347"/>
@@ -6353,7 +6353,7 @@
       <c r="P91" s="165"/>
       <c r="Q91" s="163"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="163"/>
       <c r="B92" s="354"/>
       <c r="C92" s="347"/>
@@ -6372,7 +6372,7 @@
       <c r="P92" s="165"/>
       <c r="Q92" s="163"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="163"/>
       <c r="B93" s="191"/>
       <c r="C93" s="347"/>
@@ -6391,7 +6391,7 @@
       <c r="P93" s="165"/>
       <c r="Q93" s="163"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="163"/>
       <c r="B94" s="354"/>
       <c r="C94" s="347"/>
@@ -6410,7 +6410,7 @@
       <c r="P94" s="165"/>
       <c r="Q94" s="163"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="163"/>
       <c r="B95" s="354"/>
       <c r="C95" s="347"/>
@@ -6429,7 +6429,7 @@
       <c r="P95" s="165"/>
       <c r="Q95" s="163"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="163"/>
       <c r="B96" s="354"/>
       <c r="C96" s="347"/>
@@ -6448,7 +6448,7 @@
       <c r="P96" s="165"/>
       <c r="Q96" s="163"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="163"/>
       <c r="B97" s="354"/>
       <c r="C97" s="347"/>
@@ -6467,7 +6467,7 @@
       <c r="P97" s="165"/>
       <c r="Q97" s="163"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="163"/>
       <c r="B98" s="191"/>
       <c r="C98" s="347"/>
@@ -6486,7 +6486,7 @@
       <c r="P98" s="165"/>
       <c r="Q98" s="163"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="163"/>
       <c r="B99" s="191"/>
       <c r="C99" s="347"/>
@@ -6505,7 +6505,7 @@
       <c r="P99" s="165"/>
       <c r="Q99" s="163"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="163"/>
       <c r="B100" s="191"/>
       <c r="C100" s="347"/>
@@ -6524,7 +6524,7 @@
       <c r="P100" s="165"/>
       <c r="Q100" s="163"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="163"/>
       <c r="B101" s="191"/>
       <c r="C101" s="347"/>
@@ -6543,7 +6543,7 @@
       <c r="P101" s="165"/>
       <c r="Q101" s="163"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="163"/>
       <c r="B102" s="342"/>
       <c r="C102" s="347"/>
@@ -6562,7 +6562,7 @@
       <c r="P102" s="165"/>
       <c r="Q102" s="163"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="163"/>
       <c r="B103" s="342"/>
       <c r="C103" s="347"/>
@@ -6581,7 +6581,7 @@
       <c r="P103" s="165"/>
       <c r="Q103" s="163"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="163"/>
       <c r="B104" s="342"/>
       <c r="C104" s="347"/>
@@ -6600,7 +6600,7 @@
       <c r="P104" s="165"/>
       <c r="Q104" s="163"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="163"/>
       <c r="B105" s="342"/>
       <c r="C105" s="347"/>
@@ -6619,7 +6619,7 @@
       <c r="P105" s="165"/>
       <c r="Q105" s="163"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="163"/>
       <c r="B106" s="342"/>
       <c r="C106" s="347"/>
@@ -6638,7 +6638,7 @@
       <c r="P106" s="165"/>
       <c r="Q106" s="163"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="163"/>
       <c r="B107" s="342"/>
       <c r="C107" s="347"/>
@@ -6657,7 +6657,7 @@
       <c r="P107" s="165"/>
       <c r="Q107" s="163"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="163"/>
       <c r="B108" s="342"/>
       <c r="C108" s="347"/>
@@ -6676,7 +6676,7 @@
       <c r="P108" s="165"/>
       <c r="Q108" s="163"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="163"/>
       <c r="B109" s="164"/>
       <c r="C109" s="347"/>
@@ -6695,7 +6695,7 @@
       <c r="P109" s="165"/>
       <c r="Q109" s="163"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="163"/>
       <c r="B110" s="342"/>
       <c r="C110" s="347"/>
@@ -6714,7 +6714,7 @@
       <c r="P110" s="165"/>
       <c r="Q110" s="163"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="163"/>
       <c r="B111" s="342"/>
       <c r="C111" s="347"/>
@@ -6733,7 +6733,7 @@
       <c r="P111" s="165"/>
       <c r="Q111" s="163"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="163"/>
       <c r="B112" s="342"/>
       <c r="C112" s="347"/>
@@ -6752,7 +6752,7 @@
       <c r="P112" s="165"/>
       <c r="Q112" s="163"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="163"/>
       <c r="B113" s="342"/>
       <c r="C113" s="347"/>
@@ -6771,7 +6771,7 @@
       <c r="P113" s="165"/>
       <c r="Q113" s="163"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="163"/>
       <c r="B114" s="342"/>
       <c r="C114" s="347"/>
@@ -6790,7 +6790,7 @@
       <c r="P114" s="165"/>
       <c r="Q114" s="163"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="163"/>
       <c r="B115" s="164"/>
       <c r="C115" s="347"/>
@@ -6809,7 +6809,7 @@
       <c r="P115" s="165"/>
       <c r="Q115" s="163"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="163"/>
       <c r="B116" s="164"/>
       <c r="C116" s="347"/>
@@ -6828,15 +6828,15 @@
       <c r="P116" s="165"/>
       <c r="Q116" s="163"/>
     </row>
-    <row r="117" spans="1:18" s="178" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="386" t="s">
+    <row r="117" spans="1:18" s="178" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A117" s="442" t="s">
         <v>80</v>
       </c>
-      <c r="B117" s="386"/>
-      <c r="C117" s="386"/>
-      <c r="D117" s="386"/>
-      <c r="E117" s="386"/>
-      <c r="F117" s="386"/>
+      <c r="B117" s="442"/>
+      <c r="C117" s="442"/>
+      <c r="D117" s="442"/>
+      <c r="E117" s="442"/>
+      <c r="F117" s="442"/>
       <c r="G117" s="172">
         <f>SUM(G9:G116)</f>
         <v>459</v>
@@ -6856,18 +6856,18 @@
       <c r="N117" s="173"/>
       <c r="O117" s="173"/>
       <c r="P117" s="173"/>
-      <c r="Q117" s="387"/>
-      <c r="R117" s="384"/>
-    </row>
-    <row r="118" spans="1:18" s="178" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="385" t="s">
+      <c r="Q117" s="443"/>
+      <c r="R117" s="440"/>
+    </row>
+    <row r="118" spans="1:18" s="178" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A118" s="441" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="385"/>
-      <c r="C118" s="385"/>
-      <c r="D118" s="385"/>
-      <c r="E118" s="385"/>
-      <c r="F118" s="385"/>
+      <c r="B118" s="441"/>
+      <c r="C118" s="441"/>
+      <c r="D118" s="441"/>
+      <c r="E118" s="441"/>
+      <c r="F118" s="441"/>
       <c r="G118" s="172">
         <f>G117</f>
         <v>459</v>
@@ -6884,18 +6884,18 @@
       <c r="N118" s="175"/>
       <c r="O118" s="175"/>
       <c r="P118" s="175"/>
-      <c r="Q118" s="387"/>
-      <c r="R118" s="384"/>
-    </row>
-    <row r="119" spans="1:18" s="178" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="385" t="s">
+      <c r="Q118" s="443"/>
+      <c r="R118" s="440"/>
+    </row>
+    <row r="119" spans="1:18" s="178" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A119" s="441" t="s">
         <v>81</v>
       </c>
-      <c r="B119" s="385"/>
-      <c r="C119" s="385"/>
-      <c r="D119" s="385"/>
-      <c r="E119" s="385"/>
-      <c r="F119" s="385"/>
+      <c r="B119" s="441"/>
+      <c r="C119" s="441"/>
+      <c r="D119" s="441"/>
+      <c r="E119" s="441"/>
+      <c r="F119" s="441"/>
       <c r="G119" s="179" t="s">
         <v>50</v>
       </c>
@@ -6912,15 +6912,15 @@
       <c r="O119" s="175"/>
       <c r="P119" s="175"/>
     </row>
-    <row r="120" spans="1:18" s="178" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="385" t="s">
+    <row r="120" spans="1:18" s="178" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A120" s="441" t="s">
         <v>82</v>
       </c>
-      <c r="B120" s="385"/>
-      <c r="C120" s="385"/>
-      <c r="D120" s="385"/>
-      <c r="E120" s="385"/>
-      <c r="F120" s="385"/>
+      <c r="B120" s="441"/>
+      <c r="C120" s="441"/>
+      <c r="D120" s="441"/>
+      <c r="E120" s="441"/>
+      <c r="F120" s="441"/>
       <c r="G120" s="179"/>
       <c r="H120" s="175"/>
       <c r="I120" s="173"/>
@@ -6935,15 +6935,15 @@
       <c r="O120" s="175"/>
       <c r="P120" s="175"/>
     </row>
-    <row r="121" spans="1:18" s="178" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="385" t="s">
+    <row r="121" spans="1:18" s="178" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A121" s="441" t="s">
         <v>83</v>
       </c>
-      <c r="B121" s="385"/>
-      <c r="C121" s="385"/>
-      <c r="D121" s="385"/>
-      <c r="E121" s="385"/>
-      <c r="F121" s="385"/>
+      <c r="B121" s="441"/>
+      <c r="C121" s="441"/>
+      <c r="D121" s="441"/>
+      <c r="E121" s="441"/>
+      <c r="F121" s="441"/>
       <c r="G121" s="179"/>
       <c r="H121" s="175"/>
       <c r="I121" s="173"/>
@@ -6958,7 +6958,7 @@
       <c r="O121" s="175"/>
       <c r="P121" s="175"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C124" s="349"/>
       <c r="E124" s="183" t="s">
         <v>113</v>
@@ -6977,7 +6977,7 @@
       <c r="O124" s="185"/>
       <c r="P124" s="185"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C125" s="350"/>
       <c r="E125" s="186" t="s">
         <v>15</v>
@@ -6996,7 +6996,7 @@
       <c r="O125" s="185"/>
       <c r="P125" s="185"/>
     </row>
-    <row r="128" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="188"/>
       <c r="C128" s="349"/>
       <c r="E128" s="183"/>
@@ -7026,11 +7026,36 @@
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="E23:E30"/>
-    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="Q117:Q118"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A4:Q4"/>
@@ -7047,36 +7072,11 @@
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="Q117:Q118"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="C23:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7091,17 +7091,17 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -7164,15 +7164,15 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="409" t="s">
+    <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="451" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="409"/>
-      <c r="C4" s="409"/>
-      <c r="D4" s="409"/>
-      <c r="E4" s="409"/>
-      <c r="F4" s="409"/>
+      <c r="B4" s="451"/>
+      <c r="C4" s="451"/>
+      <c r="D4" s="451"/>
+      <c r="E4" s="451"/>
+      <c r="F4" s="451"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -7186,14 +7186,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="410" t="s">
+      <c r="A5" s="452" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="410"/>
-      <c r="C5" s="410"/>
-      <c r="D5" s="410"/>
-      <c r="E5" s="410"/>
-      <c r="F5" s="410"/>
+      <c r="B5" s="452"/>
+      <c r="C5" s="452"/>
+      <c r="D5" s="452"/>
+      <c r="E5" s="452"/>
+      <c r="F5" s="452"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -7206,7 +7206,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="73"/>
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
@@ -7225,7 +7225,7 @@
       <c r="P6" s="70"/>
       <c r="Q6" s="70"/>
     </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>18</v>
       </c>
@@ -7254,7 +7254,7 @@
       <c r="P7" s="69"/>
       <c r="Q7" s="69"/>
     </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
         <v>1</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="P8" s="67"/>
       <c r="Q8" s="67"/>
     </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="77">
         <v>2</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="P9" s="67"/>
       <c r="Q9" s="67"/>
     </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="77">
         <v>3</v>
       </c>
@@ -7335,7 +7335,7 @@
       <c r="P10" s="67"/>
       <c r="Q10" s="67"/>
     </row>
-    <row r="11" spans="1:17" s="68" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="130"/>
       <c r="B11" s="137" t="s">
         <v>86</v>
@@ -7359,7 +7359,7 @@
       <c r="P11" s="67"/>
       <c r="Q11" s="67"/>
     </row>
-    <row r="12" spans="1:17" s="68" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="80"/>
       <c r="B12" s="82" t="s">
         <v>56</v>
@@ -7383,7 +7383,7 @@
       <c r="P12" s="67"/>
       <c r="Q12" s="67"/>
     </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -7402,7 +7402,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -7524,7 +7524,7 @@
       <c r="D23" s="323"/>
       <c r="E23" s="37"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
         <v>25</v>
@@ -7540,10 +7540,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="411" t="s">
+      <c r="A25" s="453" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="411"/>
+      <c r="B25" s="453"/>
       <c r="C25" s="31"/>
       <c r="D25" s="324">
         <f>C24-D24</f>
@@ -7605,44 +7605,44 @@
       <selection activeCell="A5" sqref="A5:P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="69" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="99" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="99" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="14" customWidth="1"/>
     <col min="10" max="10" width="10" style="14" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" style="14" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="14" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" style="14" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="14"/>
-    <col min="18" max="18" width="15.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" style="14"/>
-    <col min="20" max="20" width="15.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="14"/>
+    <col min="11" max="11" width="8.140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="14" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="14" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="14"/>
+    <col min="18" max="18" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="14"/>
+    <col min="20" max="20" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="422" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="454" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
+      <c r="B1" s="454"/>
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="H2" s="69"/>
       <c r="I2" s="69"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="97"/>
       <c r="F3" s="69"/>
@@ -7663,135 +7663,135 @@
       <c r="H3" s="69"/>
       <c r="I3" s="69"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="413" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="455" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="413"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="413"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="413"/>
-      <c r="H4" s="413"/>
-      <c r="I4" s="413"/>
-      <c r="J4" s="413"/>
-      <c r="K4" s="413"/>
-      <c r="L4" s="413"/>
-      <c r="M4" s="413"/>
-      <c r="N4" s="413"/>
-      <c r="O4" s="413"/>
-      <c r="P4" s="413"/>
+      <c r="B4" s="455"/>
+      <c r="C4" s="455"/>
+      <c r="D4" s="455"/>
+      <c r="E4" s="455"/>
+      <c r="F4" s="455"/>
+      <c r="G4" s="455"/>
+      <c r="H4" s="455"/>
+      <c r="I4" s="455"/>
+      <c r="J4" s="455"/>
+      <c r="K4" s="455"/>
+      <c r="L4" s="455"/>
+      <c r="M4" s="455"/>
+      <c r="N4" s="455"/>
+      <c r="O4" s="455"/>
+      <c r="P4" s="455"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="425"/>
-      <c r="B5" s="425"/>
-      <c r="C5" s="425"/>
-      <c r="D5" s="425"/>
-      <c r="E5" s="425"/>
-      <c r="F5" s="425"/>
-      <c r="G5" s="425"/>
-      <c r="H5" s="425"/>
-      <c r="I5" s="425"/>
-      <c r="J5" s="425"/>
-      <c r="K5" s="425"/>
-      <c r="L5" s="425"/>
-      <c r="M5" s="425"/>
-      <c r="N5" s="425"/>
-      <c r="O5" s="425"/>
-      <c r="P5" s="425"/>
-    </row>
-    <row r="6" spans="1:16" s="160" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="402" t="s">
+      <c r="A5" s="458"/>
+      <c r="B5" s="458"/>
+      <c r="C5" s="458"/>
+      <c r="D5" s="458"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="458"/>
+      <c r="G5" s="458"/>
+      <c r="H5" s="458"/>
+      <c r="I5" s="458"/>
+      <c r="J5" s="458"/>
+      <c r="K5" s="458"/>
+      <c r="L5" s="458"/>
+      <c r="M5" s="458"/>
+      <c r="N5" s="458"/>
+      <c r="O5" s="458"/>
+      <c r="P5" s="458"/>
+    </row>
+    <row r="6" spans="1:16" s="160" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="431" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="418" t="s">
+      <c r="B6" s="460" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="402" t="s">
+      <c r="C6" s="431" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="402" t="s">
+      <c r="D6" s="431" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="402"/>
-      <c r="F6" s="403" t="s">
+      <c r="E6" s="431"/>
+      <c r="F6" s="432" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="403"/>
-      <c r="H6" s="403"/>
-      <c r="I6" s="403"/>
-      <c r="J6" s="403"/>
-      <c r="K6" s="403"/>
-      <c r="L6" s="403"/>
-      <c r="M6" s="404"/>
-      <c r="N6" s="404"/>
-      <c r="O6" s="404"/>
-      <c r="P6" s="423" t="s">
+      <c r="G6" s="432"/>
+      <c r="H6" s="432"/>
+      <c r="I6" s="432"/>
+      <c r="J6" s="432"/>
+      <c r="K6" s="432"/>
+      <c r="L6" s="432"/>
+      <c r="M6" s="433"/>
+      <c r="N6" s="433"/>
+      <c r="O6" s="433"/>
+      <c r="P6" s="456" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="160" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="402"/>
-      <c r="B7" s="418"/>
-      <c r="C7" s="402"/>
-      <c r="D7" s="402" t="s">
+    <row r="7" spans="1:16" s="160" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="431"/>
+      <c r="B7" s="460"/>
+      <c r="C7" s="431"/>
+      <c r="D7" s="431" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="402" t="s">
+      <c r="E7" s="431" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="402" t="s">
+      <c r="F7" s="431" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="402" t="s">
+      <c r="G7" s="431" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="424" t="s">
+      <c r="H7" s="457" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="424" t="s">
+      <c r="I7" s="457" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="395" t="s">
+      <c r="J7" s="439" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="395"/>
-      <c r="L7" s="424" t="s">
+      <c r="K7" s="439"/>
+      <c r="L7" s="457" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="424" t="s">
+      <c r="M7" s="457" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="424" t="s">
+      <c r="N7" s="457" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="424" t="s">
+      <c r="O7" s="457" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="423"/>
-    </row>
-    <row r="8" spans="1:16" s="160" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="402"/>
-      <c r="B8" s="418"/>
-      <c r="C8" s="402"/>
-      <c r="D8" s="402"/>
-      <c r="E8" s="402"/>
-      <c r="F8" s="402"/>
-      <c r="G8" s="402"/>
-      <c r="H8" s="424"/>
-      <c r="I8" s="424"/>
+      <c r="P7" s="456"/>
+    </row>
+    <row r="8" spans="1:16" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="431"/>
+      <c r="B8" s="460"/>
+      <c r="C8" s="431"/>
+      <c r="D8" s="431"/>
+      <c r="E8" s="431"/>
+      <c r="F8" s="431"/>
+      <c r="G8" s="431"/>
+      <c r="H8" s="457"/>
+      <c r="I8" s="457"/>
       <c r="J8" s="219" t="s">
         <v>87</v>
       </c>
       <c r="K8" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="424"/>
-      <c r="M8" s="424"/>
-      <c r="N8" s="424"/>
-      <c r="O8" s="424"/>
-      <c r="P8" s="423"/>
+      <c r="L8" s="457"/>
+      <c r="M8" s="457"/>
+      <c r="N8" s="457"/>
+      <c r="O8" s="457"/>
+      <c r="P8" s="456"/>
     </row>
     <row r="9" spans="1:16" s="167" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="327"/>
@@ -7991,7 +7991,7 @@
       <c r="O19" s="165"/>
       <c r="P19" s="163"/>
     </row>
-    <row r="20" spans="1:16" s="167" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="167" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="327"/>
       <c r="B20" s="337"/>
       <c r="C20" s="327"/>
@@ -8001,7 +8001,7 @@
       <c r="G20" s="216"/>
       <c r="H20" s="201"/>
       <c r="I20" s="201"/>
-      <c r="J20" s="419"/>
+      <c r="J20" s="461"/>
       <c r="K20" s="202"/>
       <c r="L20" s="201"/>
       <c r="M20" s="201"/>
@@ -8009,7 +8009,7 @@
       <c r="O20" s="201"/>
       <c r="P20" s="216"/>
     </row>
-    <row r="21" spans="1:16" s="167" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="167" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="328"/>
       <c r="B21" s="339"/>
       <c r="C21" s="328"/>
@@ -8019,7 +8019,7 @@
       <c r="G21" s="217"/>
       <c r="H21" s="203"/>
       <c r="I21" s="203"/>
-      <c r="J21" s="420"/>
+      <c r="J21" s="462"/>
       <c r="K21" s="204"/>
       <c r="L21" s="203"/>
       <c r="M21" s="203"/>
@@ -8027,7 +8027,7 @@
       <c r="O21" s="203"/>
       <c r="P21" s="217"/>
     </row>
-    <row r="22" spans="1:16" s="167" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="167" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="329"/>
       <c r="B22" s="338"/>
       <c r="C22" s="329"/>
@@ -8037,7 +8037,7 @@
       <c r="G22" s="218"/>
       <c r="H22" s="205"/>
       <c r="I22" s="205"/>
-      <c r="J22" s="421"/>
+      <c r="J22" s="463"/>
       <c r="K22" s="206"/>
       <c r="L22" s="205"/>
       <c r="M22" s="205"/>
@@ -8207,17 +8207,17 @@
       <c r="O31" s="209"/>
       <c r="P31" s="211"/>
     </row>
-    <row r="32" spans="1:16" s="261" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="414" t="s">
+    <row r="32" spans="1:16" s="261" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="465" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="415"/>
-      <c r="C32" s="415"/>
-      <c r="D32" s="415"/>
-      <c r="E32" s="415"/>
-      <c r="F32" s="415"/>
-      <c r="G32" s="415"/>
-      <c r="H32" s="416"/>
+      <c r="B32" s="466"/>
+      <c r="C32" s="466"/>
+      <c r="D32" s="466"/>
+      <c r="E32" s="466"/>
+      <c r="F32" s="466"/>
+      <c r="G32" s="466"/>
+      <c r="H32" s="467"/>
       <c r="I32" s="262">
         <f>SUM(I9:I31)</f>
         <v>0</v>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="P32" s="263"/>
     </row>
-    <row r="33" spans="1:15" s="269" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="267"/>
       <c r="B33" s="267"/>
       <c r="C33" s="267"/>
@@ -8253,26 +8253,26 @@
       <c r="N33" s="268"/>
       <c r="O33" s="268"/>
     </row>
-    <row r="34" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="267"/>
       <c r="B34" s="267"/>
-      <c r="C34" s="413" t="s">
+      <c r="C34" s="455" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="413"/>
-      <c r="E34" s="413"/>
+      <c r="D34" s="455"/>
+      <c r="E34" s="455"/>
       <c r="F34" s="267"/>
       <c r="G34" s="267"/>
       <c r="H34" s="267"/>
       <c r="I34" s="268"/>
       <c r="L34" s="268"/>
-      <c r="M34" s="412" t="s">
+      <c r="M34" s="464" t="s">
         <v>118</v>
       </c>
-      <c r="N34" s="412"/>
+      <c r="N34" s="464"/>
       <c r="O34" s="268"/>
     </row>
-    <row r="35" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="325"/>
       <c r="B35" s="325"/>
       <c r="C35" s="325"/>
@@ -8287,7 +8287,7 @@
       <c r="N35" s="326"/>
       <c r="O35" s="268"/>
     </row>
-    <row r="36" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="325"/>
       <c r="B36" s="325"/>
       <c r="C36" s="325"/>
@@ -8302,7 +8302,7 @@
       <c r="N36" s="326"/>
       <c r="O36" s="268"/>
     </row>
-    <row r="37" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="325"/>
       <c r="B37" s="325"/>
       <c r="C37" s="325"/>
@@ -8317,7 +8317,7 @@
       <c r="N37" s="326"/>
       <c r="O37" s="268"/>
     </row>
-    <row r="38" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="325"/>
       <c r="B38" s="325"/>
       <c r="C38" s="325"/>
@@ -8332,7 +8332,7 @@
       <c r="N38" s="326"/>
       <c r="O38" s="268"/>
     </row>
-    <row r="39" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="325"/>
       <c r="B39" s="325"/>
       <c r="C39" s="325"/>
@@ -8347,7 +8347,7 @@
       <c r="N39" s="326"/>
       <c r="O39" s="268"/>
     </row>
-    <row r="40" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="325"/>
       <c r="B40" s="325"/>
       <c r="C40" s="325"/>
@@ -8362,7 +8362,7 @@
       <c r="N40" s="326"/>
       <c r="O40" s="268"/>
     </row>
-    <row r="41" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="325"/>
       <c r="B41" s="325"/>
       <c r="C41" s="325"/>
@@ -8377,7 +8377,7 @@
       <c r="N41" s="326"/>
       <c r="O41" s="268"/>
     </row>
-    <row r="42" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="325"/>
       <c r="B42" s="325"/>
       <c r="C42" s="325"/>
@@ -8392,7 +8392,7 @@
       <c r="N42" s="326"/>
       <c r="O42" s="268"/>
     </row>
-    <row r="43" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="325"/>
       <c r="B43" s="325"/>
       <c r="C43" s="325"/>
@@ -8407,7 +8407,7 @@
       <c r="N43" s="326"/>
       <c r="O43" s="268"/>
     </row>
-    <row r="44" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="325"/>
       <c r="B44" s="325"/>
       <c r="C44" s="325"/>
@@ -8422,7 +8422,7 @@
       <c r="N44" s="326"/>
       <c r="O44" s="268"/>
     </row>
-    <row r="45" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="325"/>
       <c r="B45" s="325"/>
       <c r="C45" s="325"/>
@@ -8437,7 +8437,7 @@
       <c r="N45" s="326"/>
       <c r="O45" s="268"/>
     </row>
-    <row r="46" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="267"/>
       <c r="B46" s="267"/>
       <c r="C46" s="267"/>
@@ -8451,23 +8451,23 @@
       <c r="N46" s="268"/>
       <c r="O46" s="268"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="96"/>
-      <c r="B47" s="413" t="s">
+      <c r="B47" s="455" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="413"/>
-      <c r="D47" s="413"/>
+      <c r="C47" s="455"/>
+      <c r="D47" s="455"/>
       <c r="E47" s="96"/>
       <c r="F47" s="96"/>
       <c r="G47" s="96"/>
       <c r="H47" s="96"/>
-      <c r="I47" s="413" t="s">
+      <c r="I47" s="455" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="413"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J47" s="455"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="96"/>
       <c r="B48" s="96"/>
       <c r="C48" s="96"/>
@@ -8478,7 +8478,7 @@
       <c r="H48" s="96"/>
       <c r="I48" s="264"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="96"/>
       <c r="B49" s="96"/>
       <c r="C49" s="96"/>
@@ -8489,7 +8489,7 @@
       <c r="H49" s="96"/>
       <c r="I49" s="264"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="96"/>
       <c r="B50" s="96"/>
       <c r="C50" s="96"/>
@@ -8500,7 +8500,7 @@
       <c r="H50" s="96"/>
       <c r="I50" s="264"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="96"/>
       <c r="B51" s="96"/>
       <c r="C51" s="96"/>
@@ -8511,7 +8511,7 @@
       <c r="H51" s="96"/>
       <c r="I51" s="264"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="96"/>
       <c r="B52" s="96"/>
       <c r="C52" s="96"/>
@@ -8522,7 +8522,7 @@
       <c r="H52" s="96"/>
       <c r="I52" s="264"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="96"/>
       <c r="B53" s="98"/>
       <c r="C53" s="96"/>
@@ -8533,7 +8533,7 @@
       <c r="H53" s="96"/>
       <c r="I53" s="264"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="100"/>
       <c r="B54" s="100"/>
       <c r="C54" s="100"/>
@@ -8544,20 +8544,20 @@
       <c r="H54" s="100"/>
       <c r="I54" s="265"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="417"/>
-      <c r="B55" s="417"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="459"/>
+      <c r="B55" s="459"/>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H57" s="266"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="417"/>
-      <c r="B59" s="417"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="459"/>
+      <c r="B59" s="459"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
@@ -8565,6 +8565,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="P6:P8"/>
@@ -8581,19 +8594,6 @@
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A55:B55"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8604,529 +8604,529 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19:AM19"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="222" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="222" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="223" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" style="223" customWidth="1"/>
-    <col min="5" max="34" width="2.5546875" style="222" customWidth="1"/>
-    <col min="35" max="35" width="7.44140625" style="222" customWidth="1"/>
-    <col min="36" max="38" width="2.5546875" style="222" customWidth="1"/>
-    <col min="39" max="39" width="4.44140625" style="222" customWidth="1"/>
-    <col min="40" max="40" width="19.44140625" style="223" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="222" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="222" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="223" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="223" customWidth="1"/>
+    <col min="5" max="34" width="2.5703125" style="222" customWidth="1"/>
+    <col min="35" max="35" width="7.42578125" style="222" customWidth="1"/>
+    <col min="36" max="38" width="2.5703125" style="222" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" style="222" customWidth="1"/>
+    <col min="40" max="40" width="19.42578125" style="223" customWidth="1"/>
     <col min="41" max="260" width="9" style="222"/>
-    <col min="261" max="261" width="3.33203125" style="222" customWidth="1"/>
+    <col min="261" max="261" width="3.28515625" style="222" customWidth="1"/>
     <col min="262" max="262" width="20" style="222" customWidth="1"/>
-    <col min="263" max="263" width="24.5546875" style="222" customWidth="1"/>
-    <col min="264" max="293" width="4.44140625" style="222" customWidth="1"/>
-    <col min="294" max="294" width="2.5546875" style="222" customWidth="1"/>
-    <col min="295" max="295" width="6.109375" style="222" customWidth="1"/>
-    <col min="296" max="296" width="19.44140625" style="222" customWidth="1"/>
+    <col min="263" max="263" width="24.5703125" style="222" customWidth="1"/>
+    <col min="264" max="293" width="4.42578125" style="222" customWidth="1"/>
+    <col min="294" max="294" width="2.5703125" style="222" customWidth="1"/>
+    <col min="295" max="295" width="6.140625" style="222" customWidth="1"/>
+    <col min="296" max="296" width="19.42578125" style="222" customWidth="1"/>
     <col min="297" max="516" width="9" style="222"/>
-    <col min="517" max="517" width="3.33203125" style="222" customWidth="1"/>
+    <col min="517" max="517" width="3.28515625" style="222" customWidth="1"/>
     <col min="518" max="518" width="20" style="222" customWidth="1"/>
-    <col min="519" max="519" width="24.5546875" style="222" customWidth="1"/>
-    <col min="520" max="549" width="4.44140625" style="222" customWidth="1"/>
-    <col min="550" max="550" width="2.5546875" style="222" customWidth="1"/>
-    <col min="551" max="551" width="6.109375" style="222" customWidth="1"/>
-    <col min="552" max="552" width="19.44140625" style="222" customWidth="1"/>
+    <col min="519" max="519" width="24.5703125" style="222" customWidth="1"/>
+    <col min="520" max="549" width="4.42578125" style="222" customWidth="1"/>
+    <col min="550" max="550" width="2.5703125" style="222" customWidth="1"/>
+    <col min="551" max="551" width="6.140625" style="222" customWidth="1"/>
+    <col min="552" max="552" width="19.42578125" style="222" customWidth="1"/>
     <col min="553" max="772" width="9" style="222"/>
-    <col min="773" max="773" width="3.33203125" style="222" customWidth="1"/>
+    <col min="773" max="773" width="3.28515625" style="222" customWidth="1"/>
     <col min="774" max="774" width="20" style="222" customWidth="1"/>
-    <col min="775" max="775" width="24.5546875" style="222" customWidth="1"/>
-    <col min="776" max="805" width="4.44140625" style="222" customWidth="1"/>
-    <col min="806" max="806" width="2.5546875" style="222" customWidth="1"/>
-    <col min="807" max="807" width="6.109375" style="222" customWidth="1"/>
-    <col min="808" max="808" width="19.44140625" style="222" customWidth="1"/>
+    <col min="775" max="775" width="24.5703125" style="222" customWidth="1"/>
+    <col min="776" max="805" width="4.42578125" style="222" customWidth="1"/>
+    <col min="806" max="806" width="2.5703125" style="222" customWidth="1"/>
+    <col min="807" max="807" width="6.140625" style="222" customWidth="1"/>
+    <col min="808" max="808" width="19.42578125" style="222" customWidth="1"/>
     <col min="809" max="1028" width="9" style="222"/>
-    <col min="1029" max="1029" width="3.33203125" style="222" customWidth="1"/>
+    <col min="1029" max="1029" width="3.28515625" style="222" customWidth="1"/>
     <col min="1030" max="1030" width="20" style="222" customWidth="1"/>
-    <col min="1031" max="1031" width="24.5546875" style="222" customWidth="1"/>
-    <col min="1032" max="1061" width="4.44140625" style="222" customWidth="1"/>
-    <col min="1062" max="1062" width="2.5546875" style="222" customWidth="1"/>
-    <col min="1063" max="1063" width="6.109375" style="222" customWidth="1"/>
-    <col min="1064" max="1064" width="19.44140625" style="222" customWidth="1"/>
+    <col min="1031" max="1031" width="24.5703125" style="222" customWidth="1"/>
+    <col min="1032" max="1061" width="4.42578125" style="222" customWidth="1"/>
+    <col min="1062" max="1062" width="2.5703125" style="222" customWidth="1"/>
+    <col min="1063" max="1063" width="6.140625" style="222" customWidth="1"/>
+    <col min="1064" max="1064" width="19.42578125" style="222" customWidth="1"/>
     <col min="1065" max="1284" width="9" style="222"/>
-    <col min="1285" max="1285" width="3.33203125" style="222" customWidth="1"/>
+    <col min="1285" max="1285" width="3.28515625" style="222" customWidth="1"/>
     <col min="1286" max="1286" width="20" style="222" customWidth="1"/>
-    <col min="1287" max="1287" width="24.5546875" style="222" customWidth="1"/>
-    <col min="1288" max="1317" width="4.44140625" style="222" customWidth="1"/>
-    <col min="1318" max="1318" width="2.5546875" style="222" customWidth="1"/>
-    <col min="1319" max="1319" width="6.109375" style="222" customWidth="1"/>
-    <col min="1320" max="1320" width="19.44140625" style="222" customWidth="1"/>
+    <col min="1287" max="1287" width="24.5703125" style="222" customWidth="1"/>
+    <col min="1288" max="1317" width="4.42578125" style="222" customWidth="1"/>
+    <col min="1318" max="1318" width="2.5703125" style="222" customWidth="1"/>
+    <col min="1319" max="1319" width="6.140625" style="222" customWidth="1"/>
+    <col min="1320" max="1320" width="19.42578125" style="222" customWidth="1"/>
     <col min="1321" max="1540" width="9" style="222"/>
-    <col min="1541" max="1541" width="3.33203125" style="222" customWidth="1"/>
+    <col min="1541" max="1541" width="3.28515625" style="222" customWidth="1"/>
     <col min="1542" max="1542" width="20" style="222" customWidth="1"/>
-    <col min="1543" max="1543" width="24.5546875" style="222" customWidth="1"/>
-    <col min="1544" max="1573" width="4.44140625" style="222" customWidth="1"/>
-    <col min="1574" max="1574" width="2.5546875" style="222" customWidth="1"/>
-    <col min="1575" max="1575" width="6.109375" style="222" customWidth="1"/>
-    <col min="1576" max="1576" width="19.44140625" style="222" customWidth="1"/>
+    <col min="1543" max="1543" width="24.5703125" style="222" customWidth="1"/>
+    <col min="1544" max="1573" width="4.42578125" style="222" customWidth="1"/>
+    <col min="1574" max="1574" width="2.5703125" style="222" customWidth="1"/>
+    <col min="1575" max="1575" width="6.140625" style="222" customWidth="1"/>
+    <col min="1576" max="1576" width="19.42578125" style="222" customWidth="1"/>
     <col min="1577" max="1796" width="9" style="222"/>
-    <col min="1797" max="1797" width="3.33203125" style="222" customWidth="1"/>
+    <col min="1797" max="1797" width="3.28515625" style="222" customWidth="1"/>
     <col min="1798" max="1798" width="20" style="222" customWidth="1"/>
-    <col min="1799" max="1799" width="24.5546875" style="222" customWidth="1"/>
-    <col min="1800" max="1829" width="4.44140625" style="222" customWidth="1"/>
-    <col min="1830" max="1830" width="2.5546875" style="222" customWidth="1"/>
-    <col min="1831" max="1831" width="6.109375" style="222" customWidth="1"/>
-    <col min="1832" max="1832" width="19.44140625" style="222" customWidth="1"/>
+    <col min="1799" max="1799" width="24.5703125" style="222" customWidth="1"/>
+    <col min="1800" max="1829" width="4.42578125" style="222" customWidth="1"/>
+    <col min="1830" max="1830" width="2.5703125" style="222" customWidth="1"/>
+    <col min="1831" max="1831" width="6.140625" style="222" customWidth="1"/>
+    <col min="1832" max="1832" width="19.42578125" style="222" customWidth="1"/>
     <col min="1833" max="2052" width="9" style="222"/>
-    <col min="2053" max="2053" width="3.33203125" style="222" customWidth="1"/>
+    <col min="2053" max="2053" width="3.28515625" style="222" customWidth="1"/>
     <col min="2054" max="2054" width="20" style="222" customWidth="1"/>
-    <col min="2055" max="2055" width="24.5546875" style="222" customWidth="1"/>
-    <col min="2056" max="2085" width="4.44140625" style="222" customWidth="1"/>
-    <col min="2086" max="2086" width="2.5546875" style="222" customWidth="1"/>
-    <col min="2087" max="2087" width="6.109375" style="222" customWidth="1"/>
-    <col min="2088" max="2088" width="19.44140625" style="222" customWidth="1"/>
+    <col min="2055" max="2055" width="24.5703125" style="222" customWidth="1"/>
+    <col min="2056" max="2085" width="4.42578125" style="222" customWidth="1"/>
+    <col min="2086" max="2086" width="2.5703125" style="222" customWidth="1"/>
+    <col min="2087" max="2087" width="6.140625" style="222" customWidth="1"/>
+    <col min="2088" max="2088" width="19.42578125" style="222" customWidth="1"/>
     <col min="2089" max="2308" width="9" style="222"/>
-    <col min="2309" max="2309" width="3.33203125" style="222" customWidth="1"/>
+    <col min="2309" max="2309" width="3.28515625" style="222" customWidth="1"/>
     <col min="2310" max="2310" width="20" style="222" customWidth="1"/>
-    <col min="2311" max="2311" width="24.5546875" style="222" customWidth="1"/>
-    <col min="2312" max="2341" width="4.44140625" style="222" customWidth="1"/>
-    <col min="2342" max="2342" width="2.5546875" style="222" customWidth="1"/>
-    <col min="2343" max="2343" width="6.109375" style="222" customWidth="1"/>
-    <col min="2344" max="2344" width="19.44140625" style="222" customWidth="1"/>
+    <col min="2311" max="2311" width="24.5703125" style="222" customWidth="1"/>
+    <col min="2312" max="2341" width="4.42578125" style="222" customWidth="1"/>
+    <col min="2342" max="2342" width="2.5703125" style="222" customWidth="1"/>
+    <col min="2343" max="2343" width="6.140625" style="222" customWidth="1"/>
+    <col min="2344" max="2344" width="19.42578125" style="222" customWidth="1"/>
     <col min="2345" max="2564" width="9" style="222"/>
-    <col min="2565" max="2565" width="3.33203125" style="222" customWidth="1"/>
+    <col min="2565" max="2565" width="3.28515625" style="222" customWidth="1"/>
     <col min="2566" max="2566" width="20" style="222" customWidth="1"/>
-    <col min="2567" max="2567" width="24.5546875" style="222" customWidth="1"/>
-    <col min="2568" max="2597" width="4.44140625" style="222" customWidth="1"/>
-    <col min="2598" max="2598" width="2.5546875" style="222" customWidth="1"/>
-    <col min="2599" max="2599" width="6.109375" style="222" customWidth="1"/>
-    <col min="2600" max="2600" width="19.44140625" style="222" customWidth="1"/>
+    <col min="2567" max="2567" width="24.5703125" style="222" customWidth="1"/>
+    <col min="2568" max="2597" width="4.42578125" style="222" customWidth="1"/>
+    <col min="2598" max="2598" width="2.5703125" style="222" customWidth="1"/>
+    <col min="2599" max="2599" width="6.140625" style="222" customWidth="1"/>
+    <col min="2600" max="2600" width="19.42578125" style="222" customWidth="1"/>
     <col min="2601" max="2820" width="9" style="222"/>
-    <col min="2821" max="2821" width="3.33203125" style="222" customWidth="1"/>
+    <col min="2821" max="2821" width="3.28515625" style="222" customWidth="1"/>
     <col min="2822" max="2822" width="20" style="222" customWidth="1"/>
-    <col min="2823" max="2823" width="24.5546875" style="222" customWidth="1"/>
-    <col min="2824" max="2853" width="4.44140625" style="222" customWidth="1"/>
-    <col min="2854" max="2854" width="2.5546875" style="222" customWidth="1"/>
-    <col min="2855" max="2855" width="6.109375" style="222" customWidth="1"/>
-    <col min="2856" max="2856" width="19.44140625" style="222" customWidth="1"/>
+    <col min="2823" max="2823" width="24.5703125" style="222" customWidth="1"/>
+    <col min="2824" max="2853" width="4.42578125" style="222" customWidth="1"/>
+    <col min="2854" max="2854" width="2.5703125" style="222" customWidth="1"/>
+    <col min="2855" max="2855" width="6.140625" style="222" customWidth="1"/>
+    <col min="2856" max="2856" width="19.42578125" style="222" customWidth="1"/>
     <col min="2857" max="3076" width="9" style="222"/>
-    <col min="3077" max="3077" width="3.33203125" style="222" customWidth="1"/>
+    <col min="3077" max="3077" width="3.28515625" style="222" customWidth="1"/>
     <col min="3078" max="3078" width="20" style="222" customWidth="1"/>
-    <col min="3079" max="3079" width="24.5546875" style="222" customWidth="1"/>
-    <col min="3080" max="3109" width="4.44140625" style="222" customWidth="1"/>
-    <col min="3110" max="3110" width="2.5546875" style="222" customWidth="1"/>
-    <col min="3111" max="3111" width="6.109375" style="222" customWidth="1"/>
-    <col min="3112" max="3112" width="19.44140625" style="222" customWidth="1"/>
+    <col min="3079" max="3079" width="24.5703125" style="222" customWidth="1"/>
+    <col min="3080" max="3109" width="4.42578125" style="222" customWidth="1"/>
+    <col min="3110" max="3110" width="2.5703125" style="222" customWidth="1"/>
+    <col min="3111" max="3111" width="6.140625" style="222" customWidth="1"/>
+    <col min="3112" max="3112" width="19.42578125" style="222" customWidth="1"/>
     <col min="3113" max="3332" width="9" style="222"/>
-    <col min="3333" max="3333" width="3.33203125" style="222" customWidth="1"/>
+    <col min="3333" max="3333" width="3.28515625" style="222" customWidth="1"/>
     <col min="3334" max="3334" width="20" style="222" customWidth="1"/>
-    <col min="3335" max="3335" width="24.5546875" style="222" customWidth="1"/>
-    <col min="3336" max="3365" width="4.44140625" style="222" customWidth="1"/>
-    <col min="3366" max="3366" width="2.5546875" style="222" customWidth="1"/>
-    <col min="3367" max="3367" width="6.109375" style="222" customWidth="1"/>
-    <col min="3368" max="3368" width="19.44140625" style="222" customWidth="1"/>
+    <col min="3335" max="3335" width="24.5703125" style="222" customWidth="1"/>
+    <col min="3336" max="3365" width="4.42578125" style="222" customWidth="1"/>
+    <col min="3366" max="3366" width="2.5703125" style="222" customWidth="1"/>
+    <col min="3367" max="3367" width="6.140625" style="222" customWidth="1"/>
+    <col min="3368" max="3368" width="19.42578125" style="222" customWidth="1"/>
     <col min="3369" max="3588" width="9" style="222"/>
-    <col min="3589" max="3589" width="3.33203125" style="222" customWidth="1"/>
+    <col min="3589" max="3589" width="3.28515625" style="222" customWidth="1"/>
     <col min="3590" max="3590" width="20" style="222" customWidth="1"/>
-    <col min="3591" max="3591" width="24.5546875" style="222" customWidth="1"/>
-    <col min="3592" max="3621" width="4.44140625" style="222" customWidth="1"/>
-    <col min="3622" max="3622" width="2.5546875" style="222" customWidth="1"/>
-    <col min="3623" max="3623" width="6.109375" style="222" customWidth="1"/>
-    <col min="3624" max="3624" width="19.44140625" style="222" customWidth="1"/>
+    <col min="3591" max="3591" width="24.5703125" style="222" customWidth="1"/>
+    <col min="3592" max="3621" width="4.42578125" style="222" customWidth="1"/>
+    <col min="3622" max="3622" width="2.5703125" style="222" customWidth="1"/>
+    <col min="3623" max="3623" width="6.140625" style="222" customWidth="1"/>
+    <col min="3624" max="3624" width="19.42578125" style="222" customWidth="1"/>
     <col min="3625" max="3844" width="9" style="222"/>
-    <col min="3845" max="3845" width="3.33203125" style="222" customWidth="1"/>
+    <col min="3845" max="3845" width="3.28515625" style="222" customWidth="1"/>
     <col min="3846" max="3846" width="20" style="222" customWidth="1"/>
-    <col min="3847" max="3847" width="24.5546875" style="222" customWidth="1"/>
-    <col min="3848" max="3877" width="4.44140625" style="222" customWidth="1"/>
-    <col min="3878" max="3878" width="2.5546875" style="222" customWidth="1"/>
-    <col min="3879" max="3879" width="6.109375" style="222" customWidth="1"/>
-    <col min="3880" max="3880" width="19.44140625" style="222" customWidth="1"/>
+    <col min="3847" max="3847" width="24.5703125" style="222" customWidth="1"/>
+    <col min="3848" max="3877" width="4.42578125" style="222" customWidth="1"/>
+    <col min="3878" max="3878" width="2.5703125" style="222" customWidth="1"/>
+    <col min="3879" max="3879" width="6.140625" style="222" customWidth="1"/>
+    <col min="3880" max="3880" width="19.42578125" style="222" customWidth="1"/>
     <col min="3881" max="4100" width="9" style="222"/>
-    <col min="4101" max="4101" width="3.33203125" style="222" customWidth="1"/>
+    <col min="4101" max="4101" width="3.28515625" style="222" customWidth="1"/>
     <col min="4102" max="4102" width="20" style="222" customWidth="1"/>
-    <col min="4103" max="4103" width="24.5546875" style="222" customWidth="1"/>
-    <col min="4104" max="4133" width="4.44140625" style="222" customWidth="1"/>
-    <col min="4134" max="4134" width="2.5546875" style="222" customWidth="1"/>
-    <col min="4135" max="4135" width="6.109375" style="222" customWidth="1"/>
-    <col min="4136" max="4136" width="19.44140625" style="222" customWidth="1"/>
+    <col min="4103" max="4103" width="24.5703125" style="222" customWidth="1"/>
+    <col min="4104" max="4133" width="4.42578125" style="222" customWidth="1"/>
+    <col min="4134" max="4134" width="2.5703125" style="222" customWidth="1"/>
+    <col min="4135" max="4135" width="6.140625" style="222" customWidth="1"/>
+    <col min="4136" max="4136" width="19.42578125" style="222" customWidth="1"/>
     <col min="4137" max="4356" width="9" style="222"/>
-    <col min="4357" max="4357" width="3.33203125" style="222" customWidth="1"/>
+    <col min="4357" max="4357" width="3.28515625" style="222" customWidth="1"/>
     <col min="4358" max="4358" width="20" style="222" customWidth="1"/>
-    <col min="4359" max="4359" width="24.5546875" style="222" customWidth="1"/>
-    <col min="4360" max="4389" width="4.44140625" style="222" customWidth="1"/>
-    <col min="4390" max="4390" width="2.5546875" style="222" customWidth="1"/>
-    <col min="4391" max="4391" width="6.109375" style="222" customWidth="1"/>
-    <col min="4392" max="4392" width="19.44140625" style="222" customWidth="1"/>
+    <col min="4359" max="4359" width="24.5703125" style="222" customWidth="1"/>
+    <col min="4360" max="4389" width="4.42578125" style="222" customWidth="1"/>
+    <col min="4390" max="4390" width="2.5703125" style="222" customWidth="1"/>
+    <col min="4391" max="4391" width="6.140625" style="222" customWidth="1"/>
+    <col min="4392" max="4392" width="19.42578125" style="222" customWidth="1"/>
     <col min="4393" max="4612" width="9" style="222"/>
-    <col min="4613" max="4613" width="3.33203125" style="222" customWidth="1"/>
+    <col min="4613" max="4613" width="3.28515625" style="222" customWidth="1"/>
     <col min="4614" max="4614" width="20" style="222" customWidth="1"/>
-    <col min="4615" max="4615" width="24.5546875" style="222" customWidth="1"/>
-    <col min="4616" max="4645" width="4.44140625" style="222" customWidth="1"/>
-    <col min="4646" max="4646" width="2.5546875" style="222" customWidth="1"/>
-    <col min="4647" max="4647" width="6.109375" style="222" customWidth="1"/>
-    <col min="4648" max="4648" width="19.44140625" style="222" customWidth="1"/>
+    <col min="4615" max="4615" width="24.5703125" style="222" customWidth="1"/>
+    <col min="4616" max="4645" width="4.42578125" style="222" customWidth="1"/>
+    <col min="4646" max="4646" width="2.5703125" style="222" customWidth="1"/>
+    <col min="4647" max="4647" width="6.140625" style="222" customWidth="1"/>
+    <col min="4648" max="4648" width="19.42578125" style="222" customWidth="1"/>
     <col min="4649" max="4868" width="9" style="222"/>
-    <col min="4869" max="4869" width="3.33203125" style="222" customWidth="1"/>
+    <col min="4869" max="4869" width="3.28515625" style="222" customWidth="1"/>
     <col min="4870" max="4870" width="20" style="222" customWidth="1"/>
-    <col min="4871" max="4871" width="24.5546875" style="222" customWidth="1"/>
-    <col min="4872" max="4901" width="4.44140625" style="222" customWidth="1"/>
-    <col min="4902" max="4902" width="2.5546875" style="222" customWidth="1"/>
-    <col min="4903" max="4903" width="6.109375" style="222" customWidth="1"/>
-    <col min="4904" max="4904" width="19.44140625" style="222" customWidth="1"/>
+    <col min="4871" max="4871" width="24.5703125" style="222" customWidth="1"/>
+    <col min="4872" max="4901" width="4.42578125" style="222" customWidth="1"/>
+    <col min="4902" max="4902" width="2.5703125" style="222" customWidth="1"/>
+    <col min="4903" max="4903" width="6.140625" style="222" customWidth="1"/>
+    <col min="4904" max="4904" width="19.42578125" style="222" customWidth="1"/>
     <col min="4905" max="5124" width="9" style="222"/>
-    <col min="5125" max="5125" width="3.33203125" style="222" customWidth="1"/>
+    <col min="5125" max="5125" width="3.28515625" style="222" customWidth="1"/>
     <col min="5126" max="5126" width="20" style="222" customWidth="1"/>
-    <col min="5127" max="5127" width="24.5546875" style="222" customWidth="1"/>
-    <col min="5128" max="5157" width="4.44140625" style="222" customWidth="1"/>
-    <col min="5158" max="5158" width="2.5546875" style="222" customWidth="1"/>
-    <col min="5159" max="5159" width="6.109375" style="222" customWidth="1"/>
-    <col min="5160" max="5160" width="19.44140625" style="222" customWidth="1"/>
+    <col min="5127" max="5127" width="24.5703125" style="222" customWidth="1"/>
+    <col min="5128" max="5157" width="4.42578125" style="222" customWidth="1"/>
+    <col min="5158" max="5158" width="2.5703125" style="222" customWidth="1"/>
+    <col min="5159" max="5159" width="6.140625" style="222" customWidth="1"/>
+    <col min="5160" max="5160" width="19.42578125" style="222" customWidth="1"/>
     <col min="5161" max="5380" width="9" style="222"/>
-    <col min="5381" max="5381" width="3.33203125" style="222" customWidth="1"/>
+    <col min="5381" max="5381" width="3.28515625" style="222" customWidth="1"/>
     <col min="5382" max="5382" width="20" style="222" customWidth="1"/>
-    <col min="5383" max="5383" width="24.5546875" style="222" customWidth="1"/>
-    <col min="5384" max="5413" width="4.44140625" style="222" customWidth="1"/>
-    <col min="5414" max="5414" width="2.5546875" style="222" customWidth="1"/>
-    <col min="5415" max="5415" width="6.109375" style="222" customWidth="1"/>
-    <col min="5416" max="5416" width="19.44140625" style="222" customWidth="1"/>
+    <col min="5383" max="5383" width="24.5703125" style="222" customWidth="1"/>
+    <col min="5384" max="5413" width="4.42578125" style="222" customWidth="1"/>
+    <col min="5414" max="5414" width="2.5703125" style="222" customWidth="1"/>
+    <col min="5415" max="5415" width="6.140625" style="222" customWidth="1"/>
+    <col min="5416" max="5416" width="19.42578125" style="222" customWidth="1"/>
     <col min="5417" max="5636" width="9" style="222"/>
-    <col min="5637" max="5637" width="3.33203125" style="222" customWidth="1"/>
+    <col min="5637" max="5637" width="3.28515625" style="222" customWidth="1"/>
     <col min="5638" max="5638" width="20" style="222" customWidth="1"/>
-    <col min="5639" max="5639" width="24.5546875" style="222" customWidth="1"/>
-    <col min="5640" max="5669" width="4.44140625" style="222" customWidth="1"/>
-    <col min="5670" max="5670" width="2.5546875" style="222" customWidth="1"/>
-    <col min="5671" max="5671" width="6.109375" style="222" customWidth="1"/>
-    <col min="5672" max="5672" width="19.44140625" style="222" customWidth="1"/>
+    <col min="5639" max="5639" width="24.5703125" style="222" customWidth="1"/>
+    <col min="5640" max="5669" width="4.42578125" style="222" customWidth="1"/>
+    <col min="5670" max="5670" width="2.5703125" style="222" customWidth="1"/>
+    <col min="5671" max="5671" width="6.140625" style="222" customWidth="1"/>
+    <col min="5672" max="5672" width="19.42578125" style="222" customWidth="1"/>
     <col min="5673" max="5892" width="9" style="222"/>
-    <col min="5893" max="5893" width="3.33203125" style="222" customWidth="1"/>
+    <col min="5893" max="5893" width="3.28515625" style="222" customWidth="1"/>
     <col min="5894" max="5894" width="20" style="222" customWidth="1"/>
-    <col min="5895" max="5895" width="24.5546875" style="222" customWidth="1"/>
-    <col min="5896" max="5925" width="4.44140625" style="222" customWidth="1"/>
-    <col min="5926" max="5926" width="2.5546875" style="222" customWidth="1"/>
-    <col min="5927" max="5927" width="6.109375" style="222" customWidth="1"/>
-    <col min="5928" max="5928" width="19.44140625" style="222" customWidth="1"/>
+    <col min="5895" max="5895" width="24.5703125" style="222" customWidth="1"/>
+    <col min="5896" max="5925" width="4.42578125" style="222" customWidth="1"/>
+    <col min="5926" max="5926" width="2.5703125" style="222" customWidth="1"/>
+    <col min="5927" max="5927" width="6.140625" style="222" customWidth="1"/>
+    <col min="5928" max="5928" width="19.42578125" style="222" customWidth="1"/>
     <col min="5929" max="6148" width="9" style="222"/>
-    <col min="6149" max="6149" width="3.33203125" style="222" customWidth="1"/>
+    <col min="6149" max="6149" width="3.28515625" style="222" customWidth="1"/>
     <col min="6150" max="6150" width="20" style="222" customWidth="1"/>
-    <col min="6151" max="6151" width="24.5546875" style="222" customWidth="1"/>
-    <col min="6152" max="6181" width="4.44140625" style="222" customWidth="1"/>
-    <col min="6182" max="6182" width="2.5546875" style="222" customWidth="1"/>
-    <col min="6183" max="6183" width="6.109375" style="222" customWidth="1"/>
-    <col min="6184" max="6184" width="19.44140625" style="222" customWidth="1"/>
+    <col min="6151" max="6151" width="24.5703125" style="222" customWidth="1"/>
+    <col min="6152" max="6181" width="4.42578125" style="222" customWidth="1"/>
+    <col min="6182" max="6182" width="2.5703125" style="222" customWidth="1"/>
+    <col min="6183" max="6183" width="6.140625" style="222" customWidth="1"/>
+    <col min="6184" max="6184" width="19.42578125" style="222" customWidth="1"/>
     <col min="6185" max="6404" width="9" style="222"/>
-    <col min="6405" max="6405" width="3.33203125" style="222" customWidth="1"/>
+    <col min="6405" max="6405" width="3.28515625" style="222" customWidth="1"/>
     <col min="6406" max="6406" width="20" style="222" customWidth="1"/>
-    <col min="6407" max="6407" width="24.5546875" style="222" customWidth="1"/>
-    <col min="6408" max="6437" width="4.44140625" style="222" customWidth="1"/>
-    <col min="6438" max="6438" width="2.5546875" style="222" customWidth="1"/>
-    <col min="6439" max="6439" width="6.109375" style="222" customWidth="1"/>
-    <col min="6440" max="6440" width="19.44140625" style="222" customWidth="1"/>
+    <col min="6407" max="6407" width="24.5703125" style="222" customWidth="1"/>
+    <col min="6408" max="6437" width="4.42578125" style="222" customWidth="1"/>
+    <col min="6438" max="6438" width="2.5703125" style="222" customWidth="1"/>
+    <col min="6439" max="6439" width="6.140625" style="222" customWidth="1"/>
+    <col min="6440" max="6440" width="19.42578125" style="222" customWidth="1"/>
     <col min="6441" max="6660" width="9" style="222"/>
-    <col min="6661" max="6661" width="3.33203125" style="222" customWidth="1"/>
+    <col min="6661" max="6661" width="3.28515625" style="222" customWidth="1"/>
     <col min="6662" max="6662" width="20" style="222" customWidth="1"/>
-    <col min="6663" max="6663" width="24.5546875" style="222" customWidth="1"/>
-    <col min="6664" max="6693" width="4.44140625" style="222" customWidth="1"/>
-    <col min="6694" max="6694" width="2.5546875" style="222" customWidth="1"/>
-    <col min="6695" max="6695" width="6.109375" style="222" customWidth="1"/>
-    <col min="6696" max="6696" width="19.44140625" style="222" customWidth="1"/>
+    <col min="6663" max="6663" width="24.5703125" style="222" customWidth="1"/>
+    <col min="6664" max="6693" width="4.42578125" style="222" customWidth="1"/>
+    <col min="6694" max="6694" width="2.5703125" style="222" customWidth="1"/>
+    <col min="6695" max="6695" width="6.140625" style="222" customWidth="1"/>
+    <col min="6696" max="6696" width="19.42578125" style="222" customWidth="1"/>
     <col min="6697" max="6916" width="9" style="222"/>
-    <col min="6917" max="6917" width="3.33203125" style="222" customWidth="1"/>
+    <col min="6917" max="6917" width="3.28515625" style="222" customWidth="1"/>
     <col min="6918" max="6918" width="20" style="222" customWidth="1"/>
-    <col min="6919" max="6919" width="24.5546875" style="222" customWidth="1"/>
-    <col min="6920" max="6949" width="4.44140625" style="222" customWidth="1"/>
-    <col min="6950" max="6950" width="2.5546875" style="222" customWidth="1"/>
-    <col min="6951" max="6951" width="6.109375" style="222" customWidth="1"/>
-    <col min="6952" max="6952" width="19.44140625" style="222" customWidth="1"/>
+    <col min="6919" max="6919" width="24.5703125" style="222" customWidth="1"/>
+    <col min="6920" max="6949" width="4.42578125" style="222" customWidth="1"/>
+    <col min="6950" max="6950" width="2.5703125" style="222" customWidth="1"/>
+    <col min="6951" max="6951" width="6.140625" style="222" customWidth="1"/>
+    <col min="6952" max="6952" width="19.42578125" style="222" customWidth="1"/>
     <col min="6953" max="7172" width="9" style="222"/>
-    <col min="7173" max="7173" width="3.33203125" style="222" customWidth="1"/>
+    <col min="7173" max="7173" width="3.28515625" style="222" customWidth="1"/>
     <col min="7174" max="7174" width="20" style="222" customWidth="1"/>
-    <col min="7175" max="7175" width="24.5546875" style="222" customWidth="1"/>
-    <col min="7176" max="7205" width="4.44140625" style="222" customWidth="1"/>
-    <col min="7206" max="7206" width="2.5546875" style="222" customWidth="1"/>
-    <col min="7207" max="7207" width="6.109375" style="222" customWidth="1"/>
-    <col min="7208" max="7208" width="19.44140625" style="222" customWidth="1"/>
+    <col min="7175" max="7175" width="24.5703125" style="222" customWidth="1"/>
+    <col min="7176" max="7205" width="4.42578125" style="222" customWidth="1"/>
+    <col min="7206" max="7206" width="2.5703125" style="222" customWidth="1"/>
+    <col min="7207" max="7207" width="6.140625" style="222" customWidth="1"/>
+    <col min="7208" max="7208" width="19.42578125" style="222" customWidth="1"/>
     <col min="7209" max="7428" width="9" style="222"/>
-    <col min="7429" max="7429" width="3.33203125" style="222" customWidth="1"/>
+    <col min="7429" max="7429" width="3.28515625" style="222" customWidth="1"/>
     <col min="7430" max="7430" width="20" style="222" customWidth="1"/>
-    <col min="7431" max="7431" width="24.5546875" style="222" customWidth="1"/>
-    <col min="7432" max="7461" width="4.44140625" style="222" customWidth="1"/>
-    <col min="7462" max="7462" width="2.5546875" style="222" customWidth="1"/>
-    <col min="7463" max="7463" width="6.109375" style="222" customWidth="1"/>
-    <col min="7464" max="7464" width="19.44140625" style="222" customWidth="1"/>
+    <col min="7431" max="7431" width="24.5703125" style="222" customWidth="1"/>
+    <col min="7432" max="7461" width="4.42578125" style="222" customWidth="1"/>
+    <col min="7462" max="7462" width="2.5703125" style="222" customWidth="1"/>
+    <col min="7463" max="7463" width="6.140625" style="222" customWidth="1"/>
+    <col min="7464" max="7464" width="19.42578125" style="222" customWidth="1"/>
     <col min="7465" max="7684" width="9" style="222"/>
-    <col min="7685" max="7685" width="3.33203125" style="222" customWidth="1"/>
+    <col min="7685" max="7685" width="3.28515625" style="222" customWidth="1"/>
     <col min="7686" max="7686" width="20" style="222" customWidth="1"/>
-    <col min="7687" max="7687" width="24.5546875" style="222" customWidth="1"/>
-    <col min="7688" max="7717" width="4.44140625" style="222" customWidth="1"/>
-    <col min="7718" max="7718" width="2.5546875" style="222" customWidth="1"/>
-    <col min="7719" max="7719" width="6.109375" style="222" customWidth="1"/>
-    <col min="7720" max="7720" width="19.44140625" style="222" customWidth="1"/>
+    <col min="7687" max="7687" width="24.5703125" style="222" customWidth="1"/>
+    <col min="7688" max="7717" width="4.42578125" style="222" customWidth="1"/>
+    <col min="7718" max="7718" width="2.5703125" style="222" customWidth="1"/>
+    <col min="7719" max="7719" width="6.140625" style="222" customWidth="1"/>
+    <col min="7720" max="7720" width="19.42578125" style="222" customWidth="1"/>
     <col min="7721" max="7940" width="9" style="222"/>
-    <col min="7941" max="7941" width="3.33203125" style="222" customWidth="1"/>
+    <col min="7941" max="7941" width="3.28515625" style="222" customWidth="1"/>
     <col min="7942" max="7942" width="20" style="222" customWidth="1"/>
-    <col min="7943" max="7943" width="24.5546875" style="222" customWidth="1"/>
-    <col min="7944" max="7973" width="4.44140625" style="222" customWidth="1"/>
-    <col min="7974" max="7974" width="2.5546875" style="222" customWidth="1"/>
-    <col min="7975" max="7975" width="6.109375" style="222" customWidth="1"/>
-    <col min="7976" max="7976" width="19.44140625" style="222" customWidth="1"/>
+    <col min="7943" max="7943" width="24.5703125" style="222" customWidth="1"/>
+    <col min="7944" max="7973" width="4.42578125" style="222" customWidth="1"/>
+    <col min="7974" max="7974" width="2.5703125" style="222" customWidth="1"/>
+    <col min="7975" max="7975" width="6.140625" style="222" customWidth="1"/>
+    <col min="7976" max="7976" width="19.42578125" style="222" customWidth="1"/>
     <col min="7977" max="8196" width="9" style="222"/>
-    <col min="8197" max="8197" width="3.33203125" style="222" customWidth="1"/>
+    <col min="8197" max="8197" width="3.28515625" style="222" customWidth="1"/>
     <col min="8198" max="8198" width="20" style="222" customWidth="1"/>
-    <col min="8199" max="8199" width="24.5546875" style="222" customWidth="1"/>
-    <col min="8200" max="8229" width="4.44140625" style="222" customWidth="1"/>
-    <col min="8230" max="8230" width="2.5546875" style="222" customWidth="1"/>
-    <col min="8231" max="8231" width="6.109375" style="222" customWidth="1"/>
-    <col min="8232" max="8232" width="19.44140625" style="222" customWidth="1"/>
+    <col min="8199" max="8199" width="24.5703125" style="222" customWidth="1"/>
+    <col min="8200" max="8229" width="4.42578125" style="222" customWidth="1"/>
+    <col min="8230" max="8230" width="2.5703125" style="222" customWidth="1"/>
+    <col min="8231" max="8231" width="6.140625" style="222" customWidth="1"/>
+    <col min="8232" max="8232" width="19.42578125" style="222" customWidth="1"/>
     <col min="8233" max="8452" width="9" style="222"/>
-    <col min="8453" max="8453" width="3.33203125" style="222" customWidth="1"/>
+    <col min="8453" max="8453" width="3.28515625" style="222" customWidth="1"/>
     <col min="8454" max="8454" width="20" style="222" customWidth="1"/>
-    <col min="8455" max="8455" width="24.5546875" style="222" customWidth="1"/>
-    <col min="8456" max="8485" width="4.44140625" style="222" customWidth="1"/>
-    <col min="8486" max="8486" width="2.5546875" style="222" customWidth="1"/>
-    <col min="8487" max="8487" width="6.109375" style="222" customWidth="1"/>
-    <col min="8488" max="8488" width="19.44140625" style="222" customWidth="1"/>
+    <col min="8455" max="8455" width="24.5703125" style="222" customWidth="1"/>
+    <col min="8456" max="8485" width="4.42578125" style="222" customWidth="1"/>
+    <col min="8486" max="8486" width="2.5703125" style="222" customWidth="1"/>
+    <col min="8487" max="8487" width="6.140625" style="222" customWidth="1"/>
+    <col min="8488" max="8488" width="19.42578125" style="222" customWidth="1"/>
     <col min="8489" max="8708" width="9" style="222"/>
-    <col min="8709" max="8709" width="3.33203125" style="222" customWidth="1"/>
+    <col min="8709" max="8709" width="3.28515625" style="222" customWidth="1"/>
     <col min="8710" max="8710" width="20" style="222" customWidth="1"/>
-    <col min="8711" max="8711" width="24.5546875" style="222" customWidth="1"/>
-    <col min="8712" max="8741" width="4.44140625" style="222" customWidth="1"/>
-    <col min="8742" max="8742" width="2.5546875" style="222" customWidth="1"/>
-    <col min="8743" max="8743" width="6.109375" style="222" customWidth="1"/>
-    <col min="8744" max="8744" width="19.44140625" style="222" customWidth="1"/>
+    <col min="8711" max="8711" width="24.5703125" style="222" customWidth="1"/>
+    <col min="8712" max="8741" width="4.42578125" style="222" customWidth="1"/>
+    <col min="8742" max="8742" width="2.5703125" style="222" customWidth="1"/>
+    <col min="8743" max="8743" width="6.140625" style="222" customWidth="1"/>
+    <col min="8744" max="8744" width="19.42578125" style="222" customWidth="1"/>
     <col min="8745" max="8964" width="9" style="222"/>
-    <col min="8965" max="8965" width="3.33203125" style="222" customWidth="1"/>
+    <col min="8965" max="8965" width="3.28515625" style="222" customWidth="1"/>
     <col min="8966" max="8966" width="20" style="222" customWidth="1"/>
-    <col min="8967" max="8967" width="24.5546875" style="222" customWidth="1"/>
-    <col min="8968" max="8997" width="4.44140625" style="222" customWidth="1"/>
-    <col min="8998" max="8998" width="2.5546875" style="222" customWidth="1"/>
-    <col min="8999" max="8999" width="6.109375" style="222" customWidth="1"/>
-    <col min="9000" max="9000" width="19.44140625" style="222" customWidth="1"/>
+    <col min="8967" max="8967" width="24.5703125" style="222" customWidth="1"/>
+    <col min="8968" max="8997" width="4.42578125" style="222" customWidth="1"/>
+    <col min="8998" max="8998" width="2.5703125" style="222" customWidth="1"/>
+    <col min="8999" max="8999" width="6.140625" style="222" customWidth="1"/>
+    <col min="9000" max="9000" width="19.42578125" style="222" customWidth="1"/>
     <col min="9001" max="9220" width="9" style="222"/>
-    <col min="9221" max="9221" width="3.33203125" style="222" customWidth="1"/>
+    <col min="9221" max="9221" width="3.28515625" style="222" customWidth="1"/>
     <col min="9222" max="9222" width="20" style="222" customWidth="1"/>
-    <col min="9223" max="9223" width="24.5546875" style="222" customWidth="1"/>
-    <col min="9224" max="9253" width="4.44140625" style="222" customWidth="1"/>
-    <col min="9254" max="9254" width="2.5546875" style="222" customWidth="1"/>
-    <col min="9255" max="9255" width="6.109375" style="222" customWidth="1"/>
-    <col min="9256" max="9256" width="19.44140625" style="222" customWidth="1"/>
+    <col min="9223" max="9223" width="24.5703125" style="222" customWidth="1"/>
+    <col min="9224" max="9253" width="4.42578125" style="222" customWidth="1"/>
+    <col min="9254" max="9254" width="2.5703125" style="222" customWidth="1"/>
+    <col min="9255" max="9255" width="6.140625" style="222" customWidth="1"/>
+    <col min="9256" max="9256" width="19.42578125" style="222" customWidth="1"/>
     <col min="9257" max="9476" width="9" style="222"/>
-    <col min="9477" max="9477" width="3.33203125" style="222" customWidth="1"/>
+    <col min="9477" max="9477" width="3.28515625" style="222" customWidth="1"/>
     <col min="9478" max="9478" width="20" style="222" customWidth="1"/>
-    <col min="9479" max="9479" width="24.5546875" style="222" customWidth="1"/>
-    <col min="9480" max="9509" width="4.44140625" style="222" customWidth="1"/>
-    <col min="9510" max="9510" width="2.5546875" style="222" customWidth="1"/>
-    <col min="9511" max="9511" width="6.109375" style="222" customWidth="1"/>
-    <col min="9512" max="9512" width="19.44140625" style="222" customWidth="1"/>
+    <col min="9479" max="9479" width="24.5703125" style="222" customWidth="1"/>
+    <col min="9480" max="9509" width="4.42578125" style="222" customWidth="1"/>
+    <col min="9510" max="9510" width="2.5703125" style="222" customWidth="1"/>
+    <col min="9511" max="9511" width="6.140625" style="222" customWidth="1"/>
+    <col min="9512" max="9512" width="19.42578125" style="222" customWidth="1"/>
     <col min="9513" max="9732" width="9" style="222"/>
-    <col min="9733" max="9733" width="3.33203125" style="222" customWidth="1"/>
+    <col min="9733" max="9733" width="3.28515625" style="222" customWidth="1"/>
     <col min="9734" max="9734" width="20" style="222" customWidth="1"/>
-    <col min="9735" max="9735" width="24.5546875" style="222" customWidth="1"/>
-    <col min="9736" max="9765" width="4.44140625" style="222" customWidth="1"/>
-    <col min="9766" max="9766" width="2.5546875" style="222" customWidth="1"/>
-    <col min="9767" max="9767" width="6.109375" style="222" customWidth="1"/>
-    <col min="9768" max="9768" width="19.44140625" style="222" customWidth="1"/>
+    <col min="9735" max="9735" width="24.5703125" style="222" customWidth="1"/>
+    <col min="9736" max="9765" width="4.42578125" style="222" customWidth="1"/>
+    <col min="9766" max="9766" width="2.5703125" style="222" customWidth="1"/>
+    <col min="9767" max="9767" width="6.140625" style="222" customWidth="1"/>
+    <col min="9768" max="9768" width="19.42578125" style="222" customWidth="1"/>
     <col min="9769" max="9988" width="9" style="222"/>
-    <col min="9989" max="9989" width="3.33203125" style="222" customWidth="1"/>
+    <col min="9989" max="9989" width="3.28515625" style="222" customWidth="1"/>
     <col min="9990" max="9990" width="20" style="222" customWidth="1"/>
-    <col min="9991" max="9991" width="24.5546875" style="222" customWidth="1"/>
-    <col min="9992" max="10021" width="4.44140625" style="222" customWidth="1"/>
-    <col min="10022" max="10022" width="2.5546875" style="222" customWidth="1"/>
-    <col min="10023" max="10023" width="6.109375" style="222" customWidth="1"/>
-    <col min="10024" max="10024" width="19.44140625" style="222" customWidth="1"/>
+    <col min="9991" max="9991" width="24.5703125" style="222" customWidth="1"/>
+    <col min="9992" max="10021" width="4.42578125" style="222" customWidth="1"/>
+    <col min="10022" max="10022" width="2.5703125" style="222" customWidth="1"/>
+    <col min="10023" max="10023" width="6.140625" style="222" customWidth="1"/>
+    <col min="10024" max="10024" width="19.42578125" style="222" customWidth="1"/>
     <col min="10025" max="10244" width="9" style="222"/>
-    <col min="10245" max="10245" width="3.33203125" style="222" customWidth="1"/>
+    <col min="10245" max="10245" width="3.28515625" style="222" customWidth="1"/>
     <col min="10246" max="10246" width="20" style="222" customWidth="1"/>
-    <col min="10247" max="10247" width="24.5546875" style="222" customWidth="1"/>
-    <col min="10248" max="10277" width="4.44140625" style="222" customWidth="1"/>
-    <col min="10278" max="10278" width="2.5546875" style="222" customWidth="1"/>
-    <col min="10279" max="10279" width="6.109375" style="222" customWidth="1"/>
-    <col min="10280" max="10280" width="19.44140625" style="222" customWidth="1"/>
+    <col min="10247" max="10247" width="24.5703125" style="222" customWidth="1"/>
+    <col min="10248" max="10277" width="4.42578125" style="222" customWidth="1"/>
+    <col min="10278" max="10278" width="2.5703125" style="222" customWidth="1"/>
+    <col min="10279" max="10279" width="6.140625" style="222" customWidth="1"/>
+    <col min="10280" max="10280" width="19.42578125" style="222" customWidth="1"/>
     <col min="10281" max="10500" width="9" style="222"/>
-    <col min="10501" max="10501" width="3.33203125" style="222" customWidth="1"/>
+    <col min="10501" max="10501" width="3.28515625" style="222" customWidth="1"/>
     <col min="10502" max="10502" width="20" style="222" customWidth="1"/>
-    <col min="10503" max="10503" width="24.5546875" style="222" customWidth="1"/>
-    <col min="10504" max="10533" width="4.44140625" style="222" customWidth="1"/>
-    <col min="10534" max="10534" width="2.5546875" style="222" customWidth="1"/>
-    <col min="10535" max="10535" width="6.109375" style="222" customWidth="1"/>
-    <col min="10536" max="10536" width="19.44140625" style="222" customWidth="1"/>
+    <col min="10503" max="10503" width="24.5703125" style="222" customWidth="1"/>
+    <col min="10504" max="10533" width="4.42578125" style="222" customWidth="1"/>
+    <col min="10534" max="10534" width="2.5703125" style="222" customWidth="1"/>
+    <col min="10535" max="10535" width="6.140625" style="222" customWidth="1"/>
+    <col min="10536" max="10536" width="19.42578125" style="222" customWidth="1"/>
     <col min="10537" max="10756" width="9" style="222"/>
-    <col min="10757" max="10757" width="3.33203125" style="222" customWidth="1"/>
+    <col min="10757" max="10757" width="3.28515625" style="222" customWidth="1"/>
     <col min="10758" max="10758" width="20" style="222" customWidth="1"/>
-    <col min="10759" max="10759" width="24.5546875" style="222" customWidth="1"/>
-    <col min="10760" max="10789" width="4.44140625" style="222" customWidth="1"/>
-    <col min="10790" max="10790" width="2.5546875" style="222" customWidth="1"/>
-    <col min="10791" max="10791" width="6.109375" style="222" customWidth="1"/>
-    <col min="10792" max="10792" width="19.44140625" style="222" customWidth="1"/>
+    <col min="10759" max="10759" width="24.5703125" style="222" customWidth="1"/>
+    <col min="10760" max="10789" width="4.42578125" style="222" customWidth="1"/>
+    <col min="10790" max="10790" width="2.5703125" style="222" customWidth="1"/>
+    <col min="10791" max="10791" width="6.140625" style="222" customWidth="1"/>
+    <col min="10792" max="10792" width="19.42578125" style="222" customWidth="1"/>
     <col min="10793" max="11012" width="9" style="222"/>
-    <col min="11013" max="11013" width="3.33203125" style="222" customWidth="1"/>
+    <col min="11013" max="11013" width="3.28515625" style="222" customWidth="1"/>
     <col min="11014" max="11014" width="20" style="222" customWidth="1"/>
-    <col min="11015" max="11015" width="24.5546875" style="222" customWidth="1"/>
-    <col min="11016" max="11045" width="4.44140625" style="222" customWidth="1"/>
-    <col min="11046" max="11046" width="2.5546875" style="222" customWidth="1"/>
-    <col min="11047" max="11047" width="6.109375" style="222" customWidth="1"/>
-    <col min="11048" max="11048" width="19.44140625" style="222" customWidth="1"/>
+    <col min="11015" max="11015" width="24.5703125" style="222" customWidth="1"/>
+    <col min="11016" max="11045" width="4.42578125" style="222" customWidth="1"/>
+    <col min="11046" max="11046" width="2.5703125" style="222" customWidth="1"/>
+    <col min="11047" max="11047" width="6.140625" style="222" customWidth="1"/>
+    <col min="11048" max="11048" width="19.42578125" style="222" customWidth="1"/>
     <col min="11049" max="11268" width="9" style="222"/>
-    <col min="11269" max="11269" width="3.33203125" style="222" customWidth="1"/>
+    <col min="11269" max="11269" width="3.28515625" style="222" customWidth="1"/>
     <col min="11270" max="11270" width="20" style="222" customWidth="1"/>
-    <col min="11271" max="11271" width="24.5546875" style="222" customWidth="1"/>
-    <col min="11272" max="11301" width="4.44140625" style="222" customWidth="1"/>
-    <col min="11302" max="11302" width="2.5546875" style="222" customWidth="1"/>
-    <col min="11303" max="11303" width="6.109375" style="222" customWidth="1"/>
-    <col min="11304" max="11304" width="19.44140625" style="222" customWidth="1"/>
+    <col min="11271" max="11271" width="24.5703125" style="222" customWidth="1"/>
+    <col min="11272" max="11301" width="4.42578125" style="222" customWidth="1"/>
+    <col min="11302" max="11302" width="2.5703125" style="222" customWidth="1"/>
+    <col min="11303" max="11303" width="6.140625" style="222" customWidth="1"/>
+    <col min="11304" max="11304" width="19.42578125" style="222" customWidth="1"/>
     <col min="11305" max="11524" width="9" style="222"/>
-    <col min="11525" max="11525" width="3.33203125" style="222" customWidth="1"/>
+    <col min="11525" max="11525" width="3.28515625" style="222" customWidth="1"/>
     <col min="11526" max="11526" width="20" style="222" customWidth="1"/>
-    <col min="11527" max="11527" width="24.5546875" style="222" customWidth="1"/>
-    <col min="11528" max="11557" width="4.44140625" style="222" customWidth="1"/>
-    <col min="11558" max="11558" width="2.5546875" style="222" customWidth="1"/>
-    <col min="11559" max="11559" width="6.109375" style="222" customWidth="1"/>
-    <col min="11560" max="11560" width="19.44140625" style="222" customWidth="1"/>
+    <col min="11527" max="11527" width="24.5703125" style="222" customWidth="1"/>
+    <col min="11528" max="11557" width="4.42578125" style="222" customWidth="1"/>
+    <col min="11558" max="11558" width="2.5703125" style="222" customWidth="1"/>
+    <col min="11559" max="11559" width="6.140625" style="222" customWidth="1"/>
+    <col min="11560" max="11560" width="19.42578125" style="222" customWidth="1"/>
     <col min="11561" max="11780" width="9" style="222"/>
-    <col min="11781" max="11781" width="3.33203125" style="222" customWidth="1"/>
+    <col min="11781" max="11781" width="3.28515625" style="222" customWidth="1"/>
     <col min="11782" max="11782" width="20" style="222" customWidth="1"/>
-    <col min="11783" max="11783" width="24.5546875" style="222" customWidth="1"/>
-    <col min="11784" max="11813" width="4.44140625" style="222" customWidth="1"/>
-    <col min="11814" max="11814" width="2.5546875" style="222" customWidth="1"/>
-    <col min="11815" max="11815" width="6.109375" style="222" customWidth="1"/>
-    <col min="11816" max="11816" width="19.44140625" style="222" customWidth="1"/>
+    <col min="11783" max="11783" width="24.5703125" style="222" customWidth="1"/>
+    <col min="11784" max="11813" width="4.42578125" style="222" customWidth="1"/>
+    <col min="11814" max="11814" width="2.5703125" style="222" customWidth="1"/>
+    <col min="11815" max="11815" width="6.140625" style="222" customWidth="1"/>
+    <col min="11816" max="11816" width="19.42578125" style="222" customWidth="1"/>
     <col min="11817" max="12036" width="9" style="222"/>
-    <col min="12037" max="12037" width="3.33203125" style="222" customWidth="1"/>
+    <col min="12037" max="12037" width="3.28515625" style="222" customWidth="1"/>
     <col min="12038" max="12038" width="20" style="222" customWidth="1"/>
-    <col min="12039" max="12039" width="24.5546875" style="222" customWidth="1"/>
-    <col min="12040" max="12069" width="4.44140625" style="222" customWidth="1"/>
-    <col min="12070" max="12070" width="2.5546875" style="222" customWidth="1"/>
-    <col min="12071" max="12071" width="6.109375" style="222" customWidth="1"/>
-    <col min="12072" max="12072" width="19.44140625" style="222" customWidth="1"/>
+    <col min="12039" max="12039" width="24.5703125" style="222" customWidth="1"/>
+    <col min="12040" max="12069" width="4.42578125" style="222" customWidth="1"/>
+    <col min="12070" max="12070" width="2.5703125" style="222" customWidth="1"/>
+    <col min="12071" max="12071" width="6.140625" style="222" customWidth="1"/>
+    <col min="12072" max="12072" width="19.42578125" style="222" customWidth="1"/>
     <col min="12073" max="12292" width="9" style="222"/>
-    <col min="12293" max="12293" width="3.33203125" style="222" customWidth="1"/>
+    <col min="12293" max="12293" width="3.28515625" style="222" customWidth="1"/>
     <col min="12294" max="12294" width="20" style="222" customWidth="1"/>
-    <col min="12295" max="12295" width="24.5546875" style="222" customWidth="1"/>
-    <col min="12296" max="12325" width="4.44140625" style="222" customWidth="1"/>
-    <col min="12326" max="12326" width="2.5546875" style="222" customWidth="1"/>
-    <col min="12327" max="12327" width="6.109375" style="222" customWidth="1"/>
-    <col min="12328" max="12328" width="19.44140625" style="222" customWidth="1"/>
+    <col min="12295" max="12295" width="24.5703125" style="222" customWidth="1"/>
+    <col min="12296" max="12325" width="4.42578125" style="222" customWidth="1"/>
+    <col min="12326" max="12326" width="2.5703125" style="222" customWidth="1"/>
+    <col min="12327" max="12327" width="6.140625" style="222" customWidth="1"/>
+    <col min="12328" max="12328" width="19.42578125" style="222" customWidth="1"/>
     <col min="12329" max="12548" width="9" style="222"/>
-    <col min="12549" max="12549" width="3.33203125" style="222" customWidth="1"/>
+    <col min="12549" max="12549" width="3.28515625" style="222" customWidth="1"/>
     <col min="12550" max="12550" width="20" style="222" customWidth="1"/>
-    <col min="12551" max="12551" width="24.5546875" style="222" customWidth="1"/>
-    <col min="12552" max="12581" width="4.44140625" style="222" customWidth="1"/>
-    <col min="12582" max="12582" width="2.5546875" style="222" customWidth="1"/>
-    <col min="12583" max="12583" width="6.109375" style="222" customWidth="1"/>
-    <col min="12584" max="12584" width="19.44140625" style="222" customWidth="1"/>
+    <col min="12551" max="12551" width="24.5703125" style="222" customWidth="1"/>
+    <col min="12552" max="12581" width="4.42578125" style="222" customWidth="1"/>
+    <col min="12582" max="12582" width="2.5703125" style="222" customWidth="1"/>
+    <col min="12583" max="12583" width="6.140625" style="222" customWidth="1"/>
+    <col min="12584" max="12584" width="19.42578125" style="222" customWidth="1"/>
     <col min="12585" max="12804" width="9" style="222"/>
-    <col min="12805" max="12805" width="3.33203125" style="222" customWidth="1"/>
+    <col min="12805" max="12805" width="3.28515625" style="222" customWidth="1"/>
     <col min="12806" max="12806" width="20" style="222" customWidth="1"/>
-    <col min="12807" max="12807" width="24.5546875" style="222" customWidth="1"/>
-    <col min="12808" max="12837" width="4.44140625" style="222" customWidth="1"/>
-    <col min="12838" max="12838" width="2.5546875" style="222" customWidth="1"/>
-    <col min="12839" max="12839" width="6.109375" style="222" customWidth="1"/>
-    <col min="12840" max="12840" width="19.44140625" style="222" customWidth="1"/>
+    <col min="12807" max="12807" width="24.5703125" style="222" customWidth="1"/>
+    <col min="12808" max="12837" width="4.42578125" style="222" customWidth="1"/>
+    <col min="12838" max="12838" width="2.5703125" style="222" customWidth="1"/>
+    <col min="12839" max="12839" width="6.140625" style="222" customWidth="1"/>
+    <col min="12840" max="12840" width="19.42578125" style="222" customWidth="1"/>
     <col min="12841" max="13060" width="9" style="222"/>
-    <col min="13061" max="13061" width="3.33203125" style="222" customWidth="1"/>
+    <col min="13061" max="13061" width="3.28515625" style="222" customWidth="1"/>
     <col min="13062" max="13062" width="20" style="222" customWidth="1"/>
-    <col min="13063" max="13063" width="24.5546875" style="222" customWidth="1"/>
-    <col min="13064" max="13093" width="4.44140625" style="222" customWidth="1"/>
-    <col min="13094" max="13094" width="2.5546875" style="222" customWidth="1"/>
-    <col min="13095" max="13095" width="6.109375" style="222" customWidth="1"/>
-    <col min="13096" max="13096" width="19.44140625" style="222" customWidth="1"/>
+    <col min="13063" max="13063" width="24.5703125" style="222" customWidth="1"/>
+    <col min="13064" max="13093" width="4.42578125" style="222" customWidth="1"/>
+    <col min="13094" max="13094" width="2.5703125" style="222" customWidth="1"/>
+    <col min="13095" max="13095" width="6.140625" style="222" customWidth="1"/>
+    <col min="13096" max="13096" width="19.42578125" style="222" customWidth="1"/>
     <col min="13097" max="13316" width="9" style="222"/>
-    <col min="13317" max="13317" width="3.33203125" style="222" customWidth="1"/>
+    <col min="13317" max="13317" width="3.28515625" style="222" customWidth="1"/>
     <col min="13318" max="13318" width="20" style="222" customWidth="1"/>
-    <col min="13319" max="13319" width="24.5546875" style="222" customWidth="1"/>
-    <col min="13320" max="13349" width="4.44140625" style="222" customWidth="1"/>
-    <col min="13350" max="13350" width="2.5546875" style="222" customWidth="1"/>
-    <col min="13351" max="13351" width="6.109375" style="222" customWidth="1"/>
-    <col min="13352" max="13352" width="19.44140625" style="222" customWidth="1"/>
+    <col min="13319" max="13319" width="24.5703125" style="222" customWidth="1"/>
+    <col min="13320" max="13349" width="4.42578125" style="222" customWidth="1"/>
+    <col min="13350" max="13350" width="2.5703125" style="222" customWidth="1"/>
+    <col min="13351" max="13351" width="6.140625" style="222" customWidth="1"/>
+    <col min="13352" max="13352" width="19.42578125" style="222" customWidth="1"/>
     <col min="13353" max="13572" width="9" style="222"/>
-    <col min="13573" max="13573" width="3.33203125" style="222" customWidth="1"/>
+    <col min="13573" max="13573" width="3.28515625" style="222" customWidth="1"/>
     <col min="13574" max="13574" width="20" style="222" customWidth="1"/>
-    <col min="13575" max="13575" width="24.5546875" style="222" customWidth="1"/>
-    <col min="13576" max="13605" width="4.44140625" style="222" customWidth="1"/>
-    <col min="13606" max="13606" width="2.5546875" style="222" customWidth="1"/>
-    <col min="13607" max="13607" width="6.109375" style="222" customWidth="1"/>
-    <col min="13608" max="13608" width="19.44140625" style="222" customWidth="1"/>
+    <col min="13575" max="13575" width="24.5703125" style="222" customWidth="1"/>
+    <col min="13576" max="13605" width="4.42578125" style="222" customWidth="1"/>
+    <col min="13606" max="13606" width="2.5703125" style="222" customWidth="1"/>
+    <col min="13607" max="13607" width="6.140625" style="222" customWidth="1"/>
+    <col min="13608" max="13608" width="19.42578125" style="222" customWidth="1"/>
     <col min="13609" max="13828" width="9" style="222"/>
-    <col min="13829" max="13829" width="3.33203125" style="222" customWidth="1"/>
+    <col min="13829" max="13829" width="3.28515625" style="222" customWidth="1"/>
     <col min="13830" max="13830" width="20" style="222" customWidth="1"/>
-    <col min="13831" max="13831" width="24.5546875" style="222" customWidth="1"/>
-    <col min="13832" max="13861" width="4.44140625" style="222" customWidth="1"/>
-    <col min="13862" max="13862" width="2.5546875" style="222" customWidth="1"/>
-    <col min="13863" max="13863" width="6.109375" style="222" customWidth="1"/>
-    <col min="13864" max="13864" width="19.44140625" style="222" customWidth="1"/>
+    <col min="13831" max="13831" width="24.5703125" style="222" customWidth="1"/>
+    <col min="13832" max="13861" width="4.42578125" style="222" customWidth="1"/>
+    <col min="13862" max="13862" width="2.5703125" style="222" customWidth="1"/>
+    <col min="13863" max="13863" width="6.140625" style="222" customWidth="1"/>
+    <col min="13864" max="13864" width="19.42578125" style="222" customWidth="1"/>
     <col min="13865" max="14084" width="9" style="222"/>
-    <col min="14085" max="14085" width="3.33203125" style="222" customWidth="1"/>
+    <col min="14085" max="14085" width="3.28515625" style="222" customWidth="1"/>
     <col min="14086" max="14086" width="20" style="222" customWidth="1"/>
-    <col min="14087" max="14087" width="24.5546875" style="222" customWidth="1"/>
-    <col min="14088" max="14117" width="4.44140625" style="222" customWidth="1"/>
-    <col min="14118" max="14118" width="2.5546875" style="222" customWidth="1"/>
-    <col min="14119" max="14119" width="6.109375" style="222" customWidth="1"/>
-    <col min="14120" max="14120" width="19.44140625" style="222" customWidth="1"/>
+    <col min="14087" max="14087" width="24.5703125" style="222" customWidth="1"/>
+    <col min="14088" max="14117" width="4.42578125" style="222" customWidth="1"/>
+    <col min="14118" max="14118" width="2.5703125" style="222" customWidth="1"/>
+    <col min="14119" max="14119" width="6.140625" style="222" customWidth="1"/>
+    <col min="14120" max="14120" width="19.42578125" style="222" customWidth="1"/>
     <col min="14121" max="14340" width="9" style="222"/>
-    <col min="14341" max="14341" width="3.33203125" style="222" customWidth="1"/>
+    <col min="14341" max="14341" width="3.28515625" style="222" customWidth="1"/>
     <col min="14342" max="14342" width="20" style="222" customWidth="1"/>
-    <col min="14343" max="14343" width="24.5546875" style="222" customWidth="1"/>
-    <col min="14344" max="14373" width="4.44140625" style="222" customWidth="1"/>
-    <col min="14374" max="14374" width="2.5546875" style="222" customWidth="1"/>
-    <col min="14375" max="14375" width="6.109375" style="222" customWidth="1"/>
-    <col min="14376" max="14376" width="19.44140625" style="222" customWidth="1"/>
+    <col min="14343" max="14343" width="24.5703125" style="222" customWidth="1"/>
+    <col min="14344" max="14373" width="4.42578125" style="222" customWidth="1"/>
+    <col min="14374" max="14374" width="2.5703125" style="222" customWidth="1"/>
+    <col min="14375" max="14375" width="6.140625" style="222" customWidth="1"/>
+    <col min="14376" max="14376" width="19.42578125" style="222" customWidth="1"/>
     <col min="14377" max="14596" width="9" style="222"/>
-    <col min="14597" max="14597" width="3.33203125" style="222" customWidth="1"/>
+    <col min="14597" max="14597" width="3.28515625" style="222" customWidth="1"/>
     <col min="14598" max="14598" width="20" style="222" customWidth="1"/>
-    <col min="14599" max="14599" width="24.5546875" style="222" customWidth="1"/>
-    <col min="14600" max="14629" width="4.44140625" style="222" customWidth="1"/>
-    <col min="14630" max="14630" width="2.5546875" style="222" customWidth="1"/>
-    <col min="14631" max="14631" width="6.109375" style="222" customWidth="1"/>
-    <col min="14632" max="14632" width="19.44140625" style="222" customWidth="1"/>
+    <col min="14599" max="14599" width="24.5703125" style="222" customWidth="1"/>
+    <col min="14600" max="14629" width="4.42578125" style="222" customWidth="1"/>
+    <col min="14630" max="14630" width="2.5703125" style="222" customWidth="1"/>
+    <col min="14631" max="14631" width="6.140625" style="222" customWidth="1"/>
+    <col min="14632" max="14632" width="19.42578125" style="222" customWidth="1"/>
     <col min="14633" max="14852" width="9" style="222"/>
-    <col min="14853" max="14853" width="3.33203125" style="222" customWidth="1"/>
+    <col min="14853" max="14853" width="3.28515625" style="222" customWidth="1"/>
     <col min="14854" max="14854" width="20" style="222" customWidth="1"/>
-    <col min="14855" max="14855" width="24.5546875" style="222" customWidth="1"/>
-    <col min="14856" max="14885" width="4.44140625" style="222" customWidth="1"/>
-    <col min="14886" max="14886" width="2.5546875" style="222" customWidth="1"/>
-    <col min="14887" max="14887" width="6.109375" style="222" customWidth="1"/>
-    <col min="14888" max="14888" width="19.44140625" style="222" customWidth="1"/>
+    <col min="14855" max="14855" width="24.5703125" style="222" customWidth="1"/>
+    <col min="14856" max="14885" width="4.42578125" style="222" customWidth="1"/>
+    <col min="14886" max="14886" width="2.5703125" style="222" customWidth="1"/>
+    <col min="14887" max="14887" width="6.140625" style="222" customWidth="1"/>
+    <col min="14888" max="14888" width="19.42578125" style="222" customWidth="1"/>
     <col min="14889" max="15108" width="9" style="222"/>
-    <col min="15109" max="15109" width="3.33203125" style="222" customWidth="1"/>
+    <col min="15109" max="15109" width="3.28515625" style="222" customWidth="1"/>
     <col min="15110" max="15110" width="20" style="222" customWidth="1"/>
-    <col min="15111" max="15111" width="24.5546875" style="222" customWidth="1"/>
-    <col min="15112" max="15141" width="4.44140625" style="222" customWidth="1"/>
-    <col min="15142" max="15142" width="2.5546875" style="222" customWidth="1"/>
-    <col min="15143" max="15143" width="6.109375" style="222" customWidth="1"/>
-    <col min="15144" max="15144" width="19.44140625" style="222" customWidth="1"/>
+    <col min="15111" max="15111" width="24.5703125" style="222" customWidth="1"/>
+    <col min="15112" max="15141" width="4.42578125" style="222" customWidth="1"/>
+    <col min="15142" max="15142" width="2.5703125" style="222" customWidth="1"/>
+    <col min="15143" max="15143" width="6.140625" style="222" customWidth="1"/>
+    <col min="15144" max="15144" width="19.42578125" style="222" customWidth="1"/>
     <col min="15145" max="15364" width="9" style="222"/>
-    <col min="15365" max="15365" width="3.33203125" style="222" customWidth="1"/>
+    <col min="15365" max="15365" width="3.28515625" style="222" customWidth="1"/>
     <col min="15366" max="15366" width="20" style="222" customWidth="1"/>
-    <col min="15367" max="15367" width="24.5546875" style="222" customWidth="1"/>
-    <col min="15368" max="15397" width="4.44140625" style="222" customWidth="1"/>
-    <col min="15398" max="15398" width="2.5546875" style="222" customWidth="1"/>
-    <col min="15399" max="15399" width="6.109375" style="222" customWidth="1"/>
-    <col min="15400" max="15400" width="19.44140625" style="222" customWidth="1"/>
+    <col min="15367" max="15367" width="24.5703125" style="222" customWidth="1"/>
+    <col min="15368" max="15397" width="4.42578125" style="222" customWidth="1"/>
+    <col min="15398" max="15398" width="2.5703125" style="222" customWidth="1"/>
+    <col min="15399" max="15399" width="6.140625" style="222" customWidth="1"/>
+    <col min="15400" max="15400" width="19.42578125" style="222" customWidth="1"/>
     <col min="15401" max="15620" width="9" style="222"/>
-    <col min="15621" max="15621" width="3.33203125" style="222" customWidth="1"/>
+    <col min="15621" max="15621" width="3.28515625" style="222" customWidth="1"/>
     <col min="15622" max="15622" width="20" style="222" customWidth="1"/>
-    <col min="15623" max="15623" width="24.5546875" style="222" customWidth="1"/>
-    <col min="15624" max="15653" width="4.44140625" style="222" customWidth="1"/>
-    <col min="15654" max="15654" width="2.5546875" style="222" customWidth="1"/>
-    <col min="15655" max="15655" width="6.109375" style="222" customWidth="1"/>
-    <col min="15656" max="15656" width="19.44140625" style="222" customWidth="1"/>
+    <col min="15623" max="15623" width="24.5703125" style="222" customWidth="1"/>
+    <col min="15624" max="15653" width="4.42578125" style="222" customWidth="1"/>
+    <col min="15654" max="15654" width="2.5703125" style="222" customWidth="1"/>
+    <col min="15655" max="15655" width="6.140625" style="222" customWidth="1"/>
+    <col min="15656" max="15656" width="19.42578125" style="222" customWidth="1"/>
     <col min="15657" max="15876" width="9" style="222"/>
-    <col min="15877" max="15877" width="3.33203125" style="222" customWidth="1"/>
+    <col min="15877" max="15877" width="3.28515625" style="222" customWidth="1"/>
     <col min="15878" max="15878" width="20" style="222" customWidth="1"/>
-    <col min="15879" max="15879" width="24.5546875" style="222" customWidth="1"/>
-    <col min="15880" max="15909" width="4.44140625" style="222" customWidth="1"/>
-    <col min="15910" max="15910" width="2.5546875" style="222" customWidth="1"/>
-    <col min="15911" max="15911" width="6.109375" style="222" customWidth="1"/>
-    <col min="15912" max="15912" width="19.44140625" style="222" customWidth="1"/>
+    <col min="15879" max="15879" width="24.5703125" style="222" customWidth="1"/>
+    <col min="15880" max="15909" width="4.42578125" style="222" customWidth="1"/>
+    <col min="15910" max="15910" width="2.5703125" style="222" customWidth="1"/>
+    <col min="15911" max="15911" width="6.140625" style="222" customWidth="1"/>
+    <col min="15912" max="15912" width="19.42578125" style="222" customWidth="1"/>
     <col min="15913" max="16132" width="9" style="222"/>
-    <col min="16133" max="16133" width="3.33203125" style="222" customWidth="1"/>
+    <col min="16133" max="16133" width="3.28515625" style="222" customWidth="1"/>
     <col min="16134" max="16134" width="20" style="222" customWidth="1"/>
-    <col min="16135" max="16135" width="24.5546875" style="222" customWidth="1"/>
-    <col min="16136" max="16165" width="4.44140625" style="222" customWidth="1"/>
-    <col min="16166" max="16166" width="2.5546875" style="222" customWidth="1"/>
-    <col min="16167" max="16167" width="6.109375" style="222" customWidth="1"/>
-    <col min="16168" max="16168" width="19.44140625" style="222" customWidth="1"/>
+    <col min="16135" max="16135" width="24.5703125" style="222" customWidth="1"/>
+    <col min="16136" max="16165" width="4.42578125" style="222" customWidth="1"/>
+    <col min="16166" max="16166" width="2.5703125" style="222" customWidth="1"/>
+    <col min="16167" max="16167" width="6.140625" style="222" customWidth="1"/>
+    <col min="16168" max="16168" width="19.42578125" style="222" customWidth="1"/>
     <col min="16169" max="16384" width="9" style="222"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
@@ -9134,18 +9134,18 @@
       <c r="C1" s="221"/>
       <c r="D1" s="221"/>
       <c r="E1" s="221"/>
-      <c r="Z1" s="431" t="s">
+      <c r="Z1" s="486" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="432"/>
-      <c r="AB1" s="432"/>
-      <c r="AC1" s="432"/>
-      <c r="AD1" s="432"/>
-      <c r="AE1" s="432"/>
-      <c r="AF1" s="432"/>
-      <c r="AG1" s="433"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AA1" s="487"/>
+      <c r="AB1" s="487"/>
+      <c r="AC1" s="487"/>
+      <c r="AD1" s="487"/>
+      <c r="AE1" s="487"/>
+      <c r="AF1" s="487"/>
+      <c r="AG1" s="488"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="224" t="s">
         <v>2</v>
       </c>
@@ -9153,20 +9153,20 @@
       <c r="C2" s="225"/>
       <c r="D2" s="225"/>
       <c r="E2" s="225"/>
-      <c r="Z2" s="426" t="s">
+      <c r="Z2" s="469" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="427"/>
-      <c r="AB2" s="427"/>
-      <c r="AC2" s="427"/>
-      <c r="AD2" s="427"/>
-      <c r="AE2" s="428"/>
-      <c r="AF2" s="429" t="s">
+      <c r="AA2" s="470"/>
+      <c r="AB2" s="470"/>
+      <c r="AC2" s="470"/>
+      <c r="AD2" s="470"/>
+      <c r="AE2" s="471"/>
+      <c r="AF2" s="472" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="430"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AG2" s="473"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="224" t="s">
         <v>92</v>
       </c>
@@ -9174,20 +9174,20 @@
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
       <c r="E3" s="87"/>
-      <c r="Z3" s="426" t="s">
+      <c r="Z3" s="469" t="s">
         <v>93</v>
       </c>
-      <c r="AA3" s="427"/>
-      <c r="AB3" s="427"/>
-      <c r="AC3" s="427"/>
-      <c r="AD3" s="427"/>
-      <c r="AE3" s="428"/>
-      <c r="AF3" s="429" t="s">
+      <c r="AA3" s="470"/>
+      <c r="AB3" s="470"/>
+      <c r="AC3" s="470"/>
+      <c r="AD3" s="470"/>
+      <c r="AE3" s="471"/>
+      <c r="AF3" s="472" t="s">
         <v>94</v>
       </c>
-      <c r="AG3" s="430"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AG3" s="473"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="224" t="s">
         <v>95</v>
       </c>
@@ -9195,20 +9195,20 @@
       <c r="C4" s="87"/>
       <c r="D4" s="87"/>
       <c r="E4" s="87"/>
-      <c r="Z4" s="426" t="s">
+      <c r="Z4" s="469" t="s">
         <v>96</v>
       </c>
-      <c r="AA4" s="427"/>
-      <c r="AB4" s="427"/>
-      <c r="AC4" s="427"/>
-      <c r="AD4" s="427"/>
-      <c r="AE4" s="428"/>
-      <c r="AF4" s="429" t="s">
+      <c r="AA4" s="470"/>
+      <c r="AB4" s="470"/>
+      <c r="AC4" s="470"/>
+      <c r="AD4" s="470"/>
+      <c r="AE4" s="471"/>
+      <c r="AF4" s="472" t="s">
         <v>97</v>
       </c>
-      <c r="AG4" s="430"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AG4" s="473"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="224" t="s">
         <v>98</v>
       </c>
@@ -9216,114 +9216,114 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="87"/>
-      <c r="Z5" s="426" t="s">
+      <c r="Z5" s="469" t="s">
         <v>99</v>
       </c>
-      <c r="AA5" s="427"/>
-      <c r="AB5" s="427"/>
-      <c r="AC5" s="427"/>
-      <c r="AD5" s="427"/>
-      <c r="AE5" s="428"/>
-      <c r="AF5" s="429" t="s">
+      <c r="AA5" s="470"/>
+      <c r="AB5" s="470"/>
+      <c r="AC5" s="470"/>
+      <c r="AD5" s="470"/>
+      <c r="AE5" s="471"/>
+      <c r="AF5" s="472" t="s">
         <v>100</v>
       </c>
-      <c r="AG5" s="430"/>
-    </row>
-    <row r="6" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AG5" s="473"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="226"/>
       <c r="B6" s="226"/>
       <c r="C6" s="227"/>
       <c r="D6" s="227"/>
       <c r="E6" s="226"/>
     </row>
-    <row r="7" spans="1:40" s="229" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="435" t="s">
+    <row r="7" spans="1:40" s="229" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="474" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="435"/>
-      <c r="C7" s="435"/>
-      <c r="D7" s="435"/>
-      <c r="E7" s="435"/>
-      <c r="F7" s="435"/>
-      <c r="G7" s="435"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="435"/>
-      <c r="J7" s="435"/>
-      <c r="K7" s="435"/>
-      <c r="L7" s="435"/>
-      <c r="M7" s="435"/>
-      <c r="N7" s="435"/>
-      <c r="O7" s="435"/>
-      <c r="P7" s="435"/>
-      <c r="Q7" s="435"/>
-      <c r="R7" s="435"/>
-      <c r="S7" s="435"/>
-      <c r="T7" s="435"/>
-      <c r="U7" s="435"/>
-      <c r="V7" s="435"/>
-      <c r="W7" s="435"/>
-      <c r="X7" s="435"/>
-      <c r="Y7" s="435"/>
-      <c r="Z7" s="435"/>
-      <c r="AA7" s="435"/>
-      <c r="AB7" s="435"/>
-      <c r="AC7" s="435"/>
-      <c r="AD7" s="435"/>
-      <c r="AE7" s="435"/>
-      <c r="AF7" s="435"/>
-      <c r="AG7" s="435"/>
-      <c r="AH7" s="435"/>
-      <c r="AI7" s="435"/>
-      <c r="AJ7" s="435"/>
-      <c r="AK7" s="435"/>
-      <c r="AL7" s="435"/>
-      <c r="AM7" s="435"/>
+      <c r="B7" s="474"/>
+      <c r="C7" s="474"/>
+      <c r="D7" s="474"/>
+      <c r="E7" s="474"/>
+      <c r="F7" s="474"/>
+      <c r="G7" s="474"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="474"/>
+      <c r="J7" s="474"/>
+      <c r="K7" s="474"/>
+      <c r="L7" s="474"/>
+      <c r="M7" s="474"/>
+      <c r="N7" s="474"/>
+      <c r="O7" s="474"/>
+      <c r="P7" s="474"/>
+      <c r="Q7" s="474"/>
+      <c r="R7" s="474"/>
+      <c r="S7" s="474"/>
+      <c r="T7" s="474"/>
+      <c r="U7" s="474"/>
+      <c r="V7" s="474"/>
+      <c r="W7" s="474"/>
+      <c r="X7" s="474"/>
+      <c r="Y7" s="474"/>
+      <c r="Z7" s="474"/>
+      <c r="AA7" s="474"/>
+      <c r="AB7" s="474"/>
+      <c r="AC7" s="474"/>
+      <c r="AD7" s="474"/>
+      <c r="AE7" s="474"/>
+      <c r="AF7" s="474"/>
+      <c r="AG7" s="474"/>
+      <c r="AH7" s="474"/>
+      <c r="AI7" s="474"/>
+      <c r="AJ7" s="474"/>
+      <c r="AK7" s="474"/>
+      <c r="AL7" s="474"/>
+      <c r="AM7" s="474"/>
       <c r="AN7" s="228"/>
     </row>
-    <row r="9" spans="1:40" s="234" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="436" t="s">
+    <row r="9" spans="1:40" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="475" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="436" t="s">
+      <c r="B9" s="475" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="436" t="s">
+      <c r="C9" s="475" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="439" t="s">
+      <c r="D9" s="478" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="440"/>
-      <c r="F9" s="440"/>
-      <c r="G9" s="440"/>
-      <c r="H9" s="440"/>
-      <c r="I9" s="440"/>
-      <c r="J9" s="440"/>
-      <c r="K9" s="440"/>
-      <c r="L9" s="440"/>
-      <c r="M9" s="440"/>
-      <c r="N9" s="440"/>
-      <c r="O9" s="440"/>
-      <c r="P9" s="440"/>
-      <c r="Q9" s="440"/>
-      <c r="R9" s="440"/>
-      <c r="S9" s="440"/>
-      <c r="T9" s="440"/>
-      <c r="U9" s="440"/>
-      <c r="V9" s="440"/>
-      <c r="W9" s="440"/>
-      <c r="X9" s="440"/>
-      <c r="Y9" s="440"/>
-      <c r="Z9" s="440"/>
-      <c r="AA9" s="440"/>
-      <c r="AB9" s="440"/>
-      <c r="AC9" s="440"/>
-      <c r="AD9" s="440"/>
-      <c r="AE9" s="440"/>
-      <c r="AF9" s="440"/>
-      <c r="AG9" s="440"/>
-      <c r="AH9" s="441"/>
-      <c r="AI9" s="442" t="s">
+      <c r="E9" s="479"/>
+      <c r="F9" s="479"/>
+      <c r="G9" s="479"/>
+      <c r="H9" s="479"/>
+      <c r="I9" s="479"/>
+      <c r="J9" s="479"/>
+      <c r="K9" s="479"/>
+      <c r="L9" s="479"/>
+      <c r="M9" s="479"/>
+      <c r="N9" s="479"/>
+      <c r="O9" s="479"/>
+      <c r="P9" s="479"/>
+      <c r="Q9" s="479"/>
+      <c r="R9" s="479"/>
+      <c r="S9" s="479"/>
+      <c r="T9" s="479"/>
+      <c r="U9" s="479"/>
+      <c r="V9" s="479"/>
+      <c r="W9" s="479"/>
+      <c r="X9" s="479"/>
+      <c r="Y9" s="479"/>
+      <c r="Z9" s="479"/>
+      <c r="AA9" s="479"/>
+      <c r="AB9" s="479"/>
+      <c r="AC9" s="479"/>
+      <c r="AD9" s="479"/>
+      <c r="AE9" s="479"/>
+      <c r="AF9" s="479"/>
+      <c r="AG9" s="479"/>
+      <c r="AH9" s="480"/>
+      <c r="AI9" s="481" t="s">
         <v>105</v>
       </c>
       <c r="AJ9" s="230"/>
@@ -9332,10 +9332,10 @@
       <c r="AM9" s="232"/>
       <c r="AN9" s="233"/>
     </row>
-    <row r="10" spans="1:40" s="234" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="437"/>
-      <c r="B10" s="437"/>
-      <c r="C10" s="437"/>
+    <row r="10" spans="1:40" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="476"/>
+      <c r="B10" s="476"/>
+      <c r="C10" s="476"/>
       <c r="D10" s="235">
         <v>1</v>
       </c>
@@ -9429,17 +9429,17 @@
       <c r="AH10" s="235">
         <v>31</v>
       </c>
-      <c r="AI10" s="442"/>
+      <c r="AI10" s="481"/>
       <c r="AJ10" s="236"/>
       <c r="AK10" s="232"/>
       <c r="AL10" s="232"/>
       <c r="AM10" s="232"/>
       <c r="AN10" s="233"/>
     </row>
-    <row r="11" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="438"/>
-      <c r="B11" s="438"/>
-      <c r="C11" s="438"/>
+    <row r="11" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="477"/>
+      <c r="B11" s="477"/>
+      <c r="C11" s="477"/>
       <c r="D11" s="235" t="s">
         <v>109</v>
       </c>
@@ -9533,11 +9533,11 @@
       <c r="AH11" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="AI11" s="442"/>
+      <c r="AI11" s="481"/>
       <c r="AJ11" s="241"/>
       <c r="AN11" s="243"/>
     </row>
-    <row r="12" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="270">
         <v>1</v>
       </c>
@@ -9639,7 +9639,7 @@
       <c r="AJ12" s="241"/>
       <c r="AN12" s="243"/>
     </row>
-    <row r="13" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="270">
         <v>3</v>
       </c>
@@ -9674,9 +9674,7 @@
       <c r="P13" s="240" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" s="360" t="s">
-        <v>91</v>
-      </c>
+      <c r="Q13" s="360"/>
       <c r="R13" s="240" t="s">
         <v>91</v>
       </c>
@@ -9728,12 +9726,12 @@
       </c>
       <c r="AI13" s="244">
         <f t="shared" ref="AI13:AI16" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="AJ13" s="241"/>
       <c r="AN13" s="243"/>
     </row>
-    <row r="14" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="270">
         <v>4</v>
       </c>
@@ -9841,7 +9839,7 @@
       <c r="AJ14" s="241"/>
       <c r="AN14" s="243"/>
     </row>
-    <row r="15" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="270">
         <v>5</v>
       </c>
@@ -9943,7 +9941,7 @@
       <c r="AJ15" s="241"/>
       <c r="AN15" s="243"/>
     </row>
-    <row r="16" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="270">
         <v>6</v>
       </c>
@@ -10043,11 +10041,11 @@
       <c r="AJ16" s="241"/>
       <c r="AN16" s="243"/>
     </row>
-    <row r="17" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="443" t="s">
+    <row r="17" spans="1:40" s="242" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="482" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="444"/>
+      <c r="B17" s="483"/>
       <c r="C17" s="245"/>
       <c r="D17" s="245"/>
       <c r="E17" s="246"/>
@@ -10082,224 +10080,231 @@
       <c r="AH17" s="246"/>
       <c r="AI17" s="247">
         <f>SUM(AI12:AI15)</f>
-        <v>103.5</v>
+        <v>102.5</v>
       </c>
       <c r="AJ17" s="248"/>
       <c r="AK17" s="249"/>
       <c r="AL17" s="249"/>
       <c r="AN17" s="243"/>
     </row>
-    <row r="19" spans="1:40" s="255" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="445" t="s">
+    <row r="19" spans="1:40" s="255" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="484" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="445"/>
-      <c r="C19" s="445"/>
-      <c r="D19" s="445"/>
-      <c r="E19" s="445"/>
-      <c r="F19" s="445"/>
-      <c r="G19" s="445"/>
+      <c r="B19" s="484"/>
+      <c r="C19" s="484"/>
+      <c r="D19" s="484"/>
+      <c r="E19" s="484"/>
+      <c r="F19" s="484"/>
+      <c r="G19" s="484"/>
       <c r="H19" s="250"/>
-      <c r="I19" s="446"/>
-      <c r="J19" s="446"/>
-      <c r="K19" s="446"/>
-      <c r="L19" s="446"/>
-      <c r="M19" s="446"/>
+      <c r="I19" s="485"/>
+      <c r="J19" s="485"/>
+      <c r="K19" s="485"/>
+      <c r="L19" s="485"/>
+      <c r="M19" s="485"/>
       <c r="N19" s="251"/>
-      <c r="O19" s="446" t="s">
+      <c r="O19" s="485" t="s">
         <v>115</v>
       </c>
-      <c r="P19" s="446"/>
-      <c r="Q19" s="446"/>
-      <c r="R19" s="446"/>
-      <c r="S19" s="446"/>
-      <c r="T19" s="446"/>
-      <c r="U19" s="446"/>
-      <c r="V19" s="446"/>
-      <c r="W19" s="446"/>
-      <c r="X19" s="446"/>
-      <c r="Y19" s="446"/>
+      <c r="P19" s="485"/>
+      <c r="Q19" s="485"/>
+      <c r="R19" s="485"/>
+      <c r="S19" s="485"/>
+      <c r="T19" s="485"/>
+      <c r="U19" s="485"/>
+      <c r="V19" s="485"/>
+      <c r="W19" s="485"/>
+      <c r="X19" s="485"/>
+      <c r="Y19" s="485"/>
       <c r="Z19" s="252"/>
       <c r="AA19" s="252"/>
       <c r="AB19" s="253"/>
-      <c r="AC19" s="446"/>
-      <c r="AD19" s="446"/>
-      <c r="AE19" s="446"/>
-      <c r="AF19" s="446"/>
-      <c r="AG19" s="446"/>
-      <c r="AH19" s="446"/>
-      <c r="AI19" s="446"/>
-      <c r="AJ19" s="446"/>
-      <c r="AK19" s="446"/>
-      <c r="AL19" s="446"/>
-      <c r="AM19" s="446"/>
+      <c r="AC19" s="485"/>
+      <c r="AD19" s="485"/>
+      <c r="AE19" s="485"/>
+      <c r="AF19" s="485"/>
+      <c r="AG19" s="485"/>
+      <c r="AH19" s="485"/>
+      <c r="AI19" s="485"/>
+      <c r="AJ19" s="485"/>
+      <c r="AK19" s="485"/>
+      <c r="AL19" s="485"/>
+      <c r="AM19" s="485"/>
       <c r="AN19" s="254"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="256"/>
       <c r="B26" s="257"/>
       <c r="C26" s="256"/>
       <c r="D26" s="256"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="256"/>
       <c r="B27" s="257"/>
       <c r="C27" s="256"/>
       <c r="D27" s="256"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="226"/>
       <c r="B28" s="227"/>
       <c r="C28" s="226"/>
       <c r="D28" s="226"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="226"/>
       <c r="B29" s="227"/>
       <c r="C29" s="226"/>
       <c r="D29" s="226"/>
     </row>
-    <row r="33" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AN33" s="259"/>
     </row>
-    <row r="34" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AN34" s="259"/>
     </row>
-    <row r="35" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="434"/>
-      <c r="H35" s="434"/>
-      <c r="I35" s="434"/>
-      <c r="J35" s="434"/>
-      <c r="K35" s="434"/>
-      <c r="L35" s="434"/>
-      <c r="M35" s="434"/>
-      <c r="N35" s="434"/>
-      <c r="O35" s="434"/>
-      <c r="P35" s="434"/>
-      <c r="Q35" s="434"/>
-      <c r="R35" s="434"/>
-      <c r="S35" s="434"/>
-      <c r="T35" s="434"/>
-      <c r="U35" s="434"/>
-      <c r="V35" s="434"/>
-      <c r="W35" s="434"/>
-      <c r="X35" s="434"/>
+    <row r="35" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="468"/>
+      <c r="H35" s="468"/>
+      <c r="I35" s="468"/>
+      <c r="J35" s="468"/>
+      <c r="K35" s="468"/>
+      <c r="L35" s="468"/>
+      <c r="M35" s="468"/>
+      <c r="N35" s="468"/>
+      <c r="O35" s="468"/>
+      <c r="P35" s="468"/>
+      <c r="Q35" s="468"/>
+      <c r="R35" s="468"/>
+      <c r="S35" s="468"/>
+      <c r="T35" s="468"/>
+      <c r="U35" s="468"/>
+      <c r="V35" s="468"/>
+      <c r="W35" s="468"/>
+      <c r="X35" s="468"/>
       <c r="AN35" s="259"/>
     </row>
-    <row r="36" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="434"/>
-      <c r="H36" s="434"/>
-      <c r="I36" s="434"/>
-      <c r="J36" s="434"/>
-      <c r="K36" s="434"/>
-      <c r="L36" s="434"/>
-      <c r="M36" s="434"/>
-      <c r="N36" s="434"/>
-      <c r="O36" s="434"/>
-      <c r="P36" s="434"/>
-      <c r="Q36" s="434"/>
-      <c r="R36" s="434"/>
-      <c r="S36" s="434"/>
-      <c r="T36" s="434"/>
-      <c r="U36" s="434"/>
-      <c r="V36" s="434"/>
-      <c r="W36" s="434"/>
-      <c r="X36" s="434"/>
+    <row r="36" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="468"/>
+      <c r="H36" s="468"/>
+      <c r="I36" s="468"/>
+      <c r="J36" s="468"/>
+      <c r="K36" s="468"/>
+      <c r="L36" s="468"/>
+      <c r="M36" s="468"/>
+      <c r="N36" s="468"/>
+      <c r="O36" s="468"/>
+      <c r="P36" s="468"/>
+      <c r="Q36" s="468"/>
+      <c r="R36" s="468"/>
+      <c r="S36" s="468"/>
+      <c r="T36" s="468"/>
+      <c r="U36" s="468"/>
+      <c r="V36" s="468"/>
+      <c r="W36" s="468"/>
+      <c r="X36" s="468"/>
       <c r="AN36" s="259"/>
     </row>
-    <row r="37" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="434"/>
-      <c r="H37" s="434"/>
-      <c r="I37" s="434"/>
-      <c r="J37" s="434"/>
-      <c r="K37" s="434"/>
-      <c r="L37" s="434"/>
-      <c r="M37" s="434"/>
-      <c r="N37" s="434"/>
-      <c r="O37" s="434"/>
-      <c r="P37" s="434"/>
-      <c r="Q37" s="434"/>
-      <c r="R37" s="434"/>
-      <c r="S37" s="434"/>
-      <c r="T37" s="434"/>
-      <c r="U37" s="434"/>
-      <c r="V37" s="434"/>
-      <c r="W37" s="434"/>
-      <c r="X37" s="434"/>
+    <row r="37" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="468"/>
+      <c r="H37" s="468"/>
+      <c r="I37" s="468"/>
+      <c r="J37" s="468"/>
+      <c r="K37" s="468"/>
+      <c r="L37" s="468"/>
+      <c r="M37" s="468"/>
+      <c r="N37" s="468"/>
+      <c r="O37" s="468"/>
+      <c r="P37" s="468"/>
+      <c r="Q37" s="468"/>
+      <c r="R37" s="468"/>
+      <c r="S37" s="468"/>
+      <c r="T37" s="468"/>
+      <c r="U37" s="468"/>
+      <c r="V37" s="468"/>
+      <c r="W37" s="468"/>
+      <c r="X37" s="468"/>
       <c r="AN37" s="259"/>
     </row>
-    <row r="38" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="434"/>
-      <c r="H38" s="434"/>
-      <c r="I38" s="434"/>
-      <c r="J38" s="434"/>
-      <c r="K38" s="434"/>
-      <c r="L38" s="434"/>
-      <c r="M38" s="434"/>
-      <c r="N38" s="434"/>
-      <c r="O38" s="434"/>
-      <c r="P38" s="434"/>
-      <c r="Q38" s="434"/>
-      <c r="R38" s="434"/>
-      <c r="S38" s="434"/>
-      <c r="T38" s="434"/>
-      <c r="U38" s="434"/>
-      <c r="V38" s="434"/>
-      <c r="W38" s="434"/>
-      <c r="X38" s="434"/>
+    <row r="38" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="468"/>
+      <c r="H38" s="468"/>
+      <c r="I38" s="468"/>
+      <c r="J38" s="468"/>
+      <c r="K38" s="468"/>
+      <c r="L38" s="468"/>
+      <c r="M38" s="468"/>
+      <c r="N38" s="468"/>
+      <c r="O38" s="468"/>
+      <c r="P38" s="468"/>
+      <c r="Q38" s="468"/>
+      <c r="R38" s="468"/>
+      <c r="S38" s="468"/>
+      <c r="T38" s="468"/>
+      <c r="U38" s="468"/>
+      <c r="V38" s="468"/>
+      <c r="W38" s="468"/>
+      <c r="X38" s="468"/>
       <c r="AN38" s="259"/>
     </row>
-    <row r="39" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="434"/>
-      <c r="H39" s="434"/>
-      <c r="I39" s="434"/>
-      <c r="J39" s="434"/>
-      <c r="K39" s="434"/>
-      <c r="L39" s="434"/>
-      <c r="M39" s="434"/>
-      <c r="N39" s="434"/>
-      <c r="O39" s="434"/>
-      <c r="P39" s="434"/>
-      <c r="Q39" s="434"/>
-      <c r="R39" s="434"/>
-      <c r="S39" s="434"/>
-      <c r="T39" s="434"/>
-      <c r="U39" s="434"/>
-      <c r="V39" s="434"/>
-      <c r="W39" s="434"/>
-      <c r="X39" s="434"/>
+    <row r="39" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="468"/>
+      <c r="H39" s="468"/>
+      <c r="I39" s="468"/>
+      <c r="J39" s="468"/>
+      <c r="K39" s="468"/>
+      <c r="L39" s="468"/>
+      <c r="M39" s="468"/>
+      <c r="N39" s="468"/>
+      <c r="O39" s="468"/>
+      <c r="P39" s="468"/>
+      <c r="Q39" s="468"/>
+      <c r="R39" s="468"/>
+      <c r="S39" s="468"/>
+      <c r="T39" s="468"/>
+      <c r="U39" s="468"/>
+      <c r="V39" s="468"/>
+      <c r="W39" s="468"/>
+      <c r="X39" s="468"/>
       <c r="AN39" s="259"/>
     </row>
-    <row r="40" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="222"/>
       <c r="D40" s="222"/>
-      <c r="G40" s="434"/>
-      <c r="H40" s="434"/>
-      <c r="I40" s="434"/>
-      <c r="J40" s="434"/>
-      <c r="K40" s="434"/>
-      <c r="L40" s="434"/>
-      <c r="M40" s="434"/>
-      <c r="N40" s="434"/>
-      <c r="O40" s="434"/>
-      <c r="P40" s="434"/>
-      <c r="Q40" s="434"/>
-      <c r="R40" s="434"/>
-      <c r="S40" s="434"/>
-      <c r="T40" s="434"/>
-      <c r="U40" s="434"/>
-      <c r="V40" s="434"/>
-      <c r="W40" s="434"/>
-      <c r="X40" s="434"/>
+      <c r="G40" s="468"/>
+      <c r="H40" s="468"/>
+      <c r="I40" s="468"/>
+      <c r="J40" s="468"/>
+      <c r="K40" s="468"/>
+      <c r="L40" s="468"/>
+      <c r="M40" s="468"/>
+      <c r="N40" s="468"/>
+      <c r="O40" s="468"/>
+      <c r="P40" s="468"/>
+      <c r="Q40" s="468"/>
+      <c r="R40" s="468"/>
+      <c r="S40" s="468"/>
+      <c r="T40" s="468"/>
+      <c r="U40" s="468"/>
+      <c r="V40" s="468"/>
+      <c r="W40" s="468"/>
+      <c r="X40" s="468"/>
       <c r="AN40" s="222"/>
     </row>
-    <row r="41" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C41" s="222"/>
       <c r="D41" s="222"/>
       <c r="AN41" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -10314,13 +10319,6 @@
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="O19:Y19"/>
     <mergeCell ref="AC19:AM19"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10331,942 +10329,942 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="43" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="43" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="43" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="15" max="258" width="9" style="43"/>
-    <col min="259" max="259" width="5.33203125" style="43" customWidth="1"/>
-    <col min="260" max="260" width="14.33203125" style="43" customWidth="1"/>
-    <col min="261" max="261" width="9.6640625" style="43" customWidth="1"/>
-    <col min="262" max="262" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="5.28515625" style="43" customWidth="1"/>
+    <col min="260" max="260" width="14.28515625" style="43" customWidth="1"/>
+    <col min="261" max="261" width="9.7109375" style="43" customWidth="1"/>
+    <col min="262" max="262" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="263" max="263" width="6" style="43" customWidth="1"/>
-    <col min="264" max="264" width="12.88671875" style="43" customWidth="1"/>
-    <col min="265" max="265" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="12.109375" style="43" customWidth="1"/>
-    <col min="268" max="268" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="10.44140625" style="43" customWidth="1"/>
-    <col min="270" max="270" width="5.109375" style="43" customWidth="1"/>
+    <col min="264" max="264" width="12.85546875" style="43" customWidth="1"/>
+    <col min="265" max="265" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="12.140625" style="43" customWidth="1"/>
+    <col min="268" max="268" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="10.42578125" style="43" customWidth="1"/>
+    <col min="270" max="270" width="5.140625" style="43" customWidth="1"/>
     <col min="271" max="514" width="9" style="43"/>
-    <col min="515" max="515" width="5.33203125" style="43" customWidth="1"/>
-    <col min="516" max="516" width="14.33203125" style="43" customWidth="1"/>
-    <col min="517" max="517" width="9.6640625" style="43" customWidth="1"/>
-    <col min="518" max="518" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="5.28515625" style="43" customWidth="1"/>
+    <col min="516" max="516" width="14.28515625" style="43" customWidth="1"/>
+    <col min="517" max="517" width="9.7109375" style="43" customWidth="1"/>
+    <col min="518" max="518" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="519" max="519" width="6" style="43" customWidth="1"/>
-    <col min="520" max="520" width="12.88671875" style="43" customWidth="1"/>
-    <col min="521" max="521" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="12.109375" style="43" customWidth="1"/>
-    <col min="524" max="524" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="10.44140625" style="43" customWidth="1"/>
-    <col min="526" max="526" width="5.109375" style="43" customWidth="1"/>
+    <col min="520" max="520" width="12.85546875" style="43" customWidth="1"/>
+    <col min="521" max="521" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="12.140625" style="43" customWidth="1"/>
+    <col min="524" max="524" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="10.42578125" style="43" customWidth="1"/>
+    <col min="526" max="526" width="5.140625" style="43" customWidth="1"/>
     <col min="527" max="770" width="9" style="43"/>
-    <col min="771" max="771" width="5.33203125" style="43" customWidth="1"/>
-    <col min="772" max="772" width="14.33203125" style="43" customWidth="1"/>
-    <col min="773" max="773" width="9.6640625" style="43" customWidth="1"/>
-    <col min="774" max="774" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="5.28515625" style="43" customWidth="1"/>
+    <col min="772" max="772" width="14.28515625" style="43" customWidth="1"/>
+    <col min="773" max="773" width="9.7109375" style="43" customWidth="1"/>
+    <col min="774" max="774" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="775" max="775" width="6" style="43" customWidth="1"/>
-    <col min="776" max="776" width="12.88671875" style="43" customWidth="1"/>
-    <col min="777" max="777" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="12.109375" style="43" customWidth="1"/>
-    <col min="780" max="780" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="781" max="781" width="10.44140625" style="43" customWidth="1"/>
-    <col min="782" max="782" width="5.109375" style="43" customWidth="1"/>
+    <col min="776" max="776" width="12.85546875" style="43" customWidth="1"/>
+    <col min="777" max="777" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="12.140625" style="43" customWidth="1"/>
+    <col min="780" max="780" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="10.42578125" style="43" customWidth="1"/>
+    <col min="782" max="782" width="5.140625" style="43" customWidth="1"/>
     <col min="783" max="1026" width="9" style="43"/>
-    <col min="1027" max="1027" width="5.33203125" style="43" customWidth="1"/>
-    <col min="1028" max="1028" width="14.33203125" style="43" customWidth="1"/>
-    <col min="1029" max="1029" width="9.6640625" style="43" customWidth="1"/>
-    <col min="1030" max="1030" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="5.28515625" style="43" customWidth="1"/>
+    <col min="1028" max="1028" width="14.28515625" style="43" customWidth="1"/>
+    <col min="1029" max="1029" width="9.7109375" style="43" customWidth="1"/>
+    <col min="1030" max="1030" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="1031" max="1031" width="6" style="43" customWidth="1"/>
-    <col min="1032" max="1032" width="12.88671875" style="43" customWidth="1"/>
-    <col min="1033" max="1033" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="12.109375" style="43" customWidth="1"/>
-    <col min="1036" max="1036" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1037" width="10.44140625" style="43" customWidth="1"/>
-    <col min="1038" max="1038" width="5.109375" style="43" customWidth="1"/>
+    <col min="1032" max="1032" width="12.85546875" style="43" customWidth="1"/>
+    <col min="1033" max="1033" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="12.140625" style="43" customWidth="1"/>
+    <col min="1036" max="1036" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1037" width="10.42578125" style="43" customWidth="1"/>
+    <col min="1038" max="1038" width="5.140625" style="43" customWidth="1"/>
     <col min="1039" max="1282" width="9" style="43"/>
-    <col min="1283" max="1283" width="5.33203125" style="43" customWidth="1"/>
-    <col min="1284" max="1284" width="14.33203125" style="43" customWidth="1"/>
-    <col min="1285" max="1285" width="9.6640625" style="43" customWidth="1"/>
-    <col min="1286" max="1286" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="5.28515625" style="43" customWidth="1"/>
+    <col min="1284" max="1284" width="14.28515625" style="43" customWidth="1"/>
+    <col min="1285" max="1285" width="9.7109375" style="43" customWidth="1"/>
+    <col min="1286" max="1286" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="1287" max="1287" width="6" style="43" customWidth="1"/>
-    <col min="1288" max="1288" width="12.88671875" style="43" customWidth="1"/>
-    <col min="1289" max="1289" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="12.109375" style="43" customWidth="1"/>
-    <col min="1292" max="1292" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1293" width="10.44140625" style="43" customWidth="1"/>
-    <col min="1294" max="1294" width="5.109375" style="43" customWidth="1"/>
+    <col min="1288" max="1288" width="12.85546875" style="43" customWidth="1"/>
+    <col min="1289" max="1289" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="12.140625" style="43" customWidth="1"/>
+    <col min="1292" max="1292" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1293" width="10.42578125" style="43" customWidth="1"/>
+    <col min="1294" max="1294" width="5.140625" style="43" customWidth="1"/>
     <col min="1295" max="1538" width="9" style="43"/>
-    <col min="1539" max="1539" width="5.33203125" style="43" customWidth="1"/>
-    <col min="1540" max="1540" width="14.33203125" style="43" customWidth="1"/>
-    <col min="1541" max="1541" width="9.6640625" style="43" customWidth="1"/>
-    <col min="1542" max="1542" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="5.28515625" style="43" customWidth="1"/>
+    <col min="1540" max="1540" width="14.28515625" style="43" customWidth="1"/>
+    <col min="1541" max="1541" width="9.7109375" style="43" customWidth="1"/>
+    <col min="1542" max="1542" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="1543" max="1543" width="6" style="43" customWidth="1"/>
-    <col min="1544" max="1544" width="12.88671875" style="43" customWidth="1"/>
-    <col min="1545" max="1545" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="12.109375" style="43" customWidth="1"/>
-    <col min="1548" max="1548" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1549" width="10.44140625" style="43" customWidth="1"/>
-    <col min="1550" max="1550" width="5.109375" style="43" customWidth="1"/>
+    <col min="1544" max="1544" width="12.85546875" style="43" customWidth="1"/>
+    <col min="1545" max="1545" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="12.140625" style="43" customWidth="1"/>
+    <col min="1548" max="1548" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1549" width="10.42578125" style="43" customWidth="1"/>
+    <col min="1550" max="1550" width="5.140625" style="43" customWidth="1"/>
     <col min="1551" max="1794" width="9" style="43"/>
-    <col min="1795" max="1795" width="5.33203125" style="43" customWidth="1"/>
-    <col min="1796" max="1796" width="14.33203125" style="43" customWidth="1"/>
-    <col min="1797" max="1797" width="9.6640625" style="43" customWidth="1"/>
-    <col min="1798" max="1798" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="5.28515625" style="43" customWidth="1"/>
+    <col min="1796" max="1796" width="14.28515625" style="43" customWidth="1"/>
+    <col min="1797" max="1797" width="9.7109375" style="43" customWidth="1"/>
+    <col min="1798" max="1798" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="1799" max="1799" width="6" style="43" customWidth="1"/>
-    <col min="1800" max="1800" width="12.88671875" style="43" customWidth="1"/>
-    <col min="1801" max="1801" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="12.109375" style="43" customWidth="1"/>
-    <col min="1804" max="1804" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="1805" max="1805" width="10.44140625" style="43" customWidth="1"/>
-    <col min="1806" max="1806" width="5.109375" style="43" customWidth="1"/>
+    <col min="1800" max="1800" width="12.85546875" style="43" customWidth="1"/>
+    <col min="1801" max="1801" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="12.140625" style="43" customWidth="1"/>
+    <col min="1804" max="1804" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1805" max="1805" width="10.42578125" style="43" customWidth="1"/>
+    <col min="1806" max="1806" width="5.140625" style="43" customWidth="1"/>
     <col min="1807" max="2050" width="9" style="43"/>
-    <col min="2051" max="2051" width="5.33203125" style="43" customWidth="1"/>
-    <col min="2052" max="2052" width="14.33203125" style="43" customWidth="1"/>
-    <col min="2053" max="2053" width="9.6640625" style="43" customWidth="1"/>
-    <col min="2054" max="2054" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="5.28515625" style="43" customWidth="1"/>
+    <col min="2052" max="2052" width="14.28515625" style="43" customWidth="1"/>
+    <col min="2053" max="2053" width="9.7109375" style="43" customWidth="1"/>
+    <col min="2054" max="2054" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="2055" max="2055" width="6" style="43" customWidth="1"/>
-    <col min="2056" max="2056" width="12.88671875" style="43" customWidth="1"/>
-    <col min="2057" max="2057" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="12.109375" style="43" customWidth="1"/>
-    <col min="2060" max="2060" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2061" width="10.44140625" style="43" customWidth="1"/>
-    <col min="2062" max="2062" width="5.109375" style="43" customWidth="1"/>
+    <col min="2056" max="2056" width="12.85546875" style="43" customWidth="1"/>
+    <col min="2057" max="2057" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="12.140625" style="43" customWidth="1"/>
+    <col min="2060" max="2060" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2061" width="10.42578125" style="43" customWidth="1"/>
+    <col min="2062" max="2062" width="5.140625" style="43" customWidth="1"/>
     <col min="2063" max="2306" width="9" style="43"/>
-    <col min="2307" max="2307" width="5.33203125" style="43" customWidth="1"/>
-    <col min="2308" max="2308" width="14.33203125" style="43" customWidth="1"/>
-    <col min="2309" max="2309" width="9.6640625" style="43" customWidth="1"/>
-    <col min="2310" max="2310" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="5.28515625" style="43" customWidth="1"/>
+    <col min="2308" max="2308" width="14.28515625" style="43" customWidth="1"/>
+    <col min="2309" max="2309" width="9.7109375" style="43" customWidth="1"/>
+    <col min="2310" max="2310" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="2311" max="2311" width="6" style="43" customWidth="1"/>
-    <col min="2312" max="2312" width="12.88671875" style="43" customWidth="1"/>
-    <col min="2313" max="2313" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="12.109375" style="43" customWidth="1"/>
-    <col min="2316" max="2316" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2317" width="10.44140625" style="43" customWidth="1"/>
-    <col min="2318" max="2318" width="5.109375" style="43" customWidth="1"/>
+    <col min="2312" max="2312" width="12.85546875" style="43" customWidth="1"/>
+    <col min="2313" max="2313" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="12.140625" style="43" customWidth="1"/>
+    <col min="2316" max="2316" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2317" width="10.42578125" style="43" customWidth="1"/>
+    <col min="2318" max="2318" width="5.140625" style="43" customWidth="1"/>
     <col min="2319" max="2562" width="9" style="43"/>
-    <col min="2563" max="2563" width="5.33203125" style="43" customWidth="1"/>
-    <col min="2564" max="2564" width="14.33203125" style="43" customWidth="1"/>
-    <col min="2565" max="2565" width="9.6640625" style="43" customWidth="1"/>
-    <col min="2566" max="2566" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="5.28515625" style="43" customWidth="1"/>
+    <col min="2564" max="2564" width="14.28515625" style="43" customWidth="1"/>
+    <col min="2565" max="2565" width="9.7109375" style="43" customWidth="1"/>
+    <col min="2566" max="2566" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="2567" max="2567" width="6" style="43" customWidth="1"/>
-    <col min="2568" max="2568" width="12.88671875" style="43" customWidth="1"/>
-    <col min="2569" max="2569" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="12.109375" style="43" customWidth="1"/>
-    <col min="2572" max="2572" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2573" width="10.44140625" style="43" customWidth="1"/>
-    <col min="2574" max="2574" width="5.109375" style="43" customWidth="1"/>
+    <col min="2568" max="2568" width="12.85546875" style="43" customWidth="1"/>
+    <col min="2569" max="2569" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="12.140625" style="43" customWidth="1"/>
+    <col min="2572" max="2572" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2573" width="10.42578125" style="43" customWidth="1"/>
+    <col min="2574" max="2574" width="5.140625" style="43" customWidth="1"/>
     <col min="2575" max="2818" width="9" style="43"/>
-    <col min="2819" max="2819" width="5.33203125" style="43" customWidth="1"/>
-    <col min="2820" max="2820" width="14.33203125" style="43" customWidth="1"/>
-    <col min="2821" max="2821" width="9.6640625" style="43" customWidth="1"/>
-    <col min="2822" max="2822" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="5.28515625" style="43" customWidth="1"/>
+    <col min="2820" max="2820" width="14.28515625" style="43" customWidth="1"/>
+    <col min="2821" max="2821" width="9.7109375" style="43" customWidth="1"/>
+    <col min="2822" max="2822" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="2823" max="2823" width="6" style="43" customWidth="1"/>
-    <col min="2824" max="2824" width="12.88671875" style="43" customWidth="1"/>
-    <col min="2825" max="2825" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="12.109375" style="43" customWidth="1"/>
-    <col min="2828" max="2828" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2829" max="2829" width="10.44140625" style="43" customWidth="1"/>
-    <col min="2830" max="2830" width="5.109375" style="43" customWidth="1"/>
+    <col min="2824" max="2824" width="12.85546875" style="43" customWidth="1"/>
+    <col min="2825" max="2825" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="12.140625" style="43" customWidth="1"/>
+    <col min="2828" max="2828" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2829" max="2829" width="10.42578125" style="43" customWidth="1"/>
+    <col min="2830" max="2830" width="5.140625" style="43" customWidth="1"/>
     <col min="2831" max="3074" width="9" style="43"/>
-    <col min="3075" max="3075" width="5.33203125" style="43" customWidth="1"/>
-    <col min="3076" max="3076" width="14.33203125" style="43" customWidth="1"/>
-    <col min="3077" max="3077" width="9.6640625" style="43" customWidth="1"/>
-    <col min="3078" max="3078" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="5.28515625" style="43" customWidth="1"/>
+    <col min="3076" max="3076" width="14.28515625" style="43" customWidth="1"/>
+    <col min="3077" max="3077" width="9.7109375" style="43" customWidth="1"/>
+    <col min="3078" max="3078" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="3079" max="3079" width="6" style="43" customWidth="1"/>
-    <col min="3080" max="3080" width="12.88671875" style="43" customWidth="1"/>
-    <col min="3081" max="3081" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="12.109375" style="43" customWidth="1"/>
-    <col min="3084" max="3084" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3085" width="10.44140625" style="43" customWidth="1"/>
-    <col min="3086" max="3086" width="5.109375" style="43" customWidth="1"/>
+    <col min="3080" max="3080" width="12.85546875" style="43" customWidth="1"/>
+    <col min="3081" max="3081" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="12.140625" style="43" customWidth="1"/>
+    <col min="3084" max="3084" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3085" width="10.42578125" style="43" customWidth="1"/>
+    <col min="3086" max="3086" width="5.140625" style="43" customWidth="1"/>
     <col min="3087" max="3330" width="9" style="43"/>
-    <col min="3331" max="3331" width="5.33203125" style="43" customWidth="1"/>
-    <col min="3332" max="3332" width="14.33203125" style="43" customWidth="1"/>
-    <col min="3333" max="3333" width="9.6640625" style="43" customWidth="1"/>
-    <col min="3334" max="3334" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="5.28515625" style="43" customWidth="1"/>
+    <col min="3332" max="3332" width="14.28515625" style="43" customWidth="1"/>
+    <col min="3333" max="3333" width="9.7109375" style="43" customWidth="1"/>
+    <col min="3334" max="3334" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="3335" max="3335" width="6" style="43" customWidth="1"/>
-    <col min="3336" max="3336" width="12.88671875" style="43" customWidth="1"/>
-    <col min="3337" max="3337" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="12.109375" style="43" customWidth="1"/>
-    <col min="3340" max="3340" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3341" width="10.44140625" style="43" customWidth="1"/>
-    <col min="3342" max="3342" width="5.109375" style="43" customWidth="1"/>
+    <col min="3336" max="3336" width="12.85546875" style="43" customWidth="1"/>
+    <col min="3337" max="3337" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="12.140625" style="43" customWidth="1"/>
+    <col min="3340" max="3340" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3341" width="10.42578125" style="43" customWidth="1"/>
+    <col min="3342" max="3342" width="5.140625" style="43" customWidth="1"/>
     <col min="3343" max="3586" width="9" style="43"/>
-    <col min="3587" max="3587" width="5.33203125" style="43" customWidth="1"/>
-    <col min="3588" max="3588" width="14.33203125" style="43" customWidth="1"/>
-    <col min="3589" max="3589" width="9.6640625" style="43" customWidth="1"/>
-    <col min="3590" max="3590" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="5.28515625" style="43" customWidth="1"/>
+    <col min="3588" max="3588" width="14.28515625" style="43" customWidth="1"/>
+    <col min="3589" max="3589" width="9.7109375" style="43" customWidth="1"/>
+    <col min="3590" max="3590" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="3591" max="3591" width="6" style="43" customWidth="1"/>
-    <col min="3592" max="3592" width="12.88671875" style="43" customWidth="1"/>
-    <col min="3593" max="3593" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="12.109375" style="43" customWidth="1"/>
-    <col min="3596" max="3596" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3597" width="10.44140625" style="43" customWidth="1"/>
-    <col min="3598" max="3598" width="5.109375" style="43" customWidth="1"/>
+    <col min="3592" max="3592" width="12.85546875" style="43" customWidth="1"/>
+    <col min="3593" max="3593" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="12.140625" style="43" customWidth="1"/>
+    <col min="3596" max="3596" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3597" width="10.42578125" style="43" customWidth="1"/>
+    <col min="3598" max="3598" width="5.140625" style="43" customWidth="1"/>
     <col min="3599" max="3842" width="9" style="43"/>
-    <col min="3843" max="3843" width="5.33203125" style="43" customWidth="1"/>
-    <col min="3844" max="3844" width="14.33203125" style="43" customWidth="1"/>
-    <col min="3845" max="3845" width="9.6640625" style="43" customWidth="1"/>
-    <col min="3846" max="3846" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="5.28515625" style="43" customWidth="1"/>
+    <col min="3844" max="3844" width="14.28515625" style="43" customWidth="1"/>
+    <col min="3845" max="3845" width="9.7109375" style="43" customWidth="1"/>
+    <col min="3846" max="3846" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="3847" max="3847" width="6" style="43" customWidth="1"/>
-    <col min="3848" max="3848" width="12.88671875" style="43" customWidth="1"/>
-    <col min="3849" max="3849" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="12.109375" style="43" customWidth="1"/>
-    <col min="3852" max="3852" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3853" max="3853" width="10.44140625" style="43" customWidth="1"/>
-    <col min="3854" max="3854" width="5.109375" style="43" customWidth="1"/>
+    <col min="3848" max="3848" width="12.85546875" style="43" customWidth="1"/>
+    <col min="3849" max="3849" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="12.140625" style="43" customWidth="1"/>
+    <col min="3852" max="3852" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3853" max="3853" width="10.42578125" style="43" customWidth="1"/>
+    <col min="3854" max="3854" width="5.140625" style="43" customWidth="1"/>
     <col min="3855" max="4098" width="9" style="43"/>
-    <col min="4099" max="4099" width="5.33203125" style="43" customWidth="1"/>
-    <col min="4100" max="4100" width="14.33203125" style="43" customWidth="1"/>
-    <col min="4101" max="4101" width="9.6640625" style="43" customWidth="1"/>
-    <col min="4102" max="4102" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="5.28515625" style="43" customWidth="1"/>
+    <col min="4100" max="4100" width="14.28515625" style="43" customWidth="1"/>
+    <col min="4101" max="4101" width="9.7109375" style="43" customWidth="1"/>
+    <col min="4102" max="4102" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="4103" max="4103" width="6" style="43" customWidth="1"/>
-    <col min="4104" max="4104" width="12.88671875" style="43" customWidth="1"/>
-    <col min="4105" max="4105" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="12.109375" style="43" customWidth="1"/>
-    <col min="4108" max="4108" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4109" width="10.44140625" style="43" customWidth="1"/>
-    <col min="4110" max="4110" width="5.109375" style="43" customWidth="1"/>
+    <col min="4104" max="4104" width="12.85546875" style="43" customWidth="1"/>
+    <col min="4105" max="4105" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="12.140625" style="43" customWidth="1"/>
+    <col min="4108" max="4108" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4109" width="10.42578125" style="43" customWidth="1"/>
+    <col min="4110" max="4110" width="5.140625" style="43" customWidth="1"/>
     <col min="4111" max="4354" width="9" style="43"/>
-    <col min="4355" max="4355" width="5.33203125" style="43" customWidth="1"/>
-    <col min="4356" max="4356" width="14.33203125" style="43" customWidth="1"/>
-    <col min="4357" max="4357" width="9.6640625" style="43" customWidth="1"/>
-    <col min="4358" max="4358" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="5.28515625" style="43" customWidth="1"/>
+    <col min="4356" max="4356" width="14.28515625" style="43" customWidth="1"/>
+    <col min="4357" max="4357" width="9.7109375" style="43" customWidth="1"/>
+    <col min="4358" max="4358" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="4359" max="4359" width="6" style="43" customWidth="1"/>
-    <col min="4360" max="4360" width="12.88671875" style="43" customWidth="1"/>
-    <col min="4361" max="4361" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="12.109375" style="43" customWidth="1"/>
-    <col min="4364" max="4364" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4365" width="10.44140625" style="43" customWidth="1"/>
-    <col min="4366" max="4366" width="5.109375" style="43" customWidth="1"/>
+    <col min="4360" max="4360" width="12.85546875" style="43" customWidth="1"/>
+    <col min="4361" max="4361" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="12.140625" style="43" customWidth="1"/>
+    <col min="4364" max="4364" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4365" width="10.42578125" style="43" customWidth="1"/>
+    <col min="4366" max="4366" width="5.140625" style="43" customWidth="1"/>
     <col min="4367" max="4610" width="9" style="43"/>
-    <col min="4611" max="4611" width="5.33203125" style="43" customWidth="1"/>
-    <col min="4612" max="4612" width="14.33203125" style="43" customWidth="1"/>
-    <col min="4613" max="4613" width="9.6640625" style="43" customWidth="1"/>
-    <col min="4614" max="4614" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="5.28515625" style="43" customWidth="1"/>
+    <col min="4612" max="4612" width="14.28515625" style="43" customWidth="1"/>
+    <col min="4613" max="4613" width="9.7109375" style="43" customWidth="1"/>
+    <col min="4614" max="4614" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="4615" max="4615" width="6" style="43" customWidth="1"/>
-    <col min="4616" max="4616" width="12.88671875" style="43" customWidth="1"/>
-    <col min="4617" max="4617" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="12.109375" style="43" customWidth="1"/>
-    <col min="4620" max="4620" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4621" width="10.44140625" style="43" customWidth="1"/>
-    <col min="4622" max="4622" width="5.109375" style="43" customWidth="1"/>
+    <col min="4616" max="4616" width="12.85546875" style="43" customWidth="1"/>
+    <col min="4617" max="4617" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="12.140625" style="43" customWidth="1"/>
+    <col min="4620" max="4620" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4621" width="10.42578125" style="43" customWidth="1"/>
+    <col min="4622" max="4622" width="5.140625" style="43" customWidth="1"/>
     <col min="4623" max="4866" width="9" style="43"/>
-    <col min="4867" max="4867" width="5.33203125" style="43" customWidth="1"/>
-    <col min="4868" max="4868" width="14.33203125" style="43" customWidth="1"/>
-    <col min="4869" max="4869" width="9.6640625" style="43" customWidth="1"/>
-    <col min="4870" max="4870" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="5.28515625" style="43" customWidth="1"/>
+    <col min="4868" max="4868" width="14.28515625" style="43" customWidth="1"/>
+    <col min="4869" max="4869" width="9.7109375" style="43" customWidth="1"/>
+    <col min="4870" max="4870" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="4871" max="4871" width="6" style="43" customWidth="1"/>
-    <col min="4872" max="4872" width="12.88671875" style="43" customWidth="1"/>
-    <col min="4873" max="4873" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="12.109375" style="43" customWidth="1"/>
-    <col min="4876" max="4876" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4877" max="4877" width="10.44140625" style="43" customWidth="1"/>
-    <col min="4878" max="4878" width="5.109375" style="43" customWidth="1"/>
+    <col min="4872" max="4872" width="12.85546875" style="43" customWidth="1"/>
+    <col min="4873" max="4873" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="12.140625" style="43" customWidth="1"/>
+    <col min="4876" max="4876" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4877" max="4877" width="10.42578125" style="43" customWidth="1"/>
+    <col min="4878" max="4878" width="5.140625" style="43" customWidth="1"/>
     <col min="4879" max="5122" width="9" style="43"/>
-    <col min="5123" max="5123" width="5.33203125" style="43" customWidth="1"/>
-    <col min="5124" max="5124" width="14.33203125" style="43" customWidth="1"/>
-    <col min="5125" max="5125" width="9.6640625" style="43" customWidth="1"/>
-    <col min="5126" max="5126" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="5.28515625" style="43" customWidth="1"/>
+    <col min="5124" max="5124" width="14.28515625" style="43" customWidth="1"/>
+    <col min="5125" max="5125" width="9.7109375" style="43" customWidth="1"/>
+    <col min="5126" max="5126" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="5127" max="5127" width="6" style="43" customWidth="1"/>
-    <col min="5128" max="5128" width="12.88671875" style="43" customWidth="1"/>
-    <col min="5129" max="5129" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="12.109375" style="43" customWidth="1"/>
-    <col min="5132" max="5132" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5133" width="10.44140625" style="43" customWidth="1"/>
-    <col min="5134" max="5134" width="5.109375" style="43" customWidth="1"/>
+    <col min="5128" max="5128" width="12.85546875" style="43" customWidth="1"/>
+    <col min="5129" max="5129" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="12.140625" style="43" customWidth="1"/>
+    <col min="5132" max="5132" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5133" width="10.42578125" style="43" customWidth="1"/>
+    <col min="5134" max="5134" width="5.140625" style="43" customWidth="1"/>
     <col min="5135" max="5378" width="9" style="43"/>
-    <col min="5379" max="5379" width="5.33203125" style="43" customWidth="1"/>
-    <col min="5380" max="5380" width="14.33203125" style="43" customWidth="1"/>
-    <col min="5381" max="5381" width="9.6640625" style="43" customWidth="1"/>
-    <col min="5382" max="5382" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="5.28515625" style="43" customWidth="1"/>
+    <col min="5380" max="5380" width="14.28515625" style="43" customWidth="1"/>
+    <col min="5381" max="5381" width="9.7109375" style="43" customWidth="1"/>
+    <col min="5382" max="5382" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="5383" max="5383" width="6" style="43" customWidth="1"/>
-    <col min="5384" max="5384" width="12.88671875" style="43" customWidth="1"/>
-    <col min="5385" max="5385" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="12.109375" style="43" customWidth="1"/>
-    <col min="5388" max="5388" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5389" width="10.44140625" style="43" customWidth="1"/>
-    <col min="5390" max="5390" width="5.109375" style="43" customWidth="1"/>
+    <col min="5384" max="5384" width="12.85546875" style="43" customWidth="1"/>
+    <col min="5385" max="5385" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="12.140625" style="43" customWidth="1"/>
+    <col min="5388" max="5388" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5389" width="10.42578125" style="43" customWidth="1"/>
+    <col min="5390" max="5390" width="5.140625" style="43" customWidth="1"/>
     <col min="5391" max="5634" width="9" style="43"/>
-    <col min="5635" max="5635" width="5.33203125" style="43" customWidth="1"/>
-    <col min="5636" max="5636" width="14.33203125" style="43" customWidth="1"/>
-    <col min="5637" max="5637" width="9.6640625" style="43" customWidth="1"/>
-    <col min="5638" max="5638" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="5.28515625" style="43" customWidth="1"/>
+    <col min="5636" max="5636" width="14.28515625" style="43" customWidth="1"/>
+    <col min="5637" max="5637" width="9.7109375" style="43" customWidth="1"/>
+    <col min="5638" max="5638" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="5639" max="5639" width="6" style="43" customWidth="1"/>
-    <col min="5640" max="5640" width="12.88671875" style="43" customWidth="1"/>
-    <col min="5641" max="5641" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="12.109375" style="43" customWidth="1"/>
-    <col min="5644" max="5644" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5645" width="10.44140625" style="43" customWidth="1"/>
-    <col min="5646" max="5646" width="5.109375" style="43" customWidth="1"/>
+    <col min="5640" max="5640" width="12.85546875" style="43" customWidth="1"/>
+    <col min="5641" max="5641" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="12.140625" style="43" customWidth="1"/>
+    <col min="5644" max="5644" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5645" width="10.42578125" style="43" customWidth="1"/>
+    <col min="5646" max="5646" width="5.140625" style="43" customWidth="1"/>
     <col min="5647" max="5890" width="9" style="43"/>
-    <col min="5891" max="5891" width="5.33203125" style="43" customWidth="1"/>
-    <col min="5892" max="5892" width="14.33203125" style="43" customWidth="1"/>
-    <col min="5893" max="5893" width="9.6640625" style="43" customWidth="1"/>
-    <col min="5894" max="5894" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="5.28515625" style="43" customWidth="1"/>
+    <col min="5892" max="5892" width="14.28515625" style="43" customWidth="1"/>
+    <col min="5893" max="5893" width="9.7109375" style="43" customWidth="1"/>
+    <col min="5894" max="5894" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="5895" max="5895" width="6" style="43" customWidth="1"/>
-    <col min="5896" max="5896" width="12.88671875" style="43" customWidth="1"/>
-    <col min="5897" max="5897" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="12.109375" style="43" customWidth="1"/>
-    <col min="5900" max="5900" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5901" max="5901" width="10.44140625" style="43" customWidth="1"/>
-    <col min="5902" max="5902" width="5.109375" style="43" customWidth="1"/>
+    <col min="5896" max="5896" width="12.85546875" style="43" customWidth="1"/>
+    <col min="5897" max="5897" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="12.140625" style="43" customWidth="1"/>
+    <col min="5900" max="5900" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5901" max="5901" width="10.42578125" style="43" customWidth="1"/>
+    <col min="5902" max="5902" width="5.140625" style="43" customWidth="1"/>
     <col min="5903" max="6146" width="9" style="43"/>
-    <col min="6147" max="6147" width="5.33203125" style="43" customWidth="1"/>
-    <col min="6148" max="6148" width="14.33203125" style="43" customWidth="1"/>
-    <col min="6149" max="6149" width="9.6640625" style="43" customWidth="1"/>
-    <col min="6150" max="6150" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="5.28515625" style="43" customWidth="1"/>
+    <col min="6148" max="6148" width="14.28515625" style="43" customWidth="1"/>
+    <col min="6149" max="6149" width="9.7109375" style="43" customWidth="1"/>
+    <col min="6150" max="6150" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="6151" max="6151" width="6" style="43" customWidth="1"/>
-    <col min="6152" max="6152" width="12.88671875" style="43" customWidth="1"/>
-    <col min="6153" max="6153" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="12.109375" style="43" customWidth="1"/>
-    <col min="6156" max="6156" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6157" width="10.44140625" style="43" customWidth="1"/>
-    <col min="6158" max="6158" width="5.109375" style="43" customWidth="1"/>
+    <col min="6152" max="6152" width="12.85546875" style="43" customWidth="1"/>
+    <col min="6153" max="6153" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="12.140625" style="43" customWidth="1"/>
+    <col min="6156" max="6156" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6157" width="10.42578125" style="43" customWidth="1"/>
+    <col min="6158" max="6158" width="5.140625" style="43" customWidth="1"/>
     <col min="6159" max="6402" width="9" style="43"/>
-    <col min="6403" max="6403" width="5.33203125" style="43" customWidth="1"/>
-    <col min="6404" max="6404" width="14.33203125" style="43" customWidth="1"/>
-    <col min="6405" max="6405" width="9.6640625" style="43" customWidth="1"/>
-    <col min="6406" max="6406" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="5.28515625" style="43" customWidth="1"/>
+    <col min="6404" max="6404" width="14.28515625" style="43" customWidth="1"/>
+    <col min="6405" max="6405" width="9.7109375" style="43" customWidth="1"/>
+    <col min="6406" max="6406" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="6407" max="6407" width="6" style="43" customWidth="1"/>
-    <col min="6408" max="6408" width="12.88671875" style="43" customWidth="1"/>
-    <col min="6409" max="6409" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="12.109375" style="43" customWidth="1"/>
-    <col min="6412" max="6412" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6413" width="10.44140625" style="43" customWidth="1"/>
-    <col min="6414" max="6414" width="5.109375" style="43" customWidth="1"/>
+    <col min="6408" max="6408" width="12.85546875" style="43" customWidth="1"/>
+    <col min="6409" max="6409" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="12.140625" style="43" customWidth="1"/>
+    <col min="6412" max="6412" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6413" width="10.42578125" style="43" customWidth="1"/>
+    <col min="6414" max="6414" width="5.140625" style="43" customWidth="1"/>
     <col min="6415" max="6658" width="9" style="43"/>
-    <col min="6659" max="6659" width="5.33203125" style="43" customWidth="1"/>
-    <col min="6660" max="6660" width="14.33203125" style="43" customWidth="1"/>
-    <col min="6661" max="6661" width="9.6640625" style="43" customWidth="1"/>
-    <col min="6662" max="6662" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="5.28515625" style="43" customWidth="1"/>
+    <col min="6660" max="6660" width="14.28515625" style="43" customWidth="1"/>
+    <col min="6661" max="6661" width="9.7109375" style="43" customWidth="1"/>
+    <col min="6662" max="6662" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="6663" max="6663" width="6" style="43" customWidth="1"/>
-    <col min="6664" max="6664" width="12.88671875" style="43" customWidth="1"/>
-    <col min="6665" max="6665" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="12.109375" style="43" customWidth="1"/>
-    <col min="6668" max="6668" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6669" width="10.44140625" style="43" customWidth="1"/>
-    <col min="6670" max="6670" width="5.109375" style="43" customWidth="1"/>
+    <col min="6664" max="6664" width="12.85546875" style="43" customWidth="1"/>
+    <col min="6665" max="6665" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="12.140625" style="43" customWidth="1"/>
+    <col min="6668" max="6668" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6669" width="10.42578125" style="43" customWidth="1"/>
+    <col min="6670" max="6670" width="5.140625" style="43" customWidth="1"/>
     <col min="6671" max="6914" width="9" style="43"/>
-    <col min="6915" max="6915" width="5.33203125" style="43" customWidth="1"/>
-    <col min="6916" max="6916" width="14.33203125" style="43" customWidth="1"/>
-    <col min="6917" max="6917" width="9.6640625" style="43" customWidth="1"/>
-    <col min="6918" max="6918" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="5.28515625" style="43" customWidth="1"/>
+    <col min="6916" max="6916" width="14.28515625" style="43" customWidth="1"/>
+    <col min="6917" max="6917" width="9.7109375" style="43" customWidth="1"/>
+    <col min="6918" max="6918" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="6919" max="6919" width="6" style="43" customWidth="1"/>
-    <col min="6920" max="6920" width="12.88671875" style="43" customWidth="1"/>
-    <col min="6921" max="6921" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="12.109375" style="43" customWidth="1"/>
-    <col min="6924" max="6924" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6925" max="6925" width="10.44140625" style="43" customWidth="1"/>
-    <col min="6926" max="6926" width="5.109375" style="43" customWidth="1"/>
+    <col min="6920" max="6920" width="12.85546875" style="43" customWidth="1"/>
+    <col min="6921" max="6921" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="12.140625" style="43" customWidth="1"/>
+    <col min="6924" max="6924" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6925" width="10.42578125" style="43" customWidth="1"/>
+    <col min="6926" max="6926" width="5.140625" style="43" customWidth="1"/>
     <col min="6927" max="7170" width="9" style="43"/>
-    <col min="7171" max="7171" width="5.33203125" style="43" customWidth="1"/>
-    <col min="7172" max="7172" width="14.33203125" style="43" customWidth="1"/>
-    <col min="7173" max="7173" width="9.6640625" style="43" customWidth="1"/>
-    <col min="7174" max="7174" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="5.28515625" style="43" customWidth="1"/>
+    <col min="7172" max="7172" width="14.28515625" style="43" customWidth="1"/>
+    <col min="7173" max="7173" width="9.7109375" style="43" customWidth="1"/>
+    <col min="7174" max="7174" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="7175" max="7175" width="6" style="43" customWidth="1"/>
-    <col min="7176" max="7176" width="12.88671875" style="43" customWidth="1"/>
-    <col min="7177" max="7177" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="12.109375" style="43" customWidth="1"/>
-    <col min="7180" max="7180" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7181" width="10.44140625" style="43" customWidth="1"/>
-    <col min="7182" max="7182" width="5.109375" style="43" customWidth="1"/>
+    <col min="7176" max="7176" width="12.85546875" style="43" customWidth="1"/>
+    <col min="7177" max="7177" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="12.140625" style="43" customWidth="1"/>
+    <col min="7180" max="7180" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7181" width="10.42578125" style="43" customWidth="1"/>
+    <col min="7182" max="7182" width="5.140625" style="43" customWidth="1"/>
     <col min="7183" max="7426" width="9" style="43"/>
-    <col min="7427" max="7427" width="5.33203125" style="43" customWidth="1"/>
-    <col min="7428" max="7428" width="14.33203125" style="43" customWidth="1"/>
-    <col min="7429" max="7429" width="9.6640625" style="43" customWidth="1"/>
-    <col min="7430" max="7430" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="5.28515625" style="43" customWidth="1"/>
+    <col min="7428" max="7428" width="14.28515625" style="43" customWidth="1"/>
+    <col min="7429" max="7429" width="9.7109375" style="43" customWidth="1"/>
+    <col min="7430" max="7430" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="7431" max="7431" width="6" style="43" customWidth="1"/>
-    <col min="7432" max="7432" width="12.88671875" style="43" customWidth="1"/>
-    <col min="7433" max="7433" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="12.109375" style="43" customWidth="1"/>
-    <col min="7436" max="7436" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7437" width="10.44140625" style="43" customWidth="1"/>
-    <col min="7438" max="7438" width="5.109375" style="43" customWidth="1"/>
+    <col min="7432" max="7432" width="12.85546875" style="43" customWidth="1"/>
+    <col min="7433" max="7433" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="12.140625" style="43" customWidth="1"/>
+    <col min="7436" max="7436" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7437" width="10.42578125" style="43" customWidth="1"/>
+    <col min="7438" max="7438" width="5.140625" style="43" customWidth="1"/>
     <col min="7439" max="7682" width="9" style="43"/>
-    <col min="7683" max="7683" width="5.33203125" style="43" customWidth="1"/>
-    <col min="7684" max="7684" width="14.33203125" style="43" customWidth="1"/>
-    <col min="7685" max="7685" width="9.6640625" style="43" customWidth="1"/>
-    <col min="7686" max="7686" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="5.28515625" style="43" customWidth="1"/>
+    <col min="7684" max="7684" width="14.28515625" style="43" customWidth="1"/>
+    <col min="7685" max="7685" width="9.7109375" style="43" customWidth="1"/>
+    <col min="7686" max="7686" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="7687" max="7687" width="6" style="43" customWidth="1"/>
-    <col min="7688" max="7688" width="12.88671875" style="43" customWidth="1"/>
-    <col min="7689" max="7689" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="12.109375" style="43" customWidth="1"/>
-    <col min="7692" max="7692" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7693" width="10.44140625" style="43" customWidth="1"/>
-    <col min="7694" max="7694" width="5.109375" style="43" customWidth="1"/>
+    <col min="7688" max="7688" width="12.85546875" style="43" customWidth="1"/>
+    <col min="7689" max="7689" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="12.140625" style="43" customWidth="1"/>
+    <col min="7692" max="7692" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7693" width="10.42578125" style="43" customWidth="1"/>
+    <col min="7694" max="7694" width="5.140625" style="43" customWidth="1"/>
     <col min="7695" max="7938" width="9" style="43"/>
-    <col min="7939" max="7939" width="5.33203125" style="43" customWidth="1"/>
-    <col min="7940" max="7940" width="14.33203125" style="43" customWidth="1"/>
-    <col min="7941" max="7941" width="9.6640625" style="43" customWidth="1"/>
-    <col min="7942" max="7942" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="5.28515625" style="43" customWidth="1"/>
+    <col min="7940" max="7940" width="14.28515625" style="43" customWidth="1"/>
+    <col min="7941" max="7941" width="9.7109375" style="43" customWidth="1"/>
+    <col min="7942" max="7942" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="7943" max="7943" width="6" style="43" customWidth="1"/>
-    <col min="7944" max="7944" width="12.88671875" style="43" customWidth="1"/>
-    <col min="7945" max="7945" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="12.109375" style="43" customWidth="1"/>
-    <col min="7948" max="7948" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7949" max="7949" width="10.44140625" style="43" customWidth="1"/>
-    <col min="7950" max="7950" width="5.109375" style="43" customWidth="1"/>
+    <col min="7944" max="7944" width="12.85546875" style="43" customWidth="1"/>
+    <col min="7945" max="7945" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="12.140625" style="43" customWidth="1"/>
+    <col min="7948" max="7948" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7949" max="7949" width="10.42578125" style="43" customWidth="1"/>
+    <col min="7950" max="7950" width="5.140625" style="43" customWidth="1"/>
     <col min="7951" max="8194" width="9" style="43"/>
-    <col min="8195" max="8195" width="5.33203125" style="43" customWidth="1"/>
-    <col min="8196" max="8196" width="14.33203125" style="43" customWidth="1"/>
-    <col min="8197" max="8197" width="9.6640625" style="43" customWidth="1"/>
-    <col min="8198" max="8198" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="5.28515625" style="43" customWidth="1"/>
+    <col min="8196" max="8196" width="14.28515625" style="43" customWidth="1"/>
+    <col min="8197" max="8197" width="9.7109375" style="43" customWidth="1"/>
+    <col min="8198" max="8198" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="8199" max="8199" width="6" style="43" customWidth="1"/>
-    <col min="8200" max="8200" width="12.88671875" style="43" customWidth="1"/>
-    <col min="8201" max="8201" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="12.109375" style="43" customWidth="1"/>
-    <col min="8204" max="8204" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8205" width="10.44140625" style="43" customWidth="1"/>
-    <col min="8206" max="8206" width="5.109375" style="43" customWidth="1"/>
+    <col min="8200" max="8200" width="12.85546875" style="43" customWidth="1"/>
+    <col min="8201" max="8201" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="12.140625" style="43" customWidth="1"/>
+    <col min="8204" max="8204" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8205" width="10.42578125" style="43" customWidth="1"/>
+    <col min="8206" max="8206" width="5.140625" style="43" customWidth="1"/>
     <col min="8207" max="8450" width="9" style="43"/>
-    <col min="8451" max="8451" width="5.33203125" style="43" customWidth="1"/>
-    <col min="8452" max="8452" width="14.33203125" style="43" customWidth="1"/>
-    <col min="8453" max="8453" width="9.6640625" style="43" customWidth="1"/>
-    <col min="8454" max="8454" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="5.28515625" style="43" customWidth="1"/>
+    <col min="8452" max="8452" width="14.28515625" style="43" customWidth="1"/>
+    <col min="8453" max="8453" width="9.7109375" style="43" customWidth="1"/>
+    <col min="8454" max="8454" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="8455" max="8455" width="6" style="43" customWidth="1"/>
-    <col min="8456" max="8456" width="12.88671875" style="43" customWidth="1"/>
-    <col min="8457" max="8457" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="12.109375" style="43" customWidth="1"/>
-    <col min="8460" max="8460" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8461" width="10.44140625" style="43" customWidth="1"/>
-    <col min="8462" max="8462" width="5.109375" style="43" customWidth="1"/>
+    <col min="8456" max="8456" width="12.85546875" style="43" customWidth="1"/>
+    <col min="8457" max="8457" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="12.140625" style="43" customWidth="1"/>
+    <col min="8460" max="8460" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8461" width="10.42578125" style="43" customWidth="1"/>
+    <col min="8462" max="8462" width="5.140625" style="43" customWidth="1"/>
     <col min="8463" max="8706" width="9" style="43"/>
-    <col min="8707" max="8707" width="5.33203125" style="43" customWidth="1"/>
-    <col min="8708" max="8708" width="14.33203125" style="43" customWidth="1"/>
-    <col min="8709" max="8709" width="9.6640625" style="43" customWidth="1"/>
-    <col min="8710" max="8710" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="5.28515625" style="43" customWidth="1"/>
+    <col min="8708" max="8708" width="14.28515625" style="43" customWidth="1"/>
+    <col min="8709" max="8709" width="9.7109375" style="43" customWidth="1"/>
+    <col min="8710" max="8710" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="8711" max="8711" width="6" style="43" customWidth="1"/>
-    <col min="8712" max="8712" width="12.88671875" style="43" customWidth="1"/>
-    <col min="8713" max="8713" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="12.109375" style="43" customWidth="1"/>
-    <col min="8716" max="8716" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8717" width="10.44140625" style="43" customWidth="1"/>
-    <col min="8718" max="8718" width="5.109375" style="43" customWidth="1"/>
+    <col min="8712" max="8712" width="12.85546875" style="43" customWidth="1"/>
+    <col min="8713" max="8713" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="12.140625" style="43" customWidth="1"/>
+    <col min="8716" max="8716" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8717" width="10.42578125" style="43" customWidth="1"/>
+    <col min="8718" max="8718" width="5.140625" style="43" customWidth="1"/>
     <col min="8719" max="8962" width="9" style="43"/>
-    <col min="8963" max="8963" width="5.33203125" style="43" customWidth="1"/>
-    <col min="8964" max="8964" width="14.33203125" style="43" customWidth="1"/>
-    <col min="8965" max="8965" width="9.6640625" style="43" customWidth="1"/>
-    <col min="8966" max="8966" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="5.28515625" style="43" customWidth="1"/>
+    <col min="8964" max="8964" width="14.28515625" style="43" customWidth="1"/>
+    <col min="8965" max="8965" width="9.7109375" style="43" customWidth="1"/>
+    <col min="8966" max="8966" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="8967" max="8967" width="6" style="43" customWidth="1"/>
-    <col min="8968" max="8968" width="12.88671875" style="43" customWidth="1"/>
-    <col min="8969" max="8969" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="12.109375" style="43" customWidth="1"/>
-    <col min="8972" max="8972" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8973" max="8973" width="10.44140625" style="43" customWidth="1"/>
-    <col min="8974" max="8974" width="5.109375" style="43" customWidth="1"/>
+    <col min="8968" max="8968" width="12.85546875" style="43" customWidth="1"/>
+    <col min="8969" max="8969" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="12.140625" style="43" customWidth="1"/>
+    <col min="8972" max="8972" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8973" max="8973" width="10.42578125" style="43" customWidth="1"/>
+    <col min="8974" max="8974" width="5.140625" style="43" customWidth="1"/>
     <col min="8975" max="9218" width="9" style="43"/>
-    <col min="9219" max="9219" width="5.33203125" style="43" customWidth="1"/>
-    <col min="9220" max="9220" width="14.33203125" style="43" customWidth="1"/>
-    <col min="9221" max="9221" width="9.6640625" style="43" customWidth="1"/>
-    <col min="9222" max="9222" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="5.28515625" style="43" customWidth="1"/>
+    <col min="9220" max="9220" width="14.28515625" style="43" customWidth="1"/>
+    <col min="9221" max="9221" width="9.7109375" style="43" customWidth="1"/>
+    <col min="9222" max="9222" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="9223" max="9223" width="6" style="43" customWidth="1"/>
-    <col min="9224" max="9224" width="12.88671875" style="43" customWidth="1"/>
-    <col min="9225" max="9225" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="12.109375" style="43" customWidth="1"/>
-    <col min="9228" max="9228" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9229" width="10.44140625" style="43" customWidth="1"/>
-    <col min="9230" max="9230" width="5.109375" style="43" customWidth="1"/>
+    <col min="9224" max="9224" width="12.85546875" style="43" customWidth="1"/>
+    <col min="9225" max="9225" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="12.140625" style="43" customWidth="1"/>
+    <col min="9228" max="9228" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9229" width="10.42578125" style="43" customWidth="1"/>
+    <col min="9230" max="9230" width="5.140625" style="43" customWidth="1"/>
     <col min="9231" max="9474" width="9" style="43"/>
-    <col min="9475" max="9475" width="5.33203125" style="43" customWidth="1"/>
-    <col min="9476" max="9476" width="14.33203125" style="43" customWidth="1"/>
-    <col min="9477" max="9477" width="9.6640625" style="43" customWidth="1"/>
-    <col min="9478" max="9478" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="5.28515625" style="43" customWidth="1"/>
+    <col min="9476" max="9476" width="14.28515625" style="43" customWidth="1"/>
+    <col min="9477" max="9477" width="9.7109375" style="43" customWidth="1"/>
+    <col min="9478" max="9478" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="9479" max="9479" width="6" style="43" customWidth="1"/>
-    <col min="9480" max="9480" width="12.88671875" style="43" customWidth="1"/>
-    <col min="9481" max="9481" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="12.109375" style="43" customWidth="1"/>
-    <col min="9484" max="9484" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9485" width="10.44140625" style="43" customWidth="1"/>
-    <col min="9486" max="9486" width="5.109375" style="43" customWidth="1"/>
+    <col min="9480" max="9480" width="12.85546875" style="43" customWidth="1"/>
+    <col min="9481" max="9481" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="12.140625" style="43" customWidth="1"/>
+    <col min="9484" max="9484" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9485" width="10.42578125" style="43" customWidth="1"/>
+    <col min="9486" max="9486" width="5.140625" style="43" customWidth="1"/>
     <col min="9487" max="9730" width="9" style="43"/>
-    <col min="9731" max="9731" width="5.33203125" style="43" customWidth="1"/>
-    <col min="9732" max="9732" width="14.33203125" style="43" customWidth="1"/>
-    <col min="9733" max="9733" width="9.6640625" style="43" customWidth="1"/>
-    <col min="9734" max="9734" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="5.28515625" style="43" customWidth="1"/>
+    <col min="9732" max="9732" width="14.28515625" style="43" customWidth="1"/>
+    <col min="9733" max="9733" width="9.7109375" style="43" customWidth="1"/>
+    <col min="9734" max="9734" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="9735" max="9735" width="6" style="43" customWidth="1"/>
-    <col min="9736" max="9736" width="12.88671875" style="43" customWidth="1"/>
-    <col min="9737" max="9737" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="12.109375" style="43" customWidth="1"/>
-    <col min="9740" max="9740" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9741" width="10.44140625" style="43" customWidth="1"/>
-    <col min="9742" max="9742" width="5.109375" style="43" customWidth="1"/>
+    <col min="9736" max="9736" width="12.85546875" style="43" customWidth="1"/>
+    <col min="9737" max="9737" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="12.140625" style="43" customWidth="1"/>
+    <col min="9740" max="9740" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9741" width="10.42578125" style="43" customWidth="1"/>
+    <col min="9742" max="9742" width="5.140625" style="43" customWidth="1"/>
     <col min="9743" max="9986" width="9" style="43"/>
-    <col min="9987" max="9987" width="5.33203125" style="43" customWidth="1"/>
-    <col min="9988" max="9988" width="14.33203125" style="43" customWidth="1"/>
-    <col min="9989" max="9989" width="9.6640625" style="43" customWidth="1"/>
-    <col min="9990" max="9990" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="5.28515625" style="43" customWidth="1"/>
+    <col min="9988" max="9988" width="14.28515625" style="43" customWidth="1"/>
+    <col min="9989" max="9989" width="9.7109375" style="43" customWidth="1"/>
+    <col min="9990" max="9990" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="9991" max="9991" width="6" style="43" customWidth="1"/>
-    <col min="9992" max="9992" width="12.88671875" style="43" customWidth="1"/>
-    <col min="9993" max="9993" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="12.109375" style="43" customWidth="1"/>
-    <col min="9996" max="9996" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9997" max="9997" width="10.44140625" style="43" customWidth="1"/>
-    <col min="9998" max="9998" width="5.109375" style="43" customWidth="1"/>
+    <col min="9992" max="9992" width="12.85546875" style="43" customWidth="1"/>
+    <col min="9993" max="9993" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="12.140625" style="43" customWidth="1"/>
+    <col min="9996" max="9996" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9997" max="9997" width="10.42578125" style="43" customWidth="1"/>
+    <col min="9998" max="9998" width="5.140625" style="43" customWidth="1"/>
     <col min="9999" max="10242" width="9" style="43"/>
-    <col min="10243" max="10243" width="5.33203125" style="43" customWidth="1"/>
-    <col min="10244" max="10244" width="14.33203125" style="43" customWidth="1"/>
-    <col min="10245" max="10245" width="9.6640625" style="43" customWidth="1"/>
-    <col min="10246" max="10246" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="5.28515625" style="43" customWidth="1"/>
+    <col min="10244" max="10244" width="14.28515625" style="43" customWidth="1"/>
+    <col min="10245" max="10245" width="9.7109375" style="43" customWidth="1"/>
+    <col min="10246" max="10246" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="10247" max="10247" width="6" style="43" customWidth="1"/>
-    <col min="10248" max="10248" width="12.88671875" style="43" customWidth="1"/>
-    <col min="10249" max="10249" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="12.109375" style="43" customWidth="1"/>
-    <col min="10252" max="10252" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10253" width="10.44140625" style="43" customWidth="1"/>
-    <col min="10254" max="10254" width="5.109375" style="43" customWidth="1"/>
+    <col min="10248" max="10248" width="12.85546875" style="43" customWidth="1"/>
+    <col min="10249" max="10249" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="12.140625" style="43" customWidth="1"/>
+    <col min="10252" max="10252" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10253" width="10.42578125" style="43" customWidth="1"/>
+    <col min="10254" max="10254" width="5.140625" style="43" customWidth="1"/>
     <col min="10255" max="10498" width="9" style="43"/>
-    <col min="10499" max="10499" width="5.33203125" style="43" customWidth="1"/>
-    <col min="10500" max="10500" width="14.33203125" style="43" customWidth="1"/>
-    <col min="10501" max="10501" width="9.6640625" style="43" customWidth="1"/>
-    <col min="10502" max="10502" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="5.28515625" style="43" customWidth="1"/>
+    <col min="10500" max="10500" width="14.28515625" style="43" customWidth="1"/>
+    <col min="10501" max="10501" width="9.7109375" style="43" customWidth="1"/>
+    <col min="10502" max="10502" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="10503" max="10503" width="6" style="43" customWidth="1"/>
-    <col min="10504" max="10504" width="12.88671875" style="43" customWidth="1"/>
-    <col min="10505" max="10505" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="12.109375" style="43" customWidth="1"/>
-    <col min="10508" max="10508" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10509" width="10.44140625" style="43" customWidth="1"/>
-    <col min="10510" max="10510" width="5.109375" style="43" customWidth="1"/>
+    <col min="10504" max="10504" width="12.85546875" style="43" customWidth="1"/>
+    <col min="10505" max="10505" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="12.140625" style="43" customWidth="1"/>
+    <col min="10508" max="10508" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10509" width="10.42578125" style="43" customWidth="1"/>
+    <col min="10510" max="10510" width="5.140625" style="43" customWidth="1"/>
     <col min="10511" max="10754" width="9" style="43"/>
-    <col min="10755" max="10755" width="5.33203125" style="43" customWidth="1"/>
-    <col min="10756" max="10756" width="14.33203125" style="43" customWidth="1"/>
-    <col min="10757" max="10757" width="9.6640625" style="43" customWidth="1"/>
-    <col min="10758" max="10758" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="5.28515625" style="43" customWidth="1"/>
+    <col min="10756" max="10756" width="14.28515625" style="43" customWidth="1"/>
+    <col min="10757" max="10757" width="9.7109375" style="43" customWidth="1"/>
+    <col min="10758" max="10758" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="10759" max="10759" width="6" style="43" customWidth="1"/>
-    <col min="10760" max="10760" width="12.88671875" style="43" customWidth="1"/>
-    <col min="10761" max="10761" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="12.109375" style="43" customWidth="1"/>
-    <col min="10764" max="10764" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10765" max="10765" width="10.44140625" style="43" customWidth="1"/>
-    <col min="10766" max="10766" width="5.109375" style="43" customWidth="1"/>
+    <col min="10760" max="10760" width="12.85546875" style="43" customWidth="1"/>
+    <col min="10761" max="10761" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="12.140625" style="43" customWidth="1"/>
+    <col min="10764" max="10764" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="10765" max="10765" width="10.42578125" style="43" customWidth="1"/>
+    <col min="10766" max="10766" width="5.140625" style="43" customWidth="1"/>
     <col min="10767" max="11010" width="9" style="43"/>
-    <col min="11011" max="11011" width="5.33203125" style="43" customWidth="1"/>
-    <col min="11012" max="11012" width="14.33203125" style="43" customWidth="1"/>
-    <col min="11013" max="11013" width="9.6640625" style="43" customWidth="1"/>
-    <col min="11014" max="11014" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="5.28515625" style="43" customWidth="1"/>
+    <col min="11012" max="11012" width="14.28515625" style="43" customWidth="1"/>
+    <col min="11013" max="11013" width="9.7109375" style="43" customWidth="1"/>
+    <col min="11014" max="11014" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="11015" max="11015" width="6" style="43" customWidth="1"/>
-    <col min="11016" max="11016" width="12.88671875" style="43" customWidth="1"/>
-    <col min="11017" max="11017" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="12.109375" style="43" customWidth="1"/>
-    <col min="11020" max="11020" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11021" width="10.44140625" style="43" customWidth="1"/>
-    <col min="11022" max="11022" width="5.109375" style="43" customWidth="1"/>
+    <col min="11016" max="11016" width="12.85546875" style="43" customWidth="1"/>
+    <col min="11017" max="11017" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="12.140625" style="43" customWidth="1"/>
+    <col min="11020" max="11020" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11021" width="10.42578125" style="43" customWidth="1"/>
+    <col min="11022" max="11022" width="5.140625" style="43" customWidth="1"/>
     <col min="11023" max="11266" width="9" style="43"/>
-    <col min="11267" max="11267" width="5.33203125" style="43" customWidth="1"/>
-    <col min="11268" max="11268" width="14.33203125" style="43" customWidth="1"/>
-    <col min="11269" max="11269" width="9.6640625" style="43" customWidth="1"/>
-    <col min="11270" max="11270" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="5.28515625" style="43" customWidth="1"/>
+    <col min="11268" max="11268" width="14.28515625" style="43" customWidth="1"/>
+    <col min="11269" max="11269" width="9.7109375" style="43" customWidth="1"/>
+    <col min="11270" max="11270" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="11271" max="11271" width="6" style="43" customWidth="1"/>
-    <col min="11272" max="11272" width="12.88671875" style="43" customWidth="1"/>
-    <col min="11273" max="11273" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="12.109375" style="43" customWidth="1"/>
-    <col min="11276" max="11276" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11277" width="10.44140625" style="43" customWidth="1"/>
-    <col min="11278" max="11278" width="5.109375" style="43" customWidth="1"/>
+    <col min="11272" max="11272" width="12.85546875" style="43" customWidth="1"/>
+    <col min="11273" max="11273" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="12.140625" style="43" customWidth="1"/>
+    <col min="11276" max="11276" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11277" width="10.42578125" style="43" customWidth="1"/>
+    <col min="11278" max="11278" width="5.140625" style="43" customWidth="1"/>
     <col min="11279" max="11522" width="9" style="43"/>
-    <col min="11523" max="11523" width="5.33203125" style="43" customWidth="1"/>
-    <col min="11524" max="11524" width="14.33203125" style="43" customWidth="1"/>
-    <col min="11525" max="11525" width="9.6640625" style="43" customWidth="1"/>
-    <col min="11526" max="11526" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="5.28515625" style="43" customWidth="1"/>
+    <col min="11524" max="11524" width="14.28515625" style="43" customWidth="1"/>
+    <col min="11525" max="11525" width="9.7109375" style="43" customWidth="1"/>
+    <col min="11526" max="11526" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="11527" max="11527" width="6" style="43" customWidth="1"/>
-    <col min="11528" max="11528" width="12.88671875" style="43" customWidth="1"/>
-    <col min="11529" max="11529" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="12.109375" style="43" customWidth="1"/>
-    <col min="11532" max="11532" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11533" width="10.44140625" style="43" customWidth="1"/>
-    <col min="11534" max="11534" width="5.109375" style="43" customWidth="1"/>
+    <col min="11528" max="11528" width="12.85546875" style="43" customWidth="1"/>
+    <col min="11529" max="11529" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="12.140625" style="43" customWidth="1"/>
+    <col min="11532" max="11532" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11533" width="10.42578125" style="43" customWidth="1"/>
+    <col min="11534" max="11534" width="5.140625" style="43" customWidth="1"/>
     <col min="11535" max="11778" width="9" style="43"/>
-    <col min="11779" max="11779" width="5.33203125" style="43" customWidth="1"/>
-    <col min="11780" max="11780" width="14.33203125" style="43" customWidth="1"/>
-    <col min="11781" max="11781" width="9.6640625" style="43" customWidth="1"/>
-    <col min="11782" max="11782" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="5.28515625" style="43" customWidth="1"/>
+    <col min="11780" max="11780" width="14.28515625" style="43" customWidth="1"/>
+    <col min="11781" max="11781" width="9.7109375" style="43" customWidth="1"/>
+    <col min="11782" max="11782" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="11783" max="11783" width="6" style="43" customWidth="1"/>
-    <col min="11784" max="11784" width="12.88671875" style="43" customWidth="1"/>
-    <col min="11785" max="11785" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="12.109375" style="43" customWidth="1"/>
-    <col min="11788" max="11788" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11789" max="11789" width="10.44140625" style="43" customWidth="1"/>
-    <col min="11790" max="11790" width="5.109375" style="43" customWidth="1"/>
+    <col min="11784" max="11784" width="12.85546875" style="43" customWidth="1"/>
+    <col min="11785" max="11785" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="12.140625" style="43" customWidth="1"/>
+    <col min="11788" max="11788" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11789" max="11789" width="10.42578125" style="43" customWidth="1"/>
+    <col min="11790" max="11790" width="5.140625" style="43" customWidth="1"/>
     <col min="11791" max="12034" width="9" style="43"/>
-    <col min="12035" max="12035" width="5.33203125" style="43" customWidth="1"/>
-    <col min="12036" max="12036" width="14.33203125" style="43" customWidth="1"/>
-    <col min="12037" max="12037" width="9.6640625" style="43" customWidth="1"/>
-    <col min="12038" max="12038" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="5.28515625" style="43" customWidth="1"/>
+    <col min="12036" max="12036" width="14.28515625" style="43" customWidth="1"/>
+    <col min="12037" max="12037" width="9.7109375" style="43" customWidth="1"/>
+    <col min="12038" max="12038" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="12039" max="12039" width="6" style="43" customWidth="1"/>
-    <col min="12040" max="12040" width="12.88671875" style="43" customWidth="1"/>
-    <col min="12041" max="12041" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="12.109375" style="43" customWidth="1"/>
-    <col min="12044" max="12044" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12045" width="10.44140625" style="43" customWidth="1"/>
-    <col min="12046" max="12046" width="5.109375" style="43" customWidth="1"/>
+    <col min="12040" max="12040" width="12.85546875" style="43" customWidth="1"/>
+    <col min="12041" max="12041" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="12.140625" style="43" customWidth="1"/>
+    <col min="12044" max="12044" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12045" width="10.42578125" style="43" customWidth="1"/>
+    <col min="12046" max="12046" width="5.140625" style="43" customWidth="1"/>
     <col min="12047" max="12290" width="9" style="43"/>
-    <col min="12291" max="12291" width="5.33203125" style="43" customWidth="1"/>
-    <col min="12292" max="12292" width="14.33203125" style="43" customWidth="1"/>
-    <col min="12293" max="12293" width="9.6640625" style="43" customWidth="1"/>
-    <col min="12294" max="12294" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="5.28515625" style="43" customWidth="1"/>
+    <col min="12292" max="12292" width="14.28515625" style="43" customWidth="1"/>
+    <col min="12293" max="12293" width="9.7109375" style="43" customWidth="1"/>
+    <col min="12294" max="12294" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="12295" max="12295" width="6" style="43" customWidth="1"/>
-    <col min="12296" max="12296" width="12.88671875" style="43" customWidth="1"/>
-    <col min="12297" max="12297" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="12.109375" style="43" customWidth="1"/>
-    <col min="12300" max="12300" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12301" width="10.44140625" style="43" customWidth="1"/>
-    <col min="12302" max="12302" width="5.109375" style="43" customWidth="1"/>
+    <col min="12296" max="12296" width="12.85546875" style="43" customWidth="1"/>
+    <col min="12297" max="12297" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="12.140625" style="43" customWidth="1"/>
+    <col min="12300" max="12300" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12301" width="10.42578125" style="43" customWidth="1"/>
+    <col min="12302" max="12302" width="5.140625" style="43" customWidth="1"/>
     <col min="12303" max="12546" width="9" style="43"/>
-    <col min="12547" max="12547" width="5.33203125" style="43" customWidth="1"/>
-    <col min="12548" max="12548" width="14.33203125" style="43" customWidth="1"/>
-    <col min="12549" max="12549" width="9.6640625" style="43" customWidth="1"/>
-    <col min="12550" max="12550" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="5.28515625" style="43" customWidth="1"/>
+    <col min="12548" max="12548" width="14.28515625" style="43" customWidth="1"/>
+    <col min="12549" max="12549" width="9.7109375" style="43" customWidth="1"/>
+    <col min="12550" max="12550" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="12551" max="12551" width="6" style="43" customWidth="1"/>
-    <col min="12552" max="12552" width="12.88671875" style="43" customWidth="1"/>
-    <col min="12553" max="12553" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="12.109375" style="43" customWidth="1"/>
-    <col min="12556" max="12556" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12557" width="10.44140625" style="43" customWidth="1"/>
-    <col min="12558" max="12558" width="5.109375" style="43" customWidth="1"/>
+    <col min="12552" max="12552" width="12.85546875" style="43" customWidth="1"/>
+    <col min="12553" max="12553" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="12.140625" style="43" customWidth="1"/>
+    <col min="12556" max="12556" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12557" width="10.42578125" style="43" customWidth="1"/>
+    <col min="12558" max="12558" width="5.140625" style="43" customWidth="1"/>
     <col min="12559" max="12802" width="9" style="43"/>
-    <col min="12803" max="12803" width="5.33203125" style="43" customWidth="1"/>
-    <col min="12804" max="12804" width="14.33203125" style="43" customWidth="1"/>
-    <col min="12805" max="12805" width="9.6640625" style="43" customWidth="1"/>
-    <col min="12806" max="12806" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="5.28515625" style="43" customWidth="1"/>
+    <col min="12804" max="12804" width="14.28515625" style="43" customWidth="1"/>
+    <col min="12805" max="12805" width="9.7109375" style="43" customWidth="1"/>
+    <col min="12806" max="12806" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="12807" max="12807" width="6" style="43" customWidth="1"/>
-    <col min="12808" max="12808" width="12.88671875" style="43" customWidth="1"/>
-    <col min="12809" max="12809" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="12.109375" style="43" customWidth="1"/>
-    <col min="12812" max="12812" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12813" max="12813" width="10.44140625" style="43" customWidth="1"/>
-    <col min="12814" max="12814" width="5.109375" style="43" customWidth="1"/>
+    <col min="12808" max="12808" width="12.85546875" style="43" customWidth="1"/>
+    <col min="12809" max="12809" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="12.140625" style="43" customWidth="1"/>
+    <col min="12812" max="12812" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="12813" max="12813" width="10.42578125" style="43" customWidth="1"/>
+    <col min="12814" max="12814" width="5.140625" style="43" customWidth="1"/>
     <col min="12815" max="13058" width="9" style="43"/>
-    <col min="13059" max="13059" width="5.33203125" style="43" customWidth="1"/>
-    <col min="13060" max="13060" width="14.33203125" style="43" customWidth="1"/>
-    <col min="13061" max="13061" width="9.6640625" style="43" customWidth="1"/>
-    <col min="13062" max="13062" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="5.28515625" style="43" customWidth="1"/>
+    <col min="13060" max="13060" width="14.28515625" style="43" customWidth="1"/>
+    <col min="13061" max="13061" width="9.7109375" style="43" customWidth="1"/>
+    <col min="13062" max="13062" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="13063" max="13063" width="6" style="43" customWidth="1"/>
-    <col min="13064" max="13064" width="12.88671875" style="43" customWidth="1"/>
-    <col min="13065" max="13065" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="12.109375" style="43" customWidth="1"/>
-    <col min="13068" max="13068" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13069" width="10.44140625" style="43" customWidth="1"/>
-    <col min="13070" max="13070" width="5.109375" style="43" customWidth="1"/>
+    <col min="13064" max="13064" width="12.85546875" style="43" customWidth="1"/>
+    <col min="13065" max="13065" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="12.140625" style="43" customWidth="1"/>
+    <col min="13068" max="13068" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13069" width="10.42578125" style="43" customWidth="1"/>
+    <col min="13070" max="13070" width="5.140625" style="43" customWidth="1"/>
     <col min="13071" max="13314" width="9" style="43"/>
-    <col min="13315" max="13315" width="5.33203125" style="43" customWidth="1"/>
-    <col min="13316" max="13316" width="14.33203125" style="43" customWidth="1"/>
-    <col min="13317" max="13317" width="9.6640625" style="43" customWidth="1"/>
-    <col min="13318" max="13318" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="5.28515625" style="43" customWidth="1"/>
+    <col min="13316" max="13316" width="14.28515625" style="43" customWidth="1"/>
+    <col min="13317" max="13317" width="9.7109375" style="43" customWidth="1"/>
+    <col min="13318" max="13318" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="13319" max="13319" width="6" style="43" customWidth="1"/>
-    <col min="13320" max="13320" width="12.88671875" style="43" customWidth="1"/>
-    <col min="13321" max="13321" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="12.109375" style="43" customWidth="1"/>
-    <col min="13324" max="13324" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13325" width="10.44140625" style="43" customWidth="1"/>
-    <col min="13326" max="13326" width="5.109375" style="43" customWidth="1"/>
+    <col min="13320" max="13320" width="12.85546875" style="43" customWidth="1"/>
+    <col min="13321" max="13321" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="12.140625" style="43" customWidth="1"/>
+    <col min="13324" max="13324" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13325" width="10.42578125" style="43" customWidth="1"/>
+    <col min="13326" max="13326" width="5.140625" style="43" customWidth="1"/>
     <col min="13327" max="13570" width="9" style="43"/>
-    <col min="13571" max="13571" width="5.33203125" style="43" customWidth="1"/>
-    <col min="13572" max="13572" width="14.33203125" style="43" customWidth="1"/>
-    <col min="13573" max="13573" width="9.6640625" style="43" customWidth="1"/>
-    <col min="13574" max="13574" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="5.28515625" style="43" customWidth="1"/>
+    <col min="13572" max="13572" width="14.28515625" style="43" customWidth="1"/>
+    <col min="13573" max="13573" width="9.7109375" style="43" customWidth="1"/>
+    <col min="13574" max="13574" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="13575" max="13575" width="6" style="43" customWidth="1"/>
-    <col min="13576" max="13576" width="12.88671875" style="43" customWidth="1"/>
-    <col min="13577" max="13577" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="12.109375" style="43" customWidth="1"/>
-    <col min="13580" max="13580" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13581" width="10.44140625" style="43" customWidth="1"/>
-    <col min="13582" max="13582" width="5.109375" style="43" customWidth="1"/>
+    <col min="13576" max="13576" width="12.85546875" style="43" customWidth="1"/>
+    <col min="13577" max="13577" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="12.140625" style="43" customWidth="1"/>
+    <col min="13580" max="13580" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13581" width="10.42578125" style="43" customWidth="1"/>
+    <col min="13582" max="13582" width="5.140625" style="43" customWidth="1"/>
     <col min="13583" max="13826" width="9" style="43"/>
-    <col min="13827" max="13827" width="5.33203125" style="43" customWidth="1"/>
-    <col min="13828" max="13828" width="14.33203125" style="43" customWidth="1"/>
-    <col min="13829" max="13829" width="9.6640625" style="43" customWidth="1"/>
-    <col min="13830" max="13830" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="5.28515625" style="43" customWidth="1"/>
+    <col min="13828" max="13828" width="14.28515625" style="43" customWidth="1"/>
+    <col min="13829" max="13829" width="9.7109375" style="43" customWidth="1"/>
+    <col min="13830" max="13830" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="13831" max="13831" width="6" style="43" customWidth="1"/>
-    <col min="13832" max="13832" width="12.88671875" style="43" customWidth="1"/>
-    <col min="13833" max="13833" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="12.109375" style="43" customWidth="1"/>
-    <col min="13836" max="13836" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13837" max="13837" width="10.44140625" style="43" customWidth="1"/>
-    <col min="13838" max="13838" width="5.109375" style="43" customWidth="1"/>
+    <col min="13832" max="13832" width="12.85546875" style="43" customWidth="1"/>
+    <col min="13833" max="13833" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="12.140625" style="43" customWidth="1"/>
+    <col min="13836" max="13836" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13837" max="13837" width="10.42578125" style="43" customWidth="1"/>
+    <col min="13838" max="13838" width="5.140625" style="43" customWidth="1"/>
     <col min="13839" max="14082" width="9" style="43"/>
-    <col min="14083" max="14083" width="5.33203125" style="43" customWidth="1"/>
-    <col min="14084" max="14084" width="14.33203125" style="43" customWidth="1"/>
-    <col min="14085" max="14085" width="9.6640625" style="43" customWidth="1"/>
-    <col min="14086" max="14086" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="5.28515625" style="43" customWidth="1"/>
+    <col min="14084" max="14084" width="14.28515625" style="43" customWidth="1"/>
+    <col min="14085" max="14085" width="9.7109375" style="43" customWidth="1"/>
+    <col min="14086" max="14086" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="14087" max="14087" width="6" style="43" customWidth="1"/>
-    <col min="14088" max="14088" width="12.88671875" style="43" customWidth="1"/>
-    <col min="14089" max="14089" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="12.109375" style="43" customWidth="1"/>
-    <col min="14092" max="14092" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14093" width="10.44140625" style="43" customWidth="1"/>
-    <col min="14094" max="14094" width="5.109375" style="43" customWidth="1"/>
+    <col min="14088" max="14088" width="12.85546875" style="43" customWidth="1"/>
+    <col min="14089" max="14089" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="12.140625" style="43" customWidth="1"/>
+    <col min="14092" max="14092" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14093" width="10.42578125" style="43" customWidth="1"/>
+    <col min="14094" max="14094" width="5.140625" style="43" customWidth="1"/>
     <col min="14095" max="14338" width="9" style="43"/>
-    <col min="14339" max="14339" width="5.33203125" style="43" customWidth="1"/>
-    <col min="14340" max="14340" width="14.33203125" style="43" customWidth="1"/>
-    <col min="14341" max="14341" width="9.6640625" style="43" customWidth="1"/>
-    <col min="14342" max="14342" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="5.28515625" style="43" customWidth="1"/>
+    <col min="14340" max="14340" width="14.28515625" style="43" customWidth="1"/>
+    <col min="14341" max="14341" width="9.7109375" style="43" customWidth="1"/>
+    <col min="14342" max="14342" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="14343" max="14343" width="6" style="43" customWidth="1"/>
-    <col min="14344" max="14344" width="12.88671875" style="43" customWidth="1"/>
-    <col min="14345" max="14345" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="12.109375" style="43" customWidth="1"/>
-    <col min="14348" max="14348" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14349" width="10.44140625" style="43" customWidth="1"/>
-    <col min="14350" max="14350" width="5.109375" style="43" customWidth="1"/>
+    <col min="14344" max="14344" width="12.85546875" style="43" customWidth="1"/>
+    <col min="14345" max="14345" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="12.140625" style="43" customWidth="1"/>
+    <col min="14348" max="14348" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14349" width="10.42578125" style="43" customWidth="1"/>
+    <col min="14350" max="14350" width="5.140625" style="43" customWidth="1"/>
     <col min="14351" max="14594" width="9" style="43"/>
-    <col min="14595" max="14595" width="5.33203125" style="43" customWidth="1"/>
-    <col min="14596" max="14596" width="14.33203125" style="43" customWidth="1"/>
-    <col min="14597" max="14597" width="9.6640625" style="43" customWidth="1"/>
-    <col min="14598" max="14598" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="5.28515625" style="43" customWidth="1"/>
+    <col min="14596" max="14596" width="14.28515625" style="43" customWidth="1"/>
+    <col min="14597" max="14597" width="9.7109375" style="43" customWidth="1"/>
+    <col min="14598" max="14598" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="14599" max="14599" width="6" style="43" customWidth="1"/>
-    <col min="14600" max="14600" width="12.88671875" style="43" customWidth="1"/>
-    <col min="14601" max="14601" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="12.109375" style="43" customWidth="1"/>
-    <col min="14604" max="14604" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14605" width="10.44140625" style="43" customWidth="1"/>
-    <col min="14606" max="14606" width="5.109375" style="43" customWidth="1"/>
+    <col min="14600" max="14600" width="12.85546875" style="43" customWidth="1"/>
+    <col min="14601" max="14601" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="12.140625" style="43" customWidth="1"/>
+    <col min="14604" max="14604" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14605" width="10.42578125" style="43" customWidth="1"/>
+    <col min="14606" max="14606" width="5.140625" style="43" customWidth="1"/>
     <col min="14607" max="14850" width="9" style="43"/>
-    <col min="14851" max="14851" width="5.33203125" style="43" customWidth="1"/>
-    <col min="14852" max="14852" width="14.33203125" style="43" customWidth="1"/>
-    <col min="14853" max="14853" width="9.6640625" style="43" customWidth="1"/>
-    <col min="14854" max="14854" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="5.28515625" style="43" customWidth="1"/>
+    <col min="14852" max="14852" width="14.28515625" style="43" customWidth="1"/>
+    <col min="14853" max="14853" width="9.7109375" style="43" customWidth="1"/>
+    <col min="14854" max="14854" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="14855" max="14855" width="6" style="43" customWidth="1"/>
-    <col min="14856" max="14856" width="12.88671875" style="43" customWidth="1"/>
-    <col min="14857" max="14857" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="12.109375" style="43" customWidth="1"/>
-    <col min="14860" max="14860" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14861" max="14861" width="10.44140625" style="43" customWidth="1"/>
-    <col min="14862" max="14862" width="5.109375" style="43" customWidth="1"/>
+    <col min="14856" max="14856" width="12.85546875" style="43" customWidth="1"/>
+    <col min="14857" max="14857" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="12.140625" style="43" customWidth="1"/>
+    <col min="14860" max="14860" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14861" max="14861" width="10.42578125" style="43" customWidth="1"/>
+    <col min="14862" max="14862" width="5.140625" style="43" customWidth="1"/>
     <col min="14863" max="15106" width="9" style="43"/>
-    <col min="15107" max="15107" width="5.33203125" style="43" customWidth="1"/>
-    <col min="15108" max="15108" width="14.33203125" style="43" customWidth="1"/>
-    <col min="15109" max="15109" width="9.6640625" style="43" customWidth="1"/>
-    <col min="15110" max="15110" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="5.28515625" style="43" customWidth="1"/>
+    <col min="15108" max="15108" width="14.28515625" style="43" customWidth="1"/>
+    <col min="15109" max="15109" width="9.7109375" style="43" customWidth="1"/>
+    <col min="15110" max="15110" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="15111" max="15111" width="6" style="43" customWidth="1"/>
-    <col min="15112" max="15112" width="12.88671875" style="43" customWidth="1"/>
-    <col min="15113" max="15113" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="12.109375" style="43" customWidth="1"/>
-    <col min="15116" max="15116" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15117" width="10.44140625" style="43" customWidth="1"/>
-    <col min="15118" max="15118" width="5.109375" style="43" customWidth="1"/>
+    <col min="15112" max="15112" width="12.85546875" style="43" customWidth="1"/>
+    <col min="15113" max="15113" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="12.140625" style="43" customWidth="1"/>
+    <col min="15116" max="15116" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15117" width="10.42578125" style="43" customWidth="1"/>
+    <col min="15118" max="15118" width="5.140625" style="43" customWidth="1"/>
     <col min="15119" max="15362" width="9" style="43"/>
-    <col min="15363" max="15363" width="5.33203125" style="43" customWidth="1"/>
-    <col min="15364" max="15364" width="14.33203125" style="43" customWidth="1"/>
-    <col min="15365" max="15365" width="9.6640625" style="43" customWidth="1"/>
-    <col min="15366" max="15366" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="5.28515625" style="43" customWidth="1"/>
+    <col min="15364" max="15364" width="14.28515625" style="43" customWidth="1"/>
+    <col min="15365" max="15365" width="9.7109375" style="43" customWidth="1"/>
+    <col min="15366" max="15366" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="15367" max="15367" width="6" style="43" customWidth="1"/>
-    <col min="15368" max="15368" width="12.88671875" style="43" customWidth="1"/>
-    <col min="15369" max="15369" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="12.109375" style="43" customWidth="1"/>
-    <col min="15372" max="15372" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15373" width="10.44140625" style="43" customWidth="1"/>
-    <col min="15374" max="15374" width="5.109375" style="43" customWidth="1"/>
+    <col min="15368" max="15368" width="12.85546875" style="43" customWidth="1"/>
+    <col min="15369" max="15369" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="12.140625" style="43" customWidth="1"/>
+    <col min="15372" max="15372" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15373" width="10.42578125" style="43" customWidth="1"/>
+    <col min="15374" max="15374" width="5.140625" style="43" customWidth="1"/>
     <col min="15375" max="15618" width="9" style="43"/>
-    <col min="15619" max="15619" width="5.33203125" style="43" customWidth="1"/>
-    <col min="15620" max="15620" width="14.33203125" style="43" customWidth="1"/>
-    <col min="15621" max="15621" width="9.6640625" style="43" customWidth="1"/>
-    <col min="15622" max="15622" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="5.28515625" style="43" customWidth="1"/>
+    <col min="15620" max="15620" width="14.28515625" style="43" customWidth="1"/>
+    <col min="15621" max="15621" width="9.7109375" style="43" customWidth="1"/>
+    <col min="15622" max="15622" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="15623" max="15623" width="6" style="43" customWidth="1"/>
-    <col min="15624" max="15624" width="12.88671875" style="43" customWidth="1"/>
-    <col min="15625" max="15625" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="12.109375" style="43" customWidth="1"/>
-    <col min="15628" max="15628" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15629" width="10.44140625" style="43" customWidth="1"/>
-    <col min="15630" max="15630" width="5.109375" style="43" customWidth="1"/>
+    <col min="15624" max="15624" width="12.85546875" style="43" customWidth="1"/>
+    <col min="15625" max="15625" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="12.140625" style="43" customWidth="1"/>
+    <col min="15628" max="15628" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15629" width="10.42578125" style="43" customWidth="1"/>
+    <col min="15630" max="15630" width="5.140625" style="43" customWidth="1"/>
     <col min="15631" max="15874" width="9" style="43"/>
-    <col min="15875" max="15875" width="5.33203125" style="43" customWidth="1"/>
-    <col min="15876" max="15876" width="14.33203125" style="43" customWidth="1"/>
-    <col min="15877" max="15877" width="9.6640625" style="43" customWidth="1"/>
-    <col min="15878" max="15878" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="5.28515625" style="43" customWidth="1"/>
+    <col min="15876" max="15876" width="14.28515625" style="43" customWidth="1"/>
+    <col min="15877" max="15877" width="9.7109375" style="43" customWidth="1"/>
+    <col min="15878" max="15878" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="15879" max="15879" width="6" style="43" customWidth="1"/>
-    <col min="15880" max="15880" width="12.88671875" style="43" customWidth="1"/>
-    <col min="15881" max="15881" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="12.109375" style="43" customWidth="1"/>
-    <col min="15884" max="15884" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15885" max="15885" width="10.44140625" style="43" customWidth="1"/>
-    <col min="15886" max="15886" width="5.109375" style="43" customWidth="1"/>
+    <col min="15880" max="15880" width="12.85546875" style="43" customWidth="1"/>
+    <col min="15881" max="15881" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="12.140625" style="43" customWidth="1"/>
+    <col min="15884" max="15884" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15885" max="15885" width="10.42578125" style="43" customWidth="1"/>
+    <col min="15886" max="15886" width="5.140625" style="43" customWidth="1"/>
     <col min="15887" max="16130" width="9" style="43"/>
-    <col min="16131" max="16131" width="5.33203125" style="43" customWidth="1"/>
-    <col min="16132" max="16132" width="14.33203125" style="43" customWidth="1"/>
-    <col min="16133" max="16133" width="9.6640625" style="43" customWidth="1"/>
-    <col min="16134" max="16134" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="5.28515625" style="43" customWidth="1"/>
+    <col min="16132" max="16132" width="14.28515625" style="43" customWidth="1"/>
+    <col min="16133" max="16133" width="9.7109375" style="43" customWidth="1"/>
+    <col min="16134" max="16134" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="16135" max="16135" width="6" style="43" customWidth="1"/>
-    <col min="16136" max="16136" width="12.88671875" style="43" customWidth="1"/>
-    <col min="16137" max="16137" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="12.109375" style="43" customWidth="1"/>
-    <col min="16140" max="16140" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16141" width="10.44140625" style="43" customWidth="1"/>
-    <col min="16142" max="16142" width="5.109375" style="43" customWidth="1"/>
+    <col min="16136" max="16136" width="12.85546875" style="43" customWidth="1"/>
+    <col min="16137" max="16137" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="12.140625" style="43" customWidth="1"/>
+    <col min="16140" max="16140" width="12.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16141" width="10.42578125" style="43" customWidth="1"/>
+    <col min="16142" max="16142" width="5.140625" style="43" customWidth="1"/>
     <col min="16143" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="520" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="517" t="s">
+    <row r="1" spans="1:14" s="384" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="498" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="517"/>
-      <c r="C1" s="517"/>
-      <c r="D1" s="517"/>
-      <c r="E1" s="518"/>
-      <c r="F1" s="519" t="s">
+      <c r="B1" s="498"/>
+      <c r="C1" s="498"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="499" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="519"/>
-      <c r="H1" s="519"/>
-      <c r="I1" s="519"/>
-      <c r="J1" s="519"/>
-      <c r="K1" s="519"/>
-      <c r="L1" s="519"/>
-      <c r="M1" s="519"/>
-    </row>
-    <row r="2" spans="1:14" s="520" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="521" t="s">
+      <c r="G1" s="499"/>
+      <c r="H1" s="499"/>
+      <c r="I1" s="499"/>
+      <c r="J1" s="499"/>
+      <c r="K1" s="499"/>
+      <c r="L1" s="499"/>
+      <c r="M1" s="499"/>
+    </row>
+    <row r="2" spans="1:14" s="384" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="500" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="521"/>
-      <c r="C2" s="521"/>
-      <c r="D2" s="521"/>
-      <c r="E2" s="518"/>
-      <c r="F2" s="522" t="s">
+      <c r="B2" s="500"/>
+      <c r="C2" s="500"/>
+      <c r="D2" s="500"/>
+      <c r="E2" s="383"/>
+      <c r="F2" s="501" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="522"/>
-      <c r="H2" s="522"/>
-      <c r="I2" s="522"/>
-      <c r="J2" s="522"/>
-      <c r="K2" s="522"/>
-      <c r="L2" s="522"/>
-      <c r="M2" s="522"/>
-    </row>
-    <row r="3" spans="1:14" s="520" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="523"/>
-      <c r="B3" s="523"/>
-      <c r="C3" s="523"/>
-      <c r="E3" s="524"/>
-      <c r="F3" s="524"/>
-      <c r="G3" s="524"/>
-      <c r="H3" s="524"/>
-      <c r="I3" s="525"/>
-      <c r="J3" s="524"/>
-      <c r="K3" s="524"/>
-    </row>
-    <row r="4" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="447" t="s">
+      <c r="G2" s="501"/>
+      <c r="H2" s="501"/>
+      <c r="I2" s="501"/>
+      <c r="J2" s="501"/>
+      <c r="K2" s="501"/>
+      <c r="L2" s="501"/>
+      <c r="M2" s="501"/>
+    </row>
+    <row r="3" spans="1:14" s="384" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="385"/>
+      <c r="B3" s="385"/>
+      <c r="C3" s="385"/>
+      <c r="E3" s="386"/>
+      <c r="F3" s="386"/>
+      <c r="G3" s="386"/>
+      <c r="H3" s="386"/>
+      <c r="I3" s="387"/>
+      <c r="J3" s="386"/>
+      <c r="K3" s="386"/>
+    </row>
+    <row r="4" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="489" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="447"/>
-      <c r="C4" s="447"/>
-      <c r="D4" s="447"/>
-      <c r="E4" s="447"/>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="447"/>
-      <c r="K4" s="447"/>
-      <c r="L4" s="447"/>
-      <c r="M4" s="447"/>
-      <c r="N4" s="447"/>
-    </row>
-    <row r="5" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="447" t="s">
+      <c r="B4" s="489"/>
+      <c r="C4" s="489"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="489"/>
+      <c r="F4" s="489"/>
+      <c r="G4" s="489"/>
+      <c r="H4" s="489"/>
+      <c r="I4" s="489"/>
+      <c r="J4" s="489"/>
+      <c r="K4" s="489"/>
+      <c r="L4" s="489"/>
+      <c r="M4" s="489"/>
+      <c r="N4" s="489"/>
+    </row>
+    <row r="5" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="489" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="447"/>
-      <c r="C5" s="447"/>
-      <c r="D5" s="447"/>
-      <c r="E5" s="447"/>
-      <c r="F5" s="447"/>
-      <c r="G5" s="447"/>
-      <c r="H5" s="447"/>
-      <c r="I5" s="447"/>
-      <c r="J5" s="447"/>
-      <c r="K5" s="447"/>
-      <c r="L5" s="447"/>
-      <c r="M5" s="447"/>
-      <c r="N5" s="447"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L6" s="448" t="s">
+      <c r="B5" s="489"/>
+      <c r="C5" s="489"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="489"/>
+      <c r="F5" s="489"/>
+      <c r="G5" s="489"/>
+      <c r="H5" s="489"/>
+      <c r="I5" s="489"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="489"/>
+      <c r="L5" s="489"/>
+      <c r="M5" s="489"/>
+      <c r="N5" s="489"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6" s="490" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="448"/>
-      <c r="N6" s="448"/>
-    </row>
-    <row r="7" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="M6" s="490"/>
+      <c r="N6" s="490"/>
+    </row>
+    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>18</v>
       </c>
@@ -11310,7 +11308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="48"/>
       <c r="C8" s="49"/>
@@ -11340,11 +11338,11 @@
       <c r="M8" s="49"/>
       <c r="N8" s="50"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="449" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="491" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="450"/>
+      <c r="B9" s="492"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="51"/>
@@ -11362,7 +11360,7 @@
       <c r="M9" s="49"/>
       <c r="N9" s="50"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
         <v>1</v>
       </c>
@@ -11375,7 +11373,7 @@
       <c r="D10" s="55">
         <v>15000000</v>
       </c>
-      <c r="E10" s="542">
+      <c r="E10" s="401">
         <f>'bảng chấm công'!AI12</f>
         <v>26</v>
       </c>
@@ -11398,7 +11396,7 @@
       <c r="M10" s="56"/>
       <c r="N10" s="53"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
         <v>3</v>
       </c>
@@ -11411,7 +11409,7 @@
       <c r="D11" s="55">
         <v>6000000</v>
       </c>
-      <c r="E11" s="542">
+      <c r="E11" s="401">
         <f>'bảng chấm công'!AI15</f>
         <v>26</v>
       </c>
@@ -11434,7 +11432,7 @@
       <c r="M11" s="56"/>
       <c r="N11" s="53"/>
     </row>
-    <row r="12" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
         <v>4</v>
       </c>
@@ -11447,7 +11445,7 @@
       <c r="D12" s="60">
         <v>6000000</v>
       </c>
-      <c r="E12" s="543">
+      <c r="E12" s="402">
         <f>'bảng chấm công'!AI14</f>
         <v>29</v>
       </c>
@@ -11474,17 +11472,17 @@
       <c r="M12" s="61"/>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="526" t="s">
+    <row r="13" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="495" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="527"/>
-      <c r="C13" s="528"/>
+      <c r="B13" s="496"/>
+      <c r="C13" s="497"/>
       <c r="D13" s="340">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
       </c>
-      <c r="E13" s="544"/>
+      <c r="E13" s="403"/>
       <c r="F13" s="340">
         <f>SUM(F10:F12)</f>
         <v>27692307.692307692</v>
@@ -11494,36 +11492,36 @@
         <v>8307692.307692307</v>
       </c>
       <c r="H13" s="340"/>
-      <c r="I13" s="529">
+      <c r="I13" s="388">
         <f>SUM(I11:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="529">
+      <c r="J13" s="388">
         <f>SUM(J10:J12)</f>
         <v>4000000</v>
       </c>
-      <c r="K13" s="529">
+      <c r="K13" s="388">
         <f>SUM(K10:K12)</f>
         <v>5555512</v>
       </c>
-      <c r="L13" s="529">
+      <c r="L13" s="388">
         <f>SUM(L10:L12)</f>
         <v>20940127.384615384</v>
       </c>
-      <c r="M13" s="529"/>
-      <c r="N13" s="530"/>
-    </row>
-    <row r="14" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="451" t="s">
+      <c r="M13" s="388"/>
+      <c r="N13" s="389"/>
+    </row>
+    <row r="14" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="493" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="452"/>
+      <c r="B14" s="494"/>
       <c r="C14" s="88"/>
       <c r="D14" s="89"/>
-      <c r="E14" s="545"/>
+      <c r="E14" s="404"/>
       <c r="F14" s="91"/>
       <c r="G14" s="91"/>
-      <c r="H14" s="490"/>
+      <c r="H14" s="363"/>
       <c r="I14" s="92"/>
       <c r="J14" s="92"/>
       <c r="K14" s="90"/>
@@ -11531,7 +11529,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="93"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <v>1</v>
       </c>
@@ -11544,7 +11542,7 @@
       <c r="D15" s="60">
         <v>3000000</v>
       </c>
-      <c r="E15" s="542">
+      <c r="E15" s="401">
         <f>'bảng chấm công'!AI16</f>
         <v>25</v>
       </c>
@@ -11574,7 +11572,7 @@
       <c r="M15" s="61"/>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="62">
         <v>3</v>
       </c>
@@ -11587,17 +11585,17 @@
       <c r="D16" s="64">
         <v>5000000</v>
       </c>
-      <c r="E16" s="542">
+      <c r="E16" s="401">
         <f>'bảng chấm công'!AI13</f>
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="F16" s="55">
         <f t="shared" si="0"/>
-        <v>4326923.076923077</v>
+        <v>4134615.3846153845</v>
       </c>
       <c r="G16" s="55">
         <f>F16*30%</f>
-        <v>1298076.923076923</v>
+        <v>1240384.6153846153</v>
       </c>
       <c r="H16" s="60"/>
       <c r="I16" s="65"/>
@@ -11609,104 +11607,109 @@
       </c>
       <c r="L16" s="56">
         <f>F16-G16+H16-I16-J16+K16</f>
-        <v>3028846.153846154</v>
+        <v>2894230.769230769</v>
       </c>
       <c r="M16" s="65"/>
       <c r="N16" s="62"/>
     </row>
-    <row r="17" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="526" t="s">
+    <row r="17" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="495" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="527"/>
-      <c r="C17" s="528"/>
-      <c r="D17" s="531">
+      <c r="B17" s="496"/>
+      <c r="C17" s="497"/>
+      <c r="D17" s="390">
         <f>SUM(D15:D16)</f>
         <v>8000000</v>
       </c>
-      <c r="E17" s="532"/>
-      <c r="F17" s="531">
+      <c r="E17" s="391"/>
+      <c r="F17" s="390">
         <f>SUM(F15:F16)</f>
-        <v>7211538.461538462</v>
-      </c>
-      <c r="G17" s="531">
+        <v>7019230.7692307699</v>
+      </c>
+      <c r="G17" s="390">
         <f>SUM(G15:G16)</f>
-        <v>2163461.5384615385</v>
-      </c>
-      <c r="H17" s="531"/>
-      <c r="I17" s="531">
+        <v>2105769.230769231</v>
+      </c>
+      <c r="H17" s="390"/>
+      <c r="I17" s="390">
         <f>SUM(I15:I16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="531">
+      <c r="J17" s="390">
         <f>SUM(J15:J16)</f>
         <v>2100000</v>
       </c>
-      <c r="K17" s="531">
+      <c r="K17" s="390">
         <f>SUM(K15:K16)</f>
         <v>2100000</v>
       </c>
-      <c r="L17" s="531">
+      <c r="L17" s="390">
         <f>SUM(L14:L16)</f>
-        <v>5108076.9230769239</v>
-      </c>
-      <c r="M17" s="530"/>
-      <c r="N17" s="530"/>
-    </row>
-    <row r="19" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="447"/>
-      <c r="C19" s="447"/>
-      <c r="D19" s="447"/>
+        <v>4973461.538461538</v>
+      </c>
+      <c r="M17" s="389"/>
+      <c r="N17" s="389"/>
+    </row>
+    <row r="19" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="489"/>
+      <c r="C19" s="489"/>
+      <c r="D19" s="489"/>
       <c r="E19" s="358"/>
-      <c r="J19" s="447"/>
-      <c r="K19" s="447"/>
-      <c r="L19" s="447"/>
-      <c r="M19" s="447"/>
-    </row>
-    <row r="20" spans="1:14" s="520" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="533" t="s">
+      <c r="J19" s="489"/>
+      <c r="K19" s="489"/>
+      <c r="L19" s="489"/>
+      <c r="M19" s="489"/>
+    </row>
+    <row r="20" spans="1:14" s="384" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="392" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="534"/>
-      <c r="F20" s="534"/>
-      <c r="G20" s="534"/>
-      <c r="H20" s="534"/>
-      <c r="I20" s="534"/>
-      <c r="J20" s="533" t="s">
+      <c r="E20" s="393"/>
+      <c r="F20" s="393"/>
+      <c r="G20" s="393"/>
+      <c r="H20" s="393"/>
+      <c r="I20" s="393"/>
+      <c r="J20" s="392" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="534"/>
-      <c r="L20" s="535"/>
-    </row>
-    <row r="21" spans="1:14" s="520" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="536" t="s">
+      <c r="K20" s="393"/>
+      <c r="L20" s="394"/>
+    </row>
+    <row r="21" spans="1:14" s="384" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="395" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="537"/>
-      <c r="F21" s="537"/>
-      <c r="G21" s="538"/>
-      <c r="H21" s="538"/>
-      <c r="I21" s="538"/>
-      <c r="J21" s="536" t="s">
+      <c r="E21" s="396"/>
+      <c r="F21" s="396"/>
+      <c r="G21" s="397"/>
+      <c r="H21" s="397"/>
+      <c r="I21" s="397"/>
+      <c r="J21" s="395" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="538"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K21" s="397"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F22" s="198"/>
     </row>
-    <row r="24" spans="1:14" s="539" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="533"/>
-      <c r="F24" s="540"/>
-      <c r="G24" s="540"/>
-      <c r="H24" s="540"/>
-      <c r="I24" s="540"/>
-      <c r="J24" s="541" t="s">
+    <row r="24" spans="1:14" s="398" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="392"/>
+      <c r="F24" s="399"/>
+      <c r="G24" s="399"/>
+      <c r="H24" s="399"/>
+      <c r="I24" s="399"/>
+      <c r="J24" s="400" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A9:B9"/>
@@ -11715,11 +11718,6 @@
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:N4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11734,115 +11732,115 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="307"/>
+    <col min="1" max="1" width="9.140625" style="307"/>
     <col min="2" max="2" width="12" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="86"/>
-    <col min="4" max="4" width="12.6640625" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="86"/>
-    <col min="8" max="8" width="9.33203125" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="86"/>
+    <col min="4" max="4" width="12.7109375" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="86"/>
+    <col min="8" max="8" width="9.28515625" style="86" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14" style="86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="101"/>
+    <col min="11" max="11" width="9.140625" style="101"/>
     <col min="12" max="12" width="17" style="129" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="86"/>
+    <col min="13" max="16384" width="9.140625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="491" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="502" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="492" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="503" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="492"/>
-      <c r="C2" s="492"/>
-      <c r="D2" s="492"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="469" t="s">
+      <c r="B2" s="503"/>
+      <c r="C2" s="503"/>
+      <c r="D2" s="503"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="505" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="469"/>
-      <c r="C3" s="469"/>
-      <c r="D3" s="469"/>
-      <c r="E3" s="469"/>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="469"/>
-      <c r="I3" s="469"/>
-      <c r="J3" s="469"/>
-      <c r="K3" s="469"/>
-      <c r="L3" s="469"/>
-      <c r="M3" s="469"/>
-      <c r="N3" s="469"/>
-      <c r="O3" s="469"/>
-      <c r="P3" s="469"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="470" t="s">
+      <c r="B3" s="505"/>
+      <c r="C3" s="505"/>
+      <c r="D3" s="505"/>
+      <c r="E3" s="505"/>
+      <c r="F3" s="505"/>
+      <c r="G3" s="505"/>
+      <c r="H3" s="505"/>
+      <c r="I3" s="505"/>
+      <c r="J3" s="505"/>
+      <c r="K3" s="505"/>
+      <c r="L3" s="505"/>
+      <c r="M3" s="505"/>
+      <c r="N3" s="505"/>
+      <c r="O3" s="505"/>
+      <c r="P3" s="505"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="506" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="470"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="470"/>
-      <c r="E4" s="470"/>
-      <c r="F4" s="470"/>
-      <c r="G4" s="470"/>
-      <c r="H4" s="470"/>
-      <c r="I4" s="470"/>
-      <c r="J4" s="470"/>
-      <c r="K4" s="471"/>
-      <c r="L4" s="470"/>
-      <c r="M4" s="470"/>
-      <c r="N4" s="470"/>
-      <c r="O4" s="470"/>
-      <c r="P4" s="470"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="472" t="s">
+      <c r="B4" s="506"/>
+      <c r="C4" s="506"/>
+      <c r="D4" s="506"/>
+      <c r="E4" s="506"/>
+      <c r="F4" s="506"/>
+      <c r="G4" s="506"/>
+      <c r="H4" s="506"/>
+      <c r="I4" s="506"/>
+      <c r="J4" s="506"/>
+      <c r="K4" s="507"/>
+      <c r="L4" s="506"/>
+      <c r="M4" s="506"/>
+      <c r="N4" s="506"/>
+      <c r="O4" s="506"/>
+      <c r="P4" s="506"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="508" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="474" t="s">
+      <c r="B5" s="510" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="476" t="s">
+      <c r="C5" s="512" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="476" t="s">
+      <c r="D5" s="512" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="476"/>
-      <c r="F5" s="476"/>
-      <c r="G5" s="478" t="s">
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="514" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="478"/>
-      <c r="I5" s="478"/>
-      <c r="J5" s="478"/>
-      <c r="K5" s="479"/>
-      <c r="L5" s="480" t="s">
+      <c r="H5" s="514"/>
+      <c r="I5" s="514"/>
+      <c r="J5" s="514"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="516" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="478" t="s">
+      <c r="M5" s="514" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="478"/>
-      <c r="O5" s="478"/>
-      <c r="P5" s="482" t="s">
+      <c r="N5" s="514"/>
+      <c r="O5" s="514"/>
+      <c r="P5" s="518" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="473"/>
-      <c r="B6" s="475"/>
-      <c r="C6" s="477"/>
+    <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
+      <c r="A6" s="509"/>
+      <c r="B6" s="511"/>
+      <c r="C6" s="513"/>
       <c r="D6" s="85" t="s">
         <v>41</v>
       </c>
@@ -11867,7 +11865,7 @@
       <c r="K6" s="292" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="481"/>
+      <c r="L6" s="517"/>
       <c r="M6" s="85" t="s">
         <v>46</v>
       </c>
@@ -11877,9 +11875,9 @@
       <c r="O6" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="483"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P6" s="519"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="306">
         <v>562</v>
       </c>
@@ -11917,7 +11915,7 @@
       <c r="O7" s="141"/>
       <c r="P7" s="146"/>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="141"/>
       <c r="B8" s="144"/>
       <c r="C8" s="141"/>
@@ -11935,7 +11933,7 @@
       <c r="O8" s="280"/>
       <c r="P8" s="284"/>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="141"/>
       <c r="B9" s="144"/>
       <c r="C9" s="141"/>
@@ -11953,7 +11951,7 @@
       <c r="O9" s="285"/>
       <c r="P9" s="289"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="306"/>
       <c r="B10" s="144"/>
       <c r="C10" s="141"/>
@@ -11971,7 +11969,7 @@
       <c r="O10" s="141"/>
       <c r="P10" s="146"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="306"/>
       <c r="B11" s="144"/>
       <c r="C11" s="141"/>
@@ -11989,13 +11987,13 @@
       <c r="O11" s="141"/>
       <c r="P11" s="146"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="459"/>
-      <c r="B12" s="484"/>
-      <c r="C12" s="453"/>
-      <c r="D12" s="487"/>
-      <c r="E12" s="453"/>
-      <c r="F12" s="453"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="520"/>
+      <c r="B12" s="526"/>
+      <c r="C12" s="523"/>
+      <c r="D12" s="529"/>
+      <c r="E12" s="523"/>
+      <c r="F12" s="523"/>
       <c r="G12" s="275"/>
       <c r="H12" s="275"/>
       <c r="I12" s="276"/>
@@ -12007,13 +12005,13 @@
       <c r="O12" s="275"/>
       <c r="P12" s="279"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="460"/>
-      <c r="B13" s="485"/>
-      <c r="C13" s="454"/>
-      <c r="D13" s="488"/>
-      <c r="E13" s="454"/>
-      <c r="F13" s="454"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="521"/>
+      <c r="B13" s="527"/>
+      <c r="C13" s="524"/>
+      <c r="D13" s="530"/>
+      <c r="E13" s="524"/>
+      <c r="F13" s="524"/>
       <c r="G13" s="280"/>
       <c r="H13" s="280"/>
       <c r="I13" s="281"/>
@@ -12025,13 +12023,13 @@
       <c r="O13" s="280"/>
       <c r="P13" s="284"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="460"/>
-      <c r="B14" s="485"/>
-      <c r="C14" s="454"/>
-      <c r="D14" s="488"/>
-      <c r="E14" s="454"/>
-      <c r="F14" s="454"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="521"/>
+      <c r="B14" s="527"/>
+      <c r="C14" s="524"/>
+      <c r="D14" s="530"/>
+      <c r="E14" s="524"/>
+      <c r="F14" s="524"/>
       <c r="G14" s="280"/>
       <c r="H14" s="280"/>
       <c r="I14" s="281"/>
@@ -12043,13 +12041,13 @@
       <c r="O14" s="280"/>
       <c r="P14" s="284"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="460"/>
-      <c r="B15" s="485"/>
-      <c r="C15" s="454"/>
-      <c r="D15" s="488"/>
-      <c r="E15" s="454"/>
-      <c r="F15" s="454"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="521"/>
+      <c r="B15" s="527"/>
+      <c r="C15" s="524"/>
+      <c r="D15" s="530"/>
+      <c r="E15" s="524"/>
+      <c r="F15" s="524"/>
       <c r="G15" s="280"/>
       <c r="H15" s="280"/>
       <c r="I15" s="281"/>
@@ -12061,13 +12059,13 @@
       <c r="O15" s="280"/>
       <c r="P15" s="284"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="460"/>
-      <c r="B16" s="485"/>
-      <c r="C16" s="454"/>
-      <c r="D16" s="488"/>
-      <c r="E16" s="454"/>
-      <c r="F16" s="454"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="521"/>
+      <c r="B16" s="527"/>
+      <c r="C16" s="524"/>
+      <c r="D16" s="530"/>
+      <c r="E16" s="524"/>
+      <c r="F16" s="524"/>
       <c r="G16" s="280"/>
       <c r="H16" s="280"/>
       <c r="I16" s="281"/>
@@ -12079,13 +12077,13 @@
       <c r="O16" s="280"/>
       <c r="P16" s="284"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="460"/>
-      <c r="B17" s="485"/>
-      <c r="C17" s="454"/>
-      <c r="D17" s="488"/>
-      <c r="E17" s="454"/>
-      <c r="F17" s="454"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="521"/>
+      <c r="B17" s="527"/>
+      <c r="C17" s="524"/>
+      <c r="D17" s="530"/>
+      <c r="E17" s="524"/>
+      <c r="F17" s="524"/>
       <c r="G17" s="280"/>
       <c r="H17" s="280"/>
       <c r="I17" s="281"/>
@@ -12097,13 +12095,13 @@
       <c r="O17" s="280"/>
       <c r="P17" s="284"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="460"/>
-      <c r="B18" s="485"/>
-      <c r="C18" s="454"/>
-      <c r="D18" s="488"/>
-      <c r="E18" s="454"/>
-      <c r="F18" s="454"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="521"/>
+      <c r="B18" s="527"/>
+      <c r="C18" s="524"/>
+      <c r="D18" s="530"/>
+      <c r="E18" s="524"/>
+      <c r="F18" s="524"/>
       <c r="G18" s="280"/>
       <c r="H18" s="280"/>
       <c r="I18" s="281"/>
@@ -12115,13 +12113,13 @@
       <c r="O18" s="280"/>
       <c r="P18" s="284"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="460"/>
-      <c r="B19" s="485"/>
-      <c r="C19" s="454"/>
-      <c r="D19" s="488"/>
-      <c r="E19" s="454"/>
-      <c r="F19" s="454"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="521"/>
+      <c r="B19" s="527"/>
+      <c r="C19" s="524"/>
+      <c r="D19" s="530"/>
+      <c r="E19" s="524"/>
+      <c r="F19" s="524"/>
       <c r="G19" s="280"/>
       <c r="H19" s="280"/>
       <c r="I19" s="281"/>
@@ -12133,13 +12131,13 @@
       <c r="O19" s="280"/>
       <c r="P19" s="284"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="461"/>
-      <c r="B20" s="486"/>
-      <c r="C20" s="455"/>
-      <c r="D20" s="489"/>
-      <c r="E20" s="455"/>
-      <c r="F20" s="455"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="522"/>
+      <c r="B20" s="528"/>
+      <c r="C20" s="525"/>
+      <c r="D20" s="531"/>
+      <c r="E20" s="525"/>
+      <c r="F20" s="525"/>
       <c r="G20" s="285"/>
       <c r="H20" s="285"/>
       <c r="I20" s="286"/>
@@ -12151,7 +12149,7 @@
       <c r="O20" s="285"/>
       <c r="P20" s="285"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="305"/>
       <c r="B21" s="301"/>
       <c r="C21" s="293"/>
@@ -12169,12 +12167,12 @@
       <c r="O21" s="293"/>
       <c r="P21" s="293"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="459"/>
-      <c r="B22" s="462"/>
-      <c r="C22" s="459"/>
-      <c r="D22" s="465"/>
-      <c r="E22" s="459"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="520"/>
+      <c r="B22" s="535"/>
+      <c r="C22" s="520"/>
+      <c r="D22" s="538"/>
+      <c r="E22" s="520"/>
       <c r="F22" s="294"/>
       <c r="G22" s="294"/>
       <c r="H22" s="294"/>
@@ -12187,12 +12185,12 @@
       <c r="O22" s="294"/>
       <c r="P22" s="294"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="460"/>
-      <c r="B23" s="463"/>
-      <c r="C23" s="460"/>
-      <c r="D23" s="466"/>
-      <c r="E23" s="460"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="521"/>
+      <c r="B23" s="536"/>
+      <c r="C23" s="521"/>
+      <c r="D23" s="539"/>
+      <c r="E23" s="521"/>
       <c r="F23" s="295"/>
       <c r="G23" s="295"/>
       <c r="H23" s="295"/>
@@ -12205,12 +12203,12 @@
       <c r="O23" s="295"/>
       <c r="P23" s="295"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="460"/>
-      <c r="B24" s="463"/>
-      <c r="C24" s="460"/>
-      <c r="D24" s="466"/>
-      <c r="E24" s="460"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="521"/>
+      <c r="B24" s="536"/>
+      <c r="C24" s="521"/>
+      <c r="D24" s="539"/>
+      <c r="E24" s="521"/>
       <c r="F24" s="295"/>
       <c r="G24" s="295"/>
       <c r="H24" s="295"/>
@@ -12223,12 +12221,12 @@
       <c r="O24" s="295"/>
       <c r="P24" s="295"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="461"/>
-      <c r="B25" s="464"/>
-      <c r="C25" s="461"/>
-      <c r="D25" s="467"/>
-      <c r="E25" s="461"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="522"/>
+      <c r="B25" s="537"/>
+      <c r="C25" s="522"/>
+      <c r="D25" s="540"/>
+      <c r="E25" s="522"/>
       <c r="F25" s="296"/>
       <c r="G25" s="296"/>
       <c r="H25" s="296"/>
@@ -12241,11 +12239,11 @@
       <c r="O25" s="296"/>
       <c r="P25" s="296"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="459"/>
-      <c r="B26" s="462"/>
-      <c r="C26" s="459"/>
-      <c r="D26" s="456"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="520"/>
+      <c r="B26" s="535"/>
+      <c r="C26" s="520"/>
+      <c r="D26" s="532"/>
       <c r="E26" s="294"/>
       <c r="F26" s="294"/>
       <c r="G26" s="294"/>
@@ -12259,11 +12257,11 @@
       <c r="O26" s="294"/>
       <c r="P26" s="294"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="460"/>
-      <c r="B27" s="463"/>
-      <c r="C27" s="460"/>
-      <c r="D27" s="457"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="521"/>
+      <c r="B27" s="536"/>
+      <c r="C27" s="521"/>
+      <c r="D27" s="533"/>
       <c r="E27" s="295"/>
       <c r="F27" s="295"/>
       <c r="G27" s="295"/>
@@ -12277,11 +12275,11 @@
       <c r="O27" s="295"/>
       <c r="P27" s="295"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="461"/>
-      <c r="B28" s="464"/>
-      <c r="C28" s="461"/>
-      <c r="D28" s="458"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="522"/>
+      <c r="B28" s="537"/>
+      <c r="C28" s="522"/>
+      <c r="D28" s="534"/>
       <c r="E28" s="296"/>
       <c r="F28" s="296"/>
       <c r="G28" s="296"/>
@@ -12295,7 +12293,7 @@
       <c r="O28" s="296"/>
       <c r="P28" s="296"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="305"/>
       <c r="B29" s="301"/>
       <c r="C29" s="293"/>
@@ -12313,15 +12311,15 @@
       <c r="O29" s="293"/>
       <c r="P29" s="293"/>
     </row>
-    <row r="30" spans="1:16" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="468" t="s">
+    <row r="30" spans="1:16" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="504" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="468"/>
-      <c r="C30" s="468"/>
-      <c r="D30" s="468"/>
-      <c r="E30" s="468"/>
-      <c r="F30" s="468"/>
+      <c r="B30" s="504"/>
+      <c r="C30" s="504"/>
+      <c r="D30" s="504"/>
+      <c r="E30" s="504"/>
+      <c r="F30" s="504"/>
       <c r="G30" s="132"/>
       <c r="H30" s="132">
         <f>SUM(H7:H28)</f>
@@ -12345,15 +12343,15 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H31" s="87"/>
       <c r="I31" s="87"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H32" s="87"/>
       <c r="I32" s="87"/>
     </row>
-    <row r="33" spans="1:12" s="274" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="274" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="308"/>
       <c r="C33" s="261"/>
       <c r="E33" s="298" t="s">
@@ -12367,7 +12365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="274" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="274" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="308"/>
       <c r="C34" s="11"/>
       <c r="E34" s="13" t="s">
@@ -12381,17 +12379,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H35" s="87"/>
       <c r="I35" s="87"/>
       <c r="L35" s="299"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
       <c r="L36" s="299"/>
     </row>
-    <row r="37" spans="1:12" s="116" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="116" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="118"/>
       <c r="C37" s="261"/>
       <c r="E37" s="261"/>
@@ -12401,20 +12399,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A30:F30"/>
@@ -12431,18 +12441,6 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="F12:F20"/>
     <mergeCell ref="B12:B20"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12457,341 +12455,341 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="499" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="504" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="499" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="499" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="507" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="499"/>
+    <col min="1" max="1" width="6.85546875" style="368" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="373" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="368" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="368" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="376" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="368"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="495" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="494" t="s">
+    <row r="1" spans="1:16" s="365" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="541" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="494"/>
-      <c r="C1" s="494"/>
-      <c r="D1" s="494"/>
-      <c r="E1" s="497"/>
-      <c r="K1" s="496"/>
-      <c r="L1" s="497"/>
-    </row>
-    <row r="2" spans="1:16" s="495" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="498" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="541"/>
+      <c r="D1" s="541"/>
+      <c r="E1" s="367"/>
+      <c r="K1" s="366"/>
+      <c r="L1" s="367"/>
+    </row>
+    <row r="2" spans="1:16" s="365" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="542" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="498"/>
-      <c r="C2" s="498"/>
-      <c r="D2" s="498"/>
-      <c r="E2" s="497"/>
-      <c r="K2" s="496"/>
-      <c r="L2" s="497"/>
-    </row>
-    <row r="3" spans="1:16" s="495" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="469" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="542"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="367"/>
+      <c r="K2" s="366"/>
+      <c r="L2" s="367"/>
+    </row>
+    <row r="3" spans="1:16" s="365" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="505" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="469"/>
-      <c r="C3" s="469"/>
-      <c r="D3" s="469"/>
-      <c r="E3" s="469"/>
-      <c r="F3" s="493"/>
-      <c r="G3" s="493"/>
-      <c r="H3" s="493"/>
-      <c r="I3" s="493"/>
-      <c r="J3" s="493"/>
-      <c r="K3" s="493"/>
-      <c r="L3" s="493"/>
-      <c r="M3" s="493"/>
-      <c r="N3" s="493"/>
-      <c r="O3" s="493"/>
-      <c r="P3" s="493"/>
-    </row>
-    <row r="4" spans="1:16" s="495" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="505"/>
+      <c r="C3" s="505"/>
+      <c r="D3" s="505"/>
+      <c r="E3" s="505"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
+      <c r="K3" s="364"/>
+      <c r="L3" s="364"/>
+      <c r="M3" s="364"/>
+      <c r="N3" s="364"/>
+      <c r="O3" s="364"/>
+      <c r="P3" s="364"/>
+    </row>
+    <row r="4" spans="1:16" s="365" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="359"/>
       <c r="B4" s="359"/>
       <c r="C4" s="359"/>
       <c r="D4" s="359"/>
       <c r="E4" s="359"/>
-      <c r="F4" s="493"/>
-      <c r="G4" s="493"/>
-      <c r="H4" s="493"/>
-      <c r="I4" s="493"/>
-      <c r="J4" s="493"/>
-      <c r="K4" s="493"/>
-      <c r="L4" s="493"/>
-      <c r="M4" s="493"/>
-      <c r="N4" s="493"/>
-      <c r="O4" s="493"/>
-      <c r="P4" s="493"/>
-    </row>
-    <row r="5" spans="1:16" s="495" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="508" t="s">
+      <c r="F4" s="364"/>
+      <c r="G4" s="364"/>
+      <c r="H4" s="364"/>
+      <c r="I4" s="364"/>
+      <c r="J4" s="364"/>
+      <c r="K4" s="364"/>
+      <c r="L4" s="364"/>
+      <c r="M4" s="364"/>
+      <c r="N4" s="364"/>
+      <c r="O4" s="364"/>
+      <c r="P4" s="364"/>
+    </row>
+    <row r="5" spans="1:16" s="365" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="377" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="509" t="s">
+      <c r="B5" s="378" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="510" t="s">
+      <c r="C5" s="379" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="508" t="s">
+      <c r="D5" s="377" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="511" t="s">
+      <c r="E5" s="380" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="500">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="369">
         <v>560</v>
       </c>
-      <c r="B6" s="502">
+      <c r="B6" s="371">
         <v>43983</v>
       </c>
-      <c r="C6" s="500" t="s">
+      <c r="C6" s="369" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="500" t="s">
+      <c r="D6" s="369" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="505">
+      <c r="E6" s="374">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="501"/>
-      <c r="B7" s="503">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="370"/>
+      <c r="B7" s="372">
         <v>43983</v>
       </c>
-      <c r="C7" s="501" t="s">
+      <c r="C7" s="370" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="501" t="s">
+      <c r="D7" s="370" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="506">
+      <c r="E7" s="375">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="501">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="370">
         <v>563</v>
       </c>
-      <c r="B8" s="503">
+      <c r="B8" s="372">
         <v>43986</v>
       </c>
-      <c r="C8" s="501" t="s">
+      <c r="C8" s="370" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="501" t="s">
+      <c r="D8" s="370" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="506">
+      <c r="E8" s="375">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="501">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="370">
         <v>564</v>
       </c>
-      <c r="B9" s="503">
+      <c r="B9" s="372">
         <v>43987</v>
       </c>
-      <c r="C9" s="501" t="s">
+      <c r="C9" s="370" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="501" t="s">
+      <c r="D9" s="370" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="506">
+      <c r="E9" s="375">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="501">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="370">
         <v>576</v>
       </c>
-      <c r="B10" s="503">
+      <c r="B10" s="372">
         <v>43995</v>
       </c>
-      <c r="C10" s="501" t="s">
+      <c r="C10" s="370" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="501" t="s">
+      <c r="D10" s="370" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="506">
+      <c r="E10" s="375">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="501">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="370">
         <v>577</v>
       </c>
-      <c r="B11" s="503">
+      <c r="B11" s="372">
         <v>43995</v>
       </c>
-      <c r="C11" s="501" t="s">
+      <c r="C11" s="370" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="501" t="s">
+      <c r="D11" s="370" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="506">
+      <c r="E11" s="375">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="501"/>
-      <c r="B12" s="503"/>
-      <c r="C12" s="501"/>
-      <c r="D12" s="501"/>
-      <c r="E12" s="506"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="501"/>
-      <c r="B13" s="503"/>
-      <c r="C13" s="501"/>
-      <c r="D13" s="501"/>
-      <c r="E13" s="506"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="501"/>
-      <c r="B14" s="503"/>
-      <c r="C14" s="501"/>
-      <c r="D14" s="501"/>
-      <c r="E14" s="506"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="501"/>
-      <c r="B15" s="503"/>
-      <c r="C15" s="501"/>
-      <c r="D15" s="501"/>
-      <c r="E15" s="506"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="501"/>
-      <c r="B16" s="503"/>
-      <c r="C16" s="501"/>
-      <c r="D16" s="501"/>
-      <c r="E16" s="506"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="501"/>
-      <c r="B17" s="503"/>
-      <c r="C17" s="501"/>
-      <c r="D17" s="501"/>
-      <c r="E17" s="506"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="501"/>
-      <c r="B18" s="503"/>
-      <c r="C18" s="501"/>
-      <c r="D18" s="501"/>
-      <c r="E18" s="506"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="501"/>
-      <c r="B19" s="503"/>
-      <c r="C19" s="501"/>
-      <c r="D19" s="501"/>
-      <c r="E19" s="506"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="501"/>
-      <c r="B20" s="503"/>
-      <c r="C20" s="501"/>
-      <c r="D20" s="501"/>
-      <c r="E20" s="506"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="501"/>
-      <c r="B21" s="503"/>
-      <c r="C21" s="501"/>
-      <c r="D21" s="501"/>
-      <c r="E21" s="506"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="501"/>
-      <c r="B22" s="503"/>
-      <c r="C22" s="501"/>
-      <c r="D22" s="501"/>
-      <c r="E22" s="506"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="501"/>
-      <c r="B23" s="503"/>
-      <c r="C23" s="501"/>
-      <c r="D23" s="501"/>
-      <c r="E23" s="506"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="501"/>
-      <c r="B24" s="503"/>
-      <c r="C24" s="501"/>
-      <c r="D24" s="501"/>
-      <c r="E24" s="506"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="501"/>
-      <c r="B25" s="503"/>
-      <c r="C25" s="501"/>
-      <c r="D25" s="501"/>
-      <c r="E25" s="506"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="501"/>
-      <c r="B26" s="503"/>
-      <c r="C26" s="501"/>
-      <c r="D26" s="501"/>
-      <c r="E26" s="506"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="501"/>
-      <c r="B27" s="503"/>
-      <c r="C27" s="501"/>
-      <c r="D27" s="501"/>
-      <c r="E27" s="506"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="501"/>
-      <c r="B28" s="503"/>
-      <c r="C28" s="501"/>
-      <c r="D28" s="501"/>
-      <c r="E28" s="506"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="501"/>
-      <c r="B29" s="503"/>
-      <c r="C29" s="501"/>
-      <c r="D29" s="501"/>
-      <c r="E29" s="506"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="501"/>
-      <c r="B30" s="503"/>
-      <c r="C30" s="501"/>
-      <c r="D30" s="501"/>
-      <c r="E30" s="506"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="501"/>
-      <c r="B31" s="503"/>
-      <c r="C31" s="501"/>
-      <c r="D31" s="501"/>
-      <c r="E31" s="506"/>
-    </row>
-    <row r="32" spans="1:5" s="516" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="512" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="370"/>
+      <c r="B12" s="372"/>
+      <c r="C12" s="370"/>
+      <c r="D12" s="370"/>
+      <c r="E12" s="375"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="370"/>
+      <c r="B13" s="372"/>
+      <c r="C13" s="370"/>
+      <c r="D13" s="370"/>
+      <c r="E13" s="375"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="370"/>
+      <c r="B14" s="372"/>
+      <c r="C14" s="370"/>
+      <c r="D14" s="370"/>
+      <c r="E14" s="375"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="370"/>
+      <c r="B15" s="372"/>
+      <c r="C15" s="370"/>
+      <c r="D15" s="370"/>
+      <c r="E15" s="375"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="370"/>
+      <c r="B16" s="372"/>
+      <c r="C16" s="370"/>
+      <c r="D16" s="370"/>
+      <c r="E16" s="375"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="370"/>
+      <c r="B17" s="372"/>
+      <c r="C17" s="370"/>
+      <c r="D17" s="370"/>
+      <c r="E17" s="375"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="370"/>
+      <c r="B18" s="372"/>
+      <c r="C18" s="370"/>
+      <c r="D18" s="370"/>
+      <c r="E18" s="375"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="370"/>
+      <c r="B19" s="372"/>
+      <c r="C19" s="370"/>
+      <c r="D19" s="370"/>
+      <c r="E19" s="375"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="370"/>
+      <c r="B20" s="372"/>
+      <c r="C20" s="370"/>
+      <c r="D20" s="370"/>
+      <c r="E20" s="375"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="370"/>
+      <c r="B21" s="372"/>
+      <c r="C21" s="370"/>
+      <c r="D21" s="370"/>
+      <c r="E21" s="375"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="370"/>
+      <c r="B22" s="372"/>
+      <c r="C22" s="370"/>
+      <c r="D22" s="370"/>
+      <c r="E22" s="375"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="370"/>
+      <c r="B23" s="372"/>
+      <c r="C23" s="370"/>
+      <c r="D23" s="370"/>
+      <c r="E23" s="375"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="370"/>
+      <c r="B24" s="372"/>
+      <c r="C24" s="370"/>
+      <c r="D24" s="370"/>
+      <c r="E24" s="375"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="370"/>
+      <c r="B25" s="372"/>
+      <c r="C25" s="370"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="375"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="370"/>
+      <c r="B26" s="372"/>
+      <c r="C26" s="370"/>
+      <c r="D26" s="370"/>
+      <c r="E26" s="375"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="370"/>
+      <c r="B27" s="372"/>
+      <c r="C27" s="370"/>
+      <c r="D27" s="370"/>
+      <c r="E27" s="375"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="370"/>
+      <c r="B28" s="372"/>
+      <c r="C28" s="370"/>
+      <c r="D28" s="370"/>
+      <c r="E28" s="375"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="370"/>
+      <c r="B29" s="372"/>
+      <c r="C29" s="370"/>
+      <c r="D29" s="370"/>
+      <c r="E29" s="375"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="370"/>
+      <c r="B30" s="372"/>
+      <c r="C30" s="370"/>
+      <c r="D30" s="370"/>
+      <c r="E30" s="375"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="370"/>
+      <c r="B31" s="372"/>
+      <c r="C31" s="370"/>
+      <c r="D31" s="370"/>
+      <c r="E31" s="375"/>
+    </row>
+    <row r="32" spans="1:5" s="382" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="543" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="513"/>
-      <c r="C32" s="513"/>
-      <c r="D32" s="514"/>
-      <c r="E32" s="515">
+      <c r="B32" s="544"/>
+      <c r="C32" s="544"/>
+      <c r="D32" s="545"/>
+      <c r="E32" s="381">
         <f>SUM(E6:E31)</f>
         <v>60000</v>
       </c>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
     <sheet name="DOANH THU" sheetId="9" r:id="rId2"/>
-    <sheet name="BÁO CÁO" sheetId="3" r:id="rId3"/>
-    <sheet name="Tiền hàng Tâm" sheetId="4" r:id="rId4"/>
-    <sheet name="bảng chấm công" sheetId="10" r:id="rId5"/>
-    <sheet name="Bảng lương" sheetId="5" r:id="rId6"/>
-    <sheet name="Hàng khách trả" sheetId="8" r:id="rId7"/>
+    <sheet name="Hàng khách trả" sheetId="8" r:id="rId3"/>
+    <sheet name="BÁO CÁO" sheetId="3" r:id="rId4"/>
+    <sheet name="Tiền hàng Tâm" sheetId="4" r:id="rId5"/>
+    <sheet name="bảng chấm công" sheetId="10" r:id="rId6"/>
+    <sheet name="Bảng lương" sheetId="5" r:id="rId7"/>
     <sheet name="Hỗ trợ vận chuyển" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="191">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -444,12 +444,6 @@
     <t>2CX45</t>
   </si>
   <si>
-    <t>Đại Lý Quỳnh Trang</t>
-  </si>
-  <si>
-    <t>BCX90</t>
-  </si>
-  <si>
     <t>TĐ90</t>
   </si>
   <si>
@@ -564,9 +558,6 @@
     <t>Nguyệt Bắc Giang</t>
   </si>
   <si>
-    <t>Chị Phú Dịch Vọng</t>
-  </si>
-  <si>
     <t>Anh Hoàng</t>
   </si>
   <si>
@@ -574,6 +565,39 @@
   </si>
   <si>
     <t>A-B+C-D-E+F</t>
+  </si>
+  <si>
+    <t>Anh Đạt</t>
+  </si>
+  <si>
+    <t>E Huệ Điện Biên</t>
+  </si>
+  <si>
+    <t>Quỳnh Anh Trần Khát Chân</t>
+  </si>
+  <si>
+    <t>A.Lâm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E Nguyệt </t>
+  </si>
+  <si>
+    <t>Bắc Giang</t>
+  </si>
+  <si>
+    <t>A Lâm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chị Phú </t>
+  </si>
+  <si>
+    <t>DVH</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>1CX</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1316,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="546">
+  <cellXfs count="543">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2427,26 +2451,44 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2454,18 +2496,30 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="27" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2487,50 +2541,11 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2541,12 +2556,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2556,51 +2598,33 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2637,13 +2661,16 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2673,17 +2700,59 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2739,24 +2808,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2765,42 +2816,6 @@
     </xf>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4008,9 +4023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4036,13 +4051,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="421" t="s">
+      <c r="A1" s="435" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
       <c r="H1" s="153"/>
       <c r="I1" s="153"/>
       <c r="J1" s="153"/>
@@ -4072,112 +4087,112 @@
       <c r="P2" s="153"/>
     </row>
     <row r="3" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="435" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="421"/>
-      <c r="C3" s="421"/>
-      <c r="D3" s="421"/>
-      <c r="E3" s="421"/>
-      <c r="F3" s="421"/>
-      <c r="G3" s="421"/>
-      <c r="H3" s="421"/>
-      <c r="I3" s="421"/>
-      <c r="J3" s="421"/>
-      <c r="K3" s="421"/>
-      <c r="L3" s="421"/>
-      <c r="M3" s="421"/>
-      <c r="N3" s="421"/>
-      <c r="O3" s="421"/>
-      <c r="P3" s="421"/>
-      <c r="Q3" s="421"/>
+      <c r="B3" s="435"/>
+      <c r="C3" s="435"/>
+      <c r="D3" s="435"/>
+      <c r="E3" s="435"/>
+      <c r="F3" s="435"/>
+      <c r="G3" s="435"/>
+      <c r="H3" s="435"/>
+      <c r="I3" s="435"/>
+      <c r="J3" s="435"/>
+      <c r="K3" s="435"/>
+      <c r="L3" s="435"/>
+      <c r="M3" s="435"/>
+      <c r="N3" s="435"/>
+      <c r="O3" s="435"/>
+      <c r="P3" s="435"/>
+      <c r="Q3" s="435"/>
     </row>
     <row r="4" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="421" t="s">
+      <c r="A4" s="435" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="421"/>
-      <c r="C4" s="421"/>
-      <c r="D4" s="421"/>
-      <c r="E4" s="421"/>
-      <c r="F4" s="421"/>
-      <c r="G4" s="421"/>
-      <c r="H4" s="421"/>
-      <c r="I4" s="421"/>
-      <c r="J4" s="421"/>
-      <c r="K4" s="421"/>
-      <c r="L4" s="421"/>
-      <c r="M4" s="421"/>
-      <c r="N4" s="421"/>
-      <c r="O4" s="421"/>
-      <c r="P4" s="421"/>
-      <c r="Q4" s="421"/>
+      <c r="B4" s="435"/>
+      <c r="C4" s="435"/>
+      <c r="D4" s="435"/>
+      <c r="E4" s="435"/>
+      <c r="F4" s="435"/>
+      <c r="G4" s="435"/>
+      <c r="H4" s="435"/>
+      <c r="I4" s="435"/>
+      <c r="J4" s="435"/>
+      <c r="K4" s="435"/>
+      <c r="L4" s="435"/>
+      <c r="M4" s="435"/>
+      <c r="N4" s="435"/>
+      <c r="O4" s="435"/>
+      <c r="P4" s="435"/>
+      <c r="Q4" s="435"/>
     </row>
     <row r="5" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="421"/>
-      <c r="B5" s="421"/>
-      <c r="C5" s="421"/>
-      <c r="D5" s="421"/>
-      <c r="E5" s="421"/>
-      <c r="F5" s="421"/>
-      <c r="G5" s="421"/>
-      <c r="H5" s="421"/>
-      <c r="I5" s="421"/>
-      <c r="J5" s="421"/>
-      <c r="K5" s="422"/>
-      <c r="L5" s="422"/>
+      <c r="A5" s="435"/>
+      <c r="B5" s="435"/>
+      <c r="C5" s="435"/>
+      <c r="D5" s="435"/>
+      <c r="E5" s="435"/>
+      <c r="F5" s="435"/>
+      <c r="G5" s="435"/>
+      <c r="H5" s="435"/>
+      <c r="I5" s="435"/>
+      <c r="J5" s="435"/>
+      <c r="K5" s="436"/>
+      <c r="L5" s="436"/>
       <c r="M5" s="159"/>
       <c r="N5" s="153"/>
       <c r="O5" s="153"/>
       <c r="P5" s="153"/>
     </row>
     <row r="6" spans="1:18" s="160" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="423" t="s">
+      <c r="A6" s="429" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="437" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="429" t="s">
+      <c r="C6" s="439" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="431" t="s">
+      <c r="D6" s="441" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="431"/>
-      <c r="F6" s="432" t="s">
+      <c r="E6" s="441"/>
+      <c r="F6" s="442" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="432"/>
-      <c r="H6" s="432"/>
-      <c r="I6" s="432"/>
-      <c r="J6" s="432"/>
-      <c r="K6" s="432"/>
-      <c r="L6" s="432"/>
-      <c r="M6" s="436" t="s">
+      <c r="G6" s="442"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="442"/>
+      <c r="J6" s="442"/>
+      <c r="K6" s="442"/>
+      <c r="L6" s="442"/>
+      <c r="M6" s="431" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="433"/>
-      <c r="O6" s="433"/>
-      <c r="P6" s="433"/>
-      <c r="Q6" s="434" t="s">
+      <c r="N6" s="443"/>
+      <c r="O6" s="443"/>
+      <c r="P6" s="443"/>
+      <c r="Q6" s="444" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="160" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="424"/>
-      <c r="B7" s="426"/>
-      <c r="C7" s="430"/>
-      <c r="D7" s="423" t="s">
+      <c r="A7" s="430"/>
+      <c r="B7" s="438"/>
+      <c r="C7" s="440"/>
+      <c r="D7" s="429" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="423" t="s">
+      <c r="E7" s="429" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="423" t="s">
+      <c r="F7" s="429" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="423" t="s">
+      <c r="G7" s="429" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="427" t="s">
@@ -4186,14 +4201,14 @@
       <c r="I7" s="427" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="439" t="s">
+      <c r="J7" s="434" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="439"/>
+      <c r="K7" s="434"/>
       <c r="L7" s="427" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="437"/>
+      <c r="M7" s="432"/>
       <c r="N7" s="427" t="s">
         <v>46</v>
       </c>
@@ -4203,16 +4218,16 @@
       <c r="P7" s="427" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="435"/>
+      <c r="Q7" s="445"/>
     </row>
     <row r="8" spans="1:18" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="424"/>
-      <c r="B8" s="426"/>
-      <c r="C8" s="430"/>
-      <c r="D8" s="424"/>
-      <c r="E8" s="424"/>
-      <c r="F8" s="424"/>
-      <c r="G8" s="424"/>
+      <c r="A8" s="430"/>
+      <c r="B8" s="438"/>
+      <c r="C8" s="440"/>
+      <c r="D8" s="430"/>
+      <c r="E8" s="430"/>
+      <c r="F8" s="430"/>
+      <c r="G8" s="430"/>
       <c r="H8" s="428"/>
       <c r="I8" s="428"/>
       <c r="J8" s="161" t="s">
@@ -4222,11 +4237,11 @@
         <v>49</v>
       </c>
       <c r="L8" s="428"/>
-      <c r="M8" s="438"/>
+      <c r="M8" s="433"/>
       <c r="N8" s="428"/>
       <c r="O8" s="428"/>
       <c r="P8" s="428"/>
-      <c r="Q8" s="435"/>
+      <c r="Q8" s="445"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="163">
@@ -4269,7 +4284,7 @@
       <c r="N9" s="165"/>
       <c r="O9" s="165"/>
       <c r="P9" s="165">
-        <f t="shared" ref="P9:P16" si="0">L9</f>
+        <f t="shared" ref="P9:P15" si="0">L9</f>
         <v>560500.00000000012</v>
       </c>
       <c r="Q9" s="163"/>
@@ -4370,10 +4385,10 @@
       <c r="A12" s="415">
         <v>557</v>
       </c>
-      <c r="B12" s="418">
+      <c r="B12" s="417">
         <v>43981</v>
       </c>
-      <c r="C12" s="444" t="s">
+      <c r="C12" s="421" t="s">
         <v>129</v>
       </c>
       <c r="D12" s="415" t="s">
@@ -4392,7 +4407,7 @@
         <v>225000</v>
       </c>
       <c r="I12" s="165">
-        <f t="shared" ref="I12:I32" si="1">G12*H12</f>
+        <f t="shared" ref="I12:I39" si="1">G12*H12</f>
         <v>450000</v>
       </c>
       <c r="J12" s="165"/>
@@ -4400,7 +4415,7 @@
         <v>0.41</v>
       </c>
       <c r="L12" s="165">
-        <f t="shared" ref="L12:L38" si="2">I12*(1-K12)</f>
+        <f t="shared" ref="L12:L39" si="2">I12*(1-K12)</f>
         <v>265500.00000000006</v>
       </c>
       <c r="M12" s="165"/>
@@ -4412,16 +4427,16 @@
       </c>
       <c r="Q12" s="163"/>
       <c r="R12" s="171">
-        <f>2100000-(P12+P13+P15+L31)</f>
+        <f>2100000-(P12+P13+P14+L30)</f>
         <v>834449.99999999977</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="417"/>
-      <c r="B13" s="420"/>
-      <c r="C13" s="445"/>
-      <c r="D13" s="417"/>
-      <c r="E13" s="417"/>
+      <c r="A13" s="416"/>
+      <c r="B13" s="418"/>
+      <c r="C13" s="422"/>
+      <c r="D13" s="416"/>
+      <c r="E13" s="416"/>
       <c r="F13" s="163" t="s">
         <v>138</v>
       </c>
@@ -4454,72 +4469,78 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="163">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B14" s="342">
-        <v>43981</v>
-      </c>
-      <c r="C14" s="446" t="s">
+        <v>43982</v>
+      </c>
+      <c r="C14" s="347" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="343" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="343" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="447"/>
-      <c r="E14" s="448"/>
-      <c r="F14" s="163" t="s">
-        <v>140</v>
-      </c>
       <c r="G14" s="163">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H14" s="163">
-        <v>485000</v>
+        <v>455000</v>
       </c>
       <c r="I14" s="165">
         <f t="shared" si="1"/>
-        <v>5820000</v>
+        <v>910000</v>
       </c>
       <c r="J14" s="169"/>
-      <c r="K14" s="166"/>
+      <c r="K14" s="166">
+        <v>0.41</v>
+      </c>
       <c r="L14" s="165">
         <f t="shared" si="2"/>
-        <v>5820000</v>
+        <v>536900.00000000012</v>
       </c>
       <c r="M14" s="165"/>
       <c r="N14" s="169"/>
       <c r="O14" s="165"/>
       <c r="P14" s="165">
         <f t="shared" si="0"/>
-        <v>5820000</v>
+        <v>536900.00000000012</v>
       </c>
       <c r="Q14" s="168"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="163">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B15" s="342">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="C15" s="347" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D15" s="343" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E15" s="343" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F15" s="163" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G15" s="163">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H15" s="163">
         <v>455000</v>
       </c>
       <c r="I15" s="165">
         <f t="shared" si="1"/>
-        <v>910000</v>
+        <v>5460000</v>
       </c>
       <c r="J15" s="169"/>
       <c r="K15" s="166">
@@ -4527,45 +4548,45 @@
       </c>
       <c r="L15" s="165">
         <f t="shared" si="2"/>
-        <v>536900.00000000012</v>
+        <v>3221400.0000000005</v>
       </c>
       <c r="M15" s="165"/>
       <c r="N15" s="169"/>
       <c r="O15" s="165"/>
       <c r="P15" s="165">
         <f t="shared" si="0"/>
-        <v>536900.00000000012</v>
+        <v>3221400.0000000005</v>
       </c>
       <c r="Q15" s="168"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="163">
-        <v>560</v>
-      </c>
-      <c r="B16" s="342">
-        <v>43983</v>
-      </c>
-      <c r="C16" s="347" t="s">
+      <c r="A16" s="415">
+        <v>563</v>
+      </c>
+      <c r="B16" s="417">
+        <v>43986</v>
+      </c>
+      <c r="C16" s="421" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="343" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="343" t="s">
-        <v>143</v>
+      <c r="D16" s="419" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="419" t="s">
+        <v>146</v>
       </c>
       <c r="F16" s="163" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G16" s="163">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H16" s="163">
-        <v>455000</v>
+        <v>550000</v>
       </c>
       <c r="I16" s="165">
         <f t="shared" si="1"/>
-        <v>5460000</v>
+        <v>550000</v>
       </c>
       <c r="J16" s="169"/>
       <c r="K16" s="166">
@@ -4573,45 +4594,35 @@
       </c>
       <c r="L16" s="165">
         <f t="shared" si="2"/>
-        <v>3221400.0000000005</v>
+        <v>324500.00000000006</v>
       </c>
       <c r="M16" s="165"/>
       <c r="N16" s="169"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165">
-        <f t="shared" si="0"/>
-        <v>3221400.0000000005</v>
-      </c>
+      <c r="O16" s="165">
+        <f>L16</f>
+        <v>324500.00000000006</v>
+      </c>
+      <c r="P16" s="165"/>
       <c r="Q16" s="168"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="415">
-        <v>563</v>
-      </c>
-      <c r="B17" s="418">
-        <v>43986</v>
-      </c>
-      <c r="C17" s="444" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="449" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="449" t="s">
-        <v>148</v>
-      </c>
+      <c r="A17" s="416"/>
+      <c r="B17" s="418"/>
+      <c r="C17" s="422"/>
+      <c r="D17" s="420"/>
+      <c r="E17" s="420"/>
       <c r="F17" s="163" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G17" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="163">
-        <v>550000</v>
+        <v>455000</v>
       </c>
       <c r="I17" s="165">
         <f t="shared" si="1"/>
-        <v>550000</v>
+        <v>910000</v>
       </c>
       <c r="J17" s="169"/>
       <c r="K17" s="166">
@@ -4619,35 +4630,45 @@
       </c>
       <c r="L17" s="165">
         <f t="shared" si="2"/>
-        <v>324500.00000000006</v>
+        <v>536900.00000000012</v>
       </c>
       <c r="M17" s="165"/>
       <c r="N17" s="169"/>
       <c r="O17" s="165">
         <f>L17</f>
-        <v>324500.00000000006</v>
+        <v>536900.00000000012</v>
       </c>
       <c r="P17" s="165"/>
       <c r="Q17" s="168"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="417"/>
-      <c r="B18" s="420"/>
-      <c r="C18" s="445"/>
-      <c r="D18" s="450"/>
-      <c r="E18" s="450"/>
+      <c r="A18" s="163">
+        <v>564</v>
+      </c>
+      <c r="B18" s="342">
+        <v>43986</v>
+      </c>
+      <c r="C18" s="347" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="343" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="343" t="s">
+        <v>149</v>
+      </c>
       <c r="F18" s="163" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G18" s="163">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H18" s="163">
-        <v>455000</v>
+        <v>475000</v>
       </c>
       <c r="I18" s="165">
         <f t="shared" si="1"/>
-        <v>910000</v>
+        <v>5700000</v>
       </c>
       <c r="J18" s="169"/>
       <c r="K18" s="166">
@@ -4655,45 +4676,43 @@
       </c>
       <c r="L18" s="165">
         <f t="shared" si="2"/>
-        <v>536900.00000000012</v>
+        <v>3363000.0000000005</v>
       </c>
       <c r="M18" s="165"/>
       <c r="N18" s="169"/>
-      <c r="O18" s="165">
+      <c r="O18" s="165"/>
+      <c r="P18" s="165">
         <f>L18</f>
-        <v>536900.00000000012</v>
-      </c>
-      <c r="P18" s="165"/>
+        <v>3363000.0000000005</v>
+      </c>
       <c r="Q18" s="168"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="163">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B19" s="342">
-        <v>43986</v>
-      </c>
-      <c r="C19" s="347" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="343" t="s">
+        <v>43990</v>
+      </c>
+      <c r="C19" s="347"/>
+      <c r="D19" s="341" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="341" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="163" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="343" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="163" t="s">
-        <v>132</v>
-      </c>
       <c r="G19" s="163">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H19" s="163">
-        <v>475000</v>
+        <v>455000</v>
       </c>
       <c r="I19" s="165">
         <f t="shared" si="1"/>
-        <v>5700000</v>
+        <v>10920000</v>
       </c>
       <c r="J19" s="169"/>
       <c r="K19" s="166">
@@ -4701,447 +4720,439 @@
       </c>
       <c r="L19" s="165">
         <f t="shared" si="2"/>
-        <v>3363000.0000000005</v>
+        <v>6442800.0000000009</v>
       </c>
       <c r="M19" s="165"/>
       <c r="N19" s="169"/>
       <c r="O19" s="165"/>
       <c r="P19" s="165">
         <f>L19</f>
-        <v>3363000.0000000005</v>
+        <v>6442800.0000000009</v>
       </c>
       <c r="Q19" s="168"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="163">
-        <v>566</v>
-      </c>
-      <c r="B20" s="342">
+      <c r="A20" s="415">
+        <v>567</v>
+      </c>
+      <c r="B20" s="417">
         <v>43990</v>
       </c>
-      <c r="C20" s="347"/>
-      <c r="D20" s="341" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="341" t="s">
-        <v>135</v>
+      <c r="C20" s="415"/>
+      <c r="D20" s="419" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="419" t="s">
+        <v>152</v>
       </c>
       <c r="F20" s="163" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G20" s="163">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H20" s="163">
         <v>455000</v>
       </c>
       <c r="I20" s="165">
         <f t="shared" si="1"/>
-        <v>10920000</v>
-      </c>
-      <c r="J20" s="169"/>
+        <v>4095000</v>
+      </c>
+      <c r="J20" s="165"/>
       <c r="K20" s="166">
         <v>0.41</v>
       </c>
       <c r="L20" s="165">
         <f t="shared" si="2"/>
-        <v>6442800.0000000009</v>
+        <v>2416050.0000000005</v>
       </c>
       <c r="M20" s="165"/>
-      <c r="N20" s="169"/>
+      <c r="N20" s="165"/>
       <c r="O20" s="165"/>
       <c r="P20" s="165">
         <f>L20</f>
-        <v>6442800.0000000009</v>
+        <v>2416050.0000000005</v>
       </c>
       <c r="Q20" s="168"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="415">
-        <v>567</v>
-      </c>
-      <c r="B21" s="418">
-        <v>43990</v>
-      </c>
-      <c r="C21" s="415"/>
-      <c r="D21" s="449" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="449" t="s">
-        <v>154</v>
-      </c>
+      <c r="A21" s="416"/>
+      <c r="B21" s="418"/>
+      <c r="C21" s="416"/>
+      <c r="D21" s="420"/>
+      <c r="E21" s="420"/>
       <c r="F21" s="163" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G21" s="163">
-        <v>9</v>
-      </c>
-      <c r="H21" s="163">
+        <v>3</v>
+      </c>
+      <c r="H21" s="165">
         <v>455000</v>
       </c>
       <c r="I21" s="165">
         <f t="shared" si="1"/>
-        <v>4095000</v>
-      </c>
-      <c r="J21" s="165"/>
+        <v>1365000</v>
+      </c>
+      <c r="J21" s="352"/>
       <c r="K21" s="166">
         <v>0.41</v>
       </c>
-      <c r="L21" s="165">
+      <c r="L21" s="353">
         <f t="shared" si="2"/>
-        <v>2416050.0000000005</v>
+        <v>805350.00000000012</v>
       </c>
       <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
+      <c r="N21" s="353"/>
       <c r="O21" s="165"/>
       <c r="P21" s="165">
         <f>L21</f>
-        <v>2416050.0000000005</v>
+        <v>805350.00000000012</v>
       </c>
       <c r="Q21" s="168"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="417"/>
-      <c r="B22" s="420"/>
-      <c r="C22" s="417"/>
-      <c r="D22" s="450"/>
-      <c r="E22" s="450"/>
+      <c r="A22" s="415">
+        <v>571</v>
+      </c>
+      <c r="B22" s="417">
+        <v>43990</v>
+      </c>
+      <c r="C22" s="415"/>
+      <c r="D22" s="415" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="415" t="s">
+        <v>154</v>
+      </c>
       <c r="F22" s="163" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G22" s="163">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="H22" s="165">
-        <v>455000</v>
+        <v>255000</v>
       </c>
       <c r="I22" s="165">
         <f t="shared" si="1"/>
-        <v>1365000</v>
+        <v>18360000</v>
       </c>
       <c r="J22" s="352"/>
-      <c r="K22" s="166">
-        <v>0.41</v>
-      </c>
+      <c r="K22" s="166"/>
       <c r="L22" s="353">
         <f t="shared" si="2"/>
-        <v>805350.00000000012</v>
+        <v>18360000</v>
       </c>
       <c r="M22" s="165"/>
       <c r="N22" s="353"/>
       <c r="O22" s="165"/>
       <c r="P22" s="165">
         <f>L22</f>
-        <v>805350.00000000012</v>
-      </c>
-      <c r="Q22" s="168"/>
+        <v>18360000</v>
+      </c>
+      <c r="Q22" s="163"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="415">
-        <v>571</v>
-      </c>
-      <c r="B23" s="418">
-        <v>43990</v>
-      </c>
-      <c r="C23" s="415"/>
-      <c r="D23" s="415" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="415" t="s">
-        <v>156</v>
-      </c>
+      <c r="A23" s="446"/>
+      <c r="B23" s="447"/>
+      <c r="C23" s="446"/>
+      <c r="D23" s="446"/>
+      <c r="E23" s="446"/>
       <c r="F23" s="163" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G23" s="163">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="H23" s="165">
-        <v>255000</v>
+        <v>455000</v>
       </c>
       <c r="I23" s="165">
         <f t="shared" si="1"/>
-        <v>18360000</v>
+        <v>16380000</v>
       </c>
       <c r="J23" s="352"/>
       <c r="K23" s="166"/>
       <c r="L23" s="353">
         <f t="shared" si="2"/>
-        <v>18360000</v>
+        <v>16380000</v>
       </c>
       <c r="M23" s="165"/>
       <c r="N23" s="353"/>
       <c r="O23" s="165"/>
       <c r="P23" s="165">
-        <f>L23</f>
-        <v>18360000</v>
+        <f t="shared" ref="P23:P29" si="3">L23</f>
+        <v>16380000</v>
       </c>
       <c r="Q23" s="163"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="416"/>
-      <c r="B24" s="419"/>
-      <c r="C24" s="416"/>
-      <c r="D24" s="416"/>
-      <c r="E24" s="416"/>
+      <c r="A24" s="446"/>
+      <c r="B24" s="447"/>
+      <c r="C24" s="446"/>
+      <c r="D24" s="446"/>
+      <c r="E24" s="446"/>
       <c r="F24" s="163" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G24" s="163">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H24" s="165">
-        <v>455000</v>
+        <v>465000</v>
       </c>
       <c r="I24" s="165">
         <f t="shared" si="1"/>
-        <v>16380000</v>
+        <v>39060000</v>
       </c>
       <c r="J24" s="352"/>
       <c r="K24" s="166"/>
       <c r="L24" s="353">
         <f t="shared" si="2"/>
-        <v>16380000</v>
+        <v>39060000</v>
       </c>
       <c r="M24" s="165"/>
-      <c r="N24" s="353"/>
+      <c r="N24" s="165"/>
       <c r="O24" s="165"/>
       <c r="P24" s="165">
-        <f t="shared" ref="P24:P30" si="3">L24</f>
-        <v>16380000</v>
+        <f t="shared" si="3"/>
+        <v>39060000</v>
       </c>
       <c r="Q24" s="163"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="416"/>
-      <c r="B25" s="419"/>
-      <c r="C25" s="416"/>
-      <c r="D25" s="416"/>
-      <c r="E25" s="416"/>
+      <c r="A25" s="446"/>
+      <c r="B25" s="447"/>
+      <c r="C25" s="446"/>
+      <c r="D25" s="446"/>
+      <c r="E25" s="446"/>
       <c r="F25" s="163" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="G25" s="163">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="H25" s="165">
-        <v>465000</v>
+        <v>475000</v>
       </c>
       <c r="I25" s="165">
         <f t="shared" si="1"/>
-        <v>39060000</v>
+        <v>5700000</v>
       </c>
       <c r="J25" s="352"/>
       <c r="K25" s="166"/>
       <c r="L25" s="353">
         <f t="shared" si="2"/>
-        <v>39060000</v>
+        <v>5700000</v>
       </c>
       <c r="M25" s="165"/>
       <c r="N25" s="165"/>
       <c r="O25" s="165"/>
       <c r="P25" s="165">
         <f t="shared" si="3"/>
-        <v>39060000</v>
+        <v>5700000</v>
       </c>
       <c r="Q25" s="163"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="416"/>
-      <c r="B26" s="419"/>
-      <c r="C26" s="416"/>
-      <c r="D26" s="416"/>
-      <c r="E26" s="416"/>
-      <c r="F26" s="163" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="163">
-        <v>12</v>
-      </c>
-      <c r="H26" s="165">
-        <v>475000</v>
-      </c>
-      <c r="I26" s="165">
+      <c r="A26" s="446"/>
+      <c r="B26" s="447"/>
+      <c r="C26" s="446"/>
+      <c r="D26" s="446"/>
+      <c r="E26" s="446"/>
+      <c r="F26" s="344" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="344">
+        <v>60</v>
+      </c>
+      <c r="H26" s="209">
+        <v>485000</v>
+      </c>
+      <c r="I26" s="209">
         <f t="shared" si="1"/>
-        <v>5700000</v>
-      </c>
-      <c r="J26" s="352"/>
-      <c r="K26" s="166"/>
+        <v>29100000</v>
+      </c>
+      <c r="J26" s="333"/>
+      <c r="K26" s="260"/>
       <c r="L26" s="353">
         <f t="shared" si="2"/>
-        <v>5700000</v>
-      </c>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
+        <v>29100000</v>
+      </c>
+      <c r="M26" s="209"/>
+      <c r="N26" s="209"/>
+      <c r="O26" s="209"/>
       <c r="P26" s="165">
         <f t="shared" si="3"/>
-        <v>5700000</v>
+        <v>29100000</v>
       </c>
       <c r="Q26" s="163"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="416"/>
-      <c r="B27" s="419"/>
-      <c r="C27" s="416"/>
-      <c r="D27" s="416"/>
-      <c r="E27" s="416"/>
-      <c r="F27" s="344" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="344">
-        <v>60</v>
-      </c>
-      <c r="H27" s="209">
-        <v>485000</v>
-      </c>
-      <c r="I27" s="209">
+      <c r="A27" s="446"/>
+      <c r="B27" s="447"/>
+      <c r="C27" s="446"/>
+      <c r="D27" s="446"/>
+      <c r="E27" s="446"/>
+      <c r="F27" s="163" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="163">
+        <v>24</v>
+      </c>
+      <c r="H27" s="165">
+        <v>550000</v>
+      </c>
+      <c r="I27" s="165">
         <f t="shared" si="1"/>
-        <v>29100000</v>
-      </c>
-      <c r="J27" s="333"/>
-      <c r="K27" s="260"/>
+        <v>13200000</v>
+      </c>
+      <c r="J27" s="170"/>
+      <c r="K27" s="166"/>
       <c r="L27" s="353">
         <f t="shared" si="2"/>
-        <v>29100000</v>
-      </c>
-      <c r="M27" s="209"/>
-      <c r="N27" s="209"/>
-      <c r="O27" s="209"/>
+        <v>13200000</v>
+      </c>
+      <c r="M27" s="165"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
       <c r="P27" s="165">
         <f t="shared" si="3"/>
-        <v>29100000</v>
+        <v>13200000</v>
       </c>
       <c r="Q27" s="163"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="416"/>
-      <c r="B28" s="419"/>
-      <c r="C28" s="416"/>
-      <c r="D28" s="416"/>
-      <c r="E28" s="416"/>
+      <c r="A28" s="446"/>
+      <c r="B28" s="447"/>
+      <c r="C28" s="446"/>
+      <c r="D28" s="446"/>
+      <c r="E28" s="446"/>
       <c r="F28" s="163" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G28" s="163">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H28" s="165">
-        <v>550000</v>
+        <v>455000</v>
       </c>
       <c r="I28" s="165">
         <f t="shared" si="1"/>
-        <v>13200000</v>
-      </c>
-      <c r="J28" s="170"/>
+        <v>21840000</v>
+      </c>
+      <c r="J28" s="165"/>
       <c r="K28" s="166"/>
       <c r="L28" s="353">
         <f t="shared" si="2"/>
-        <v>13200000</v>
+        <v>21840000</v>
       </c>
       <c r="M28" s="165"/>
       <c r="N28" s="165"/>
       <c r="O28" s="165"/>
       <c r="P28" s="165">
         <f t="shared" si="3"/>
-        <v>13200000</v>
-      </c>
-      <c r="Q28" s="163"/>
+        <v>21840000</v>
+      </c>
+      <c r="Q28" s="168"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="416"/>
-      <c r="B29" s="419"/>
+      <c r="B29" s="418"/>
       <c r="C29" s="416"/>
       <c r="D29" s="416"/>
       <c r="E29" s="416"/>
       <c r="F29" s="163" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G29" s="163">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H29" s="165">
         <v>455000</v>
       </c>
       <c r="I29" s="165">
         <f t="shared" si="1"/>
-        <v>21840000</v>
+        <v>5460000</v>
       </c>
       <c r="J29" s="165"/>
       <c r="K29" s="166"/>
       <c r="L29" s="353">
         <f t="shared" si="2"/>
-        <v>21840000</v>
+        <v>5460000</v>
       </c>
       <c r="M29" s="165"/>
       <c r="N29" s="165"/>
       <c r="O29" s="165"/>
       <c r="P29" s="165">
         <f t="shared" si="3"/>
-        <v>21840000</v>
-      </c>
-      <c r="Q29" s="168"/>
+        <v>5460000</v>
+      </c>
+      <c r="Q29" s="163"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="417"/>
-      <c r="B30" s="420"/>
-      <c r="C30" s="417"/>
-      <c r="D30" s="417"/>
-      <c r="E30" s="417"/>
+      <c r="A30" s="415">
+        <v>586</v>
+      </c>
+      <c r="B30" s="417">
+        <v>43991</v>
+      </c>
+      <c r="C30" s="415" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="415" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="419"/>
       <c r="F30" s="163" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G30" s="163">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H30" s="165">
-        <v>455000</v>
+        <v>550000</v>
       </c>
       <c r="I30" s="165">
         <f t="shared" si="1"/>
-        <v>5460000</v>
+        <v>550000</v>
       </c>
       <c r="J30" s="165"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="353">
+      <c r="K30" s="166">
+        <v>0.41</v>
+      </c>
+      <c r="L30" s="165">
         <f t="shared" si="2"/>
-        <v>5460000</v>
+        <v>324500.00000000006</v>
       </c>
       <c r="M30" s="165"/>
       <c r="N30" s="165"/>
       <c r="O30" s="165"/>
       <c r="P30" s="165">
-        <f t="shared" si="3"/>
-        <v>5460000</v>
+        <f>L30</f>
+        <v>324500.00000000006</v>
       </c>
       <c r="Q30" s="163"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="163">
-        <v>569</v>
-      </c>
-      <c r="B31" s="342">
-        <v>43991</v>
-      </c>
-      <c r="C31" s="347" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="341" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="343"/>
+      <c r="A31" s="416"/>
+      <c r="B31" s="418"/>
+      <c r="C31" s="416"/>
+      <c r="D31" s="416"/>
+      <c r="E31" s="420"/>
       <c r="F31" s="163" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G31" s="163">
         <v>1</v>
       </c>
       <c r="H31" s="165">
-        <v>550000</v>
+        <v>475000</v>
       </c>
       <c r="I31" s="165">
         <f t="shared" si="1"/>
-        <v>550000</v>
+        <v>475000</v>
       </c>
       <c r="J31" s="165"/>
       <c r="K31" s="166">
@@ -5149,14 +5160,14 @@
       </c>
       <c r="L31" s="165">
         <f t="shared" si="2"/>
-        <v>324500.00000000006</v>
+        <v>280250.00000000006</v>
       </c>
       <c r="M31" s="165"/>
       <c r="N31" s="165"/>
       <c r="O31" s="165"/>
       <c r="P31" s="165">
         <f>L31</f>
-        <v>324500.00000000006</v>
+        <v>280250.00000000006</v>
       </c>
       <c r="Q31" s="163"/>
     </row>
@@ -5175,7 +5186,7 @@
       </c>
       <c r="E32" s="341"/>
       <c r="F32" s="163" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G32" s="163">
         <v>1</v>
@@ -5205,20 +5216,39 @@
       <c r="Q32" s="163"/>
     </row>
     <row r="33" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="147"/>
-      <c r="B33" s="355"/>
-      <c r="C33" s="348"/>
-      <c r="D33" s="356"/>
+      <c r="A33" s="147">
+        <v>574</v>
+      </c>
+      <c r="B33" s="355">
+        <v>43993</v>
+      </c>
+      <c r="C33" s="348" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="356" t="s">
+        <v>131</v>
+      </c>
       <c r="E33" s="345"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
+      <c r="F33" s="147" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="147">
+        <v>2</v>
+      </c>
+      <c r="H33" s="148">
+        <v>455000</v>
+      </c>
+      <c r="I33" s="148">
+        <f t="shared" si="1"/>
+        <v>910000</v>
+      </c>
       <c r="J33" s="148"/>
-      <c r="K33" s="149"/>
+      <c r="K33" s="149">
+        <v>0.41</v>
+      </c>
       <c r="L33" s="165">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>536900.00000000012</v>
       </c>
       <c r="M33" s="148"/>
       <c r="N33" s="148"/>
@@ -5227,20 +5257,39 @@
       <c r="Q33" s="147"/>
     </row>
     <row r="34" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="147"/>
-      <c r="B34" s="355"/>
-      <c r="C34" s="348"/>
-      <c r="D34" s="356"/>
+      <c r="A34" s="147">
+        <v>575</v>
+      </c>
+      <c r="B34" s="355">
+        <v>43994</v>
+      </c>
+      <c r="C34" s="348" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="356" t="s">
+        <v>131</v>
+      </c>
       <c r="E34" s="345"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
+      <c r="F34" s="147" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="147">
+        <v>1</v>
+      </c>
+      <c r="H34" s="148">
+        <v>455000</v>
+      </c>
+      <c r="I34" s="148">
+        <f t="shared" si="1"/>
+        <v>455000</v>
+      </c>
       <c r="J34" s="148"/>
-      <c r="K34" s="149"/>
+      <c r="K34" s="149">
+        <v>0.41</v>
+      </c>
       <c r="L34" s="165">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>268450.00000000006</v>
       </c>
       <c r="M34" s="148"/>
       <c r="N34" s="148"/>
@@ -5249,20 +5298,41 @@
       <c r="Q34" s="147"/>
     </row>
     <row r="35" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="147"/>
-      <c r="B35" s="355"/>
-      <c r="C35" s="348"/>
-      <c r="D35" s="356"/>
-      <c r="E35" s="345"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
+      <c r="A35" s="147">
+        <v>576</v>
+      </c>
+      <c r="B35" s="355">
+        <v>43995</v>
+      </c>
+      <c r="C35" s="348" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="356" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="345" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="147" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="147">
+        <v>10</v>
+      </c>
+      <c r="H35" s="148">
+        <v>455000</v>
+      </c>
+      <c r="I35" s="148">
+        <f t="shared" si="1"/>
+        <v>4550000</v>
+      </c>
       <c r="J35" s="148"/>
-      <c r="K35" s="149"/>
+      <c r="K35" s="149">
+        <v>0.41</v>
+      </c>
       <c r="L35" s="165">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2684500.0000000005</v>
       </c>
       <c r="M35" s="148"/>
       <c r="N35" s="148"/>
@@ -5276,15 +5346,26 @@
       <c r="C36" s="348"/>
       <c r="D36" s="356"/>
       <c r="E36" s="345"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
+      <c r="F36" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="147">
+        <v>2</v>
+      </c>
+      <c r="H36" s="148">
+        <v>465000</v>
+      </c>
+      <c r="I36" s="148">
+        <f t="shared" si="1"/>
+        <v>930000</v>
+      </c>
       <c r="J36" s="148"/>
-      <c r="K36" s="149"/>
+      <c r="K36" s="149">
+        <v>0.41</v>
+      </c>
       <c r="L36" s="165">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>548700.00000000012</v>
       </c>
       <c r="M36" s="148"/>
       <c r="N36" s="148"/>
@@ -5298,15 +5379,26 @@
       <c r="C37" s="348"/>
       <c r="D37" s="356"/>
       <c r="E37" s="345"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
+      <c r="F37" s="147" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="147">
+        <v>5</v>
+      </c>
+      <c r="H37" s="148">
+        <v>550000</v>
+      </c>
+      <c r="I37" s="148">
+        <f t="shared" si="1"/>
+        <v>2750000</v>
+      </c>
       <c r="J37" s="148"/>
-      <c r="K37" s="149"/>
+      <c r="K37" s="149">
+        <v>0.41</v>
+      </c>
       <c r="L37" s="165">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1622500.0000000002</v>
       </c>
       <c r="M37" s="148"/>
       <c r="N37" s="148"/>
@@ -5315,40 +5407,86 @@
       <c r="Q37" s="147"/>
     </row>
     <row r="38" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="147"/>
-      <c r="B38" s="355"/>
-      <c r="C38" s="348"/>
-      <c r="D38" s="356"/>
-      <c r="E38" s="345"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
+      <c r="A38" s="147">
+        <v>577</v>
+      </c>
+      <c r="B38" s="355">
+        <v>43992</v>
+      </c>
+      <c r="C38" s="348" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="356" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="345" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="147" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="147">
+        <v>1</v>
+      </c>
+      <c r="H38" s="148">
+        <v>455000</v>
+      </c>
+      <c r="I38" s="148">
+        <f t="shared" si="1"/>
+        <v>455000</v>
+      </c>
       <c r="J38" s="148"/>
-      <c r="K38" s="149"/>
+      <c r="K38" s="149">
+        <v>0.35</v>
+      </c>
       <c r="L38" s="165">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>295750</v>
       </c>
       <c r="M38" s="148"/>
-      <c r="N38" s="148"/>
+      <c r="N38" s="148">
+        <f>L38</f>
+        <v>295750</v>
+      </c>
       <c r="O38" s="148"/>
       <c r="P38" s="148"/>
       <c r="Q38" s="147"/>
     </row>
     <row r="39" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="147"/>
-      <c r="B39" s="355"/>
-      <c r="C39" s="348"/>
-      <c r="D39" s="356"/>
+      <c r="A39" s="147">
+        <v>578</v>
+      </c>
+      <c r="B39" s="355">
+        <v>43994</v>
+      </c>
+      <c r="C39" s="348" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="356" t="s">
+        <v>131</v>
+      </c>
       <c r="E39" s="345"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
+      <c r="F39" s="147" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="147">
+        <v>1</v>
+      </c>
+      <c r="H39" s="148">
+        <v>455000</v>
+      </c>
+      <c r="I39" s="148">
+        <f t="shared" si="1"/>
+        <v>455000</v>
+      </c>
       <c r="J39" s="148"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="148"/>
+      <c r="K39" s="149">
+        <v>0.41</v>
+      </c>
+      <c r="L39" s="148">
+        <f t="shared" si="2"/>
+        <v>268450.00000000006</v>
+      </c>
       <c r="M39" s="148"/>
       <c r="N39" s="148"/>
       <c r="O39" s="148"/>
@@ -5356,12 +5494,24 @@
       <c r="Q39" s="147"/>
     </row>
     <row r="40" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="147"/>
-      <c r="B40" s="355"/>
-      <c r="C40" s="348"/>
-      <c r="D40" s="356"/>
-      <c r="E40" s="345"/>
-      <c r="F40" s="147"/>
+      <c r="A40" s="147">
+        <v>582</v>
+      </c>
+      <c r="B40" s="355">
+        <v>43995</v>
+      </c>
+      <c r="C40" s="348" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="356" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="345" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="147" t="s">
+        <v>190</v>
+      </c>
       <c r="G40" s="147"/>
       <c r="H40" s="148"/>
       <c r="I40" s="148"/>
@@ -6829,48 +6979,48 @@
       <c r="Q116" s="163"/>
     </row>
     <row r="117" spans="1:18" s="178" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A117" s="442" t="s">
+      <c r="A117" s="425" t="s">
         <v>80</v>
       </c>
-      <c r="B117" s="442"/>
-      <c r="C117" s="442"/>
-      <c r="D117" s="442"/>
-      <c r="E117" s="442"/>
-      <c r="F117" s="442"/>
+      <c r="B117" s="425"/>
+      <c r="C117" s="425"/>
+      <c r="D117" s="425"/>
+      <c r="E117" s="425"/>
+      <c r="F117" s="425"/>
       <c r="G117" s="172">
         <f>SUM(G9:G116)</f>
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="H117" s="173"/>
       <c r="I117" s="174">
         <f>SUM(I9:I116)</f>
-        <v>194390000</v>
+        <v>199550000</v>
       </c>
       <c r="J117" s="175"/>
       <c r="K117" s="176"/>
       <c r="L117" s="177">
         <f>SUM(L9:L116)</f>
-        <v>178107300</v>
+        <v>178792800</v>
       </c>
       <c r="M117" s="173"/>
       <c r="N117" s="173"/>
       <c r="O117" s="173"/>
       <c r="P117" s="173"/>
-      <c r="Q117" s="443"/>
-      <c r="R117" s="440"/>
+      <c r="Q117" s="426"/>
+      <c r="R117" s="423"/>
     </row>
     <row r="118" spans="1:18" s="178" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A118" s="441" t="s">
+      <c r="A118" s="424" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="441"/>
-      <c r="C118" s="441"/>
-      <c r="D118" s="441"/>
-      <c r="E118" s="441"/>
-      <c r="F118" s="441"/>
+      <c r="B118" s="424"/>
+      <c r="C118" s="424"/>
+      <c r="D118" s="424"/>
+      <c r="E118" s="424"/>
+      <c r="F118" s="424"/>
       <c r="G118" s="172">
         <f>G117</f>
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="H118" s="175"/>
       <c r="I118" s="174"/>
@@ -6878,24 +7028,24 @@
       <c r="K118" s="176"/>
       <c r="L118" s="177">
         <f>L117</f>
-        <v>178107300</v>
+        <v>178792800</v>
       </c>
       <c r="M118" s="175"/>
       <c r="N118" s="175"/>
       <c r="O118" s="175"/>
       <c r="P118" s="175"/>
-      <c r="Q118" s="443"/>
-      <c r="R118" s="440"/>
+      <c r="Q118" s="426"/>
+      <c r="R118" s="423"/>
     </row>
     <row r="119" spans="1:18" s="178" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A119" s="441" t="s">
+      <c r="A119" s="424" t="s">
         <v>81</v>
       </c>
-      <c r="B119" s="441"/>
-      <c r="C119" s="441"/>
-      <c r="D119" s="441"/>
-      <c r="E119" s="441"/>
-      <c r="F119" s="441"/>
+      <c r="B119" s="424"/>
+      <c r="C119" s="424"/>
+      <c r="D119" s="424"/>
+      <c r="E119" s="424"/>
+      <c r="F119" s="424"/>
       <c r="G119" s="179" t="s">
         <v>50</v>
       </c>
@@ -6905,7 +7055,7 @@
       <c r="K119" s="179"/>
       <c r="L119" s="177">
         <f>SUM(N9:N116)</f>
-        <v>0</v>
+        <v>295750</v>
       </c>
       <c r="M119" s="175"/>
       <c r="N119" s="175"/>
@@ -6913,14 +7063,14 @@
       <c r="P119" s="175"/>
     </row>
     <row r="120" spans="1:18" s="178" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A120" s="441" t="s">
+      <c r="A120" s="424" t="s">
         <v>82</v>
       </c>
-      <c r="B120" s="441"/>
-      <c r="C120" s="441"/>
-      <c r="D120" s="441"/>
-      <c r="E120" s="441"/>
-      <c r="F120" s="441"/>
+      <c r="B120" s="424"/>
+      <c r="C120" s="424"/>
+      <c r="D120" s="424"/>
+      <c r="E120" s="424"/>
+      <c r="F120" s="424"/>
       <c r="G120" s="179"/>
       <c r="H120" s="175"/>
       <c r="I120" s="173"/>
@@ -6936,14 +7086,14 @@
       <c r="P120" s="175"/>
     </row>
     <row r="121" spans="1:18" s="178" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A121" s="441" t="s">
+      <c r="A121" s="424" t="s">
         <v>83</v>
       </c>
-      <c r="B121" s="441"/>
-      <c r="C121" s="441"/>
-      <c r="D121" s="441"/>
-      <c r="E121" s="441"/>
-      <c r="F121" s="441"/>
+      <c r="B121" s="424"/>
+      <c r="C121" s="424"/>
+      <c r="D121" s="424"/>
+      <c r="E121" s="424"/>
+      <c r="F121" s="424"/>
       <c r="G121" s="179"/>
       <c r="H121" s="175"/>
       <c r="I121" s="173"/>
@@ -6951,7 +7101,7 @@
       <c r="K121" s="176"/>
       <c r="L121" s="177">
         <f>SUM(P9:P116)</f>
-        <v>177245900</v>
+        <v>171706150</v>
       </c>
       <c r="M121" s="175"/>
       <c r="N121" s="175"/>
@@ -7025,37 +7175,17 @@
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
   </autoFilter>
-  <mergeCells count="51">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="Q117:Q118"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+  <mergeCells count="55">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="C22:C29"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A4:Q4"/>
@@ -7072,11 +7202,35 @@
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="E23:E30"/>
-    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="Q117:Q118"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7084,6 +7238,729 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="307"/>
+    <col min="2" max="2" width="12" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="86"/>
+    <col min="4" max="4" width="12.7109375" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="86"/>
+    <col min="8" max="8" width="9.28515625" style="86" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14" style="86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="101"/>
+    <col min="12" max="12" width="17" style="129" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="86"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="517" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="517"/>
+      <c r="C1" s="517"/>
+      <c r="D1" s="517"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="518" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="518"/>
+      <c r="C2" s="518"/>
+      <c r="D2" s="518"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="520" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="520"/>
+      <c r="C3" s="520"/>
+      <c r="D3" s="520"/>
+      <c r="E3" s="520"/>
+      <c r="F3" s="520"/>
+      <c r="G3" s="520"/>
+      <c r="H3" s="520"/>
+      <c r="I3" s="520"/>
+      <c r="J3" s="520"/>
+      <c r="K3" s="520"/>
+      <c r="L3" s="520"/>
+      <c r="M3" s="520"/>
+      <c r="N3" s="520"/>
+      <c r="O3" s="520"/>
+      <c r="P3" s="520"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="521" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="521"/>
+      <c r="C4" s="521"/>
+      <c r="D4" s="521"/>
+      <c r="E4" s="521"/>
+      <c r="F4" s="521"/>
+      <c r="G4" s="521"/>
+      <c r="H4" s="521"/>
+      <c r="I4" s="521"/>
+      <c r="J4" s="521"/>
+      <c r="K4" s="522"/>
+      <c r="L4" s="521"/>
+      <c r="M4" s="521"/>
+      <c r="N4" s="521"/>
+      <c r="O4" s="521"/>
+      <c r="P4" s="521"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="523" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="525" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="527" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="527" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="527"/>
+      <c r="F5" s="527"/>
+      <c r="G5" s="529" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="529"/>
+      <c r="I5" s="529"/>
+      <c r="J5" s="529"/>
+      <c r="K5" s="530"/>
+      <c r="L5" s="531" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="529" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="529"/>
+      <c r="O5" s="529"/>
+      <c r="P5" s="533" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
+      <c r="A6" s="524"/>
+      <c r="B6" s="526"/>
+      <c r="C6" s="528"/>
+      <c r="D6" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="290" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="292" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="532"/>
+      <c r="M6" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="534"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="306">
+        <v>562</v>
+      </c>
+      <c r="B7" s="144">
+        <v>43983</v>
+      </c>
+      <c r="C7" s="141" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="141">
+        <v>37</v>
+      </c>
+      <c r="I7" s="145">
+        <v>450000</v>
+      </c>
+      <c r="J7" s="145">
+        <f>H7*I7</f>
+        <v>16650000</v>
+      </c>
+      <c r="K7" s="143">
+        <v>0.35</v>
+      </c>
+      <c r="L7" s="142">
+        <f>J7*(1-K7)</f>
+        <v>10822500</v>
+      </c>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="146"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="141"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="280"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="281"/>
+      <c r="J8" s="281"/>
+      <c r="K8" s="282"/>
+      <c r="L8" s="283"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="280"/>
+      <c r="O8" s="280"/>
+      <c r="P8" s="284"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="285"/>
+      <c r="H9" s="285"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="287"/>
+      <c r="L9" s="288"/>
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="289"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="306"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="146"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="306"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="146"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="502"/>
+      <c r="B12" s="535"/>
+      <c r="C12" s="511"/>
+      <c r="D12" s="508"/>
+      <c r="E12" s="511"/>
+      <c r="F12" s="511"/>
+      <c r="G12" s="275"/>
+      <c r="H12" s="275"/>
+      <c r="I12" s="276"/>
+      <c r="J12" s="276"/>
+      <c r="K12" s="277"/>
+      <c r="L12" s="278"/>
+      <c r="M12" s="275"/>
+      <c r="N12" s="275"/>
+      <c r="O12" s="275"/>
+      <c r="P12" s="279"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="503"/>
+      <c r="B13" s="536"/>
+      <c r="C13" s="512"/>
+      <c r="D13" s="509"/>
+      <c r="E13" s="512"/>
+      <c r="F13" s="512"/>
+      <c r="G13" s="280"/>
+      <c r="H13" s="280"/>
+      <c r="I13" s="281"/>
+      <c r="J13" s="281"/>
+      <c r="K13" s="282"/>
+      <c r="L13" s="283"/>
+      <c r="M13" s="280"/>
+      <c r="N13" s="280"/>
+      <c r="O13" s="280"/>
+      <c r="P13" s="284"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="503"/>
+      <c r="B14" s="536"/>
+      <c r="C14" s="512"/>
+      <c r="D14" s="509"/>
+      <c r="E14" s="512"/>
+      <c r="F14" s="512"/>
+      <c r="G14" s="280"/>
+      <c r="H14" s="280"/>
+      <c r="I14" s="281"/>
+      <c r="J14" s="281"/>
+      <c r="K14" s="282"/>
+      <c r="L14" s="283"/>
+      <c r="M14" s="280"/>
+      <c r="N14" s="280"/>
+      <c r="O14" s="280"/>
+      <c r="P14" s="284"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="503"/>
+      <c r="B15" s="536"/>
+      <c r="C15" s="512"/>
+      <c r="D15" s="509"/>
+      <c r="E15" s="512"/>
+      <c r="F15" s="512"/>
+      <c r="G15" s="280"/>
+      <c r="H15" s="280"/>
+      <c r="I15" s="281"/>
+      <c r="J15" s="281"/>
+      <c r="K15" s="282"/>
+      <c r="L15" s="283"/>
+      <c r="M15" s="280"/>
+      <c r="N15" s="280"/>
+      <c r="O15" s="280"/>
+      <c r="P15" s="284"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="503"/>
+      <c r="B16" s="536"/>
+      <c r="C16" s="512"/>
+      <c r="D16" s="509"/>
+      <c r="E16" s="512"/>
+      <c r="F16" s="512"/>
+      <c r="G16" s="280"/>
+      <c r="H16" s="280"/>
+      <c r="I16" s="281"/>
+      <c r="J16" s="281"/>
+      <c r="K16" s="282"/>
+      <c r="L16" s="283"/>
+      <c r="M16" s="280"/>
+      <c r="N16" s="280"/>
+      <c r="O16" s="280"/>
+      <c r="P16" s="284"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="503"/>
+      <c r="B17" s="536"/>
+      <c r="C17" s="512"/>
+      <c r="D17" s="509"/>
+      <c r="E17" s="512"/>
+      <c r="F17" s="512"/>
+      <c r="G17" s="280"/>
+      <c r="H17" s="280"/>
+      <c r="I17" s="281"/>
+      <c r="J17" s="281"/>
+      <c r="K17" s="282"/>
+      <c r="L17" s="283"/>
+      <c r="M17" s="280"/>
+      <c r="N17" s="280"/>
+      <c r="O17" s="280"/>
+      <c r="P17" s="284"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="503"/>
+      <c r="B18" s="536"/>
+      <c r="C18" s="512"/>
+      <c r="D18" s="509"/>
+      <c r="E18" s="512"/>
+      <c r="F18" s="512"/>
+      <c r="G18" s="280"/>
+      <c r="H18" s="280"/>
+      <c r="I18" s="281"/>
+      <c r="J18" s="281"/>
+      <c r="K18" s="282"/>
+      <c r="L18" s="283"/>
+      <c r="M18" s="280"/>
+      <c r="N18" s="280"/>
+      <c r="O18" s="280"/>
+      <c r="P18" s="284"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="503"/>
+      <c r="B19" s="536"/>
+      <c r="C19" s="512"/>
+      <c r="D19" s="509"/>
+      <c r="E19" s="512"/>
+      <c r="F19" s="512"/>
+      <c r="G19" s="280"/>
+      <c r="H19" s="280"/>
+      <c r="I19" s="281"/>
+      <c r="J19" s="281"/>
+      <c r="K19" s="282"/>
+      <c r="L19" s="283"/>
+      <c r="M19" s="280"/>
+      <c r="N19" s="280"/>
+      <c r="O19" s="280"/>
+      <c r="P19" s="284"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="504"/>
+      <c r="B20" s="537"/>
+      <c r="C20" s="513"/>
+      <c r="D20" s="510"/>
+      <c r="E20" s="513"/>
+      <c r="F20" s="513"/>
+      <c r="G20" s="285"/>
+      <c r="H20" s="285"/>
+      <c r="I20" s="286"/>
+      <c r="J20" s="286"/>
+      <c r="K20" s="287"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="285"/>
+      <c r="N20" s="285"/>
+      <c r="O20" s="285"/>
+      <c r="P20" s="285"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="305"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="297"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
+      <c r="H21" s="293"/>
+      <c r="I21" s="302"/>
+      <c r="J21" s="302"/>
+      <c r="K21" s="303"/>
+      <c r="L21" s="304"/>
+      <c r="M21" s="293"/>
+      <c r="N21" s="293"/>
+      <c r="O21" s="293"/>
+      <c r="P21" s="293"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="502"/>
+      <c r="B22" s="499"/>
+      <c r="C22" s="502"/>
+      <c r="D22" s="505"/>
+      <c r="E22" s="502"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="276"/>
+      <c r="J22" s="276"/>
+      <c r="K22" s="277"/>
+      <c r="L22" s="278"/>
+      <c r="M22" s="294"/>
+      <c r="N22" s="294"/>
+      <c r="O22" s="294"/>
+      <c r="P22" s="294"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="503"/>
+      <c r="B23" s="500"/>
+      <c r="C23" s="503"/>
+      <c r="D23" s="506"/>
+      <c r="E23" s="503"/>
+      <c r="F23" s="295"/>
+      <c r="G23" s="295"/>
+      <c r="H23" s="295"/>
+      <c r="I23" s="281"/>
+      <c r="J23" s="281"/>
+      <c r="K23" s="282"/>
+      <c r="L23" s="283"/>
+      <c r="M23" s="295"/>
+      <c r="N23" s="295"/>
+      <c r="O23" s="295"/>
+      <c r="P23" s="295"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="503"/>
+      <c r="B24" s="500"/>
+      <c r="C24" s="503"/>
+      <c r="D24" s="506"/>
+      <c r="E24" s="503"/>
+      <c r="F24" s="295"/>
+      <c r="G24" s="295"/>
+      <c r="H24" s="295"/>
+      <c r="I24" s="281"/>
+      <c r="J24" s="281"/>
+      <c r="K24" s="282"/>
+      <c r="L24" s="283"/>
+      <c r="M24" s="295"/>
+      <c r="N24" s="295"/>
+      <c r="O24" s="295"/>
+      <c r="P24" s="295"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="504"/>
+      <c r="B25" s="501"/>
+      <c r="C25" s="504"/>
+      <c r="D25" s="507"/>
+      <c r="E25" s="504"/>
+      <c r="F25" s="296"/>
+      <c r="G25" s="296"/>
+      <c r="H25" s="296"/>
+      <c r="I25" s="286"/>
+      <c r="J25" s="286"/>
+      <c r="K25" s="287"/>
+      <c r="L25" s="288"/>
+      <c r="M25" s="296"/>
+      <c r="N25" s="296"/>
+      <c r="O25" s="296"/>
+      <c r="P25" s="296"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="502"/>
+      <c r="B26" s="499"/>
+      <c r="C26" s="502"/>
+      <c r="D26" s="514"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="276"/>
+      <c r="J26" s="276"/>
+      <c r="K26" s="277"/>
+      <c r="L26" s="278"/>
+      <c r="M26" s="294"/>
+      <c r="N26" s="294"/>
+      <c r="O26" s="294"/>
+      <c r="P26" s="294"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="503"/>
+      <c r="B27" s="500"/>
+      <c r="C27" s="503"/>
+      <c r="D27" s="515"/>
+      <c r="E27" s="295"/>
+      <c r="F27" s="295"/>
+      <c r="G27" s="295"/>
+      <c r="H27" s="295"/>
+      <c r="I27" s="281"/>
+      <c r="J27" s="281"/>
+      <c r="K27" s="282"/>
+      <c r="L27" s="283"/>
+      <c r="M27" s="295"/>
+      <c r="N27" s="295"/>
+      <c r="O27" s="295"/>
+      <c r="P27" s="295"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="504"/>
+      <c r="B28" s="501"/>
+      <c r="C28" s="504"/>
+      <c r="D28" s="516"/>
+      <c r="E28" s="296"/>
+      <c r="F28" s="296"/>
+      <c r="G28" s="296"/>
+      <c r="H28" s="296"/>
+      <c r="I28" s="286"/>
+      <c r="J28" s="286"/>
+      <c r="K28" s="287"/>
+      <c r="L28" s="288"/>
+      <c r="M28" s="296"/>
+      <c r="N28" s="296"/>
+      <c r="O28" s="296"/>
+      <c r="P28" s="296"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="305"/>
+      <c r="B29" s="301"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="297"/>
+      <c r="E29" s="293"/>
+      <c r="F29" s="293"/>
+      <c r="G29" s="293"/>
+      <c r="H29" s="293"/>
+      <c r="I29" s="302"/>
+      <c r="J29" s="302"/>
+      <c r="K29" s="303"/>
+      <c r="L29" s="304"/>
+      <c r="M29" s="293"/>
+      <c r="N29" s="293"/>
+      <c r="O29" s="293"/>
+      <c r="P29" s="293"/>
+    </row>
+    <row r="30" spans="1:16" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="519" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="519"/>
+      <c r="C30" s="519"/>
+      <c r="D30" s="519"/>
+      <c r="E30" s="519"/>
+      <c r="F30" s="519"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132">
+        <f>SUM(H7:H28)</f>
+        <v>37</v>
+      </c>
+      <c r="I30" s="133">
+        <f>SUM(I7:I28)</f>
+        <v>450000</v>
+      </c>
+      <c r="J30" s="133">
+        <f>SUM(J7:J28)</f>
+        <v>16650000</v>
+      </c>
+      <c r="K30" s="134"/>
+      <c r="L30" s="135">
+        <f>SUM(L7:L21)</f>
+        <v>10822500</v>
+      </c>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="132"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="1:12" s="274" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="308"/>
+      <c r="C33" s="261"/>
+      <c r="E33" s="298" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="261"/>
+      <c r="G33" s="261"/>
+      <c r="H33" s="261"/>
+      <c r="I33" s="261"/>
+      <c r="L33" s="298" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="274" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="308"/>
+      <c r="C34" s="11"/>
+      <c r="E34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="L34" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="L35" s="299"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="L36" s="299"/>
+    </row>
+    <row r="37" spans="1:12" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="118"/>
+      <c r="C37" s="261"/>
+      <c r="E37" s="261"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="L37" s="300" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="F12:F20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
@@ -7165,14 +8042,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="451" t="s">
+      <c r="A4" s="448" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="451"/>
-      <c r="C4" s="451"/>
-      <c r="D4" s="451"/>
-      <c r="E4" s="451"/>
-      <c r="F4" s="451"/>
+      <c r="B4" s="448"/>
+      <c r="C4" s="448"/>
+      <c r="D4" s="448"/>
+      <c r="E4" s="448"/>
+      <c r="F4" s="448"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -7186,14 +8063,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="452" t="s">
+      <c r="A5" s="449" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="452"/>
-      <c r="C5" s="452"/>
-      <c r="D5" s="452"/>
-      <c r="E5" s="452"/>
-      <c r="F5" s="452"/>
+      <c r="B5" s="449"/>
+      <c r="C5" s="449"/>
+      <c r="D5" s="449"/>
+      <c r="E5" s="449"/>
+      <c r="F5" s="449"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -7263,11 +8140,11 @@
       </c>
       <c r="C8" s="66">
         <f>'DOANH THU'!G118</f>
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="D8" s="76">
         <f>'DOANH THU'!L118</f>
-        <v>178107300</v>
+        <v>178792800</v>
       </c>
       <c r="E8" s="75"/>
       <c r="F8" s="67"/>
@@ -7293,7 +8170,7 @@
       <c r="C9" s="78"/>
       <c r="D9" s="79">
         <f>'DOANH THU'!L119</f>
-        <v>0</v>
+        <v>295750</v>
       </c>
       <c r="E9" s="78"/>
       <c r="F9" s="67"/>
@@ -7367,7 +8244,7 @@
       <c r="C12" s="83"/>
       <c r="D12" s="84">
         <f>D8-D9-D10</f>
-        <v>177245900</v>
+        <v>177635650</v>
       </c>
       <c r="E12" s="81"/>
       <c r="F12" s="67"/>
@@ -7540,10 +8417,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="453" t="s">
+      <c r="A25" s="450" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="453"/>
+      <c r="B25" s="450"/>
       <c r="C25" s="31"/>
       <c r="D25" s="324">
         <f>C24-D24</f>
@@ -7597,7 +8474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P59"/>
   <sheetViews>
@@ -7630,13 +8507,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="461" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="454"/>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
+      <c r="B1" s="461"/>
+      <c r="C1" s="461"/>
+      <c r="D1" s="461"/>
+      <c r="E1" s="461"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -7664,134 +8541,134 @@
       <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="455" t="s">
+      <c r="A4" s="452" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="455"/>
-      <c r="C4" s="455"/>
-      <c r="D4" s="455"/>
-      <c r="E4" s="455"/>
-      <c r="F4" s="455"/>
-      <c r="G4" s="455"/>
-      <c r="H4" s="455"/>
-      <c r="I4" s="455"/>
-      <c r="J4" s="455"/>
-      <c r="K4" s="455"/>
-      <c r="L4" s="455"/>
-      <c r="M4" s="455"/>
-      <c r="N4" s="455"/>
-      <c r="O4" s="455"/>
-      <c r="P4" s="455"/>
+      <c r="B4" s="452"/>
+      <c r="C4" s="452"/>
+      <c r="D4" s="452"/>
+      <c r="E4" s="452"/>
+      <c r="F4" s="452"/>
+      <c r="G4" s="452"/>
+      <c r="H4" s="452"/>
+      <c r="I4" s="452"/>
+      <c r="J4" s="452"/>
+      <c r="K4" s="452"/>
+      <c r="L4" s="452"/>
+      <c r="M4" s="452"/>
+      <c r="N4" s="452"/>
+      <c r="O4" s="452"/>
+      <c r="P4" s="452"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="458"/>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
-      <c r="D5" s="458"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="458"/>
-      <c r="G5" s="458"/>
-      <c r="H5" s="458"/>
-      <c r="I5" s="458"/>
-      <c r="J5" s="458"/>
-      <c r="K5" s="458"/>
-      <c r="L5" s="458"/>
-      <c r="M5" s="458"/>
-      <c r="N5" s="458"/>
-      <c r="O5" s="458"/>
-      <c r="P5" s="458"/>
+      <c r="A5" s="464"/>
+      <c r="B5" s="464"/>
+      <c r="C5" s="464"/>
+      <c r="D5" s="464"/>
+      <c r="E5" s="464"/>
+      <c r="F5" s="464"/>
+      <c r="G5" s="464"/>
+      <c r="H5" s="464"/>
+      <c r="I5" s="464"/>
+      <c r="J5" s="464"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="464"/>
+      <c r="M5" s="464"/>
+      <c r="N5" s="464"/>
+      <c r="O5" s="464"/>
+      <c r="P5" s="464"/>
     </row>
     <row r="6" spans="1:16" s="160" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="431" t="s">
+      <c r="A6" s="441" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="457" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="431" t="s">
+      <c r="C6" s="441" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="431" t="s">
+      <c r="D6" s="441" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="431"/>
-      <c r="F6" s="432" t="s">
+      <c r="E6" s="441"/>
+      <c r="F6" s="442" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="432"/>
-      <c r="H6" s="432"/>
-      <c r="I6" s="432"/>
-      <c r="J6" s="432"/>
-      <c r="K6" s="432"/>
-      <c r="L6" s="432"/>
-      <c r="M6" s="433"/>
-      <c r="N6" s="433"/>
-      <c r="O6" s="433"/>
-      <c r="P6" s="456" t="s">
+      <c r="G6" s="442"/>
+      <c r="H6" s="442"/>
+      <c r="I6" s="442"/>
+      <c r="J6" s="442"/>
+      <c r="K6" s="442"/>
+      <c r="L6" s="442"/>
+      <c r="M6" s="443"/>
+      <c r="N6" s="443"/>
+      <c r="O6" s="443"/>
+      <c r="P6" s="462" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="160" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="431"/>
-      <c r="B7" s="460"/>
-      <c r="C7" s="431"/>
-      <c r="D7" s="431" t="s">
+      <c r="A7" s="441"/>
+      <c r="B7" s="457"/>
+      <c r="C7" s="441"/>
+      <c r="D7" s="441" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="431" t="s">
+      <c r="E7" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="431" t="s">
+      <c r="F7" s="441" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="431" t="s">
+      <c r="G7" s="441" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="457" t="s">
+      <c r="H7" s="463" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="457" t="s">
+      <c r="I7" s="463" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="439" t="s">
+      <c r="J7" s="434" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="439"/>
-      <c r="L7" s="457" t="s">
+      <c r="K7" s="434"/>
+      <c r="L7" s="463" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="457" t="s">
+      <c r="M7" s="463" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="457" t="s">
+      <c r="N7" s="463" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="457" t="s">
+      <c r="O7" s="463" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="456"/>
+      <c r="P7" s="462"/>
     </row>
     <row r="8" spans="1:16" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="431"/>
-      <c r="B8" s="460"/>
-      <c r="C8" s="431"/>
-      <c r="D8" s="431"/>
-      <c r="E8" s="431"/>
-      <c r="F8" s="431"/>
-      <c r="G8" s="431"/>
-      <c r="H8" s="457"/>
-      <c r="I8" s="457"/>
+      <c r="A8" s="441"/>
+      <c r="B8" s="457"/>
+      <c r="C8" s="441"/>
+      <c r="D8" s="441"/>
+      <c r="E8" s="441"/>
+      <c r="F8" s="441"/>
+      <c r="G8" s="441"/>
+      <c r="H8" s="463"/>
+      <c r="I8" s="463"/>
       <c r="J8" s="219" t="s">
         <v>87</v>
       </c>
       <c r="K8" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="457"/>
-      <c r="M8" s="457"/>
-      <c r="N8" s="457"/>
-      <c r="O8" s="457"/>
-      <c r="P8" s="456"/>
+      <c r="L8" s="463"/>
+      <c r="M8" s="463"/>
+      <c r="N8" s="463"/>
+      <c r="O8" s="463"/>
+      <c r="P8" s="462"/>
     </row>
     <row r="9" spans="1:16" s="167" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="327"/>
@@ -8001,7 +8878,7 @@
       <c r="G20" s="216"/>
       <c r="H20" s="201"/>
       <c r="I20" s="201"/>
-      <c r="J20" s="461"/>
+      <c r="J20" s="458"/>
       <c r="K20" s="202"/>
       <c r="L20" s="201"/>
       <c r="M20" s="201"/>
@@ -8019,7 +8896,7 @@
       <c r="G21" s="217"/>
       <c r="H21" s="203"/>
       <c r="I21" s="203"/>
-      <c r="J21" s="462"/>
+      <c r="J21" s="459"/>
       <c r="K21" s="204"/>
       <c r="L21" s="203"/>
       <c r="M21" s="203"/>
@@ -8037,7 +8914,7 @@
       <c r="G22" s="218"/>
       <c r="H22" s="205"/>
       <c r="I22" s="205"/>
-      <c r="J22" s="463"/>
+      <c r="J22" s="460"/>
       <c r="K22" s="206"/>
       <c r="L22" s="205"/>
       <c r="M22" s="205"/>
@@ -8208,16 +9085,16 @@
       <c r="P31" s="211"/>
     </row>
     <row r="32" spans="1:16" s="261" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="465" t="s">
+      <c r="A32" s="453" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="466"/>
-      <c r="C32" s="466"/>
-      <c r="D32" s="466"/>
-      <c r="E32" s="466"/>
-      <c r="F32" s="466"/>
-      <c r="G32" s="466"/>
-      <c r="H32" s="467"/>
+      <c r="B32" s="454"/>
+      <c r="C32" s="454"/>
+      <c r="D32" s="454"/>
+      <c r="E32" s="454"/>
+      <c r="F32" s="454"/>
+      <c r="G32" s="454"/>
+      <c r="H32" s="455"/>
       <c r="I32" s="262">
         <f>SUM(I9:I31)</f>
         <v>0</v>
@@ -8256,20 +9133,20 @@
     <row r="34" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="267"/>
       <c r="B34" s="267"/>
-      <c r="C34" s="455" t="s">
+      <c r="C34" s="452" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="455"/>
-      <c r="E34" s="455"/>
+      <c r="D34" s="452"/>
+      <c r="E34" s="452"/>
       <c r="F34" s="267"/>
       <c r="G34" s="267"/>
       <c r="H34" s="267"/>
       <c r="I34" s="268"/>
       <c r="L34" s="268"/>
-      <c r="M34" s="464" t="s">
+      <c r="M34" s="451" t="s">
         <v>118</v>
       </c>
-      <c r="N34" s="464"/>
+      <c r="N34" s="451"/>
       <c r="O34" s="268"/>
     </row>
     <row r="35" spans="1:15" s="269" customFormat="1" x14ac:dyDescent="0.25">
@@ -8453,19 +9330,19 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="96"/>
-      <c r="B47" s="455" t="s">
+      <c r="B47" s="452" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="455"/>
-      <c r="D47" s="455"/>
+      <c r="C47" s="452"/>
+      <c r="D47" s="452"/>
       <c r="E47" s="96"/>
       <c r="F47" s="96"/>
       <c r="G47" s="96"/>
       <c r="H47" s="96"/>
-      <c r="I47" s="455" t="s">
+      <c r="I47" s="452" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="455"/>
+      <c r="J47" s="452"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="96"/>
@@ -8545,8 +9422,8 @@
       <c r="I54" s="265"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="459"/>
-      <c r="B55" s="459"/>
+      <c r="A55" s="456"/>
+      <c r="B55" s="456"/>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
@@ -8556,8 +9433,8 @@
       <c r="H57" s="266"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="459"/>
-      <c r="B59" s="459"/>
+      <c r="A59" s="456"/>
+      <c r="B59" s="456"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
@@ -8565,19 +9442,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="C34:E34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="P6:P8"/>
@@ -8594,18 +9458,31 @@
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A55:B55"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9134,16 +10011,16 @@
       <c r="C1" s="221"/>
       <c r="D1" s="221"/>
       <c r="E1" s="221"/>
-      <c r="Z1" s="486" t="s">
+      <c r="Z1" s="470" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="487"/>
-      <c r="AB1" s="487"/>
-      <c r="AC1" s="487"/>
-      <c r="AD1" s="487"/>
-      <c r="AE1" s="487"/>
-      <c r="AF1" s="487"/>
-      <c r="AG1" s="488"/>
+      <c r="AA1" s="471"/>
+      <c r="AB1" s="471"/>
+      <c r="AC1" s="471"/>
+      <c r="AD1" s="471"/>
+      <c r="AE1" s="471"/>
+      <c r="AF1" s="471"/>
+      <c r="AG1" s="472"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="224" t="s">
@@ -9153,18 +10030,18 @@
       <c r="C2" s="225"/>
       <c r="D2" s="225"/>
       <c r="E2" s="225"/>
-      <c r="Z2" s="469" t="s">
+      <c r="Z2" s="465" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="470"/>
-      <c r="AB2" s="470"/>
-      <c r="AC2" s="470"/>
-      <c r="AD2" s="470"/>
-      <c r="AE2" s="471"/>
-      <c r="AF2" s="472" t="s">
+      <c r="AA2" s="466"/>
+      <c r="AB2" s="466"/>
+      <c r="AC2" s="466"/>
+      <c r="AD2" s="466"/>
+      <c r="AE2" s="467"/>
+      <c r="AF2" s="468" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="473"/>
+      <c r="AG2" s="469"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="224" t="s">
@@ -9174,18 +10051,18 @@
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
       <c r="E3" s="87"/>
-      <c r="Z3" s="469" t="s">
+      <c r="Z3" s="465" t="s">
         <v>93</v>
       </c>
-      <c r="AA3" s="470"/>
-      <c r="AB3" s="470"/>
-      <c r="AC3" s="470"/>
-      <c r="AD3" s="470"/>
-      <c r="AE3" s="471"/>
-      <c r="AF3" s="472" t="s">
+      <c r="AA3" s="466"/>
+      <c r="AB3" s="466"/>
+      <c r="AC3" s="466"/>
+      <c r="AD3" s="466"/>
+      <c r="AE3" s="467"/>
+      <c r="AF3" s="468" t="s">
         <v>94</v>
       </c>
-      <c r="AG3" s="473"/>
+      <c r="AG3" s="469"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="224" t="s">
@@ -9195,18 +10072,21 @@
       <c r="C4" s="87"/>
       <c r="D4" s="87"/>
       <c r="E4" s="87"/>
-      <c r="Z4" s="469" t="s">
+      <c r="T4" s="222" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="465" t="s">
         <v>96</v>
       </c>
-      <c r="AA4" s="470"/>
-      <c r="AB4" s="470"/>
-      <c r="AC4" s="470"/>
-      <c r="AD4" s="470"/>
-      <c r="AE4" s="471"/>
-      <c r="AF4" s="472" t="s">
+      <c r="AA4" s="466"/>
+      <c r="AB4" s="466"/>
+      <c r="AC4" s="466"/>
+      <c r="AD4" s="466"/>
+      <c r="AE4" s="467"/>
+      <c r="AF4" s="468" t="s">
         <v>97</v>
       </c>
-      <c r="AG4" s="473"/>
+      <c r="AG4" s="469"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="224" t="s">
@@ -9216,18 +10096,18 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="87"/>
-      <c r="Z5" s="469" t="s">
+      <c r="Z5" s="465" t="s">
         <v>99</v>
       </c>
-      <c r="AA5" s="470"/>
-      <c r="AB5" s="470"/>
-      <c r="AC5" s="470"/>
-      <c r="AD5" s="470"/>
-      <c r="AE5" s="471"/>
-      <c r="AF5" s="472" t="s">
+      <c r="AA5" s="466"/>
+      <c r="AB5" s="466"/>
+      <c r="AC5" s="466"/>
+      <c r="AD5" s="466"/>
+      <c r="AE5" s="467"/>
+      <c r="AF5" s="468" t="s">
         <v>100</v>
       </c>
-      <c r="AG5" s="473"/>
+      <c r="AG5" s="469"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="226"/>
@@ -9647,7 +10527,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="272" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D13" s="237"/>
       <c r="E13" s="237"/>
@@ -9946,7 +10826,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="270" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="272" t="s">
         <v>121</v>
@@ -10164,131 +11044,131 @@
       <c r="AN34" s="259"/>
     </row>
     <row r="35" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="468"/>
-      <c r="H35" s="468"/>
-      <c r="I35" s="468"/>
-      <c r="J35" s="468"/>
-      <c r="K35" s="468"/>
-      <c r="L35" s="468"/>
-      <c r="M35" s="468"/>
-      <c r="N35" s="468"/>
-      <c r="O35" s="468"/>
-      <c r="P35" s="468"/>
-      <c r="Q35" s="468"/>
-      <c r="R35" s="468"/>
-      <c r="S35" s="468"/>
-      <c r="T35" s="468"/>
-      <c r="U35" s="468"/>
-      <c r="V35" s="468"/>
-      <c r="W35" s="468"/>
-      <c r="X35" s="468"/>
+      <c r="G35" s="473"/>
+      <c r="H35" s="473"/>
+      <c r="I35" s="473"/>
+      <c r="J35" s="473"/>
+      <c r="K35" s="473"/>
+      <c r="L35" s="473"/>
+      <c r="M35" s="473"/>
+      <c r="N35" s="473"/>
+      <c r="O35" s="473"/>
+      <c r="P35" s="473"/>
+      <c r="Q35" s="473"/>
+      <c r="R35" s="473"/>
+      <c r="S35" s="473"/>
+      <c r="T35" s="473"/>
+      <c r="U35" s="473"/>
+      <c r="V35" s="473"/>
+      <c r="W35" s="473"/>
+      <c r="X35" s="473"/>
       <c r="AN35" s="259"/>
     </row>
     <row r="36" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="468"/>
-      <c r="H36" s="468"/>
-      <c r="I36" s="468"/>
-      <c r="J36" s="468"/>
-      <c r="K36" s="468"/>
-      <c r="L36" s="468"/>
-      <c r="M36" s="468"/>
-      <c r="N36" s="468"/>
-      <c r="O36" s="468"/>
-      <c r="P36" s="468"/>
-      <c r="Q36" s="468"/>
-      <c r="R36" s="468"/>
-      <c r="S36" s="468"/>
-      <c r="T36" s="468"/>
-      <c r="U36" s="468"/>
-      <c r="V36" s="468"/>
-      <c r="W36" s="468"/>
-      <c r="X36" s="468"/>
+      <c r="G36" s="473"/>
+      <c r="H36" s="473"/>
+      <c r="I36" s="473"/>
+      <c r="J36" s="473"/>
+      <c r="K36" s="473"/>
+      <c r="L36" s="473"/>
+      <c r="M36" s="473"/>
+      <c r="N36" s="473"/>
+      <c r="O36" s="473"/>
+      <c r="P36" s="473"/>
+      <c r="Q36" s="473"/>
+      <c r="R36" s="473"/>
+      <c r="S36" s="473"/>
+      <c r="T36" s="473"/>
+      <c r="U36" s="473"/>
+      <c r="V36" s="473"/>
+      <c r="W36" s="473"/>
+      <c r="X36" s="473"/>
       <c r="AN36" s="259"/>
     </row>
     <row r="37" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="468"/>
-      <c r="H37" s="468"/>
-      <c r="I37" s="468"/>
-      <c r="J37" s="468"/>
-      <c r="K37" s="468"/>
-      <c r="L37" s="468"/>
-      <c r="M37" s="468"/>
-      <c r="N37" s="468"/>
-      <c r="O37" s="468"/>
-      <c r="P37" s="468"/>
-      <c r="Q37" s="468"/>
-      <c r="R37" s="468"/>
-      <c r="S37" s="468"/>
-      <c r="T37" s="468"/>
-      <c r="U37" s="468"/>
-      <c r="V37" s="468"/>
-      <c r="W37" s="468"/>
-      <c r="X37" s="468"/>
+      <c r="G37" s="473"/>
+      <c r="H37" s="473"/>
+      <c r="I37" s="473"/>
+      <c r="J37" s="473"/>
+      <c r="K37" s="473"/>
+      <c r="L37" s="473"/>
+      <c r="M37" s="473"/>
+      <c r="N37" s="473"/>
+      <c r="O37" s="473"/>
+      <c r="P37" s="473"/>
+      <c r="Q37" s="473"/>
+      <c r="R37" s="473"/>
+      <c r="S37" s="473"/>
+      <c r="T37" s="473"/>
+      <c r="U37" s="473"/>
+      <c r="V37" s="473"/>
+      <c r="W37" s="473"/>
+      <c r="X37" s="473"/>
       <c r="AN37" s="259"/>
     </row>
     <row r="38" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="468"/>
-      <c r="H38" s="468"/>
-      <c r="I38" s="468"/>
-      <c r="J38" s="468"/>
-      <c r="K38" s="468"/>
-      <c r="L38" s="468"/>
-      <c r="M38" s="468"/>
-      <c r="N38" s="468"/>
-      <c r="O38" s="468"/>
-      <c r="P38" s="468"/>
-      <c r="Q38" s="468"/>
-      <c r="R38" s="468"/>
-      <c r="S38" s="468"/>
-      <c r="T38" s="468"/>
-      <c r="U38" s="468"/>
-      <c r="V38" s="468"/>
-      <c r="W38" s="468"/>
-      <c r="X38" s="468"/>
+      <c r="G38" s="473"/>
+      <c r="H38" s="473"/>
+      <c r="I38" s="473"/>
+      <c r="J38" s="473"/>
+      <c r="K38" s="473"/>
+      <c r="L38" s="473"/>
+      <c r="M38" s="473"/>
+      <c r="N38" s="473"/>
+      <c r="O38" s="473"/>
+      <c r="P38" s="473"/>
+      <c r="Q38" s="473"/>
+      <c r="R38" s="473"/>
+      <c r="S38" s="473"/>
+      <c r="T38" s="473"/>
+      <c r="U38" s="473"/>
+      <c r="V38" s="473"/>
+      <c r="W38" s="473"/>
+      <c r="X38" s="473"/>
       <c r="AN38" s="259"/>
     </row>
     <row r="39" spans="3:40" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="468"/>
-      <c r="H39" s="468"/>
-      <c r="I39" s="468"/>
-      <c r="J39" s="468"/>
-      <c r="K39" s="468"/>
-      <c r="L39" s="468"/>
-      <c r="M39" s="468"/>
-      <c r="N39" s="468"/>
-      <c r="O39" s="468"/>
-      <c r="P39" s="468"/>
-      <c r="Q39" s="468"/>
-      <c r="R39" s="468"/>
-      <c r="S39" s="468"/>
-      <c r="T39" s="468"/>
-      <c r="U39" s="468"/>
-      <c r="V39" s="468"/>
-      <c r="W39" s="468"/>
-      <c r="X39" s="468"/>
+      <c r="G39" s="473"/>
+      <c r="H39" s="473"/>
+      <c r="I39" s="473"/>
+      <c r="J39" s="473"/>
+      <c r="K39" s="473"/>
+      <c r="L39" s="473"/>
+      <c r="M39" s="473"/>
+      <c r="N39" s="473"/>
+      <c r="O39" s="473"/>
+      <c r="P39" s="473"/>
+      <c r="Q39" s="473"/>
+      <c r="R39" s="473"/>
+      <c r="S39" s="473"/>
+      <c r="T39" s="473"/>
+      <c r="U39" s="473"/>
+      <c r="V39" s="473"/>
+      <c r="W39" s="473"/>
+      <c r="X39" s="473"/>
       <c r="AN39" s="259"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="222"/>
       <c r="D40" s="222"/>
-      <c r="G40" s="468"/>
-      <c r="H40" s="468"/>
-      <c r="I40" s="468"/>
-      <c r="J40" s="468"/>
-      <c r="K40" s="468"/>
-      <c r="L40" s="468"/>
-      <c r="M40" s="468"/>
-      <c r="N40" s="468"/>
-      <c r="O40" s="468"/>
-      <c r="P40" s="468"/>
-      <c r="Q40" s="468"/>
-      <c r="R40" s="468"/>
-      <c r="S40" s="468"/>
-      <c r="T40" s="468"/>
-      <c r="U40" s="468"/>
-      <c r="V40" s="468"/>
-      <c r="W40" s="468"/>
-      <c r="X40" s="468"/>
+      <c r="G40" s="473"/>
+      <c r="H40" s="473"/>
+      <c r="I40" s="473"/>
+      <c r="J40" s="473"/>
+      <c r="K40" s="473"/>
+      <c r="L40" s="473"/>
+      <c r="M40" s="473"/>
+      <c r="N40" s="473"/>
+      <c r="O40" s="473"/>
+      <c r="P40" s="473"/>
+      <c r="Q40" s="473"/>
+      <c r="R40" s="473"/>
+      <c r="S40" s="473"/>
+      <c r="T40" s="473"/>
+      <c r="U40" s="473"/>
+      <c r="V40" s="473"/>
+      <c r="W40" s="473"/>
+      <c r="X40" s="473"/>
       <c r="AN40" s="222"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
@@ -10298,13 +11178,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -10319,17 +11192,24 @@
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="O19:Y19"/>
     <mergeCell ref="AC19:AM19"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -11172,42 +12052,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="384" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="498" t="s">
+      <c r="A1" s="486" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="498"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="498"/>
+      <c r="B1" s="486"/>
+      <c r="C1" s="486"/>
+      <c r="D1" s="486"/>
       <c r="E1" s="383"/>
-      <c r="F1" s="499" t="s">
+      <c r="F1" s="487" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="499"/>
-      <c r="H1" s="499"/>
-      <c r="I1" s="499"/>
-      <c r="J1" s="499"/>
-      <c r="K1" s="499"/>
-      <c r="L1" s="499"/>
-      <c r="M1" s="499"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
+      <c r="L1" s="487"/>
+      <c r="M1" s="487"/>
     </row>
     <row r="2" spans="1:14" s="384" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="500" t="s">
+      <c r="A2" s="488" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="500"/>
-      <c r="C2" s="500"/>
-      <c r="D2" s="500"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
       <c r="E2" s="383"/>
-      <c r="F2" s="501" t="s">
+      <c r="F2" s="489" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="501"/>
-      <c r="H2" s="501"/>
-      <c r="I2" s="501"/>
-      <c r="J2" s="501"/>
-      <c r="K2" s="501"/>
-      <c r="L2" s="501"/>
-      <c r="M2" s="501"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="489"/>
+      <c r="I2" s="489"/>
+      <c r="J2" s="489"/>
+      <c r="K2" s="489"/>
+      <c r="L2" s="489"/>
+      <c r="M2" s="489"/>
     </row>
     <row r="3" spans="1:14" s="384" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="385"/>
@@ -11222,47 +12102,47 @@
       <c r="K3" s="386"/>
     </row>
     <row r="4" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="489" t="s">
+      <c r="A4" s="490" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="489"/>
-      <c r="C4" s="489"/>
-      <c r="D4" s="489"/>
-      <c r="E4" s="489"/>
-      <c r="F4" s="489"/>
-      <c r="G4" s="489"/>
-      <c r="H4" s="489"/>
-      <c r="I4" s="489"/>
-      <c r="J4" s="489"/>
-      <c r="K4" s="489"/>
-      <c r="L4" s="489"/>
-      <c r="M4" s="489"/>
-      <c r="N4" s="489"/>
+      <c r="B4" s="490"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="490"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="490"/>
+      <c r="G4" s="490"/>
+      <c r="H4" s="490"/>
+      <c r="I4" s="490"/>
+      <c r="J4" s="490"/>
+      <c r="K4" s="490"/>
+      <c r="L4" s="490"/>
+      <c r="M4" s="490"/>
+      <c r="N4" s="490"/>
     </row>
     <row r="5" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="489" t="s">
+      <c r="A5" s="490" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="489"/>
-      <c r="C5" s="489"/>
-      <c r="D5" s="489"/>
-      <c r="E5" s="489"/>
-      <c r="F5" s="489"/>
-      <c r="G5" s="489"/>
-      <c r="H5" s="489"/>
-      <c r="I5" s="489"/>
-      <c r="J5" s="489"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="489"/>
-      <c r="M5" s="489"/>
-      <c r="N5" s="489"/>
+      <c r="B5" s="490"/>
+      <c r="C5" s="490"/>
+      <c r="D5" s="490"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="490"/>
+      <c r="I5" s="490"/>
+      <c r="J5" s="490"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="490"/>
+      <c r="M5" s="490"/>
+      <c r="N5" s="490"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L6" s="490" t="s">
+      <c r="L6" s="491" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="490"/>
-      <c r="N6" s="490"/>
+      <c r="M6" s="491"/>
+      <c r="N6" s="491"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
@@ -11278,7 +12158,7 @@
         <v>65</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>66</v>
@@ -11287,7 +12167,7 @@
         <v>88</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I7" s="44" t="s">
         <v>67</v>
@@ -11330,19 +12210,19 @@
         <v>89</v>
       </c>
       <c r="K8" s="51" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M8" s="49"/>
       <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="491" t="s">
+      <c r="A9" s="492" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="492"/>
+      <c r="B9" s="493"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="51"/>
@@ -11368,7 +12248,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="55">
         <v>15000000</v>
@@ -11404,7 +12284,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" s="55">
         <v>6000000</v>
@@ -11440,7 +12320,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" s="60">
         <v>6000000</v>
@@ -11473,11 +12353,11 @@
       <c r="N12" s="58"/>
     </row>
     <row r="13" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="495" t="s">
+      <c r="A13" s="496" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="496"/>
-      <c r="C13" s="497"/>
+      <c r="B13" s="497"/>
+      <c r="C13" s="498"/>
       <c r="D13" s="340">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -11512,10 +12392,10 @@
       <c r="N13" s="389"/>
     </row>
     <row r="14" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="493" t="s">
+      <c r="A14" s="494" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="494"/>
+      <c r="B14" s="495"/>
       <c r="C14" s="88"/>
       <c r="D14" s="89"/>
       <c r="E14" s="404"/>
@@ -11534,10 +12414,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="60">
         <v>3000000</v>
@@ -11556,7 +12436,7 @@
       </c>
       <c r="H15" s="60">
         <f>'Hỗ trợ vận chuyển'!E32</f>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="I15" s="61"/>
       <c r="J15" s="61">
@@ -11567,7 +12447,7 @@
       </c>
       <c r="L15" s="56">
         <f>F15-G15+H15-I15-J15+K15</f>
-        <v>2079230.7692307695</v>
+        <v>2099230.7692307695</v>
       </c>
       <c r="M15" s="61"/>
       <c r="N15" s="58"/>
@@ -11580,7 +12460,7 @@
         <v>77</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D16" s="64">
         <v>5000000</v>
@@ -11613,11 +12493,11 @@
       <c r="N16" s="62"/>
     </row>
     <row r="17" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="495" t="s">
+      <c r="A17" s="496" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="496"/>
-      <c r="C17" s="497"/>
+      <c r="B17" s="497"/>
+      <c r="C17" s="498"/>
       <c r="D17" s="390">
         <f>SUM(D15:D16)</f>
         <v>8000000</v>
@@ -11646,20 +12526,20 @@
       </c>
       <c r="L17" s="390">
         <f>SUM(L14:L16)</f>
-        <v>4973461.538461538</v>
+        <v>4993461.538461538</v>
       </c>
       <c r="M17" s="389"/>
       <c r="N17" s="389"/>
     </row>
     <row r="19" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="489"/>
-      <c r="C19" s="489"/>
-      <c r="D19" s="489"/>
+      <c r="B19" s="490"/>
+      <c r="C19" s="490"/>
+      <c r="D19" s="490"/>
       <c r="E19" s="358"/>
-      <c r="J19" s="489"/>
-      <c r="K19" s="489"/>
-      <c r="L19" s="489"/>
-      <c r="M19" s="489"/>
+      <c r="J19" s="490"/>
+      <c r="K19" s="490"/>
+      <c r="L19" s="490"/>
+      <c r="M19" s="490"/>
     </row>
     <row r="20" spans="1:14" s="384" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C20" s="392" t="s">
@@ -11705,11 +12585,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A9:B9"/>
@@ -11718,732 +12593,14 @@
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:N4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="307"/>
-    <col min="2" max="2" width="12" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="86"/>
-    <col min="4" max="4" width="12.7109375" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="86"/>
-    <col min="8" max="8" width="9.28515625" style="86" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14" style="86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="101"/>
-    <col min="12" max="12" width="17" style="129" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="86"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="502" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="502"/>
-      <c r="C1" s="502"/>
-      <c r="D1" s="502"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="503" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="503"/>
-      <c r="C2" s="503"/>
-      <c r="D2" s="503"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="505" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="505"/>
-      <c r="C3" s="505"/>
-      <c r="D3" s="505"/>
-      <c r="E3" s="505"/>
-      <c r="F3" s="505"/>
-      <c r="G3" s="505"/>
-      <c r="H3" s="505"/>
-      <c r="I3" s="505"/>
-      <c r="J3" s="505"/>
-      <c r="K3" s="505"/>
-      <c r="L3" s="505"/>
-      <c r="M3" s="505"/>
-      <c r="N3" s="505"/>
-      <c r="O3" s="505"/>
-      <c r="P3" s="505"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="506" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="506"/>
-      <c r="C4" s="506"/>
-      <c r="D4" s="506"/>
-      <c r="E4" s="506"/>
-      <c r="F4" s="506"/>
-      <c r="G4" s="506"/>
-      <c r="H4" s="506"/>
-      <c r="I4" s="506"/>
-      <c r="J4" s="506"/>
-      <c r="K4" s="507"/>
-      <c r="L4" s="506"/>
-      <c r="M4" s="506"/>
-      <c r="N4" s="506"/>
-      <c r="O4" s="506"/>
-      <c r="P4" s="506"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="508" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="510" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="512" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="512" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="514" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="514"/>
-      <c r="I5" s="514"/>
-      <c r="J5" s="514"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="514" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="514"/>
-      <c r="O5" s="514"/>
-      <c r="P5" s="518" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="509"/>
-      <c r="B6" s="511"/>
-      <c r="C6" s="513"/>
-      <c r="D6" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="290" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="291" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="292" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="517"/>
-      <c r="M6" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="519"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="306">
-        <v>562</v>
-      </c>
-      <c r="B7" s="144">
-        <v>43983</v>
-      </c>
-      <c r="C7" s="141" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="141">
-        <v>37</v>
-      </c>
-      <c r="I7" s="145">
-        <v>450000</v>
-      </c>
-      <c r="J7" s="145">
-        <f>H7*I7</f>
-        <v>16650000</v>
-      </c>
-      <c r="K7" s="143">
-        <v>0.35</v>
-      </c>
-      <c r="L7" s="142">
-        <f>J7*(1-K7)</f>
-        <v>10822500</v>
-      </c>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="146"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="141"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="280"/>
-      <c r="H8" s="280"/>
-      <c r="I8" s="281"/>
-      <c r="J8" s="281"/>
-      <c r="K8" s="282"/>
-      <c r="L8" s="283"/>
-      <c r="M8" s="280"/>
-      <c r="N8" s="280"/>
-      <c r="O8" s="280"/>
-      <c r="P8" s="284"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="141"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="285"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="288"/>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="285"/>
-      <c r="P9" s="289"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="306"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="146"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="306"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="146"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="520"/>
-      <c r="B12" s="526"/>
-      <c r="C12" s="523"/>
-      <c r="D12" s="529"/>
-      <c r="E12" s="523"/>
-      <c r="F12" s="523"/>
-      <c r="G12" s="275"/>
-      <c r="H12" s="275"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="276"/>
-      <c r="K12" s="277"/>
-      <c r="L12" s="278"/>
-      <c r="M12" s="275"/>
-      <c r="N12" s="275"/>
-      <c r="O12" s="275"/>
-      <c r="P12" s="279"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="521"/>
-      <c r="B13" s="527"/>
-      <c r="C13" s="524"/>
-      <c r="D13" s="530"/>
-      <c r="E13" s="524"/>
-      <c r="F13" s="524"/>
-      <c r="G13" s="280"/>
-      <c r="H13" s="280"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="282"/>
-      <c r="L13" s="283"/>
-      <c r="M13" s="280"/>
-      <c r="N13" s="280"/>
-      <c r="O13" s="280"/>
-      <c r="P13" s="284"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="521"/>
-      <c r="B14" s="527"/>
-      <c r="C14" s="524"/>
-      <c r="D14" s="530"/>
-      <c r="E14" s="524"/>
-      <c r="F14" s="524"/>
-      <c r="G14" s="280"/>
-      <c r="H14" s="280"/>
-      <c r="I14" s="281"/>
-      <c r="J14" s="281"/>
-      <c r="K14" s="282"/>
-      <c r="L14" s="283"/>
-      <c r="M14" s="280"/>
-      <c r="N14" s="280"/>
-      <c r="O14" s="280"/>
-      <c r="P14" s="284"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="521"/>
-      <c r="B15" s="527"/>
-      <c r="C15" s="524"/>
-      <c r="D15" s="530"/>
-      <c r="E15" s="524"/>
-      <c r="F15" s="524"/>
-      <c r="G15" s="280"/>
-      <c r="H15" s="280"/>
-      <c r="I15" s="281"/>
-      <c r="J15" s="281"/>
-      <c r="K15" s="282"/>
-      <c r="L15" s="283"/>
-      <c r="M15" s="280"/>
-      <c r="N15" s="280"/>
-      <c r="O15" s="280"/>
-      <c r="P15" s="284"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="521"/>
-      <c r="B16" s="527"/>
-      <c r="C16" s="524"/>
-      <c r="D16" s="530"/>
-      <c r="E16" s="524"/>
-      <c r="F16" s="524"/>
-      <c r="G16" s="280"/>
-      <c r="H16" s="280"/>
-      <c r="I16" s="281"/>
-      <c r="J16" s="281"/>
-      <c r="K16" s="282"/>
-      <c r="L16" s="283"/>
-      <c r="M16" s="280"/>
-      <c r="N16" s="280"/>
-      <c r="O16" s="280"/>
-      <c r="P16" s="284"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="521"/>
-      <c r="B17" s="527"/>
-      <c r="C17" s="524"/>
-      <c r="D17" s="530"/>
-      <c r="E17" s="524"/>
-      <c r="F17" s="524"/>
-      <c r="G17" s="280"/>
-      <c r="H17" s="280"/>
-      <c r="I17" s="281"/>
-      <c r="J17" s="281"/>
-      <c r="K17" s="282"/>
-      <c r="L17" s="283"/>
-      <c r="M17" s="280"/>
-      <c r="N17" s="280"/>
-      <c r="O17" s="280"/>
-      <c r="P17" s="284"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="521"/>
-      <c r="B18" s="527"/>
-      <c r="C18" s="524"/>
-      <c r="D18" s="530"/>
-      <c r="E18" s="524"/>
-      <c r="F18" s="524"/>
-      <c r="G18" s="280"/>
-      <c r="H18" s="280"/>
-      <c r="I18" s="281"/>
-      <c r="J18" s="281"/>
-      <c r="K18" s="282"/>
-      <c r="L18" s="283"/>
-      <c r="M18" s="280"/>
-      <c r="N18" s="280"/>
-      <c r="O18" s="280"/>
-      <c r="P18" s="284"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="521"/>
-      <c r="B19" s="527"/>
-      <c r="C19" s="524"/>
-      <c r="D19" s="530"/>
-      <c r="E19" s="524"/>
-      <c r="F19" s="524"/>
-      <c r="G19" s="280"/>
-      <c r="H19" s="280"/>
-      <c r="I19" s="281"/>
-      <c r="J19" s="281"/>
-      <c r="K19" s="282"/>
-      <c r="L19" s="283"/>
-      <c r="M19" s="280"/>
-      <c r="N19" s="280"/>
-      <c r="O19" s="280"/>
-      <c r="P19" s="284"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="522"/>
-      <c r="B20" s="528"/>
-      <c r="C20" s="525"/>
-      <c r="D20" s="531"/>
-      <c r="E20" s="525"/>
-      <c r="F20" s="525"/>
-      <c r="G20" s="285"/>
-      <c r="H20" s="285"/>
-      <c r="I20" s="286"/>
-      <c r="J20" s="286"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="285"/>
-      <c r="N20" s="285"/>
-      <c r="O20" s="285"/>
-      <c r="P20" s="285"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="305"/>
-      <c r="B21" s="301"/>
-      <c r="C21" s="293"/>
-      <c r="D21" s="297"/>
-      <c r="E21" s="293"/>
-      <c r="F21" s="293"/>
-      <c r="G21" s="293"/>
-      <c r="H21" s="293"/>
-      <c r="I21" s="302"/>
-      <c r="J21" s="302"/>
-      <c r="K21" s="303"/>
-      <c r="L21" s="304"/>
-      <c r="M21" s="293"/>
-      <c r="N21" s="293"/>
-      <c r="O21" s="293"/>
-      <c r="P21" s="293"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="520"/>
-      <c r="B22" s="535"/>
-      <c r="C22" s="520"/>
-      <c r="D22" s="538"/>
-      <c r="E22" s="520"/>
-      <c r="F22" s="294"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="276"/>
-      <c r="J22" s="276"/>
-      <c r="K22" s="277"/>
-      <c r="L22" s="278"/>
-      <c r="M22" s="294"/>
-      <c r="N22" s="294"/>
-      <c r="O22" s="294"/>
-      <c r="P22" s="294"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="521"/>
-      <c r="B23" s="536"/>
-      <c r="C23" s="521"/>
-      <c r="D23" s="539"/>
-      <c r="E23" s="521"/>
-      <c r="F23" s="295"/>
-      <c r="G23" s="295"/>
-      <c r="H23" s="295"/>
-      <c r="I23" s="281"/>
-      <c r="J23" s="281"/>
-      <c r="K23" s="282"/>
-      <c r="L23" s="283"/>
-      <c r="M23" s="295"/>
-      <c r="N23" s="295"/>
-      <c r="O23" s="295"/>
-      <c r="P23" s="295"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="521"/>
-      <c r="B24" s="536"/>
-      <c r="C24" s="521"/>
-      <c r="D24" s="539"/>
-      <c r="E24" s="521"/>
-      <c r="F24" s="295"/>
-      <c r="G24" s="295"/>
-      <c r="H24" s="295"/>
-      <c r="I24" s="281"/>
-      <c r="J24" s="281"/>
-      <c r="K24" s="282"/>
-      <c r="L24" s="283"/>
-      <c r="M24" s="295"/>
-      <c r="N24" s="295"/>
-      <c r="O24" s="295"/>
-      <c r="P24" s="295"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="522"/>
-      <c r="B25" s="537"/>
-      <c r="C25" s="522"/>
-      <c r="D25" s="540"/>
-      <c r="E25" s="522"/>
-      <c r="F25" s="296"/>
-      <c r="G25" s="296"/>
-      <c r="H25" s="296"/>
-      <c r="I25" s="286"/>
-      <c r="J25" s="286"/>
-      <c r="K25" s="287"/>
-      <c r="L25" s="288"/>
-      <c r="M25" s="296"/>
-      <c r="N25" s="296"/>
-      <c r="O25" s="296"/>
-      <c r="P25" s="296"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="520"/>
-      <c r="B26" s="535"/>
-      <c r="C26" s="520"/>
-      <c r="D26" s="532"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="294"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="276"/>
-      <c r="J26" s="276"/>
-      <c r="K26" s="277"/>
-      <c r="L26" s="278"/>
-      <c r="M26" s="294"/>
-      <c r="N26" s="294"/>
-      <c r="O26" s="294"/>
-      <c r="P26" s="294"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="521"/>
-      <c r="B27" s="536"/>
-      <c r="C27" s="521"/>
-      <c r="D27" s="533"/>
-      <c r="E27" s="295"/>
-      <c r="F27" s="295"/>
-      <c r="G27" s="295"/>
-      <c r="H27" s="295"/>
-      <c r="I27" s="281"/>
-      <c r="J27" s="281"/>
-      <c r="K27" s="282"/>
-      <c r="L27" s="283"/>
-      <c r="M27" s="295"/>
-      <c r="N27" s="295"/>
-      <c r="O27" s="295"/>
-      <c r="P27" s="295"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="522"/>
-      <c r="B28" s="537"/>
-      <c r="C28" s="522"/>
-      <c r="D28" s="534"/>
-      <c r="E28" s="296"/>
-      <c r="F28" s="296"/>
-      <c r="G28" s="296"/>
-      <c r="H28" s="296"/>
-      <c r="I28" s="286"/>
-      <c r="J28" s="286"/>
-      <c r="K28" s="287"/>
-      <c r="L28" s="288"/>
-      <c r="M28" s="296"/>
-      <c r="N28" s="296"/>
-      <c r="O28" s="296"/>
-      <c r="P28" s="296"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="305"/>
-      <c r="B29" s="301"/>
-      <c r="C29" s="293"/>
-      <c r="D29" s="297"/>
-      <c r="E29" s="293"/>
-      <c r="F29" s="293"/>
-      <c r="G29" s="293"/>
-      <c r="H29" s="293"/>
-      <c r="I29" s="302"/>
-      <c r="J29" s="302"/>
-      <c r="K29" s="303"/>
-      <c r="L29" s="304"/>
-      <c r="M29" s="293"/>
-      <c r="N29" s="293"/>
-      <c r="O29" s="293"/>
-      <c r="P29" s="293"/>
-    </row>
-    <row r="30" spans="1:16" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="504" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="504"/>
-      <c r="C30" s="504"/>
-      <c r="D30" s="504"/>
-      <c r="E30" s="504"/>
-      <c r="F30" s="504"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132">
-        <f>SUM(H7:H28)</f>
-        <v>37</v>
-      </c>
-      <c r="I30" s="133">
-        <f>SUM(I7:I28)</f>
-        <v>450000</v>
-      </c>
-      <c r="J30" s="133">
-        <f>SUM(J7:J28)</f>
-        <v>16650000</v>
-      </c>
-      <c r="K30" s="134"/>
-      <c r="L30" s="135">
-        <f>SUM(L7:L21)</f>
-        <v>10822500</v>
-      </c>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="132"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-    </row>
-    <row r="33" spans="1:12" s="274" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="308"/>
-      <c r="C33" s="261"/>
-      <c r="E33" s="298" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="261"/>
-      <c r="G33" s="261"/>
-      <c r="H33" s="261"/>
-      <c r="I33" s="261"/>
-      <c r="L33" s="298" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="274" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="308"/>
-      <c r="C34" s="11"/>
-      <c r="E34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="L34" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="L35" s="299"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="L36" s="299"/>
-    </row>
-    <row r="37" spans="1:12" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="118"/>
-      <c r="C37" s="261"/>
-      <c r="E37" s="261"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="L37" s="300" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="F12:F20"/>
-    <mergeCell ref="B12:B20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12452,7 +12609,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12466,35 +12623,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="365" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="541" t="s">
+      <c r="A1" s="538" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="541"/>
-      <c r="C1" s="541"/>
-      <c r="D1" s="541"/>
+      <c r="B1" s="538"/>
+      <c r="C1" s="538"/>
+      <c r="D1" s="538"/>
       <c r="E1" s="367"/>
       <c r="K1" s="366"/>
       <c r="L1" s="367"/>
     </row>
     <row r="2" spans="1:16" s="365" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
+      <c r="B2" s="539"/>
+      <c r="C2" s="539"/>
+      <c r="D2" s="539"/>
       <c r="E2" s="367"/>
       <c r="K2" s="366"/>
       <c r="L2" s="367"/>
     </row>
     <row r="3" spans="1:16" s="365" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="505" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="505"/>
-      <c r="C3" s="505"/>
-      <c r="D3" s="505"/>
-      <c r="E3" s="505"/>
+      <c r="A3" s="520" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="520"/>
+      <c r="C3" s="520"/>
+      <c r="D3" s="520"/>
+      <c r="E3" s="520"/>
       <c r="F3" s="364"/>
       <c r="G3" s="364"/>
       <c r="H3" s="364"/>
@@ -12530,16 +12687,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="378" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="379" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="379" t="s">
+      <c r="E5" s="380" t="s">
         <v>171</v>
-      </c>
-      <c r="D5" s="377" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="380" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -12550,10 +12707,10 @@
         <v>43983</v>
       </c>
       <c r="C6" s="369" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D6" s="369" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E6" s="374">
         <v>10000</v>
@@ -12565,10 +12722,10 @@
         <v>43983</v>
       </c>
       <c r="C7" s="370" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="370" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E7" s="375">
         <v>10000</v>
@@ -12582,10 +12739,10 @@
         <v>43986</v>
       </c>
       <c r="C8" s="370" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D8" s="370" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E8" s="375">
         <v>10000</v>
@@ -12599,10 +12756,10 @@
         <v>43987</v>
       </c>
       <c r="C9" s="370" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="370" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E9" s="375">
         <v>10000</v>
@@ -12616,10 +12773,10 @@
         <v>43995</v>
       </c>
       <c r="C10" s="370" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D10" s="370" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" s="375">
         <v>10000</v>
@@ -12627,171 +12784,227 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="370">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B11" s="372">
         <v>43995</v>
       </c>
       <c r="C11" s="370" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="370" t="s">
         <v>180</v>
-      </c>
-      <c r="D11" s="370" t="s">
-        <v>179</v>
       </c>
       <c r="E11" s="375">
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="370"/>
-      <c r="B12" s="372"/>
-      <c r="C12" s="370"/>
-      <c r="D12" s="370"/>
-      <c r="E12" s="375"/>
+      <c r="A12" s="370">
+        <v>585</v>
+      </c>
+      <c r="B12" s="372">
+        <v>43997</v>
+      </c>
+      <c r="C12" s="370" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="370" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="375">
+        <v>10000</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="370"/>
-      <c r="B13" s="372"/>
-      <c r="C13" s="370"/>
-      <c r="D13" s="370"/>
-      <c r="E13" s="375"/>
+      <c r="A13" s="370">
+        <v>589</v>
+      </c>
+      <c r="B13" s="372">
+        <v>43998</v>
+      </c>
+      <c r="C13" s="370" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="370" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="375">
+        <v>10000</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="370"/>
       <c r="B14" s="372"/>
-      <c r="C14" s="370"/>
+      <c r="C14" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D14" s="370"/>
       <c r="E14" s="375"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="370"/>
       <c r="B15" s="372"/>
-      <c r="C15" s="370"/>
+      <c r="C15" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D15" s="370"/>
       <c r="E15" s="375"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="370"/>
       <c r="B16" s="372"/>
-      <c r="C16" s="370"/>
+      <c r="C16" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D16" s="370"/>
       <c r="E16" s="375"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="370"/>
       <c r="B17" s="372"/>
-      <c r="C17" s="370"/>
+      <c r="C17" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D17" s="370"/>
       <c r="E17" s="375"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="370"/>
       <c r="B18" s="372"/>
-      <c r="C18" s="370"/>
+      <c r="C18" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D18" s="370"/>
       <c r="E18" s="375"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="370"/>
       <c r="B19" s="372"/>
-      <c r="C19" s="370"/>
+      <c r="C19" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" s="370"/>
       <c r="E19" s="375"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="370"/>
       <c r="B20" s="372"/>
-      <c r="C20" s="370"/>
+      <c r="C20" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D20" s="370"/>
       <c r="E20" s="375"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="370"/>
       <c r="B21" s="372"/>
-      <c r="C21" s="370"/>
+      <c r="C21" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D21" s="370"/>
       <c r="E21" s="375"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="370"/>
       <c r="B22" s="372"/>
-      <c r="C22" s="370"/>
+      <c r="C22" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D22" s="370"/>
       <c r="E22" s="375"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="370"/>
       <c r="B23" s="372"/>
-      <c r="C23" s="370"/>
+      <c r="C23" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D23" s="370"/>
       <c r="E23" s="375"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="370"/>
       <c r="B24" s="372"/>
-      <c r="C24" s="370"/>
+      <c r="C24" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D24" s="370"/>
       <c r="E24" s="375"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="370"/>
       <c r="B25" s="372"/>
-      <c r="C25" s="370"/>
+      <c r="C25" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D25" s="370"/>
       <c r="E25" s="375"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="370"/>
       <c r="B26" s="372"/>
-      <c r="C26" s="370"/>
+      <c r="C26" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D26" s="370"/>
       <c r="E26" s="375"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="370"/>
       <c r="B27" s="372"/>
-      <c r="C27" s="370"/>
+      <c r="C27" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D27" s="370"/>
       <c r="E27" s="375"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="370"/>
       <c r="B28" s="372"/>
-      <c r="C28" s="370"/>
+      <c r="C28" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D28" s="370"/>
       <c r="E28" s="375"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="370"/>
       <c r="B29" s="372"/>
-      <c r="C29" s="370"/>
+      <c r="C29" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D29" s="370"/>
       <c r="E29" s="375"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="370"/>
       <c r="B30" s="372"/>
-      <c r="C30" s="370"/>
+      <c r="C30" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D30" s="370"/>
       <c r="E30" s="375"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="370"/>
       <c r="B31" s="372"/>
-      <c r="C31" s="370"/>
+      <c r="C31" s="370" t="s">
+        <v>177</v>
+      </c>
       <c r="D31" s="370"/>
       <c r="E31" s="375"/>
     </row>
     <row r="32" spans="1:5" s="382" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="543" t="s">
+      <c r="A32" s="540" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="544"/>
-      <c r="C32" s="544"/>
-      <c r="D32" s="545"/>
+      <c r="B32" s="541"/>
+      <c r="C32" s="541"/>
+      <c r="D32" s="542"/>
       <c r="E32" s="381">
         <f>SUM(E6:E31)</f>
-        <v>60000</v>
+        <v>80000</v>
       </c>
     </row>
   </sheetData>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$78</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="218">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -531,9 +531,6 @@
     <t>NGÀY THÁNG</t>
   </si>
   <si>
-    <t>NGƯỜI VẬN CHUYỂN</t>
-  </si>
-  <si>
     <t>NỘI DUNG</t>
   </si>
   <si>
@@ -543,9 +540,6 @@
     <t>Phạm Ngọc Anh _ Thái Bình, BX Mỹ Đình</t>
   </si>
   <si>
-    <t>Chị Nguyệt _ Sale Thái  Nguyên, Mỹ Đình</t>
-  </si>
-  <si>
     <t>Đinh Thị Mai Hồng _ Sơn La, Mỹ Đình</t>
   </si>
   <si>
@@ -640,14 +634,59 @@
   </si>
   <si>
     <t>Tiền hàng  tháng 5 ở An Khánh CTT công ty (11-13/5)</t>
+  </si>
+  <si>
+    <t>E Cường A thành Phạm Hùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chị Phú Dịch Vọng </t>
+  </si>
+  <si>
+    <t>Anh Tùng CTV</t>
+  </si>
+  <si>
+    <t>Chị Huệ Điện Biên 5 thùng</t>
+  </si>
+  <si>
+    <t>Chị phương Yên Châu</t>
+  </si>
+  <si>
+    <t>Chị Tâm</t>
+  </si>
+  <si>
+    <t>Em Hằng</t>
+  </si>
+  <si>
+    <t>Chị  huệ điện biên</t>
+  </si>
+  <si>
+    <t>Chị Phú 31 Dịch Vọng</t>
+  </si>
+  <si>
+    <t>Chị Quân khách đầm trấu</t>
+  </si>
+  <si>
+    <t>Lương, thưởng</t>
+  </si>
+  <si>
+    <t>thanh toán lương tháng 5 cho hoàng</t>
+  </si>
+  <si>
+    <t>thanh toán lương tháng 5 cho hằng</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>835+475+250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
@@ -1358,7 +1397,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="541">
+  <cellXfs count="544">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2181,18 +2220,8 @@
     <xf numFmtId="14" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="40" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="37" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2415,6 +2444,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2673,15 +2703,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2694,18 +2715,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2718,6 +2739,15 @@
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2867,6 +2897,24 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2934,7 +2982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2969,7 +3017,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3182,7 +3230,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,15 +3282,15 @@
       <c r="H3" s="118"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="394" t="s">
+      <c r="A4" s="391" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="394"/>
-      <c r="C4" s="394"/>
-      <c r="D4" s="394"/>
-      <c r="E4" s="394"/>
-      <c r="F4" s="394"/>
-      <c r="G4" s="394"/>
+      <c r="B4" s="391"/>
+      <c r="C4" s="391"/>
+      <c r="D4" s="391"/>
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="391"/>
       <c r="H4" s="118"/>
     </row>
     <row r="5" spans="1:8" s="116" customFormat="1" x14ac:dyDescent="0.25">
@@ -3254,28 +3302,28 @@
       <c r="G5" s="115"/>
     </row>
     <row r="6" spans="1:8" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="395" t="s">
+      <c r="A6" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="395" t="s">
+      <c r="B6" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="397" t="s">
+      <c r="C6" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="399" t="s">
+      <c r="D6" s="396" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399" t="s">
+      <c r="E6" s="396"/>
+      <c r="F6" s="396" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="399"/>
+      <c r="G6" s="396"/>
     </row>
     <row r="7" spans="1:8" s="116" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="396"/>
-      <c r="B7" s="396"/>
-      <c r="C7" s="398"/>
+      <c r="A7" s="393"/>
+      <c r="B7" s="393"/>
+      <c r="C7" s="395"/>
       <c r="D7" s="120" t="s">
         <v>83</v>
       </c>
@@ -3327,20 +3375,32 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="155"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
+      <c r="B12" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>214</v>
+      </c>
       <c r="D12" s="104"/>
       <c r="E12" s="121"/>
-      <c r="F12" s="104"/>
+      <c r="F12" s="104">
+        <v>2100000</v>
+      </c>
       <c r="G12" s="121"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="155"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
+      <c r="B13" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>215</v>
+      </c>
       <c r="D13" s="104"/>
       <c r="E13" s="121"/>
-      <c r="F13" s="104"/>
+      <c r="F13" s="104">
+        <v>4000000</v>
+      </c>
       <c r="G13" s="121"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3922,11 +3982,11 @@
       <c r="G77" s="123"/>
     </row>
     <row r="78" spans="1:7" s="126" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="391" t="s">
+      <c r="A78" s="388" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="392"/>
-      <c r="C78" s="393"/>
+      <c r="B78" s="389"/>
+      <c r="C78" s="390"/>
       <c r="D78" s="125">
         <f>SUM(D8:D77)</f>
         <v>0</v>
@@ -3937,7 +3997,7 @@
       </c>
       <c r="F78" s="125">
         <f>SUM(F8:F77)</f>
-        <v>0</v>
+        <v>6100000</v>
       </c>
       <c r="G78" s="125">
         <f>SUM(G8:G77)</f>
@@ -3954,10 +4014,10 @@
       <c r="G79" s="128"/>
     </row>
     <row r="80" spans="1:7" s="126" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="390" t="s">
+      <c r="A80" s="387" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="390"/>
+      <c r="B80" s="387"/>
       <c r="C80" s="127"/>
       <c r="D80" s="128"/>
       <c r="E80" s="128"/>
@@ -4066,207 +4126,207 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="352"/>
-    <col min="2" max="2" width="11.5703125" style="374" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="386"/>
-    <col min="4" max="4" width="12.7109375" style="352" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="352" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="352"/>
-    <col min="8" max="8" width="13.28515625" style="387" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="387" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="387" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="388"/>
-    <col min="12" max="12" width="15.85546875" style="387" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="387" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="387" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="387" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="352" customWidth="1"/>
-    <col min="17" max="17" width="13" style="352" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="352"/>
+    <col min="1" max="1" width="9.140625" style="348"/>
+    <col min="2" max="2" width="11.5703125" style="370" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="382"/>
+    <col min="4" max="4" width="12.7109375" style="348" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="348" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="348"/>
+    <col min="8" max="8" width="13.28515625" style="383" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="383" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="383" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="384"/>
+    <col min="12" max="12" width="15.85546875" style="383" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="383" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="383" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="383" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="348" customWidth="1"/>
+    <col min="17" max="17" width="13" style="348" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="348"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="338" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="423" t="s">
+    <row r="1" spans="1:17" s="334" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="420" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="423"/>
-      <c r="C1" s="423"/>
-      <c r="D1" s="423"/>
-      <c r="E1" s="423"/>
-      <c r="H1" s="339"/>
-      <c r="I1" s="339"/>
-      <c r="J1" s="339"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="339"/>
-      <c r="M1" s="339"/>
-      <c r="N1" s="341"/>
-      <c r="O1" s="339"/>
-    </row>
-    <row r="2" spans="1:17" s="338" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="342" t="s">
+      <c r="B1" s="420"/>
+      <c r="C1" s="420"/>
+      <c r="D1" s="420"/>
+      <c r="E1" s="420"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="335"/>
+    </row>
+    <row r="2" spans="1:17" s="334" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="338" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="343"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="342"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
-      <c r="J2" s="339"/>
-      <c r="K2" s="340"/>
-      <c r="L2" s="339"/>
-      <c r="M2" s="339"/>
-      <c r="N2" s="345"/>
-      <c r="O2" s="339"/>
-    </row>
-    <row r="3" spans="1:17" s="338" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="423" t="s">
+      <c r="B2" s="339"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="341"/>
+      <c r="O2" s="335"/>
+    </row>
+    <row r="3" spans="1:17" s="334" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="420" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="423"/>
-      <c r="C3" s="423"/>
-      <c r="D3" s="423"/>
-      <c r="E3" s="423"/>
-      <c r="F3" s="423"/>
-      <c r="G3" s="423"/>
-      <c r="H3" s="423"/>
-      <c r="I3" s="423"/>
-      <c r="J3" s="423"/>
-      <c r="K3" s="423"/>
-      <c r="L3" s="423"/>
-      <c r="M3" s="423"/>
-      <c r="N3" s="423"/>
-      <c r="O3" s="423"/>
-      <c r="P3" s="423"/>
-    </row>
-    <row r="4" spans="1:17" s="338" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="423" t="s">
+      <c r="B3" s="420"/>
+      <c r="C3" s="420"/>
+      <c r="D3" s="420"/>
+      <c r="E3" s="420"/>
+      <c r="F3" s="420"/>
+      <c r="G3" s="420"/>
+      <c r="H3" s="420"/>
+      <c r="I3" s="420"/>
+      <c r="J3" s="420"/>
+      <c r="K3" s="420"/>
+      <c r="L3" s="420"/>
+      <c r="M3" s="420"/>
+      <c r="N3" s="420"/>
+      <c r="O3" s="420"/>
+      <c r="P3" s="420"/>
+    </row>
+    <row r="4" spans="1:17" s="334" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="420" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="423"/>
-      <c r="C4" s="423"/>
-      <c r="D4" s="423"/>
-      <c r="E4" s="423"/>
-      <c r="F4" s="423"/>
-      <c r="G4" s="423"/>
-      <c r="H4" s="423"/>
-      <c r="I4" s="423"/>
-      <c r="J4" s="423"/>
-      <c r="K4" s="423"/>
-      <c r="L4" s="423"/>
-      <c r="M4" s="423"/>
-      <c r="N4" s="423"/>
-      <c r="O4" s="423"/>
-      <c r="P4" s="423"/>
-    </row>
-    <row r="5" spans="1:17" s="338" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="423"/>
-      <c r="B5" s="423"/>
-      <c r="C5" s="423"/>
-      <c r="D5" s="423"/>
-      <c r="E5" s="423"/>
-      <c r="F5" s="423"/>
-      <c r="G5" s="423"/>
-      <c r="H5" s="423"/>
-      <c r="I5" s="423"/>
-      <c r="J5" s="423"/>
-      <c r="K5" s="424"/>
-      <c r="L5" s="424"/>
-      <c r="M5" s="339"/>
-      <c r="N5" s="339"/>
-      <c r="O5" s="339"/>
-    </row>
-    <row r="6" spans="1:17" s="346" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="420" t="s">
+      <c r="B4" s="420"/>
+      <c r="C4" s="420"/>
+      <c r="D4" s="420"/>
+      <c r="E4" s="420"/>
+      <c r="F4" s="420"/>
+      <c r="G4" s="420"/>
+      <c r="H4" s="420"/>
+      <c r="I4" s="420"/>
+      <c r="J4" s="420"/>
+      <c r="K4" s="420"/>
+      <c r="L4" s="420"/>
+      <c r="M4" s="420"/>
+      <c r="N4" s="420"/>
+      <c r="O4" s="420"/>
+      <c r="P4" s="420"/>
+    </row>
+    <row r="5" spans="1:17" s="334" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="420"/>
+      <c r="B5" s="420"/>
+      <c r="C5" s="420"/>
+      <c r="D5" s="420"/>
+      <c r="E5" s="420"/>
+      <c r="F5" s="420"/>
+      <c r="G5" s="420"/>
+      <c r="H5" s="420"/>
+      <c r="I5" s="420"/>
+      <c r="J5" s="420"/>
+      <c r="K5" s="421"/>
+      <c r="L5" s="421"/>
+      <c r="M5" s="335"/>
+      <c r="N5" s="335"/>
+      <c r="O5" s="335"/>
+    </row>
+    <row r="6" spans="1:17" s="342" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="417" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="422" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="427" t="s">
+      <c r="C6" s="424" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="429" t="s">
+      <c r="D6" s="426" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="429"/>
-      <c r="F6" s="430" t="s">
+      <c r="E6" s="426"/>
+      <c r="F6" s="427" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="430"/>
-      <c r="H6" s="430"/>
-      <c r="I6" s="430"/>
-      <c r="J6" s="430"/>
-      <c r="K6" s="430"/>
-      <c r="L6" s="430"/>
-      <c r="M6" s="431"/>
-      <c r="N6" s="431"/>
-      <c r="O6" s="431"/>
-      <c r="P6" s="432" t="s">
+      <c r="G6" s="427"/>
+      <c r="H6" s="427"/>
+      <c r="I6" s="427"/>
+      <c r="J6" s="427"/>
+      <c r="K6" s="427"/>
+      <c r="L6" s="427"/>
+      <c r="M6" s="428"/>
+      <c r="N6" s="428"/>
+      <c r="O6" s="428"/>
+      <c r="P6" s="429" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="346" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="421"/>
-      <c r="B7" s="426"/>
-      <c r="C7" s="428"/>
-      <c r="D7" s="420" t="s">
+    <row r="7" spans="1:17" s="342" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="418"/>
+      <c r="B7" s="423"/>
+      <c r="C7" s="425"/>
+      <c r="D7" s="417" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="420" t="s">
+      <c r="E7" s="417" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="420" t="s">
+      <c r="F7" s="417" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="420" t="s">
+      <c r="G7" s="417" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="418" t="s">
+      <c r="H7" s="415" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="418" t="s">
+      <c r="I7" s="415" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="422" t="s">
+      <c r="J7" s="419" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="422"/>
-      <c r="L7" s="418" t="s">
+      <c r="K7" s="419"/>
+      <c r="L7" s="415" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="418" t="s">
+      <c r="M7" s="415" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="418" t="s">
+      <c r="N7" s="415" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="418" t="s">
+      <c r="O7" s="415" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="433"/>
-    </row>
-    <row r="8" spans="1:17" s="346" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="421"/>
-      <c r="B8" s="426"/>
-      <c r="C8" s="428"/>
-      <c r="D8" s="421"/>
-      <c r="E8" s="421"/>
-      <c r="F8" s="421"/>
-      <c r="G8" s="421"/>
-      <c r="H8" s="419"/>
-      <c r="I8" s="419"/>
-      <c r="J8" s="347" t="s">
+      <c r="P7" s="430"/>
+    </row>
+    <row r="8" spans="1:17" s="342" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="418"/>
+      <c r="B8" s="423"/>
+      <c r="C8" s="425"/>
+      <c r="D8" s="418"/>
+      <c r="E8" s="418"/>
+      <c r="F8" s="418"/>
+      <c r="G8" s="418"/>
+      <c r="H8" s="416"/>
+      <c r="I8" s="416"/>
+      <c r="J8" s="343" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="348" t="s">
+      <c r="K8" s="344" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="419"/>
-      <c r="M8" s="419"/>
-      <c r="N8" s="419"/>
-      <c r="O8" s="419"/>
-      <c r="P8" s="433"/>
+      <c r="L8" s="416"/>
+      <c r="M8" s="416"/>
+      <c r="N8" s="416"/>
+      <c r="O8" s="416"/>
+      <c r="P8" s="430"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="260">
@@ -4275,7 +4335,7 @@
       <c r="B9" s="144">
         <v>43974</v>
       </c>
-      <c r="C9" s="349" t="s">
+      <c r="C9" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D9" s="141" t="s">
@@ -4290,24 +4350,24 @@
       <c r="G9" s="260">
         <v>2</v>
       </c>
-      <c r="H9" s="350">
+      <c r="H9" s="346">
         <v>475000</v>
       </c>
-      <c r="I9" s="350">
+      <c r="I9" s="346">
         <f>G9*H9</f>
         <v>950000</v>
       </c>
-      <c r="J9" s="350"/>
-      <c r="K9" s="351">
+      <c r="J9" s="346"/>
+      <c r="K9" s="347">
         <v>0.41</v>
       </c>
-      <c r="L9" s="350">
+      <c r="L9" s="346">
         <f>I9*(1-K9)</f>
         <v>560500.00000000012</v>
       </c>
-      <c r="M9" s="350"/>
-      <c r="N9" s="350"/>
-      <c r="O9" s="350">
+      <c r="M9" s="346"/>
+      <c r="N9" s="346"/>
+      <c r="O9" s="346">
         <f t="shared" ref="O9:O15" si="0">L9</f>
         <v>560500.00000000012</v>
       </c>
@@ -4320,7 +4380,7 @@
       <c r="B10" s="144">
         <v>43974</v>
       </c>
-      <c r="C10" s="349" t="s">
+      <c r="C10" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D10" s="141" t="s">
@@ -4335,24 +4395,24 @@
       <c r="G10" s="260">
         <v>3</v>
       </c>
-      <c r="H10" s="350">
+      <c r="H10" s="346">
         <v>475000</v>
       </c>
-      <c r="I10" s="350">
+      <c r="I10" s="346">
         <f>G10*H10</f>
         <v>1425000</v>
       </c>
-      <c r="J10" s="350"/>
-      <c r="K10" s="351">
+      <c r="J10" s="346"/>
+      <c r="K10" s="347">
         <v>0.41</v>
       </c>
-      <c r="L10" s="350">
+      <c r="L10" s="346">
         <f>I10*(1-K10)</f>
         <v>840750.00000000012</v>
       </c>
-      <c r="M10" s="350"/>
-      <c r="N10" s="350"/>
-      <c r="O10" s="350">
+      <c r="M10" s="346"/>
+      <c r="N10" s="346"/>
+      <c r="O10" s="346">
         <f t="shared" si="0"/>
         <v>840750.00000000012</v>
       </c>
@@ -4365,7 +4425,7 @@
       <c r="B11" s="144">
         <v>43976</v>
       </c>
-      <c r="C11" s="349"/>
+      <c r="C11" s="345"/>
       <c r="D11" s="141" t="s">
         <v>133</v>
       </c>
@@ -4378,45 +4438,45 @@
       <c r="G11" s="260">
         <v>24</v>
       </c>
-      <c r="H11" s="350">
+      <c r="H11" s="346">
         <v>225000</v>
       </c>
-      <c r="I11" s="350">
+      <c r="I11" s="346">
         <f>G11*H11</f>
         <v>5400000</v>
       </c>
-      <c r="J11" s="350">
+      <c r="J11" s="346">
         <v>100000</v>
       </c>
-      <c r="K11" s="351">
+      <c r="K11" s="347">
         <v>0.41</v>
       </c>
-      <c r="L11" s="350">
+      <c r="L11" s="346">
         <f>I11*(1-K11)-J11</f>
         <v>3086000.0000000005</v>
       </c>
-      <c r="M11" s="350"/>
-      <c r="N11" s="350"/>
-      <c r="O11" s="350">
+      <c r="M11" s="346"/>
+      <c r="N11" s="346"/>
+      <c r="O11" s="346">
         <f t="shared" si="0"/>
         <v>3086000.0000000005</v>
       </c>
       <c r="P11" s="260"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="404">
+      <c r="A12" s="401">
         <v>557</v>
       </c>
-      <c r="B12" s="402">
+      <c r="B12" s="399">
         <v>43981</v>
       </c>
-      <c r="C12" s="412" t="s">
+      <c r="C12" s="409" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="404" t="s">
+      <c r="D12" s="401" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="404" t="s">
+      <c r="E12" s="401" t="s">
         <v>136</v>
       </c>
       <c r="F12" s="260" t="s">
@@ -4425,67 +4485,67 @@
       <c r="G12" s="260">
         <v>2</v>
       </c>
-      <c r="H12" s="350">
+      <c r="H12" s="346">
         <v>225000</v>
       </c>
-      <c r="I12" s="350">
+      <c r="I12" s="346">
         <f t="shared" ref="I12:I55" si="1">G12*H12</f>
         <v>450000</v>
       </c>
-      <c r="J12" s="350"/>
-      <c r="K12" s="351">
+      <c r="J12" s="346"/>
+      <c r="K12" s="347">
         <v>0.41</v>
       </c>
-      <c r="L12" s="350">
+      <c r="L12" s="346">
         <f t="shared" ref="L12:L55" si="2">I12*(1-K12)</f>
         <v>265500.00000000006</v>
       </c>
-      <c r="M12" s="350"/>
-      <c r="N12" s="350"/>
-      <c r="O12" s="350">
+      <c r="M12" s="346"/>
+      <c r="N12" s="346"/>
+      <c r="O12" s="346">
         <f t="shared" si="0"/>
         <v>265500.00000000006</v>
       </c>
       <c r="P12" s="260"/>
-      <c r="Q12" s="353">
+      <c r="Q12" s="349">
         <f>2100000-(O12+O13+O14+L30)</f>
         <v>834449.99999999977</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="405"/>
-      <c r="B13" s="403"/>
-      <c r="C13" s="413"/>
-      <c r="D13" s="405"/>
-      <c r="E13" s="405"/>
+      <c r="A13" s="402"/>
+      <c r="B13" s="400"/>
+      <c r="C13" s="410"/>
+      <c r="D13" s="402"/>
+      <c r="E13" s="402"/>
       <c r="F13" s="260" t="s">
         <v>137</v>
       </c>
       <c r="G13" s="260">
         <v>1</v>
       </c>
-      <c r="H13" s="350">
+      <c r="H13" s="346">
         <v>235000</v>
       </c>
-      <c r="I13" s="350">
+      <c r="I13" s="346">
         <f t="shared" si="1"/>
         <v>235000</v>
       </c>
-      <c r="J13" s="354"/>
-      <c r="K13" s="351">
+      <c r="J13" s="350"/>
+      <c r="K13" s="347">
         <v>0.41</v>
       </c>
-      <c r="L13" s="350">
+      <c r="L13" s="346">
         <f t="shared" si="2"/>
         <v>138650.00000000003</v>
       </c>
-      <c r="M13" s="354"/>
-      <c r="N13" s="350"/>
-      <c r="O13" s="350">
+      <c r="M13" s="350"/>
+      <c r="N13" s="346"/>
+      <c r="O13" s="346">
         <f t="shared" si="0"/>
         <v>138650.00000000003</v>
       </c>
-      <c r="P13" s="355"/>
+      <c r="P13" s="351"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="260">
@@ -4494,7 +4554,7 @@
       <c r="B14" s="144">
         <v>43982</v>
       </c>
-      <c r="C14" s="349" t="s">
+      <c r="C14" s="345" t="s">
         <v>128</v>
       </c>
       <c r="D14" s="146" t="s">
@@ -4512,25 +4572,25 @@
       <c r="H14" s="260">
         <v>455000</v>
       </c>
-      <c r="I14" s="350">
+      <c r="I14" s="346">
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="J14" s="354"/>
-      <c r="K14" s="351">
+      <c r="J14" s="350"/>
+      <c r="K14" s="347">
         <v>0.41</v>
       </c>
-      <c r="L14" s="350">
+      <c r="L14" s="346">
         <f t="shared" si="2"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="M14" s="354"/>
-      <c r="N14" s="350"/>
-      <c r="O14" s="350">
+      <c r="M14" s="350"/>
+      <c r="N14" s="346"/>
+      <c r="O14" s="346">
         <f t="shared" si="0"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="P14" s="355"/>
+      <c r="P14" s="351"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="260">
@@ -4539,7 +4599,7 @@
       <c r="B15" s="144">
         <v>43983</v>
       </c>
-      <c r="C15" s="349" t="s">
+      <c r="C15" s="345" t="s">
         <v>132</v>
       </c>
       <c r="D15" s="146" t="s">
@@ -4557,40 +4617,40 @@
       <c r="H15" s="260">
         <v>455000</v>
       </c>
-      <c r="I15" s="350">
+      <c r="I15" s="346">
         <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
-      <c r="J15" s="354"/>
-      <c r="K15" s="351">
+      <c r="J15" s="350"/>
+      <c r="K15" s="347">
         <v>0.41</v>
       </c>
-      <c r="L15" s="350">
+      <c r="L15" s="346">
         <f t="shared" si="2"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="M15" s="354"/>
-      <c r="N15" s="350"/>
-      <c r="O15" s="350">
+      <c r="M15" s="350"/>
+      <c r="N15" s="346"/>
+      <c r="O15" s="346">
         <f t="shared" si="0"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P15" s="355"/>
+      <c r="P15" s="351"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="404">
+      <c r="A16" s="401">
         <v>563</v>
       </c>
-      <c r="B16" s="402">
+      <c r="B16" s="399">
         <v>43986</v>
       </c>
-      <c r="C16" s="412" t="s">
+      <c r="C16" s="409" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="400" t="s">
+      <c r="D16" s="397" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="400" t="s">
+      <c r="E16" s="397" t="s">
         <v>145</v>
       </c>
       <c r="F16" s="260" t="s">
@@ -4602,32 +4662,32 @@
       <c r="H16" s="260">
         <v>550000</v>
       </c>
-      <c r="I16" s="350">
+      <c r="I16" s="346">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="J16" s="354"/>
-      <c r="K16" s="351">
+      <c r="J16" s="350"/>
+      <c r="K16" s="347">
         <v>0.41</v>
       </c>
-      <c r="L16" s="350">
+      <c r="L16" s="346">
         <f t="shared" si="2"/>
         <v>324500.00000000006</v>
       </c>
-      <c r="M16" s="354"/>
-      <c r="N16" s="350">
+      <c r="M16" s="350"/>
+      <c r="N16" s="346">
         <f>L16</f>
         <v>324500.00000000006</v>
       </c>
-      <c r="O16" s="350"/>
-      <c r="P16" s="355"/>
+      <c r="O16" s="346"/>
+      <c r="P16" s="351"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="405"/>
-      <c r="B17" s="403"/>
-      <c r="C17" s="413"/>
-      <c r="D17" s="401"/>
-      <c r="E17" s="401"/>
+      <c r="A17" s="402"/>
+      <c r="B17" s="400"/>
+      <c r="C17" s="410"/>
+      <c r="D17" s="398"/>
+      <c r="E17" s="398"/>
       <c r="F17" s="260" t="s">
         <v>141</v>
       </c>
@@ -4637,25 +4697,25 @@
       <c r="H17" s="260">
         <v>455000</v>
       </c>
-      <c r="I17" s="350">
+      <c r="I17" s="346">
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="J17" s="354"/>
-      <c r="K17" s="351">
+      <c r="J17" s="350"/>
+      <c r="K17" s="347">
         <v>0.41</v>
       </c>
-      <c r="L17" s="350">
+      <c r="L17" s="346">
         <f t="shared" si="2"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="M17" s="354"/>
-      <c r="N17" s="350">
+      <c r="M17" s="350"/>
+      <c r="N17" s="346">
         <f>L17</f>
         <v>536900.00000000012</v>
       </c>
-      <c r="O17" s="350"/>
-      <c r="P17" s="355"/>
+      <c r="O17" s="346"/>
+      <c r="P17" s="351"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="260">
@@ -4664,7 +4724,7 @@
       <c r="B18" s="144">
         <v>43986</v>
       </c>
-      <c r="C18" s="349" t="s">
+      <c r="C18" s="345" t="s">
         <v>132</v>
       </c>
       <c r="D18" s="146" t="s">
@@ -4682,25 +4742,25 @@
       <c r="H18" s="260">
         <v>475000</v>
       </c>
-      <c r="I18" s="350">
+      <c r="I18" s="346">
         <f t="shared" si="1"/>
         <v>5700000</v>
       </c>
-      <c r="J18" s="354"/>
-      <c r="K18" s="351">
+      <c r="J18" s="350"/>
+      <c r="K18" s="347">
         <v>0.41</v>
       </c>
-      <c r="L18" s="350">
+      <c r="L18" s="346">
         <f t="shared" si="2"/>
         <v>3363000.0000000005</v>
       </c>
-      <c r="M18" s="354"/>
-      <c r="N18" s="350"/>
-      <c r="O18" s="350">
+      <c r="M18" s="350"/>
+      <c r="N18" s="346"/>
+      <c r="O18" s="346">
         <f>L18</f>
         <v>3363000.0000000005</v>
       </c>
-      <c r="P18" s="355"/>
+      <c r="P18" s="351"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="260">
@@ -4709,7 +4769,7 @@
       <c r="B19" s="144">
         <v>43990</v>
       </c>
-      <c r="C19" s="349"/>
+      <c r="C19" s="345"/>
       <c r="D19" s="141" t="s">
         <v>133</v>
       </c>
@@ -4725,38 +4785,38 @@
       <c r="H19" s="260">
         <v>455000</v>
       </c>
-      <c r="I19" s="350">
+      <c r="I19" s="346">
         <f t="shared" si="1"/>
         <v>10920000</v>
       </c>
-      <c r="J19" s="354"/>
-      <c r="K19" s="351">
+      <c r="J19" s="350"/>
+      <c r="K19" s="347">
         <v>0.41</v>
       </c>
-      <c r="L19" s="350">
+      <c r="L19" s="346">
         <f t="shared" si="2"/>
         <v>6442800.0000000009</v>
       </c>
-      <c r="M19" s="354"/>
-      <c r="N19" s="350"/>
-      <c r="O19" s="350">
+      <c r="M19" s="350"/>
+      <c r="N19" s="346"/>
+      <c r="O19" s="346">
         <f>L19</f>
         <v>6442800.0000000009</v>
       </c>
-      <c r="P19" s="355"/>
+      <c r="P19" s="351"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="404">
+      <c r="A20" s="401">
         <v>567</v>
       </c>
-      <c r="B20" s="402">
+      <c r="B20" s="399">
         <v>43990</v>
       </c>
-      <c r="C20" s="404"/>
-      <c r="D20" s="400" t="s">
+      <c r="C20" s="401"/>
+      <c r="D20" s="397" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="400" t="s">
+      <c r="E20" s="397" t="s">
         <v>151</v>
       </c>
       <c r="F20" s="260" t="s">
@@ -4768,47 +4828,47 @@
       <c r="H20" s="260">
         <v>455000</v>
       </c>
-      <c r="I20" s="350">
+      <c r="I20" s="346">
         <f t="shared" si="1"/>
         <v>4095000</v>
       </c>
-      <c r="J20" s="350"/>
-      <c r="K20" s="351">
+      <c r="J20" s="346"/>
+      <c r="K20" s="347">
         <v>0.41</v>
       </c>
-      <c r="L20" s="350">
+      <c r="L20" s="346">
         <f t="shared" si="2"/>
         <v>2416050.0000000005</v>
       </c>
-      <c r="M20" s="350"/>
-      <c r="N20" s="350"/>
-      <c r="O20" s="350">
+      <c r="M20" s="346"/>
+      <c r="N20" s="346"/>
+      <c r="O20" s="346">
         <f>L20</f>
         <v>2416050.0000000005</v>
       </c>
-      <c r="P20" s="355"/>
+      <c r="P20" s="351"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="405"/>
-      <c r="B21" s="403"/>
-      <c r="C21" s="405"/>
-      <c r="D21" s="401"/>
-      <c r="E21" s="401"/>
+      <c r="A21" s="402"/>
+      <c r="B21" s="400"/>
+      <c r="C21" s="402"/>
+      <c r="D21" s="398"/>
+      <c r="E21" s="398"/>
       <c r="F21" s="260" t="s">
         <v>138</v>
       </c>
       <c r="G21" s="260">
         <v>3</v>
       </c>
-      <c r="H21" s="350">
+      <c r="H21" s="346">
         <v>455000</v>
       </c>
-      <c r="I21" s="350">
+      <c r="I21" s="346">
         <f t="shared" si="1"/>
         <v>1365000</v>
       </c>
-      <c r="J21" s="356"/>
-      <c r="K21" s="351">
+      <c r="J21" s="352"/>
+      <c r="K21" s="347">
         <v>0.41</v>
       </c>
       <c r="L21" s="142">
@@ -4816,25 +4876,25 @@
         <v>805350.00000000012</v>
       </c>
       <c r="M21" s="142"/>
-      <c r="N21" s="350"/>
-      <c r="O21" s="350">
+      <c r="N21" s="346"/>
+      <c r="O21" s="346">
         <f>L21</f>
         <v>805350.00000000012</v>
       </c>
-      <c r="P21" s="355"/>
+      <c r="P21" s="351"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="404">
+      <c r="A22" s="401">
         <v>571</v>
       </c>
-      <c r="B22" s="402">
+      <c r="B22" s="399">
         <v>43990</v>
       </c>
-      <c r="C22" s="404"/>
-      <c r="D22" s="404" t="s">
+      <c r="C22" s="401"/>
+      <c r="D22" s="401" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="404" t="s">
+      <c r="E22" s="401" t="s">
         <v>153</v>
       </c>
       <c r="F22" s="260" t="s">
@@ -4843,331 +4903,331 @@
       <c r="G22" s="260">
         <v>72</v>
       </c>
-      <c r="H22" s="350">
+      <c r="H22" s="346">
         <v>255000</v>
       </c>
-      <c r="I22" s="350">
+      <c r="I22" s="346">
         <f t="shared" si="1"/>
         <v>18360000</v>
       </c>
-      <c r="J22" s="356"/>
-      <c r="K22" s="351"/>
+      <c r="J22" s="352"/>
+      <c r="K22" s="347"/>
       <c r="L22" s="142">
         <f t="shared" si="2"/>
         <v>18360000</v>
       </c>
       <c r="M22" s="142"/>
-      <c r="N22" s="350"/>
-      <c r="O22" s="350">
+      <c r="N22" s="346"/>
+      <c r="O22" s="346">
         <f>L22</f>
         <v>18360000</v>
       </c>
       <c r="P22" s="260"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="406"/>
-      <c r="B23" s="411"/>
-      <c r="C23" s="406"/>
-      <c r="D23" s="406"/>
-      <c r="E23" s="406"/>
+      <c r="A23" s="403"/>
+      <c r="B23" s="408"/>
+      <c r="C23" s="403"/>
+      <c r="D23" s="403"/>
+      <c r="E23" s="403"/>
       <c r="F23" s="260" t="s">
         <v>149</v>
       </c>
       <c r="G23" s="260">
         <v>36</v>
       </c>
-      <c r="H23" s="350">
+      <c r="H23" s="346">
         <v>455000</v>
       </c>
-      <c r="I23" s="350">
+      <c r="I23" s="346">
         <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-      <c r="J23" s="356"/>
-      <c r="K23" s="351"/>
+      <c r="J23" s="352"/>
+      <c r="K23" s="347"/>
       <c r="L23" s="142">
         <f t="shared" si="2"/>
         <v>16380000</v>
       </c>
       <c r="M23" s="142"/>
-      <c r="N23" s="350"/>
-      <c r="O23" s="350">
+      <c r="N23" s="346"/>
+      <c r="O23" s="346">
         <f t="shared" ref="O23:O29" si="3">L23</f>
         <v>16380000</v>
       </c>
       <c r="P23" s="260"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="406"/>
-      <c r="B24" s="411"/>
-      <c r="C24" s="406"/>
-      <c r="D24" s="406"/>
-      <c r="E24" s="406"/>
+      <c r="A24" s="403"/>
+      <c r="B24" s="408"/>
+      <c r="C24" s="403"/>
+      <c r="D24" s="403"/>
+      <c r="E24" s="403"/>
       <c r="F24" s="260" t="s">
         <v>154</v>
       </c>
       <c r="G24" s="260">
         <v>84</v>
       </c>
-      <c r="H24" s="350">
+      <c r="H24" s="346">
         <v>465000</v>
       </c>
-      <c r="I24" s="350">
+      <c r="I24" s="346">
         <f t="shared" si="1"/>
         <v>39060000</v>
       </c>
-      <c r="J24" s="356"/>
-      <c r="K24" s="351"/>
+      <c r="J24" s="352"/>
+      <c r="K24" s="347"/>
       <c r="L24" s="142">
         <f t="shared" si="2"/>
         <v>39060000</v>
       </c>
-      <c r="M24" s="350"/>
-      <c r="N24" s="350"/>
-      <c r="O24" s="350">
+      <c r="M24" s="346"/>
+      <c r="N24" s="346"/>
+      <c r="O24" s="346">
         <f t="shared" si="3"/>
         <v>39060000</v>
       </c>
       <c r="P24" s="260"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="406"/>
-      <c r="B25" s="411"/>
-      <c r="C25" s="406"/>
-      <c r="D25" s="406"/>
-      <c r="E25" s="406"/>
+      <c r="A25" s="403"/>
+      <c r="B25" s="408"/>
+      <c r="C25" s="403"/>
+      <c r="D25" s="403"/>
+      <c r="E25" s="403"/>
       <c r="F25" s="260" t="s">
         <v>131</v>
       </c>
       <c r="G25" s="260">
         <v>12</v>
       </c>
-      <c r="H25" s="350">
+      <c r="H25" s="346">
         <v>475000</v>
       </c>
-      <c r="I25" s="350">
+      <c r="I25" s="346">
         <f t="shared" si="1"/>
         <v>5700000</v>
       </c>
-      <c r="J25" s="356"/>
-      <c r="K25" s="351"/>
+      <c r="J25" s="352"/>
+      <c r="K25" s="347"/>
       <c r="L25" s="142">
         <f t="shared" si="2"/>
         <v>5700000</v>
       </c>
-      <c r="M25" s="350"/>
-      <c r="N25" s="350"/>
-      <c r="O25" s="350">
+      <c r="M25" s="346"/>
+      <c r="N25" s="346"/>
+      <c r="O25" s="346">
         <f t="shared" si="3"/>
         <v>5700000</v>
       </c>
       <c r="P25" s="260"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="406"/>
-      <c r="B26" s="411"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="406"/>
-      <c r="E26" s="406"/>
+      <c r="A26" s="403"/>
+      <c r="B26" s="408"/>
+      <c r="C26" s="403"/>
+      <c r="D26" s="403"/>
+      <c r="E26" s="403"/>
       <c r="F26" s="259" t="s">
         <v>155</v>
       </c>
       <c r="G26" s="259">
         <v>60</v>
       </c>
-      <c r="H26" s="357">
+      <c r="H26" s="353">
         <v>485000</v>
       </c>
-      <c r="I26" s="357">
+      <c r="I26" s="353">
         <f t="shared" si="1"/>
         <v>29100000</v>
       </c>
-      <c r="J26" s="358"/>
-      <c r="K26" s="359"/>
+      <c r="J26" s="354"/>
+      <c r="K26" s="355"/>
       <c r="L26" s="142">
         <f t="shared" si="2"/>
         <v>29100000</v>
       </c>
-      <c r="M26" s="357"/>
-      <c r="N26" s="357"/>
-      <c r="O26" s="350">
+      <c r="M26" s="353"/>
+      <c r="N26" s="353"/>
+      <c r="O26" s="346">
         <f t="shared" si="3"/>
         <v>29100000</v>
       </c>
       <c r="P26" s="260"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="406"/>
-      <c r="B27" s="411"/>
-      <c r="C27" s="406"/>
-      <c r="D27" s="406"/>
-      <c r="E27" s="406"/>
+      <c r="A27" s="403"/>
+      <c r="B27" s="408"/>
+      <c r="C27" s="403"/>
+      <c r="D27" s="403"/>
+      <c r="E27" s="403"/>
       <c r="F27" s="260" t="s">
         <v>146</v>
       </c>
       <c r="G27" s="260">
         <v>24</v>
       </c>
-      <c r="H27" s="350">
+      <c r="H27" s="346">
         <v>550000</v>
       </c>
-      <c r="I27" s="350">
+      <c r="I27" s="346">
         <f t="shared" si="1"/>
         <v>13200000</v>
       </c>
-      <c r="J27" s="360"/>
-      <c r="K27" s="351"/>
+      <c r="J27" s="356"/>
+      <c r="K27" s="347"/>
       <c r="L27" s="142">
         <f t="shared" si="2"/>
         <v>13200000</v>
       </c>
-      <c r="M27" s="350"/>
-      <c r="N27" s="350"/>
-      <c r="O27" s="350">
+      <c r="M27" s="346"/>
+      <c r="N27" s="346"/>
+      <c r="O27" s="346">
         <f t="shared" si="3"/>
         <v>13200000</v>
       </c>
       <c r="P27" s="260"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="406"/>
-      <c r="B28" s="411"/>
-      <c r="C28" s="406"/>
-      <c r="D28" s="406"/>
-      <c r="E28" s="406"/>
+      <c r="A28" s="403"/>
+      <c r="B28" s="408"/>
+      <c r="C28" s="403"/>
+      <c r="D28" s="403"/>
+      <c r="E28" s="403"/>
       <c r="F28" s="260" t="s">
         <v>156</v>
       </c>
       <c r="G28" s="260">
         <v>48</v>
       </c>
-      <c r="H28" s="350">
+      <c r="H28" s="346">
         <v>455000</v>
       </c>
-      <c r="I28" s="350">
+      <c r="I28" s="346">
         <f t="shared" si="1"/>
         <v>21840000</v>
       </c>
-      <c r="J28" s="350"/>
-      <c r="K28" s="351"/>
+      <c r="J28" s="346"/>
+      <c r="K28" s="347"/>
       <c r="L28" s="142">
         <f t="shared" si="2"/>
         <v>21840000</v>
       </c>
-      <c r="M28" s="350"/>
-      <c r="N28" s="350"/>
-      <c r="O28" s="350">
+      <c r="M28" s="346"/>
+      <c r="N28" s="346"/>
+      <c r="O28" s="346">
         <f t="shared" si="3"/>
         <v>21840000</v>
       </c>
-      <c r="P28" s="355"/>
+      <c r="P28" s="351"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="405"/>
-      <c r="B29" s="403"/>
-      <c r="C29" s="405"/>
-      <c r="D29" s="405"/>
-      <c r="E29" s="405"/>
+      <c r="A29" s="402"/>
+      <c r="B29" s="400"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="402"/>
+      <c r="E29" s="402"/>
       <c r="F29" s="260" t="s">
         <v>157</v>
       </c>
       <c r="G29" s="260">
         <v>12</v>
       </c>
-      <c r="H29" s="350">
+      <c r="H29" s="346">
         <v>455000</v>
       </c>
-      <c r="I29" s="350">
+      <c r="I29" s="346">
         <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
-      <c r="J29" s="350"/>
-      <c r="K29" s="351"/>
+      <c r="J29" s="346"/>
+      <c r="K29" s="347"/>
       <c r="L29" s="142">
         <f t="shared" si="2"/>
         <v>5460000</v>
       </c>
-      <c r="M29" s="350"/>
-      <c r="N29" s="350"/>
-      <c r="O29" s="350">
+      <c r="M29" s="346"/>
+      <c r="N29" s="346"/>
+      <c r="O29" s="346">
         <f t="shared" si="3"/>
         <v>5460000</v>
       </c>
       <c r="P29" s="260"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="404">
+      <c r="A30" s="401">
         <v>586</v>
       </c>
-      <c r="B30" s="402">
+      <c r="B30" s="399">
         <v>43991</v>
       </c>
-      <c r="C30" s="404" t="s">
+      <c r="C30" s="401" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="404" t="s">
+      <c r="D30" s="401" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="400"/>
+      <c r="E30" s="397"/>
       <c r="F30" s="260" t="s">
         <v>146</v>
       </c>
       <c r="G30" s="260">
         <v>1</v>
       </c>
-      <c r="H30" s="350">
+      <c r="H30" s="346">
         <v>550000</v>
       </c>
-      <c r="I30" s="350">
+      <c r="I30" s="346">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="J30" s="350"/>
-      <c r="K30" s="351">
+      <c r="J30" s="346"/>
+      <c r="K30" s="347">
         <v>0.41</v>
       </c>
-      <c r="L30" s="350">
+      <c r="L30" s="346">
         <f t="shared" si="2"/>
         <v>324500.00000000006</v>
       </c>
-      <c r="M30" s="350"/>
-      <c r="N30" s="350"/>
-      <c r="O30" s="350">
+      <c r="M30" s="346"/>
+      <c r="N30" s="346"/>
+      <c r="O30" s="346">
         <f t="shared" ref="O30:O37" si="4">L30</f>
         <v>324500.00000000006</v>
       </c>
       <c r="P30" s="260"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="405"/>
-      <c r="B31" s="403"/>
-      <c r="C31" s="405"/>
-      <c r="D31" s="405"/>
-      <c r="E31" s="401"/>
+      <c r="A31" s="402"/>
+      <c r="B31" s="400"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="402"/>
+      <c r="E31" s="398"/>
       <c r="F31" s="260" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="260">
         <v>1</v>
       </c>
-      <c r="H31" s="350">
+      <c r="H31" s="346">
         <v>475000</v>
       </c>
-      <c r="I31" s="350">
+      <c r="I31" s="346">
         <f t="shared" si="1"/>
         <v>475000</v>
       </c>
-      <c r="J31" s="350"/>
-      <c r="K31" s="351">
+      <c r="J31" s="346"/>
+      <c r="K31" s="347">
         <v>0.41</v>
       </c>
-      <c r="L31" s="350">
+      <c r="L31" s="346">
         <f t="shared" si="2"/>
         <v>280250.00000000006</v>
       </c>
-      <c r="M31" s="350"/>
-      <c r="N31" s="350"/>
-      <c r="O31" s="350">
+      <c r="M31" s="346"/>
+      <c r="N31" s="346"/>
+      <c r="O31" s="346">
         <f t="shared" si="4"/>
         <v>280250.00000000006</v>
       </c>
@@ -5180,7 +5240,7 @@
       <c r="B32" s="144">
         <v>43992</v>
       </c>
-      <c r="C32" s="349" t="s">
+      <c r="C32" s="345" t="s">
         <v>128</v>
       </c>
       <c r="D32" s="146" t="s">
@@ -5193,24 +5253,24 @@
       <c r="G32" s="260">
         <v>1</v>
       </c>
-      <c r="H32" s="350">
+      <c r="H32" s="346">
         <v>550000</v>
       </c>
-      <c r="I32" s="350">
+      <c r="I32" s="346">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="J32" s="350"/>
-      <c r="K32" s="351">
+      <c r="J32" s="346"/>
+      <c r="K32" s="347">
         <v>0.41</v>
       </c>
-      <c r="L32" s="350">
+      <c r="L32" s="346">
         <f t="shared" si="2"/>
         <v>324500.00000000006</v>
       </c>
-      <c r="M32" s="350"/>
-      <c r="N32" s="350"/>
-      <c r="O32" s="350">
+      <c r="M32" s="346"/>
+      <c r="N32" s="346"/>
+      <c r="O32" s="346">
         <f t="shared" si="4"/>
         <v>324500.00000000006</v>
       </c>
@@ -5223,7 +5283,7 @@
       <c r="B33" s="144">
         <v>43993</v>
       </c>
-      <c r="C33" s="349" t="s">
+      <c r="C33" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D33" s="146" t="s">
@@ -5236,24 +5296,24 @@
       <c r="G33" s="260">
         <v>2</v>
       </c>
-      <c r="H33" s="350">
+      <c r="H33" s="346">
         <v>455000</v>
       </c>
-      <c r="I33" s="350">
+      <c r="I33" s="346">
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="J33" s="350"/>
-      <c r="K33" s="351">
+      <c r="J33" s="346"/>
+      <c r="K33" s="347">
         <v>0.41</v>
       </c>
-      <c r="L33" s="350">
+      <c r="L33" s="346">
         <f t="shared" si="2"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="M33" s="350"/>
-      <c r="N33" s="350"/>
-      <c r="O33" s="350">
+      <c r="M33" s="346"/>
+      <c r="N33" s="346"/>
+      <c r="O33" s="346">
         <f t="shared" si="4"/>
         <v>536900.00000000012</v>
       </c>
@@ -5266,7 +5326,7 @@
       <c r="B34" s="144">
         <v>43994</v>
       </c>
-      <c r="C34" s="349" t="s">
+      <c r="C34" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D34" s="146" t="s">
@@ -5279,44 +5339,44 @@
       <c r="G34" s="260">
         <v>1</v>
       </c>
-      <c r="H34" s="350">
+      <c r="H34" s="346">
         <v>455000</v>
       </c>
-      <c r="I34" s="350">
+      <c r="I34" s="346">
         <f t="shared" si="1"/>
         <v>455000</v>
       </c>
-      <c r="J34" s="350"/>
-      <c r="K34" s="351">
+      <c r="J34" s="346"/>
+      <c r="K34" s="347">
         <v>0.41</v>
       </c>
-      <c r="L34" s="350">
+      <c r="L34" s="346">
         <f t="shared" si="2"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M34" s="350"/>
-      <c r="N34" s="350"/>
-      <c r="O34" s="350">
+      <c r="M34" s="346"/>
+      <c r="N34" s="346"/>
+      <c r="O34" s="346">
         <f t="shared" si="4"/>
         <v>268450.00000000006</v>
       </c>
       <c r="P34" s="260"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="404">
+      <c r="A35" s="401">
         <v>576</v>
       </c>
-      <c r="B35" s="402">
+      <c r="B35" s="399">
         <v>43995</v>
       </c>
-      <c r="C35" s="404" t="s">
+      <c r="C35" s="401" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="397" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="401" t="s">
         <v>182</v>
-      </c>
-      <c r="D35" s="400" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="404" t="s">
-        <v>184</v>
       </c>
       <c r="F35" s="260" t="s">
         <v>149</v>
@@ -5324,94 +5384,94 @@
       <c r="G35" s="260">
         <v>10</v>
       </c>
-      <c r="H35" s="350">
+      <c r="H35" s="346">
         <v>455000</v>
       </c>
-      <c r="I35" s="350">
+      <c r="I35" s="346">
         <f t="shared" si="1"/>
         <v>4550000</v>
       </c>
-      <c r="J35" s="350"/>
-      <c r="K35" s="351">
+      <c r="J35" s="346"/>
+      <c r="K35" s="347">
         <v>0.41</v>
       </c>
-      <c r="L35" s="350">
+      <c r="L35" s="346">
         <f t="shared" si="2"/>
         <v>2684500.0000000005</v>
       </c>
-      <c r="M35" s="350"/>
-      <c r="N35" s="350"/>
-      <c r="O35" s="350">
+      <c r="M35" s="346"/>
+      <c r="N35" s="346"/>
+      <c r="O35" s="346">
         <f t="shared" si="4"/>
         <v>2684500.0000000005</v>
       </c>
       <c r="P35" s="260"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="406"/>
-      <c r="B36" s="411"/>
-      <c r="C36" s="406"/>
-      <c r="D36" s="407"/>
-      <c r="E36" s="406"/>
+      <c r="A36" s="403"/>
+      <c r="B36" s="408"/>
+      <c r="C36" s="403"/>
+      <c r="D36" s="404"/>
+      <c r="E36" s="403"/>
       <c r="F36" s="260" t="s">
         <v>154</v>
       </c>
       <c r="G36" s="260">
         <v>2</v>
       </c>
-      <c r="H36" s="350">
+      <c r="H36" s="346">
         <v>465000</v>
       </c>
-      <c r="I36" s="350">
+      <c r="I36" s="346">
         <f t="shared" si="1"/>
         <v>930000</v>
       </c>
-      <c r="J36" s="350"/>
-      <c r="K36" s="351">
+      <c r="J36" s="346"/>
+      <c r="K36" s="347">
         <v>0.41</v>
       </c>
-      <c r="L36" s="350">
+      <c r="L36" s="346">
         <f t="shared" si="2"/>
         <v>548700.00000000012</v>
       </c>
-      <c r="M36" s="350"/>
-      <c r="N36" s="350"/>
-      <c r="O36" s="350">
+      <c r="M36" s="346"/>
+      <c r="N36" s="346"/>
+      <c r="O36" s="346">
         <f t="shared" si="4"/>
         <v>548700.00000000012</v>
       </c>
       <c r="P36" s="260"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="405"/>
-      <c r="B37" s="403"/>
-      <c r="C37" s="405"/>
-      <c r="D37" s="401"/>
-      <c r="E37" s="405"/>
+      <c r="A37" s="402"/>
+      <c r="B37" s="400"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="398"/>
+      <c r="E37" s="402"/>
       <c r="F37" s="260" t="s">
         <v>146</v>
       </c>
       <c r="G37" s="260">
         <v>5</v>
       </c>
-      <c r="H37" s="350">
+      <c r="H37" s="346">
         <v>550000</v>
       </c>
-      <c r="I37" s="350">
+      <c r="I37" s="346">
         <f t="shared" si="1"/>
         <v>2750000</v>
       </c>
-      <c r="J37" s="350"/>
-      <c r="K37" s="351">
+      <c r="J37" s="346"/>
+      <c r="K37" s="347">
         <v>0.41</v>
       </c>
-      <c r="L37" s="350">
+      <c r="L37" s="346">
         <f t="shared" si="2"/>
         <v>1622500.0000000002</v>
       </c>
-      <c r="M37" s="350"/>
-      <c r="N37" s="350"/>
-      <c r="O37" s="350">
+      <c r="M37" s="346"/>
+      <c r="N37" s="346"/>
+      <c r="O37" s="346">
         <f t="shared" si="4"/>
         <v>1622500.0000000002</v>
       </c>
@@ -5424,14 +5484,14 @@
       <c r="B38" s="144">
         <v>43992</v>
       </c>
-      <c r="C38" s="349" t="s">
+      <c r="C38" s="345" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="141" t="s">
         <v>185</v>
-      </c>
-      <c r="D38" s="146" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="141" t="s">
-        <v>187</v>
       </c>
       <c r="F38" s="260" t="s">
         <v>149</v>
@@ -5439,27 +5499,27 @@
       <c r="G38" s="260">
         <v>1</v>
       </c>
-      <c r="H38" s="350">
+      <c r="H38" s="346">
         <v>455000</v>
       </c>
-      <c r="I38" s="350">
+      <c r="I38" s="346">
         <f t="shared" si="1"/>
         <v>455000</v>
       </c>
-      <c r="J38" s="350"/>
-      <c r="K38" s="351">
+      <c r="J38" s="346"/>
+      <c r="K38" s="347">
         <v>0.35</v>
       </c>
-      <c r="L38" s="350">
+      <c r="L38" s="346">
         <f t="shared" si="2"/>
         <v>295750</v>
       </c>
-      <c r="M38" s="350">
+      <c r="M38" s="346">
         <f>L38</f>
         <v>295750</v>
       </c>
-      <c r="N38" s="350"/>
-      <c r="O38" s="350"/>
+      <c r="N38" s="346"/>
+      <c r="O38" s="346"/>
       <c r="P38" s="260"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -5469,7 +5529,7 @@
       <c r="B39" s="144">
         <v>43994</v>
       </c>
-      <c r="C39" s="349" t="s">
+      <c r="C39" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D39" s="146" t="s">
@@ -5482,44 +5542,44 @@
       <c r="G39" s="260">
         <v>1</v>
       </c>
-      <c r="H39" s="350">
+      <c r="H39" s="346">
         <v>455000</v>
       </c>
-      <c r="I39" s="350">
+      <c r="I39" s="346">
         <f t="shared" si="1"/>
         <v>455000</v>
       </c>
-      <c r="J39" s="350"/>
-      <c r="K39" s="351">
+      <c r="J39" s="346"/>
+      <c r="K39" s="347">
         <v>0.41</v>
       </c>
-      <c r="L39" s="350">
+      <c r="L39" s="346">
         <f t="shared" si="2"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M39" s="350"/>
-      <c r="N39" s="350"/>
-      <c r="O39" s="350">
+      <c r="M39" s="346"/>
+      <c r="N39" s="346"/>
+      <c r="O39" s="346">
         <f t="shared" ref="O39:O54" si="5">L39</f>
         <v>268450.00000000006</v>
       </c>
       <c r="P39" s="260"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="404">
+      <c r="A40" s="401">
         <v>582</v>
       </c>
-      <c r="B40" s="402">
+      <c r="B40" s="399">
         <v>43995</v>
       </c>
-      <c r="C40" s="404" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="400" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="404" t="s">
-        <v>188</v>
+      <c r="C40" s="401" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="397" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="401" t="s">
+        <v>186</v>
       </c>
       <c r="F40" s="260" t="s">
         <v>135</v>
@@ -5527,287 +5587,287 @@
       <c r="G40" s="260">
         <v>1</v>
       </c>
-      <c r="H40" s="350">
+      <c r="H40" s="346">
         <v>225000</v>
       </c>
-      <c r="I40" s="350">
+      <c r="I40" s="346">
         <f t="shared" si="1"/>
         <v>225000</v>
       </c>
-      <c r="J40" s="350"/>
-      <c r="K40" s="351">
+      <c r="J40" s="346"/>
+      <c r="K40" s="347">
         <v>1</v>
       </c>
-      <c r="L40" s="350">
+      <c r="L40" s="346">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M40" s="350"/>
-      <c r="N40" s="350"/>
-      <c r="O40" s="350">
+      <c r="M40" s="346"/>
+      <c r="N40" s="346"/>
+      <c r="O40" s="346">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="406"/>
-      <c r="B41" s="411"/>
-      <c r="C41" s="406"/>
-      <c r="D41" s="407"/>
-      <c r="E41" s="406"/>
+      <c r="A41" s="403"/>
+      <c r="B41" s="408"/>
+      <c r="C41" s="403"/>
+      <c r="D41" s="404"/>
+      <c r="E41" s="403"/>
       <c r="F41" s="260" t="s">
         <v>137</v>
       </c>
       <c r="G41" s="260">
         <v>1</v>
       </c>
-      <c r="H41" s="350">
+      <c r="H41" s="346">
         <v>235000</v>
       </c>
-      <c r="I41" s="350">
+      <c r="I41" s="346">
         <f t="shared" si="1"/>
         <v>235000</v>
       </c>
-      <c r="J41" s="350"/>
-      <c r="K41" s="351">
+      <c r="J41" s="346"/>
+      <c r="K41" s="347">
         <v>1</v>
       </c>
-      <c r="L41" s="350">
+      <c r="L41" s="346">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M41" s="350"/>
-      <c r="N41" s="350"/>
-      <c r="O41" s="350">
+      <c r="M41" s="346"/>
+      <c r="N41" s="346"/>
+      <c r="O41" s="346">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P41" s="260"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="406"/>
-      <c r="B42" s="411"/>
-      <c r="C42" s="406"/>
-      <c r="D42" s="407"/>
-      <c r="E42" s="406"/>
+      <c r="A42" s="403"/>
+      <c r="B42" s="408"/>
+      <c r="C42" s="403"/>
+      <c r="D42" s="404"/>
+      <c r="E42" s="403"/>
       <c r="F42" s="260" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G42" s="260">
         <v>1</v>
       </c>
-      <c r="H42" s="350">
+      <c r="H42" s="346">
         <v>245000</v>
       </c>
-      <c r="I42" s="350">
+      <c r="I42" s="346">
         <f t="shared" si="1"/>
         <v>245000</v>
       </c>
-      <c r="J42" s="350"/>
-      <c r="K42" s="351">
+      <c r="J42" s="346"/>
+      <c r="K42" s="347">
         <v>1</v>
       </c>
-      <c r="L42" s="350">
+      <c r="L42" s="346">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M42" s="350"/>
-      <c r="N42" s="350"/>
-      <c r="O42" s="350">
+      <c r="M42" s="346"/>
+      <c r="N42" s="346"/>
+      <c r="O42" s="346">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P42" s="260"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="406"/>
-      <c r="B43" s="411"/>
-      <c r="C43" s="406"/>
-      <c r="D43" s="407"/>
-      <c r="E43" s="406"/>
+      <c r="A43" s="403"/>
+      <c r="B43" s="408"/>
+      <c r="C43" s="403"/>
+      <c r="D43" s="404"/>
+      <c r="E43" s="403"/>
       <c r="F43" s="260" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G43" s="260">
         <v>1</v>
       </c>
-      <c r="H43" s="350">
+      <c r="H43" s="346">
         <v>255000</v>
       </c>
-      <c r="I43" s="350">
+      <c r="I43" s="346">
         <f t="shared" si="1"/>
         <v>255000</v>
       </c>
-      <c r="J43" s="350"/>
-      <c r="K43" s="351">
+      <c r="J43" s="346"/>
+      <c r="K43" s="347">
         <v>1</v>
       </c>
-      <c r="L43" s="350">
+      <c r="L43" s="346">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M43" s="350"/>
-      <c r="N43" s="350"/>
-      <c r="O43" s="350">
+      <c r="M43" s="346"/>
+      <c r="N43" s="346"/>
+      <c r="O43" s="346">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P43" s="260"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="406"/>
-      <c r="B44" s="411"/>
-      <c r="C44" s="406"/>
-      <c r="D44" s="407"/>
-      <c r="E44" s="406"/>
+      <c r="A44" s="403"/>
+      <c r="B44" s="408"/>
+      <c r="C44" s="403"/>
+      <c r="D44" s="404"/>
+      <c r="E44" s="403"/>
       <c r="F44" s="260" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G44" s="260">
         <v>1</v>
       </c>
-      <c r="H44" s="350">
+      <c r="H44" s="346">
         <v>255000</v>
       </c>
-      <c r="I44" s="350">
+      <c r="I44" s="346">
         <f t="shared" si="1"/>
         <v>255000</v>
       </c>
-      <c r="J44" s="350"/>
-      <c r="K44" s="351">
+      <c r="J44" s="346"/>
+      <c r="K44" s="347">
         <v>1</v>
       </c>
-      <c r="L44" s="350">
+      <c r="L44" s="346">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M44" s="350"/>
-      <c r="N44" s="350"/>
-      <c r="O44" s="350">
+      <c r="M44" s="346"/>
+      <c r="N44" s="346"/>
+      <c r="O44" s="346">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P44" s="260"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="406"/>
-      <c r="B45" s="411"/>
-      <c r="C45" s="406"/>
-      <c r="D45" s="407"/>
-      <c r="E45" s="406"/>
+      <c r="A45" s="403"/>
+      <c r="B45" s="408"/>
+      <c r="C45" s="403"/>
+      <c r="D45" s="404"/>
+      <c r="E45" s="403"/>
       <c r="F45" s="260" t="s">
         <v>141</v>
       </c>
       <c r="G45" s="260">
         <v>1</v>
       </c>
-      <c r="H45" s="350">
+      <c r="H45" s="346">
         <v>455000</v>
       </c>
-      <c r="I45" s="350">
+      <c r="I45" s="346">
         <f t="shared" si="1"/>
         <v>455000</v>
       </c>
-      <c r="J45" s="350"/>
-      <c r="K45" s="351">
+      <c r="J45" s="346"/>
+      <c r="K45" s="347">
         <v>1</v>
       </c>
-      <c r="L45" s="350">
+      <c r="L45" s="346">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M45" s="350"/>
-      <c r="N45" s="350"/>
-      <c r="O45" s="350">
+      <c r="M45" s="346"/>
+      <c r="N45" s="346"/>
+      <c r="O45" s="346">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P45" s="260"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="406"/>
-      <c r="B46" s="411"/>
-      <c r="C46" s="406"/>
-      <c r="D46" s="407"/>
-      <c r="E46" s="406"/>
+      <c r="A46" s="403"/>
+      <c r="B46" s="408"/>
+      <c r="C46" s="403"/>
+      <c r="D46" s="404"/>
+      <c r="E46" s="403"/>
       <c r="F46" s="260" t="s">
         <v>138</v>
       </c>
       <c r="G46" s="260">
         <v>1</v>
       </c>
-      <c r="H46" s="350">
+      <c r="H46" s="346">
         <v>455000</v>
       </c>
-      <c r="I46" s="350">
+      <c r="I46" s="346">
         <f t="shared" si="1"/>
         <v>455000</v>
       </c>
-      <c r="J46" s="350"/>
-      <c r="K46" s="351">
+      <c r="J46" s="346"/>
+      <c r="K46" s="347">
         <v>1</v>
       </c>
-      <c r="L46" s="350">
+      <c r="L46" s="346">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M46" s="350"/>
-      <c r="N46" s="350"/>
-      <c r="O46" s="350">
+      <c r="M46" s="346"/>
+      <c r="N46" s="346"/>
+      <c r="O46" s="346">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P46" s="260"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="405"/>
-      <c r="B47" s="403"/>
-      <c r="C47" s="405"/>
-      <c r="D47" s="401"/>
-      <c r="E47" s="405"/>
+      <c r="A47" s="402"/>
+      <c r="B47" s="400"/>
+      <c r="C47" s="402"/>
+      <c r="D47" s="398"/>
+      <c r="E47" s="402"/>
       <c r="F47" s="260" t="s">
         <v>146</v>
       </c>
       <c r="G47" s="260">
         <v>1</v>
       </c>
-      <c r="H47" s="350">
+      <c r="H47" s="346">
         <v>550000</v>
       </c>
-      <c r="I47" s="350">
+      <c r="I47" s="346">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="J47" s="350"/>
-      <c r="K47" s="351">
+      <c r="J47" s="346"/>
+      <c r="K47" s="347">
         <v>1</v>
       </c>
-      <c r="L47" s="350">
+      <c r="L47" s="346">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M47" s="350"/>
-      <c r="N47" s="350"/>
-      <c r="O47" s="350">
+      <c r="M47" s="346"/>
+      <c r="N47" s="346"/>
+      <c r="O47" s="346">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P47" s="260"/>
-      <c r="Q47" s="353"/>
+      <c r="Q47" s="349"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="404">
+      <c r="A48" s="401">
         <v>585</v>
       </c>
-      <c r="B48" s="408">
+      <c r="B48" s="405">
         <v>43997</v>
       </c>
-      <c r="C48" s="404"/>
-      <c r="D48" s="400" t="s">
+      <c r="C48" s="401"/>
+      <c r="D48" s="397" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="404" t="s">
+      <c r="E48" s="401" t="s">
         <v>134</v>
       </c>
       <c r="F48" s="260" t="s">
@@ -5816,149 +5876,149 @@
       <c r="G48" s="260">
         <v>24</v>
       </c>
-      <c r="H48" s="350">
+      <c r="H48" s="346">
         <v>455000</v>
       </c>
-      <c r="I48" s="350">
+      <c r="I48" s="346">
         <f t="shared" si="1"/>
         <v>10920000</v>
       </c>
-      <c r="J48" s="350">
+      <c r="J48" s="346">
         <v>250000</v>
       </c>
-      <c r="K48" s="351">
+      <c r="K48" s="347">
         <v>0.41</v>
       </c>
-      <c r="L48" s="350">
+      <c r="L48" s="346">
         <f>I48*(1-K48)-J48</f>
         <v>6192800.0000000009</v>
       </c>
-      <c r="M48" s="350"/>
-      <c r="N48" s="350"/>
-      <c r="O48" s="350">
+      <c r="M48" s="346"/>
+      <c r="N48" s="346"/>
+      <c r="O48" s="346">
         <f t="shared" si="5"/>
         <v>6192800.0000000009</v>
       </c>
       <c r="P48" s="260"/>
-      <c r="Q48" s="353"/>
+      <c r="Q48" s="349"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="406"/>
-      <c r="B49" s="409"/>
-      <c r="C49" s="406"/>
-      <c r="D49" s="407"/>
-      <c r="E49" s="406"/>
+      <c r="A49" s="403"/>
+      <c r="B49" s="406"/>
+      <c r="C49" s="403"/>
+      <c r="D49" s="404"/>
+      <c r="E49" s="403"/>
       <c r="F49" s="260" t="s">
         <v>154</v>
       </c>
       <c r="G49" s="260">
         <v>12</v>
       </c>
-      <c r="H49" s="350">
+      <c r="H49" s="346">
         <v>465000</v>
       </c>
-      <c r="I49" s="350">
+      <c r="I49" s="346">
         <f t="shared" si="1"/>
         <v>5580000</v>
       </c>
-      <c r="J49" s="350"/>
-      <c r="K49" s="351">
+      <c r="J49" s="346"/>
+      <c r="K49" s="347">
         <v>0.41</v>
       </c>
-      <c r="L49" s="350">
+      <c r="L49" s="346">
         <f t="shared" si="2"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="M49" s="350"/>
-      <c r="N49" s="350"/>
-      <c r="O49" s="350">
+      <c r="M49" s="346"/>
+      <c r="N49" s="346"/>
+      <c r="O49" s="346">
         <f t="shared" si="5"/>
         <v>3292200.0000000005</v>
       </c>
       <c r="P49" s="260"/>
-      <c r="Q49" s="353"/>
+      <c r="Q49" s="349"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="406"/>
-      <c r="B50" s="409"/>
-      <c r="C50" s="406"/>
-      <c r="D50" s="407"/>
-      <c r="E50" s="406"/>
+      <c r="A50" s="403"/>
+      <c r="B50" s="406"/>
+      <c r="C50" s="403"/>
+      <c r="D50" s="404"/>
+      <c r="E50" s="403"/>
       <c r="F50" s="260" t="s">
         <v>131</v>
       </c>
       <c r="G50" s="260">
         <v>12</v>
       </c>
-      <c r="H50" s="350">
+      <c r="H50" s="346">
         <v>475000</v>
       </c>
-      <c r="I50" s="350">
+      <c r="I50" s="346">
         <f t="shared" si="1"/>
         <v>5700000</v>
       </c>
-      <c r="J50" s="350"/>
-      <c r="K50" s="351">
+      <c r="J50" s="346"/>
+      <c r="K50" s="347">
         <v>0.41</v>
       </c>
-      <c r="L50" s="350">
+      <c r="L50" s="346">
         <f t="shared" si="2"/>
         <v>3363000.0000000005</v>
       </c>
-      <c r="M50" s="350"/>
-      <c r="N50" s="350"/>
-      <c r="O50" s="350">
+      <c r="M50" s="346"/>
+      <c r="N50" s="346"/>
+      <c r="O50" s="346">
         <f t="shared" si="5"/>
         <v>3363000.0000000005</v>
       </c>
       <c r="P50" s="260"/>
-      <c r="Q50" s="353"/>
+      <c r="Q50" s="349"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="405"/>
-      <c r="B51" s="410"/>
-      <c r="C51" s="405"/>
-      <c r="D51" s="401"/>
-      <c r="E51" s="405"/>
+      <c r="A51" s="402"/>
+      <c r="B51" s="407"/>
+      <c r="C51" s="402"/>
+      <c r="D51" s="398"/>
+      <c r="E51" s="402"/>
       <c r="F51" s="260" t="s">
         <v>155</v>
       </c>
       <c r="G51" s="260">
         <v>12</v>
       </c>
-      <c r="H51" s="350">
+      <c r="H51" s="346">
         <v>485000</v>
       </c>
-      <c r="I51" s="350">
+      <c r="I51" s="346">
         <f t="shared" si="1"/>
         <v>5820000</v>
       </c>
-      <c r="J51" s="350"/>
-      <c r="K51" s="351">
+      <c r="J51" s="346"/>
+      <c r="K51" s="347">
         <v>0.41</v>
       </c>
-      <c r="L51" s="350">
+      <c r="L51" s="346">
         <f t="shared" si="2"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="M51" s="350"/>
-      <c r="N51" s="350"/>
-      <c r="O51" s="350">
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346">
         <f t="shared" si="5"/>
         <v>3433800.0000000005</v>
       </c>
       <c r="P51" s="260"/>
-      <c r="Q51" s="353"/>
+      <c r="Q51" s="349"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="404">
+      <c r="A52" s="401">
         <v>587</v>
       </c>
-      <c r="B52" s="402">
+      <c r="B52" s="399">
         <v>43995</v>
       </c>
-      <c r="C52" s="349"/>
-      <c r="D52" s="400" t="s">
+      <c r="C52" s="345"/>
+      <c r="D52" s="397" t="s">
         <v>152</v>
       </c>
       <c r="E52" s="141"/>
@@ -5968,61 +6028,61 @@
       <c r="G52" s="260">
         <v>12</v>
       </c>
-      <c r="H52" s="350">
+      <c r="H52" s="346">
         <v>475000</v>
       </c>
-      <c r="I52" s="350">
+      <c r="I52" s="346">
         <f t="shared" si="1"/>
         <v>5700000</v>
       </c>
-      <c r="J52" s="350"/>
-      <c r="K52" s="351"/>
-      <c r="L52" s="350">
+      <c r="J52" s="346"/>
+      <c r="K52" s="347"/>
+      <c r="L52" s="346">
         <f t="shared" si="2"/>
         <v>5700000</v>
       </c>
-      <c r="M52" s="350"/>
-      <c r="N52" s="350"/>
-      <c r="O52" s="350">
+      <c r="M52" s="346"/>
+      <c r="N52" s="346"/>
+      <c r="O52" s="346">
         <f t="shared" si="5"/>
         <v>5700000</v>
       </c>
       <c r="P52" s="260"/>
-      <c r="Q52" s="353"/>
+      <c r="Q52" s="349"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="405"/>
-      <c r="B53" s="403"/>
-      <c r="C53" s="349"/>
-      <c r="D53" s="401"/>
+      <c r="A53" s="402"/>
+      <c r="B53" s="400"/>
+      <c r="C53" s="345"/>
+      <c r="D53" s="398"/>
       <c r="E53" s="141"/>
       <c r="F53" s="260" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G53" s="260">
         <v>12</v>
       </c>
-      <c r="H53" s="350">
+      <c r="H53" s="346">
         <v>485000</v>
       </c>
-      <c r="I53" s="350">
+      <c r="I53" s="346">
         <f t="shared" si="1"/>
         <v>5820000</v>
       </c>
-      <c r="J53" s="350"/>
-      <c r="K53" s="351"/>
-      <c r="L53" s="350">
+      <c r="J53" s="346"/>
+      <c r="K53" s="347"/>
+      <c r="L53" s="346">
         <f t="shared" si="2"/>
         <v>5820000</v>
       </c>
-      <c r="M53" s="350"/>
-      <c r="N53" s="350"/>
-      <c r="O53" s="350">
+      <c r="M53" s="346"/>
+      <c r="N53" s="346"/>
+      <c r="O53" s="346">
         <f t="shared" si="5"/>
         <v>5820000</v>
       </c>
       <c r="P53" s="260"/>
-      <c r="Q53" s="353"/>
+      <c r="Q53" s="349"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="260">
@@ -6031,7 +6091,7 @@
       <c r="B54" s="144">
         <v>43995</v>
       </c>
-      <c r="C54" s="349" t="s">
+      <c r="C54" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D54" s="146" t="s">
@@ -6044,29 +6104,29 @@
       <c r="G54" s="260">
         <v>1</v>
       </c>
-      <c r="H54" s="350">
+      <c r="H54" s="346">
         <v>475000</v>
       </c>
-      <c r="I54" s="350">
+      <c r="I54" s="346">
         <f t="shared" si="1"/>
         <v>475000</v>
       </c>
-      <c r="J54" s="350"/>
-      <c r="K54" s="351">
+      <c r="J54" s="346"/>
+      <c r="K54" s="347">
         <v>0.41</v>
       </c>
-      <c r="L54" s="350">
+      <c r="L54" s="346">
         <f t="shared" si="2"/>
         <v>280250.00000000006</v>
       </c>
-      <c r="M54" s="350"/>
-      <c r="N54" s="350"/>
-      <c r="O54" s="350">
+      <c r="M54" s="346"/>
+      <c r="N54" s="346"/>
+      <c r="O54" s="346">
         <f t="shared" si="5"/>
         <v>280250.00000000006</v>
       </c>
       <c r="P54" s="260"/>
-      <c r="Q54" s="353"/>
+      <c r="Q54" s="349"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="260">
@@ -6075,14 +6135,14 @@
       <c r="B55" s="144">
         <v>43998</v>
       </c>
-      <c r="C55" s="349" t="s">
-        <v>185</v>
+      <c r="C55" s="345" t="s">
+        <v>183</v>
       </c>
       <c r="D55" s="146" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E55" s="141" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F55" s="260" t="s">
         <v>154</v>
@@ -6090,1301 +6150,1301 @@
       <c r="G55" s="260">
         <v>4</v>
       </c>
-      <c r="H55" s="350">
+      <c r="H55" s="346">
         <v>465000</v>
       </c>
-      <c r="I55" s="350">
+      <c r="I55" s="346">
         <f t="shared" si="1"/>
         <v>1860000</v>
       </c>
-      <c r="J55" s="350"/>
-      <c r="K55" s="351">
+      <c r="J55" s="346"/>
+      <c r="K55" s="347">
         <v>0.41</v>
       </c>
-      <c r="L55" s="350">
+      <c r="L55" s="346">
         <f t="shared" si="2"/>
         <v>1097400.0000000002</v>
       </c>
-      <c r="M55" s="350"/>
-      <c r="N55" s="350">
+      <c r="M55" s="346"/>
+      <c r="N55" s="346">
         <f>L55</f>
         <v>1097400.0000000002</v>
       </c>
-      <c r="O55" s="350"/>
+      <c r="O55" s="346"/>
       <c r="P55" s="260"/>
-      <c r="Q55" s="353"/>
+      <c r="Q55" s="349"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="260"/>
       <c r="B56" s="144"/>
-      <c r="C56" s="349"/>
+      <c r="C56" s="345"/>
       <c r="D56" s="146"/>
       <c r="E56" s="141"/>
       <c r="F56" s="260"/>
       <c r="G56" s="260"/>
-      <c r="H56" s="350"/>
-      <c r="I56" s="350"/>
-      <c r="J56" s="350"/>
-      <c r="K56" s="351"/>
-      <c r="L56" s="350"/>
-      <c r="M56" s="350"/>
-      <c r="N56" s="350"/>
-      <c r="O56" s="350"/>
+      <c r="H56" s="346"/>
+      <c r="I56" s="346"/>
+      <c r="J56" s="346"/>
+      <c r="K56" s="347"/>
+      <c r="L56" s="346"/>
+      <c r="M56" s="346"/>
+      <c r="N56" s="346"/>
+      <c r="O56" s="346"/>
       <c r="P56" s="260"/>
-      <c r="Q56" s="353"/>
+      <c r="Q56" s="349"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="260"/>
-      <c r="B57" s="363"/>
-      <c r="C57" s="349"/>
+      <c r="B57" s="359"/>
+      <c r="C57" s="345"/>
       <c r="D57" s="260"/>
       <c r="E57" s="260"/>
       <c r="F57" s="260"/>
       <c r="G57" s="260"/>
-      <c r="H57" s="350"/>
-      <c r="I57" s="350"/>
-      <c r="J57" s="350"/>
-      <c r="K57" s="351"/>
-      <c r="L57" s="350"/>
-      <c r="M57" s="350"/>
-      <c r="N57" s="350"/>
-      <c r="O57" s="350"/>
+      <c r="H57" s="346"/>
+      <c r="I57" s="346"/>
+      <c r="J57" s="346"/>
+      <c r="K57" s="347"/>
+      <c r="L57" s="346"/>
+      <c r="M57" s="346"/>
+      <c r="N57" s="346"/>
+      <c r="O57" s="346"/>
       <c r="P57" s="260"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="260"/>
-      <c r="B58" s="363"/>
-      <c r="C58" s="349"/>
+      <c r="B58" s="359"/>
+      <c r="C58" s="345"/>
       <c r="D58" s="260"/>
       <c r="E58" s="260"/>
       <c r="F58" s="260"/>
       <c r="G58" s="260"/>
-      <c r="H58" s="350"/>
-      <c r="I58" s="350"/>
-      <c r="J58" s="350"/>
-      <c r="K58" s="351"/>
-      <c r="L58" s="350"/>
-      <c r="M58" s="350"/>
-      <c r="N58" s="350"/>
-      <c r="O58" s="350" t="s">
-        <v>195</v>
+      <c r="H58" s="346"/>
+      <c r="I58" s="346"/>
+      <c r="J58" s="346"/>
+      <c r="K58" s="347"/>
+      <c r="L58" s="346"/>
+      <c r="M58" s="346"/>
+      <c r="N58" s="346"/>
+      <c r="O58" s="346" t="s">
+        <v>193</v>
       </c>
       <c r="P58" s="260"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="260"/>
       <c r="B59" s="144"/>
-      <c r="C59" s="349"/>
+      <c r="C59" s="345"/>
       <c r="D59" s="141"/>
       <c r="E59" s="141"/>
       <c r="F59" s="260"/>
       <c r="G59" s="260"/>
-      <c r="H59" s="350"/>
-      <c r="I59" s="350"/>
-      <c r="J59" s="350"/>
-      <c r="K59" s="351"/>
-      <c r="L59" s="350"/>
-      <c r="M59" s="350"/>
-      <c r="N59" s="350"/>
-      <c r="O59" s="350"/>
+      <c r="H59" s="346"/>
+      <c r="I59" s="346"/>
+      <c r="J59" s="346"/>
+      <c r="K59" s="347"/>
+      <c r="L59" s="346"/>
+      <c r="M59" s="346"/>
+      <c r="N59" s="346"/>
+      <c r="O59" s="346"/>
       <c r="P59" s="260"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="260"/>
       <c r="B60" s="144"/>
-      <c r="C60" s="349"/>
+      <c r="C60" s="345"/>
       <c r="D60" s="141"/>
       <c r="E60" s="141"/>
       <c r="F60" s="260"/>
       <c r="G60" s="260"/>
-      <c r="H60" s="350"/>
-      <c r="I60" s="350"/>
-      <c r="J60" s="350"/>
-      <c r="K60" s="351"/>
-      <c r="L60" s="350"/>
-      <c r="M60" s="350"/>
-      <c r="N60" s="350"/>
-      <c r="O60" s="350"/>
+      <c r="H60" s="346"/>
+      <c r="I60" s="346"/>
+      <c r="J60" s="346"/>
+      <c r="K60" s="347"/>
+      <c r="L60" s="346"/>
+      <c r="M60" s="346"/>
+      <c r="N60" s="346"/>
+      <c r="O60" s="346"/>
       <c r="P60" s="260"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="260"/>
       <c r="B61" s="144"/>
-      <c r="C61" s="349"/>
+      <c r="C61" s="345"/>
       <c r="D61" s="141"/>
       <c r="E61" s="141"/>
       <c r="F61" s="260"/>
       <c r="G61" s="260"/>
-      <c r="H61" s="350"/>
-      <c r="I61" s="350"/>
-      <c r="J61" s="350"/>
-      <c r="K61" s="351"/>
-      <c r="L61" s="350"/>
-      <c r="M61" s="350"/>
-      <c r="N61" s="350"/>
-      <c r="O61" s="350"/>
+      <c r="H61" s="346"/>
+      <c r="I61" s="346"/>
+      <c r="J61" s="346"/>
+      <c r="K61" s="347"/>
+      <c r="L61" s="346"/>
+      <c r="M61" s="346"/>
+      <c r="N61" s="346"/>
+      <c r="O61" s="346"/>
       <c r="P61" s="260"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="260"/>
       <c r="B62" s="144"/>
-      <c r="C62" s="349"/>
+      <c r="C62" s="345"/>
       <c r="D62" s="146"/>
       <c r="E62" s="141"/>
       <c r="F62" s="260"/>
       <c r="G62" s="260"/>
-      <c r="H62" s="350"/>
-      <c r="I62" s="350"/>
-      <c r="J62" s="350"/>
-      <c r="K62" s="351"/>
-      <c r="L62" s="350"/>
-      <c r="M62" s="350"/>
-      <c r="N62" s="350"/>
-      <c r="O62" s="350"/>
+      <c r="H62" s="346"/>
+      <c r="I62" s="346"/>
+      <c r="J62" s="346"/>
+      <c r="K62" s="347"/>
+      <c r="L62" s="346"/>
+      <c r="M62" s="346"/>
+      <c r="N62" s="346"/>
+      <c r="O62" s="346"/>
       <c r="P62" s="260"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="260"/>
       <c r="B63" s="144"/>
-      <c r="C63" s="349"/>
+      <c r="C63" s="345"/>
       <c r="D63" s="146"/>
       <c r="E63" s="141"/>
       <c r="F63" s="260"/>
       <c r="G63" s="260"/>
-      <c r="H63" s="350"/>
-      <c r="I63" s="350"/>
-      <c r="J63" s="350"/>
-      <c r="K63" s="351"/>
-      <c r="L63" s="350"/>
-      <c r="M63" s="350"/>
-      <c r="N63" s="350"/>
-      <c r="O63" s="350"/>
+      <c r="H63" s="346"/>
+      <c r="I63" s="346"/>
+      <c r="J63" s="346"/>
+      <c r="K63" s="347"/>
+      <c r="L63" s="346"/>
+      <c r="M63" s="346"/>
+      <c r="N63" s="346"/>
+      <c r="O63" s="346"/>
       <c r="P63" s="260"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="260"/>
-      <c r="B64" s="361"/>
-      <c r="C64" s="349"/>
-      <c r="D64" s="355"/>
+      <c r="B64" s="357"/>
+      <c r="C64" s="345"/>
+      <c r="D64" s="351"/>
       <c r="E64" s="260"/>
       <c r="F64" s="260"/>
       <c r="G64" s="260"/>
-      <c r="H64" s="350"/>
-      <c r="I64" s="350"/>
-      <c r="J64" s="350"/>
-      <c r="K64" s="351"/>
-      <c r="L64" s="350"/>
-      <c r="M64" s="350"/>
-      <c r="N64" s="350"/>
-      <c r="O64" s="350"/>
+      <c r="H64" s="346"/>
+      <c r="I64" s="346"/>
+      <c r="J64" s="346"/>
+      <c r="K64" s="347"/>
+      <c r="L64" s="346"/>
+      <c r="M64" s="346"/>
+      <c r="N64" s="346"/>
+      <c r="O64" s="346"/>
       <c r="P64" s="260"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="260"/>
-      <c r="B65" s="362"/>
-      <c r="C65" s="349"/>
+      <c r="B65" s="358"/>
+      <c r="C65" s="345"/>
       <c r="D65" s="141"/>
       <c r="E65" s="141"/>
       <c r="F65" s="260"/>
       <c r="G65" s="260"/>
-      <c r="H65" s="350"/>
-      <c r="I65" s="350"/>
-      <c r="J65" s="350"/>
-      <c r="K65" s="351"/>
-      <c r="L65" s="350"/>
-      <c r="M65" s="350"/>
-      <c r="N65" s="350"/>
-      <c r="O65" s="350"/>
+      <c r="H65" s="346"/>
+      <c r="I65" s="346"/>
+      <c r="J65" s="346"/>
+      <c r="K65" s="347"/>
+      <c r="L65" s="346"/>
+      <c r="M65" s="346"/>
+      <c r="N65" s="346"/>
+      <c r="O65" s="346"/>
       <c r="P65" s="260"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="260"/>
-      <c r="B66" s="362"/>
-      <c r="C66" s="349"/>
+      <c r="B66" s="358"/>
+      <c r="C66" s="345"/>
       <c r="D66" s="141"/>
       <c r="E66" s="141"/>
       <c r="F66" s="260"/>
       <c r="G66" s="260"/>
-      <c r="H66" s="350"/>
-      <c r="I66" s="350"/>
-      <c r="J66" s="350"/>
-      <c r="K66" s="351"/>
-      <c r="L66" s="350"/>
-      <c r="M66" s="350"/>
-      <c r="N66" s="350"/>
-      <c r="O66" s="350"/>
+      <c r="H66" s="346"/>
+      <c r="I66" s="346"/>
+      <c r="J66" s="346"/>
+      <c r="K66" s="347"/>
+      <c r="L66" s="346"/>
+      <c r="M66" s="346"/>
+      <c r="N66" s="346"/>
+      <c r="O66" s="346"/>
       <c r="P66" s="260"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="260"/>
-      <c r="B67" s="363"/>
-      <c r="C67" s="349"/>
+      <c r="B67" s="359"/>
+      <c r="C67" s="345"/>
       <c r="D67" s="260"/>
       <c r="E67" s="260"/>
       <c r="F67" s="260"/>
       <c r="G67" s="260"/>
-      <c r="H67" s="350"/>
-      <c r="I67" s="350"/>
-      <c r="J67" s="350"/>
-      <c r="K67" s="351"/>
-      <c r="L67" s="350"/>
-      <c r="M67" s="350"/>
-      <c r="N67" s="350"/>
-      <c r="O67" s="350"/>
+      <c r="H67" s="346"/>
+      <c r="I67" s="346"/>
+      <c r="J67" s="346"/>
+      <c r="K67" s="347"/>
+      <c r="L67" s="346"/>
+      <c r="M67" s="346"/>
+      <c r="N67" s="346"/>
+      <c r="O67" s="346"/>
       <c r="P67" s="260"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="260"/>
-      <c r="B68" s="363"/>
-      <c r="C68" s="349"/>
+      <c r="B68" s="359"/>
+      <c r="C68" s="345"/>
       <c r="D68" s="260"/>
       <c r="E68" s="260"/>
       <c r="F68" s="260"/>
       <c r="G68" s="260"/>
-      <c r="H68" s="350"/>
-      <c r="I68" s="350"/>
-      <c r="J68" s="350"/>
-      <c r="K68" s="351"/>
-      <c r="L68" s="350"/>
-      <c r="M68" s="350"/>
-      <c r="N68" s="350"/>
-      <c r="O68" s="350"/>
+      <c r="H68" s="346"/>
+      <c r="I68" s="346"/>
+      <c r="J68" s="346"/>
+      <c r="K68" s="347"/>
+      <c r="L68" s="346"/>
+      <c r="M68" s="346"/>
+      <c r="N68" s="346"/>
+      <c r="O68" s="346"/>
       <c r="P68" s="260"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="260"/>
-      <c r="B69" s="362"/>
-      <c r="C69" s="349"/>
+      <c r="B69" s="358"/>
+      <c r="C69" s="345"/>
       <c r="D69" s="146"/>
       <c r="E69" s="141"/>
       <c r="F69" s="260"/>
       <c r="G69" s="260"/>
-      <c r="H69" s="350"/>
-      <c r="I69" s="350"/>
-      <c r="J69" s="350"/>
-      <c r="K69" s="351"/>
-      <c r="L69" s="350"/>
-      <c r="M69" s="350"/>
-      <c r="N69" s="350"/>
-      <c r="O69" s="350"/>
+      <c r="H69" s="346"/>
+      <c r="I69" s="346"/>
+      <c r="J69" s="346"/>
+      <c r="K69" s="347"/>
+      <c r="L69" s="346"/>
+      <c r="M69" s="346"/>
+      <c r="N69" s="346"/>
+      <c r="O69" s="346"/>
       <c r="P69" s="260"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="260"/>
-      <c r="B70" s="362"/>
-      <c r="C70" s="349"/>
+      <c r="B70" s="358"/>
+      <c r="C70" s="345"/>
       <c r="D70" s="146"/>
       <c r="E70" s="141"/>
       <c r="F70" s="260"/>
       <c r="G70" s="260"/>
-      <c r="H70" s="350"/>
-      <c r="I70" s="350"/>
-      <c r="J70" s="350"/>
-      <c r="K70" s="351"/>
-      <c r="L70" s="350"/>
-      <c r="M70" s="350"/>
-      <c r="N70" s="350"/>
-      <c r="O70" s="350"/>
+      <c r="H70" s="346"/>
+      <c r="I70" s="346"/>
+      <c r="J70" s="346"/>
+      <c r="K70" s="347"/>
+      <c r="L70" s="346"/>
+      <c r="M70" s="346"/>
+      <c r="N70" s="346"/>
+      <c r="O70" s="346"/>
       <c r="P70" s="260"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="260"/>
-      <c r="B71" s="362"/>
-      <c r="C71" s="349"/>
+      <c r="B71" s="358"/>
+      <c r="C71" s="345"/>
       <c r="D71" s="146"/>
       <c r="E71" s="141"/>
       <c r="F71" s="260"/>
       <c r="G71" s="260"/>
-      <c r="H71" s="350"/>
-      <c r="I71" s="350"/>
-      <c r="J71" s="350"/>
-      <c r="K71" s="351"/>
-      <c r="L71" s="350"/>
-      <c r="M71" s="350"/>
-      <c r="N71" s="350"/>
-      <c r="O71" s="350"/>
+      <c r="H71" s="346"/>
+      <c r="I71" s="346"/>
+      <c r="J71" s="346"/>
+      <c r="K71" s="347"/>
+      <c r="L71" s="346"/>
+      <c r="M71" s="346"/>
+      <c r="N71" s="346"/>
+      <c r="O71" s="346"/>
       <c r="P71" s="260"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="260"/>
-      <c r="B72" s="362"/>
-      <c r="C72" s="349"/>
+      <c r="B72" s="358"/>
+      <c r="C72" s="345"/>
       <c r="D72" s="146"/>
       <c r="E72" s="141"/>
       <c r="F72" s="260"/>
       <c r="G72" s="260"/>
-      <c r="H72" s="350"/>
-      <c r="I72" s="350"/>
-      <c r="J72" s="350"/>
-      <c r="K72" s="351"/>
-      <c r="L72" s="350"/>
-      <c r="M72" s="350"/>
-      <c r="N72" s="350"/>
-      <c r="O72" s="350"/>
+      <c r="H72" s="346"/>
+      <c r="I72" s="346"/>
+      <c r="J72" s="346"/>
+      <c r="K72" s="347"/>
+      <c r="L72" s="346"/>
+      <c r="M72" s="346"/>
+      <c r="N72" s="346"/>
+      <c r="O72" s="346"/>
       <c r="P72" s="260"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="260"/>
-      <c r="B73" s="362"/>
-      <c r="C73" s="349"/>
+      <c r="B73" s="358"/>
+      <c r="C73" s="345"/>
       <c r="D73" s="146"/>
       <c r="E73" s="141"/>
       <c r="F73" s="260"/>
       <c r="G73" s="260"/>
-      <c r="H73" s="350"/>
-      <c r="I73" s="350"/>
-      <c r="J73" s="350"/>
-      <c r="K73" s="351"/>
-      <c r="L73" s="350"/>
-      <c r="M73" s="350"/>
-      <c r="N73" s="350"/>
-      <c r="O73" s="350"/>
+      <c r="H73" s="346"/>
+      <c r="I73" s="346"/>
+      <c r="J73" s="346"/>
+      <c r="K73" s="347"/>
+      <c r="L73" s="346"/>
+      <c r="M73" s="346"/>
+      <c r="N73" s="346"/>
+      <c r="O73" s="346"/>
       <c r="P73" s="260"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="260"/>
-      <c r="B74" s="362"/>
-      <c r="C74" s="349"/>
+      <c r="B74" s="358"/>
+      <c r="C74" s="345"/>
       <c r="D74" s="146"/>
       <c r="E74" s="141"/>
       <c r="F74" s="260"/>
       <c r="G74" s="260"/>
-      <c r="H74" s="350"/>
-      <c r="I74" s="350"/>
-      <c r="J74" s="350"/>
-      <c r="K74" s="351"/>
-      <c r="L74" s="350"/>
-      <c r="M74" s="350"/>
-      <c r="N74" s="350"/>
-      <c r="O74" s="350"/>
+      <c r="H74" s="346"/>
+      <c r="I74" s="346"/>
+      <c r="J74" s="346"/>
+      <c r="K74" s="347"/>
+      <c r="L74" s="346"/>
+      <c r="M74" s="346"/>
+      <c r="N74" s="346"/>
+      <c r="O74" s="346"/>
       <c r="P74" s="260"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="260"/>
-      <c r="B75" s="362"/>
-      <c r="C75" s="349"/>
+      <c r="B75" s="358"/>
+      <c r="C75" s="345"/>
       <c r="D75" s="141"/>
       <c r="E75" s="260"/>
       <c r="F75" s="260"/>
       <c r="G75" s="260"/>
-      <c r="H75" s="350"/>
-      <c r="I75" s="350"/>
-      <c r="J75" s="350"/>
-      <c r="K75" s="351"/>
-      <c r="L75" s="350"/>
-      <c r="M75" s="350"/>
-      <c r="N75" s="350"/>
-      <c r="O75" s="350"/>
+      <c r="H75" s="346"/>
+      <c r="I75" s="346"/>
+      <c r="J75" s="346"/>
+      <c r="K75" s="347"/>
+      <c r="L75" s="346"/>
+      <c r="M75" s="346"/>
+      <c r="N75" s="346"/>
+      <c r="O75" s="346"/>
       <c r="P75" s="260"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="260"/>
-      <c r="B76" s="362"/>
-      <c r="C76" s="349"/>
+      <c r="B76" s="358"/>
+      <c r="C76" s="345"/>
       <c r="D76" s="141"/>
       <c r="E76" s="260"/>
       <c r="F76" s="260"/>
       <c r="G76" s="260"/>
-      <c r="H76" s="350"/>
-      <c r="I76" s="350"/>
-      <c r="J76" s="350"/>
-      <c r="K76" s="351"/>
-      <c r="L76" s="350"/>
-      <c r="M76" s="350"/>
-      <c r="N76" s="350"/>
-      <c r="O76" s="350"/>
+      <c r="H76" s="346"/>
+      <c r="I76" s="346"/>
+      <c r="J76" s="346"/>
+      <c r="K76" s="347"/>
+      <c r="L76" s="346"/>
+      <c r="M76" s="346"/>
+      <c r="N76" s="346"/>
+      <c r="O76" s="346"/>
       <c r="P76" s="260"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="260"/>
-      <c r="B77" s="363"/>
-      <c r="C77" s="349"/>
+      <c r="B77" s="359"/>
+      <c r="C77" s="345"/>
       <c r="D77" s="260"/>
       <c r="E77" s="260"/>
       <c r="F77" s="260"/>
       <c r="G77" s="260"/>
-      <c r="H77" s="350"/>
-      <c r="I77" s="350"/>
-      <c r="J77" s="350"/>
-      <c r="K77" s="351"/>
-      <c r="L77" s="350"/>
-      <c r="M77" s="350"/>
-      <c r="N77" s="350"/>
-      <c r="O77" s="350"/>
+      <c r="H77" s="346"/>
+      <c r="I77" s="346"/>
+      <c r="J77" s="346"/>
+      <c r="K77" s="347"/>
+      <c r="L77" s="346"/>
+      <c r="M77" s="346"/>
+      <c r="N77" s="346"/>
+      <c r="O77" s="346"/>
       <c r="P77" s="260"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="260"/>
-      <c r="B78" s="363"/>
-      <c r="C78" s="349"/>
+      <c r="B78" s="359"/>
+      <c r="C78" s="345"/>
       <c r="D78" s="260"/>
       <c r="E78" s="260"/>
       <c r="F78" s="260"/>
       <c r="G78" s="260"/>
-      <c r="H78" s="350"/>
-      <c r="I78" s="350"/>
-      <c r="J78" s="350"/>
-      <c r="K78" s="351"/>
-      <c r="L78" s="350"/>
-      <c r="M78" s="350"/>
-      <c r="N78" s="350"/>
-      <c r="O78" s="350"/>
+      <c r="H78" s="346"/>
+      <c r="I78" s="346"/>
+      <c r="J78" s="346"/>
+      <c r="K78" s="347"/>
+      <c r="L78" s="346"/>
+      <c r="M78" s="346"/>
+      <c r="N78" s="346"/>
+      <c r="O78" s="346"/>
       <c r="P78" s="260"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="260"/>
-      <c r="B79" s="362"/>
-      <c r="C79" s="349"/>
+      <c r="B79" s="358"/>
+      <c r="C79" s="345"/>
       <c r="D79" s="141"/>
       <c r="E79" s="141"/>
       <c r="F79" s="260"/>
       <c r="G79" s="260"/>
-      <c r="H79" s="350"/>
-      <c r="I79" s="350"/>
-      <c r="J79" s="350"/>
-      <c r="K79" s="351"/>
-      <c r="L79" s="350"/>
-      <c r="M79" s="350"/>
-      <c r="N79" s="350"/>
-      <c r="O79" s="350"/>
+      <c r="H79" s="346"/>
+      <c r="I79" s="346"/>
+      <c r="J79" s="346"/>
+      <c r="K79" s="347"/>
+      <c r="L79" s="346"/>
+      <c r="M79" s="346"/>
+      <c r="N79" s="346"/>
+      <c r="O79" s="346"/>
       <c r="P79" s="260"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="260"/>
-      <c r="B80" s="362"/>
-      <c r="C80" s="349"/>
+      <c r="B80" s="358"/>
+      <c r="C80" s="345"/>
       <c r="D80" s="141"/>
       <c r="E80" s="141"/>
       <c r="F80" s="260"/>
       <c r="G80" s="260"/>
-      <c r="H80" s="350"/>
-      <c r="I80" s="350"/>
-      <c r="J80" s="350"/>
-      <c r="K80" s="351"/>
-      <c r="L80" s="350"/>
-      <c r="M80" s="350"/>
-      <c r="N80" s="350"/>
-      <c r="O80" s="350"/>
+      <c r="H80" s="346"/>
+      <c r="I80" s="346"/>
+      <c r="J80" s="346"/>
+      <c r="K80" s="347"/>
+      <c r="L80" s="346"/>
+      <c r="M80" s="346"/>
+      <c r="N80" s="346"/>
+      <c r="O80" s="346"/>
       <c r="P80" s="260"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="260"/>
-      <c r="B81" s="362"/>
-      <c r="C81" s="349"/>
+      <c r="B81" s="358"/>
+      <c r="C81" s="345"/>
       <c r="D81" s="141"/>
       <c r="E81" s="141"/>
       <c r="F81" s="260"/>
       <c r="G81" s="260"/>
-      <c r="H81" s="350"/>
-      <c r="I81" s="350"/>
-      <c r="J81" s="350"/>
-      <c r="K81" s="351"/>
-      <c r="L81" s="350"/>
-      <c r="M81" s="350"/>
-      <c r="N81" s="350"/>
-      <c r="O81" s="350"/>
+      <c r="H81" s="346"/>
+      <c r="I81" s="346"/>
+      <c r="J81" s="346"/>
+      <c r="K81" s="347"/>
+      <c r="L81" s="346"/>
+      <c r="M81" s="346"/>
+      <c r="N81" s="346"/>
+      <c r="O81" s="346"/>
       <c r="P81" s="260"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="260"/>
-      <c r="B82" s="362"/>
-      <c r="C82" s="349"/>
+      <c r="B82" s="358"/>
+      <c r="C82" s="345"/>
       <c r="D82" s="141"/>
       <c r="E82" s="141"/>
       <c r="F82" s="260"/>
       <c r="G82" s="260"/>
-      <c r="H82" s="350"/>
-      <c r="I82" s="350"/>
-      <c r="J82" s="350"/>
-      <c r="K82" s="351"/>
-      <c r="L82" s="350"/>
-      <c r="M82" s="350"/>
-      <c r="N82" s="350"/>
-      <c r="O82" s="350"/>
+      <c r="H82" s="346"/>
+      <c r="I82" s="346"/>
+      <c r="J82" s="346"/>
+      <c r="K82" s="347"/>
+      <c r="L82" s="346"/>
+      <c r="M82" s="346"/>
+      <c r="N82" s="346"/>
+      <c r="O82" s="346"/>
       <c r="P82" s="260"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="260"/>
-      <c r="B83" s="362"/>
-      <c r="C83" s="349"/>
+      <c r="B83" s="358"/>
+      <c r="C83" s="345"/>
       <c r="D83" s="141"/>
       <c r="E83" s="141"/>
       <c r="F83" s="260"/>
       <c r="G83" s="260"/>
-      <c r="H83" s="350"/>
-      <c r="I83" s="350"/>
-      <c r="J83" s="350"/>
-      <c r="K83" s="351"/>
-      <c r="L83" s="350"/>
-      <c r="M83" s="350"/>
-      <c r="N83" s="350"/>
-      <c r="O83" s="350"/>
+      <c r="H83" s="346"/>
+      <c r="I83" s="346"/>
+      <c r="J83" s="346"/>
+      <c r="K83" s="347"/>
+      <c r="L83" s="346"/>
+      <c r="M83" s="346"/>
+      <c r="N83" s="346"/>
+      <c r="O83" s="346"/>
       <c r="P83" s="260"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="260"/>
-      <c r="B84" s="362"/>
-      <c r="C84" s="349"/>
+      <c r="B84" s="358"/>
+      <c r="C84" s="345"/>
       <c r="D84" s="141"/>
       <c r="E84" s="141"/>
       <c r="F84" s="260"/>
       <c r="G84" s="260"/>
-      <c r="H84" s="350"/>
-      <c r="I84" s="350"/>
-      <c r="J84" s="350"/>
-      <c r="K84" s="351"/>
-      <c r="L84" s="350"/>
-      <c r="M84" s="350"/>
-      <c r="N84" s="350"/>
-      <c r="O84" s="350"/>
+      <c r="H84" s="346"/>
+      <c r="I84" s="346"/>
+      <c r="J84" s="346"/>
+      <c r="K84" s="347"/>
+      <c r="L84" s="346"/>
+      <c r="M84" s="346"/>
+      <c r="N84" s="346"/>
+      <c r="O84" s="346"/>
       <c r="P84" s="260"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="260"/>
-      <c r="B85" s="362"/>
-      <c r="C85" s="349"/>
+      <c r="B85" s="358"/>
+      <c r="C85" s="345"/>
       <c r="D85" s="141"/>
       <c r="E85" s="141"/>
       <c r="F85" s="260"/>
       <c r="G85" s="260"/>
-      <c r="H85" s="350"/>
-      <c r="I85" s="350"/>
-      <c r="J85" s="364"/>
-      <c r="K85" s="351"/>
-      <c r="L85" s="350"/>
-      <c r="M85" s="350"/>
-      <c r="N85" s="350"/>
-      <c r="O85" s="350"/>
+      <c r="H85" s="346"/>
+      <c r="I85" s="346"/>
+      <c r="J85" s="360"/>
+      <c r="K85" s="347"/>
+      <c r="L85" s="346"/>
+      <c r="M85" s="346"/>
+      <c r="N85" s="346"/>
+      <c r="O85" s="346"/>
       <c r="P85" s="260"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="260"/>
-      <c r="B86" s="362"/>
-      <c r="C86" s="349"/>
+      <c r="B86" s="358"/>
+      <c r="C86" s="345"/>
       <c r="D86" s="141"/>
       <c r="E86" s="141"/>
       <c r="F86" s="260"/>
       <c r="G86" s="260"/>
-      <c r="H86" s="350"/>
-      <c r="I86" s="350"/>
-      <c r="J86" s="365"/>
-      <c r="K86" s="351"/>
-      <c r="L86" s="350"/>
-      <c r="M86" s="350"/>
-      <c r="N86" s="350"/>
-      <c r="O86" s="350"/>
+      <c r="H86" s="346"/>
+      <c r="I86" s="346"/>
+      <c r="J86" s="361"/>
+      <c r="K86" s="347"/>
+      <c r="L86" s="346"/>
+      <c r="M86" s="346"/>
+      <c r="N86" s="346"/>
+      <c r="O86" s="346"/>
       <c r="P86" s="260"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="260"/>
-      <c r="B87" s="362"/>
-      <c r="C87" s="349"/>
+      <c r="B87" s="358"/>
+      <c r="C87" s="345"/>
       <c r="D87" s="141"/>
       <c r="E87" s="141"/>
       <c r="F87" s="260"/>
       <c r="G87" s="260"/>
-      <c r="H87" s="350"/>
-      <c r="I87" s="350"/>
+      <c r="H87" s="346"/>
+      <c r="I87" s="346"/>
       <c r="J87" s="258"/>
-      <c r="K87" s="351"/>
-      <c r="L87" s="350"/>
-      <c r="M87" s="350"/>
-      <c r="N87" s="350"/>
-      <c r="O87" s="350"/>
+      <c r="K87" s="347"/>
+      <c r="L87" s="346"/>
+      <c r="M87" s="346"/>
+      <c r="N87" s="346"/>
+      <c r="O87" s="346"/>
       <c r="P87" s="260"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="260"/>
-      <c r="B88" s="363"/>
-      <c r="C88" s="349"/>
+      <c r="B88" s="359"/>
+      <c r="C88" s="345"/>
       <c r="D88" s="260"/>
       <c r="E88" s="260"/>
       <c r="F88" s="260"/>
       <c r="G88" s="260"/>
-      <c r="H88" s="350"/>
-      <c r="I88" s="350"/>
-      <c r="J88" s="350"/>
-      <c r="K88" s="351"/>
-      <c r="L88" s="350"/>
-      <c r="M88" s="350"/>
-      <c r="N88" s="350"/>
-      <c r="O88" s="350"/>
+      <c r="H88" s="346"/>
+      <c r="I88" s="346"/>
+      <c r="J88" s="346"/>
+      <c r="K88" s="347"/>
+      <c r="L88" s="346"/>
+      <c r="M88" s="346"/>
+      <c r="N88" s="346"/>
+      <c r="O88" s="346"/>
       <c r="P88" s="260"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="260"/>
-      <c r="B89" s="362"/>
-      <c r="C89" s="349"/>
+      <c r="B89" s="358"/>
+      <c r="C89" s="345"/>
       <c r="D89" s="146"/>
       <c r="E89" s="146"/>
       <c r="F89" s="260"/>
       <c r="G89" s="260"/>
-      <c r="H89" s="350"/>
-      <c r="I89" s="350"/>
-      <c r="J89" s="364"/>
-      <c r="K89" s="351"/>
-      <c r="L89" s="350"/>
-      <c r="M89" s="350"/>
-      <c r="N89" s="350"/>
-      <c r="O89" s="350"/>
+      <c r="H89" s="346"/>
+      <c r="I89" s="346"/>
+      <c r="J89" s="360"/>
+      <c r="K89" s="347"/>
+      <c r="L89" s="346"/>
+      <c r="M89" s="346"/>
+      <c r="N89" s="346"/>
+      <c r="O89" s="346"/>
       <c r="P89" s="260"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="260"/>
-      <c r="B90" s="362"/>
-      <c r="C90" s="349"/>
+      <c r="B90" s="358"/>
+      <c r="C90" s="345"/>
       <c r="D90" s="146"/>
       <c r="E90" s="146"/>
       <c r="F90" s="260"/>
       <c r="G90" s="260"/>
-      <c r="H90" s="350"/>
-      <c r="I90" s="350"/>
-      <c r="J90" s="365"/>
-      <c r="K90" s="351"/>
-      <c r="L90" s="350"/>
-      <c r="M90" s="350"/>
-      <c r="N90" s="350"/>
-      <c r="O90" s="350"/>
+      <c r="H90" s="346"/>
+      <c r="I90" s="346"/>
+      <c r="J90" s="361"/>
+      <c r="K90" s="347"/>
+      <c r="L90" s="346"/>
+      <c r="M90" s="346"/>
+      <c r="N90" s="346"/>
+      <c r="O90" s="346"/>
       <c r="P90" s="260"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="260"/>
-      <c r="B91" s="362"/>
-      <c r="C91" s="349"/>
+      <c r="B91" s="358"/>
+      <c r="C91" s="345"/>
       <c r="D91" s="146"/>
       <c r="E91" s="146"/>
       <c r="F91" s="260"/>
       <c r="G91" s="260"/>
-      <c r="H91" s="350"/>
-      <c r="I91" s="350"/>
-      <c r="J91" s="365"/>
-      <c r="K91" s="351"/>
-      <c r="L91" s="350"/>
-      <c r="M91" s="350"/>
-      <c r="N91" s="350"/>
-      <c r="O91" s="350"/>
+      <c r="H91" s="346"/>
+      <c r="I91" s="346"/>
+      <c r="J91" s="361"/>
+      <c r="K91" s="347"/>
+      <c r="L91" s="346"/>
+      <c r="M91" s="346"/>
+      <c r="N91" s="346"/>
+      <c r="O91" s="346"/>
       <c r="P91" s="260"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="260"/>
-      <c r="B92" s="362"/>
-      <c r="C92" s="349"/>
+      <c r="B92" s="358"/>
+      <c r="C92" s="345"/>
       <c r="D92" s="146"/>
       <c r="E92" s="146"/>
       <c r="F92" s="260"/>
       <c r="G92" s="260"/>
-      <c r="H92" s="350"/>
-      <c r="I92" s="350"/>
+      <c r="H92" s="346"/>
+      <c r="I92" s="346"/>
       <c r="J92" s="258"/>
-      <c r="K92" s="351"/>
-      <c r="L92" s="350"/>
-      <c r="M92" s="350"/>
-      <c r="N92" s="350"/>
-      <c r="O92" s="350"/>
+      <c r="K92" s="347"/>
+      <c r="L92" s="346"/>
+      <c r="M92" s="346"/>
+      <c r="N92" s="346"/>
+      <c r="O92" s="346"/>
       <c r="P92" s="260"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="260"/>
-      <c r="B93" s="363"/>
-      <c r="C93" s="349"/>
+      <c r="B93" s="359"/>
+      <c r="C93" s="345"/>
       <c r="D93" s="260"/>
       <c r="E93" s="260"/>
       <c r="F93" s="260"/>
       <c r="G93" s="260"/>
-      <c r="H93" s="350"/>
-      <c r="I93" s="350"/>
-      <c r="J93" s="350"/>
-      <c r="K93" s="351"/>
-      <c r="L93" s="350"/>
-      <c r="M93" s="350"/>
-      <c r="N93" s="350"/>
-      <c r="O93" s="350"/>
+      <c r="H93" s="346"/>
+      <c r="I93" s="346"/>
+      <c r="J93" s="346"/>
+      <c r="K93" s="347"/>
+      <c r="L93" s="346"/>
+      <c r="M93" s="346"/>
+      <c r="N93" s="346"/>
+      <c r="O93" s="346"/>
       <c r="P93" s="260"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="260"/>
-      <c r="B94" s="362"/>
-      <c r="C94" s="349"/>
+      <c r="B94" s="358"/>
+      <c r="C94" s="345"/>
       <c r="D94" s="141"/>
       <c r="E94" s="141"/>
       <c r="F94" s="260"/>
       <c r="G94" s="260"/>
-      <c r="H94" s="350"/>
-      <c r="I94" s="350"/>
-      <c r="J94" s="350"/>
-      <c r="K94" s="351"/>
-      <c r="L94" s="350"/>
-      <c r="M94" s="350"/>
-      <c r="N94" s="350"/>
-      <c r="O94" s="350"/>
+      <c r="H94" s="346"/>
+      <c r="I94" s="346"/>
+      <c r="J94" s="346"/>
+      <c r="K94" s="347"/>
+      <c r="L94" s="346"/>
+      <c r="M94" s="346"/>
+      <c r="N94" s="346"/>
+      <c r="O94" s="346"/>
       <c r="P94" s="260"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="260"/>
-      <c r="B95" s="362"/>
-      <c r="C95" s="349"/>
+      <c r="B95" s="358"/>
+      <c r="C95" s="345"/>
       <c r="D95" s="141"/>
       <c r="E95" s="141"/>
       <c r="F95" s="260"/>
       <c r="G95" s="260"/>
-      <c r="H95" s="350"/>
-      <c r="I95" s="350"/>
-      <c r="J95" s="350"/>
-      <c r="K95" s="351"/>
-      <c r="L95" s="350"/>
-      <c r="M95" s="350"/>
-      <c r="N95" s="350"/>
-      <c r="O95" s="350"/>
+      <c r="H95" s="346"/>
+      <c r="I95" s="346"/>
+      <c r="J95" s="346"/>
+      <c r="K95" s="347"/>
+      <c r="L95" s="346"/>
+      <c r="M95" s="346"/>
+      <c r="N95" s="346"/>
+      <c r="O95" s="346"/>
       <c r="P95" s="260"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="260"/>
-      <c r="B96" s="362"/>
-      <c r="C96" s="349"/>
+      <c r="B96" s="358"/>
+      <c r="C96" s="345"/>
       <c r="D96" s="141"/>
       <c r="E96" s="141"/>
       <c r="F96" s="260"/>
       <c r="G96" s="260"/>
-      <c r="H96" s="350"/>
-      <c r="I96" s="350"/>
-      <c r="J96" s="350"/>
-      <c r="K96" s="351"/>
-      <c r="L96" s="350"/>
-      <c r="M96" s="350"/>
-      <c r="N96" s="350"/>
-      <c r="O96" s="350"/>
+      <c r="H96" s="346"/>
+      <c r="I96" s="346"/>
+      <c r="J96" s="346"/>
+      <c r="K96" s="347"/>
+      <c r="L96" s="346"/>
+      <c r="M96" s="346"/>
+      <c r="N96" s="346"/>
+      <c r="O96" s="346"/>
       <c r="P96" s="260"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="260"/>
-      <c r="B97" s="362"/>
-      <c r="C97" s="349"/>
+      <c r="B97" s="358"/>
+      <c r="C97" s="345"/>
       <c r="D97" s="141"/>
       <c r="E97" s="141"/>
       <c r="F97" s="260"/>
       <c r="G97" s="260"/>
-      <c r="H97" s="350"/>
-      <c r="I97" s="350"/>
-      <c r="J97" s="350"/>
-      <c r="K97" s="351"/>
-      <c r="L97" s="350"/>
-      <c r="M97" s="350"/>
-      <c r="N97" s="350"/>
-      <c r="O97" s="350"/>
+      <c r="H97" s="346"/>
+      <c r="I97" s="346"/>
+      <c r="J97" s="346"/>
+      <c r="K97" s="347"/>
+      <c r="L97" s="346"/>
+      <c r="M97" s="346"/>
+      <c r="N97" s="346"/>
+      <c r="O97" s="346"/>
       <c r="P97" s="260"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="260"/>
-      <c r="B98" s="363"/>
-      <c r="C98" s="349"/>
+      <c r="B98" s="359"/>
+      <c r="C98" s="345"/>
       <c r="D98" s="260"/>
       <c r="E98" s="260"/>
       <c r="F98" s="260"/>
       <c r="G98" s="260"/>
-      <c r="H98" s="350"/>
-      <c r="I98" s="350"/>
-      <c r="J98" s="350"/>
-      <c r="K98" s="351"/>
-      <c r="L98" s="350"/>
-      <c r="M98" s="350"/>
-      <c r="N98" s="350"/>
-      <c r="O98" s="350"/>
+      <c r="H98" s="346"/>
+      <c r="I98" s="346"/>
+      <c r="J98" s="346"/>
+      <c r="K98" s="347"/>
+      <c r="L98" s="346"/>
+      <c r="M98" s="346"/>
+      <c r="N98" s="346"/>
+      <c r="O98" s="346"/>
       <c r="P98" s="260"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="260"/>
-      <c r="B99" s="363"/>
-      <c r="C99" s="349"/>
+      <c r="B99" s="359"/>
+      <c r="C99" s="345"/>
       <c r="D99" s="260"/>
       <c r="E99" s="260"/>
       <c r="F99" s="260"/>
       <c r="G99" s="260"/>
-      <c r="H99" s="350"/>
-      <c r="I99" s="350"/>
-      <c r="J99" s="350"/>
-      <c r="K99" s="351"/>
-      <c r="L99" s="350"/>
-      <c r="M99" s="350"/>
-      <c r="N99" s="350"/>
-      <c r="O99" s="350"/>
+      <c r="H99" s="346"/>
+      <c r="I99" s="346"/>
+      <c r="J99" s="346"/>
+      <c r="K99" s="347"/>
+      <c r="L99" s="346"/>
+      <c r="M99" s="346"/>
+      <c r="N99" s="346"/>
+      <c r="O99" s="346"/>
       <c r="P99" s="260"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="260"/>
-      <c r="B100" s="363"/>
-      <c r="C100" s="349"/>
+      <c r="B100" s="359"/>
+      <c r="C100" s="345"/>
       <c r="D100" s="260"/>
       <c r="E100" s="260"/>
       <c r="F100" s="260"/>
       <c r="G100" s="260"/>
-      <c r="H100" s="350"/>
-      <c r="I100" s="350"/>
-      <c r="J100" s="350"/>
-      <c r="K100" s="351"/>
-      <c r="L100" s="350"/>
-      <c r="M100" s="350"/>
-      <c r="N100" s="350"/>
-      <c r="O100" s="350"/>
+      <c r="H100" s="346"/>
+      <c r="I100" s="346"/>
+      <c r="J100" s="346"/>
+      <c r="K100" s="347"/>
+      <c r="L100" s="346"/>
+      <c r="M100" s="346"/>
+      <c r="N100" s="346"/>
+      <c r="O100" s="346"/>
       <c r="P100" s="260"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="260"/>
-      <c r="B101" s="363"/>
-      <c r="C101" s="349"/>
+      <c r="B101" s="359"/>
+      <c r="C101" s="345"/>
       <c r="D101" s="260"/>
       <c r="E101" s="260"/>
       <c r="F101" s="260"/>
       <c r="G101" s="260"/>
-      <c r="H101" s="350"/>
-      <c r="I101" s="350"/>
-      <c r="J101" s="350"/>
-      <c r="K101" s="351"/>
-      <c r="L101" s="350"/>
-      <c r="M101" s="350"/>
-      <c r="N101" s="350"/>
-      <c r="O101" s="350"/>
+      <c r="H101" s="346"/>
+      <c r="I101" s="346"/>
+      <c r="J101" s="346"/>
+      <c r="K101" s="347"/>
+      <c r="L101" s="346"/>
+      <c r="M101" s="346"/>
+      <c r="N101" s="346"/>
+      <c r="O101" s="346"/>
       <c r="P101" s="260"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="260"/>
       <c r="B102" s="144"/>
-      <c r="C102" s="349"/>
+      <c r="C102" s="345"/>
       <c r="D102" s="141"/>
       <c r="E102" s="141"/>
       <c r="F102" s="260"/>
       <c r="G102" s="260"/>
-      <c r="H102" s="350"/>
-      <c r="I102" s="350"/>
-      <c r="J102" s="350"/>
-      <c r="K102" s="351"/>
-      <c r="L102" s="350"/>
-      <c r="M102" s="350"/>
-      <c r="N102" s="350"/>
-      <c r="O102" s="350"/>
+      <c r="H102" s="346"/>
+      <c r="I102" s="346"/>
+      <c r="J102" s="346"/>
+      <c r="K102" s="347"/>
+      <c r="L102" s="346"/>
+      <c r="M102" s="346"/>
+      <c r="N102" s="346"/>
+      <c r="O102" s="346"/>
       <c r="P102" s="260"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="260"/>
       <c r="B103" s="144"/>
-      <c r="C103" s="349"/>
+      <c r="C103" s="345"/>
       <c r="D103" s="141"/>
       <c r="E103" s="141"/>
       <c r="F103" s="260"/>
       <c r="G103" s="260"/>
-      <c r="H103" s="350"/>
-      <c r="I103" s="350"/>
-      <c r="J103" s="350"/>
-      <c r="K103" s="351"/>
-      <c r="L103" s="350"/>
-      <c r="M103" s="350"/>
-      <c r="N103" s="350"/>
-      <c r="O103" s="350"/>
+      <c r="H103" s="346"/>
+      <c r="I103" s="346"/>
+      <c r="J103" s="346"/>
+      <c r="K103" s="347"/>
+      <c r="L103" s="346"/>
+      <c r="M103" s="346"/>
+      <c r="N103" s="346"/>
+      <c r="O103" s="346"/>
       <c r="P103" s="260"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="260"/>
       <c r="B104" s="144"/>
-      <c r="C104" s="349"/>
+      <c r="C104" s="345"/>
       <c r="D104" s="141"/>
       <c r="E104" s="141"/>
       <c r="F104" s="260"/>
       <c r="G104" s="260"/>
-      <c r="H104" s="350"/>
-      <c r="I104" s="350"/>
-      <c r="J104" s="350"/>
-      <c r="K104" s="351"/>
-      <c r="L104" s="350"/>
-      <c r="M104" s="350"/>
-      <c r="N104" s="350"/>
-      <c r="O104" s="350"/>
+      <c r="H104" s="346"/>
+      <c r="I104" s="346"/>
+      <c r="J104" s="346"/>
+      <c r="K104" s="347"/>
+      <c r="L104" s="346"/>
+      <c r="M104" s="346"/>
+      <c r="N104" s="346"/>
+      <c r="O104" s="346"/>
       <c r="P104" s="260"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="260"/>
       <c r="B105" s="144"/>
-      <c r="C105" s="349"/>
+      <c r="C105" s="345"/>
       <c r="D105" s="141"/>
       <c r="E105" s="141"/>
       <c r="F105" s="260"/>
       <c r="G105" s="260"/>
-      <c r="H105" s="350"/>
-      <c r="I105" s="350"/>
-      <c r="J105" s="350"/>
-      <c r="K105" s="351"/>
-      <c r="L105" s="350"/>
-      <c r="M105" s="350"/>
-      <c r="N105" s="350"/>
-      <c r="O105" s="350"/>
+      <c r="H105" s="346"/>
+      <c r="I105" s="346"/>
+      <c r="J105" s="346"/>
+      <c r="K105" s="347"/>
+      <c r="L105" s="346"/>
+      <c r="M105" s="346"/>
+      <c r="N105" s="346"/>
+      <c r="O105" s="346"/>
       <c r="P105" s="260"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="260"/>
       <c r="B106" s="144"/>
-      <c r="C106" s="349"/>
+      <c r="C106" s="345"/>
       <c r="D106" s="141"/>
       <c r="E106" s="141"/>
       <c r="F106" s="260"/>
       <c r="G106" s="260"/>
-      <c r="H106" s="350"/>
-      <c r="I106" s="350"/>
-      <c r="J106" s="350"/>
-      <c r="K106" s="351"/>
-      <c r="L106" s="350"/>
-      <c r="M106" s="350"/>
-      <c r="N106" s="350"/>
-      <c r="O106" s="350"/>
+      <c r="H106" s="346"/>
+      <c r="I106" s="346"/>
+      <c r="J106" s="346"/>
+      <c r="K106" s="347"/>
+      <c r="L106" s="346"/>
+      <c r="M106" s="346"/>
+      <c r="N106" s="346"/>
+      <c r="O106" s="346"/>
       <c r="P106" s="260"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="260"/>
       <c r="B107" s="144"/>
-      <c r="C107" s="349"/>
+      <c r="C107" s="345"/>
       <c r="D107" s="141"/>
       <c r="E107" s="141"/>
       <c r="F107" s="260"/>
       <c r="G107" s="260"/>
-      <c r="H107" s="350"/>
-      <c r="I107" s="350"/>
-      <c r="J107" s="350"/>
-      <c r="K107" s="351"/>
-      <c r="L107" s="350"/>
-      <c r="M107" s="350"/>
-      <c r="N107" s="350"/>
-      <c r="O107" s="350"/>
+      <c r="H107" s="346"/>
+      <c r="I107" s="346"/>
+      <c r="J107" s="346"/>
+      <c r="K107" s="347"/>
+      <c r="L107" s="346"/>
+      <c r="M107" s="346"/>
+      <c r="N107" s="346"/>
+      <c r="O107" s="346"/>
       <c r="P107" s="260"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="260"/>
       <c r="B108" s="144"/>
-      <c r="C108" s="349"/>
+      <c r="C108" s="345"/>
       <c r="D108" s="141"/>
       <c r="E108" s="141"/>
       <c r="F108" s="260"/>
       <c r="G108" s="260"/>
-      <c r="H108" s="350"/>
-      <c r="I108" s="350"/>
-      <c r="J108" s="350"/>
-      <c r="K108" s="351"/>
-      <c r="L108" s="350"/>
-      <c r="M108" s="350"/>
-      <c r="N108" s="350"/>
-      <c r="O108" s="350"/>
+      <c r="H108" s="346"/>
+      <c r="I108" s="346"/>
+      <c r="J108" s="346"/>
+      <c r="K108" s="347"/>
+      <c r="L108" s="346"/>
+      <c r="M108" s="346"/>
+      <c r="N108" s="346"/>
+      <c r="O108" s="346"/>
       <c r="P108" s="260"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="260"/>
-      <c r="B109" s="361"/>
-      <c r="C109" s="349"/>
+      <c r="B109" s="357"/>
+      <c r="C109" s="345"/>
       <c r="D109" s="260"/>
       <c r="E109" s="260"/>
       <c r="F109" s="260"/>
       <c r="G109" s="260"/>
-      <c r="H109" s="350"/>
-      <c r="I109" s="350"/>
-      <c r="J109" s="350"/>
-      <c r="K109" s="351"/>
-      <c r="L109" s="350"/>
-      <c r="M109" s="350"/>
-      <c r="N109" s="350"/>
-      <c r="O109" s="350"/>
+      <c r="H109" s="346"/>
+      <c r="I109" s="346"/>
+      <c r="J109" s="346"/>
+      <c r="K109" s="347"/>
+      <c r="L109" s="346"/>
+      <c r="M109" s="346"/>
+      <c r="N109" s="346"/>
+      <c r="O109" s="346"/>
       <c r="P109" s="260"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="260"/>
       <c r="B110" s="144"/>
-      <c r="C110" s="349"/>
+      <c r="C110" s="345"/>
       <c r="D110" s="141"/>
       <c r="E110" s="141"/>
       <c r="F110" s="260"/>
       <c r="G110" s="260"/>
-      <c r="H110" s="350"/>
-      <c r="I110" s="350"/>
-      <c r="J110" s="350"/>
-      <c r="K110" s="351"/>
-      <c r="L110" s="350"/>
-      <c r="M110" s="350"/>
-      <c r="N110" s="350"/>
-      <c r="O110" s="350"/>
+      <c r="H110" s="346"/>
+      <c r="I110" s="346"/>
+      <c r="J110" s="346"/>
+      <c r="K110" s="347"/>
+      <c r="L110" s="346"/>
+      <c r="M110" s="346"/>
+      <c r="N110" s="346"/>
+      <c r="O110" s="346"/>
       <c r="P110" s="260"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="260"/>
       <c r="B111" s="144"/>
-      <c r="C111" s="349"/>
+      <c r="C111" s="345"/>
       <c r="D111" s="141"/>
       <c r="E111" s="141"/>
       <c r="F111" s="260"/>
       <c r="G111" s="260"/>
-      <c r="H111" s="350"/>
-      <c r="I111" s="350"/>
-      <c r="J111" s="350"/>
-      <c r="K111" s="351"/>
-      <c r="L111" s="350"/>
-      <c r="M111" s="350"/>
-      <c r="N111" s="350"/>
-      <c r="O111" s="350"/>
+      <c r="H111" s="346"/>
+      <c r="I111" s="346"/>
+      <c r="J111" s="346"/>
+      <c r="K111" s="347"/>
+      <c r="L111" s="346"/>
+      <c r="M111" s="346"/>
+      <c r="N111" s="346"/>
+      <c r="O111" s="346"/>
       <c r="P111" s="260"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="260"/>
       <c r="B112" s="144"/>
-      <c r="C112" s="349"/>
+      <c r="C112" s="345"/>
       <c r="D112" s="141"/>
       <c r="E112" s="141"/>
       <c r="F112" s="260"/>
       <c r="G112" s="260"/>
-      <c r="H112" s="350"/>
-      <c r="I112" s="350"/>
-      <c r="J112" s="350"/>
-      <c r="K112" s="351"/>
-      <c r="L112" s="350"/>
-      <c r="M112" s="350"/>
-      <c r="N112" s="350"/>
-      <c r="O112" s="350"/>
+      <c r="H112" s="346"/>
+      <c r="I112" s="346"/>
+      <c r="J112" s="346"/>
+      <c r="K112" s="347"/>
+      <c r="L112" s="346"/>
+      <c r="M112" s="346"/>
+      <c r="N112" s="346"/>
+      <c r="O112" s="346"/>
       <c r="P112" s="260"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="260"/>
       <c r="B113" s="144"/>
-      <c r="C113" s="349"/>
+      <c r="C113" s="345"/>
       <c r="D113" s="141"/>
       <c r="E113" s="141"/>
       <c r="F113" s="260"/>
       <c r="G113" s="260"/>
-      <c r="H113" s="350"/>
-      <c r="I113" s="350"/>
-      <c r="J113" s="350"/>
-      <c r="K113" s="351"/>
-      <c r="L113" s="350"/>
-      <c r="M113" s="350"/>
-      <c r="N113" s="350"/>
-      <c r="O113" s="350"/>
+      <c r="H113" s="346"/>
+      <c r="I113" s="346"/>
+      <c r="J113" s="346"/>
+      <c r="K113" s="347"/>
+      <c r="L113" s="346"/>
+      <c r="M113" s="346"/>
+      <c r="N113" s="346"/>
+      <c r="O113" s="346"/>
       <c r="P113" s="260"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="260"/>
       <c r="B114" s="144"/>
-      <c r="C114" s="349"/>
+      <c r="C114" s="345"/>
       <c r="D114" s="141"/>
       <c r="E114" s="141"/>
       <c r="F114" s="260"/>
       <c r="G114" s="260"/>
-      <c r="H114" s="350"/>
-      <c r="I114" s="350"/>
-      <c r="J114" s="350"/>
-      <c r="K114" s="351"/>
-      <c r="L114" s="350"/>
-      <c r="M114" s="350"/>
-      <c r="N114" s="350"/>
-      <c r="O114" s="350"/>
+      <c r="H114" s="346"/>
+      <c r="I114" s="346"/>
+      <c r="J114" s="346"/>
+      <c r="K114" s="347"/>
+      <c r="L114" s="346"/>
+      <c r="M114" s="346"/>
+      <c r="N114" s="346"/>
+      <c r="O114" s="346"/>
       <c r="P114" s="260"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="260"/>
-      <c r="B115" s="361"/>
-      <c r="C115" s="349"/>
+      <c r="B115" s="357"/>
+      <c r="C115" s="345"/>
       <c r="D115" s="260"/>
       <c r="E115" s="260"/>
       <c r="F115" s="260"/>
       <c r="G115" s="260"/>
-      <c r="H115" s="350"/>
-      <c r="I115" s="350"/>
-      <c r="J115" s="350"/>
-      <c r="K115" s="351"/>
-      <c r="L115" s="350"/>
-      <c r="M115" s="350"/>
-      <c r="N115" s="350"/>
-      <c r="O115" s="350"/>
+      <c r="H115" s="346"/>
+      <c r="I115" s="346"/>
+      <c r="J115" s="346"/>
+      <c r="K115" s="347"/>
+      <c r="L115" s="346"/>
+      <c r="M115" s="346"/>
+      <c r="N115" s="346"/>
+      <c r="O115" s="346"/>
       <c r="P115" s="260"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="260"/>
-      <c r="B116" s="361"/>
-      <c r="C116" s="349"/>
+      <c r="B116" s="357"/>
+      <c r="C116" s="345"/>
       <c r="D116" s="260"/>
       <c r="E116" s="260"/>
       <c r="F116" s="260"/>
       <c r="G116" s="260"/>
-      <c r="H116" s="350"/>
-      <c r="I116" s="350"/>
-      <c r="J116" s="350"/>
-      <c r="K116" s="351"/>
-      <c r="L116" s="350"/>
-      <c r="M116" s="350"/>
-      <c r="N116" s="350"/>
-      <c r="O116" s="350"/>
+      <c r="H116" s="346"/>
+      <c r="I116" s="346"/>
+      <c r="J116" s="346"/>
+      <c r="K116" s="347"/>
+      <c r="L116" s="346"/>
+      <c r="M116" s="346"/>
+      <c r="N116" s="346"/>
+      <c r="O116" s="346"/>
       <c r="P116" s="260"/>
     </row>
-    <row r="117" spans="1:17" s="372" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A117" s="416" t="s">
+    <row r="117" spans="1:17" s="368" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A117" s="413" t="s">
         <v>79</v>
       </c>
-      <c r="B117" s="416"/>
-      <c r="C117" s="416"/>
-      <c r="D117" s="416"/>
-      <c r="E117" s="416"/>
-      <c r="F117" s="416"/>
-      <c r="G117" s="366">
+      <c r="B117" s="413"/>
+      <c r="C117" s="413"/>
+      <c r="D117" s="413"/>
+      <c r="E117" s="413"/>
+      <c r="F117" s="413"/>
+      <c r="G117" s="362">
         <f>SUM(G9:G116)</f>
         <v>567</v>
       </c>
-      <c r="H117" s="367"/>
-      <c r="I117" s="368">
+      <c r="H117" s="363"/>
+      <c r="I117" s="364">
         <f>SUM(I9:I116)</f>
         <v>244100000</v>
       </c>
-      <c r="J117" s="369"/>
-      <c r="K117" s="370"/>
-      <c r="L117" s="371">
+      <c r="J117" s="365"/>
+      <c r="K117" s="366"/>
+      <c r="L117" s="367">
         <f>SUM(L9:L116)</f>
         <v>207972250</v>
       </c>
-      <c r="M117" s="367"/>
-      <c r="N117" s="367"/>
-      <c r="O117" s="367"/>
-      <c r="P117" s="417"/>
-      <c r="Q117" s="414"/>
-    </row>
-    <row r="118" spans="1:17" s="372" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A118" s="415" t="s">
+      <c r="M117" s="363"/>
+      <c r="N117" s="363"/>
+      <c r="O117" s="363"/>
+      <c r="P117" s="414"/>
+      <c r="Q117" s="411"/>
+    </row>
+    <row r="118" spans="1:17" s="368" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A118" s="412" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="415"/>
-      <c r="C118" s="415"/>
-      <c r="D118" s="415"/>
-      <c r="E118" s="415"/>
-      <c r="F118" s="415"/>
-      <c r="G118" s="366">
+      <c r="B118" s="412"/>
+      <c r="C118" s="412"/>
+      <c r="D118" s="412"/>
+      <c r="E118" s="412"/>
+      <c r="F118" s="412"/>
+      <c r="G118" s="362">
         <f>G117</f>
         <v>567</v>
       </c>
-      <c r="H118" s="369"/>
-      <c r="I118" s="368"/>
-      <c r="J118" s="369"/>
-      <c r="K118" s="370"/>
-      <c r="L118" s="371">
+      <c r="H118" s="365"/>
+      <c r="I118" s="364"/>
+      <c r="J118" s="365"/>
+      <c r="K118" s="366"/>
+      <c r="L118" s="367">
         <f>L117</f>
         <v>207972250</v>
       </c>
-      <c r="M118" s="369"/>
-      <c r="N118" s="369"/>
-      <c r="O118" s="369"/>
-      <c r="P118" s="417"/>
-      <c r="Q118" s="414"/>
-    </row>
-    <row r="119" spans="1:17" s="372" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A119" s="415" t="s">
+      <c r="M118" s="365"/>
+      <c r="N118" s="365"/>
+      <c r="O118" s="365"/>
+      <c r="P118" s="414"/>
+      <c r="Q118" s="411"/>
+    </row>
+    <row r="119" spans="1:17" s="368" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A119" s="412" t="s">
         <v>80</v>
       </c>
-      <c r="B119" s="415"/>
-      <c r="C119" s="415"/>
-      <c r="D119" s="415"/>
-      <c r="E119" s="415"/>
-      <c r="F119" s="415"/>
-      <c r="G119" s="373" t="s">
+      <c r="B119" s="412"/>
+      <c r="C119" s="412"/>
+      <c r="D119" s="412"/>
+      <c r="E119" s="412"/>
+      <c r="F119" s="412"/>
+      <c r="G119" s="369" t="s">
         <v>50</v>
       </c>
-      <c r="H119" s="369"/>
-      <c r="I119" s="369"/>
-      <c r="J119" s="369"/>
-      <c r="K119" s="373"/>
-      <c r="L119" s="371">
+      <c r="H119" s="365"/>
+      <c r="I119" s="365"/>
+      <c r="J119" s="365"/>
+      <c r="K119" s="369"/>
+      <c r="L119" s="367">
         <f>SUM(M9:M116)</f>
         <v>295750</v>
       </c>
-      <c r="M119" s="369"/>
-      <c r="N119" s="369"/>
-      <c r="O119" s="369"/>
-    </row>
-    <row r="120" spans="1:17" s="372" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A120" s="415" t="s">
+      <c r="M119" s="365"/>
+      <c r="N119" s="365"/>
+      <c r="O119" s="365"/>
+    </row>
+    <row r="120" spans="1:17" s="368" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A120" s="412" t="s">
         <v>81</v>
       </c>
-      <c r="B120" s="415"/>
-      <c r="C120" s="415"/>
-      <c r="D120" s="415"/>
-      <c r="E120" s="415"/>
-      <c r="F120" s="415"/>
-      <c r="G120" s="373"/>
-      <c r="H120" s="369"/>
-      <c r="I120" s="367"/>
-      <c r="J120" s="369"/>
-      <c r="K120" s="370"/>
-      <c r="L120" s="371">
+      <c r="B120" s="412"/>
+      <c r="C120" s="412"/>
+      <c r="D120" s="412"/>
+      <c r="E120" s="412"/>
+      <c r="F120" s="412"/>
+      <c r="G120" s="369"/>
+      <c r="H120" s="365"/>
+      <c r="I120" s="363"/>
+      <c r="J120" s="365"/>
+      <c r="K120" s="366"/>
+      <c r="L120" s="367">
         <f>SUM(N9:N116)</f>
         <v>1958800.0000000005</v>
       </c>
-      <c r="M120" s="369"/>
-      <c r="N120" s="369"/>
-      <c r="O120" s="369"/>
-    </row>
-    <row r="121" spans="1:17" s="372" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A121" s="415" t="s">
+      <c r="M120" s="365"/>
+      <c r="N120" s="365"/>
+      <c r="O120" s="365"/>
+    </row>
+    <row r="121" spans="1:17" s="368" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A121" s="412" t="s">
         <v>82</v>
       </c>
-      <c r="B121" s="415"/>
-      <c r="C121" s="415"/>
-      <c r="D121" s="415"/>
-      <c r="E121" s="415"/>
-      <c r="F121" s="415"/>
-      <c r="G121" s="373"/>
-      <c r="H121" s="369"/>
-      <c r="I121" s="367"/>
-      <c r="J121" s="369"/>
-      <c r="K121" s="370"/>
-      <c r="L121" s="371">
+      <c r="B121" s="412"/>
+      <c r="C121" s="412"/>
+      <c r="D121" s="412"/>
+      <c r="E121" s="412"/>
+      <c r="F121" s="412"/>
+      <c r="G121" s="369"/>
+      <c r="H121" s="365"/>
+      <c r="I121" s="363"/>
+      <c r="J121" s="365"/>
+      <c r="K121" s="366"/>
+      <c r="L121" s="367">
         <f>SUM(O9:O116)</f>
         <v>205717700</v>
       </c>
-      <c r="M121" s="369"/>
-      <c r="N121" s="369"/>
-      <c r="O121" s="369"/>
+      <c r="M121" s="365"/>
+      <c r="N121" s="365"/>
+      <c r="O121" s="365"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C124" s="375"/>
-      <c r="E124" s="376" t="s">
+      <c r="C124" s="371"/>
+      <c r="E124" s="372" t="s">
         <v>112</v>
       </c>
-      <c r="F124" s="376"/>
-      <c r="G124" s="376"/>
-      <c r="H124" s="377"/>
-      <c r="I124" s="377"/>
-      <c r="J124" s="378"/>
-      <c r="K124" s="352"/>
-      <c r="L124" s="378"/>
-      <c r="M124" s="378"/>
-      <c r="N124" s="378"/>
-      <c r="O124" s="378"/>
+      <c r="F124" s="372"/>
+      <c r="G124" s="372"/>
+      <c r="H124" s="373"/>
+      <c r="I124" s="373"/>
+      <c r="J124" s="374"/>
+      <c r="K124" s="348"/>
+      <c r="L124" s="374"/>
+      <c r="M124" s="374"/>
+      <c r="N124" s="374"/>
+      <c r="O124" s="374"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C125" s="379"/>
-      <c r="E125" s="380" t="s">
+      <c r="C125" s="375"/>
+      <c r="E125" s="376" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="380"/>
-      <c r="G125" s="380"/>
-      <c r="H125" s="381"/>
-      <c r="I125" s="381"/>
-      <c r="J125" s="378"/>
-      <c r="K125" s="352"/>
-      <c r="L125" s="378"/>
-      <c r="M125" s="378"/>
-      <c r="N125" s="378"/>
-      <c r="O125" s="378"/>
-    </row>
-    <row r="128" spans="1:17" s="382" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="383"/>
-      <c r="C128" s="375"/>
-      <c r="E128" s="376"/>
-      <c r="F128" s="384"/>
-      <c r="G128" s="384"/>
-      <c r="H128" s="385"/>
-      <c r="I128" s="385"/>
-      <c r="J128" s="385"/>
-      <c r="L128" s="385"/>
-      <c r="M128" s="385"/>
-      <c r="N128" s="385"/>
-      <c r="O128" s="385"/>
+      <c r="F125" s="376"/>
+      <c r="G125" s="376"/>
+      <c r="H125" s="377"/>
+      <c r="I125" s="377"/>
+      <c r="J125" s="374"/>
+      <c r="K125" s="348"/>
+      <c r="L125" s="374"/>
+      <c r="M125" s="374"/>
+      <c r="N125" s="374"/>
+      <c r="O125" s="374"/>
+    </row>
+    <row r="128" spans="1:17" s="378" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="379"/>
+      <c r="C128" s="371"/>
+      <c r="E128" s="372"/>
+      <c r="F128" s="380"/>
+      <c r="G128" s="380"/>
+      <c r="H128" s="381"/>
+      <c r="I128" s="381"/>
+      <c r="J128" s="381"/>
+      <c r="L128" s="381"/>
+      <c r="M128" s="381"/>
+      <c r="N128" s="381"/>
+      <c r="O128" s="381"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:P121">
@@ -7501,99 +7561,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="452" t="s">
+      <c r="A1" s="449" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="452"/>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="453" t="s">
+      <c r="A2" s="450" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="453"/>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
+      <c r="B2" s="450"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="455" t="s">
+      <c r="A3" s="452" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="455"/>
-      <c r="F3" s="455"/>
-      <c r="G3" s="455"/>
-      <c r="H3" s="455"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="455"/>
-      <c r="K3" s="455"/>
-      <c r="L3" s="455"/>
-      <c r="M3" s="455"/>
-      <c r="N3" s="455"/>
-      <c r="O3" s="455"/>
-      <c r="P3" s="455"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="452"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="452"/>
+      <c r="J3" s="452"/>
+      <c r="K3" s="452"/>
+      <c r="L3" s="452"/>
+      <c r="M3" s="452"/>
+      <c r="N3" s="452"/>
+      <c r="O3" s="452"/>
+      <c r="P3" s="452"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="456" t="s">
+      <c r="A4" s="453" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="456"/>
-      <c r="C4" s="456"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
-      <c r="G4" s="456"/>
-      <c r="H4" s="456"/>
-      <c r="I4" s="456"/>
-      <c r="J4" s="456"/>
-      <c r="K4" s="457"/>
-      <c r="L4" s="456"/>
-      <c r="M4" s="456"/>
-      <c r="N4" s="456"/>
-      <c r="O4" s="456"/>
-      <c r="P4" s="456"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="453"/>
+      <c r="I4" s="453"/>
+      <c r="J4" s="453"/>
+      <c r="K4" s="454"/>
+      <c r="L4" s="453"/>
+      <c r="M4" s="453"/>
+      <c r="N4" s="453"/>
+      <c r="O4" s="453"/>
+      <c r="P4" s="453"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="458" t="s">
+      <c r="A5" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="457" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="462" t="s">
+      <c r="C5" s="459" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="462" t="s">
+      <c r="D5" s="459" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="462"/>
-      <c r="F5" s="462"/>
-      <c r="G5" s="464" t="s">
+      <c r="E5" s="459"/>
+      <c r="F5" s="459"/>
+      <c r="G5" s="461" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="464"/>
-      <c r="I5" s="464"/>
-      <c r="J5" s="464"/>
-      <c r="K5" s="465"/>
-      <c r="L5" s="466" t="s">
+      <c r="H5" s="461"/>
+      <c r="I5" s="461"/>
+      <c r="J5" s="461"/>
+      <c r="K5" s="462"/>
+      <c r="L5" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="464" t="s">
+      <c r="M5" s="461" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="464"/>
-      <c r="O5" s="464"/>
-      <c r="P5" s="468" t="s">
+      <c r="N5" s="461"/>
+      <c r="O5" s="461"/>
+      <c r="P5" s="465" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="459"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="463"/>
+      <c r="A6" s="456"/>
+      <c r="B6" s="458"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="85" t="s">
         <v>41</v>
       </c>
@@ -7618,7 +7678,7 @@
       <c r="K6" s="246" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="467"/>
+      <c r="L6" s="464"/>
       <c r="M6" s="85" t="s">
         <v>46</v>
       </c>
@@ -7628,7 +7688,7 @@
       <c r="O6" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="469"/>
+      <c r="P6" s="466"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="260">
@@ -7759,12 +7819,12 @@
       <c r="P11" s="146"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="437"/>
-      <c r="B12" s="470"/>
-      <c r="C12" s="446"/>
-      <c r="D12" s="443"/>
-      <c r="E12" s="446"/>
-      <c r="F12" s="446"/>
+      <c r="A12" s="434"/>
+      <c r="B12" s="467"/>
+      <c r="C12" s="443"/>
+      <c r="D12" s="440"/>
+      <c r="E12" s="443"/>
+      <c r="F12" s="443"/>
       <c r="G12" s="229"/>
       <c r="H12" s="229"/>
       <c r="I12" s="230"/>
@@ -7777,12 +7837,12 @@
       <c r="P12" s="233"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="438"/>
-      <c r="B13" s="471"/>
-      <c r="C13" s="447"/>
-      <c r="D13" s="444"/>
-      <c r="E13" s="447"/>
-      <c r="F13" s="447"/>
+      <c r="A13" s="435"/>
+      <c r="B13" s="468"/>
+      <c r="C13" s="444"/>
+      <c r="D13" s="441"/>
+      <c r="E13" s="444"/>
+      <c r="F13" s="444"/>
       <c r="G13" s="234"/>
       <c r="H13" s="234"/>
       <c r="I13" s="235"/>
@@ -7795,12 +7855,12 @@
       <c r="P13" s="238"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="438"/>
-      <c r="B14" s="471"/>
-      <c r="C14" s="447"/>
-      <c r="D14" s="444"/>
-      <c r="E14" s="447"/>
-      <c r="F14" s="447"/>
+      <c r="A14" s="435"/>
+      <c r="B14" s="468"/>
+      <c r="C14" s="444"/>
+      <c r="D14" s="441"/>
+      <c r="E14" s="444"/>
+      <c r="F14" s="444"/>
       <c r="G14" s="234"/>
       <c r="H14" s="234"/>
       <c r="I14" s="235"/>
@@ -7813,12 +7873,12 @@
       <c r="P14" s="238"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="438"/>
-      <c r="B15" s="471"/>
-      <c r="C15" s="447"/>
-      <c r="D15" s="444"/>
-      <c r="E15" s="447"/>
-      <c r="F15" s="447"/>
+      <c r="A15" s="435"/>
+      <c r="B15" s="468"/>
+      <c r="C15" s="444"/>
+      <c r="D15" s="441"/>
+      <c r="E15" s="444"/>
+      <c r="F15" s="444"/>
       <c r="G15" s="234"/>
       <c r="H15" s="234"/>
       <c r="I15" s="235"/>
@@ -7831,12 +7891,12 @@
       <c r="P15" s="238"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="438"/>
-      <c r="B16" s="471"/>
-      <c r="C16" s="447"/>
-      <c r="D16" s="444"/>
-      <c r="E16" s="447"/>
-      <c r="F16" s="447"/>
+      <c r="A16" s="435"/>
+      <c r="B16" s="468"/>
+      <c r="C16" s="444"/>
+      <c r="D16" s="441"/>
+      <c r="E16" s="444"/>
+      <c r="F16" s="444"/>
       <c r="G16" s="234"/>
       <c r="H16" s="234"/>
       <c r="I16" s="235"/>
@@ -7849,12 +7909,12 @@
       <c r="P16" s="238"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="438"/>
-      <c r="B17" s="471"/>
-      <c r="C17" s="447"/>
-      <c r="D17" s="444"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="447"/>
+      <c r="A17" s="435"/>
+      <c r="B17" s="468"/>
+      <c r="C17" s="444"/>
+      <c r="D17" s="441"/>
+      <c r="E17" s="444"/>
+      <c r="F17" s="444"/>
       <c r="G17" s="234"/>
       <c r="H17" s="234"/>
       <c r="I17" s="235"/>
@@ -7867,12 +7927,12 @@
       <c r="P17" s="238"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="438"/>
-      <c r="B18" s="471"/>
-      <c r="C18" s="447"/>
-      <c r="D18" s="444"/>
-      <c r="E18" s="447"/>
-      <c r="F18" s="447"/>
+      <c r="A18" s="435"/>
+      <c r="B18" s="468"/>
+      <c r="C18" s="444"/>
+      <c r="D18" s="441"/>
+      <c r="E18" s="444"/>
+      <c r="F18" s="444"/>
       <c r="G18" s="234"/>
       <c r="H18" s="234"/>
       <c r="I18" s="235"/>
@@ -7885,12 +7945,12 @@
       <c r="P18" s="238"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="438"/>
-      <c r="B19" s="471"/>
-      <c r="C19" s="447"/>
-      <c r="D19" s="444"/>
-      <c r="E19" s="447"/>
-      <c r="F19" s="447"/>
+      <c r="A19" s="435"/>
+      <c r="B19" s="468"/>
+      <c r="C19" s="444"/>
+      <c r="D19" s="441"/>
+      <c r="E19" s="444"/>
+      <c r="F19" s="444"/>
       <c r="G19" s="234"/>
       <c r="H19" s="234"/>
       <c r="I19" s="235"/>
@@ -7903,12 +7963,12 @@
       <c r="P19" s="238"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="439"/>
-      <c r="B20" s="472"/>
-      <c r="C20" s="448"/>
-      <c r="D20" s="445"/>
-      <c r="E20" s="448"/>
-      <c r="F20" s="448"/>
+      <c r="A20" s="436"/>
+      <c r="B20" s="469"/>
+      <c r="C20" s="445"/>
+      <c r="D20" s="442"/>
+      <c r="E20" s="445"/>
+      <c r="F20" s="445"/>
       <c r="G20" s="239"/>
       <c r="H20" s="239"/>
       <c r="I20" s="240"/>
@@ -7939,11 +7999,11 @@
       <c r="P21" s="247"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="437"/>
-      <c r="B22" s="434"/>
-      <c r="C22" s="437"/>
-      <c r="D22" s="440"/>
-      <c r="E22" s="437"/>
+      <c r="A22" s="434"/>
+      <c r="B22" s="431"/>
+      <c r="C22" s="434"/>
+      <c r="D22" s="437"/>
+      <c r="E22" s="434"/>
       <c r="F22" s="248"/>
       <c r="G22" s="248"/>
       <c r="H22" s="248"/>
@@ -7957,11 +8017,11 @@
       <c r="P22" s="248"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="438"/>
-      <c r="B23" s="435"/>
-      <c r="C23" s="438"/>
-      <c r="D23" s="441"/>
-      <c r="E23" s="438"/>
+      <c r="A23" s="435"/>
+      <c r="B23" s="432"/>
+      <c r="C23" s="435"/>
+      <c r="D23" s="438"/>
+      <c r="E23" s="435"/>
       <c r="F23" s="249"/>
       <c r="G23" s="249"/>
       <c r="H23" s="249"/>
@@ -7975,11 +8035,11 @@
       <c r="P23" s="249"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="438"/>
-      <c r="B24" s="435"/>
-      <c r="C24" s="438"/>
-      <c r="D24" s="441"/>
-      <c r="E24" s="438"/>
+      <c r="A24" s="435"/>
+      <c r="B24" s="432"/>
+      <c r="C24" s="435"/>
+      <c r="D24" s="438"/>
+      <c r="E24" s="435"/>
       <c r="F24" s="249"/>
       <c r="G24" s="249"/>
       <c r="H24" s="249"/>
@@ -7993,11 +8053,11 @@
       <c r="P24" s="249"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="439"/>
-      <c r="B25" s="436"/>
-      <c r="C25" s="439"/>
-      <c r="D25" s="442"/>
-      <c r="E25" s="439"/>
+      <c r="A25" s="436"/>
+      <c r="B25" s="433"/>
+      <c r="C25" s="436"/>
+      <c r="D25" s="439"/>
+      <c r="E25" s="436"/>
       <c r="F25" s="250"/>
       <c r="G25" s="250"/>
       <c r="H25" s="250"/>
@@ -8011,10 +8071,10 @@
       <c r="P25" s="250"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="437"/>
-      <c r="B26" s="434"/>
-      <c r="C26" s="437"/>
-      <c r="D26" s="449"/>
+      <c r="A26" s="434"/>
+      <c r="B26" s="431"/>
+      <c r="C26" s="434"/>
+      <c r="D26" s="446"/>
       <c r="E26" s="248"/>
       <c r="F26" s="248"/>
       <c r="G26" s="248"/>
@@ -8029,10 +8089,10 @@
       <c r="P26" s="248"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="438"/>
-      <c r="B27" s="435"/>
-      <c r="C27" s="438"/>
-      <c r="D27" s="450"/>
+      <c r="A27" s="435"/>
+      <c r="B27" s="432"/>
+      <c r="C27" s="435"/>
+      <c r="D27" s="447"/>
       <c r="E27" s="249"/>
       <c r="F27" s="249"/>
       <c r="G27" s="249"/>
@@ -8047,10 +8107,10 @@
       <c r="P27" s="249"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="439"/>
-      <c r="B28" s="436"/>
-      <c r="C28" s="439"/>
-      <c r="D28" s="451"/>
+      <c r="A28" s="436"/>
+      <c r="B28" s="433"/>
+      <c r="C28" s="436"/>
+      <c r="D28" s="448"/>
       <c r="E28" s="250"/>
       <c r="F28" s="250"/>
       <c r="G28" s="250"/>
@@ -8083,14 +8143,14 @@
       <c r="P29" s="247"/>
     </row>
     <row r="30" spans="1:16" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="454" t="s">
+      <c r="A30" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="454"/>
-      <c r="C30" s="454"/>
-      <c r="D30" s="454"/>
-      <c r="E30" s="454"/>
-      <c r="F30" s="454"/>
+      <c r="B30" s="451"/>
+      <c r="C30" s="451"/>
+      <c r="D30" s="451"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="451"/>
       <c r="G30" s="132"/>
       <c r="H30" s="132">
         <f>SUM(H7:H28)</f>
@@ -8300,14 +8360,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="473" t="s">
+      <c r="A4" s="470" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="473"/>
-      <c r="C4" s="473"/>
-      <c r="D4" s="473"/>
-      <c r="E4" s="473"/>
-      <c r="F4" s="473"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="470"/>
+      <c r="E4" s="470"/>
+      <c r="F4" s="470"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -8321,14 +8381,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="474" t="s">
+      <c r="A5" s="471" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="474"/>
-      <c r="C5" s="474"/>
-      <c r="D5" s="474"/>
-      <c r="E5" s="474"/>
-      <c r="F5" s="474"/>
+      <c r="B5" s="471"/>
+      <c r="C5" s="471"/>
+      <c r="D5" s="471"/>
+      <c r="E5" s="471"/>
+      <c r="F5" s="471"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -8675,10 +8735,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="475" t="s">
+      <c r="A25" s="472" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="475"/>
+      <c r="B25" s="472"/>
       <c r="C25" s="31"/>
       <c r="D25" s="278">
         <f>C24-D24</f>
@@ -8736,8 +8796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8765,13 +8825,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="501" t="s">
+      <c r="A1" s="498" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="501"/>
-      <c r="C1" s="501"/>
-      <c r="D1" s="501"/>
-      <c r="E1" s="501"/>
+      <c r="B1" s="498"/>
+      <c r="C1" s="498"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="498"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -8799,143 +8859,143 @@
       <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="487" t="s">
+      <c r="A4" s="481" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="487"/>
-      <c r="C4" s="487"/>
-      <c r="D4" s="487"/>
-      <c r="E4" s="487"/>
-      <c r="F4" s="487"/>
-      <c r="G4" s="487"/>
-      <c r="H4" s="487"/>
-      <c r="I4" s="487"/>
-      <c r="J4" s="487"/>
-      <c r="K4" s="487"/>
-      <c r="L4" s="487"/>
-      <c r="M4" s="487"/>
-      <c r="N4" s="487"/>
-      <c r="O4" s="487"/>
-      <c r="P4" s="487"/>
+      <c r="B4" s="481"/>
+      <c r="C4" s="481"/>
+      <c r="D4" s="481"/>
+      <c r="E4" s="481"/>
+      <c r="F4" s="481"/>
+      <c r="G4" s="481"/>
+      <c r="H4" s="481"/>
+      <c r="I4" s="481"/>
+      <c r="J4" s="481"/>
+      <c r="K4" s="481"/>
+      <c r="L4" s="481"/>
+      <c r="M4" s="481"/>
+      <c r="N4" s="481"/>
+      <c r="O4" s="481"/>
+      <c r="P4" s="481"/>
     </row>
     <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="492"/>
-      <c r="B5" s="492"/>
-      <c r="C5" s="492"/>
-      <c r="D5" s="492"/>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="492"/>
-      <c r="I5" s="492"/>
-      <c r="J5" s="492"/>
-      <c r="K5" s="492"/>
-      <c r="L5" s="492"/>
-      <c r="M5" s="492"/>
-      <c r="N5" s="492"/>
-      <c r="O5" s="492"/>
-      <c r="P5" s="492"/>
+      <c r="A5" s="489"/>
+      <c r="B5" s="489"/>
+      <c r="C5" s="489"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="489"/>
+      <c r="F5" s="489"/>
+      <c r="G5" s="489"/>
+      <c r="H5" s="489"/>
+      <c r="I5" s="489"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="489"/>
+      <c r="L5" s="489"/>
+      <c r="M5" s="489"/>
+      <c r="N5" s="489"/>
+      <c r="O5" s="489"/>
+      <c r="P5" s="489"/>
     </row>
     <row r="6" spans="1:17" s="147" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="493" t="s">
+      <c r="A6" s="490" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="494" t="s">
+      <c r="B6" s="491" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="493" t="s">
+      <c r="C6" s="490" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="493" t="s">
+      <c r="D6" s="490" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="493"/>
-      <c r="F6" s="495" t="s">
+      <c r="E6" s="490"/>
+      <c r="F6" s="492" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="495"/>
-      <c r="H6" s="495"/>
-      <c r="I6" s="495"/>
-      <c r="J6" s="495"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="495"/>
-      <c r="M6" s="496"/>
-      <c r="N6" s="496"/>
-      <c r="O6" s="496"/>
-      <c r="P6" s="497" t="s">
+      <c r="G6" s="492"/>
+      <c r="H6" s="492"/>
+      <c r="I6" s="492"/>
+      <c r="J6" s="492"/>
+      <c r="K6" s="492"/>
+      <c r="L6" s="492"/>
+      <c r="M6" s="493"/>
+      <c r="N6" s="493"/>
+      <c r="O6" s="493"/>
+      <c r="P6" s="494" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="147" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="493"/>
-      <c r="B7" s="494"/>
-      <c r="C7" s="493"/>
-      <c r="D7" s="493" t="s">
+      <c r="A7" s="490"/>
+      <c r="B7" s="491"/>
+      <c r="C7" s="490"/>
+      <c r="D7" s="490" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="493" t="s">
+      <c r="E7" s="490" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="493" t="s">
+      <c r="F7" s="490" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="493" t="s">
+      <c r="G7" s="490" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="483" t="s">
+      <c r="H7" s="480" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="483" t="s">
+      <c r="I7" s="480" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="490" t="s">
+      <c r="J7" s="484" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="490"/>
-      <c r="L7" s="483" t="s">
+      <c r="K7" s="484"/>
+      <c r="L7" s="480" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="483" t="s">
+      <c r="M7" s="480" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="483" t="s">
+      <c r="N7" s="480" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="483" t="s">
+      <c r="O7" s="480" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="497"/>
+      <c r="P7" s="494"/>
     </row>
     <row r="8" spans="1:17" s="147" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="493"/>
-      <c r="B8" s="494"/>
-      <c r="C8" s="493"/>
-      <c r="D8" s="493"/>
-      <c r="E8" s="493"/>
-      <c r="F8" s="493"/>
-      <c r="G8" s="493"/>
-      <c r="H8" s="483"/>
-      <c r="I8" s="483"/>
+      <c r="A8" s="490"/>
+      <c r="B8" s="491"/>
+      <c r="C8" s="490"/>
+      <c r="D8" s="490"/>
+      <c r="E8" s="490"/>
+      <c r="F8" s="490"/>
+      <c r="G8" s="490"/>
+      <c r="H8" s="480"/>
+      <c r="I8" s="480"/>
       <c r="J8" s="173" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="483"/>
-      <c r="M8" s="483"/>
-      <c r="N8" s="483"/>
-      <c r="O8" s="483"/>
-      <c r="P8" s="497"/>
-    </row>
-    <row r="9" spans="1:17" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L8" s="480"/>
+      <c r="M8" s="480"/>
+      <c r="N8" s="480"/>
+      <c r="O8" s="480"/>
+      <c r="P8" s="494"/>
+    </row>
+    <row r="9" spans="1:17" s="348" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="260">
         <v>547</v>
       </c>
       <c r="B9" s="144">
         <v>43974</v>
       </c>
-      <c r="C9" s="349" t="s">
+      <c r="C9" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D9" s="141" t="s">
@@ -8950,34 +9010,36 @@
       <c r="G9" s="260">
         <v>2</v>
       </c>
-      <c r="H9" s="350">
+      <c r="H9" s="346">
         <v>475000</v>
       </c>
-      <c r="I9" s="350">
+      <c r="I9" s="346">
+        <f>G9*H9</f>
         <v>950000</v>
       </c>
-      <c r="J9" s="350"/>
-      <c r="K9" s="351">
+      <c r="J9" s="346"/>
+      <c r="K9" s="347">
         <v>0.41</v>
       </c>
-      <c r="L9" s="350">
+      <c r="L9" s="346">
+        <f>I9*(1-K9)</f>
         <v>560500.00000000012</v>
       </c>
-      <c r="M9" s="350"/>
-      <c r="N9" s="350"/>
-      <c r="O9" s="350">
+      <c r="M9" s="346"/>
+      <c r="N9" s="346"/>
+      <c r="O9" s="346">
         <v>560500.00000000012</v>
       </c>
       <c r="P9" s="260"/>
     </row>
-    <row r="10" spans="1:17" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="348" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="260">
         <v>550</v>
       </c>
       <c r="B10" s="144">
         <v>43974</v>
       </c>
-      <c r="C10" s="349" t="s">
+      <c r="C10" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D10" s="141" t="s">
@@ -8992,40 +9054,42 @@
       <c r="G10" s="260">
         <v>3</v>
       </c>
-      <c r="H10" s="350">
+      <c r="H10" s="346">
         <v>475000</v>
       </c>
-      <c r="I10" s="350">
+      <c r="I10" s="346">
+        <f t="shared" ref="I10:I17" si="0">G10*H10</f>
         <v>1425000</v>
       </c>
-      <c r="J10" s="350"/>
-      <c r="K10" s="351">
+      <c r="J10" s="346"/>
+      <c r="K10" s="347">
         <v>0.41</v>
       </c>
-      <c r="L10" s="350">
+      <c r="L10" s="346">
+        <f t="shared" ref="L10:L17" si="1">I10*(1-K10)</f>
         <v>840750.00000000012</v>
       </c>
-      <c r="M10" s="350"/>
-      <c r="N10" s="350"/>
-      <c r="O10" s="350">
+      <c r="M10" s="346"/>
+      <c r="N10" s="346"/>
+      <c r="O10" s="346">
         <v>840750.00000000012</v>
       </c>
       <c r="P10" s="260"/>
     </row>
-    <row r="11" spans="1:17" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="404">
+    <row r="11" spans="1:17" s="348" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="401">
         <v>586</v>
       </c>
-      <c r="B11" s="402">
+      <c r="B11" s="399">
         <v>43991</v>
       </c>
-      <c r="C11" s="404" t="s">
+      <c r="C11" s="401" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="404" t="s">
+      <c r="D11" s="401" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="400" t="s">
+      <c r="E11" s="397" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="260" t="s">
@@ -9034,66 +9098,70 @@
       <c r="G11" s="260">
         <v>1</v>
       </c>
-      <c r="H11" s="350">
+      <c r="H11" s="346">
         <v>550000</v>
       </c>
-      <c r="I11" s="350">
+      <c r="I11" s="346">
+        <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="J11" s="350"/>
-      <c r="K11" s="351">
+      <c r="J11" s="346"/>
+      <c r="K11" s="347">
         <v>0.41</v>
       </c>
-      <c r="L11" s="350">
+      <c r="L11" s="346">
+        <f t="shared" si="1"/>
         <v>324500.00000000006</v>
       </c>
-      <c r="M11" s="350"/>
-      <c r="N11" s="350"/>
-      <c r="O11" s="350">
+      <c r="M11" s="346"/>
+      <c r="N11" s="346"/>
+      <c r="O11" s="346">
         <v>324500.00000000006</v>
       </c>
       <c r="P11" s="260"/>
     </row>
-    <row r="12" spans="1:17" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="405"/>
-      <c r="B12" s="403"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="405"/>
-      <c r="E12" s="401"/>
+    <row r="12" spans="1:17" s="348" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="402"/>
+      <c r="B12" s="400"/>
+      <c r="C12" s="402"/>
+      <c r="D12" s="402"/>
+      <c r="E12" s="398"/>
       <c r="F12" s="260" t="s">
         <v>131</v>
       </c>
       <c r="G12" s="260">
         <v>1</v>
       </c>
-      <c r="H12" s="350">
+      <c r="H12" s="346">
         <v>475000</v>
       </c>
-      <c r="I12" s="350">
+      <c r="I12" s="346">
+        <f t="shared" si="0"/>
         <v>475000</v>
       </c>
-      <c r="J12" s="350"/>
-      <c r="K12" s="351">
+      <c r="J12" s="346"/>
+      <c r="K12" s="347">
         <v>0.41</v>
       </c>
-      <c r="L12" s="350">
+      <c r="L12" s="346">
+        <f t="shared" si="1"/>
         <v>280250.00000000006</v>
       </c>
-      <c r="M12" s="350"/>
-      <c r="N12" s="350"/>
-      <c r="O12" s="350">
+      <c r="M12" s="346"/>
+      <c r="N12" s="346"/>
+      <c r="O12" s="346">
         <v>280250.00000000006</v>
       </c>
       <c r="P12" s="260"/>
     </row>
-    <row r="13" spans="1:17" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="348" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="260">
         <v>574</v>
       </c>
       <c r="B13" s="144">
         <v>43993</v>
       </c>
-      <c r="C13" s="349" t="s">
+      <c r="C13" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D13" s="146" t="s">
@@ -9108,34 +9176,36 @@
       <c r="G13" s="260">
         <v>2</v>
       </c>
-      <c r="H13" s="350">
+      <c r="H13" s="346">
         <v>455000</v>
       </c>
-      <c r="I13" s="350">
+      <c r="I13" s="346">
+        <f t="shared" si="0"/>
         <v>910000</v>
       </c>
-      <c r="J13" s="350"/>
-      <c r="K13" s="351">
+      <c r="J13" s="346"/>
+      <c r="K13" s="347">
         <v>0.41</v>
       </c>
-      <c r="L13" s="350">
+      <c r="L13" s="346">
+        <f t="shared" si="1"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="M13" s="350"/>
-      <c r="N13" s="350"/>
-      <c r="O13" s="350">
+      <c r="M13" s="346"/>
+      <c r="N13" s="346"/>
+      <c r="O13" s="346">
         <v>536900.00000000012</v>
       </c>
       <c r="P13" s="260"/>
     </row>
-    <row r="14" spans="1:17" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="348" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="260">
         <v>575</v>
       </c>
       <c r="B14" s="144">
         <v>43994</v>
       </c>
-      <c r="C14" s="349" t="s">
+      <c r="C14" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D14" s="146" t="s">
@@ -9150,34 +9220,36 @@
       <c r="G14" s="260">
         <v>1</v>
       </c>
-      <c r="H14" s="350">
+      <c r="H14" s="346">
         <v>455000</v>
       </c>
-      <c r="I14" s="350">
+      <c r="I14" s="346">
+        <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="J14" s="350"/>
-      <c r="K14" s="351">
+      <c r="J14" s="346"/>
+      <c r="K14" s="347">
         <v>0.41</v>
       </c>
-      <c r="L14" s="350">
+      <c r="L14" s="346">
+        <f t="shared" si="1"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M14" s="350"/>
-      <c r="N14" s="350"/>
-      <c r="O14" s="350">
+      <c r="M14" s="346"/>
+      <c r="N14" s="346"/>
+      <c r="O14" s="346">
         <v>268450.00000000006</v>
       </c>
       <c r="P14" s="260"/>
     </row>
-    <row r="15" spans="1:17" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="348" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="260">
         <v>578</v>
       </c>
       <c r="B15" s="144">
         <v>43994</v>
       </c>
-      <c r="C15" s="349" t="s">
+      <c r="C15" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D15" s="146" t="s">
@@ -9192,34 +9264,36 @@
       <c r="G15" s="260">
         <v>1</v>
       </c>
-      <c r="H15" s="350">
+      <c r="H15" s="346">
         <v>455000</v>
       </c>
-      <c r="I15" s="350">
+      <c r="I15" s="346">
+        <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="J15" s="350"/>
-      <c r="K15" s="351">
+      <c r="J15" s="346"/>
+      <c r="K15" s="347">
         <v>0.41</v>
       </c>
-      <c r="L15" s="350">
+      <c r="L15" s="346">
+        <f t="shared" si="1"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M15" s="350"/>
-      <c r="N15" s="350"/>
-      <c r="O15" s="350">
+      <c r="M15" s="346"/>
+      <c r="N15" s="346"/>
+      <c r="O15" s="346">
         <v>268450.00000000006</v>
       </c>
       <c r="P15" s="260"/>
     </row>
-    <row r="16" spans="1:17" s="352" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="348" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="260">
         <v>588</v>
       </c>
       <c r="B16" s="144">
         <v>43995</v>
       </c>
-      <c r="C16" s="349" t="s">
+      <c r="C16" s="345" t="s">
         <v>130</v>
       </c>
       <c r="D16" s="146" t="s">
@@ -9234,43 +9308,72 @@
       <c r="G16" s="260">
         <v>1</v>
       </c>
-      <c r="H16" s="350">
+      <c r="H16" s="346">
         <v>475000</v>
       </c>
-      <c r="I16" s="350">
+      <c r="I16" s="346">
+        <f t="shared" si="0"/>
         <v>475000</v>
       </c>
-      <c r="J16" s="350"/>
-      <c r="K16" s="351">
+      <c r="J16" s="346"/>
+      <c r="K16" s="347">
         <v>0.41</v>
       </c>
-      <c r="L16" s="350">
+      <c r="L16" s="346">
+        <f t="shared" si="1"/>
         <v>280250.00000000006</v>
       </c>
-      <c r="M16" s="350"/>
-      <c r="N16" s="350"/>
-      <c r="O16" s="350">
+      <c r="M16" s="346"/>
+      <c r="N16" s="346"/>
+      <c r="O16" s="346">
         <v>280250.00000000006</v>
       </c>
       <c r="P16" s="260"/>
-      <c r="Q16" s="353"/>
+      <c r="Q16" s="349"/>
     </row>
     <row r="17" spans="1:16" s="151" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="283"/>
-      <c r="B17" s="285"/>
-      <c r="C17" s="283"/>
-      <c r="D17" s="283"/>
-      <c r="E17" s="283"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
+      <c r="A17" s="283">
+        <v>1159</v>
+      </c>
+      <c r="B17" s="285">
+        <v>44006</v>
+      </c>
+      <c r="C17" s="283" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="283" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="283" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="172">
+        <v>4</v>
+      </c>
+      <c r="H17" s="165">
+        <v>485000</v>
+      </c>
+      <c r="I17" s="346">
+        <f t="shared" si="0"/>
+        <v>1940000</v>
+      </c>
       <c r="J17" s="165"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="165"/>
+      <c r="K17" s="166">
+        <v>0.41</v>
+      </c>
+      <c r="L17" s="346">
+        <f t="shared" si="1"/>
+        <v>1144600.0000000002</v>
+      </c>
       <c r="M17" s="165"/>
       <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
+      <c r="O17" s="165">
+        <f>L17</f>
+        <v>1144600.0000000002</v>
+      </c>
       <c r="P17" s="172"/>
     </row>
     <row r="18" spans="1:16" s="151" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -9319,7 +9422,7 @@
       <c r="G20" s="170"/>
       <c r="H20" s="161"/>
       <c r="I20" s="161"/>
-      <c r="J20" s="498"/>
+      <c r="J20" s="495"/>
       <c r="K20" s="162"/>
       <c r="L20" s="161"/>
       <c r="M20" s="161"/>
@@ -9337,7 +9440,7 @@
       <c r="G21" s="171"/>
       <c r="H21" s="163"/>
       <c r="I21" s="163"/>
-      <c r="J21" s="499"/>
+      <c r="J21" s="496"/>
       <c r="K21" s="164"/>
       <c r="L21" s="163"/>
       <c r="M21" s="163"/>
@@ -9355,7 +9458,7 @@
       <c r="G22" s="172"/>
       <c r="H22" s="165"/>
       <c r="I22" s="165"/>
-      <c r="J22" s="500"/>
+      <c r="J22" s="497"/>
       <c r="K22" s="166"/>
       <c r="L22" s="165"/>
       <c r="M22" s="165"/>
@@ -9526,25 +9629,25 @@
       <c r="P31" s="168"/>
     </row>
     <row r="32" spans="1:16" s="215" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="484" t="s">
+      <c r="A32" s="485" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="485"/>
-      <c r="C32" s="485"/>
-      <c r="D32" s="485"/>
-      <c r="E32" s="485"/>
-      <c r="F32" s="485"/>
-      <c r="G32" s="485"/>
-      <c r="H32" s="486"/>
+      <c r="B32" s="486"/>
+      <c r="C32" s="486"/>
+      <c r="D32" s="486"/>
+      <c r="E32" s="486"/>
+      <c r="F32" s="486"/>
+      <c r="G32" s="486"/>
+      <c r="H32" s="487"/>
       <c r="I32" s="216">
         <f>SUM(I9:I31)</f>
-        <v>5695000</v>
+        <v>7635000</v>
       </c>
       <c r="J32" s="217"/>
       <c r="K32" s="217"/>
       <c r="L32" s="216">
         <f>SUM(L9:L31)</f>
-        <v>3360050.0000000005</v>
+        <v>4504650.0000000009</v>
       </c>
       <c r="M32" s="217"/>
       <c r="N32" s="216">
@@ -9553,7 +9656,7 @@
       </c>
       <c r="O32" s="216">
         <f>SUM(O9:O31)</f>
-        <v>3360050.0000000005</v>
+        <v>4504650.0000000009</v>
       </c>
       <c r="P32" s="217"/>
     </row>
@@ -9572,150 +9675,150 @@
       <c r="O33" s="222"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="487" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="487"/>
-      <c r="C34" s="487"/>
-      <c r="D34" s="487"/>
-      <c r="E34" s="487"/>
-      <c r="F34" s="487"/>
-      <c r="G34" s="487"/>
-      <c r="H34" s="487"/>
-      <c r="I34" s="487"/>
-      <c r="J34" s="487"/>
-      <c r="K34" s="487"/>
-      <c r="L34" s="487"/>
-      <c r="M34" s="487"/>
-      <c r="N34" s="487"/>
-      <c r="O34" s="487"/>
-      <c r="P34" s="487"/>
+      <c r="A34" s="481" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="481"/>
+      <c r="C34" s="481"/>
+      <c r="D34" s="481"/>
+      <c r="E34" s="481"/>
+      <c r="F34" s="481"/>
+      <c r="G34" s="481"/>
+      <c r="H34" s="481"/>
+      <c r="I34" s="481"/>
+      <c r="J34" s="481"/>
+      <c r="K34" s="481"/>
+      <c r="L34" s="481"/>
+      <c r="M34" s="481"/>
+      <c r="N34" s="481"/>
+      <c r="O34" s="481"/>
+      <c r="P34" s="481"/>
     </row>
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="492"/>
-      <c r="B35" s="492"/>
-      <c r="C35" s="492"/>
-      <c r="D35" s="492"/>
-      <c r="E35" s="492"/>
-      <c r="F35" s="492"/>
-      <c r="G35" s="492"/>
-      <c r="H35" s="492"/>
-      <c r="I35" s="492"/>
-      <c r="J35" s="492"/>
-      <c r="K35" s="492"/>
-      <c r="L35" s="492"/>
-      <c r="M35" s="492"/>
-      <c r="N35" s="492"/>
-      <c r="O35" s="492"/>
-      <c r="P35" s="492"/>
+      <c r="A35" s="489"/>
+      <c r="B35" s="489"/>
+      <c r="C35" s="489"/>
+      <c r="D35" s="489"/>
+      <c r="E35" s="489"/>
+      <c r="F35" s="489"/>
+      <c r="G35" s="489"/>
+      <c r="H35" s="489"/>
+      <c r="I35" s="489"/>
+      <c r="J35" s="489"/>
+      <c r="K35" s="489"/>
+      <c r="L35" s="489"/>
+      <c r="M35" s="489"/>
+      <c r="N35" s="489"/>
+      <c r="O35" s="489"/>
+      <c r="P35" s="489"/>
     </row>
     <row r="36" spans="1:17" s="147" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="493" t="s">
+      <c r="A36" s="490" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="494" t="s">
+      <c r="B36" s="491" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="493" t="s">
+      <c r="C36" s="490" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="493" t="s">
+      <c r="D36" s="490" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="493"/>
-      <c r="F36" s="495" t="s">
+      <c r="E36" s="490"/>
+      <c r="F36" s="492" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="495"/>
-      <c r="H36" s="495"/>
-      <c r="I36" s="495"/>
-      <c r="J36" s="495"/>
-      <c r="K36" s="495"/>
-      <c r="L36" s="495"/>
-      <c r="M36" s="496"/>
-      <c r="N36" s="496"/>
-      <c r="O36" s="496"/>
-      <c r="P36" s="497" t="s">
+      <c r="G36" s="492"/>
+      <c r="H36" s="492"/>
+      <c r="I36" s="492"/>
+      <c r="J36" s="492"/>
+      <c r="K36" s="492"/>
+      <c r="L36" s="492"/>
+      <c r="M36" s="493"/>
+      <c r="N36" s="493"/>
+      <c r="O36" s="493"/>
+      <c r="P36" s="494" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="147" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="493"/>
-      <c r="B37" s="494"/>
-      <c r="C37" s="493"/>
-      <c r="D37" s="493" t="s">
+      <c r="A37" s="490"/>
+      <c r="B37" s="491"/>
+      <c r="C37" s="490"/>
+      <c r="D37" s="490" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="493" t="s">
+      <c r="E37" s="490" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="493" t="s">
+      <c r="F37" s="490" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="493" t="s">
+      <c r="G37" s="490" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="483" t="s">
+      <c r="H37" s="480" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="483" t="s">
+      <c r="I37" s="480" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="490" t="s">
+      <c r="J37" s="484" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="490"/>
-      <c r="L37" s="483" t="s">
+      <c r="K37" s="484"/>
+      <c r="L37" s="480" t="s">
         <v>45</v>
       </c>
-      <c r="M37" s="483" t="s">
+      <c r="M37" s="480" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="483" t="s">
+      <c r="N37" s="480" t="s">
         <v>47</v>
       </c>
-      <c r="O37" s="483" t="s">
+      <c r="O37" s="480" t="s">
         <v>48</v>
       </c>
-      <c r="P37" s="497"/>
+      <c r="P37" s="494"/>
     </row>
     <row r="38" spans="1:17" s="147" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="493"/>
-      <c r="B38" s="494"/>
-      <c r="C38" s="493"/>
-      <c r="D38" s="493"/>
-      <c r="E38" s="493"/>
-      <c r="F38" s="493"/>
-      <c r="G38" s="493"/>
-      <c r="H38" s="483"/>
-      <c r="I38" s="483"/>
-      <c r="J38" s="337" t="s">
+      <c r="A38" s="490"/>
+      <c r="B38" s="491"/>
+      <c r="C38" s="490"/>
+      <c r="D38" s="490"/>
+      <c r="E38" s="490"/>
+      <c r="F38" s="490"/>
+      <c r="G38" s="490"/>
+      <c r="H38" s="480"/>
+      <c r="I38" s="480"/>
+      <c r="J38" s="333" t="s">
         <v>86</v>
       </c>
       <c r="K38" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="483"/>
-      <c r="M38" s="483"/>
-      <c r="N38" s="483"/>
-      <c r="O38" s="483"/>
-      <c r="P38" s="497"/>
-    </row>
-    <row r="39" spans="1:17" s="352" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="L38" s="480"/>
+      <c r="M38" s="480"/>
+      <c r="N38" s="480"/>
+      <c r="O38" s="480"/>
+      <c r="P38" s="494"/>
+    </row>
+    <row r="39" spans="1:17" s="348" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="260">
         <v>589</v>
       </c>
       <c r="B39" s="144">
         <v>43998</v>
       </c>
-      <c r="C39" s="349" t="s">
-        <v>185</v>
+      <c r="C39" s="345" t="s">
+        <v>183</v>
       </c>
       <c r="D39" s="146" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="141" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="E39" s="146" t="s">
+        <v>192</v>
       </c>
       <c r="F39" s="260" t="s">
         <v>154</v>
@@ -9723,41 +9826,41 @@
       <c r="G39" s="260">
         <v>4</v>
       </c>
-      <c r="H39" s="350">
+      <c r="H39" s="346">
         <v>465000</v>
       </c>
-      <c r="I39" s="350">
-        <f t="shared" ref="I39" si="0">G39*H39</f>
+      <c r="I39" s="346">
+        <f t="shared" ref="I39" si="2">G39*H39</f>
         <v>1860000</v>
       </c>
-      <c r="J39" s="350"/>
-      <c r="K39" s="351">
+      <c r="J39" s="346"/>
+      <c r="K39" s="347">
         <v>0</v>
       </c>
-      <c r="L39" s="350">
-        <f t="shared" ref="L39" si="1">I39*(1-K39)</f>
+      <c r="L39" s="346">
+        <f t="shared" ref="L39" si="3">I39*(1-K39)</f>
         <v>1860000</v>
       </c>
-      <c r="M39" s="350"/>
-      <c r="N39" s="350">
+      <c r="M39" s="346"/>
+      <c r="N39" s="346">
         <f>L39</f>
         <v>1860000</v>
       </c>
       <c r="O39" s="260"/>
-      <c r="P39" s="350"/>
-      <c r="Q39" s="353"/>
+      <c r="P39" s="346"/>
+      <c r="Q39" s="349"/>
     </row>
     <row r="40" spans="1:17" s="215" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="484" t="s">
+      <c r="A40" s="485" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="485"/>
-      <c r="C40" s="485"/>
-      <c r="D40" s="485"/>
-      <c r="E40" s="485"/>
-      <c r="F40" s="485"/>
-      <c r="G40" s="485"/>
-      <c r="H40" s="486"/>
+      <c r="B40" s="486"/>
+      <c r="C40" s="486"/>
+      <c r="D40" s="486"/>
+      <c r="E40" s="486"/>
+      <c r="F40" s="486"/>
+      <c r="G40" s="486"/>
+      <c r="H40" s="487"/>
       <c r="I40" s="216">
         <f>SUM(I39)</f>
         <v>1860000</v>
@@ -9792,184 +9895,186 @@
       <c r="O41" s="222"/>
     </row>
     <row r="42" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="336"/>
-      <c r="B42" s="336"/>
-      <c r="C42" s="336"/>
-      <c r="D42" s="336"/>
-      <c r="E42" s="336"/>
-      <c r="F42" s="336"/>
-      <c r="G42" s="336"/>
-      <c r="H42" s="336"/>
+      <c r="A42" s="332"/>
+      <c r="B42" s="332"/>
+      <c r="C42" s="332"/>
+      <c r="D42" s="332"/>
+      <c r="E42" s="332"/>
+      <c r="F42" s="332"/>
+      <c r="G42" s="332"/>
+      <c r="H42" s="332"/>
       <c r="I42" s="222"/>
       <c r="L42" s="222"/>
-      <c r="M42" s="335"/>
-      <c r="N42" s="335"/>
+      <c r="M42" s="331"/>
+      <c r="N42" s="331"/>
       <c r="O42" s="222"/>
     </row>
     <row r="43" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="487" t="s">
-        <v>197</v>
-      </c>
-      <c r="B43" s="487"/>
-      <c r="C43" s="487"/>
-      <c r="D43" s="336"/>
-      <c r="E43" s="336"/>
-      <c r="F43" s="336"/>
-      <c r="G43" s="336"/>
-      <c r="H43" s="336"/>
+      <c r="A43" s="481" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="481"/>
+      <c r="C43" s="481"/>
+      <c r="D43" s="332"/>
+      <c r="E43" s="332"/>
+      <c r="F43" s="332"/>
+      <c r="G43" s="332"/>
+      <c r="H43" s="332"/>
       <c r="I43" s="222"/>
       <c r="L43" s="222"/>
-      <c r="M43" s="335"/>
-      <c r="N43" s="335"/>
+      <c r="M43" s="331"/>
+      <c r="N43" s="331"/>
       <c r="O43" s="222"/>
     </row>
     <row r="44" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="336"/>
-      <c r="B44" s="336"/>
-      <c r="C44" s="336"/>
-      <c r="D44" s="488" t="s">
+      <c r="A44" s="332"/>
+      <c r="B44" s="332"/>
+      <c r="C44" s="332"/>
+      <c r="D44" s="482" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="482"/>
+      <c r="F44" s="482"/>
+      <c r="G44" s="482"/>
+      <c r="H44" s="482"/>
+      <c r="I44" s="482"/>
+      <c r="J44" s="483" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="483"/>
+      <c r="L44" s="222"/>
+      <c r="M44" s="331"/>
+      <c r="N44" s="331"/>
+      <c r="O44" s="222"/>
+    </row>
+    <row r="45" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="332"/>
+      <c r="B45" s="332"/>
+      <c r="C45" s="332"/>
+      <c r="D45" s="473" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" s="473"/>
+      <c r="F45" s="473"/>
+      <c r="G45" s="473"/>
+      <c r="H45" s="473"/>
+      <c r="I45" s="473"/>
+      <c r="J45" s="477">
+        <v>2112246</v>
+      </c>
+      <c r="K45" s="477"/>
+      <c r="L45" s="222"/>
+      <c r="M45" s="331"/>
+      <c r="N45" s="331"/>
+      <c r="O45" s="222"/>
+    </row>
+    <row r="46" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="332"/>
+      <c r="B46" s="332"/>
+      <c r="C46" s="332"/>
+      <c r="D46" s="473" t="s">
         <v>198</v>
       </c>
-      <c r="E44" s="488"/>
-      <c r="F44" s="488"/>
-      <c r="G44" s="488"/>
-      <c r="H44" s="488"/>
-      <c r="I44" s="488"/>
-      <c r="J44" s="489" t="s">
-        <v>51</v>
-      </c>
-      <c r="K44" s="489"/>
-      <c r="L44" s="222"/>
-      <c r="M44" s="335"/>
-      <c r="N44" s="335"/>
-      <c r="O44" s="222"/>
-    </row>
-    <row r="45" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="336"/>
-      <c r="B45" s="336"/>
-      <c r="C45" s="336"/>
-      <c r="D45" s="479" t="s">
-        <v>199</v>
-      </c>
-      <c r="E45" s="479"/>
-      <c r="F45" s="479"/>
-      <c r="G45" s="479"/>
-      <c r="H45" s="479"/>
-      <c r="I45" s="479"/>
-      <c r="J45" s="476">
-        <v>2112246</v>
-      </c>
-      <c r="K45" s="476"/>
-      <c r="L45" s="222"/>
-      <c r="M45" s="335"/>
-      <c r="N45" s="335"/>
-      <c r="O45" s="222"/>
-    </row>
-    <row r="46" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="336"/>
-      <c r="B46" s="336"/>
-      <c r="C46" s="336"/>
-      <c r="D46" s="479" t="s">
-        <v>200</v>
-      </c>
-      <c r="E46" s="479"/>
-      <c r="F46" s="479"/>
-      <c r="G46" s="479"/>
-      <c r="H46" s="479"/>
-      <c r="I46" s="479"/>
-      <c r="J46" s="476">
+      <c r="E46" s="473"/>
+      <c r="F46" s="473"/>
+      <c r="G46" s="473"/>
+      <c r="H46" s="473"/>
+      <c r="I46" s="473"/>
+      <c r="J46" s="477">
         <f>O32</f>
-        <v>3360050.0000000005</v>
-      </c>
-      <c r="K46" s="476"/>
+        <v>4504650.0000000009</v>
+      </c>
+      <c r="K46" s="477"/>
       <c r="L46" s="222"/>
-      <c r="M46" s="335"/>
-      <c r="N46" s="335"/>
+      <c r="M46" s="331"/>
+      <c r="N46" s="331"/>
       <c r="O46" s="222"/>
     </row>
     <row r="47" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="279"/>
       <c r="B47" s="279"/>
       <c r="C47" s="279"/>
-      <c r="D47" s="479" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="479"/>
-      <c r="F47" s="479"/>
-      <c r="G47" s="479"/>
-      <c r="H47" s="479"/>
-      <c r="I47" s="479"/>
-      <c r="J47" s="476">
+      <c r="D47" s="473" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="473"/>
+      <c r="F47" s="473"/>
+      <c r="G47" s="473"/>
+      <c r="H47" s="473"/>
+      <c r="I47" s="473"/>
+      <c r="J47" s="477">
         <f>N40</f>
         <v>1860000</v>
       </c>
-      <c r="K47" s="476"/>
+      <c r="K47" s="477"/>
       <c r="L47" s="222"/>
       <c r="M47" s="280"/>
       <c r="N47" s="280"/>
       <c r="O47" s="222"/>
     </row>
     <row r="48" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="336"/>
-      <c r="B48" s="336"/>
-      <c r="C48" s="336"/>
-      <c r="D48" s="480" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="481"/>
-      <c r="F48" s="481"/>
-      <c r="G48" s="481"/>
-      <c r="H48" s="481"/>
-      <c r="I48" s="482"/>
-      <c r="J48" s="477">
+      <c r="A48" s="332"/>
+      <c r="B48" s="332"/>
+      <c r="C48" s="332"/>
+      <c r="D48" s="474" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" s="475"/>
+      <c r="F48" s="475"/>
+      <c r="G48" s="475"/>
+      <c r="H48" s="475"/>
+      <c r="I48" s="476"/>
+      <c r="J48" s="478">
         <f>'Bảng lương'!L16</f>
-        <v>2894230.769230769</v>
-      </c>
-      <c r="K48" s="478"/>
+        <v>2370769.230769231</v>
+      </c>
+      <c r="K48" s="479"/>
       <c r="L48" s="222"/>
-      <c r="M48" s="335"/>
-      <c r="N48" s="335"/>
+      <c r="M48" s="331"/>
+      <c r="N48" s="331"/>
       <c r="O48" s="222"/>
     </row>
-    <row r="49" spans="1:15" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="336"/>
-      <c r="B49" s="336"/>
-      <c r="C49" s="336"/>
-      <c r="D49" s="480" t="s">
-        <v>204</v>
-      </c>
-      <c r="E49" s="481"/>
-      <c r="F49" s="481"/>
-      <c r="G49" s="481"/>
-      <c r="H49" s="481"/>
-      <c r="I49" s="482"/>
-      <c r="J49" s="477">
+    <row r="49" spans="1:15" s="223" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="332"/>
+      <c r="B49" s="332"/>
+      <c r="C49" s="332"/>
+      <c r="D49" s="474" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="475"/>
+      <c r="F49" s="475"/>
+      <c r="G49" s="475"/>
+      <c r="H49" s="475"/>
+      <c r="I49" s="476"/>
+      <c r="J49" s="478">
         <f>835000+475000+250000</f>
         <v>1560000</v>
       </c>
-      <c r="K49" s="478"/>
-      <c r="L49" s="222"/>
-      <c r="M49" s="335"/>
-      <c r="N49" s="335"/>
+      <c r="K49" s="479"/>
+      <c r="L49" s="543" t="s">
+        <v>217</v>
+      </c>
+      <c r="M49" s="331"/>
+      <c r="N49" s="331"/>
       <c r="O49" s="222"/>
     </row>
     <row r="50" spans="1:15" s="223" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="279"/>
       <c r="B50" s="279"/>
       <c r="C50" s="279"/>
-      <c r="D50" s="479" t="s">
-        <v>202</v>
-      </c>
-      <c r="E50" s="479"/>
-      <c r="F50" s="479"/>
-      <c r="G50" s="479"/>
-      <c r="H50" s="479"/>
-      <c r="I50" s="479"/>
-      <c r="J50" s="476">
+      <c r="D50" s="473" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="473"/>
+      <c r="F50" s="473"/>
+      <c r="G50" s="473"/>
+      <c r="H50" s="473"/>
+      <c r="I50" s="473"/>
+      <c r="J50" s="477">
         <f>J45+J46+J47+J49-J48</f>
-        <v>5998065.230769231</v>
-      </c>
-      <c r="K50" s="476"/>
+        <v>7666126.769230769</v>
+      </c>
+      <c r="K50" s="477"/>
       <c r="L50" s="222"/>
       <c r="M50" s="280"/>
       <c r="O50" s="222"/>
@@ -9984,9 +10089,9 @@
       <c r="G51" s="279"/>
       <c r="H51" s="279"/>
       <c r="I51" s="222"/>
-      <c r="L51" s="389">
+      <c r="L51" s="385">
         <f>J50+2500000</f>
-        <v>8498065.2307692319</v>
+        <v>10166126.769230768</v>
       </c>
       <c r="M51" s="280"/>
       <c r="N51" s="280"/>
@@ -10008,19 +10113,19 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="96"/>
-      <c r="B53" s="487" t="s">
+      <c r="B53" s="481" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="487"/>
-      <c r="D53" s="487"/>
+      <c r="C53" s="481"/>
+      <c r="D53" s="481"/>
       <c r="E53" s="96"/>
       <c r="F53" s="96"/>
       <c r="G53" s="96"/>
       <c r="H53" s="96"/>
-      <c r="I53" s="487" t="s">
+      <c r="I53" s="481" t="s">
         <v>117</v>
       </c>
-      <c r="J53" s="487"/>
+      <c r="J53" s="481"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="96"/>
@@ -10100,8 +10205,8 @@
       <c r="I60" s="219"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="491"/>
-      <c r="B61" s="491"/>
+      <c r="A61" s="488"/>
+      <c r="B61" s="488"/>
       <c r="E61" s="39"/>
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
@@ -10111,8 +10216,8 @@
       <c r="H63" s="220"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="491"/>
-      <c r="B65" s="491"/>
+      <c r="A65" s="488"/>
+      <c r="B65" s="488"/>
       <c r="E65" s="39"/>
       <c r="F65" s="39"/>
       <c r="G65" s="39"/>
@@ -10199,7 +10304,7 @@
   <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10728,16 +10833,16 @@
       <c r="C1" s="175"/>
       <c r="D1" s="175"/>
       <c r="E1" s="175"/>
-      <c r="Z1" s="507" t="s">
+      <c r="Z1" s="504" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="508"/>
-      <c r="AB1" s="508"/>
-      <c r="AC1" s="508"/>
-      <c r="AD1" s="508"/>
-      <c r="AE1" s="508"/>
-      <c r="AF1" s="508"/>
-      <c r="AG1" s="509"/>
+      <c r="AA1" s="505"/>
+      <c r="AB1" s="505"/>
+      <c r="AC1" s="505"/>
+      <c r="AD1" s="505"/>
+      <c r="AE1" s="505"/>
+      <c r="AF1" s="505"/>
+      <c r="AG1" s="506"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="178" t="s">
@@ -10747,18 +10852,18 @@
       <c r="C2" s="179"/>
       <c r="D2" s="179"/>
       <c r="E2" s="179"/>
-      <c r="Z2" s="502" t="s">
+      <c r="Z2" s="499" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="503"/>
-      <c r="AB2" s="503"/>
-      <c r="AC2" s="503"/>
-      <c r="AD2" s="503"/>
-      <c r="AE2" s="504"/>
-      <c r="AF2" s="505" t="s">
+      <c r="AA2" s="500"/>
+      <c r="AB2" s="500"/>
+      <c r="AC2" s="500"/>
+      <c r="AD2" s="500"/>
+      <c r="AE2" s="501"/>
+      <c r="AF2" s="502" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="506"/>
+      <c r="AG2" s="503"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="178" t="s">
@@ -10768,18 +10873,18 @@
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
       <c r="E3" s="87"/>
-      <c r="Z3" s="502" t="s">
+      <c r="Z3" s="499" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" s="503"/>
-      <c r="AB3" s="503"/>
-      <c r="AC3" s="503"/>
-      <c r="AD3" s="503"/>
-      <c r="AE3" s="504"/>
-      <c r="AF3" s="505" t="s">
+      <c r="AA3" s="500"/>
+      <c r="AB3" s="500"/>
+      <c r="AC3" s="500"/>
+      <c r="AD3" s="500"/>
+      <c r="AE3" s="501"/>
+      <c r="AF3" s="502" t="s">
         <v>93</v>
       </c>
-      <c r="AG3" s="506"/>
+      <c r="AG3" s="503"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="178" t="s">
@@ -10792,18 +10897,18 @@
       <c r="T4" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="502" t="s">
+      <c r="Z4" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="AA4" s="503"/>
-      <c r="AB4" s="503"/>
-      <c r="AC4" s="503"/>
-      <c r="AD4" s="503"/>
-      <c r="AE4" s="504"/>
-      <c r="AF4" s="505" t="s">
+      <c r="AA4" s="500"/>
+      <c r="AB4" s="500"/>
+      <c r="AC4" s="500"/>
+      <c r="AD4" s="500"/>
+      <c r="AE4" s="501"/>
+      <c r="AF4" s="502" t="s">
         <v>96</v>
       </c>
-      <c r="AG4" s="506"/>
+      <c r="AG4" s="503"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="178" t="s">
@@ -10813,18 +10918,18 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="87"/>
-      <c r="Z5" s="502" t="s">
+      <c r="Z5" s="499" t="s">
         <v>98</v>
       </c>
-      <c r="AA5" s="503"/>
-      <c r="AB5" s="503"/>
-      <c r="AC5" s="503"/>
-      <c r="AD5" s="503"/>
-      <c r="AE5" s="504"/>
-      <c r="AF5" s="505" t="s">
+      <c r="AA5" s="500"/>
+      <c r="AB5" s="500"/>
+      <c r="AC5" s="500"/>
+      <c r="AD5" s="500"/>
+      <c r="AE5" s="501"/>
+      <c r="AF5" s="502" t="s">
         <v>99</v>
       </c>
-      <c r="AG5" s="506"/>
+      <c r="AG5" s="503"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="180"/>
@@ -10834,93 +10939,93 @@
       <c r="E6" s="180"/>
     </row>
     <row r="7" spans="1:40" s="183" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="511" t="s">
+      <c r="A7" s="508" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="511"/>
-      <c r="C7" s="511"/>
-      <c r="D7" s="511"/>
-      <c r="E7" s="511"/>
-      <c r="F7" s="511"/>
-      <c r="G7" s="511"/>
-      <c r="H7" s="511"/>
-      <c r="I7" s="511"/>
-      <c r="J7" s="511"/>
-      <c r="K7" s="511"/>
-      <c r="L7" s="511"/>
-      <c r="M7" s="511"/>
-      <c r="N7" s="511"/>
-      <c r="O7" s="511"/>
-      <c r="P7" s="511"/>
-      <c r="Q7" s="511"/>
-      <c r="R7" s="511"/>
-      <c r="S7" s="511"/>
-      <c r="T7" s="511"/>
-      <c r="U7" s="511"/>
-      <c r="V7" s="511"/>
-      <c r="W7" s="511"/>
-      <c r="X7" s="511"/>
-      <c r="Y7" s="511"/>
-      <c r="Z7" s="511"/>
-      <c r="AA7" s="511"/>
-      <c r="AB7" s="511"/>
-      <c r="AC7" s="511"/>
-      <c r="AD7" s="511"/>
-      <c r="AE7" s="511"/>
-      <c r="AF7" s="511"/>
-      <c r="AG7" s="511"/>
-      <c r="AH7" s="511"/>
-      <c r="AI7" s="511"/>
-      <c r="AJ7" s="511"/>
-      <c r="AK7" s="511"/>
-      <c r="AL7" s="511"/>
-      <c r="AM7" s="511"/>
+      <c r="B7" s="508"/>
+      <c r="C7" s="508"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="508"/>
+      <c r="F7" s="508"/>
+      <c r="G7" s="508"/>
+      <c r="H7" s="508"/>
+      <c r="I7" s="508"/>
+      <c r="J7" s="508"/>
+      <c r="K7" s="508"/>
+      <c r="L7" s="508"/>
+      <c r="M7" s="508"/>
+      <c r="N7" s="508"/>
+      <c r="O7" s="508"/>
+      <c r="P7" s="508"/>
+      <c r="Q7" s="508"/>
+      <c r="R7" s="508"/>
+      <c r="S7" s="508"/>
+      <c r="T7" s="508"/>
+      <c r="U7" s="508"/>
+      <c r="V7" s="508"/>
+      <c r="W7" s="508"/>
+      <c r="X7" s="508"/>
+      <c r="Y7" s="508"/>
+      <c r="Z7" s="508"/>
+      <c r="AA7" s="508"/>
+      <c r="AB7" s="508"/>
+      <c r="AC7" s="508"/>
+      <c r="AD7" s="508"/>
+      <c r="AE7" s="508"/>
+      <c r="AF7" s="508"/>
+      <c r="AG7" s="508"/>
+      <c r="AH7" s="508"/>
+      <c r="AI7" s="508"/>
+      <c r="AJ7" s="508"/>
+      <c r="AK7" s="508"/>
+      <c r="AL7" s="508"/>
+      <c r="AM7" s="508"/>
       <c r="AN7" s="182"/>
     </row>
     <row r="9" spans="1:40" s="188" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="512" t="s">
+      <c r="A9" s="509" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="512" t="s">
+      <c r="B9" s="509" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="512" t="s">
+      <c r="C9" s="509" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="515" t="s">
+      <c r="D9" s="512" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="516"/>
-      <c r="F9" s="516"/>
-      <c r="G9" s="516"/>
-      <c r="H9" s="516"/>
-      <c r="I9" s="516"/>
-      <c r="J9" s="516"/>
-      <c r="K9" s="516"/>
-      <c r="L9" s="516"/>
-      <c r="M9" s="516"/>
-      <c r="N9" s="516"/>
-      <c r="O9" s="516"/>
-      <c r="P9" s="516"/>
-      <c r="Q9" s="516"/>
-      <c r="R9" s="516"/>
-      <c r="S9" s="516"/>
-      <c r="T9" s="516"/>
-      <c r="U9" s="516"/>
-      <c r="V9" s="516"/>
-      <c r="W9" s="516"/>
-      <c r="X9" s="516"/>
-      <c r="Y9" s="516"/>
-      <c r="Z9" s="516"/>
-      <c r="AA9" s="516"/>
-      <c r="AB9" s="516"/>
-      <c r="AC9" s="516"/>
-      <c r="AD9" s="516"/>
-      <c r="AE9" s="516"/>
-      <c r="AF9" s="516"/>
-      <c r="AG9" s="516"/>
-      <c r="AH9" s="517"/>
-      <c r="AI9" s="518" t="s">
+      <c r="E9" s="513"/>
+      <c r="F9" s="513"/>
+      <c r="G9" s="513"/>
+      <c r="H9" s="513"/>
+      <c r="I9" s="513"/>
+      <c r="J9" s="513"/>
+      <c r="K9" s="513"/>
+      <c r="L9" s="513"/>
+      <c r="M9" s="513"/>
+      <c r="N9" s="513"/>
+      <c r="O9" s="513"/>
+      <c r="P9" s="513"/>
+      <c r="Q9" s="513"/>
+      <c r="R9" s="513"/>
+      <c r="S9" s="513"/>
+      <c r="T9" s="513"/>
+      <c r="U9" s="513"/>
+      <c r="V9" s="513"/>
+      <c r="W9" s="513"/>
+      <c r="X9" s="513"/>
+      <c r="Y9" s="513"/>
+      <c r="Z9" s="513"/>
+      <c r="AA9" s="513"/>
+      <c r="AB9" s="513"/>
+      <c r="AC9" s="513"/>
+      <c r="AD9" s="513"/>
+      <c r="AE9" s="513"/>
+      <c r="AF9" s="513"/>
+      <c r="AG9" s="513"/>
+      <c r="AH9" s="514"/>
+      <c r="AI9" s="515" t="s">
         <v>104</v>
       </c>
       <c r="AJ9" s="184"/>
@@ -10930,9 +11035,9 @@
       <c r="AN9" s="187"/>
     </row>
     <row r="10" spans="1:40" s="188" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="513"/>
-      <c r="B10" s="513"/>
-      <c r="C10" s="513"/>
+      <c r="A10" s="510"/>
+      <c r="B10" s="510"/>
+      <c r="C10" s="510"/>
       <c r="D10" s="189">
         <v>1</v>
       </c>
@@ -11026,7 +11131,7 @@
       <c r="AH10" s="189">
         <v>31</v>
       </c>
-      <c r="AI10" s="518"/>
+      <c r="AI10" s="515"/>
       <c r="AJ10" s="190"/>
       <c r="AK10" s="186"/>
       <c r="AL10" s="186"/>
@@ -11034,9 +11139,9 @@
       <c r="AN10" s="187"/>
     </row>
     <row r="11" spans="1:40" s="196" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="514"/>
-      <c r="B11" s="514"/>
-      <c r="C11" s="514"/>
+      <c r="A11" s="511"/>
+      <c r="B11" s="511"/>
+      <c r="C11" s="511"/>
       <c r="D11" s="189" t="s">
         <v>108</v>
       </c>
@@ -11130,7 +11235,7 @@
       <c r="AH11" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="AI11" s="518"/>
+      <c r="AI11" s="515"/>
       <c r="AJ11" s="195"/>
       <c r="AN11" s="197"/>
     </row>
@@ -11293,18 +11398,10 @@
       <c r="X13" s="290" t="s">
         <v>90</v>
       </c>
-      <c r="Y13" s="194" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z13" s="194" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA13" s="191" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB13" s="194" t="s">
-        <v>90</v>
-      </c>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="191"/>
+      <c r="AB13" s="194"/>
       <c r="AC13" s="194" t="s">
         <v>90</v>
       </c>
@@ -11323,7 +11420,7 @@
       </c>
       <c r="AI13" s="198">
         <f t="shared" ref="AI13:AI16" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
-        <v>21.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ13" s="195"/>
       <c r="AN13" s="197"/>
@@ -11419,7 +11516,9 @@
       <c r="AD14" s="291" t="s">
         <v>90</v>
       </c>
-      <c r="AE14" s="292"/>
+      <c r="AE14" s="292" t="s">
+        <v>99</v>
+      </c>
       <c r="AF14" s="191" t="s">
         <v>90</v>
       </c>
@@ -11431,7 +11530,7 @@
       </c>
       <c r="AI14" s="198">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ14" s="195"/>
       <c r="AN14" s="197"/>
@@ -11521,7 +11620,9 @@
       <c r="AD15" s="291" t="s">
         <v>90</v>
       </c>
-      <c r="AE15" s="292"/>
+      <c r="AE15" s="292" t="s">
+        <v>99</v>
+      </c>
       <c r="AF15" s="191" t="s">
         <v>90</v>
       </c>
@@ -11533,7 +11634,7 @@
       </c>
       <c r="AI15" s="198">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ15" s="195"/>
       <c r="AN15" s="197"/>
@@ -11610,18 +11711,18 @@
       <c r="Y16" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="Z16" s="194"/>
-      <c r="AA16" s="191"/>
-      <c r="AB16" s="194"/>
-      <c r="AC16" s="194" t="s">
+      <c r="Z16" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="AD16" s="291" t="s">
+      <c r="AA16" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="AE16" s="292" t="s">
+      <c r="AB16" s="194" t="s">
         <v>90</v>
       </c>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="291"/>
+      <c r="AE16" s="292"/>
       <c r="AF16" s="191" t="s">
         <v>90</v>
       </c>
@@ -11639,10 +11740,10 @@
       <c r="AN16" s="197"/>
     </row>
     <row r="17" spans="1:40" s="196" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="519" t="s">
+      <c r="A17" s="516" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="520"/>
+      <c r="B17" s="517"/>
       <c r="C17" s="199"/>
       <c r="D17" s="199"/>
       <c r="E17" s="200"/>
@@ -11677,7 +11778,7 @@
       <c r="AH17" s="200"/>
       <c r="AI17" s="201">
         <f>SUM(AI12:AI15)</f>
-        <v>102.5</v>
+        <v>100.5</v>
       </c>
       <c r="AJ17" s="202"/>
       <c r="AK17" s="203"/>
@@ -11685,49 +11786,49 @@
       <c r="AN17" s="197"/>
     </row>
     <row r="19" spans="1:40" s="209" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="521" t="s">
+      <c r="A19" s="518" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="521"/>
-      <c r="C19" s="521"/>
-      <c r="D19" s="521"/>
-      <c r="E19" s="521"/>
-      <c r="F19" s="521"/>
-      <c r="G19" s="521"/>
+      <c r="B19" s="518"/>
+      <c r="C19" s="518"/>
+      <c r="D19" s="518"/>
+      <c r="E19" s="518"/>
+      <c r="F19" s="518"/>
+      <c r="G19" s="518"/>
       <c r="H19" s="204"/>
-      <c r="I19" s="522"/>
-      <c r="J19" s="522"/>
-      <c r="K19" s="522"/>
-      <c r="L19" s="522"/>
-      <c r="M19" s="522"/>
+      <c r="I19" s="519"/>
+      <c r="J19" s="519"/>
+      <c r="K19" s="519"/>
+      <c r="L19" s="519"/>
+      <c r="M19" s="519"/>
       <c r="N19" s="205"/>
-      <c r="O19" s="522" t="s">
+      <c r="O19" s="519" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="522"/>
-      <c r="Q19" s="522"/>
-      <c r="R19" s="522"/>
-      <c r="S19" s="522"/>
-      <c r="T19" s="522"/>
-      <c r="U19" s="522"/>
-      <c r="V19" s="522"/>
-      <c r="W19" s="522"/>
-      <c r="X19" s="522"/>
-      <c r="Y19" s="522"/>
+      <c r="P19" s="519"/>
+      <c r="Q19" s="519"/>
+      <c r="R19" s="519"/>
+      <c r="S19" s="519"/>
+      <c r="T19" s="519"/>
+      <c r="U19" s="519"/>
+      <c r="V19" s="519"/>
+      <c r="W19" s="519"/>
+      <c r="X19" s="519"/>
+      <c r="Y19" s="519"/>
       <c r="Z19" s="206"/>
       <c r="AA19" s="206"/>
       <c r="AB19" s="207"/>
-      <c r="AC19" s="522"/>
-      <c r="AD19" s="522"/>
-      <c r="AE19" s="522"/>
-      <c r="AF19" s="522"/>
-      <c r="AG19" s="522"/>
-      <c r="AH19" s="522"/>
-      <c r="AI19" s="522"/>
-      <c r="AJ19" s="522"/>
-      <c r="AK19" s="522"/>
-      <c r="AL19" s="522"/>
-      <c r="AM19" s="522"/>
+      <c r="AC19" s="519"/>
+      <c r="AD19" s="519"/>
+      <c r="AE19" s="519"/>
+      <c r="AF19" s="519"/>
+      <c r="AG19" s="519"/>
+      <c r="AH19" s="519"/>
+      <c r="AI19" s="519"/>
+      <c r="AJ19" s="519"/>
+      <c r="AK19" s="519"/>
+      <c r="AL19" s="519"/>
+      <c r="AM19" s="519"/>
       <c r="AN19" s="208"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
@@ -11761,131 +11862,131 @@
       <c r="AN34" s="213"/>
     </row>
     <row r="35" spans="3:40" s="212" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="510"/>
-      <c r="H35" s="510"/>
-      <c r="I35" s="510"/>
-      <c r="J35" s="510"/>
-      <c r="K35" s="510"/>
-      <c r="L35" s="510"/>
-      <c r="M35" s="510"/>
-      <c r="N35" s="510"/>
-      <c r="O35" s="510"/>
-      <c r="P35" s="510"/>
-      <c r="Q35" s="510"/>
-      <c r="R35" s="510"/>
-      <c r="S35" s="510"/>
-      <c r="T35" s="510"/>
-      <c r="U35" s="510"/>
-      <c r="V35" s="510"/>
-      <c r="W35" s="510"/>
-      <c r="X35" s="510"/>
+      <c r="G35" s="507"/>
+      <c r="H35" s="507"/>
+      <c r="I35" s="507"/>
+      <c r="J35" s="507"/>
+      <c r="K35" s="507"/>
+      <c r="L35" s="507"/>
+      <c r="M35" s="507"/>
+      <c r="N35" s="507"/>
+      <c r="O35" s="507"/>
+      <c r="P35" s="507"/>
+      <c r="Q35" s="507"/>
+      <c r="R35" s="507"/>
+      <c r="S35" s="507"/>
+      <c r="T35" s="507"/>
+      <c r="U35" s="507"/>
+      <c r="V35" s="507"/>
+      <c r="W35" s="507"/>
+      <c r="X35" s="507"/>
       <c r="AN35" s="213"/>
     </row>
     <row r="36" spans="3:40" s="212" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="510"/>
-      <c r="H36" s="510"/>
-      <c r="I36" s="510"/>
-      <c r="J36" s="510"/>
-      <c r="K36" s="510"/>
-      <c r="L36" s="510"/>
-      <c r="M36" s="510"/>
-      <c r="N36" s="510"/>
-      <c r="O36" s="510"/>
-      <c r="P36" s="510"/>
-      <c r="Q36" s="510"/>
-      <c r="R36" s="510"/>
-      <c r="S36" s="510"/>
-      <c r="T36" s="510"/>
-      <c r="U36" s="510"/>
-      <c r="V36" s="510"/>
-      <c r="W36" s="510"/>
-      <c r="X36" s="510"/>
+      <c r="G36" s="507"/>
+      <c r="H36" s="507"/>
+      <c r="I36" s="507"/>
+      <c r="J36" s="507"/>
+      <c r="K36" s="507"/>
+      <c r="L36" s="507"/>
+      <c r="M36" s="507"/>
+      <c r="N36" s="507"/>
+      <c r="O36" s="507"/>
+      <c r="P36" s="507"/>
+      <c r="Q36" s="507"/>
+      <c r="R36" s="507"/>
+      <c r="S36" s="507"/>
+      <c r="T36" s="507"/>
+      <c r="U36" s="507"/>
+      <c r="V36" s="507"/>
+      <c r="W36" s="507"/>
+      <c r="X36" s="507"/>
       <c r="AN36" s="213"/>
     </row>
     <row r="37" spans="3:40" s="212" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="510"/>
-      <c r="H37" s="510"/>
-      <c r="I37" s="510"/>
-      <c r="J37" s="510"/>
-      <c r="K37" s="510"/>
-      <c r="L37" s="510"/>
-      <c r="M37" s="510"/>
-      <c r="N37" s="510"/>
-      <c r="O37" s="510"/>
-      <c r="P37" s="510"/>
-      <c r="Q37" s="510"/>
-      <c r="R37" s="510"/>
-      <c r="S37" s="510"/>
-      <c r="T37" s="510"/>
-      <c r="U37" s="510"/>
-      <c r="V37" s="510"/>
-      <c r="W37" s="510"/>
-      <c r="X37" s="510"/>
+      <c r="G37" s="507"/>
+      <c r="H37" s="507"/>
+      <c r="I37" s="507"/>
+      <c r="J37" s="507"/>
+      <c r="K37" s="507"/>
+      <c r="L37" s="507"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="507"/>
+      <c r="O37" s="507"/>
+      <c r="P37" s="507"/>
+      <c r="Q37" s="507"/>
+      <c r="R37" s="507"/>
+      <c r="S37" s="507"/>
+      <c r="T37" s="507"/>
+      <c r="U37" s="507"/>
+      <c r="V37" s="507"/>
+      <c r="W37" s="507"/>
+      <c r="X37" s="507"/>
       <c r="AN37" s="213"/>
     </row>
     <row r="38" spans="3:40" s="212" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="510"/>
-      <c r="H38" s="510"/>
-      <c r="I38" s="510"/>
-      <c r="J38" s="510"/>
-      <c r="K38" s="510"/>
-      <c r="L38" s="510"/>
-      <c r="M38" s="510"/>
-      <c r="N38" s="510"/>
-      <c r="O38" s="510"/>
-      <c r="P38" s="510"/>
-      <c r="Q38" s="510"/>
-      <c r="R38" s="510"/>
-      <c r="S38" s="510"/>
-      <c r="T38" s="510"/>
-      <c r="U38" s="510"/>
-      <c r="V38" s="510"/>
-      <c r="W38" s="510"/>
-      <c r="X38" s="510"/>
+      <c r="G38" s="507"/>
+      <c r="H38" s="507"/>
+      <c r="I38" s="507"/>
+      <c r="J38" s="507"/>
+      <c r="K38" s="507"/>
+      <c r="L38" s="507"/>
+      <c r="M38" s="507"/>
+      <c r="N38" s="507"/>
+      <c r="O38" s="507"/>
+      <c r="P38" s="507"/>
+      <c r="Q38" s="507"/>
+      <c r="R38" s="507"/>
+      <c r="S38" s="507"/>
+      <c r="T38" s="507"/>
+      <c r="U38" s="507"/>
+      <c r="V38" s="507"/>
+      <c r="W38" s="507"/>
+      <c r="X38" s="507"/>
       <c r="AN38" s="213"/>
     </row>
     <row r="39" spans="3:40" s="212" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="510"/>
-      <c r="H39" s="510"/>
-      <c r="I39" s="510"/>
-      <c r="J39" s="510"/>
-      <c r="K39" s="510"/>
-      <c r="L39" s="510"/>
-      <c r="M39" s="510"/>
-      <c r="N39" s="510"/>
-      <c r="O39" s="510"/>
-      <c r="P39" s="510"/>
-      <c r="Q39" s="510"/>
-      <c r="R39" s="510"/>
-      <c r="S39" s="510"/>
-      <c r="T39" s="510"/>
-      <c r="U39" s="510"/>
-      <c r="V39" s="510"/>
-      <c r="W39" s="510"/>
-      <c r="X39" s="510"/>
+      <c r="G39" s="507"/>
+      <c r="H39" s="507"/>
+      <c r="I39" s="507"/>
+      <c r="J39" s="507"/>
+      <c r="K39" s="507"/>
+      <c r="L39" s="507"/>
+      <c r="M39" s="507"/>
+      <c r="N39" s="507"/>
+      <c r="O39" s="507"/>
+      <c r="P39" s="507"/>
+      <c r="Q39" s="507"/>
+      <c r="R39" s="507"/>
+      <c r="S39" s="507"/>
+      <c r="T39" s="507"/>
+      <c r="U39" s="507"/>
+      <c r="V39" s="507"/>
+      <c r="W39" s="507"/>
+      <c r="X39" s="507"/>
       <c r="AN39" s="213"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="176"/>
       <c r="D40" s="176"/>
-      <c r="G40" s="510"/>
-      <c r="H40" s="510"/>
-      <c r="I40" s="510"/>
-      <c r="J40" s="510"/>
-      <c r="K40" s="510"/>
-      <c r="L40" s="510"/>
-      <c r="M40" s="510"/>
-      <c r="N40" s="510"/>
-      <c r="O40" s="510"/>
-      <c r="P40" s="510"/>
-      <c r="Q40" s="510"/>
-      <c r="R40" s="510"/>
-      <c r="S40" s="510"/>
-      <c r="T40" s="510"/>
-      <c r="U40" s="510"/>
-      <c r="V40" s="510"/>
-      <c r="W40" s="510"/>
-      <c r="X40" s="510"/>
+      <c r="G40" s="507"/>
+      <c r="H40" s="507"/>
+      <c r="I40" s="507"/>
+      <c r="J40" s="507"/>
+      <c r="K40" s="507"/>
+      <c r="L40" s="507"/>
+      <c r="M40" s="507"/>
+      <c r="N40" s="507"/>
+      <c r="O40" s="507"/>
+      <c r="P40" s="507"/>
+      <c r="Q40" s="507"/>
+      <c r="R40" s="507"/>
+      <c r="S40" s="507"/>
+      <c r="T40" s="507"/>
+      <c r="U40" s="507"/>
+      <c r="V40" s="507"/>
+      <c r="W40" s="507"/>
+      <c r="X40" s="507"/>
       <c r="AN40" s="176"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
@@ -11927,7 +12028,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12768,98 +12869,98 @@
     <col min="16143" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="314" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="523" t="s">
+    <row r="1" spans="1:14" s="310" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="520" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="523"/>
-      <c r="C1" s="523"/>
-      <c r="D1" s="523"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="524" t="s">
+      <c r="B1" s="520"/>
+      <c r="C1" s="520"/>
+      <c r="D1" s="520"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="521" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="524"/>
-      <c r="H1" s="524"/>
-      <c r="I1" s="524"/>
-      <c r="J1" s="524"/>
-      <c r="K1" s="524"/>
-      <c r="L1" s="524"/>
-      <c r="M1" s="524"/>
-    </row>
-    <row r="2" spans="1:14" s="314" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="525" t="s">
+      <c r="G1" s="521"/>
+      <c r="H1" s="521"/>
+      <c r="I1" s="521"/>
+      <c r="J1" s="521"/>
+      <c r="K1" s="521"/>
+      <c r="L1" s="521"/>
+      <c r="M1" s="521"/>
+    </row>
+    <row r="2" spans="1:14" s="310" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="522" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="525"/>
-      <c r="C2" s="525"/>
-      <c r="D2" s="525"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="526" t="s">
+      <c r="B2" s="522"/>
+      <c r="C2" s="522"/>
+      <c r="D2" s="522"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="523" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="526"/>
-      <c r="H2" s="526"/>
-      <c r="I2" s="526"/>
-      <c r="J2" s="526"/>
-      <c r="K2" s="526"/>
-      <c r="L2" s="526"/>
-      <c r="M2" s="526"/>
-    </row>
-    <row r="3" spans="1:14" s="314" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="315"/>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="317"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
+      <c r="G2" s="523"/>
+      <c r="H2" s="523"/>
+      <c r="I2" s="523"/>
+      <c r="J2" s="523"/>
+      <c r="K2" s="523"/>
+      <c r="L2" s="523"/>
+      <c r="M2" s="523"/>
+    </row>
+    <row r="3" spans="1:14" s="310" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="311"/>
+      <c r="B3" s="311"/>
+      <c r="C3" s="311"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
     </row>
     <row r="4" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="527" t="s">
+      <c r="A4" s="524" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="527"/>
-      <c r="C4" s="527"/>
-      <c r="D4" s="527"/>
-      <c r="E4" s="527"/>
-      <c r="F4" s="527"/>
-      <c r="G4" s="527"/>
-      <c r="H4" s="527"/>
-      <c r="I4" s="527"/>
-      <c r="J4" s="527"/>
-      <c r="K4" s="527"/>
-      <c r="L4" s="527"/>
-      <c r="M4" s="527"/>
-      <c r="N4" s="527"/>
+      <c r="B4" s="524"/>
+      <c r="C4" s="524"/>
+      <c r="D4" s="524"/>
+      <c r="E4" s="524"/>
+      <c r="F4" s="524"/>
+      <c r="G4" s="524"/>
+      <c r="H4" s="524"/>
+      <c r="I4" s="524"/>
+      <c r="J4" s="524"/>
+      <c r="K4" s="524"/>
+      <c r="L4" s="524"/>
+      <c r="M4" s="524"/>
+      <c r="N4" s="524"/>
     </row>
     <row r="5" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="527" t="s">
+      <c r="A5" s="524" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="527"/>
-      <c r="C5" s="527"/>
-      <c r="D5" s="527"/>
-      <c r="E5" s="527"/>
-      <c r="F5" s="527"/>
-      <c r="G5" s="527"/>
-      <c r="H5" s="527"/>
-      <c r="I5" s="527"/>
-      <c r="J5" s="527"/>
-      <c r="K5" s="527"/>
-      <c r="L5" s="527"/>
-      <c r="M5" s="527"/>
-      <c r="N5" s="527"/>
+      <c r="B5" s="524"/>
+      <c r="C5" s="524"/>
+      <c r="D5" s="524"/>
+      <c r="E5" s="524"/>
+      <c r="F5" s="524"/>
+      <c r="G5" s="524"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="524"/>
+      <c r="J5" s="524"/>
+      <c r="K5" s="524"/>
+      <c r="L5" s="524"/>
+      <c r="M5" s="524"/>
+      <c r="N5" s="524"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L6" s="528" t="s">
+      <c r="L6" s="525" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="528"/>
-      <c r="N6" s="528"/>
+      <c r="M6" s="525"/>
+      <c r="N6" s="525"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
@@ -12927,19 +13028,19 @@
         <v>88</v>
       </c>
       <c r="K8" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M8" s="49"/>
       <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="529" t="s">
+      <c r="A9" s="526" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="530"/>
+      <c r="B9" s="527"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="51"/>
@@ -12970,7 +13071,7 @@
       <c r="D10" s="55">
         <v>15000000</v>
       </c>
-      <c r="E10" s="331">
+      <c r="E10" s="327">
         <f>'bảng chấm công'!AI12</f>
         <v>26</v>
       </c>
@@ -13006,25 +13107,25 @@
       <c r="D11" s="55">
         <v>6000000</v>
       </c>
-      <c r="E11" s="331">
+      <c r="E11" s="327">
         <f>'bảng chấm công'!AI15</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="55">
         <f t="shared" ref="F11:F16" si="0">D11/26*E11</f>
-        <v>6000000</v>
+        <v>6230769.230769231</v>
       </c>
       <c r="G11" s="55">
         <f t="shared" ref="G11" si="1">F11*30%</f>
-        <v>1800000</v>
+        <v>1869230.7692307692</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
       <c r="L11" s="56">
-        <f t="shared" ref="L11:L12" si="2">F11-G11+H11-I11-J11+K11</f>
-        <v>4200000</v>
+        <f t="shared" ref="L11" si="2">F11-G11+H11-I11-J11+K11</f>
+        <v>4361538.461538462</v>
       </c>
       <c r="M11" s="56"/>
       <c r="N11" s="53"/>
@@ -13042,80 +13143,82 @@
       <c r="D12" s="60">
         <v>6000000</v>
       </c>
-      <c r="E12" s="332">
+      <c r="E12" s="328">
         <f>'bảng chấm công'!AI14</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="60">
         <f t="shared" si="0"/>
-        <v>6692307.692307693</v>
+        <v>6923076.923076923</v>
       </c>
       <c r="G12" s="55">
         <f>F12*30%</f>
-        <v>2007692.3076923077</v>
-      </c>
-      <c r="H12" s="60"/>
+        <v>2076923.0769230768</v>
+      </c>
+      <c r="H12" s="60">
+        <f>'Hỗ trợ vận chuyển'!F33</f>
+        <v>60000</v>
+      </c>
       <c r="I12" s="61"/>
-      <c r="J12" s="61">
-        <v>4000000</v>
-      </c>
+      <c r="J12" s="61"/>
       <c r="K12" s="61">
-        <v>5555512</v>
+        <f>5555512-4000000</f>
+        <v>1555512</v>
       </c>
       <c r="L12" s="56">
-        <f t="shared" si="2"/>
-        <v>6240127.384615385</v>
+        <f>F12-G12+H12-I12-J12+K12</f>
+        <v>6461665.846153846</v>
       </c>
       <c r="M12" s="61"/>
       <c r="N12" s="58"/>
     </row>
     <row r="13" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="533" t="s">
+      <c r="A13" s="530" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="534"/>
-      <c r="C13" s="535"/>
+      <c r="B13" s="531"/>
+      <c r="C13" s="532"/>
       <c r="D13" s="287">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
       </c>
-      <c r="E13" s="333"/>
+      <c r="E13" s="329"/>
       <c r="F13" s="287">
         <f>SUM(F10:F12)</f>
-        <v>27692307.692307692</v>
+        <v>28153846.153846152</v>
       </c>
       <c r="G13" s="287">
         <f>SUM(G10:G12)</f>
-        <v>8307692.307692307</v>
+        <v>8446153.8461538441</v>
       </c>
       <c r="H13" s="287"/>
-      <c r="I13" s="318">
+      <c r="I13" s="314">
         <f>SUM(I11:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="318">
+      <c r="J13" s="314">
         <f>SUM(J10:J12)</f>
-        <v>4000000</v>
-      </c>
-      <c r="K13" s="318">
+        <v>0</v>
+      </c>
+      <c r="K13" s="314">
         <f>SUM(K10:K12)</f>
-        <v>5555512</v>
-      </c>
-      <c r="L13" s="318">
+        <v>1555512</v>
+      </c>
+      <c r="L13" s="314">
         <f>SUM(L10:L12)</f>
-        <v>20940127.384615384</v>
-      </c>
-      <c r="M13" s="318"/>
-      <c r="N13" s="319"/>
+        <v>21323204.307692308</v>
+      </c>
+      <c r="M13" s="314"/>
+      <c r="N13" s="315"/>
     </row>
     <row r="14" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="531" t="s">
+      <c r="A14" s="528" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="532"/>
+      <c r="B14" s="529"/>
       <c r="C14" s="88"/>
       <c r="D14" s="89"/>
-      <c r="E14" s="334"/>
+      <c r="E14" s="330"/>
       <c r="F14" s="91"/>
       <c r="G14" s="91"/>
       <c r="H14" s="293"/>
@@ -13139,7 +13242,7 @@
       <c r="D15" s="60">
         <v>3000000</v>
       </c>
-      <c r="E15" s="331">
+      <c r="E15" s="327">
         <f>'bảng chấm công'!AI16</f>
         <v>25</v>
       </c>
@@ -13152,19 +13255,17 @@
         <v>865384.61538461549</v>
       </c>
       <c r="H15" s="60">
-        <f>'Hỗ trợ vận chuyển'!E32</f>
-        <v>100000</v>
+        <f>'Hỗ trợ vận chuyển'!D33</f>
+        <v>250000</v>
       </c>
       <c r="I15" s="61"/>
-      <c r="J15" s="61">
-        <v>2100000</v>
-      </c>
+      <c r="J15" s="61"/>
       <c r="K15" s="56">
         <v>2100000</v>
       </c>
       <c r="L15" s="56">
         <f>F15-G15+H15-I15-J15+K15</f>
-        <v>2119230.7692307695</v>
+        <v>4369230.7692307699</v>
       </c>
       <c r="M15" s="61"/>
       <c r="N15" s="58"/>
@@ -13182,19 +13283,22 @@
       <c r="D16" s="64">
         <v>5000000</v>
       </c>
-      <c r="E16" s="331">
+      <c r="E16" s="327">
         <f>'bảng chấm công'!AI13</f>
-        <v>21.5</v>
+        <v>17.5</v>
       </c>
       <c r="F16" s="55">
         <f t="shared" si="0"/>
-        <v>4134615.3846153845</v>
+        <v>3365384.6153846155</v>
       </c>
       <c r="G16" s="55">
         <f>F16*30%</f>
-        <v>1240384.6153846153</v>
-      </c>
-      <c r="H16" s="60"/>
+        <v>1009615.3846153846</v>
+      </c>
+      <c r="H16" s="60">
+        <f>'Hỗ trợ vận chuyển'!E33</f>
+        <v>15000</v>
+      </c>
       <c r="I16" s="65"/>
       <c r="J16" s="65">
         <v>0</v>
@@ -13204,99 +13308,99 @@
       </c>
       <c r="L16" s="56">
         <f>F16-G16+H16-I16-J16+K16</f>
-        <v>2894230.769230769</v>
+        <v>2370769.230769231</v>
       </c>
       <c r="M16" s="65"/>
       <c r="N16" s="62"/>
     </row>
     <row r="17" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="533" t="s">
+      <c r="A17" s="530" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="534"/>
-      <c r="C17" s="535"/>
-      <c r="D17" s="320">
+      <c r="B17" s="531"/>
+      <c r="C17" s="532"/>
+      <c r="D17" s="316">
         <f>SUM(D15:D16)</f>
         <v>8000000</v>
       </c>
-      <c r="E17" s="321"/>
-      <c r="F17" s="320">
+      <c r="E17" s="317"/>
+      <c r="F17" s="316">
         <f>SUM(F15:F16)</f>
-        <v>7019230.7692307699</v>
-      </c>
-      <c r="G17" s="320">
+        <v>6250000</v>
+      </c>
+      <c r="G17" s="316">
         <f>SUM(G15:G16)</f>
-        <v>2105769.230769231</v>
-      </c>
-      <c r="H17" s="320"/>
-      <c r="I17" s="320">
+        <v>1875000</v>
+      </c>
+      <c r="H17" s="316"/>
+      <c r="I17" s="316">
         <f>SUM(I15:I16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="320">
+      <c r="J17" s="316">
         <f>SUM(J15:J16)</f>
-        <v>2100000</v>
-      </c>
-      <c r="K17" s="320">
+        <v>0</v>
+      </c>
+      <c r="K17" s="316">
         <f>SUM(K15:K16)</f>
         <v>2100000</v>
       </c>
-      <c r="L17" s="320">
+      <c r="L17" s="316">
         <f>SUM(L14:L16)</f>
-        <v>5013461.538461538</v>
-      </c>
-      <c r="M17" s="319"/>
-      <c r="N17" s="319"/>
+        <v>6740000.0000000009</v>
+      </c>
+      <c r="M17" s="315"/>
+      <c r="N17" s="315"/>
     </row>
     <row r="19" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="527"/>
-      <c r="C19" s="527"/>
-      <c r="D19" s="527"/>
+      <c r="B19" s="524"/>
+      <c r="C19" s="524"/>
+      <c r="D19" s="524"/>
       <c r="E19" s="288"/>
-      <c r="J19" s="527"/>
-      <c r="K19" s="527"/>
-      <c r="L19" s="527"/>
-      <c r="M19" s="527"/>
-    </row>
-    <row r="20" spans="1:14" s="314" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="322" t="s">
+      <c r="J19" s="524"/>
+      <c r="K19" s="524"/>
+      <c r="L19" s="524"/>
+      <c r="M19" s="524"/>
+    </row>
+    <row r="20" spans="1:14" s="310" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="318" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="323"/>
-      <c r="F20" s="323"/>
-      <c r="G20" s="323"/>
-      <c r="H20" s="323"/>
-      <c r="I20" s="323"/>
-      <c r="J20" s="322" t="s">
+      <c r="E20" s="319"/>
+      <c r="F20" s="319"/>
+      <c r="G20" s="319"/>
+      <c r="H20" s="319"/>
+      <c r="I20" s="319"/>
+      <c r="J20" s="318" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="323"/>
-      <c r="L20" s="324"/>
-    </row>
-    <row r="21" spans="1:14" s="314" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="325" t="s">
+      <c r="K20" s="319"/>
+      <c r="L20" s="320"/>
+    </row>
+    <row r="21" spans="1:14" s="310" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="321" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="326"/>
-      <c r="F21" s="326"/>
-      <c r="G21" s="327"/>
-      <c r="H21" s="327"/>
-      <c r="I21" s="327"/>
-      <c r="J21" s="325" t="s">
+      <c r="E21" s="322"/>
+      <c r="F21" s="322"/>
+      <c r="G21" s="323"/>
+      <c r="H21" s="323"/>
+      <c r="I21" s="323"/>
+      <c r="J21" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="327"/>
+      <c r="K21" s="323"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F22" s="159"/>
     </row>
-    <row r="24" spans="1:14" s="328" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="322"/>
-      <c r="F24" s="329"/>
-      <c r="G24" s="329"/>
-      <c r="H24" s="329"/>
-      <c r="I24" s="329"/>
-      <c r="J24" s="330" t="s">
+    <row r="24" spans="1:14" s="324" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="318"/>
+      <c r="F24" s="325"/>
+      <c r="G24" s="325"/>
+      <c r="H24" s="325"/>
+      <c r="I24" s="325"/>
+      <c r="J24" s="326" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13323,52 +13427,50 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="298" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="298" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="303" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="298" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="298" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="306" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="298"/>
+    <col min="3" max="3" width="39.140625" style="298" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="305" customWidth="1"/>
+    <col min="5" max="6" width="13" style="298" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="298"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="295" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="536" t="s">
+    <row r="1" spans="1:15" s="295" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="533" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="536"/>
-      <c r="C1" s="536"/>
-      <c r="D1" s="536"/>
-      <c r="E1" s="297"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="297"/>
-    </row>
-    <row r="2" spans="1:16" s="295" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="537" t="s">
+      <c r="B1" s="533"/>
+      <c r="C1" s="533"/>
+      <c r="D1" s="297"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="297"/>
+    </row>
+    <row r="2" spans="1:15" s="295" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="537"/>
-      <c r="C2" s="537"/>
-      <c r="D2" s="537"/>
-      <c r="E2" s="297"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="297"/>
-    </row>
-    <row r="3" spans="1:16" s="295" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="455" t="s">
+      <c r="B2" s="534"/>
+      <c r="C2" s="534"/>
+      <c r="D2" s="297"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="297"/>
+    </row>
+    <row r="3" spans="1:15" s="295" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="452" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="455"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="294"/>
       <c r="F3" s="294"/>
       <c r="G3" s="294"/>
       <c r="H3" s="294"/>
@@ -13379,14 +13481,13 @@
       <c r="M3" s="294"/>
       <c r="N3" s="294"/>
       <c r="O3" s="294"/>
-      <c r="P3" s="294"/>
-    </row>
-    <row r="4" spans="1:16" s="295" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" s="295" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="289"/>
       <c r="B4" s="289"/>
       <c r="C4" s="289"/>
       <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
+      <c r="E4" s="294"/>
       <c r="F4" s="294"/>
       <c r="G4" s="294"/>
       <c r="H4" s="294"/>
@@ -13397,58 +13498,54 @@
       <c r="M4" s="294"/>
       <c r="N4" s="294"/>
       <c r="O4" s="294"/>
-      <c r="P4" s="294"/>
-    </row>
-    <row r="5" spans="1:16" s="295" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="307" t="s">
+    </row>
+    <row r="5" spans="1:15" s="295" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="539" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="308" t="s">
+      <c r="B5" s="541" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="309" t="s">
+      <c r="C5" s="539" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="307" t="s">
+      <c r="D5" s="538" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="310" t="s">
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+    </row>
+    <row r="6" spans="1:15" s="295" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="540"/>
+      <c r="B6" s="542"/>
+      <c r="C6" s="540"/>
+      <c r="D6" s="306" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="306" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="306" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="299">
+        <v>560</v>
+      </c>
+      <c r="B7" s="301">
+        <v>43983</v>
+      </c>
+      <c r="C7" s="299" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="299">
-        <v>560</v>
-      </c>
-      <c r="B6" s="301">
-        <v>43983</v>
-      </c>
-      <c r="C6" s="299" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="299" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="304">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="300"/>
-      <c r="B7" s="302">
-        <v>43983</v>
-      </c>
-      <c r="C7" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="300" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="305">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="386">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="386"/>
+      <c r="F7" s="386"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="300">
         <v>563</v>
       </c>
@@ -13456,16 +13553,15 @@
         <v>43986</v>
       </c>
       <c r="C8" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="300" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="305">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="D8" s="304">
+        <v>15000</v>
+      </c>
+      <c r="E8" s="304"/>
+      <c r="F8" s="304"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="300">
         <v>564</v>
       </c>
@@ -13473,16 +13569,15 @@
         <v>43987</v>
       </c>
       <c r="C9" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="300" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="305">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="D9" s="304">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="304"/>
+      <c r="F9" s="304"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="300">
         <v>576</v>
       </c>
@@ -13490,16 +13585,15 @@
         <v>43995</v>
       </c>
       <c r="C10" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="300" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="305">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="D10" s="304">
+        <v>15000</v>
+      </c>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="300">
         <v>582</v>
       </c>
@@ -13507,16 +13601,15 @@
         <v>43995</v>
       </c>
       <c r="C11" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="300" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="305">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="D11" s="304">
+        <v>15000</v>
+      </c>
+      <c r="E11" s="304"/>
+      <c r="F11" s="304"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="300">
         <v>585</v>
       </c>
@@ -13524,16 +13617,15 @@
         <v>43997</v>
       </c>
       <c r="C12" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="300" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="305">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="D12" s="304">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="304"/>
+      <c r="F12" s="304"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="300">
         <v>589</v>
       </c>
@@ -13541,195 +13633,279 @@
         <v>43998</v>
       </c>
       <c r="C13" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="300" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="305">
+        <v>179</v>
+      </c>
+      <c r="D13" s="304">
         <v>30000</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="300"/>
-      <c r="B14" s="302"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="304"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="300">
+        <v>590</v>
+      </c>
+      <c r="B14" s="302">
+        <v>44000</v>
+      </c>
       <c r="C14" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="300"/>
-      <c r="E14" s="305"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="300"/>
-      <c r="B15" s="302"/>
+        <v>203</v>
+      </c>
+      <c r="D14" s="304">
+        <v>15000</v>
+      </c>
+      <c r="E14" s="304"/>
+      <c r="F14" s="304"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="300">
+        <v>483</v>
+      </c>
+      <c r="B15" s="302">
+        <v>44001</v>
+      </c>
       <c r="C15" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="300"/>
-      <c r="E15" s="305"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="300"/>
-      <c r="B16" s="302"/>
+        <v>207</v>
+      </c>
+      <c r="D15" s="304"/>
+      <c r="E15" s="304">
+        <v>15000</v>
+      </c>
+      <c r="F15" s="304"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="300">
+        <v>595</v>
+      </c>
+      <c r="B16" s="302">
+        <v>44002</v>
+      </c>
       <c r="C16" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="300"/>
-      <c r="E16" s="305"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="300"/>
-      <c r="B17" s="302"/>
+        <v>204</v>
+      </c>
+      <c r="D16" s="304">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="304"/>
+      <c r="F16" s="304"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="300">
+        <v>598</v>
+      </c>
+      <c r="B17" s="302">
+        <v>44004</v>
+      </c>
       <c r="C17" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="300"/>
-      <c r="E17" s="305"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="300"/>
-      <c r="B18" s="302"/>
+        <v>205</v>
+      </c>
+      <c r="D17" s="304">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="304"/>
+      <c r="F17" s="304"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="300">
+        <v>599</v>
+      </c>
+      <c r="B18" s="302">
+        <v>44004</v>
+      </c>
       <c r="C18" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="300"/>
-      <c r="E18" s="305"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="300"/>
-      <c r="B19" s="302"/>
+        <v>172</v>
+      </c>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="300">
+        <v>600</v>
+      </c>
+      <c r="B19" s="302">
+        <v>44006</v>
+      </c>
       <c r="C19" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="300"/>
-      <c r="E19" s="305"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="300"/>
-      <c r="B20" s="302"/>
+        <v>206</v>
+      </c>
+      <c r="D19" s="304">
+        <v>15000</v>
+      </c>
+      <c r="E19" s="304"/>
+      <c r="F19" s="304">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="300">
+        <v>1152</v>
+      </c>
+      <c r="B20" s="302">
+        <v>44006</v>
+      </c>
       <c r="C20" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="300"/>
-      <c r="E20" s="305"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="300"/>
-      <c r="B21" s="302"/>
+        <v>206</v>
+      </c>
+      <c r="D20" s="304">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="304"/>
+      <c r="F20" s="304">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="300">
+        <v>1155</v>
+      </c>
+      <c r="B21" s="302">
+        <v>44007</v>
+      </c>
       <c r="C21" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="300"/>
-      <c r="E21" s="305"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="300"/>
-      <c r="B22" s="302"/>
+        <v>211</v>
+      </c>
+      <c r="D21" s="304">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="304"/>
+      <c r="F21" s="304"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="300">
+        <v>1156</v>
+      </c>
+      <c r="B22" s="302">
+        <v>44006</v>
+      </c>
       <c r="C22" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="300"/>
-      <c r="E22" s="305"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="300"/>
-      <c r="B23" s="302"/>
+        <v>210</v>
+      </c>
+      <c r="D22" s="304">
+        <v>15000</v>
+      </c>
+      <c r="E22" s="304"/>
+      <c r="F22" s="304"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="300">
+        <v>1158</v>
+      </c>
+      <c r="B23" s="302">
+        <v>44006</v>
+      </c>
       <c r="C23" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="300"/>
-      <c r="E23" s="305"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="D23" s="304">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="304"/>
+      <c r="F23" s="304"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="300"/>
       <c r="B24" s="302"/>
-      <c r="C24" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="300"/>
-      <c r="E24" s="305"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="300"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="304"/>
+      <c r="F24" s="304"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="300"/>
       <c r="B25" s="302"/>
-      <c r="C25" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="300"/>
-      <c r="E25" s="305"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="300"/>
+      <c r="D25" s="304"/>
+      <c r="E25" s="304"/>
+      <c r="F25" s="304"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="300"/>
       <c r="B26" s="302"/>
-      <c r="C26" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="300"/>
-      <c r="E26" s="305"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="300"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
+      <c r="F26" s="304"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="300"/>
       <c r="B27" s="302"/>
-      <c r="C27" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="300"/>
-      <c r="E27" s="305"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="300"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
+      <c r="F27" s="304"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="300"/>
       <c r="B28" s="302"/>
-      <c r="C28" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="300"/>
-      <c r="E28" s="305"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="300"/>
+      <c r="D28" s="304"/>
+      <c r="E28" s="304"/>
+      <c r="F28" s="304"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="300"/>
       <c r="B29" s="302"/>
-      <c r="C29" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="300"/>
-      <c r="E29" s="305"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="300"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
+      <c r="F29" s="304"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="300"/>
       <c r="B30" s="302"/>
-      <c r="C30" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="300"/>
-      <c r="E30" s="305"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="300"/>
+      <c r="D30" s="304"/>
+      <c r="E30" s="304"/>
+      <c r="F30" s="304"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="300"/>
       <c r="B31" s="302"/>
-      <c r="C31" s="300" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="300"/>
-      <c r="E31" s="305"/>
-    </row>
-    <row r="32" spans="1:5" s="312" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="538" t="s">
+      <c r="C31" s="300"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="304"/>
+      <c r="F31" s="304"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="300"/>
+      <c r="B32" s="302"/>
+      <c r="C32" s="300"/>
+      <c r="D32" s="304"/>
+      <c r="E32" s="304"/>
+      <c r="F32" s="304"/>
+    </row>
+    <row r="33" spans="1:6" s="308" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="535" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="539"/>
-      <c r="C32" s="539"/>
-      <c r="D32" s="540"/>
-      <c r="E32" s="311">
-        <f>SUM(E6:E31)</f>
-        <v>100000</v>
+      <c r="B33" s="536"/>
+      <c r="C33" s="537"/>
+      <c r="D33" s="307">
+        <f>SUM(D7:D32)</f>
+        <v>250000</v>
+      </c>
+      <c r="E33" s="307">
+        <f t="shared" ref="E33:F33" si="0">SUM(E7:E32)</f>
+        <v>15000</v>
+      </c>
+      <c r="F33" s="307">
+        <f t="shared" si="0"/>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A32:D32"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11352" tabRatio="834"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11352" tabRatio="834" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Hỗ trợ vận chuyển" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$122</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$78</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="243">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -606,9 +606,6 @@
     <t>Trần Khát Chân</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>TIỀN MUA HÀNG EM TÂM THU HỘ THÁNG 6</t>
   </si>
   <si>
@@ -694,6 +691,69 @@
   </si>
   <si>
     <t>Nhập hàng</t>
+  </si>
+  <si>
+    <t>Chi MC khai trương đại lý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E Cường </t>
+  </si>
+  <si>
+    <t>Phạm Hùng</t>
+  </si>
+  <si>
+    <t>Linna</t>
+  </si>
+  <si>
+    <t>Đồng Nai</t>
+  </si>
+  <si>
+    <t>Làm phụ lục hợp đồng chiết khấu 50%</t>
+  </si>
+  <si>
+    <t>DEMO</t>
+  </si>
+  <si>
+    <t>Khách linna</t>
+  </si>
+  <si>
+    <t>Anh Tùng</t>
+  </si>
+  <si>
+    <t>CTV</t>
+  </si>
+  <si>
+    <t>Chị Huệ</t>
+  </si>
+  <si>
+    <t>Khách lẻ</t>
+  </si>
+  <si>
+    <t>2 bộ cốc</t>
+  </si>
+  <si>
+    <t>10 bộ cốc</t>
+  </si>
+  <si>
+    <t>Chị Quân</t>
+  </si>
+  <si>
+    <t>Khách đầm trấu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng thu hộ </t>
+  </si>
+  <si>
+    <t>Đối trừ lương</t>
+  </si>
+  <si>
+    <t>Tâm thu hộ</t>
+  </si>
+  <si>
+    <t>ĐL Hải Vui</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1472,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="544">
+  <cellXfs count="552">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2366,9 +2426,6 @@
     <xf numFmtId="168" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2380,12 +2437,6 @@
     </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="46" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2463,6 +2514,12 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2494,34 +2551,64 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2529,18 +2616,21 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2562,38 +2652,59 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2649,24 +2760,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2676,42 +2769,6 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2721,102 +2778,111 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2853,13 +2919,16 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2889,18 +2958,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2930,6 +2987,33 @@
     </xf>
     <xf numFmtId="14" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3243,9 +3327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3297,15 +3381,15 @@
       <c r="H3" s="118"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="392" t="s">
+      <c r="A4" s="391" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="392"/>
-      <c r="C4" s="392"/>
-      <c r="D4" s="392"/>
-      <c r="E4" s="392"/>
-      <c r="F4" s="392"/>
-      <c r="G4" s="392"/>
+      <c r="B4" s="391"/>
+      <c r="C4" s="391"/>
+      <c r="D4" s="391"/>
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="391"/>
       <c r="H4" s="118"/>
     </row>
     <row r="5" spans="1:8" s="116" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3317,28 +3401,28 @@
       <c r="G5" s="115"/>
     </row>
     <row r="6" spans="1:8" s="116" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="393" t="s">
+      <c r="A6" s="392" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="393" t="s">
+      <c r="B6" s="392" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="395" t="s">
+      <c r="C6" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="397" t="s">
+      <c r="D6" s="396" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="397"/>
-      <c r="F6" s="397" t="s">
+      <c r="E6" s="396"/>
+      <c r="F6" s="396" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="397"/>
+      <c r="G6" s="396"/>
     </row>
     <row r="7" spans="1:8" s="116" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="394"/>
-      <c r="B7" s="394"/>
-      <c r="C7" s="396"/>
+      <c r="A7" s="393"/>
+      <c r="B7" s="393"/>
+      <c r="C7" s="395"/>
       <c r="D7" s="120" t="s">
         <v>83</v>
       </c>
@@ -3391,10 +3475,10 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="155"/>
       <c r="B12" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="103" t="s">
         <v>213</v>
-      </c>
-      <c r="C12" s="103" t="s">
-        <v>214</v>
       </c>
       <c r="D12" s="104"/>
       <c r="E12" s="121"/>
@@ -3406,10 +3490,10 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="155"/>
       <c r="B13" s="102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="104"/>
       <c r="E13" s="121"/>
@@ -3418,34 +3502,46 @@
       </c>
       <c r="G13" s="121"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="155"/>
       <c r="B14" s="102"/>
       <c r="C14" s="103" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" s="104"/>
       <c r="E14" s="121"/>
       <c r="F14" s="104"/>
-      <c r="G14" s="121"/>
+      <c r="G14" s="121">
+        <f>30*1650000</f>
+        <v>49500000</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="155"/>
       <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
+      <c r="C15" s="103" t="s">
+        <v>221</v>
+      </c>
       <c r="D15" s="104"/>
       <c r="E15" s="121"/>
       <c r="F15" s="104"/>
-      <c r="G15" s="121"/>
+      <c r="G15" s="121">
+        <f>60*1650000</f>
+        <v>99000000</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="155"/>
       <c r="B16" s="102"/>
-      <c r="C16" s="103"/>
+      <c r="C16" s="103" t="s">
+        <v>222</v>
+      </c>
       <c r="D16" s="104"/>
       <c r="E16" s="121"/>
       <c r="F16" s="104"/>
-      <c r="G16" s="121"/>
+      <c r="G16" s="121">
+        <v>5000000</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="155"/>
@@ -3999,11 +4095,11 @@
       <c r="G77" s="123"/>
     </row>
     <row r="78" spans="1:7" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="389" t="s">
+      <c r="A78" s="388" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="390"/>
-      <c r="C78" s="391"/>
+      <c r="B78" s="389"/>
+      <c r="C78" s="390"/>
       <c r="D78" s="125">
         <f>SUM(D8:D77)</f>
         <v>0</v>
@@ -4018,7 +4114,7 @@
       </c>
       <c r="G78" s="125">
         <f>SUM(G8:G77)</f>
-        <v>0</v>
+        <v>153500000</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="126" customFormat="1" x14ac:dyDescent="0.25">
@@ -4031,10 +4127,10 @@
       <c r="G79" s="128"/>
     </row>
     <row r="80" spans="1:7" s="126" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A80" s="388" t="s">
+      <c r="A80" s="387" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="388"/>
+      <c r="B80" s="387"/>
       <c r="C80" s="127"/>
       <c r="D80" s="128"/>
       <c r="E80" s="128"/>
@@ -4134,42 +4230,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:R129"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="348"/>
-    <col min="2" max="2" width="11.5546875" style="370" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="382"/>
+    <col min="2" max="2" width="11.5546875" style="367" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="379"/>
     <col min="4" max="4" width="12.6640625" style="348" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="348" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.109375" style="348"/>
-    <col min="8" max="8" width="13.33203125" style="383" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="383" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="383" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="384"/>
-    <col min="12" max="12" width="15.88671875" style="383" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="383" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="383" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" style="383" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="380" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="380" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="380" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="381"/>
+    <col min="12" max="12" width="15.88671875" style="380" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="380" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="380" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" style="380" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" style="348" customWidth="1"/>
-    <col min="17" max="17" width="13" style="348" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="348"/>
+    <col min="17" max="18" width="13" style="348" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="348"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="334" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="406" t="s">
+      <c r="A1" s="420" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
+      <c r="B1" s="420"/>
+      <c r="C1" s="420"/>
+      <c r="D1" s="420"/>
+      <c r="E1" s="420"/>
       <c r="H1" s="335"/>
       <c r="I1" s="335"/>
       <c r="J1" s="335"/>
@@ -4197,153 +4293,153 @@
       <c r="O2" s="335"/>
     </row>
     <row r="3" spans="1:17" s="334" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="406" t="s">
+      <c r="A3" s="420" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="406"/>
-      <c r="C3" s="406"/>
-      <c r="D3" s="406"/>
-      <c r="E3" s="406"/>
-      <c r="F3" s="406"/>
-      <c r="G3" s="406"/>
-      <c r="H3" s="406"/>
-      <c r="I3" s="406"/>
-      <c r="J3" s="406"/>
-      <c r="K3" s="406"/>
-      <c r="L3" s="406"/>
-      <c r="M3" s="406"/>
-      <c r="N3" s="406"/>
-      <c r="O3" s="406"/>
-      <c r="P3" s="406"/>
+      <c r="B3" s="420"/>
+      <c r="C3" s="420"/>
+      <c r="D3" s="420"/>
+      <c r="E3" s="420"/>
+      <c r="F3" s="420"/>
+      <c r="G3" s="420"/>
+      <c r="H3" s="420"/>
+      <c r="I3" s="420"/>
+      <c r="J3" s="420"/>
+      <c r="K3" s="420"/>
+      <c r="L3" s="420"/>
+      <c r="M3" s="420"/>
+      <c r="N3" s="420"/>
+      <c r="O3" s="420"/>
+      <c r="P3" s="420"/>
     </row>
     <row r="4" spans="1:17" s="334" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="406" t="s">
+      <c r="A4" s="420" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="406"/>
-      <c r="C4" s="406"/>
-      <c r="D4" s="406"/>
-      <c r="E4" s="406"/>
-      <c r="F4" s="406"/>
-      <c r="G4" s="406"/>
-      <c r="H4" s="406"/>
-      <c r="I4" s="406"/>
-      <c r="J4" s="406"/>
-      <c r="K4" s="406"/>
-      <c r="L4" s="406"/>
-      <c r="M4" s="406"/>
-      <c r="N4" s="406"/>
-      <c r="O4" s="406"/>
-      <c r="P4" s="406"/>
+      <c r="B4" s="420"/>
+      <c r="C4" s="420"/>
+      <c r="D4" s="420"/>
+      <c r="E4" s="420"/>
+      <c r="F4" s="420"/>
+      <c r="G4" s="420"/>
+      <c r="H4" s="420"/>
+      <c r="I4" s="420"/>
+      <c r="J4" s="420"/>
+      <c r="K4" s="420"/>
+      <c r="L4" s="420"/>
+      <c r="M4" s="420"/>
+      <c r="N4" s="420"/>
+      <c r="O4" s="420"/>
+      <c r="P4" s="420"/>
     </row>
     <row r="5" spans="1:17" s="334" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="406"/>
-      <c r="B5" s="406"/>
-      <c r="C5" s="406"/>
-      <c r="D5" s="406"/>
-      <c r="E5" s="406"/>
-      <c r="F5" s="406"/>
-      <c r="G5" s="406"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="406"/>
-      <c r="J5" s="406"/>
-      <c r="K5" s="407"/>
-      <c r="L5" s="407"/>
+      <c r="A5" s="420"/>
+      <c r="B5" s="420"/>
+      <c r="C5" s="420"/>
+      <c r="D5" s="420"/>
+      <c r="E5" s="420"/>
+      <c r="F5" s="420"/>
+      <c r="G5" s="420"/>
+      <c r="H5" s="420"/>
+      <c r="I5" s="420"/>
+      <c r="J5" s="420"/>
+      <c r="K5" s="421"/>
+      <c r="L5" s="421"/>
       <c r="M5" s="335"/>
       <c r="N5" s="335"/>
       <c r="O5" s="335"/>
     </row>
     <row r="6" spans="1:17" s="342" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="408" t="s">
+      <c r="A6" s="417" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="410" t="s">
+      <c r="B6" s="422" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="414" t="s">
+      <c r="C6" s="424" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="416" t="s">
+      <c r="D6" s="426" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="416"/>
-      <c r="F6" s="417" t="s">
+      <c r="E6" s="426"/>
+      <c r="F6" s="427" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="417"/>
-      <c r="H6" s="417"/>
-      <c r="I6" s="417"/>
-      <c r="J6" s="417"/>
-      <c r="K6" s="417"/>
-      <c r="L6" s="417"/>
-      <c r="M6" s="418"/>
-      <c r="N6" s="418"/>
-      <c r="O6" s="418"/>
-      <c r="P6" s="419" t="s">
+      <c r="G6" s="427"/>
+      <c r="H6" s="427"/>
+      <c r="I6" s="427"/>
+      <c r="J6" s="427"/>
+      <c r="K6" s="427"/>
+      <c r="L6" s="427"/>
+      <c r="M6" s="428"/>
+      <c r="N6" s="428"/>
+      <c r="O6" s="428"/>
+      <c r="P6" s="429" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="342" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="409"/>
-      <c r="B7" s="411"/>
-      <c r="C7" s="415"/>
-      <c r="D7" s="408" t="s">
+      <c r="A7" s="418"/>
+      <c r="B7" s="423"/>
+      <c r="C7" s="425"/>
+      <c r="D7" s="417" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="408" t="s">
+      <c r="E7" s="417" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="408" t="s">
+      <c r="F7" s="417" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="408" t="s">
+      <c r="G7" s="417" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="412" t="s">
+      <c r="H7" s="415" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="412" t="s">
+      <c r="I7" s="415" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="421" t="s">
+      <c r="J7" s="419" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="421"/>
-      <c r="L7" s="412" t="s">
+      <c r="K7" s="419"/>
+      <c r="L7" s="415" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="412" t="s">
+      <c r="M7" s="415" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="412" t="s">
+      <c r="N7" s="415" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="412" t="s">
+      <c r="O7" s="415" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="420"/>
+      <c r="P7" s="430"/>
     </row>
     <row r="8" spans="1:17" s="342" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="409"/>
-      <c r="B8" s="411"/>
-      <c r="C8" s="415"/>
-      <c r="D8" s="409"/>
-      <c r="E8" s="409"/>
-      <c r="F8" s="409"/>
-      <c r="G8" s="409"/>
-      <c r="H8" s="413"/>
-      <c r="I8" s="413"/>
+      <c r="A8" s="418"/>
+      <c r="B8" s="423"/>
+      <c r="C8" s="425"/>
+      <c r="D8" s="418"/>
+      <c r="E8" s="418"/>
+      <c r="F8" s="418"/>
+      <c r="G8" s="418"/>
+      <c r="H8" s="416"/>
+      <c r="I8" s="416"/>
       <c r="J8" s="343" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="344" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="413"/>
-      <c r="M8" s="413"/>
-      <c r="N8" s="413"/>
-      <c r="O8" s="413"/>
-      <c r="P8" s="420"/>
+      <c r="L8" s="416"/>
+      <c r="M8" s="416"/>
+      <c r="N8" s="416"/>
+      <c r="O8" s="416"/>
+      <c r="P8" s="430"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="260">
@@ -4382,13 +4478,15 @@
         <f>I9*(1-K9)</f>
         <v>560500.00000000012</v>
       </c>
-      <c r="M9" s="346"/>
+      <c r="M9" s="346">
+        <f>L9</f>
+        <v>560500.00000000012</v>
+      </c>
       <c r="N9" s="346"/>
-      <c r="O9" s="346">
-        <f t="shared" ref="O9:O15" si="0">L9</f>
-        <v>560500.00000000012</v>
-      </c>
-      <c r="P9" s="260"/>
+      <c r="O9" s="346"/>
+      <c r="P9" s="260" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="260">
@@ -4427,13 +4525,15 @@
         <f>I10*(1-K10)</f>
         <v>840750.00000000012</v>
       </c>
-      <c r="M10" s="346"/>
+      <c r="M10" s="346">
+        <f>L10</f>
+        <v>840750.00000000012</v>
+      </c>
       <c r="N10" s="346"/>
-      <c r="O10" s="346">
-        <f t="shared" si="0"/>
-        <v>840750.00000000012</v>
-      </c>
-      <c r="P10" s="260"/>
+      <c r="O10" s="346"/>
+      <c r="P10" s="260" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="260">
@@ -4475,25 +4575,25 @@
       <c r="M11" s="346"/>
       <c r="N11" s="346"/>
       <c r="O11" s="346">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O11:O15" si="0">L11</f>
         <v>3086000.0000000005</v>
       </c>
       <c r="P11" s="260"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="398">
+      <c r="A12" s="401">
         <v>557</v>
       </c>
-      <c r="B12" s="400">
+      <c r="B12" s="399">
         <v>43981</v>
       </c>
-      <c r="C12" s="426" t="s">
+      <c r="C12" s="409" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="398" t="s">
+      <c r="D12" s="401" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="398" t="s">
+      <c r="E12" s="401" t="s">
         <v>136</v>
       </c>
       <c r="F12" s="260" t="s">
@@ -4506,7 +4606,7 @@
         <v>225000</v>
       </c>
       <c r="I12" s="346">
-        <f t="shared" ref="I12:I55" si="1">G12*H12</f>
+        <f t="shared" ref="I12:I92" si="1">G12*H12</f>
         <v>450000</v>
       </c>
       <c r="J12" s="346"/>
@@ -4514,24 +4614,26 @@
         <v>0.41</v>
       </c>
       <c r="L12" s="346">
-        <f t="shared" ref="L12:L55" si="2">I12*(1-K12)</f>
+        <f t="shared" ref="L12:L81" si="2">I12*(1-K12)</f>
         <v>265500.00000000006</v>
       </c>
-      <c r="M12" s="346"/>
+      <c r="M12" s="346">
+        <f>L12</f>
+        <v>265500.00000000006</v>
+      </c>
       <c r="N12" s="346"/>
-      <c r="O12" s="346">
-        <f t="shared" si="0"/>
-        <v>265500.00000000006</v>
-      </c>
-      <c r="P12" s="260"/>
+      <c r="O12" s="346"/>
+      <c r="P12" s="260" t="s">
+        <v>239</v>
+      </c>
       <c r="Q12" s="349"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="399"/>
-      <c r="B13" s="401"/>
-      <c r="C13" s="427"/>
-      <c r="D13" s="399"/>
-      <c r="E13" s="399"/>
+      <c r="A13" s="402"/>
+      <c r="B13" s="400"/>
+      <c r="C13" s="410"/>
+      <c r="D13" s="402"/>
+      <c r="E13" s="402"/>
       <c r="F13" s="260" t="s">
         <v>137</v>
       </c>
@@ -4553,13 +4655,15 @@
         <f t="shared" si="2"/>
         <v>138650.00000000003</v>
       </c>
-      <c r="M13" s="350"/>
+      <c r="M13" s="346">
+        <f>L13</f>
+        <v>138650.00000000003</v>
+      </c>
       <c r="N13" s="346"/>
-      <c r="O13" s="346">
-        <f t="shared" si="0"/>
-        <v>138650.00000000003</v>
-      </c>
-      <c r="P13" s="351"/>
+      <c r="O13" s="346"/>
+      <c r="P13" s="260" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="260">
@@ -4598,13 +4702,15 @@
         <f t="shared" si="2"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="M14" s="350"/>
+      <c r="M14" s="350">
+        <f>L14</f>
+        <v>536900.00000000012</v>
+      </c>
       <c r="N14" s="346"/>
-      <c r="O14" s="346">
-        <f t="shared" si="0"/>
-        <v>536900.00000000012</v>
-      </c>
-      <c r="P14" s="351"/>
+      <c r="O14" s="346"/>
+      <c r="P14" s="260" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="260">
@@ -4652,19 +4758,19 @@
       <c r="P15" s="351"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="398">
+      <c r="A16" s="401">
         <v>563</v>
       </c>
-      <c r="B16" s="400">
+      <c r="B16" s="399">
         <v>43986</v>
       </c>
-      <c r="C16" s="426" t="s">
+      <c r="C16" s="409" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="402" t="s">
+      <c r="D16" s="397" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="402" t="s">
+      <c r="E16" s="397" t="s">
         <v>145</v>
       </c>
       <c r="F16" s="260" t="s">
@@ -4696,12 +4802,12 @@
       <c r="O16" s="346"/>
       <c r="P16" s="351"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="399"/>
-      <c r="B17" s="401"/>
-      <c r="C17" s="427"/>
-      <c r="D17" s="403"/>
-      <c r="E17" s="403"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="402"/>
+      <c r="B17" s="400"/>
+      <c r="C17" s="410"/>
+      <c r="D17" s="398"/>
+      <c r="E17" s="398"/>
       <c r="F17" s="260" t="s">
         <v>141</v>
       </c>
@@ -4731,7 +4837,7 @@
       <c r="O17" s="346"/>
       <c r="P17" s="351"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="260">
         <v>564</v>
       </c>
@@ -4776,7 +4882,7 @@
       </c>
       <c r="P18" s="351"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="260">
         <v>566</v>
       </c>
@@ -4819,18 +4925,18 @@
       </c>
       <c r="P19" s="351"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="398">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="401">
         <v>567</v>
       </c>
-      <c r="B20" s="400">
+      <c r="B20" s="399">
         <v>43990</v>
       </c>
-      <c r="C20" s="398"/>
-      <c r="D20" s="402" t="s">
+      <c r="C20" s="401"/>
+      <c r="D20" s="397" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="402" t="s">
+      <c r="E20" s="397" t="s">
         <v>151</v>
       </c>
       <c r="F20" s="260" t="s">
@@ -4862,12 +4968,12 @@
       </c>
       <c r="P20" s="351"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="399"/>
-      <c r="B21" s="401"/>
-      <c r="C21" s="399"/>
-      <c r="D21" s="403"/>
-      <c r="E21" s="403"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="402"/>
+      <c r="B21" s="400"/>
+      <c r="C21" s="402"/>
+      <c r="D21" s="398"/>
+      <c r="E21" s="398"/>
       <c r="F21" s="260" t="s">
         <v>138</v>
       </c>
@@ -4897,18 +5003,18 @@
       </c>
       <c r="P21" s="351"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="398">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="401">
         <v>571</v>
       </c>
-      <c r="B22" s="400">
+      <c r="B22" s="399">
         <v>43990</v>
       </c>
-      <c r="C22" s="398"/>
-      <c r="D22" s="398" t="s">
+      <c r="C22" s="401"/>
+      <c r="D22" s="401" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="398" t="s">
+      <c r="E22" s="401" t="s">
         <v>153</v>
       </c>
       <c r="F22" s="260" t="s">
@@ -4925,25 +5031,31 @@
         <v>18360000</v>
       </c>
       <c r="J22" s="352"/>
-      <c r="K22" s="347"/>
+      <c r="K22" s="347">
+        <v>0.5</v>
+      </c>
       <c r="L22" s="142">
         <f t="shared" si="2"/>
-        <v>18360000</v>
+        <v>9180000</v>
       </c>
       <c r="M22" s="142"/>
       <c r="N22" s="346"/>
       <c r="O22" s="346">
         <f>L22</f>
-        <v>18360000</v>
+        <v>9180000</v>
       </c>
       <c r="P22" s="260"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="404"/>
-      <c r="B23" s="405"/>
-      <c r="C23" s="404"/>
-      <c r="D23" s="404"/>
-      <c r="E23" s="404"/>
+      <c r="R22" s="349">
+        <f>O12+O13+O14+O32+1348000+324000</f>
+        <v>1672000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="403"/>
+      <c r="B23" s="408"/>
+      <c r="C23" s="403"/>
+      <c r="D23" s="403"/>
+      <c r="E23" s="403"/>
       <c r="F23" s="260" t="s">
         <v>149</v>
       </c>
@@ -4958,25 +5070,27 @@
         <v>16380000</v>
       </c>
       <c r="J23" s="352"/>
-      <c r="K23" s="347"/>
+      <c r="K23" s="347">
+        <v>0.5</v>
+      </c>
       <c r="L23" s="142">
         <f t="shared" si="2"/>
-        <v>16380000</v>
+        <v>8190000</v>
       </c>
       <c r="M23" s="142"/>
       <c r="N23" s="346"/>
       <c r="O23" s="346">
         <f t="shared" ref="O23:O29" si="3">L23</f>
-        <v>16380000</v>
+        <v>8190000</v>
       </c>
       <c r="P23" s="260"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="404"/>
-      <c r="B24" s="405"/>
-      <c r="C24" s="404"/>
-      <c r="D24" s="404"/>
-      <c r="E24" s="404"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="403"/>
+      <c r="B24" s="408"/>
+      <c r="C24" s="403"/>
+      <c r="D24" s="403"/>
+      <c r="E24" s="403"/>
       <c r="F24" s="260" t="s">
         <v>154</v>
       </c>
@@ -4991,25 +5105,27 @@
         <v>39060000</v>
       </c>
       <c r="J24" s="352"/>
-      <c r="K24" s="347"/>
+      <c r="K24" s="347">
+        <v>0.5</v>
+      </c>
       <c r="L24" s="142">
         <f t="shared" si="2"/>
-        <v>39060000</v>
+        <v>19530000</v>
       </c>
       <c r="M24" s="346"/>
       <c r="N24" s="346"/>
       <c r="O24" s="346">
         <f t="shared" si="3"/>
-        <v>39060000</v>
+        <v>19530000</v>
       </c>
       <c r="P24" s="260"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="404"/>
-      <c r="B25" s="405"/>
-      <c r="C25" s="404"/>
-      <c r="D25" s="404"/>
-      <c r="E25" s="404"/>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="403"/>
+      <c r="B25" s="408"/>
+      <c r="C25" s="403"/>
+      <c r="D25" s="403"/>
+      <c r="E25" s="403"/>
       <c r="F25" s="260" t="s">
         <v>131</v>
       </c>
@@ -5024,25 +5140,27 @@
         <v>5700000</v>
       </c>
       <c r="J25" s="352"/>
-      <c r="K25" s="347"/>
+      <c r="K25" s="347">
+        <v>0.5</v>
+      </c>
       <c r="L25" s="142">
         <f t="shared" si="2"/>
-        <v>5700000</v>
+        <v>2850000</v>
       </c>
       <c r="M25" s="346"/>
       <c r="N25" s="346"/>
       <c r="O25" s="346">
         <f t="shared" si="3"/>
-        <v>5700000</v>
+        <v>2850000</v>
       </c>
       <c r="P25" s="260"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="404"/>
-      <c r="B26" s="405"/>
-      <c r="C26" s="404"/>
-      <c r="D26" s="404"/>
-      <c r="E26" s="404"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="403"/>
+      <c r="B26" s="408"/>
+      <c r="C26" s="403"/>
+      <c r="D26" s="403"/>
+      <c r="E26" s="403"/>
       <c r="F26" s="259" t="s">
         <v>155</v>
       </c>
@@ -5057,25 +5175,27 @@
         <v>29100000</v>
       </c>
       <c r="J26" s="354"/>
-      <c r="K26" s="355"/>
+      <c r="K26" s="347">
+        <v>0.5</v>
+      </c>
       <c r="L26" s="142">
         <f t="shared" si="2"/>
-        <v>29100000</v>
+        <v>14550000</v>
       </c>
       <c r="M26" s="353"/>
       <c r="N26" s="353"/>
       <c r="O26" s="346">
         <f t="shared" si="3"/>
-        <v>29100000</v>
+        <v>14550000</v>
       </c>
       <c r="P26" s="260"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="404"/>
-      <c r="B27" s="405"/>
-      <c r="C27" s="404"/>
-      <c r="D27" s="404"/>
-      <c r="E27" s="404"/>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="403"/>
+      <c r="B27" s="408"/>
+      <c r="C27" s="403"/>
+      <c r="D27" s="403"/>
+      <c r="E27" s="403"/>
       <c r="F27" s="260" t="s">
         <v>146</v>
       </c>
@@ -5089,26 +5209,28 @@
         <f t="shared" si="1"/>
         <v>13200000</v>
       </c>
-      <c r="J27" s="356"/>
-      <c r="K27" s="347"/>
+      <c r="J27" s="355"/>
+      <c r="K27" s="347">
+        <v>0.5</v>
+      </c>
       <c r="L27" s="142">
         <f t="shared" si="2"/>
-        <v>13200000</v>
+        <v>6600000</v>
       </c>
       <c r="M27" s="346"/>
       <c r="N27" s="346"/>
       <c r="O27" s="346">
         <f t="shared" si="3"/>
-        <v>13200000</v>
+        <v>6600000</v>
       </c>
       <c r="P27" s="260"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="404"/>
-      <c r="B28" s="405"/>
-      <c r="C28" s="404"/>
-      <c r="D28" s="404"/>
-      <c r="E28" s="404"/>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="403"/>
+      <c r="B28" s="408"/>
+      <c r="C28" s="403"/>
+      <c r="D28" s="403"/>
+      <c r="E28" s="403"/>
       <c r="F28" s="260" t="s">
         <v>156</v>
       </c>
@@ -5123,25 +5245,27 @@
         <v>21840000</v>
       </c>
       <c r="J28" s="346"/>
-      <c r="K28" s="347"/>
+      <c r="K28" s="347">
+        <v>0.5</v>
+      </c>
       <c r="L28" s="142">
         <f t="shared" si="2"/>
-        <v>21840000</v>
+        <v>10920000</v>
       </c>
       <c r="M28" s="346"/>
       <c r="N28" s="346"/>
       <c r="O28" s="346">
         <f t="shared" si="3"/>
-        <v>21840000</v>
+        <v>10920000</v>
       </c>
       <c r="P28" s="351"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="399"/>
-      <c r="B29" s="401"/>
-      <c r="C29" s="399"/>
-      <c r="D29" s="399"/>
-      <c r="E29" s="399"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="402"/>
+      <c r="B29" s="400"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="402"/>
+      <c r="E29" s="402"/>
       <c r="F29" s="260" t="s">
         <v>157</v>
       </c>
@@ -5156,33 +5280,35 @@
         <v>5460000</v>
       </c>
       <c r="J29" s="346"/>
-      <c r="K29" s="347"/>
+      <c r="K29" s="347">
+        <v>0.5</v>
+      </c>
       <c r="L29" s="142">
         <f t="shared" si="2"/>
-        <v>5460000</v>
+        <v>2730000</v>
       </c>
       <c r="M29" s="346"/>
       <c r="N29" s="346"/>
       <c r="O29" s="346">
         <f t="shared" si="3"/>
-        <v>5460000</v>
+        <v>2730000</v>
       </c>
       <c r="P29" s="260"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="398">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="401">
         <v>586</v>
       </c>
-      <c r="B30" s="400">
+      <c r="B30" s="399">
         <v>43991</v>
       </c>
-      <c r="C30" s="398" t="s">
+      <c r="C30" s="401" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="398" t="s">
+      <c r="D30" s="401" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="402"/>
+      <c r="E30" s="397"/>
       <c r="F30" s="260" t="s">
         <v>146</v>
       </c>
@@ -5204,20 +5330,22 @@
         <f t="shared" si="2"/>
         <v>324500.00000000006</v>
       </c>
-      <c r="M30" s="346"/>
+      <c r="M30" s="346">
+        <f>L30</f>
+        <v>324500.00000000006</v>
+      </c>
       <c r="N30" s="346"/>
-      <c r="O30" s="346">
-        <f t="shared" ref="O30:O37" si="4">L30</f>
-        <v>324500.00000000006</v>
-      </c>
-      <c r="P30" s="260"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="399"/>
-      <c r="B31" s="401"/>
-      <c r="C31" s="399"/>
-      <c r="D31" s="399"/>
-      <c r="E31" s="403"/>
+      <c r="O30" s="346"/>
+      <c r="P30" s="260" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="402"/>
+      <c r="B31" s="400"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="402"/>
+      <c r="E31" s="398"/>
       <c r="F31" s="260" t="s">
         <v>131</v>
       </c>
@@ -5239,15 +5367,17 @@
         <f t="shared" si="2"/>
         <v>280250.00000000006</v>
       </c>
-      <c r="M31" s="346"/>
+      <c r="M31" s="346">
+        <f>L31</f>
+        <v>280250.00000000006</v>
+      </c>
       <c r="N31" s="346"/>
-      <c r="O31" s="346">
-        <f t="shared" si="4"/>
-        <v>280250.00000000006</v>
-      </c>
-      <c r="P31" s="260"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O31" s="346"/>
+      <c r="P31" s="260" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="260">
         <v>570</v>
       </c>
@@ -5282,13 +5412,15 @@
         <f t="shared" si="2"/>
         <v>324500.00000000006</v>
       </c>
-      <c r="M32" s="346"/>
+      <c r="M32" s="346">
+        <f t="shared" ref="M32:M34" si="4">L32</f>
+        <v>324500.00000000006</v>
+      </c>
       <c r="N32" s="346"/>
-      <c r="O32" s="346">
-        <f t="shared" si="4"/>
-        <v>324500.00000000006</v>
-      </c>
-      <c r="P32" s="260"/>
+      <c r="O32" s="346"/>
+      <c r="P32" s="260" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="260">
@@ -5325,13 +5457,15 @@
         <f t="shared" si="2"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="M33" s="346"/>
-      <c r="N33" s="346"/>
-      <c r="O33" s="346">
+      <c r="M33" s="346">
         <f t="shared" si="4"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="P33" s="260"/>
+      <c r="N33" s="346"/>
+      <c r="O33" s="346"/>
+      <c r="P33" s="260" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="260">
@@ -5368,28 +5502,30 @@
         <f t="shared" si="2"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M34" s="346"/>
-      <c r="N34" s="346"/>
-      <c r="O34" s="346">
+      <c r="M34" s="346">
         <f t="shared" si="4"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="P34" s="260"/>
+      <c r="N34" s="346"/>
+      <c r="O34" s="346"/>
+      <c r="P34" s="260" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="398">
+      <c r="A35" s="401">
         <v>576</v>
       </c>
-      <c r="B35" s="400">
+      <c r="B35" s="399">
         <v>43995</v>
       </c>
-      <c r="C35" s="398" t="s">
+      <c r="C35" s="401" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="402" t="s">
+      <c r="D35" s="397" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="398" t="s">
+      <c r="E35" s="401" t="s">
         <v>182</v>
       </c>
       <c r="F35" s="260" t="s">
@@ -5416,17 +5552,17 @@
       <c r="M35" s="346"/>
       <c r="N35" s="346"/>
       <c r="O35" s="346">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O35:O37" si="5">L35</f>
         <v>2684500.0000000005</v>
       </c>
       <c r="P35" s="260"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="404"/>
-      <c r="B36" s="405"/>
-      <c r="C36" s="404"/>
-      <c r="D36" s="428"/>
-      <c r="E36" s="404"/>
+      <c r="A36" s="403"/>
+      <c r="B36" s="408"/>
+      <c r="C36" s="403"/>
+      <c r="D36" s="404"/>
+      <c r="E36" s="403"/>
       <c r="F36" s="260" t="s">
         <v>154</v>
       </c>
@@ -5451,17 +5587,17 @@
       <c r="M36" s="346"/>
       <c r="N36" s="346"/>
       <c r="O36" s="346">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>548700.00000000012</v>
       </c>
       <c r="P36" s="260"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="399"/>
-      <c r="B37" s="401"/>
-      <c r="C37" s="399"/>
-      <c r="D37" s="403"/>
-      <c r="E37" s="399"/>
+      <c r="A37" s="402"/>
+      <c r="B37" s="400"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="398"/>
+      <c r="E37" s="402"/>
       <c r="F37" s="260" t="s">
         <v>146</v>
       </c>
@@ -5486,7 +5622,7 @@
       <c r="M37" s="346"/>
       <c r="N37" s="346"/>
       <c r="O37" s="346">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1622500.0000000002</v>
       </c>
       <c r="P37" s="260"/>
@@ -5571,28 +5707,30 @@
         <f t="shared" si="2"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M39" s="346"/>
+      <c r="M39" s="346">
+        <f>L39</f>
+        <v>268450.00000000006</v>
+      </c>
       <c r="N39" s="346"/>
-      <c r="O39" s="346">
-        <f t="shared" ref="O39:O54" si="5">L39</f>
-        <v>268450.00000000006</v>
-      </c>
-      <c r="P39" s="260"/>
+      <c r="O39" s="346"/>
+      <c r="P39" s="260" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="398">
+      <c r="A40" s="401">
         <v>582</v>
       </c>
-      <c r="B40" s="400">
+      <c r="B40" s="399">
         <v>43995</v>
       </c>
-      <c r="C40" s="398" t="s">
+      <c r="C40" s="401" t="s">
         <v>183</v>
       </c>
-      <c r="D40" s="402" t="s">
+      <c r="D40" s="397" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="398" t="s">
+      <c r="E40" s="401" t="s">
         <v>186</v>
       </c>
       <c r="F40" s="260" t="s">
@@ -5619,17 +5757,17 @@
       <c r="M40" s="346"/>
       <c r="N40" s="346"/>
       <c r="O40" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="O40:O53" si="6">L40</f>
         <v>0</v>
       </c>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="404"/>
-      <c r="B41" s="405"/>
-      <c r="C41" s="404"/>
-      <c r="D41" s="428"/>
-      <c r="E41" s="404"/>
+      <c r="A41" s="403"/>
+      <c r="B41" s="408"/>
+      <c r="C41" s="403"/>
+      <c r="D41" s="404"/>
+      <c r="E41" s="403"/>
       <c r="F41" s="260" t="s">
         <v>137</v>
       </c>
@@ -5654,17 +5792,17 @@
       <c r="M41" s="346"/>
       <c r="N41" s="346"/>
       <c r="O41" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P41" s="260"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="404"/>
-      <c r="B42" s="405"/>
-      <c r="C42" s="404"/>
-      <c r="D42" s="428"/>
-      <c r="E42" s="404"/>
+      <c r="A42" s="403"/>
+      <c r="B42" s="408"/>
+      <c r="C42" s="403"/>
+      <c r="D42" s="404"/>
+      <c r="E42" s="403"/>
       <c r="F42" s="260" t="s">
         <v>187</v>
       </c>
@@ -5689,17 +5827,17 @@
       <c r="M42" s="346"/>
       <c r="N42" s="346"/>
       <c r="O42" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P42" s="260"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="404"/>
-      <c r="B43" s="405"/>
-      <c r="C43" s="404"/>
-      <c r="D43" s="428"/>
-      <c r="E43" s="404"/>
+      <c r="A43" s="403"/>
+      <c r="B43" s="408"/>
+      <c r="C43" s="403"/>
+      <c r="D43" s="404"/>
+      <c r="E43" s="403"/>
       <c r="F43" s="260" t="s">
         <v>188</v>
       </c>
@@ -5724,17 +5862,17 @@
       <c r="M43" s="346"/>
       <c r="N43" s="346"/>
       <c r="O43" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P43" s="260"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="404"/>
-      <c r="B44" s="405"/>
-      <c r="C44" s="404"/>
-      <c r="D44" s="428"/>
-      <c r="E44" s="404"/>
+      <c r="A44" s="403"/>
+      <c r="B44" s="408"/>
+      <c r="C44" s="403"/>
+      <c r="D44" s="404"/>
+      <c r="E44" s="403"/>
       <c r="F44" s="260" t="s">
         <v>189</v>
       </c>
@@ -5759,17 +5897,17 @@
       <c r="M44" s="346"/>
       <c r="N44" s="346"/>
       <c r="O44" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P44" s="260"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="404"/>
-      <c r="B45" s="405"/>
-      <c r="C45" s="404"/>
-      <c r="D45" s="428"/>
-      <c r="E45" s="404"/>
+      <c r="A45" s="403"/>
+      <c r="B45" s="408"/>
+      <c r="C45" s="403"/>
+      <c r="D45" s="404"/>
+      <c r="E45" s="403"/>
       <c r="F45" s="260" t="s">
         <v>141</v>
       </c>
@@ -5794,17 +5932,17 @@
       <c r="M45" s="346"/>
       <c r="N45" s="346"/>
       <c r="O45" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P45" s="260"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="404"/>
-      <c r="B46" s="405"/>
-      <c r="C46" s="404"/>
-      <c r="D46" s="428"/>
-      <c r="E46" s="404"/>
+      <c r="A46" s="403"/>
+      <c r="B46" s="408"/>
+      <c r="C46" s="403"/>
+      <c r="D46" s="404"/>
+      <c r="E46" s="403"/>
       <c r="F46" s="260" t="s">
         <v>138</v>
       </c>
@@ -5829,17 +5967,17 @@
       <c r="M46" s="346"/>
       <c r="N46" s="346"/>
       <c r="O46" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P46" s="260"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="399"/>
-      <c r="B47" s="401"/>
-      <c r="C47" s="399"/>
-      <c r="D47" s="403"/>
-      <c r="E47" s="399"/>
+      <c r="A47" s="402"/>
+      <c r="B47" s="400"/>
+      <c r="C47" s="402"/>
+      <c r="D47" s="398"/>
+      <c r="E47" s="402"/>
       <c r="F47" s="260" t="s">
         <v>146</v>
       </c>
@@ -5864,24 +6002,24 @@
       <c r="M47" s="346"/>
       <c r="N47" s="346"/>
       <c r="O47" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P47" s="260"/>
       <c r="Q47" s="349"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="398">
+      <c r="A48" s="401">
         <v>585</v>
       </c>
-      <c r="B48" s="429">
+      <c r="B48" s="405">
         <v>43997</v>
       </c>
-      <c r="C48" s="398"/>
-      <c r="D48" s="402" t="s">
+      <c r="C48" s="401"/>
+      <c r="D48" s="397" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="398" t="s">
+      <c r="E48" s="401" t="s">
         <v>134</v>
       </c>
       <c r="F48" s="260" t="s">
@@ -5910,18 +6048,18 @@
       <c r="M48" s="346"/>
       <c r="N48" s="346"/>
       <c r="O48" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6192800.0000000009</v>
       </c>
       <c r="P48" s="260"/>
       <c r="Q48" s="349"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="404"/>
-      <c r="B49" s="430"/>
-      <c r="C49" s="404"/>
-      <c r="D49" s="428"/>
-      <c r="E49" s="404"/>
+      <c r="A49" s="403"/>
+      <c r="B49" s="406"/>
+      <c r="C49" s="403"/>
+      <c r="D49" s="404"/>
+      <c r="E49" s="403"/>
       <c r="F49" s="260" t="s">
         <v>154</v>
       </c>
@@ -5946,18 +6084,18 @@
       <c r="M49" s="346"/>
       <c r="N49" s="346"/>
       <c r="O49" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3292200.0000000005</v>
       </c>
       <c r="P49" s="260"/>
       <c r="Q49" s="349"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="404"/>
-      <c r="B50" s="430"/>
-      <c r="C50" s="404"/>
-      <c r="D50" s="428"/>
-      <c r="E50" s="404"/>
+      <c r="A50" s="403"/>
+      <c r="B50" s="406"/>
+      <c r="C50" s="403"/>
+      <c r="D50" s="404"/>
+      <c r="E50" s="403"/>
       <c r="F50" s="260" t="s">
         <v>131</v>
       </c>
@@ -5982,18 +6120,18 @@
       <c r="M50" s="346"/>
       <c r="N50" s="346"/>
       <c r="O50" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3363000.0000000005</v>
       </c>
       <c r="P50" s="260"/>
       <c r="Q50" s="349"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="399"/>
-      <c r="B51" s="431"/>
-      <c r="C51" s="399"/>
-      <c r="D51" s="403"/>
-      <c r="E51" s="399"/>
+      <c r="A51" s="402"/>
+      <c r="B51" s="407"/>
+      <c r="C51" s="402"/>
+      <c r="D51" s="398"/>
+      <c r="E51" s="402"/>
       <c r="F51" s="260" t="s">
         <v>155</v>
       </c>
@@ -6018,24 +6156,26 @@
       <c r="M51" s="346"/>
       <c r="N51" s="346"/>
       <c r="O51" s="346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3433800.0000000005</v>
       </c>
       <c r="P51" s="260"/>
       <c r="Q51" s="349"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="398">
+      <c r="A52" s="401">
         <v>587</v>
       </c>
-      <c r="B52" s="400">
+      <c r="B52" s="399">
         <v>43995</v>
       </c>
-      <c r="C52" s="345"/>
-      <c r="D52" s="402" t="s">
+      <c r="C52" s="401"/>
+      <c r="D52" s="397" t="s">
         <v>152</v>
       </c>
-      <c r="E52" s="141"/>
+      <c r="E52" s="401" t="s">
+        <v>153</v>
+      </c>
       <c r="F52" s="260" t="s">
         <v>131</v>
       </c>
@@ -6050,26 +6190,28 @@
         <v>5700000</v>
       </c>
       <c r="J52" s="346"/>
-      <c r="K52" s="347"/>
+      <c r="K52" s="347">
+        <v>0.5</v>
+      </c>
       <c r="L52" s="346">
         <f t="shared" si="2"/>
-        <v>5700000</v>
+        <v>2850000</v>
       </c>
       <c r="M52" s="346"/>
       <c r="N52" s="346"/>
       <c r="O52" s="346">
-        <f t="shared" si="5"/>
-        <v>5700000</v>
+        <f t="shared" si="6"/>
+        <v>2850000</v>
       </c>
       <c r="P52" s="260"/>
       <c r="Q52" s="349"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="399"/>
-      <c r="B53" s="401"/>
-      <c r="C53" s="345"/>
-      <c r="D53" s="403"/>
-      <c r="E53" s="141"/>
+      <c r="A53" s="402"/>
+      <c r="B53" s="400"/>
+      <c r="C53" s="402"/>
+      <c r="D53" s="398"/>
+      <c r="E53" s="402"/>
       <c r="F53" s="260" t="s">
         <v>190</v>
       </c>
@@ -6084,16 +6226,18 @@
         <v>5820000</v>
       </c>
       <c r="J53" s="346"/>
-      <c r="K53" s="347"/>
+      <c r="K53" s="347">
+        <v>0.5</v>
+      </c>
       <c r="L53" s="346">
         <f t="shared" si="2"/>
-        <v>5820000</v>
+        <v>2910000</v>
       </c>
       <c r="M53" s="346"/>
       <c r="N53" s="346"/>
       <c r="O53" s="346">
-        <f t="shared" si="5"/>
-        <v>5820000</v>
+        <f t="shared" si="6"/>
+        <v>2910000</v>
       </c>
       <c r="P53" s="260"/>
       <c r="Q53" s="349"/>
@@ -6133,13 +6277,15 @@
         <f t="shared" si="2"/>
         <v>280250.00000000006</v>
       </c>
-      <c r="M54" s="346"/>
+      <c r="M54" s="346">
+        <f>L54</f>
+        <v>280250.00000000006</v>
+      </c>
       <c r="N54" s="346"/>
-      <c r="O54" s="346">
-        <f t="shared" si="5"/>
-        <v>280250.00000000006</v>
-      </c>
-      <c r="P54" s="260"/>
+      <c r="O54" s="346"/>
+      <c r="P54" s="260" t="s">
+        <v>239</v>
+      </c>
       <c r="Q54" s="349"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,691 +6331,1479 @@
         <v>1097400.0000000002</v>
       </c>
       <c r="O55" s="346"/>
-      <c r="P55" s="260"/>
+      <c r="P55" s="260" t="s">
+        <v>240</v>
+      </c>
       <c r="Q55" s="349"/>
     </row>
-    <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="260"/>
-      <c r="B56" s="144"/>
-      <c r="C56" s="345"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="260"/>
-      <c r="G56" s="260"/>
-      <c r="H56" s="346"/>
-      <c r="I56" s="346"/>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="260">
+        <v>590</v>
+      </c>
+      <c r="B56" s="144">
+        <v>44000</v>
+      </c>
+      <c r="C56" s="345" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="146" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="141" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" s="260" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="260">
+        <v>7</v>
+      </c>
+      <c r="H56" s="346">
+        <v>550000</v>
+      </c>
+      <c r="I56" s="346">
+        <f t="shared" si="1"/>
+        <v>3850000</v>
+      </c>
       <c r="J56" s="346"/>
-      <c r="K56" s="347"/>
-      <c r="L56" s="346"/>
+      <c r="K56" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L56" s="346">
+        <f t="shared" si="2"/>
+        <v>2271500.0000000005</v>
+      </c>
       <c r="M56" s="346"/>
-      <c r="N56" s="346"/>
+      <c r="N56" s="346">
+        <f>L56</f>
+        <v>2271500.0000000005</v>
+      </c>
       <c r="O56" s="346"/>
       <c r="P56" s="260"/>
       <c r="Q56" s="349"/>
     </row>
-    <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="260"/>
-      <c r="B57" s="359"/>
-      <c r="C57" s="345"/>
-      <c r="D57" s="260"/>
-      <c r="E57" s="260"/>
-      <c r="F57" s="260"/>
-      <c r="G57" s="260"/>
-      <c r="H57" s="346"/>
-      <c r="I57" s="346"/>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="401">
+        <v>592</v>
+      </c>
+      <c r="B57" s="405">
+        <v>43999</v>
+      </c>
+      <c r="C57" s="401"/>
+      <c r="D57" s="401" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="401" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="260" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="260">
+        <v>24</v>
+      </c>
+      <c r="H57" s="346">
+        <v>225000</v>
+      </c>
+      <c r="I57" s="346">
+        <f t="shared" si="1"/>
+        <v>5400000</v>
+      </c>
       <c r="J57" s="346"/>
-      <c r="K57" s="347"/>
-      <c r="L57" s="346"/>
+      <c r="K57" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L57" s="346">
+        <f t="shared" si="2"/>
+        <v>2700000</v>
+      </c>
       <c r="M57" s="346"/>
       <c r="N57" s="346"/>
-      <c r="O57" s="346"/>
-      <c r="P57" s="260"/>
-    </row>
-    <row r="58" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="260"/>
-      <c r="B58" s="359"/>
-      <c r="C58" s="345"/>
-      <c r="D58" s="260"/>
-      <c r="E58" s="260"/>
-      <c r="F58" s="260"/>
-      <c r="G58" s="260"/>
-      <c r="H58" s="346"/>
-      <c r="I58" s="346"/>
+      <c r="O57" s="346">
+        <f>L57</f>
+        <v>2700000</v>
+      </c>
+      <c r="P57" s="397" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="403"/>
+      <c r="B58" s="406"/>
+      <c r="C58" s="403"/>
+      <c r="D58" s="403"/>
+      <c r="E58" s="403"/>
+      <c r="F58" s="260" t="s">
+        <v>137</v>
+      </c>
+      <c r="G58" s="260">
+        <v>2</v>
+      </c>
+      <c r="H58" s="346">
+        <v>235000</v>
+      </c>
+      <c r="I58" s="346">
+        <f t="shared" si="1"/>
+        <v>470000</v>
+      </c>
       <c r="J58" s="346"/>
-      <c r="K58" s="347"/>
-      <c r="L58" s="346"/>
+      <c r="K58" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L58" s="346">
+        <f t="shared" si="2"/>
+        <v>235000</v>
+      </c>
       <c r="M58" s="346"/>
       <c r="N58" s="346"/>
-      <c r="O58" s="346" t="s">
-        <v>193</v>
-      </c>
-      <c r="P58" s="260"/>
-    </row>
-    <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="260"/>
-      <c r="B59" s="144"/>
-      <c r="C59" s="345"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="260"/>
-      <c r="G59" s="260"/>
-      <c r="H59" s="346"/>
-      <c r="I59" s="346"/>
+      <c r="O58" s="346">
+        <f t="shared" ref="O58:O67" si="7">L58</f>
+        <v>235000</v>
+      </c>
+      <c r="P58" s="404"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="403"/>
+      <c r="B59" s="406"/>
+      <c r="C59" s="403"/>
+      <c r="D59" s="403"/>
+      <c r="E59" s="403"/>
+      <c r="F59" s="260" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59" s="260">
+        <v>11</v>
+      </c>
+      <c r="H59" s="346">
+        <v>465000</v>
+      </c>
+      <c r="I59" s="346">
+        <f t="shared" si="1"/>
+        <v>5115000</v>
+      </c>
       <c r="J59" s="346"/>
-      <c r="K59" s="347"/>
-      <c r="L59" s="346"/>
+      <c r="K59" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L59" s="346">
+        <f t="shared" si="2"/>
+        <v>2557500</v>
+      </c>
       <c r="M59" s="346"/>
       <c r="N59" s="346"/>
-      <c r="O59" s="346"/>
-      <c r="P59" s="260"/>
-    </row>
-    <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="260"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="345"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="141"/>
-      <c r="F60" s="260"/>
-      <c r="G60" s="260"/>
-      <c r="H60" s="346"/>
-      <c r="I60" s="346"/>
+      <c r="O59" s="346">
+        <f t="shared" si="7"/>
+        <v>2557500</v>
+      </c>
+      <c r="P59" s="404"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="403"/>
+      <c r="B60" s="406"/>
+      <c r="C60" s="403"/>
+      <c r="D60" s="403"/>
+      <c r="E60" s="403"/>
+      <c r="F60" s="260" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="260">
+        <v>12</v>
+      </c>
+      <c r="H60" s="346">
+        <v>475000</v>
+      </c>
+      <c r="I60" s="346">
+        <f t="shared" si="1"/>
+        <v>5700000</v>
+      </c>
       <c r="J60" s="346"/>
-      <c r="K60" s="347"/>
-      <c r="L60" s="346"/>
+      <c r="K60" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L60" s="346">
+        <f t="shared" si="2"/>
+        <v>2850000</v>
+      </c>
       <c r="M60" s="346"/>
       <c r="N60" s="346"/>
-      <c r="O60" s="346"/>
-      <c r="P60" s="260"/>
-    </row>
-    <row r="61" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="260"/>
-      <c r="B61" s="144"/>
-      <c r="C61" s="345"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="260"/>
-      <c r="G61" s="260"/>
-      <c r="H61" s="346"/>
-      <c r="I61" s="346"/>
+      <c r="O60" s="346">
+        <f t="shared" si="7"/>
+        <v>2850000</v>
+      </c>
+      <c r="P60" s="404"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="403"/>
+      <c r="B61" s="406"/>
+      <c r="C61" s="403"/>
+      <c r="D61" s="403"/>
+      <c r="E61" s="403"/>
+      <c r="F61" s="260" t="s">
+        <v>155</v>
+      </c>
+      <c r="G61" s="260">
+        <v>12</v>
+      </c>
+      <c r="H61" s="346">
+        <v>485000</v>
+      </c>
+      <c r="I61" s="346">
+        <f t="shared" si="1"/>
+        <v>5820000</v>
+      </c>
       <c r="J61" s="346"/>
-      <c r="K61" s="347"/>
-      <c r="L61" s="346"/>
+      <c r="K61" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L61" s="346">
+        <f t="shared" si="2"/>
+        <v>2910000</v>
+      </c>
       <c r="M61" s="346"/>
       <c r="N61" s="346"/>
-      <c r="O61" s="346"/>
-      <c r="P61" s="260"/>
-    </row>
-    <row r="62" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="260"/>
-      <c r="B62" s="144"/>
-      <c r="C62" s="345"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="260"/>
-      <c r="G62" s="260"/>
-      <c r="H62" s="346"/>
-      <c r="I62" s="346"/>
+      <c r="O61" s="346">
+        <f t="shared" si="7"/>
+        <v>2910000</v>
+      </c>
+      <c r="P61" s="404"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="403"/>
+      <c r="B62" s="406"/>
+      <c r="C62" s="403"/>
+      <c r="D62" s="403"/>
+      <c r="E62" s="403"/>
+      <c r="F62" s="260" t="s">
+        <v>190</v>
+      </c>
+      <c r="G62" s="260">
+        <v>12</v>
+      </c>
+      <c r="H62" s="346">
+        <v>485000</v>
+      </c>
+      <c r="I62" s="346">
+        <f t="shared" si="1"/>
+        <v>5820000</v>
+      </c>
       <c r="J62" s="346"/>
-      <c r="K62" s="347"/>
-      <c r="L62" s="346"/>
+      <c r="K62" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L62" s="346">
+        <f t="shared" si="2"/>
+        <v>2910000</v>
+      </c>
       <c r="M62" s="346"/>
       <c r="N62" s="346"/>
-      <c r="O62" s="346"/>
-      <c r="P62" s="260"/>
-    </row>
-    <row r="63" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="260"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="345"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="260"/>
-      <c r="G63" s="260"/>
-      <c r="H63" s="346"/>
-      <c r="I63" s="346"/>
+      <c r="O62" s="346">
+        <f t="shared" si="7"/>
+        <v>2910000</v>
+      </c>
+      <c r="P62" s="404"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="403"/>
+      <c r="B63" s="406"/>
+      <c r="C63" s="403"/>
+      <c r="D63" s="403"/>
+      <c r="E63" s="403"/>
+      <c r="F63" s="260" t="s">
+        <v>146</v>
+      </c>
+      <c r="G63" s="260">
+        <v>24</v>
+      </c>
+      <c r="H63" s="346">
+        <v>550000</v>
+      </c>
+      <c r="I63" s="346">
+        <f t="shared" si="1"/>
+        <v>13200000</v>
+      </c>
       <c r="J63" s="346"/>
-      <c r="K63" s="347"/>
-      <c r="L63" s="346"/>
+      <c r="K63" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L63" s="346">
+        <f t="shared" si="2"/>
+        <v>6600000</v>
+      </c>
       <c r="M63" s="346"/>
       <c r="N63" s="346"/>
-      <c r="O63" s="346"/>
-      <c r="P63" s="260"/>
-    </row>
-    <row r="64" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="260"/>
-      <c r="B64" s="357"/>
-      <c r="C64" s="345"/>
-      <c r="D64" s="351"/>
-      <c r="E64" s="260"/>
-      <c r="F64" s="260"/>
-      <c r="G64" s="260"/>
-      <c r="H64" s="346"/>
-      <c r="I64" s="346"/>
+      <c r="O63" s="346">
+        <f t="shared" si="7"/>
+        <v>6600000</v>
+      </c>
+      <c r="P63" s="404"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="403"/>
+      <c r="B64" s="406"/>
+      <c r="C64" s="403"/>
+      <c r="D64" s="403"/>
+      <c r="E64" s="403"/>
+      <c r="F64" s="260" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" s="260">
+        <v>12</v>
+      </c>
+      <c r="H64" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I64" s="346">
+        <f t="shared" si="1"/>
+        <v>5460000</v>
+      </c>
       <c r="J64" s="346"/>
-      <c r="K64" s="347"/>
-      <c r="L64" s="346"/>
+      <c r="K64" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L64" s="346">
+        <f t="shared" si="2"/>
+        <v>2730000</v>
+      </c>
       <c r="M64" s="346"/>
       <c r="N64" s="346"/>
-      <c r="O64" s="346"/>
-      <c r="P64" s="260"/>
-    </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="260"/>
-      <c r="B65" s="358"/>
-      <c r="C65" s="345"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="260"/>
-      <c r="G65" s="260"/>
-      <c r="H65" s="346"/>
-      <c r="I65" s="346"/>
+      <c r="O64" s="346">
+        <f t="shared" si="7"/>
+        <v>2730000</v>
+      </c>
+      <c r="P64" s="404"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="402"/>
+      <c r="B65" s="407"/>
+      <c r="C65" s="402"/>
+      <c r="D65" s="402"/>
+      <c r="E65" s="402"/>
+      <c r="F65" s="260" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="260">
+        <v>12</v>
+      </c>
+      <c r="H65" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I65" s="346">
+        <f t="shared" si="1"/>
+        <v>5460000</v>
+      </c>
       <c r="J65" s="346"/>
-      <c r="K65" s="347"/>
-      <c r="L65" s="346"/>
+      <c r="K65" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L65" s="346">
+        <f t="shared" si="2"/>
+        <v>2730000</v>
+      </c>
       <c r="M65" s="346"/>
       <c r="N65" s="346"/>
-      <c r="O65" s="346"/>
-      <c r="P65" s="260"/>
-    </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="260"/>
-      <c r="B66" s="358"/>
+      <c r="O65" s="346">
+        <f t="shared" si="7"/>
+        <v>2730000</v>
+      </c>
+      <c r="P65" s="398"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="260">
+        <v>593</v>
+      </c>
+      <c r="B66" s="357">
+        <v>43999</v>
+      </c>
       <c r="C66" s="345"/>
-      <c r="D66" s="141"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="260"/>
-      <c r="G66" s="260"/>
-      <c r="H66" s="346"/>
-      <c r="I66" s="346"/>
+      <c r="D66" s="141" t="s">
+        <v>228</v>
+      </c>
+      <c r="E66" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="F66" s="260" t="s">
+        <v>141</v>
+      </c>
+      <c r="G66" s="260">
+        <v>4</v>
+      </c>
+      <c r="H66" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I66" s="346">
+        <f t="shared" si="1"/>
+        <v>1820000</v>
+      </c>
       <c r="J66" s="346"/>
-      <c r="K66" s="347"/>
-      <c r="L66" s="346"/>
+      <c r="K66" s="347">
+        <v>1</v>
+      </c>
+      <c r="L66" s="346">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M66" s="346"/>
       <c r="N66" s="346"/>
-      <c r="O66" s="346"/>
+      <c r="O66" s="346">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P66" s="260"/>
     </row>
     <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="260"/>
-      <c r="B67" s="359"/>
+      <c r="A67" s="260">
+        <v>595</v>
+      </c>
+      <c r="B67" s="358">
+        <v>44002</v>
+      </c>
       <c r="C67" s="345"/>
-      <c r="D67" s="260"/>
-      <c r="E67" s="260"/>
-      <c r="F67" s="260"/>
-      <c r="G67" s="260"/>
-      <c r="H67" s="346"/>
-      <c r="I67" s="346"/>
+      <c r="D67" s="260" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="260" t="s">
+        <v>185</v>
+      </c>
+      <c r="F67" s="260" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" s="260">
+        <v>2</v>
+      </c>
+      <c r="H67" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I67" s="346">
+        <f t="shared" si="1"/>
+        <v>910000</v>
+      </c>
       <c r="J67" s="346"/>
-      <c r="K67" s="347"/>
-      <c r="L67" s="346"/>
-      <c r="M67" s="346"/>
+      <c r="K67" s="347">
+        <v>0.38</v>
+      </c>
+      <c r="L67" s="346">
+        <f t="shared" si="2"/>
+        <v>564200</v>
+      </c>
+      <c r="M67" s="346">
+        <f>L67</f>
+        <v>564200</v>
+      </c>
       <c r="N67" s="346"/>
       <c r="O67" s="346"/>
       <c r="P67" s="260"/>
     </row>
     <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="260"/>
-      <c r="B68" s="359"/>
+      <c r="A68" s="260">
+        <v>597</v>
+      </c>
+      <c r="B68" s="358">
+        <v>44002</v>
+      </c>
       <c r="C68" s="345"/>
-      <c r="D68" s="260"/>
-      <c r="E68" s="260"/>
-      <c r="F68" s="260"/>
-      <c r="G68" s="260"/>
-      <c r="H68" s="346"/>
-      <c r="I68" s="346"/>
+      <c r="D68" s="260" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="260" t="s">
+        <v>153</v>
+      </c>
+      <c r="F68" s="260" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68" s="260">
+        <v>60</v>
+      </c>
+      <c r="H68" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I68" s="346">
+        <f t="shared" si="1"/>
+        <v>27300000</v>
+      </c>
       <c r="J68" s="346"/>
-      <c r="K68" s="347"/>
-      <c r="L68" s="346"/>
+      <c r="K68" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L68" s="346">
+        <f t="shared" si="2"/>
+        <v>13650000</v>
+      </c>
       <c r="M68" s="346"/>
       <c r="N68" s="346"/>
-      <c r="O68" s="346"/>
-      <c r="P68" s="260"/>
-    </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="260"/>
-      <c r="B69" s="358"/>
+      <c r="O68" s="346">
+        <f>L68</f>
+        <v>13650000</v>
+      </c>
+      <c r="P68" s="260" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="260">
+        <v>598</v>
+      </c>
+      <c r="B69" s="357">
+        <v>44004</v>
+      </c>
       <c r="C69" s="345"/>
-      <c r="D69" s="146"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="260"/>
-      <c r="G69" s="260"/>
-      <c r="H69" s="346"/>
-      <c r="I69" s="346"/>
+      <c r="D69" s="146" t="s">
+        <v>230</v>
+      </c>
+      <c r="E69" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" s="260" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="260">
+        <v>10</v>
+      </c>
+      <c r="H69" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I69" s="346">
+        <f t="shared" si="1"/>
+        <v>4550000</v>
+      </c>
       <c r="J69" s="346"/>
-      <c r="K69" s="347"/>
-      <c r="L69" s="346"/>
+      <c r="K69" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L69" s="346">
+        <f t="shared" si="2"/>
+        <v>2684500.0000000005</v>
+      </c>
       <c r="M69" s="346"/>
       <c r="N69" s="346"/>
-      <c r="O69" s="346"/>
+      <c r="O69" s="346">
+        <f>L69</f>
+        <v>2684500.0000000005</v>
+      </c>
       <c r="P69" s="260"/>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="260"/>
-      <c r="B70" s="358"/>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="260">
+        <v>599</v>
+      </c>
+      <c r="B70" s="357">
+        <v>44004</v>
+      </c>
       <c r="C70" s="345"/>
-      <c r="D70" s="146"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="260"/>
-      <c r="G70" s="260"/>
-      <c r="H70" s="346"/>
-      <c r="I70" s="346"/>
+      <c r="D70" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" s="141" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="260" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" s="260">
+        <v>12</v>
+      </c>
+      <c r="H70" s="346">
+        <v>485000</v>
+      </c>
+      <c r="I70" s="346">
+        <f t="shared" si="1"/>
+        <v>5820000</v>
+      </c>
       <c r="J70" s="346"/>
-      <c r="K70" s="347"/>
-      <c r="L70" s="346"/>
+      <c r="K70" s="347">
+        <v>0.3</v>
+      </c>
+      <c r="L70" s="346">
+        <f t="shared" si="2"/>
+        <v>4073999.9999999995</v>
+      </c>
       <c r="M70" s="346"/>
       <c r="N70" s="346"/>
-      <c r="O70" s="346"/>
+      <c r="O70" s="346">
+        <f>L70</f>
+        <v>4073999.9999999995</v>
+      </c>
       <c r="P70" s="260"/>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="260"/>
-      <c r="B71" s="358"/>
-      <c r="C71" s="345"/>
-      <c r="D71" s="146"/>
-      <c r="E71" s="141"/>
-      <c r="F71" s="260"/>
-      <c r="G71" s="260"/>
-      <c r="H71" s="346"/>
-      <c r="I71" s="346"/>
-      <c r="J71" s="346"/>
-      <c r="K71" s="347"/>
-      <c r="L71" s="346"/>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="401">
+        <v>1152</v>
+      </c>
+      <c r="B71" s="405">
+        <v>44006</v>
+      </c>
+      <c r="C71" s="401"/>
+      <c r="D71" s="397" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="401" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="260" t="s">
+        <v>135</v>
+      </c>
+      <c r="G71" s="260">
+        <v>24</v>
+      </c>
+      <c r="H71" s="346">
+        <v>225000</v>
+      </c>
+      <c r="I71" s="346">
+        <f t="shared" si="1"/>
+        <v>5400000</v>
+      </c>
+      <c r="J71" s="346">
+        <v>250000</v>
+      </c>
+      <c r="K71" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L71" s="346">
+        <f>I71*(1-K71)-J71</f>
+        <v>2936000.0000000005</v>
+      </c>
       <c r="M71" s="346"/>
       <c r="N71" s="346"/>
-      <c r="O71" s="346"/>
+      <c r="O71" s="346">
+        <f>L71</f>
+        <v>2936000.0000000005</v>
+      </c>
       <c r="P71" s="260"/>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="260"/>
-      <c r="B72" s="358"/>
-      <c r="C72" s="345"/>
-      <c r="D72" s="146"/>
-      <c r="E72" s="141"/>
-      <c r="F72" s="260"/>
-      <c r="G72" s="260"/>
-      <c r="H72" s="346"/>
-      <c r="I72" s="346"/>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="403"/>
+      <c r="B72" s="406"/>
+      <c r="C72" s="403"/>
+      <c r="D72" s="404"/>
+      <c r="E72" s="403"/>
+      <c r="F72" s="260" t="s">
+        <v>149</v>
+      </c>
+      <c r="G72" s="260">
+        <v>24</v>
+      </c>
+      <c r="H72" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I72" s="346">
+        <f t="shared" si="1"/>
+        <v>10920000</v>
+      </c>
       <c r="J72" s="346"/>
-      <c r="K72" s="347"/>
-      <c r="L72" s="346"/>
+      <c r="K72" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L72" s="346">
+        <f t="shared" si="2"/>
+        <v>6442800.0000000009</v>
+      </c>
       <c r="M72" s="346"/>
       <c r="N72" s="346"/>
-      <c r="O72" s="346"/>
+      <c r="O72" s="346">
+        <f>L72</f>
+        <v>6442800.0000000009</v>
+      </c>
       <c r="P72" s="260"/>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="260"/>
-      <c r="B73" s="358"/>
-      <c r="C73" s="345"/>
-      <c r="D73" s="146"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="260"/>
-      <c r="G73" s="260"/>
-      <c r="H73" s="346"/>
-      <c r="I73" s="346"/>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="403"/>
+      <c r="B73" s="406"/>
+      <c r="C73" s="403"/>
+      <c r="D73" s="404"/>
+      <c r="E73" s="403"/>
+      <c r="F73" s="260" t="s">
+        <v>190</v>
+      </c>
+      <c r="G73" s="260">
+        <v>12</v>
+      </c>
+      <c r="H73" s="346">
+        <v>485000</v>
+      </c>
+      <c r="I73" s="346">
+        <f t="shared" si="1"/>
+        <v>5820000</v>
+      </c>
       <c r="J73" s="346"/>
-      <c r="K73" s="347"/>
-      <c r="L73" s="346"/>
+      <c r="K73" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L73" s="346">
+        <f t="shared" si="2"/>
+        <v>3433800.0000000005</v>
+      </c>
       <c r="M73" s="346"/>
       <c r="N73" s="346"/>
-      <c r="O73" s="346"/>
+      <c r="O73" s="346">
+        <f>L73</f>
+        <v>3433800.0000000005</v>
+      </c>
       <c r="P73" s="260"/>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="260"/>
-      <c r="B74" s="358"/>
-      <c r="C74" s="345"/>
-      <c r="D74" s="146"/>
-      <c r="E74" s="141"/>
-      <c r="F74" s="260"/>
-      <c r="G74" s="260"/>
-      <c r="H74" s="346"/>
-      <c r="I74" s="346"/>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="402"/>
+      <c r="B74" s="407"/>
+      <c r="C74" s="402"/>
+      <c r="D74" s="398"/>
+      <c r="E74" s="402"/>
+      <c r="F74" s="260" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" s="260">
+        <v>12</v>
+      </c>
+      <c r="H74" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I74" s="346">
+        <f t="shared" si="1"/>
+        <v>5460000</v>
+      </c>
       <c r="J74" s="346"/>
-      <c r="K74" s="347"/>
-      <c r="L74" s="346"/>
+      <c r="K74" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L74" s="346">
+        <f t="shared" si="2"/>
+        <v>3221400.0000000005</v>
+      </c>
       <c r="M74" s="346"/>
       <c r="N74" s="346"/>
-      <c r="O74" s="346"/>
+      <c r="O74" s="346">
+        <f>L74</f>
+        <v>3221400.0000000005</v>
+      </c>
       <c r="P74" s="260"/>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="260"/>
-      <c r="B75" s="358"/>
-      <c r="C75" s="345"/>
-      <c r="D75" s="141"/>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="401">
+        <v>1153</v>
+      </c>
+      <c r="B75" s="405">
+        <v>44005</v>
+      </c>
+      <c r="C75" s="401" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="401" t="s">
+        <v>233</v>
+      </c>
       <c r="E75" s="260"/>
-      <c r="F75" s="260"/>
-      <c r="G75" s="260"/>
-      <c r="H75" s="346"/>
-      <c r="I75" s="346"/>
+      <c r="F75" s="260" t="s">
+        <v>190</v>
+      </c>
+      <c r="G75" s="260">
+        <v>1</v>
+      </c>
+      <c r="H75" s="346">
+        <v>485000</v>
+      </c>
+      <c r="I75" s="346">
+        <f t="shared" si="1"/>
+        <v>485000</v>
+      </c>
       <c r="J75" s="346"/>
-      <c r="K75" s="347"/>
-      <c r="L75" s="346"/>
-      <c r="M75" s="346"/>
+      <c r="K75" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L75" s="346">
+        <f t="shared" si="2"/>
+        <v>286150.00000000006</v>
+      </c>
+      <c r="M75" s="346">
+        <f>L75</f>
+        <v>286150.00000000006</v>
+      </c>
       <c r="N75" s="346"/>
       <c r="O75" s="346"/>
       <c r="P75" s="260"/>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="260"/>
-      <c r="B76" s="358"/>
-      <c r="C76" s="345"/>
-      <c r="D76" s="141"/>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="402"/>
+      <c r="B76" s="407"/>
+      <c r="C76" s="402"/>
+      <c r="D76" s="402"/>
       <c r="E76" s="260"/>
-      <c r="F76" s="260"/>
-      <c r="G76" s="260"/>
-      <c r="H76" s="346"/>
-      <c r="I76" s="346"/>
+      <c r="F76" s="260" t="s">
+        <v>146</v>
+      </c>
+      <c r="G76" s="260">
+        <v>1</v>
+      </c>
+      <c r="H76" s="346">
+        <v>550000</v>
+      </c>
+      <c r="I76" s="346">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
       <c r="J76" s="346"/>
-      <c r="K76" s="347"/>
-      <c r="L76" s="346"/>
-      <c r="M76" s="346"/>
+      <c r="K76" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L76" s="346">
+        <f t="shared" si="2"/>
+        <v>324500.00000000006</v>
+      </c>
+      <c r="M76" s="346">
+        <f>L76</f>
+        <v>324500.00000000006</v>
+      </c>
       <c r="N76" s="346"/>
       <c r="O76" s="346"/>
       <c r="P76" s="260"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="260"/>
-      <c r="B77" s="359"/>
-      <c r="C77" s="345"/>
-      <c r="D77" s="260"/>
-      <c r="E77" s="260"/>
-      <c r="F77" s="260"/>
-      <c r="G77" s="260"/>
-      <c r="H77" s="346"/>
-      <c r="I77" s="346"/>
+      <c r="A77" s="385">
+        <v>1158</v>
+      </c>
+      <c r="B77" s="386">
+        <v>44006</v>
+      </c>
+      <c r="C77" s="385" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="385" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77" s="549">
+        <v>0.2</v>
+      </c>
+      <c r="F77" s="260" t="s">
+        <v>155</v>
+      </c>
+      <c r="G77" s="260">
+        <v>2</v>
+      </c>
+      <c r="H77" s="346">
+        <v>485000</v>
+      </c>
+      <c r="I77" s="346">
+        <f t="shared" si="1"/>
+        <v>970000</v>
+      </c>
       <c r="J77" s="346"/>
-      <c r="K77" s="347"/>
-      <c r="L77" s="346"/>
-      <c r="M77" s="346"/>
+      <c r="K77" s="347">
+        <v>0.2</v>
+      </c>
+      <c r="L77" s="346">
+        <f t="shared" si="2"/>
+        <v>776000</v>
+      </c>
+      <c r="M77" s="346">
+        <f>L77</f>
+        <v>776000</v>
+      </c>
       <c r="N77" s="346"/>
       <c r="O77" s="346"/>
-      <c r="P77" s="260"/>
+      <c r="P77" s="260" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="260"/>
-      <c r="B78" s="359"/>
-      <c r="C78" s="345"/>
-      <c r="D78" s="260"/>
-      <c r="E78" s="260"/>
-      <c r="F78" s="260"/>
-      <c r="G78" s="260"/>
-      <c r="H78" s="346"/>
-      <c r="I78" s="346"/>
+      <c r="A78" s="401">
+        <v>1154</v>
+      </c>
+      <c r="B78" s="405">
+        <v>44007</v>
+      </c>
+      <c r="C78" s="401" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="401" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="401" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" s="260" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="260">
+        <v>2</v>
+      </c>
+      <c r="H78" s="346">
+        <v>225000</v>
+      </c>
+      <c r="I78" s="346">
+        <f t="shared" si="1"/>
+        <v>450000</v>
+      </c>
       <c r="J78" s="346"/>
-      <c r="K78" s="347"/>
-      <c r="L78" s="346"/>
-      <c r="M78" s="346"/>
+      <c r="K78" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L78" s="346">
+        <f t="shared" si="2"/>
+        <v>265500.00000000006</v>
+      </c>
+      <c r="M78" s="346">
+        <f>L78</f>
+        <v>265500.00000000006</v>
+      </c>
       <c r="N78" s="346"/>
       <c r="O78" s="346"/>
-      <c r="P78" s="260"/>
+      <c r="P78" s="401" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="260"/>
-      <c r="B79" s="358"/>
-      <c r="C79" s="345"/>
-      <c r="D79" s="141"/>
-      <c r="E79" s="141"/>
-      <c r="F79" s="260"/>
-      <c r="G79" s="260"/>
-      <c r="H79" s="346"/>
-      <c r="I79" s="346"/>
+      <c r="A79" s="403"/>
+      <c r="B79" s="406"/>
+      <c r="C79" s="403"/>
+      <c r="D79" s="403"/>
+      <c r="E79" s="403"/>
+      <c r="F79" s="260" t="s">
+        <v>137</v>
+      </c>
+      <c r="G79" s="260">
+        <v>2</v>
+      </c>
+      <c r="H79" s="346">
+        <v>235000</v>
+      </c>
+      <c r="I79" s="346">
+        <f t="shared" si="1"/>
+        <v>470000</v>
+      </c>
       <c r="J79" s="346"/>
-      <c r="K79" s="347"/>
-      <c r="L79" s="346"/>
-      <c r="M79" s="346"/>
+      <c r="K79" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L79" s="346">
+        <f t="shared" si="2"/>
+        <v>277300.00000000006</v>
+      </c>
+      <c r="M79" s="346">
+        <f t="shared" ref="M79:M80" si="8">L79</f>
+        <v>277300.00000000006</v>
+      </c>
       <c r="N79" s="346"/>
       <c r="O79" s="346"/>
-      <c r="P79" s="260"/>
+      <c r="P79" s="403"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="260"/>
-      <c r="B80" s="358"/>
-      <c r="C80" s="345"/>
-      <c r="D80" s="141"/>
-      <c r="E80" s="141"/>
-      <c r="F80" s="260"/>
-      <c r="G80" s="260"/>
-      <c r="H80" s="346"/>
-      <c r="I80" s="346"/>
+      <c r="A80" s="402"/>
+      <c r="B80" s="407"/>
+      <c r="C80" s="402"/>
+      <c r="D80" s="402"/>
+      <c r="E80" s="402"/>
+      <c r="F80" s="260" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" s="260">
+        <v>3</v>
+      </c>
+      <c r="H80" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I80" s="346">
+        <f t="shared" si="1"/>
+        <v>1365000</v>
+      </c>
       <c r="J80" s="346"/>
-      <c r="K80" s="347"/>
-      <c r="L80" s="346"/>
-      <c r="M80" s="346"/>
+      <c r="K80" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L80" s="346">
+        <f t="shared" si="2"/>
+        <v>805350.00000000012</v>
+      </c>
+      <c r="M80" s="346">
+        <f t="shared" si="8"/>
+        <v>805350.00000000012</v>
+      </c>
       <c r="N80" s="346"/>
       <c r="O80" s="346"/>
-      <c r="P80" s="260"/>
+      <c r="P80" s="402"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" s="260"/>
-      <c r="B81" s="358"/>
+      <c r="A81" s="260">
+        <v>1155</v>
+      </c>
+      <c r="B81" s="357">
+        <v>44007</v>
+      </c>
       <c r="C81" s="345"/>
-      <c r="D81" s="141"/>
-      <c r="E81" s="141"/>
-      <c r="F81" s="260"/>
-      <c r="G81" s="260"/>
-      <c r="H81" s="346"/>
-      <c r="I81" s="346"/>
+      <c r="D81" s="141" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="F81" s="260" t="s">
+        <v>149</v>
+      </c>
+      <c r="G81" s="260">
+        <v>1</v>
+      </c>
+      <c r="H81" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I81" s="346">
+        <f t="shared" si="1"/>
+        <v>455000</v>
+      </c>
       <c r="J81" s="346"/>
-      <c r="K81" s="347"/>
-      <c r="L81" s="346"/>
-      <c r="M81" s="346"/>
+      <c r="K81" s="347">
+        <v>0.35</v>
+      </c>
+      <c r="L81" s="346">
+        <f t="shared" si="2"/>
+        <v>295750</v>
+      </c>
+      <c r="M81" s="346">
+        <f>L81</f>
+        <v>295750</v>
+      </c>
       <c r="N81" s="346"/>
       <c r="O81" s="346"/>
       <c r="P81" s="260"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" s="260"/>
-      <c r="B82" s="358"/>
+      <c r="A82" s="260">
+        <v>1156</v>
+      </c>
+      <c r="B82" s="357">
+        <v>44007</v>
+      </c>
       <c r="C82" s="345"/>
-      <c r="D82" s="141"/>
-      <c r="E82" s="141"/>
-      <c r="F82" s="260"/>
-      <c r="G82" s="260"/>
-      <c r="H82" s="346"/>
-      <c r="I82" s="346"/>
-      <c r="J82" s="346"/>
-      <c r="K82" s="347"/>
-      <c r="L82" s="346"/>
+      <c r="D82" s="141" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="141" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" s="260" t="s">
+        <v>190</v>
+      </c>
+      <c r="G82" s="260">
+        <v>12</v>
+      </c>
+      <c r="H82" s="346">
+        <v>485000</v>
+      </c>
+      <c r="I82" s="346">
+        <f t="shared" si="1"/>
+        <v>5820000</v>
+      </c>
+      <c r="J82" s="346">
+        <v>100000</v>
+      </c>
+      <c r="K82" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L82" s="346">
+        <f>I82*(1-K82)-J82</f>
+        <v>3333800.0000000005</v>
+      </c>
       <c r="M82" s="346"/>
       <c r="N82" s="346"/>
-      <c r="O82" s="346"/>
-      <c r="P82" s="260"/>
+      <c r="O82" s="346">
+        <f>L82</f>
+        <v>3333800.0000000005</v>
+      </c>
+      <c r="P82" s="260" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83" s="260"/>
-      <c r="B83" s="358"/>
-      <c r="C83" s="345"/>
-      <c r="D83" s="141"/>
-      <c r="E83" s="141"/>
-      <c r="F83" s="260"/>
-      <c r="G83" s="260"/>
-      <c r="H83" s="346"/>
-      <c r="I83" s="346"/>
+      <c r="A83" s="260">
+        <v>1157</v>
+      </c>
+      <c r="B83" s="357">
+        <v>44007</v>
+      </c>
+      <c r="C83" s="345" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" s="260" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="260">
+        <v>1</v>
+      </c>
+      <c r="H83" s="346">
+        <v>550000</v>
+      </c>
+      <c r="I83" s="346">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
       <c r="J83" s="346"/>
-      <c r="K83" s="347"/>
-      <c r="L83" s="346"/>
-      <c r="M83" s="346"/>
+      <c r="K83" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L83" s="346">
+        <f t="shared" ref="L83:L93" si="9">I83*(1-K83)-J83</f>
+        <v>324500.00000000006</v>
+      </c>
+      <c r="M83" s="346">
+        <f>L83</f>
+        <v>324500.00000000006</v>
+      </c>
       <c r="N83" s="346"/>
       <c r="O83" s="346"/>
-      <c r="P83" s="260"/>
+      <c r="P83" s="260" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="260"/>
-      <c r="B84" s="358"/>
-      <c r="C84" s="345"/>
-      <c r="D84" s="141"/>
-      <c r="E84" s="141"/>
-      <c r="F84" s="260"/>
-      <c r="G84" s="260"/>
-      <c r="H84" s="346"/>
-      <c r="I84" s="346"/>
+      <c r="A84" s="260">
+        <v>1159</v>
+      </c>
+      <c r="B84" s="357">
+        <v>44006</v>
+      </c>
+      <c r="C84" s="345" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="141" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="260" t="s">
+        <v>155</v>
+      </c>
+      <c r="G84" s="260">
+        <v>4</v>
+      </c>
+      <c r="H84" s="346">
+        <v>485000</v>
+      </c>
+      <c r="I84" s="346">
+        <f t="shared" si="1"/>
+        <v>1940000</v>
+      </c>
       <c r="J84" s="346"/>
-      <c r="K84" s="347"/>
-      <c r="L84" s="346"/>
-      <c r="M84" s="346"/>
+      <c r="K84" s="347">
+        <v>0.41</v>
+      </c>
+      <c r="L84" s="346">
+        <f t="shared" si="9"/>
+        <v>1144600.0000000002</v>
+      </c>
+      <c r="M84" s="346">
+        <f>L84</f>
+        <v>1144600.0000000002</v>
+      </c>
       <c r="N84" s="346"/>
       <c r="O84" s="346"/>
-      <c r="P84" s="260"/>
+      <c r="P84" s="260" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="260"/>
-      <c r="B85" s="358"/>
-      <c r="C85" s="345"/>
-      <c r="D85" s="141"/>
-      <c r="E85" s="141"/>
-      <c r="F85" s="260"/>
-      <c r="G85" s="260"/>
-      <c r="H85" s="346"/>
-      <c r="I85" s="346"/>
-      <c r="J85" s="360"/>
-      <c r="K85" s="347"/>
-      <c r="L85" s="346"/>
+      <c r="A85" s="401">
+        <v>1163</v>
+      </c>
+      <c r="B85" s="405">
+        <v>44010</v>
+      </c>
+      <c r="C85" s="401"/>
+      <c r="D85" s="401" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85" s="401" t="s">
+        <v>242</v>
+      </c>
+      <c r="F85" s="260" t="s">
+        <v>149</v>
+      </c>
+      <c r="G85" s="260">
+        <v>84</v>
+      </c>
+      <c r="H85" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I85" s="346">
+        <f t="shared" si="1"/>
+        <v>38220000</v>
+      </c>
+      <c r="J85" s="550"/>
+      <c r="K85" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L85" s="346">
+        <f t="shared" si="9"/>
+        <v>19110000</v>
+      </c>
       <c r="M85" s="346"/>
       <c r="N85" s="346"/>
-      <c r="O85" s="346"/>
+      <c r="O85" s="346">
+        <f>L85</f>
+        <v>19110000</v>
+      </c>
       <c r="P85" s="260"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" s="260"/>
-      <c r="B86" s="358"/>
-      <c r="C86" s="345"/>
-      <c r="D86" s="141"/>
-      <c r="E86" s="141"/>
-      <c r="F86" s="260"/>
-      <c r="G86" s="260"/>
-      <c r="H86" s="346"/>
-      <c r="I86" s="346"/>
-      <c r="J86" s="361"/>
-      <c r="K86" s="347"/>
-      <c r="L86" s="346"/>
+      <c r="A86" s="403"/>
+      <c r="B86" s="406"/>
+      <c r="C86" s="403"/>
+      <c r="D86" s="403"/>
+      <c r="E86" s="403"/>
+      <c r="F86" s="260" t="s">
+        <v>154</v>
+      </c>
+      <c r="G86" s="260">
+        <v>60</v>
+      </c>
+      <c r="H86" s="346">
+        <v>465000</v>
+      </c>
+      <c r="I86" s="346">
+        <f t="shared" si="1"/>
+        <v>27900000</v>
+      </c>
+      <c r="J86" s="551"/>
+      <c r="K86" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L86" s="346">
+        <f t="shared" si="9"/>
+        <v>13950000</v>
+      </c>
       <c r="M86" s="346"/>
       <c r="N86" s="346"/>
-      <c r="O86" s="346"/>
+      <c r="O86" s="346">
+        <f t="shared" ref="O86:O92" si="10">L86</f>
+        <v>13950000</v>
+      </c>
       <c r="P86" s="260"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" s="260"/>
-      <c r="B87" s="358"/>
-      <c r="C87" s="345"/>
-      <c r="D87" s="141"/>
-      <c r="E87" s="141"/>
-      <c r="F87" s="260"/>
-      <c r="G87" s="260"/>
-      <c r="H87" s="346"/>
-      <c r="I87" s="346"/>
-      <c r="J87" s="258"/>
-      <c r="K87" s="347"/>
-      <c r="L87" s="346"/>
+      <c r="A87" s="403"/>
+      <c r="B87" s="406"/>
+      <c r="C87" s="403"/>
+      <c r="D87" s="403"/>
+      <c r="E87" s="403"/>
+      <c r="F87" s="260" t="s">
+        <v>131</v>
+      </c>
+      <c r="G87" s="260">
+        <v>60</v>
+      </c>
+      <c r="H87" s="346">
+        <v>475000</v>
+      </c>
+      <c r="I87" s="346">
+        <f t="shared" si="1"/>
+        <v>28500000</v>
+      </c>
+      <c r="J87" s="551"/>
+      <c r="K87" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L87" s="346">
+        <f t="shared" si="9"/>
+        <v>14250000</v>
+      </c>
       <c r="M87" s="346"/>
       <c r="N87" s="346"/>
-      <c r="O87" s="346"/>
+      <c r="O87" s="346">
+        <f t="shared" si="10"/>
+        <v>14250000</v>
+      </c>
       <c r="P87" s="260"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" s="260"/>
-      <c r="B88" s="359"/>
-      <c r="C88" s="345"/>
-      <c r="D88" s="260"/>
-      <c r="E88" s="260"/>
-      <c r="F88" s="260"/>
-      <c r="G88" s="260"/>
-      <c r="H88" s="346"/>
-      <c r="I88" s="346"/>
-      <c r="J88" s="346"/>
-      <c r="K88" s="347"/>
-      <c r="L88" s="346"/>
+      <c r="A88" s="403"/>
+      <c r="B88" s="406"/>
+      <c r="C88" s="403"/>
+      <c r="D88" s="403"/>
+      <c r="E88" s="403"/>
+      <c r="F88" s="260" t="s">
+        <v>155</v>
+      </c>
+      <c r="G88" s="260">
+        <v>72</v>
+      </c>
+      <c r="H88" s="346">
+        <v>485000</v>
+      </c>
+      <c r="I88" s="346">
+        <f t="shared" si="1"/>
+        <v>34920000</v>
+      </c>
+      <c r="J88" s="551"/>
+      <c r="K88" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L88" s="346">
+        <f t="shared" si="9"/>
+        <v>17460000</v>
+      </c>
       <c r="M88" s="346"/>
       <c r="N88" s="346"/>
-      <c r="O88" s="346"/>
+      <c r="O88" s="346">
+        <f t="shared" si="10"/>
+        <v>17460000</v>
+      </c>
       <c r="P88" s="260"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" s="260"/>
-      <c r="B89" s="358"/>
-      <c r="C89" s="345"/>
-      <c r="D89" s="146"/>
-      <c r="E89" s="146"/>
-      <c r="F89" s="260"/>
-      <c r="G89" s="260"/>
-      <c r="H89" s="346"/>
-      <c r="I89" s="346"/>
-      <c r="J89" s="360"/>
-      <c r="K89" s="347"/>
-      <c r="L89" s="346"/>
+      <c r="A89" s="403"/>
+      <c r="B89" s="406"/>
+      <c r="C89" s="403"/>
+      <c r="D89" s="403"/>
+      <c r="E89" s="403"/>
+      <c r="F89" s="260" t="s">
+        <v>190</v>
+      </c>
+      <c r="G89" s="260">
+        <v>24</v>
+      </c>
+      <c r="H89" s="346">
+        <v>485000</v>
+      </c>
+      <c r="I89" s="346">
+        <f t="shared" si="1"/>
+        <v>11640000</v>
+      </c>
+      <c r="J89" s="551"/>
+      <c r="K89" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L89" s="346">
+        <f t="shared" si="9"/>
+        <v>5820000</v>
+      </c>
       <c r="M89" s="346"/>
       <c r="N89" s="346"/>
-      <c r="O89" s="346"/>
+      <c r="O89" s="346">
+        <f t="shared" si="10"/>
+        <v>5820000</v>
+      </c>
       <c r="P89" s="260"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" s="260"/>
-      <c r="B90" s="358"/>
-      <c r="C90" s="345"/>
-      <c r="D90" s="146"/>
-      <c r="E90" s="146"/>
-      <c r="F90" s="260"/>
-      <c r="G90" s="260"/>
-      <c r="H90" s="346"/>
-      <c r="I90" s="346"/>
-      <c r="J90" s="361"/>
-      <c r="K90" s="347"/>
-      <c r="L90" s="346"/>
+      <c r="A90" s="403"/>
+      <c r="B90" s="406"/>
+      <c r="C90" s="403"/>
+      <c r="D90" s="403"/>
+      <c r="E90" s="403"/>
+      <c r="F90" s="260" t="s">
+        <v>146</v>
+      </c>
+      <c r="G90" s="260">
+        <v>72</v>
+      </c>
+      <c r="H90" s="346">
+        <v>550000</v>
+      </c>
+      <c r="I90" s="346">
+        <f t="shared" si="1"/>
+        <v>39600000</v>
+      </c>
+      <c r="J90" s="551"/>
+      <c r="K90" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L90" s="346">
+        <f t="shared" si="9"/>
+        <v>19800000</v>
+      </c>
       <c r="M90" s="346"/>
       <c r="N90" s="346"/>
-      <c r="O90" s="346"/>
+      <c r="O90" s="346">
+        <f t="shared" si="10"/>
+        <v>19800000</v>
+      </c>
       <c r="P90" s="260"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" s="260"/>
-      <c r="B91" s="358"/>
-      <c r="C91" s="345"/>
-      <c r="D91" s="146"/>
-      <c r="E91" s="146"/>
-      <c r="F91" s="260"/>
-      <c r="G91" s="260"/>
-      <c r="H91" s="346"/>
-      <c r="I91" s="346"/>
-      <c r="J91" s="361"/>
-      <c r="K91" s="347"/>
-      <c r="L91" s="346"/>
+      <c r="A91" s="403"/>
+      <c r="B91" s="406"/>
+      <c r="C91" s="403"/>
+      <c r="D91" s="403"/>
+      <c r="E91" s="403"/>
+      <c r="F91" s="260" t="s">
+        <v>141</v>
+      </c>
+      <c r="G91" s="260">
+        <v>84</v>
+      </c>
+      <c r="H91" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I91" s="346">
+        <f t="shared" si="1"/>
+        <v>38220000</v>
+      </c>
+      <c r="J91" s="551"/>
+      <c r="K91" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L91" s="346">
+        <f t="shared" si="9"/>
+        <v>19110000</v>
+      </c>
       <c r="M91" s="346"/>
       <c r="N91" s="346"/>
-      <c r="O91" s="346"/>
+      <c r="O91" s="346">
+        <f t="shared" si="10"/>
+        <v>19110000</v>
+      </c>
       <c r="P91" s="260"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92" s="260"/>
-      <c r="B92" s="358"/>
-      <c r="C92" s="345"/>
-      <c r="D92" s="146"/>
-      <c r="E92" s="146"/>
-      <c r="F92" s="260"/>
-      <c r="G92" s="260"/>
-      <c r="H92" s="346"/>
-      <c r="I92" s="346"/>
-      <c r="J92" s="258"/>
-      <c r="K92" s="347"/>
-      <c r="L92" s="346"/>
+      <c r="A92" s="402"/>
+      <c r="B92" s="407"/>
+      <c r="C92" s="402"/>
+      <c r="D92" s="402"/>
+      <c r="E92" s="402"/>
+      <c r="F92" s="260" t="s">
+        <v>138</v>
+      </c>
+      <c r="G92" s="260">
+        <v>48</v>
+      </c>
+      <c r="H92" s="346">
+        <v>455000</v>
+      </c>
+      <c r="I92" s="346">
+        <f t="shared" si="1"/>
+        <v>21840000</v>
+      </c>
+      <c r="J92" s="551"/>
+      <c r="K92" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="346">
+        <f t="shared" si="9"/>
+        <v>10920000</v>
+      </c>
       <c r="M92" s="346"/>
       <c r="N92" s="346"/>
-      <c r="O92" s="346"/>
+      <c r="O92" s="346">
+        <f t="shared" si="10"/>
+        <v>10920000</v>
+      </c>
       <c r="P92" s="260"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="260"/>
-      <c r="B93" s="359"/>
+      <c r="B93" s="357"/>
       <c r="C93" s="345"/>
-      <c r="D93" s="260"/>
-      <c r="E93" s="260"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="146"/>
       <c r="F93" s="260"/>
       <c r="G93" s="260"/>
       <c r="H93" s="346"/>
       <c r="I93" s="346"/>
-      <c r="J93" s="346"/>
+      <c r="J93" s="142"/>
       <c r="K93" s="347"/>
-      <c r="L93" s="346"/>
+      <c r="L93" s="346">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="M93" s="346"/>
       <c r="N93" s="346"/>
       <c r="O93" s="346"/>
@@ -6879,8 +7813,8 @@
       <c r="A94" s="260"/>
       <c r="B94" s="358"/>
       <c r="C94" s="345"/>
-      <c r="D94" s="141"/>
-      <c r="E94" s="141"/>
+      <c r="D94" s="260"/>
+      <c r="E94" s="260"/>
       <c r="F94" s="260"/>
       <c r="G94" s="260"/>
       <c r="H94" s="346"/>
@@ -6895,7 +7829,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="260"/>
-      <c r="B95" s="358"/>
+      <c r="B95" s="357"/>
       <c r="C95" s="345"/>
       <c r="D95" s="141"/>
       <c r="E95" s="141"/>
@@ -6913,7 +7847,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="260"/>
-      <c r="B96" s="358"/>
+      <c r="B96" s="357"/>
       <c r="C96" s="345"/>
       <c r="D96" s="141"/>
       <c r="E96" s="141"/>
@@ -6931,7 +7865,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="260"/>
-      <c r="B97" s="358"/>
+      <c r="B97" s="357"/>
       <c r="C97" s="345"/>
       <c r="D97" s="141"/>
       <c r="E97" s="141"/>
@@ -6949,10 +7883,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="260"/>
-      <c r="B98" s="359"/>
+      <c r="B98" s="357"/>
       <c r="C98" s="345"/>
-      <c r="D98" s="260"/>
-      <c r="E98" s="260"/>
+      <c r="D98" s="141"/>
+      <c r="E98" s="141"/>
       <c r="F98" s="260"/>
       <c r="G98" s="260"/>
       <c r="H98" s="346"/>
@@ -6967,7 +7901,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="260"/>
-      <c r="B99" s="359"/>
+      <c r="B99" s="358"/>
       <c r="C99" s="345"/>
       <c r="D99" s="260"/>
       <c r="E99" s="260"/>
@@ -6985,7 +7919,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="260"/>
-      <c r="B100" s="359"/>
+      <c r="B100" s="358"/>
       <c r="C100" s="345"/>
       <c r="D100" s="260"/>
       <c r="E100" s="260"/>
@@ -7003,7 +7937,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="260"/>
-      <c r="B101" s="359"/>
+      <c r="B101" s="358"/>
       <c r="C101" s="345"/>
       <c r="D101" s="260"/>
       <c r="E101" s="260"/>
@@ -7021,10 +7955,10 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="260"/>
-      <c r="B102" s="144"/>
+      <c r="B102" s="358"/>
       <c r="C102" s="345"/>
-      <c r="D102" s="141"/>
-      <c r="E102" s="141"/>
+      <c r="D102" s="260"/>
+      <c r="E102" s="260"/>
       <c r="F102" s="260"/>
       <c r="G102" s="260"/>
       <c r="H102" s="346"/>
@@ -7147,10 +8081,10 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="260"/>
-      <c r="B109" s="357"/>
+      <c r="B109" s="144"/>
       <c r="C109" s="345"/>
-      <c r="D109" s="260"/>
-      <c r="E109" s="260"/>
+      <c r="D109" s="141"/>
+      <c r="E109" s="141"/>
       <c r="F109" s="260"/>
       <c r="G109" s="260"/>
       <c r="H109" s="346"/>
@@ -7165,10 +8099,10 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="260"/>
-      <c r="B110" s="144"/>
+      <c r="B110" s="356"/>
       <c r="C110" s="345"/>
-      <c r="D110" s="141"/>
-      <c r="E110" s="141"/>
+      <c r="D110" s="260"/>
+      <c r="E110" s="260"/>
       <c r="F110" s="260"/>
       <c r="G110" s="260"/>
       <c r="H110" s="346"/>
@@ -7255,10 +8189,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="260"/>
-      <c r="B115" s="357"/>
+      <c r="B115" s="144"/>
       <c r="C115" s="345"/>
-      <c r="D115" s="260"/>
-      <c r="E115" s="260"/>
+      <c r="D115" s="141"/>
+      <c r="E115" s="141"/>
       <c r="F115" s="260"/>
       <c r="G115" s="260"/>
       <c r="H115" s="346"/>
@@ -7273,7 +8207,7 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="260"/>
-      <c r="B116" s="357"/>
+      <c r="B116" s="356"/>
       <c r="C116" s="345"/>
       <c r="D116" s="260"/>
       <c r="E116" s="260"/>
@@ -7289,179 +8223,197 @@
       <c r="O116" s="346"/>
       <c r="P116" s="260"/>
     </row>
-    <row r="117" spans="1:17" s="368" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="424" t="s">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A117" s="260"/>
+      <c r="B117" s="356"/>
+      <c r="C117" s="345"/>
+      <c r="D117" s="260"/>
+      <c r="E117" s="260"/>
+      <c r="F117" s="260"/>
+      <c r="G117" s="260"/>
+      <c r="H117" s="346"/>
+      <c r="I117" s="346"/>
+      <c r="J117" s="346"/>
+      <c r="K117" s="347"/>
+      <c r="L117" s="346"/>
+      <c r="M117" s="346"/>
+      <c r="N117" s="346"/>
+      <c r="O117" s="346"/>
+      <c r="P117" s="260"/>
+    </row>
+    <row r="118" spans="1:17" s="365" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A118" s="413" t="s">
         <v>79</v>
       </c>
-      <c r="B117" s="424"/>
-      <c r="C117" s="424"/>
-      <c r="D117" s="424"/>
-      <c r="E117" s="424"/>
-      <c r="F117" s="424"/>
-      <c r="G117" s="362">
-        <f>SUM(G9:G116)</f>
-        <v>567</v>
-      </c>
-      <c r="H117" s="363"/>
-      <c r="I117" s="364">
-        <f>SUM(I9:I116)</f>
-        <v>244100000</v>
-      </c>
-      <c r="J117" s="365"/>
-      <c r="K117" s="366"/>
-      <c r="L117" s="367">
-        <f>SUM(L9:L116)</f>
-        <v>207972250</v>
-      </c>
-      <c r="M117" s="363"/>
-      <c r="N117" s="363"/>
-      <c r="O117" s="363"/>
-      <c r="P117" s="425"/>
-      <c r="Q117" s="422"/>
-    </row>
-    <row r="118" spans="1:17" s="368" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="423" t="s">
+      <c r="B118" s="413"/>
+      <c r="C118" s="413"/>
+      <c r="D118" s="413"/>
+      <c r="E118" s="413"/>
+      <c r="F118" s="413"/>
+      <c r="G118" s="359">
+        <f>SUM(G9:G117)</f>
+        <v>1388</v>
+      </c>
+      <c r="H118" s="360"/>
+      <c r="I118" s="361">
+        <f>SUM(I9:I117)</f>
+        <v>622290000</v>
+      </c>
+      <c r="J118" s="362"/>
+      <c r="K118" s="363"/>
+      <c r="L118" s="364">
+        <f>SUM(L9:L117)</f>
+        <v>321416400</v>
+      </c>
+      <c r="M118" s="360"/>
+      <c r="N118" s="360"/>
+      <c r="O118" s="360"/>
+      <c r="P118" s="414"/>
+      <c r="Q118" s="411"/>
+    </row>
+    <row r="119" spans="1:17" s="365" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="412" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="423"/>
-      <c r="C118" s="423"/>
-      <c r="D118" s="423"/>
-      <c r="E118" s="423"/>
-      <c r="F118" s="423"/>
-      <c r="G118" s="362">
-        <f>G117</f>
-        <v>567</v>
-      </c>
-      <c r="H118" s="365"/>
-      <c r="I118" s="364"/>
-      <c r="J118" s="365"/>
-      <c r="K118" s="366"/>
-      <c r="L118" s="367">
-        <f>L117</f>
-        <v>207972250</v>
-      </c>
-      <c r="M118" s="365"/>
-      <c r="N118" s="365"/>
-      <c r="O118" s="365"/>
-      <c r="P118" s="425"/>
-      <c r="Q118" s="422"/>
-    </row>
-    <row r="119" spans="1:17" s="368" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="423" t="s">
+      <c r="B119" s="412"/>
+      <c r="C119" s="412"/>
+      <c r="D119" s="412"/>
+      <c r="E119" s="412"/>
+      <c r="F119" s="412"/>
+      <c r="G119" s="359">
+        <f>G118</f>
+        <v>1388</v>
+      </c>
+      <c r="H119" s="362"/>
+      <c r="I119" s="361"/>
+      <c r="J119" s="362"/>
+      <c r="K119" s="363"/>
+      <c r="L119" s="364">
+        <f>L118</f>
+        <v>321416400</v>
+      </c>
+      <c r="M119" s="362"/>
+      <c r="N119" s="362"/>
+      <c r="O119" s="362"/>
+      <c r="P119" s="414"/>
+      <c r="Q119" s="411"/>
+    </row>
+    <row r="120" spans="1:17" s="365" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="412" t="s">
         <v>80</v>
       </c>
-      <c r="B119" s="423"/>
-      <c r="C119" s="423"/>
-      <c r="D119" s="423"/>
-      <c r="E119" s="423"/>
-      <c r="F119" s="423"/>
-      <c r="G119" s="369" t="s">
+      <c r="B120" s="412"/>
+      <c r="C120" s="412"/>
+      <c r="D120" s="412"/>
+      <c r="E120" s="412"/>
+      <c r="F120" s="412"/>
+      <c r="G120" s="366" t="s">
         <v>50</v>
       </c>
-      <c r="H119" s="365"/>
-      <c r="I119" s="365"/>
-      <c r="J119" s="365"/>
-      <c r="K119" s="369"/>
-      <c r="L119" s="367">
-        <f>SUM(M9:M116)</f>
-        <v>295750</v>
-      </c>
-      <c r="M119" s="365"/>
-      <c r="N119" s="365"/>
-      <c r="O119" s="365"/>
-    </row>
-    <row r="120" spans="1:17" s="368" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="423" t="s">
+      <c r="H120" s="362"/>
+      <c r="I120" s="362"/>
+      <c r="J120" s="362"/>
+      <c r="K120" s="366"/>
+      <c r="L120" s="364">
+        <f>SUM(M9:M117)</f>
+        <v>9985200</v>
+      </c>
+      <c r="M120" s="362"/>
+      <c r="N120" s="362"/>
+      <c r="O120" s="362"/>
+    </row>
+    <row r="121" spans="1:17" s="365" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="412" t="s">
         <v>81</v>
       </c>
-      <c r="B120" s="423"/>
-      <c r="C120" s="423"/>
-      <c r="D120" s="423"/>
-      <c r="E120" s="423"/>
-      <c r="F120" s="423"/>
-      <c r="G120" s="369"/>
-      <c r="H120" s="365"/>
-      <c r="I120" s="363"/>
-      <c r="J120" s="365"/>
-      <c r="K120" s="366"/>
-      <c r="L120" s="367">
-        <f>SUM(N9:N116)</f>
-        <v>1958800.0000000005</v>
-      </c>
-      <c r="M120" s="365"/>
-      <c r="N120" s="365"/>
-      <c r="O120" s="365"/>
-    </row>
-    <row r="121" spans="1:17" s="368" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="423" t="s">
+      <c r="B121" s="412"/>
+      <c r="C121" s="412"/>
+      <c r="D121" s="412"/>
+      <c r="E121" s="412"/>
+      <c r="F121" s="412"/>
+      <c r="G121" s="366"/>
+      <c r="H121" s="362"/>
+      <c r="I121" s="360"/>
+      <c r="J121" s="362"/>
+      <c r="K121" s="363"/>
+      <c r="L121" s="364">
+        <f>SUM(N9:N117)</f>
+        <v>4230300.0000000009</v>
+      </c>
+      <c r="M121" s="362"/>
+      <c r="N121" s="362"/>
+      <c r="O121" s="362"/>
+    </row>
+    <row r="122" spans="1:17" s="365" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
+      <c r="A122" s="412" t="s">
         <v>82</v>
       </c>
-      <c r="B121" s="423"/>
-      <c r="C121" s="423"/>
-      <c r="D121" s="423"/>
-      <c r="E121" s="423"/>
-      <c r="F121" s="423"/>
-      <c r="G121" s="369"/>
-      <c r="H121" s="365"/>
-      <c r="I121" s="363"/>
-      <c r="J121" s="365"/>
-      <c r="K121" s="366"/>
-      <c r="L121" s="367">
-        <f>SUM(O9:O116)</f>
-        <v>205717700</v>
-      </c>
-      <c r="M121" s="365"/>
-      <c r="N121" s="365"/>
-      <c r="O121" s="365"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C124" s="371"/>
-      <c r="E124" s="372" t="s">
+      <c r="B122" s="412"/>
+      <c r="C122" s="412"/>
+      <c r="D122" s="412"/>
+      <c r="E122" s="412"/>
+      <c r="F122" s="412"/>
+      <c r="G122" s="366"/>
+      <c r="H122" s="362"/>
+      <c r="I122" s="360"/>
+      <c r="J122" s="362"/>
+      <c r="K122" s="363"/>
+      <c r="L122" s="364">
+        <f>SUM(O9:O117)</f>
+        <v>307200900</v>
+      </c>
+      <c r="M122" s="362"/>
+      <c r="N122" s="362"/>
+      <c r="O122" s="362"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C125" s="368"/>
+      <c r="E125" s="369" t="s">
         <v>112</v>
       </c>
-      <c r="F124" s="372"/>
-      <c r="G124" s="372"/>
-      <c r="H124" s="373"/>
-      <c r="I124" s="373"/>
-      <c r="J124" s="374"/>
-      <c r="K124" s="348"/>
-      <c r="L124" s="374"/>
-      <c r="M124" s="374"/>
-      <c r="N124" s="374"/>
-      <c r="O124" s="374"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C125" s="375"/>
-      <c r="E125" s="376" t="s">
+      <c r="F125" s="369"/>
+      <c r="G125" s="369"/>
+      <c r="H125" s="370"/>
+      <c r="I125" s="370"/>
+      <c r="J125" s="371"/>
+      <c r="K125" s="348"/>
+      <c r="L125" s="371"/>
+      <c r="M125" s="371"/>
+      <c r="N125" s="371"/>
+      <c r="O125" s="371"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C126" s="372"/>
+      <c r="E126" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="376"/>
-      <c r="G125" s="376"/>
-      <c r="H125" s="377"/>
-      <c r="I125" s="377"/>
-      <c r="J125" s="374"/>
-      <c r="K125" s="348"/>
-      <c r="L125" s="374"/>
-      <c r="M125" s="374"/>
-      <c r="N125" s="374"/>
-      <c r="O125" s="374"/>
-    </row>
-    <row r="128" spans="1:17" s="378" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="379"/>
-      <c r="C128" s="371"/>
-      <c r="E128" s="372"/>
-      <c r="F128" s="380"/>
-      <c r="G128" s="380"/>
-      <c r="H128" s="381"/>
-      <c r="I128" s="381"/>
-      <c r="J128" s="381"/>
-      <c r="L128" s="381"/>
-      <c r="M128" s="381"/>
-      <c r="N128" s="381"/>
-      <c r="O128" s="381"/>
+      <c r="F126" s="373"/>
+      <c r="G126" s="373"/>
+      <c r="H126" s="374"/>
+      <c r="I126" s="374"/>
+      <c r="J126" s="371"/>
+      <c r="K126" s="348"/>
+      <c r="L126" s="371"/>
+      <c r="M126" s="371"/>
+      <c r="N126" s="371"/>
+      <c r="O126" s="371"/>
+    </row>
+    <row r="129" spans="2:15" s="375" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="376"/>
+      <c r="C129" s="368"/>
+      <c r="E129" s="369"/>
+      <c r="F129" s="377"/>
+      <c r="G129" s="377"/>
+      <c r="H129" s="378"/>
+      <c r="I129" s="378"/>
+      <c r="J129" s="378"/>
+      <c r="L129" s="378"/>
+      <c r="M129" s="378"/>
+      <c r="N129" s="378"/>
+      <c r="O129" s="378"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:P121">
+  <autoFilter ref="A6:P122">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -7472,53 +8424,44 @@
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
-  <mergeCells count="72">
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="E40:E47"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q117:Q118"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="P117:P118"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+  <mergeCells count="101">
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="P78:P80"/>
+    <mergeCell ref="J85:J92"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="D85:D92"/>
+    <mergeCell ref="E85:E92"/>
+    <mergeCell ref="C85:C92"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="P57:P65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="C22:C29"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:P4"/>
@@ -7535,16 +8478,54 @@
     <mergeCell ref="P6:P8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="Q118:Q119"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="P118:P119"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="E40:E47"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7556,7 +8537,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7575,99 +8556,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="449" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="432"/>
-      <c r="C1" s="432"/>
-      <c r="D1" s="432"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="433" t="s">
+      <c r="A2" s="450" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="433"/>
-      <c r="C2" s="433"/>
-      <c r="D2" s="433"/>
+      <c r="B2" s="450"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="435" t="s">
+      <c r="A3" s="452" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="435"/>
-      <c r="C3" s="435"/>
-      <c r="D3" s="435"/>
-      <c r="E3" s="435"/>
-      <c r="F3" s="435"/>
-      <c r="G3" s="435"/>
-      <c r="H3" s="435"/>
-      <c r="I3" s="435"/>
-      <c r="J3" s="435"/>
-      <c r="K3" s="435"/>
-      <c r="L3" s="435"/>
-      <c r="M3" s="435"/>
-      <c r="N3" s="435"/>
-      <c r="O3" s="435"/>
-      <c r="P3" s="435"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="452"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="452"/>
+      <c r="J3" s="452"/>
+      <c r="K3" s="452"/>
+      <c r="L3" s="452"/>
+      <c r="M3" s="452"/>
+      <c r="N3" s="452"/>
+      <c r="O3" s="452"/>
+      <c r="P3" s="452"/>
     </row>
     <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="436" t="s">
+      <c r="A4" s="453" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="436"/>
-      <c r="C4" s="436"/>
-      <c r="D4" s="436"/>
-      <c r="E4" s="436"/>
-      <c r="F4" s="436"/>
-      <c r="G4" s="436"/>
-      <c r="H4" s="436"/>
-      <c r="I4" s="436"/>
-      <c r="J4" s="436"/>
-      <c r="K4" s="437"/>
-      <c r="L4" s="436"/>
-      <c r="M4" s="436"/>
-      <c r="N4" s="436"/>
-      <c r="O4" s="436"/>
-      <c r="P4" s="436"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="453"/>
+      <c r="I4" s="453"/>
+      <c r="J4" s="453"/>
+      <c r="K4" s="454"/>
+      <c r="L4" s="453"/>
+      <c r="M4" s="453"/>
+      <c r="N4" s="453"/>
+      <c r="O4" s="453"/>
+      <c r="P4" s="453"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="438" t="s">
+      <c r="A5" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="457" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="442" t="s">
+      <c r="C5" s="459" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="442" t="s">
+      <c r="D5" s="459" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="442"/>
-      <c r="F5" s="442"/>
-      <c r="G5" s="444" t="s">
+      <c r="E5" s="459"/>
+      <c r="F5" s="459"/>
+      <c r="G5" s="461" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="444"/>
-      <c r="I5" s="444"/>
-      <c r="J5" s="444"/>
-      <c r="K5" s="445"/>
-      <c r="L5" s="446" t="s">
+      <c r="H5" s="461"/>
+      <c r="I5" s="461"/>
+      <c r="J5" s="461"/>
+      <c r="K5" s="462"/>
+      <c r="L5" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="444" t="s">
+      <c r="M5" s="461" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="444"/>
-      <c r="O5" s="444"/>
-      <c r="P5" s="448" t="s">
+      <c r="N5" s="461"/>
+      <c r="O5" s="461"/>
+      <c r="P5" s="465" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="439"/>
-      <c r="B6" s="441"/>
-      <c r="C6" s="443"/>
+      <c r="A6" s="456"/>
+      <c r="B6" s="458"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="85" t="s">
         <v>41</v>
       </c>
@@ -7692,7 +8673,7 @@
       <c r="K6" s="246" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="447"/>
+      <c r="L6" s="464"/>
       <c r="M6" s="85" t="s">
         <v>46</v>
       </c>
@@ -7702,7 +8683,7 @@
       <c r="O6" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="449"/>
+      <c r="P6" s="466"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="260">
@@ -7768,35 +8749,57 @@
         <f>H8*I8</f>
         <v>5460000</v>
       </c>
-      <c r="K8" s="236"/>
+      <c r="K8" s="236">
+        <v>0.5</v>
+      </c>
       <c r="L8" s="142">
         <f>J8*(1-K8)</f>
-        <v>5460000</v>
+        <v>2730000</v>
       </c>
       <c r="M8" s="234"/>
       <c r="N8" s="234"/>
       <c r="O8" s="234"/>
       <c r="P8" s="238"/>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="141"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="141"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="141">
+        <v>1151</v>
+      </c>
+      <c r="B9" s="144">
+        <v>44006</v>
+      </c>
+      <c r="C9" s="141" t="s">
+        <v>152</v>
+      </c>
       <c r="D9" s="141"/>
       <c r="E9" s="146"/>
       <c r="F9" s="141"/>
-      <c r="G9" s="239"/>
-      <c r="H9" s="239"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="241"/>
-      <c r="L9" s="242"/>
+      <c r="G9" s="239" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="239">
+        <v>24</v>
+      </c>
+      <c r="I9" s="240">
+        <v>485000</v>
+      </c>
+      <c r="J9" s="240">
+        <f>H9*I9</f>
+        <v>11640000</v>
+      </c>
+      <c r="K9" s="241">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="142">
+        <f>J9*(1-K9)</f>
+        <v>5820000</v>
+      </c>
       <c r="M9" s="239"/>
       <c r="N9" s="239"/>
       <c r="O9" s="239"/>
       <c r="P9" s="243"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="260"/>
       <c r="B10" s="144"/>
       <c r="C10" s="141"/>
@@ -7833,12 +8836,12 @@
       <c r="P11" s="146"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="450"/>
-      <c r="B12" s="456"/>
-      <c r="C12" s="453"/>
-      <c r="D12" s="459"/>
-      <c r="E12" s="453"/>
-      <c r="F12" s="453"/>
+      <c r="A12" s="434"/>
+      <c r="B12" s="467"/>
+      <c r="C12" s="443"/>
+      <c r="D12" s="440"/>
+      <c r="E12" s="443"/>
+      <c r="F12" s="443"/>
       <c r="G12" s="229"/>
       <c r="H12" s="229"/>
       <c r="I12" s="230"/>
@@ -7851,12 +8854,12 @@
       <c r="P12" s="233"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="451"/>
-      <c r="B13" s="457"/>
-      <c r="C13" s="454"/>
-      <c r="D13" s="460"/>
-      <c r="E13" s="454"/>
-      <c r="F13" s="454"/>
+      <c r="A13" s="435"/>
+      <c r="B13" s="468"/>
+      <c r="C13" s="444"/>
+      <c r="D13" s="441"/>
+      <c r="E13" s="444"/>
+      <c r="F13" s="444"/>
       <c r="G13" s="234"/>
       <c r="H13" s="234"/>
       <c r="I13" s="235"/>
@@ -7869,12 +8872,12 @@
       <c r="P13" s="238"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="451"/>
-      <c r="B14" s="457"/>
-      <c r="C14" s="454"/>
-      <c r="D14" s="460"/>
-      <c r="E14" s="454"/>
-      <c r="F14" s="454"/>
+      <c r="A14" s="435"/>
+      <c r="B14" s="468"/>
+      <c r="C14" s="444"/>
+      <c r="D14" s="441"/>
+      <c r="E14" s="444"/>
+      <c r="F14" s="444"/>
       <c r="G14" s="234"/>
       <c r="H14" s="234"/>
       <c r="I14" s="235"/>
@@ -7887,12 +8890,12 @@
       <c r="P14" s="238"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="451"/>
-      <c r="B15" s="457"/>
-      <c r="C15" s="454"/>
-      <c r="D15" s="460"/>
-      <c r="E15" s="454"/>
-      <c r="F15" s="454"/>
+      <c r="A15" s="435"/>
+      <c r="B15" s="468"/>
+      <c r="C15" s="444"/>
+      <c r="D15" s="441"/>
+      <c r="E15" s="444"/>
+      <c r="F15" s="444"/>
       <c r="G15" s="234"/>
       <c r="H15" s="234"/>
       <c r="I15" s="235"/>
@@ -7905,12 +8908,12 @@
       <c r="P15" s="238"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="451"/>
-      <c r="B16" s="457"/>
-      <c r="C16" s="454"/>
-      <c r="D16" s="460"/>
-      <c r="E16" s="454"/>
-      <c r="F16" s="454"/>
+      <c r="A16" s="435"/>
+      <c r="B16" s="468"/>
+      <c r="C16" s="444"/>
+      <c r="D16" s="441"/>
+      <c r="E16" s="444"/>
+      <c r="F16" s="444"/>
       <c r="G16" s="234"/>
       <c r="H16" s="234"/>
       <c r="I16" s="235"/>
@@ -7923,12 +8926,12 @@
       <c r="P16" s="238"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="451"/>
-      <c r="B17" s="457"/>
-      <c r="C17" s="454"/>
-      <c r="D17" s="460"/>
-      <c r="E17" s="454"/>
-      <c r="F17" s="454"/>
+      <c r="A17" s="435"/>
+      <c r="B17" s="468"/>
+      <c r="C17" s="444"/>
+      <c r="D17" s="441"/>
+      <c r="E17" s="444"/>
+      <c r="F17" s="444"/>
       <c r="G17" s="234"/>
       <c r="H17" s="234"/>
       <c r="I17" s="235"/>
@@ -7941,12 +8944,12 @@
       <c r="P17" s="238"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="451"/>
-      <c r="B18" s="457"/>
-      <c r="C18" s="454"/>
-      <c r="D18" s="460"/>
-      <c r="E18" s="454"/>
-      <c r="F18" s="454"/>
+      <c r="A18" s="435"/>
+      <c r="B18" s="468"/>
+      <c r="C18" s="444"/>
+      <c r="D18" s="441"/>
+      <c r="E18" s="444"/>
+      <c r="F18" s="444"/>
       <c r="G18" s="234"/>
       <c r="H18" s="234"/>
       <c r="I18" s="235"/>
@@ -7959,12 +8962,12 @@
       <c r="P18" s="238"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="451"/>
-      <c r="B19" s="457"/>
-      <c r="C19" s="454"/>
-      <c r="D19" s="460"/>
-      <c r="E19" s="454"/>
-      <c r="F19" s="454"/>
+      <c r="A19" s="435"/>
+      <c r="B19" s="468"/>
+      <c r="C19" s="444"/>
+      <c r="D19" s="441"/>
+      <c r="E19" s="444"/>
+      <c r="F19" s="444"/>
       <c r="G19" s="234"/>
       <c r="H19" s="234"/>
       <c r="I19" s="235"/>
@@ -7977,12 +8980,12 @@
       <c r="P19" s="238"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="452"/>
-      <c r="B20" s="458"/>
-      <c r="C20" s="455"/>
-      <c r="D20" s="461"/>
-      <c r="E20" s="455"/>
-      <c r="F20" s="455"/>
+      <c r="A20" s="436"/>
+      <c r="B20" s="469"/>
+      <c r="C20" s="445"/>
+      <c r="D20" s="442"/>
+      <c r="E20" s="445"/>
+      <c r="F20" s="445"/>
       <c r="G20" s="239"/>
       <c r="H20" s="239"/>
       <c r="I20" s="240"/>
@@ -8013,11 +9016,11 @@
       <c r="P21" s="247"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="450"/>
-      <c r="B22" s="465"/>
-      <c r="C22" s="450"/>
-      <c r="D22" s="468"/>
-      <c r="E22" s="450"/>
+      <c r="A22" s="434"/>
+      <c r="B22" s="431"/>
+      <c r="C22" s="434"/>
+      <c r="D22" s="437"/>
+      <c r="E22" s="434"/>
       <c r="F22" s="248"/>
       <c r="G22" s="248"/>
       <c r="H22" s="248"/>
@@ -8031,11 +9034,11 @@
       <c r="P22" s="248"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="451"/>
-      <c r="B23" s="466"/>
-      <c r="C23" s="451"/>
-      <c r="D23" s="469"/>
-      <c r="E23" s="451"/>
+      <c r="A23" s="435"/>
+      <c r="B23" s="432"/>
+      <c r="C23" s="435"/>
+      <c r="D23" s="438"/>
+      <c r="E23" s="435"/>
       <c r="F23" s="249"/>
       <c r="G23" s="249"/>
       <c r="H23" s="249"/>
@@ -8049,11 +9052,11 @@
       <c r="P23" s="249"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="451"/>
-      <c r="B24" s="466"/>
-      <c r="C24" s="451"/>
-      <c r="D24" s="469"/>
-      <c r="E24" s="451"/>
+      <c r="A24" s="435"/>
+      <c r="B24" s="432"/>
+      <c r="C24" s="435"/>
+      <c r="D24" s="438"/>
+      <c r="E24" s="435"/>
       <c r="F24" s="249"/>
       <c r="G24" s="249"/>
       <c r="H24" s="249"/>
@@ -8067,11 +9070,11 @@
       <c r="P24" s="249"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="452"/>
-      <c r="B25" s="467"/>
-      <c r="C25" s="452"/>
-      <c r="D25" s="470"/>
-      <c r="E25" s="452"/>
+      <c r="A25" s="436"/>
+      <c r="B25" s="433"/>
+      <c r="C25" s="436"/>
+      <c r="D25" s="439"/>
+      <c r="E25" s="436"/>
       <c r="F25" s="250"/>
       <c r="G25" s="250"/>
       <c r="H25" s="250"/>
@@ -8085,10 +9088,10 @@
       <c r="P25" s="250"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="450"/>
-      <c r="B26" s="465"/>
-      <c r="C26" s="450"/>
-      <c r="D26" s="462"/>
+      <c r="A26" s="434"/>
+      <c r="B26" s="431"/>
+      <c r="C26" s="434"/>
+      <c r="D26" s="446"/>
       <c r="E26" s="248"/>
       <c r="F26" s="248"/>
       <c r="G26" s="248"/>
@@ -8103,10 +9106,10 @@
       <c r="P26" s="248"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="451"/>
-      <c r="B27" s="466"/>
-      <c r="C27" s="451"/>
-      <c r="D27" s="463"/>
+      <c r="A27" s="435"/>
+      <c r="B27" s="432"/>
+      <c r="C27" s="435"/>
+      <c r="D27" s="447"/>
       <c r="E27" s="249"/>
       <c r="F27" s="249"/>
       <c r="G27" s="249"/>
@@ -8121,10 +9124,10 @@
       <c r="P27" s="249"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="452"/>
-      <c r="B28" s="467"/>
-      <c r="C28" s="452"/>
-      <c r="D28" s="464"/>
+      <c r="A28" s="436"/>
+      <c r="B28" s="433"/>
+      <c r="C28" s="436"/>
+      <c r="D28" s="448"/>
       <c r="E28" s="250"/>
       <c r="F28" s="250"/>
       <c r="G28" s="250"/>
@@ -8157,31 +9160,31 @@
       <c r="P29" s="247"/>
     </row>
     <row r="30" spans="1:16" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="434" t="s">
+      <c r="A30" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="434"/>
-      <c r="C30" s="434"/>
-      <c r="D30" s="434"/>
-      <c r="E30" s="434"/>
-      <c r="F30" s="434"/>
+      <c r="B30" s="451"/>
+      <c r="C30" s="451"/>
+      <c r="D30" s="451"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="451"/>
       <c r="G30" s="132"/>
       <c r="H30" s="132">
         <f>SUM(H7:H28)</f>
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I30" s="133">
         <f>SUM(I7:I28)</f>
-        <v>905000</v>
+        <v>1390000</v>
       </c>
       <c r="J30" s="133">
         <f>SUM(J7:J28)</f>
-        <v>22110000</v>
+        <v>33750000</v>
       </c>
       <c r="K30" s="134"/>
       <c r="L30" s="135">
         <f>SUM(L7:L21)</f>
-        <v>16282500</v>
+        <v>19372500</v>
       </c>
       <c r="M30" s="132"/>
       <c r="N30" s="132"/>
@@ -8258,18 +9261,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A30:F30"/>
@@ -8286,6 +9277,18 @@
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="F12:F20"/>
     <mergeCell ref="B12:B20"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8374,14 +9377,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="471" t="s">
+      <c r="A4" s="470" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="471"/>
-      <c r="C4" s="471"/>
-      <c r="D4" s="471"/>
-      <c r="E4" s="471"/>
-      <c r="F4" s="471"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="470"/>
+      <c r="E4" s="470"/>
+      <c r="F4" s="470"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -8395,14 +9398,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="472" t="s">
+      <c r="A5" s="471" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="472"/>
-      <c r="C5" s="472"/>
-      <c r="D5" s="472"/>
-      <c r="E5" s="472"/>
-      <c r="F5" s="472"/>
+      <c r="B5" s="471"/>
+      <c r="C5" s="471"/>
+      <c r="D5" s="471"/>
+      <c r="E5" s="471"/>
+      <c r="F5" s="471"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -8471,12 +9474,12 @@
         <v>53</v>
       </c>
       <c r="C8" s="66">
-        <f>'DOANH THU'!G118</f>
-        <v>567</v>
+        <f>'DOANH THU'!G119</f>
+        <v>1388</v>
       </c>
       <c r="D8" s="76">
-        <f>'DOANH THU'!L118</f>
-        <v>207972250</v>
+        <f>'DOANH THU'!L119</f>
+        <v>321416400</v>
       </c>
       <c r="E8" s="75"/>
       <c r="F8" s="67"/>
@@ -8501,8 +9504,8 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="79">
-        <f>'DOANH THU'!L119</f>
-        <v>295750</v>
+        <f>'DOANH THU'!L120</f>
+        <v>9985200</v>
       </c>
       <c r="E9" s="78"/>
       <c r="F9" s="67"/>
@@ -8527,8 +9530,8 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="79">
-        <f>'DOANH THU'!L120</f>
-        <v>1958800.0000000005</v>
+        <f>'DOANH THU'!L121</f>
+        <v>4230300.0000000009</v>
       </c>
       <c r="E10" s="78"/>
       <c r="F10" s="67"/>
@@ -8552,7 +9555,7 @@
       <c r="C11" s="139"/>
       <c r="D11" s="138">
         <f>'Hàng khách trả'!L30</f>
-        <v>16282500</v>
+        <v>19372500</v>
       </c>
       <c r="E11" s="131"/>
       <c r="F11" s="67"/>
@@ -8576,7 +9579,7 @@
       <c r="C12" s="83"/>
       <c r="D12" s="84">
         <f>D8-D9-D10</f>
-        <v>205717700</v>
+        <v>307200900</v>
       </c>
       <c r="E12" s="81"/>
       <c r="F12" s="67"/>
@@ -8749,10 +9752,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="473" t="s">
+      <c r="A25" s="472" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="473"/>
+      <c r="B25" s="472"/>
       <c r="C25" s="31"/>
       <c r="D25" s="278">
         <f>C24-D24</f>
@@ -8808,10 +9811,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8823,7 +9826,7 @@
     <col min="5" max="5" width="9.44140625" style="14" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="14" customWidth="1"/>
     <col min="7" max="7" width="5.44140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="14" customWidth="1"/>
     <col min="10" max="10" width="10" style="14" customWidth="1"/>
     <col min="11" max="11" width="8.109375" style="14" customWidth="1"/>
@@ -8839,13 +9842,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="474" t="s">
+      <c r="A1" s="498" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="474"/>
-      <c r="C1" s="474"/>
-      <c r="D1" s="474"/>
-      <c r="E1" s="474"/>
+      <c r="B1" s="498"/>
+      <c r="C1" s="498"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="498"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -8873,134 +9876,134 @@
       <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="475" t="s">
+      <c r="A4" s="481" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="475"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="475"/>
-      <c r="E4" s="475"/>
-      <c r="F4" s="475"/>
-      <c r="G4" s="475"/>
-      <c r="H4" s="475"/>
-      <c r="I4" s="475"/>
-      <c r="J4" s="475"/>
-      <c r="K4" s="475"/>
-      <c r="L4" s="475"/>
-      <c r="M4" s="475"/>
-      <c r="N4" s="475"/>
-      <c r="O4" s="475"/>
-      <c r="P4" s="475"/>
+      <c r="B4" s="481"/>
+      <c r="C4" s="481"/>
+      <c r="D4" s="481"/>
+      <c r="E4" s="481"/>
+      <c r="F4" s="481"/>
+      <c r="G4" s="481"/>
+      <c r="H4" s="481"/>
+      <c r="I4" s="481"/>
+      <c r="J4" s="481"/>
+      <c r="K4" s="481"/>
+      <c r="L4" s="481"/>
+      <c r="M4" s="481"/>
+      <c r="N4" s="481"/>
+      <c r="O4" s="481"/>
+      <c r="P4" s="481"/>
     </row>
     <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="481"/>
-      <c r="B5" s="481"/>
-      <c r="C5" s="481"/>
-      <c r="D5" s="481"/>
-      <c r="E5" s="481"/>
-      <c r="F5" s="481"/>
-      <c r="G5" s="481"/>
-      <c r="H5" s="481"/>
-      <c r="I5" s="481"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="481"/>
-      <c r="L5" s="481"/>
-      <c r="M5" s="481"/>
-      <c r="N5" s="481"/>
-      <c r="O5" s="481"/>
-      <c r="P5" s="481"/>
+      <c r="A5" s="489"/>
+      <c r="B5" s="489"/>
+      <c r="C5" s="489"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="489"/>
+      <c r="F5" s="489"/>
+      <c r="G5" s="489"/>
+      <c r="H5" s="489"/>
+      <c r="I5" s="489"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="489"/>
+      <c r="L5" s="489"/>
+      <c r="M5" s="489"/>
+      <c r="N5" s="489"/>
+      <c r="O5" s="489"/>
+      <c r="P5" s="489"/>
     </row>
     <row r="6" spans="1:17" s="147" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="477" t="s">
+      <c r="A6" s="490" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="484" t="s">
+      <c r="B6" s="491" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="477" t="s">
+      <c r="C6" s="490" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="477" t="s">
+      <c r="D6" s="490" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="483" t="s">
+      <c r="E6" s="490"/>
+      <c r="F6" s="492" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="483"/>
-      <c r="H6" s="483"/>
-      <c r="I6" s="483"/>
-      <c r="J6" s="483"/>
-      <c r="K6" s="483"/>
-      <c r="L6" s="483"/>
-      <c r="M6" s="479"/>
-      <c r="N6" s="479"/>
-      <c r="O6" s="479"/>
-      <c r="P6" s="476" t="s">
+      <c r="G6" s="492"/>
+      <c r="H6" s="492"/>
+      <c r="I6" s="492"/>
+      <c r="J6" s="492"/>
+      <c r="K6" s="492"/>
+      <c r="L6" s="492"/>
+      <c r="M6" s="493"/>
+      <c r="N6" s="493"/>
+      <c r="O6" s="493"/>
+      <c r="P6" s="494" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="147" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="477"/>
-      <c r="B7" s="484"/>
-      <c r="C7" s="477"/>
-      <c r="D7" s="477" t="s">
+      <c r="A7" s="490"/>
+      <c r="B7" s="491"/>
+      <c r="C7" s="490"/>
+      <c r="D7" s="490" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="477" t="s">
+      <c r="E7" s="490" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="477" t="s">
+      <c r="F7" s="490" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="477" t="s">
+      <c r="G7" s="490" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="478" t="s">
+      <c r="H7" s="480" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="478" t="s">
+      <c r="I7" s="480" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="480" t="s">
+      <c r="J7" s="484" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="480"/>
-      <c r="L7" s="478" t="s">
+      <c r="K7" s="484"/>
+      <c r="L7" s="480" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="478" t="s">
+      <c r="M7" s="480" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="478" t="s">
+      <c r="N7" s="480" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="478" t="s">
+      <c r="O7" s="480" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="476"/>
+      <c r="P7" s="494"/>
     </row>
     <row r="8" spans="1:17" s="147" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="477"/>
-      <c r="B8" s="484"/>
-      <c r="C8" s="477"/>
-      <c r="D8" s="477"/>
-      <c r="E8" s="477"/>
-      <c r="F8" s="477"/>
-      <c r="G8" s="477"/>
-      <c r="H8" s="478"/>
-      <c r="I8" s="478"/>
+      <c r="A8" s="490"/>
+      <c r="B8" s="491"/>
+      <c r="C8" s="490"/>
+      <c r="D8" s="490"/>
+      <c r="E8" s="490"/>
+      <c r="F8" s="490"/>
+      <c r="G8" s="490"/>
+      <c r="H8" s="480"/>
+      <c r="I8" s="480"/>
       <c r="J8" s="173" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="478"/>
-      <c r="M8" s="478"/>
-      <c r="N8" s="478"/>
-      <c r="O8" s="478"/>
-      <c r="P8" s="476"/>
+      <c r="L8" s="480"/>
+      <c r="M8" s="480"/>
+      <c r="N8" s="480"/>
+      <c r="O8" s="480"/>
+      <c r="P8" s="494"/>
     </row>
     <row r="9" spans="1:17" s="348" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="260">
@@ -9091,19 +10094,19 @@
       <c r="P10" s="260"/>
     </row>
     <row r="11" spans="1:17" s="348" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="398">
+      <c r="A11" s="401">
         <v>586</v>
       </c>
-      <c r="B11" s="400">
+      <c r="B11" s="399">
         <v>43991</v>
       </c>
-      <c r="C11" s="398" t="s">
+      <c r="C11" s="401" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="398" t="s">
+      <c r="D11" s="401" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="402" t="s">
+      <c r="E11" s="397" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="260" t="s">
@@ -9135,11 +10138,11 @@
       <c r="P11" s="260"/>
     </row>
     <row r="12" spans="1:17" s="348" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="399"/>
-      <c r="B12" s="401"/>
-      <c r="C12" s="399"/>
-      <c r="D12" s="399"/>
-      <c r="E12" s="403"/>
+      <c r="A12" s="402"/>
+      <c r="B12" s="400"/>
+      <c r="C12" s="402"/>
+      <c r="D12" s="402"/>
+      <c r="E12" s="398"/>
       <c r="F12" s="260" t="s">
         <v>131</v>
       </c>
@@ -9356,7 +10359,7 @@
         <v>130</v>
       </c>
       <c r="D17" s="283" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="283" t="s">
         <v>136</v>
@@ -9436,7 +10439,7 @@
       <c r="G20" s="170"/>
       <c r="H20" s="161"/>
       <c r="I20" s="161"/>
-      <c r="J20" s="485"/>
+      <c r="J20" s="495"/>
       <c r="K20" s="162"/>
       <c r="L20" s="161"/>
       <c r="M20" s="161"/>
@@ -9454,7 +10457,7 @@
       <c r="G21" s="171"/>
       <c r="H21" s="163"/>
       <c r="I21" s="163"/>
-      <c r="J21" s="486"/>
+      <c r="J21" s="496"/>
       <c r="K21" s="164"/>
       <c r="L21" s="163"/>
       <c r="M21" s="163"/>
@@ -9472,7 +10475,7 @@
       <c r="G22" s="172"/>
       <c r="H22" s="165"/>
       <c r="I22" s="165"/>
-      <c r="J22" s="487"/>
+      <c r="J22" s="497"/>
       <c r="K22" s="166"/>
       <c r="L22" s="165"/>
       <c r="M22" s="165"/>
@@ -9643,16 +10646,16 @@
       <c r="P31" s="168"/>
     </row>
     <row r="32" spans="1:16" s="215" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="488" t="s">
+      <c r="A32" s="485" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="489"/>
-      <c r="C32" s="489"/>
-      <c r="D32" s="489"/>
-      <c r="E32" s="489"/>
-      <c r="F32" s="489"/>
-      <c r="G32" s="489"/>
-      <c r="H32" s="490"/>
+      <c r="B32" s="486"/>
+      <c r="C32" s="486"/>
+      <c r="D32" s="486"/>
+      <c r="E32" s="486"/>
+      <c r="F32" s="486"/>
+      <c r="G32" s="486"/>
+      <c r="H32" s="487"/>
       <c r="I32" s="216">
         <f>SUM(I9:I31)</f>
         <v>7635000</v>
@@ -9689,134 +10692,134 @@
       <c r="O33" s="222"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="475" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" s="475"/>
-      <c r="C34" s="475"/>
-      <c r="D34" s="475"/>
-      <c r="E34" s="475"/>
-      <c r="F34" s="475"/>
-      <c r="G34" s="475"/>
-      <c r="H34" s="475"/>
-      <c r="I34" s="475"/>
-      <c r="J34" s="475"/>
-      <c r="K34" s="475"/>
-      <c r="L34" s="475"/>
-      <c r="M34" s="475"/>
-      <c r="N34" s="475"/>
-      <c r="O34" s="475"/>
-      <c r="P34" s="475"/>
+      <c r="A34" s="481" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="481"/>
+      <c r="C34" s="481"/>
+      <c r="D34" s="481"/>
+      <c r="E34" s="481"/>
+      <c r="F34" s="481"/>
+      <c r="G34" s="481"/>
+      <c r="H34" s="481"/>
+      <c r="I34" s="481"/>
+      <c r="J34" s="481"/>
+      <c r="K34" s="481"/>
+      <c r="L34" s="481"/>
+      <c r="M34" s="481"/>
+      <c r="N34" s="481"/>
+      <c r="O34" s="481"/>
+      <c r="P34" s="481"/>
     </row>
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="481"/>
-      <c r="B35" s="481"/>
-      <c r="C35" s="481"/>
-      <c r="D35" s="481"/>
-      <c r="E35" s="481"/>
-      <c r="F35" s="481"/>
-      <c r="G35" s="481"/>
-      <c r="H35" s="481"/>
-      <c r="I35" s="481"/>
-      <c r="J35" s="481"/>
-      <c r="K35" s="481"/>
-      <c r="L35" s="481"/>
-      <c r="M35" s="481"/>
-      <c r="N35" s="481"/>
-      <c r="O35" s="481"/>
-      <c r="P35" s="481"/>
+      <c r="A35" s="489"/>
+      <c r="B35" s="489"/>
+      <c r="C35" s="489"/>
+      <c r="D35" s="489"/>
+      <c r="E35" s="489"/>
+      <c r="F35" s="489"/>
+      <c r="G35" s="489"/>
+      <c r="H35" s="489"/>
+      <c r="I35" s="489"/>
+      <c r="J35" s="489"/>
+      <c r="K35" s="489"/>
+      <c r="L35" s="489"/>
+      <c r="M35" s="489"/>
+      <c r="N35" s="489"/>
+      <c r="O35" s="489"/>
+      <c r="P35" s="489"/>
     </row>
     <row r="36" spans="1:17" s="147" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="477" t="s">
+      <c r="A36" s="490" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="484" t="s">
+      <c r="B36" s="491" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="477" t="s">
+      <c r="C36" s="490" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="477" t="s">
+      <c r="D36" s="490" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="477"/>
-      <c r="F36" s="483" t="s">
+      <c r="E36" s="490"/>
+      <c r="F36" s="492" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="483"/>
-      <c r="H36" s="483"/>
-      <c r="I36" s="483"/>
-      <c r="J36" s="483"/>
-      <c r="K36" s="483"/>
-      <c r="L36" s="483"/>
-      <c r="M36" s="479"/>
-      <c r="N36" s="479"/>
-      <c r="O36" s="479"/>
-      <c r="P36" s="476" t="s">
+      <c r="G36" s="492"/>
+      <c r="H36" s="492"/>
+      <c r="I36" s="492"/>
+      <c r="J36" s="492"/>
+      <c r="K36" s="492"/>
+      <c r="L36" s="492"/>
+      <c r="M36" s="493"/>
+      <c r="N36" s="493"/>
+      <c r="O36" s="493"/>
+      <c r="P36" s="494" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="147" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="477"/>
-      <c r="B37" s="484"/>
-      <c r="C37" s="477"/>
-      <c r="D37" s="477" t="s">
+      <c r="A37" s="490"/>
+      <c r="B37" s="491"/>
+      <c r="C37" s="490"/>
+      <c r="D37" s="490" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="477" t="s">
+      <c r="E37" s="490" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="477" t="s">
+      <c r="F37" s="490" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="477" t="s">
+      <c r="G37" s="490" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="478" t="s">
+      <c r="H37" s="480" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="478" t="s">
+      <c r="I37" s="480" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="480" t="s">
+      <c r="J37" s="484" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="480"/>
-      <c r="L37" s="478" t="s">
+      <c r="K37" s="484"/>
+      <c r="L37" s="480" t="s">
         <v>45</v>
       </c>
-      <c r="M37" s="478" t="s">
+      <c r="M37" s="480" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="478" t="s">
+      <c r="N37" s="480" t="s">
         <v>47</v>
       </c>
-      <c r="O37" s="478" t="s">
+      <c r="O37" s="480" t="s">
         <v>48</v>
       </c>
-      <c r="P37" s="476"/>
+      <c r="P37" s="494"/>
     </row>
     <row r="38" spans="1:17" s="147" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="477"/>
-      <c r="B38" s="484"/>
-      <c r="C38" s="477"/>
-      <c r="D38" s="477"/>
-      <c r="E38" s="477"/>
-      <c r="F38" s="477"/>
-      <c r="G38" s="477"/>
-      <c r="H38" s="478"/>
-      <c r="I38" s="478"/>
+      <c r="A38" s="490"/>
+      <c r="B38" s="491"/>
+      <c r="C38" s="490"/>
+      <c r="D38" s="490"/>
+      <c r="E38" s="490"/>
+      <c r="F38" s="490"/>
+      <c r="G38" s="490"/>
+      <c r="H38" s="480"/>
+      <c r="I38" s="480"/>
       <c r="J38" s="333" t="s">
         <v>86</v>
       </c>
       <c r="K38" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="478"/>
-      <c r="M38" s="478"/>
-      <c r="N38" s="478"/>
-      <c r="O38" s="478"/>
-      <c r="P38" s="476"/>
+      <c r="L38" s="480"/>
+      <c r="M38" s="480"/>
+      <c r="N38" s="480"/>
+      <c r="O38" s="480"/>
+      <c r="P38" s="494"/>
     </row>
     <row r="39" spans="1:17" s="348" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="260">
@@ -9864,71 +10867,73 @@
       <c r="P39" s="346"/>
       <c r="Q39" s="349"/>
     </row>
-    <row r="40" spans="1:17" s="215" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="488" t="s">
+    <row r="40" spans="1:17" s="348" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="543"/>
+      <c r="B40" s="544"/>
+      <c r="C40" s="545"/>
+      <c r="D40" s="546"/>
+      <c r="E40" s="546"/>
+      <c r="F40" s="547"/>
+      <c r="G40" s="547"/>
+      <c r="H40" s="548"/>
+      <c r="I40" s="346"/>
+      <c r="J40" s="346"/>
+      <c r="K40" s="347"/>
+      <c r="L40" s="346"/>
+      <c r="M40" s="346"/>
+      <c r="N40" s="346"/>
+      <c r="O40" s="260"/>
+      <c r="P40" s="346"/>
+      <c r="Q40" s="349"/>
+    </row>
+    <row r="41" spans="1:17" s="215" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="485" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="489"/>
-      <c r="C40" s="489"/>
-      <c r="D40" s="489"/>
-      <c r="E40" s="489"/>
-      <c r="F40" s="489"/>
-      <c r="G40" s="489"/>
-      <c r="H40" s="490"/>
-      <c r="I40" s="216">
+      <c r="B41" s="486"/>
+      <c r="C41" s="486"/>
+      <c r="D41" s="486"/>
+      <c r="E41" s="486"/>
+      <c r="F41" s="486"/>
+      <c r="G41" s="486"/>
+      <c r="H41" s="487"/>
+      <c r="I41" s="216">
         <f>SUM(I39)</f>
         <v>1860000</v>
       </c>
-      <c r="J40" s="217"/>
-      <c r="K40" s="217"/>
-      <c r="L40" s="216">
+      <c r="J41" s="217"/>
+      <c r="K41" s="217"/>
+      <c r="L41" s="216">
         <f>SUM(L39)</f>
         <v>1860000</v>
       </c>
-      <c r="M40" s="217"/>
-      <c r="N40" s="216">
+      <c r="M41" s="217"/>
+      <c r="N41" s="216">
         <f>SUM(N39)</f>
         <v>1860000</v>
       </c>
-      <c r="O40" s="216"/>
-      <c r="P40" s="217"/>
-    </row>
-    <row r="41" spans="1:17" s="223" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="279"/>
-      <c r="B41" s="279"/>
-      <c r="C41" s="279"/>
-      <c r="D41" s="279"/>
-      <c r="E41" s="279"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
-      <c r="H41" s="279"/>
-      <c r="I41" s="222"/>
-      <c r="L41" s="222"/>
-      <c r="M41" s="280"/>
-      <c r="N41" s="280"/>
-      <c r="O41" s="222"/>
+      <c r="O41" s="216"/>
+      <c r="P41" s="217"/>
     </row>
     <row r="42" spans="1:17" s="223" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="332"/>
-      <c r="B42" s="332"/>
-      <c r="C42" s="332"/>
-      <c r="D42" s="332"/>
-      <c r="E42" s="332"/>
-      <c r="F42" s="332"/>
-      <c r="G42" s="332"/>
-      <c r="H42" s="332"/>
+      <c r="A42" s="279"/>
+      <c r="B42" s="279"/>
+      <c r="C42" s="279"/>
+      <c r="D42" s="279"/>
+      <c r="E42" s="279"/>
+      <c r="F42" s="279"/>
+      <c r="G42" s="279"/>
+      <c r="H42" s="279"/>
       <c r="I42" s="222"/>
       <c r="L42" s="222"/>
-      <c r="M42" s="331"/>
-      <c r="N42" s="331"/>
+      <c r="M42" s="280"/>
+      <c r="N42" s="280"/>
       <c r="O42" s="222"/>
     </row>
-    <row r="43" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="475" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="475"/>
-      <c r="C43" s="475"/>
+    <row r="43" spans="1:17" s="223" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="332"/>
+      <c r="B43" s="332"/>
+      <c r="C43" s="332"/>
       <c r="D43" s="332"/>
       <c r="E43" s="332"/>
       <c r="F43" s="332"/>
@@ -9941,21 +10946,17 @@
       <c r="O43" s="222"/>
     </row>
     <row r="44" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="332"/>
-      <c r="B44" s="332"/>
-      <c r="C44" s="332"/>
-      <c r="D44" s="491" t="s">
-        <v>196</v>
-      </c>
-      <c r="E44" s="491"/>
-      <c r="F44" s="491"/>
-      <c r="G44" s="491"/>
-      <c r="H44" s="491"/>
-      <c r="I44" s="491"/>
-      <c r="J44" s="492" t="s">
-        <v>51</v>
-      </c>
-      <c r="K44" s="492"/>
+      <c r="A44" s="481" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="481"/>
+      <c r="C44" s="481"/>
+      <c r="D44" s="332"/>
+      <c r="E44" s="332"/>
+      <c r="F44" s="332"/>
+      <c r="G44" s="332"/>
+      <c r="H44" s="332"/>
+      <c r="I44" s="222"/>
       <c r="L44" s="222"/>
       <c r="M44" s="331"/>
       <c r="N44" s="331"/>
@@ -9965,18 +10966,18 @@
       <c r="A45" s="332"/>
       <c r="B45" s="332"/>
       <c r="C45" s="332"/>
-      <c r="D45" s="493" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" s="493"/>
-      <c r="F45" s="493"/>
-      <c r="G45" s="493"/>
-      <c r="H45" s="493"/>
-      <c r="I45" s="493"/>
-      <c r="J45" s="497">
-        <v>2112246</v>
-      </c>
-      <c r="K45" s="497"/>
+      <c r="D45" s="482" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="482"/>
+      <c r="F45" s="482"/>
+      <c r="G45" s="482"/>
+      <c r="H45" s="482"/>
+      <c r="I45" s="482"/>
+      <c r="J45" s="483" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="483"/>
       <c r="L45" s="222"/>
       <c r="M45" s="331"/>
       <c r="N45" s="331"/>
@@ -9986,171 +10987,181 @@
       <c r="A46" s="332"/>
       <c r="B46" s="332"/>
       <c r="C46" s="332"/>
-      <c r="D46" s="493" t="s">
-        <v>198</v>
-      </c>
-      <c r="E46" s="493"/>
-      <c r="F46" s="493"/>
-      <c r="G46" s="493"/>
-      <c r="H46" s="493"/>
-      <c r="I46" s="493"/>
-      <c r="J46" s="497">
-        <f>O32</f>
-        <v>4504650.0000000009</v>
-      </c>
-      <c r="K46" s="497"/>
+      <c r="D46" s="473" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="473"/>
+      <c r="F46" s="473"/>
+      <c r="G46" s="473"/>
+      <c r="H46" s="473"/>
+      <c r="I46" s="473"/>
+      <c r="J46" s="477">
+        <v>2112246</v>
+      </c>
+      <c r="K46" s="477"/>
       <c r="L46" s="222"/>
       <c r="M46" s="331"/>
       <c r="N46" s="331"/>
       <c r="O46" s="222"/>
     </row>
     <row r="47" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="279"/>
-      <c r="B47" s="279"/>
-      <c r="C47" s="279"/>
-      <c r="D47" s="493" t="s">
-        <v>199</v>
-      </c>
-      <c r="E47" s="493"/>
-      <c r="F47" s="493"/>
-      <c r="G47" s="493"/>
-      <c r="H47" s="493"/>
-      <c r="I47" s="493"/>
-      <c r="J47" s="497">
-        <f>N40</f>
+      <c r="A47" s="332"/>
+      <c r="B47" s="332"/>
+      <c r="C47" s="332"/>
+      <c r="D47" s="473" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="473"/>
+      <c r="F47" s="473"/>
+      <c r="G47" s="473"/>
+      <c r="H47" s="473"/>
+      <c r="I47" s="473"/>
+      <c r="J47" s="477">
+        <f>O32</f>
+        <v>4504650.0000000009</v>
+      </c>
+      <c r="K47" s="477"/>
+      <c r="L47" s="222"/>
+      <c r="M47" s="331"/>
+      <c r="N47" s="331"/>
+      <c r="O47" s="222"/>
+    </row>
+    <row r="48" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="279"/>
+      <c r="B48" s="279"/>
+      <c r="C48" s="279"/>
+      <c r="D48" s="473" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="473"/>
+      <c r="F48" s="473"/>
+      <c r="G48" s="473"/>
+      <c r="H48" s="473"/>
+      <c r="I48" s="473"/>
+      <c r="J48" s="477">
+        <f>N41</f>
         <v>1860000</v>
       </c>
-      <c r="K47" s="497"/>
-      <c r="L47" s="222"/>
-      <c r="M47" s="280"/>
-      <c r="N47" s="280"/>
-      <c r="O47" s="222"/>
-    </row>
-    <row r="48" spans="1:17" s="223" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="332"/>
-      <c r="B48" s="332"/>
-      <c r="C48" s="332"/>
-      <c r="D48" s="494" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="495"/>
-      <c r="F48" s="495"/>
-      <c r="G48" s="495"/>
-      <c r="H48" s="495"/>
-      <c r="I48" s="496"/>
-      <c r="J48" s="498">
-        <f>'Bảng lương'!L17</f>
-        <v>2530384.615384616</v>
-      </c>
-      <c r="K48" s="499"/>
+      <c r="K48" s="477"/>
       <c r="L48" s="222"/>
-      <c r="M48" s="331"/>
-      <c r="N48" s="331"/>
+      <c r="M48" s="280"/>
+      <c r="N48" s="280"/>
       <c r="O48" s="222"/>
     </row>
     <row r="49" spans="1:15" s="223" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="332"/>
       <c r="B49" s="332"/>
       <c r="C49" s="332"/>
-      <c r="D49" s="494" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" s="495"/>
-      <c r="F49" s="495"/>
-      <c r="G49" s="495"/>
-      <c r="H49" s="495"/>
-      <c r="I49" s="496"/>
-      <c r="J49" s="498">
-        <f>835000+475000+250000</f>
-        <v>1560000</v>
-      </c>
-      <c r="K49" s="499"/>
-      <c r="L49" s="387" t="s">
-        <v>217</v>
-      </c>
+      <c r="D49" s="474" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="475"/>
+      <c r="F49" s="475"/>
+      <c r="G49" s="475"/>
+      <c r="H49" s="475"/>
+      <c r="I49" s="476"/>
+      <c r="J49" s="478">
+        <f>'Bảng lương'!L17</f>
+        <v>2395769.230769231</v>
+      </c>
+      <c r="K49" s="479"/>
+      <c r="L49" s="222"/>
       <c r="M49" s="331"/>
       <c r="N49" s="331"/>
       <c r="O49" s="222"/>
     </row>
     <row r="50" spans="1:15" s="223" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="279"/>
-      <c r="B50" s="279"/>
-      <c r="C50" s="279"/>
-      <c r="D50" s="493" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50" s="493"/>
-      <c r="F50" s="493"/>
-      <c r="G50" s="493"/>
-      <c r="H50" s="493"/>
-      <c r="I50" s="493"/>
-      <c r="J50" s="497">
-        <f>J45+J46+J47+J49-J48</f>
-        <v>7506511.384615384</v>
-      </c>
-      <c r="K50" s="497"/>
-      <c r="L50" s="222"/>
-      <c r="M50" s="280"/>
+      <c r="A50" s="332"/>
+      <c r="B50" s="332"/>
+      <c r="C50" s="332"/>
+      <c r="D50" s="474" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" s="475"/>
+      <c r="F50" s="475"/>
+      <c r="G50" s="475"/>
+      <c r="H50" s="475"/>
+      <c r="I50" s="476"/>
+      <c r="J50" s="478">
+        <f>835000+475000+250000</f>
+        <v>1560000</v>
+      </c>
+      <c r="K50" s="479"/>
+      <c r="L50" s="384" t="s">
+        <v>216</v>
+      </c>
+      <c r="M50" s="331"/>
+      <c r="N50" s="331"/>
       <c r="O50" s="222"/>
     </row>
     <row r="51" spans="1:15" s="223" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="279"/>
       <c r="B51" s="279"/>
       <c r="C51" s="279"/>
-      <c r="D51" s="279"/>
-      <c r="E51" s="279"/>
-      <c r="F51" s="279"/>
-      <c r="G51" s="279"/>
-      <c r="H51" s="279"/>
-      <c r="I51" s="222"/>
-      <c r="L51" s="385">
-        <f>J50+2500000</f>
-        <v>10006511.384615384</v>
-      </c>
+      <c r="D51" s="473" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="473"/>
+      <c r="F51" s="473"/>
+      <c r="G51" s="473"/>
+      <c r="H51" s="473"/>
+      <c r="I51" s="473"/>
+      <c r="J51" s="477">
+        <f>J46+J47+J48+J50-J49</f>
+        <v>7641126.769230769</v>
+      </c>
+      <c r="K51" s="477"/>
+      <c r="L51" s="222"/>
       <c r="M51" s="280"/>
-      <c r="N51" s="280"/>
       <c r="O51" s="222"/>
     </row>
     <row r="52" spans="1:15" s="223" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="221"/>
-      <c r="B52" s="221"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="221"/>
-      <c r="E52" s="221"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="221"/>
-      <c r="H52" s="221"/>
+      <c r="A52" s="279"/>
+      <c r="B52" s="279"/>
+      <c r="C52" s="279"/>
+      <c r="D52" s="279"/>
+      <c r="E52" s="279"/>
+      <c r="F52" s="279"/>
+      <c r="G52" s="279"/>
+      <c r="H52" s="279"/>
       <c r="I52" s="222"/>
-      <c r="L52" s="222"/>
-      <c r="N52" s="222"/>
+      <c r="L52" s="382">
+        <f>J51+2500000</f>
+        <v>10141126.769230768</v>
+      </c>
+      <c r="M52" s="280"/>
+      <c r="N52" s="280"/>
       <c r="O52" s="222"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="96"/>
-      <c r="B53" s="475" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="475"/>
-      <c r="D53" s="475"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="475" t="s">
-        <v>117</v>
-      </c>
-      <c r="J53" s="475"/>
+    <row r="53" spans="1:15" s="223" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="221"/>
+      <c r="B53" s="221"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="221"/>
+      <c r="E53" s="221"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="221"/>
+      <c r="H53" s="221"/>
+      <c r="I53" s="222"/>
+      <c r="L53" s="222"/>
+      <c r="N53" s="222"/>
+      <c r="O53" s="222"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="96"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
+      <c r="B54" s="481" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="481"/>
+      <c r="D54" s="481"/>
       <c r="E54" s="96"/>
       <c r="F54" s="96"/>
       <c r="G54" s="96"/>
       <c r="H54" s="96"/>
-      <c r="I54" s="218"/>
+      <c r="I54" s="481" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" s="481"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="96"/>
@@ -10198,7 +11209,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="96"/>
-      <c r="B59" s="98"/>
+      <c r="B59" s="96"/>
       <c r="C59" s="96"/>
       <c r="D59" s="96"/>
       <c r="E59" s="96"/>
@@ -10208,89 +11219,48 @@
       <c r="I59" s="218"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="100"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="219"/>
+      <c r="A60" s="96"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="218"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="482"/>
-      <c r="B61" s="482"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H63" s="220"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="482"/>
-      <c r="B65" s="482"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
+      <c r="I61" s="219"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="488"/>
+      <c r="B62" s="488"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H64" s="220"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="488"/>
+      <c r="B66" s="488"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P36:P38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="B53:D53"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="P6:P8"/>
@@ -10307,6 +11277,58 @@
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A34:P34"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10317,8 +11339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10847,16 +11869,16 @@
       <c r="C1" s="175"/>
       <c r="D1" s="175"/>
       <c r="E1" s="175"/>
-      <c r="Z1" s="518" t="s">
+      <c r="Z1" s="504" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="519"/>
-      <c r="AB1" s="519"/>
-      <c r="AC1" s="519"/>
-      <c r="AD1" s="519"/>
-      <c r="AE1" s="519"/>
-      <c r="AF1" s="519"/>
-      <c r="AG1" s="520"/>
+      <c r="AA1" s="505"/>
+      <c r="AB1" s="505"/>
+      <c r="AC1" s="505"/>
+      <c r="AD1" s="505"/>
+      <c r="AE1" s="505"/>
+      <c r="AF1" s="505"/>
+      <c r="AG1" s="506"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="178" t="s">
@@ -10866,18 +11888,18 @@
       <c r="C2" s="179"/>
       <c r="D2" s="179"/>
       <c r="E2" s="179"/>
-      <c r="Z2" s="501" t="s">
+      <c r="Z2" s="499" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="502"/>
-      <c r="AB2" s="502"/>
-      <c r="AC2" s="502"/>
-      <c r="AD2" s="502"/>
-      <c r="AE2" s="503"/>
-      <c r="AF2" s="504" t="s">
+      <c r="AA2" s="500"/>
+      <c r="AB2" s="500"/>
+      <c r="AC2" s="500"/>
+      <c r="AD2" s="500"/>
+      <c r="AE2" s="501"/>
+      <c r="AF2" s="502" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="505"/>
+      <c r="AG2" s="503"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="178" t="s">
@@ -10887,18 +11909,18 @@
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
       <c r="E3" s="87"/>
-      <c r="Z3" s="501" t="s">
+      <c r="Z3" s="499" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" s="502"/>
-      <c r="AB3" s="502"/>
-      <c r="AC3" s="502"/>
-      <c r="AD3" s="502"/>
-      <c r="AE3" s="503"/>
-      <c r="AF3" s="504" t="s">
+      <c r="AA3" s="500"/>
+      <c r="AB3" s="500"/>
+      <c r="AC3" s="500"/>
+      <c r="AD3" s="500"/>
+      <c r="AE3" s="501"/>
+      <c r="AF3" s="502" t="s">
         <v>93</v>
       </c>
-      <c r="AG3" s="505"/>
+      <c r="AG3" s="503"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="178" t="s">
@@ -10911,18 +11933,18 @@
       <c r="T4" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="501" t="s">
+      <c r="Z4" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="AA4" s="502"/>
-      <c r="AB4" s="502"/>
-      <c r="AC4" s="502"/>
-      <c r="AD4" s="502"/>
-      <c r="AE4" s="503"/>
-      <c r="AF4" s="504" t="s">
+      <c r="AA4" s="500"/>
+      <c r="AB4" s="500"/>
+      <c r="AC4" s="500"/>
+      <c r="AD4" s="500"/>
+      <c r="AE4" s="501"/>
+      <c r="AF4" s="502" t="s">
         <v>96</v>
       </c>
-      <c r="AG4" s="505"/>
+      <c r="AG4" s="503"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="178" t="s">
@@ -10932,18 +11954,18 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="87"/>
-      <c r="Z5" s="501" t="s">
+      <c r="Z5" s="499" t="s">
         <v>98</v>
       </c>
-      <c r="AA5" s="502"/>
-      <c r="AB5" s="502"/>
-      <c r="AC5" s="502"/>
-      <c r="AD5" s="502"/>
-      <c r="AE5" s="503"/>
-      <c r="AF5" s="504" t="s">
+      <c r="AA5" s="500"/>
+      <c r="AB5" s="500"/>
+      <c r="AC5" s="500"/>
+      <c r="AD5" s="500"/>
+      <c r="AE5" s="501"/>
+      <c r="AF5" s="502" t="s">
         <v>99</v>
       </c>
-      <c r="AG5" s="505"/>
+      <c r="AG5" s="503"/>
     </row>
     <row r="6" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="180"/>
@@ -10953,93 +11975,93 @@
       <c r="E6" s="180"/>
     </row>
     <row r="7" spans="1:40" s="183" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="506" t="s">
+      <c r="A7" s="508" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="506"/>
-      <c r="C7" s="506"/>
-      <c r="D7" s="506"/>
-      <c r="E7" s="506"/>
-      <c r="F7" s="506"/>
-      <c r="G7" s="506"/>
-      <c r="H7" s="506"/>
-      <c r="I7" s="506"/>
-      <c r="J7" s="506"/>
-      <c r="K7" s="506"/>
-      <c r="L7" s="506"/>
-      <c r="M7" s="506"/>
-      <c r="N7" s="506"/>
-      <c r="O7" s="506"/>
-      <c r="P7" s="506"/>
-      <c r="Q7" s="506"/>
-      <c r="R7" s="506"/>
-      <c r="S7" s="506"/>
-      <c r="T7" s="506"/>
-      <c r="U7" s="506"/>
-      <c r="V7" s="506"/>
-      <c r="W7" s="506"/>
-      <c r="X7" s="506"/>
-      <c r="Y7" s="506"/>
-      <c r="Z7" s="506"/>
-      <c r="AA7" s="506"/>
-      <c r="AB7" s="506"/>
-      <c r="AC7" s="506"/>
-      <c r="AD7" s="506"/>
-      <c r="AE7" s="506"/>
-      <c r="AF7" s="506"/>
-      <c r="AG7" s="506"/>
-      <c r="AH7" s="506"/>
-      <c r="AI7" s="506"/>
-      <c r="AJ7" s="506"/>
-      <c r="AK7" s="506"/>
-      <c r="AL7" s="506"/>
-      <c r="AM7" s="506"/>
+      <c r="B7" s="508"/>
+      <c r="C7" s="508"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="508"/>
+      <c r="F7" s="508"/>
+      <c r="G7" s="508"/>
+      <c r="H7" s="508"/>
+      <c r="I7" s="508"/>
+      <c r="J7" s="508"/>
+      <c r="K7" s="508"/>
+      <c r="L7" s="508"/>
+      <c r="M7" s="508"/>
+      <c r="N7" s="508"/>
+      <c r="O7" s="508"/>
+      <c r="P7" s="508"/>
+      <c r="Q7" s="508"/>
+      <c r="R7" s="508"/>
+      <c r="S7" s="508"/>
+      <c r="T7" s="508"/>
+      <c r="U7" s="508"/>
+      <c r="V7" s="508"/>
+      <c r="W7" s="508"/>
+      <c r="X7" s="508"/>
+      <c r="Y7" s="508"/>
+      <c r="Z7" s="508"/>
+      <c r="AA7" s="508"/>
+      <c r="AB7" s="508"/>
+      <c r="AC7" s="508"/>
+      <c r="AD7" s="508"/>
+      <c r="AE7" s="508"/>
+      <c r="AF7" s="508"/>
+      <c r="AG7" s="508"/>
+      <c r="AH7" s="508"/>
+      <c r="AI7" s="508"/>
+      <c r="AJ7" s="508"/>
+      <c r="AK7" s="508"/>
+      <c r="AL7" s="508"/>
+      <c r="AM7" s="508"/>
       <c r="AN7" s="182"/>
     </row>
     <row r="9" spans="1:40" s="188" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="507" t="s">
+      <c r="A9" s="509" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="507" t="s">
+      <c r="B9" s="509" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="507" t="s">
+      <c r="C9" s="509" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="510" t="s">
+      <c r="D9" s="512" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="511"/>
-      <c r="F9" s="511"/>
-      <c r="G9" s="511"/>
-      <c r="H9" s="511"/>
-      <c r="I9" s="511"/>
-      <c r="J9" s="511"/>
-      <c r="K9" s="511"/>
-      <c r="L9" s="511"/>
-      <c r="M9" s="511"/>
-      <c r="N9" s="511"/>
-      <c r="O9" s="511"/>
-      <c r="P9" s="511"/>
-      <c r="Q9" s="511"/>
-      <c r="R9" s="511"/>
-      <c r="S9" s="511"/>
-      <c r="T9" s="511"/>
-      <c r="U9" s="511"/>
-      <c r="V9" s="511"/>
-      <c r="W9" s="511"/>
-      <c r="X9" s="511"/>
-      <c r="Y9" s="511"/>
-      <c r="Z9" s="511"/>
-      <c r="AA9" s="511"/>
-      <c r="AB9" s="511"/>
-      <c r="AC9" s="511"/>
-      <c r="AD9" s="511"/>
-      <c r="AE9" s="511"/>
-      <c r="AF9" s="511"/>
-      <c r="AG9" s="511"/>
-      <c r="AH9" s="512"/>
-      <c r="AI9" s="513" t="s">
+      <c r="E9" s="513"/>
+      <c r="F9" s="513"/>
+      <c r="G9" s="513"/>
+      <c r="H9" s="513"/>
+      <c r="I9" s="513"/>
+      <c r="J9" s="513"/>
+      <c r="K9" s="513"/>
+      <c r="L9" s="513"/>
+      <c r="M9" s="513"/>
+      <c r="N9" s="513"/>
+      <c r="O9" s="513"/>
+      <c r="P9" s="513"/>
+      <c r="Q9" s="513"/>
+      <c r="R9" s="513"/>
+      <c r="S9" s="513"/>
+      <c r="T9" s="513"/>
+      <c r="U9" s="513"/>
+      <c r="V9" s="513"/>
+      <c r="W9" s="513"/>
+      <c r="X9" s="513"/>
+      <c r="Y9" s="513"/>
+      <c r="Z9" s="513"/>
+      <c r="AA9" s="513"/>
+      <c r="AB9" s="513"/>
+      <c r="AC9" s="513"/>
+      <c r="AD9" s="513"/>
+      <c r="AE9" s="513"/>
+      <c r="AF9" s="513"/>
+      <c r="AG9" s="513"/>
+      <c r="AH9" s="514"/>
+      <c r="AI9" s="515" t="s">
         <v>104</v>
       </c>
       <c r="AJ9" s="184"/>
@@ -11049,9 +12071,9 @@
       <c r="AN9" s="187"/>
     </row>
     <row r="10" spans="1:40" s="188" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="508"/>
-      <c r="B10" s="508"/>
-      <c r="C10" s="508"/>
+      <c r="A10" s="510"/>
+      <c r="B10" s="510"/>
+      <c r="C10" s="510"/>
       <c r="D10" s="189">
         <v>1</v>
       </c>
@@ -11142,10 +12164,8 @@
       <c r="AG10" s="189">
         <v>30</v>
       </c>
-      <c r="AH10" s="189">
-        <v>31</v>
-      </c>
-      <c r="AI10" s="513"/>
+      <c r="AH10" s="189"/>
+      <c r="AI10" s="515"/>
       <c r="AJ10" s="190"/>
       <c r="AK10" s="186"/>
       <c r="AL10" s="186"/>
@@ -11153,9 +12173,9 @@
       <c r="AN10" s="187"/>
     </row>
     <row r="11" spans="1:40" s="196" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="509"/>
-      <c r="B11" s="509"/>
-      <c r="C11" s="509"/>
+      <c r="A11" s="511"/>
+      <c r="B11" s="511"/>
+      <c r="C11" s="511"/>
       <c r="D11" s="189" t="s">
         <v>108</v>
       </c>
@@ -11246,10 +12266,8 @@
       <c r="AG11" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="AH11" s="191" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI11" s="513"/>
+      <c r="AH11" s="191"/>
+      <c r="AI11" s="515"/>
       <c r="AJ11" s="195"/>
       <c r="AN11" s="197"/>
     </row>
@@ -11319,7 +12337,9 @@
       <c r="W12" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="X12" s="290"/>
+      <c r="X12" s="290" t="s">
+        <v>90</v>
+      </c>
       <c r="Y12" s="194" t="s">
         <v>90</v>
       </c>
@@ -11345,9 +12365,7 @@
       <c r="AG12" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="AH12" s="191" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH12" s="191"/>
       <c r="AI12" s="198">
         <f>COUNTIF(D12:AH12,"x")+ COUNTIF(D12:AH12,"x/2")/2+COUNTIF(D12:AH12,"CT")+COUNTIF(D12:AH12,"TT")</f>
         <v>26</v>
@@ -11431,12 +12449,10 @@
       <c r="AG13" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="AH13" s="191" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH13" s="191"/>
       <c r="AI13" s="198">
         <f t="shared" ref="AI13:AI17" si="0">COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")</f>
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ13" s="195"/>
       <c r="AN13" s="197"/>
@@ -11446,10 +12462,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="227" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="226" t="s">
         <v>219</v>
-      </c>
-      <c r="C14" s="226" t="s">
-        <v>220</v>
       </c>
       <c r="D14" s="191"/>
       <c r="E14" s="191"/>
@@ -11497,12 +12513,10 @@
       <c r="AG14" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="AH14" s="191" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH14" s="191"/>
       <c r="AI14" s="198">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ14" s="195"/>
       <c r="AN14" s="197"/>
@@ -11607,12 +12621,10 @@
       <c r="AG15" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="191" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH15" s="191"/>
       <c r="AI15" s="198">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ15" s="195"/>
       <c r="AN15" s="197"/>
@@ -11683,7 +12695,9 @@
       <c r="W16" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="X16" s="290"/>
+      <c r="X16" s="290" t="s">
+        <v>99</v>
+      </c>
       <c r="Y16" s="194" t="s">
         <v>90</v>
       </c>
@@ -11711,9 +12725,7 @@
       <c r="AG16" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="AH16" s="191" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH16" s="191"/>
       <c r="AI16" s="198">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -11809,21 +12821,19 @@
       <c r="AG17" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="AH17" s="191" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH17" s="191"/>
       <c r="AI17" s="198">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ17" s="195"/>
       <c r="AN17" s="197"/>
     </row>
     <row r="18" spans="1:40" s="196" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="514" t="s">
+      <c r="A18" s="516" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="515"/>
+      <c r="B18" s="517"/>
       <c r="C18" s="199"/>
       <c r="D18" s="199"/>
       <c r="E18" s="200"/>
@@ -11858,7 +12868,7 @@
       <c r="AH18" s="200"/>
       <c r="AI18" s="201">
         <f>SUM(AI12:AI16)</f>
-        <v>110.5</v>
+        <v>107.5</v>
       </c>
       <c r="AJ18" s="202"/>
       <c r="AK18" s="203"/>
@@ -11866,49 +12876,49 @@
       <c r="AN18" s="197"/>
     </row>
     <row r="20" spans="1:40" s="209" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="516" t="s">
+      <c r="A20" s="518" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="516"/>
-      <c r="C20" s="516"/>
-      <c r="D20" s="516"/>
-      <c r="E20" s="516"/>
-      <c r="F20" s="516"/>
-      <c r="G20" s="516"/>
+      <c r="B20" s="518"/>
+      <c r="C20" s="518"/>
+      <c r="D20" s="518"/>
+      <c r="E20" s="518"/>
+      <c r="F20" s="518"/>
+      <c r="G20" s="518"/>
       <c r="H20" s="204"/>
-      <c r="I20" s="517"/>
-      <c r="J20" s="517"/>
-      <c r="K20" s="517"/>
-      <c r="L20" s="517"/>
-      <c r="M20" s="517"/>
+      <c r="I20" s="519"/>
+      <c r="J20" s="519"/>
+      <c r="K20" s="519"/>
+      <c r="L20" s="519"/>
+      <c r="M20" s="519"/>
       <c r="N20" s="205"/>
-      <c r="O20" s="517" t="s">
+      <c r="O20" s="519" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="517"/>
-      <c r="Q20" s="517"/>
-      <c r="R20" s="517"/>
-      <c r="S20" s="517"/>
-      <c r="T20" s="517"/>
-      <c r="U20" s="517"/>
-      <c r="V20" s="517"/>
-      <c r="W20" s="517"/>
-      <c r="X20" s="517"/>
-      <c r="Y20" s="517"/>
+      <c r="P20" s="519"/>
+      <c r="Q20" s="519"/>
+      <c r="R20" s="519"/>
+      <c r="S20" s="519"/>
+      <c r="T20" s="519"/>
+      <c r="U20" s="519"/>
+      <c r="V20" s="519"/>
+      <c r="W20" s="519"/>
+      <c r="X20" s="519"/>
+      <c r="Y20" s="519"/>
       <c r="Z20" s="206"/>
       <c r="AA20" s="206"/>
       <c r="AB20" s="207"/>
-      <c r="AC20" s="517"/>
-      <c r="AD20" s="517"/>
-      <c r="AE20" s="517"/>
-      <c r="AF20" s="517"/>
-      <c r="AG20" s="517"/>
-      <c r="AH20" s="517"/>
-      <c r="AI20" s="517"/>
-      <c r="AJ20" s="517"/>
-      <c r="AK20" s="517"/>
-      <c r="AL20" s="517"/>
-      <c r="AM20" s="517"/>
+      <c r="AC20" s="519"/>
+      <c r="AD20" s="519"/>
+      <c r="AE20" s="519"/>
+      <c r="AF20" s="519"/>
+      <c r="AG20" s="519"/>
+      <c r="AH20" s="519"/>
+      <c r="AI20" s="519"/>
+      <c r="AJ20" s="519"/>
+      <c r="AK20" s="519"/>
+      <c r="AL20" s="519"/>
+      <c r="AM20" s="519"/>
       <c r="AN20" s="208"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.3">
@@ -11942,131 +12952,131 @@
       <c r="AN35" s="213"/>
     </row>
     <row r="36" spans="3:40" s="212" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="500"/>
-      <c r="H36" s="500"/>
-      <c r="I36" s="500"/>
-      <c r="J36" s="500"/>
-      <c r="K36" s="500"/>
-      <c r="L36" s="500"/>
-      <c r="M36" s="500"/>
-      <c r="N36" s="500"/>
-      <c r="O36" s="500"/>
-      <c r="P36" s="500"/>
-      <c r="Q36" s="500"/>
-      <c r="R36" s="500"/>
-      <c r="S36" s="500"/>
-      <c r="T36" s="500"/>
-      <c r="U36" s="500"/>
-      <c r="V36" s="500"/>
-      <c r="W36" s="500"/>
-      <c r="X36" s="500"/>
+      <c r="G36" s="507"/>
+      <c r="H36" s="507"/>
+      <c r="I36" s="507"/>
+      <c r="J36" s="507"/>
+      <c r="K36" s="507"/>
+      <c r="L36" s="507"/>
+      <c r="M36" s="507"/>
+      <c r="N36" s="507"/>
+      <c r="O36" s="507"/>
+      <c r="P36" s="507"/>
+      <c r="Q36" s="507"/>
+      <c r="R36" s="507"/>
+      <c r="S36" s="507"/>
+      <c r="T36" s="507"/>
+      <c r="U36" s="507"/>
+      <c r="V36" s="507"/>
+      <c r="W36" s="507"/>
+      <c r="X36" s="507"/>
       <c r="AN36" s="213"/>
     </row>
     <row r="37" spans="3:40" s="212" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="500"/>
-      <c r="H37" s="500"/>
-      <c r="I37" s="500"/>
-      <c r="J37" s="500"/>
-      <c r="K37" s="500"/>
-      <c r="L37" s="500"/>
-      <c r="M37" s="500"/>
-      <c r="N37" s="500"/>
-      <c r="O37" s="500"/>
-      <c r="P37" s="500"/>
-      <c r="Q37" s="500"/>
-      <c r="R37" s="500"/>
-      <c r="S37" s="500"/>
-      <c r="T37" s="500"/>
-      <c r="U37" s="500"/>
-      <c r="V37" s="500"/>
-      <c r="W37" s="500"/>
-      <c r="X37" s="500"/>
+      <c r="G37" s="507"/>
+      <c r="H37" s="507"/>
+      <c r="I37" s="507"/>
+      <c r="J37" s="507"/>
+      <c r="K37" s="507"/>
+      <c r="L37" s="507"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="507"/>
+      <c r="O37" s="507"/>
+      <c r="P37" s="507"/>
+      <c r="Q37" s="507"/>
+      <c r="R37" s="507"/>
+      <c r="S37" s="507"/>
+      <c r="T37" s="507"/>
+      <c r="U37" s="507"/>
+      <c r="V37" s="507"/>
+      <c r="W37" s="507"/>
+      <c r="X37" s="507"/>
       <c r="AN37" s="213"/>
     </row>
     <row r="38" spans="3:40" s="212" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="500"/>
-      <c r="H38" s="500"/>
-      <c r="I38" s="500"/>
-      <c r="J38" s="500"/>
-      <c r="K38" s="500"/>
-      <c r="L38" s="500"/>
-      <c r="M38" s="500"/>
-      <c r="N38" s="500"/>
-      <c r="O38" s="500"/>
-      <c r="P38" s="500"/>
-      <c r="Q38" s="500"/>
-      <c r="R38" s="500"/>
-      <c r="S38" s="500"/>
-      <c r="T38" s="500"/>
-      <c r="U38" s="500"/>
-      <c r="V38" s="500"/>
-      <c r="W38" s="500"/>
-      <c r="X38" s="500"/>
+      <c r="G38" s="507"/>
+      <c r="H38" s="507"/>
+      <c r="I38" s="507"/>
+      <c r="J38" s="507"/>
+      <c r="K38" s="507"/>
+      <c r="L38" s="507"/>
+      <c r="M38" s="507"/>
+      <c r="N38" s="507"/>
+      <c r="O38" s="507"/>
+      <c r="P38" s="507"/>
+      <c r="Q38" s="507"/>
+      <c r="R38" s="507"/>
+      <c r="S38" s="507"/>
+      <c r="T38" s="507"/>
+      <c r="U38" s="507"/>
+      <c r="V38" s="507"/>
+      <c r="W38" s="507"/>
+      <c r="X38" s="507"/>
       <c r="AN38" s="213"/>
     </row>
     <row r="39" spans="3:40" s="212" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="500"/>
-      <c r="H39" s="500"/>
-      <c r="I39" s="500"/>
-      <c r="J39" s="500"/>
-      <c r="K39" s="500"/>
-      <c r="L39" s="500"/>
-      <c r="M39" s="500"/>
-      <c r="N39" s="500"/>
-      <c r="O39" s="500"/>
-      <c r="P39" s="500"/>
-      <c r="Q39" s="500"/>
-      <c r="R39" s="500"/>
-      <c r="S39" s="500"/>
-      <c r="T39" s="500"/>
-      <c r="U39" s="500"/>
-      <c r="V39" s="500"/>
-      <c r="W39" s="500"/>
-      <c r="X39" s="500"/>
+      <c r="G39" s="507"/>
+      <c r="H39" s="507"/>
+      <c r="I39" s="507"/>
+      <c r="J39" s="507"/>
+      <c r="K39" s="507"/>
+      <c r="L39" s="507"/>
+      <c r="M39" s="507"/>
+      <c r="N39" s="507"/>
+      <c r="O39" s="507"/>
+      <c r="P39" s="507"/>
+      <c r="Q39" s="507"/>
+      <c r="R39" s="507"/>
+      <c r="S39" s="507"/>
+      <c r="T39" s="507"/>
+      <c r="U39" s="507"/>
+      <c r="V39" s="507"/>
+      <c r="W39" s="507"/>
+      <c r="X39" s="507"/>
       <c r="AN39" s="213"/>
     </row>
     <row r="40" spans="3:40" s="212" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="500"/>
-      <c r="H40" s="500"/>
-      <c r="I40" s="500"/>
-      <c r="J40" s="500"/>
-      <c r="K40" s="500"/>
-      <c r="L40" s="500"/>
-      <c r="M40" s="500"/>
-      <c r="N40" s="500"/>
-      <c r="O40" s="500"/>
-      <c r="P40" s="500"/>
-      <c r="Q40" s="500"/>
-      <c r="R40" s="500"/>
-      <c r="S40" s="500"/>
-      <c r="T40" s="500"/>
-      <c r="U40" s="500"/>
-      <c r="V40" s="500"/>
-      <c r="W40" s="500"/>
-      <c r="X40" s="500"/>
+      <c r="G40" s="507"/>
+      <c r="H40" s="507"/>
+      <c r="I40" s="507"/>
+      <c r="J40" s="507"/>
+      <c r="K40" s="507"/>
+      <c r="L40" s="507"/>
+      <c r="M40" s="507"/>
+      <c r="N40" s="507"/>
+      <c r="O40" s="507"/>
+      <c r="P40" s="507"/>
+      <c r="Q40" s="507"/>
+      <c r="R40" s="507"/>
+      <c r="S40" s="507"/>
+      <c r="T40" s="507"/>
+      <c r="U40" s="507"/>
+      <c r="V40" s="507"/>
+      <c r="W40" s="507"/>
+      <c r="X40" s="507"/>
       <c r="AN40" s="213"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C41" s="176"/>
       <c r="D41" s="176"/>
-      <c r="G41" s="500"/>
-      <c r="H41" s="500"/>
-      <c r="I41" s="500"/>
-      <c r="J41" s="500"/>
-      <c r="K41" s="500"/>
-      <c r="L41" s="500"/>
-      <c r="M41" s="500"/>
-      <c r="N41" s="500"/>
-      <c r="O41" s="500"/>
-      <c r="P41" s="500"/>
-      <c r="Q41" s="500"/>
-      <c r="R41" s="500"/>
-      <c r="S41" s="500"/>
-      <c r="T41" s="500"/>
-      <c r="U41" s="500"/>
-      <c r="V41" s="500"/>
-      <c r="W41" s="500"/>
-      <c r="X41" s="500"/>
+      <c r="G41" s="507"/>
+      <c r="H41" s="507"/>
+      <c r="I41" s="507"/>
+      <c r="J41" s="507"/>
+      <c r="K41" s="507"/>
+      <c r="L41" s="507"/>
+      <c r="M41" s="507"/>
+      <c r="N41" s="507"/>
+      <c r="O41" s="507"/>
+      <c r="P41" s="507"/>
+      <c r="Q41" s="507"/>
+      <c r="R41" s="507"/>
+      <c r="S41" s="507"/>
+      <c r="T41" s="507"/>
+      <c r="U41" s="507"/>
+      <c r="V41" s="507"/>
+      <c r="W41" s="507"/>
+      <c r="X41" s="507"/>
       <c r="AN41" s="176"/>
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.3">
@@ -12076,13 +13086,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G36:X41"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -12097,6 +13100,13 @@
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="O20:Y20"/>
     <mergeCell ref="AC20:AM20"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -12105,17 +13115,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.109375" style="43" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="43" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" style="42" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
@@ -12127,7 +13137,9 @@
     <col min="12" max="12" width="13.33203125" style="43" customWidth="1"/>
     <col min="13" max="13" width="7.5546875" style="43" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="258" width="9" style="43"/>
+    <col min="15" max="16" width="9" style="43"/>
+    <col min="17" max="17" width="11.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="18" max="258" width="9" style="43"/>
     <col min="259" max="259" width="5.33203125" style="43" customWidth="1"/>
     <col min="260" max="260" width="14.33203125" style="43" customWidth="1"/>
     <col min="261" max="261" width="9.6640625" style="43" customWidth="1"/>
@@ -12949,45 +13961,45 @@
     <col min="16143" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="310" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="530" t="s">
+    <row r="1" spans="1:17" s="310" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="520" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="530"/>
-      <c r="C1" s="530"/>
-      <c r="D1" s="530"/>
+      <c r="B1" s="520"/>
+      <c r="C1" s="520"/>
+      <c r="D1" s="520"/>
       <c r="E1" s="309"/>
-      <c r="F1" s="531" t="s">
+      <c r="F1" s="521" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="531"/>
-      <c r="H1" s="531"/>
-      <c r="I1" s="531"/>
-      <c r="J1" s="531"/>
-      <c r="K1" s="531"/>
-      <c r="L1" s="531"/>
-      <c r="M1" s="531"/>
-    </row>
-    <row r="2" spans="1:14" s="310" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="532" t="s">
+      <c r="G1" s="521"/>
+      <c r="H1" s="521"/>
+      <c r="I1" s="521"/>
+      <c r="J1" s="521"/>
+      <c r="K1" s="521"/>
+      <c r="L1" s="521"/>
+      <c r="M1" s="521"/>
+    </row>
+    <row r="2" spans="1:17" s="310" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="522" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="532"/>
-      <c r="C2" s="532"/>
-      <c r="D2" s="532"/>
+      <c r="B2" s="522"/>
+      <c r="C2" s="522"/>
+      <c r="D2" s="522"/>
       <c r="E2" s="309"/>
-      <c r="F2" s="533" t="s">
+      <c r="F2" s="523" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
-      <c r="K2" s="533"/>
-      <c r="L2" s="533"/>
-      <c r="M2" s="533"/>
-    </row>
-    <row r="3" spans="1:14" s="310" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G2" s="523"/>
+      <c r="H2" s="523"/>
+      <c r="I2" s="523"/>
+      <c r="J2" s="523"/>
+      <c r="K2" s="523"/>
+      <c r="L2" s="523"/>
+      <c r="M2" s="523"/>
+    </row>
+    <row r="3" spans="1:17" s="310" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="311"/>
       <c r="B3" s="311"/>
       <c r="C3" s="311"/>
@@ -12999,50 +14011,50 @@
       <c r="J3" s="312"/>
       <c r="K3" s="312"/>
     </row>
-    <row r="4" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="521" t="s">
+    <row r="4" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="524" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="521"/>
-      <c r="C4" s="521"/>
-      <c r="D4" s="521"/>
-      <c r="E4" s="521"/>
-      <c r="F4" s="521"/>
-      <c r="G4" s="521"/>
-      <c r="H4" s="521"/>
-      <c r="I4" s="521"/>
-      <c r="J4" s="521"/>
-      <c r="K4" s="521"/>
-      <c r="L4" s="521"/>
-      <c r="M4" s="521"/>
-      <c r="N4" s="521"/>
-    </row>
-    <row r="5" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="521" t="s">
+      <c r="B4" s="524"/>
+      <c r="C4" s="524"/>
+      <c r="D4" s="524"/>
+      <c r="E4" s="524"/>
+      <c r="F4" s="524"/>
+      <c r="G4" s="524"/>
+      <c r="H4" s="524"/>
+      <c r="I4" s="524"/>
+      <c r="J4" s="524"/>
+      <c r="K4" s="524"/>
+      <c r="L4" s="524"/>
+      <c r="M4" s="524"/>
+      <c r="N4" s="524"/>
+    </row>
+    <row r="5" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="524" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="521"/>
-      <c r="C5" s="521"/>
-      <c r="D5" s="521"/>
-      <c r="E5" s="521"/>
-      <c r="F5" s="521"/>
-      <c r="G5" s="521"/>
-      <c r="H5" s="521"/>
-      <c r="I5" s="521"/>
-      <c r="J5" s="521"/>
-      <c r="K5" s="521"/>
-      <c r="L5" s="521"/>
-      <c r="M5" s="521"/>
-      <c r="N5" s="521"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L6" s="522" t="s">
+      <c r="B5" s="524"/>
+      <c r="C5" s="524"/>
+      <c r="D5" s="524"/>
+      <c r="E5" s="524"/>
+      <c r="F5" s="524"/>
+      <c r="G5" s="524"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="524"/>
+      <c r="J5" s="524"/>
+      <c r="K5" s="524"/>
+      <c r="L5" s="524"/>
+      <c r="M5" s="524"/>
+      <c r="N5" s="524"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L6" s="525" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="522"/>
-      <c r="N6" s="522"/>
-    </row>
-    <row r="7" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="M6" s="525"/>
+      <c r="N6" s="525"/>
+    </row>
+    <row r="7" spans="1:17" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>18</v>
       </c>
@@ -13086,7 +14098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="48"/>
       <c r="C8" s="49"/>
@@ -13116,11 +14128,11 @@
       <c r="M8" s="49"/>
       <c r="N8" s="50"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="523" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="526" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="524"/>
+      <c r="B9" s="527"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="51"/>
@@ -13138,7 +14150,7 @@
       <c r="M9" s="49"/>
       <c r="N9" s="50"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="53">
         <v>1</v>
       </c>
@@ -13174,30 +14186,30 @@
       <c r="M10" s="56"/>
       <c r="N10" s="53"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="53">
         <v>2</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" s="55">
         <v>10000000</v>
       </c>
       <c r="E11" s="327">
         <f>'bảng chấm công'!AI14</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="55">
         <f>D11/26*E11</f>
-        <v>3461538.4615384615</v>
+        <v>3076923.076923077</v>
       </c>
       <c r="G11" s="55">
         <f>F11*30%</f>
-        <v>1038461.5384615384</v>
+        <v>923076.92307692312</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="56"/>
@@ -13207,12 +14219,16 @@
       </c>
       <c r="L11" s="56">
         <f>F11-G11+H11-I11-J11+K11</f>
-        <v>2423076.923076923</v>
+        <v>2153846.153846154</v>
       </c>
       <c r="M11" s="56"/>
       <c r="N11" s="53"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q11" s="159">
+        <f>2937000-L16</f>
+        <v>829307.69230769202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="53">
         <v>3</v>
       </c>
@@ -13250,7 +14266,7 @@
       <c r="M12" s="56"/>
       <c r="N12" s="53"/>
     </row>
-    <row r="13" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="58">
         <v>4</v>
       </c>
@@ -13265,15 +14281,15 @@
       </c>
       <c r="E13" s="328">
         <f>'bảng chấm công'!AI15</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="60">
         <f t="shared" si="0"/>
-        <v>6923076.923076923</v>
+        <v>6692307.692307693</v>
       </c>
       <c r="G13" s="55">
         <f>F13*30%</f>
-        <v>2076923.0769230768</v>
+        <v>2007692.3076923077</v>
       </c>
       <c r="H13" s="60">
         <f>'Hỗ trợ vận chuyển'!F33</f>
@@ -13287,17 +14303,21 @@
       </c>
       <c r="L13" s="56">
         <f>F13-G13+H13-I13-J13+K13</f>
-        <v>6476665.846153846</v>
+        <v>6315127.384615385</v>
       </c>
       <c r="M13" s="61"/>
       <c r="N13" s="58"/>
-    </row>
-    <row r="14" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="527" t="s">
+      <c r="Q13" s="159">
+        <f>Q11+500000+140000+970000</f>
+        <v>2439307.692307692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="530" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="528"/>
-      <c r="C14" s="529"/>
+      <c r="B14" s="531"/>
+      <c r="C14" s="532"/>
       <c r="D14" s="287">
         <f>SUM(D10:D13)</f>
         <v>37000000</v>
@@ -13305,11 +14325,11 @@
       <c r="E14" s="329"/>
       <c r="F14" s="287">
         <f>SUM(F10:F13)</f>
-        <v>31615384.615384616</v>
+        <v>31000000</v>
       </c>
       <c r="G14" s="287">
         <f>SUM(G10:G13)</f>
-        <v>9484615.3846153822</v>
+        <v>9299999.9999999981</v>
       </c>
       <c r="H14" s="287"/>
       <c r="I14" s="314">
@@ -13326,16 +14346,16 @@
       </c>
       <c r="L14" s="314">
         <f>SUM(L10:L13)</f>
-        <v>23761281.230769232</v>
+        <v>23330512</v>
       </c>
       <c r="M14" s="314"/>
       <c r="N14" s="315"/>
     </row>
-    <row r="15" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="525" t="s">
+    <row r="15" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="528" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="526"/>
+      <c r="B15" s="529"/>
       <c r="C15" s="88"/>
       <c r="D15" s="89"/>
       <c r="E15" s="330"/>
@@ -13349,7 +14369,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="93"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="58">
         <v>1</v>
       </c>
@@ -13364,15 +14384,15 @@
       </c>
       <c r="E16" s="327">
         <f>'bảng chấm công'!AI17</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="55">
         <f t="shared" si="0"/>
-        <v>2769230.7692307695</v>
+        <v>2653846.153846154</v>
       </c>
       <c r="G16" s="55">
         <f>F16*30%</f>
-        <v>830769.23076923087</v>
+        <v>796153.84615384613</v>
       </c>
       <c r="H16" s="60">
         <f>'Hỗ trợ vận chuyển'!D33</f>
@@ -13383,7 +14403,7 @@
       <c r="K16" s="56"/>
       <c r="L16" s="56">
         <f>F16-G16+H16-I16-J16+K16</f>
-        <v>2188461.5384615385</v>
+        <v>2107692.307692308</v>
       </c>
       <c r="M16" s="61"/>
       <c r="N16" s="58"/>
@@ -13403,15 +14423,15 @@
       </c>
       <c r="E17" s="327">
         <f>'bảng chấm công'!AI13</f>
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="F17" s="55">
         <f t="shared" si="0"/>
-        <v>3557692.307692308</v>
+        <v>3365384.6153846155</v>
       </c>
       <c r="G17" s="55">
         <f>F17*30%</f>
-        <v>1067307.6923076923</v>
+        <v>1009615.3846153846</v>
       </c>
       <c r="H17" s="60">
         <f>'Hỗ trợ vận chuyển'!E33</f>
@@ -13426,17 +14446,17 @@
       </c>
       <c r="L17" s="56">
         <f>F17-G17+H17-I17-J17+K17</f>
-        <v>2530384.615384616</v>
+        <v>2395769.230769231</v>
       </c>
       <c r="M17" s="65"/>
       <c r="N17" s="62"/>
     </row>
     <row r="18" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="527" t="s">
+      <c r="A18" s="530" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="528"/>
-      <c r="C18" s="529"/>
+      <c r="B18" s="531"/>
+      <c r="C18" s="532"/>
       <c r="D18" s="316">
         <f>SUM(D16:D17)</f>
         <v>8000000</v>
@@ -13444,11 +14464,11 @@
       <c r="E18" s="317"/>
       <c r="F18" s="316">
         <f>SUM(F16:F17)</f>
-        <v>6326923.0769230779</v>
+        <v>6019230.7692307699</v>
       </c>
       <c r="G18" s="316">
         <f>SUM(G16:G17)</f>
-        <v>1898076.923076923</v>
+        <v>1805769.2307692308</v>
       </c>
       <c r="H18" s="316"/>
       <c r="I18" s="316">
@@ -13465,20 +14485,20 @@
       </c>
       <c r="L18" s="316">
         <f>SUM(L15:L17)</f>
-        <v>4718846.153846154</v>
+        <v>4503461.538461539</v>
       </c>
       <c r="M18" s="315"/>
       <c r="N18" s="315"/>
     </row>
     <row r="20" spans="1:14" s="57" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="521"/>
-      <c r="C20" s="521"/>
-      <c r="D20" s="521"/>
+      <c r="B20" s="524"/>
+      <c r="C20" s="524"/>
+      <c r="D20" s="524"/>
       <c r="E20" s="288"/>
-      <c r="J20" s="521"/>
-      <c r="K20" s="521"/>
-      <c r="L20" s="521"/>
-      <c r="M20" s="521"/>
+      <c r="J20" s="524"/>
+      <c r="K20" s="524"/>
+      <c r="L20" s="524"/>
+      <c r="M20" s="524"/>
     </row>
     <row r="21" spans="1:14" s="310" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="318" t="s">
@@ -13513,7 +14533,9 @@
       <c r="F23" s="159"/>
     </row>
     <row r="25" spans="1:14" s="324" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="318"/>
+      <c r="C25" s="318" t="s">
+        <v>75</v>
+      </c>
       <c r="F25" s="325"/>
       <c r="G25" s="325"/>
       <c r="H25" s="325"/>
@@ -13524,11 +14546,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A9:B9"/>
@@ -13537,6 +14554,11 @@
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:N4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -13562,32 +14584,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="295" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="534" t="s">
+      <c r="A1" s="533" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="534"/>
-      <c r="C1" s="534"/>
+      <c r="B1" s="533"/>
+      <c r="C1" s="533"/>
       <c r="D1" s="297"/>
       <c r="J1" s="296"/>
       <c r="K1" s="297"/>
     </row>
     <row r="2" spans="1:15" s="295" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="535" t="s">
+      <c r="A2" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="535"/>
-      <c r="C2" s="535"/>
+      <c r="B2" s="534"/>
+      <c r="C2" s="534"/>
       <c r="D2" s="297"/>
       <c r="J2" s="296"/>
       <c r="K2" s="297"/>
     </row>
     <row r="3" spans="1:15" s="295" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="435" t="s">
+      <c r="A3" s="452" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="435"/>
-      <c r="C3" s="435"/>
-      <c r="D3" s="435"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
       <c r="E3" s="294"/>
       <c r="F3" s="294"/>
       <c r="G3" s="294"/>
@@ -13618,33 +14640,33 @@
       <c r="O4" s="294"/>
     </row>
     <row r="5" spans="1:15" s="295" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="540" t="s">
+      <c r="A5" s="539" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="542" t="s">
+      <c r="B5" s="541" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="540" t="s">
+      <c r="C5" s="539" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="539" t="s">
+      <c r="D5" s="538" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="539"/>
-      <c r="F5" s="539"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
     </row>
     <row r="6" spans="1:15" s="295" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="541"/>
-      <c r="B6" s="543"/>
-      <c r="C6" s="541"/>
+      <c r="A6" s="540"/>
+      <c r="B6" s="542"/>
+      <c r="C6" s="540"/>
       <c r="D6" s="306" t="s">
         <v>174</v>
       </c>
       <c r="E6" s="306" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="306" t="s">
         <v>208</v>
-      </c>
-      <c r="F6" s="306" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -13657,11 +14679,11 @@
       <c r="C7" s="299" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="386">
+      <c r="D7" s="383">
         <v>15000</v>
       </c>
-      <c r="E7" s="386"/>
-      <c r="F7" s="386"/>
+      <c r="E7" s="383"/>
+      <c r="F7" s="383"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="300">
@@ -13767,7 +14789,7 @@
         <v>44000</v>
       </c>
       <c r="C14" s="300" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14" s="304">
         <v>15000</v>
@@ -13783,7 +14805,7 @@
         <v>44001</v>
       </c>
       <c r="C15" s="300" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="304"/>
       <c r="E15" s="304">
@@ -13799,7 +14821,7 @@
         <v>44002</v>
       </c>
       <c r="C16" s="300" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D16" s="304">
         <v>15000</v>
@@ -13815,7 +14837,7 @@
         <v>44004</v>
       </c>
       <c r="C17" s="300" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17" s="304">
         <v>15000</v>
@@ -13847,7 +14869,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="300" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="304">
         <v>15000</v>
@@ -13865,7 +14887,7 @@
         <v>44006</v>
       </c>
       <c r="C20" s="300" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D20" s="304">
         <v>15000</v>
@@ -13883,7 +14905,7 @@
         <v>44007</v>
       </c>
       <c r="C21" s="300" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" s="304">
         <v>15000</v>
@@ -13899,7 +14921,7 @@
         <v>44006</v>
       </c>
       <c r="C22" s="300" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22" s="304">
         <v>15000</v>
@@ -13915,7 +14937,7 @@
         <v>44006</v>
       </c>
       <c r="C23" s="300" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" s="304">
         <v>10000</v>
@@ -13923,13 +14945,13 @@
       <c r="E23" s="304"/>
       <c r="F23" s="304"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="300"/>
       <c r="B24" s="302">
         <v>44010</v>
       </c>
       <c r="C24" s="300" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D24" s="304"/>
       <c r="E24" s="304">
@@ -13937,13 +14959,13 @@
       </c>
       <c r="F24" s="304"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="300"/>
       <c r="B25" s="302">
         <v>44011</v>
       </c>
       <c r="C25" s="300" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="304"/>
       <c r="E25" s="304"/>
@@ -14008,11 +15030,11 @@
       <c r="F32" s="304"/>
     </row>
     <row r="33" spans="1:6" s="308" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="536" t="s">
+      <c r="A33" s="535" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="537"/>
-      <c r="C33" s="538"/>
+      <c r="B33" s="536"/>
+      <c r="C33" s="537"/>
       <c r="D33" s="307">
         <f>SUM(D7:D32)</f>
         <v>250000</v>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 6_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$121</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="292">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -2747,6 +2747,48 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2883,18 +2925,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2906,6 +2936,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2915,8 +2957,146 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2924,150 +3104,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3220,48 +3262,6 @@
     </xf>
     <xf numFmtId="14" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3573,11 +3573,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S106" sqref="S106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,7 +3588,7 @@
     <col min="3" max="3" width="47" style="104" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="109" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="109" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="109" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="109" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="104"/>
   </cols>
@@ -3629,15 +3630,15 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="419" t="s">
+      <c r="A4" s="433" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="419"/>
-      <c r="C4" s="419"/>
-      <c r="D4" s="419"/>
-      <c r="E4" s="419"/>
-      <c r="F4" s="419"/>
-      <c r="G4" s="419"/>
+      <c r="B4" s="433"/>
+      <c r="C4" s="433"/>
+      <c r="D4" s="433"/>
+      <c r="E4" s="433"/>
+      <c r="F4" s="433"/>
+      <c r="G4" s="433"/>
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
@@ -3649,28 +3650,28 @@
       <c r="G5" s="114"/>
     </row>
     <row r="6" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="420" t="s">
+      <c r="A6" s="434" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="420" t="s">
+      <c r="B6" s="434" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="422" t="s">
+      <c r="C6" s="436" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="424" t="s">
+      <c r="D6" s="438" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="424"/>
-      <c r="F6" s="424" t="s">
+      <c r="E6" s="438"/>
+      <c r="F6" s="438" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="424"/>
-    </row>
-    <row r="7" spans="1:8" s="115" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="421"/>
-      <c r="B7" s="421"/>
-      <c r="C7" s="423"/>
+      <c r="G6" s="438"/>
+    </row>
+    <row r="7" spans="1:8" s="115" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="435"/>
+      <c r="B7" s="435"/>
+      <c r="C7" s="437"/>
       <c r="D7" s="119" t="s">
         <v>83</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="154">
         <v>43949</v>
       </c>
@@ -3701,7 +3702,7 @@
       <c r="F8" s="103"/>
       <c r="G8" s="120"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="154">
         <v>43970</v>
       </c>
@@ -3718,7 +3719,7 @@
       <c r="F9" s="103"/>
       <c r="G9" s="120"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="154">
         <v>43976</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="154">
         <v>43976</v>
       </c>
@@ -3769,7 +3770,7 @@
       <c r="F12" s="103"/>
       <c r="G12" s="120"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="154">
         <v>43983</v>
       </c>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="G13" s="120"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="154">
         <v>43984</v>
       </c>
@@ -3803,7 +3804,7 @@
       </c>
       <c r="G14" s="120"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="154">
         <v>43986</v>
       </c>
@@ -3837,7 +3838,7 @@
       <c r="F16" s="103"/>
       <c r="G16" s="120"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="154">
         <v>43987</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="154">
         <v>43987</v>
       </c>
@@ -3871,7 +3872,7 @@
       </c>
       <c r="G18" s="120"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="154">
         <v>43987</v>
       </c>
@@ -3888,7 +3889,7 @@
       </c>
       <c r="G19" s="120"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="154">
         <v>43987</v>
       </c>
@@ -3905,299 +3906,300 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="154">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B21" s="101" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D21" s="103"/>
       <c r="E21" s="120"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="120">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="103">
+        <v>2000000</v>
+      </c>
+      <c r="G21" s="120"/>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="154">
-        <v>43988</v>
+        <v>43992</v>
       </c>
       <c r="B22" s="101" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="C22" s="102" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="D22" s="103"/>
       <c r="E22" s="120"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="120">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="103">
+        <v>4000000</v>
+      </c>
+      <c r="G22" s="120"/>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="154">
         <v>43992</v>
       </c>
       <c r="B23" s="101" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D23" s="103"/>
       <c r="E23" s="120"/>
       <c r="F23" s="103">
-        <v>2000000</v>
+        <v>2100000</v>
       </c>
       <c r="G23" s="120"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="154">
         <v>43992</v>
       </c>
       <c r="B24" s="101" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D24" s="103"/>
       <c r="E24" s="120"/>
       <c r="F24" s="103">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="G24" s="120"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="154">
         <v>43992</v>
       </c>
       <c r="B25" s="101" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="C25" s="102" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D25" s="103"/>
       <c r="E25" s="120"/>
-      <c r="F25" s="103">
-        <v>2100000</v>
-      </c>
-      <c r="G25" s="120"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="103"/>
+      <c r="G25" s="120">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="154">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B26" s="101" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D26" s="103"/>
       <c r="E26" s="120"/>
-      <c r="F26" s="103">
-        <v>2000000</v>
-      </c>
-      <c r="G26" s="120"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="103"/>
+      <c r="G26" s="120">
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="154">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B27" s="101" t="s">
         <v>255</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D27" s="103"/>
       <c r="E27" s="120"/>
       <c r="F27" s="103"/>
       <c r="G27" s="120">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="154">
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="B28" s="101" t="s">
         <v>259</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D28" s="103"/>
       <c r="E28" s="120"/>
       <c r="F28" s="103"/>
       <c r="G28" s="120">
-        <v>765000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <f>120000+45000</f>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="154">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D29" s="103"/>
       <c r="E29" s="120"/>
       <c r="F29" s="103"/>
       <c r="G29" s="120">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="154">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B30" s="101" t="s">
         <v>259</v>
       </c>
       <c r="C30" s="102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D30" s="103"/>
       <c r="E30" s="120"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="120">
-        <f>120000+45000</f>
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="103">
+        <v>1903000</v>
+      </c>
+      <c r="G30" s="120"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="154">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C31" s="102" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D31" s="103"/>
       <c r="E31" s="120"/>
       <c r="F31" s="103"/>
       <c r="G31" s="120">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="154">
-        <v>43998</v>
+        <v>44001</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C32" s="102" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="D32" s="103"/>
       <c r="E32" s="120"/>
       <c r="F32" s="103">
-        <v>1903000</v>
+        <v>5000000</v>
       </c>
       <c r="G32" s="120"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="154">
-        <v>43998</v>
+        <v>44001</v>
       </c>
       <c r="B33" s="101" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C33" s="102" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="D33" s="103"/>
       <c r="E33" s="120"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="120">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="103">
+        <v>49500000</v>
+      </c>
+      <c r="G33" s="120"/>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="154">
         <v>44001</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C34" s="102" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D34" s="103"/>
       <c r="E34" s="120"/>
       <c r="F34" s="103">
-        <v>5000000</v>
+        <v>430000</v>
       </c>
       <c r="G34" s="120"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="154">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="D35" s="103"/>
       <c r="E35" s="120"/>
-      <c r="F35" s="103">
-        <v>49500000</v>
-      </c>
-      <c r="G35" s="120"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="103"/>
+      <c r="G35" s="120">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="154">
-        <v>44001</v>
+        <v>44006</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="120"/>
-      <c r="F36" s="103">
-        <v>430000</v>
-      </c>
-      <c r="G36" s="120"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="103"/>
+      <c r="G36" s="120">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="154">
-        <v>44002</v>
+        <v>44006</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C37" s="102" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="120"/>
       <c r="F37" s="103"/>
       <c r="G37" s="120">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <f>680000+120000+15000+80000+60000+120000+300000+60000+450000+2585000+958980+1000545</f>
+        <v>6429525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="154">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B38" s="101" t="s">
         <v>253</v>
@@ -4209,353 +4211,312 @@
       <c r="E38" s="120"/>
       <c r="F38" s="103"/>
       <c r="G38" s="120">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="154">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C39" s="102" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="D39" s="103"/>
-      <c r="E39" s="120"/>
+      <c r="E39" s="120">
+        <v>887000</v>
+      </c>
       <c r="F39" s="103"/>
-      <c r="G39" s="120">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="120"/>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="154">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C40" s="102" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="D40" s="103"/>
       <c r="E40" s="120"/>
       <c r="F40" s="103"/>
       <c r="G40" s="120">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>887000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="154">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B41" s="101" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C41" s="102" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D41" s="103"/>
       <c r="E41" s="120"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="120">
-        <f>680000+120000+15000+80000+60000+120000+300000+60000+450000+2585000+958980+1000545</f>
-        <v>6429525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="103">
+        <v>8000000</v>
+      </c>
+      <c r="G41" s="120"/>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="154">
-        <v>44007</v>
+        <v>44009</v>
       </c>
       <c r="B42" s="101" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C42" s="102" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="D42" s="103"/>
       <c r="E42" s="120"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="120">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="103">
+        <v>99000000</v>
+      </c>
+      <c r="G42" s="120"/>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="154">
-        <v>44008</v>
+        <v>44012</v>
       </c>
       <c r="B43" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="102" t="s">
-        <v>290</v>
+      <c r="C43" s="121" t="s">
+        <v>291</v>
       </c>
       <c r="D43" s="103"/>
       <c r="E43" s="120">
-        <v>887000</v>
+        <v>776000</v>
       </c>
       <c r="F43" s="103"/>
       <c r="G43" s="120"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="154">
-        <v>44008</v>
+        <v>44012</v>
       </c>
       <c r="B44" s="101" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="D44" s="103"/>
       <c r="E44" s="120"/>
       <c r="F44" s="103"/>
-      <c r="G44" s="120">
-        <v>887000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="122">
+        <f>15000*22</f>
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="154">
-        <v>44008</v>
+        <v>44012</v>
       </c>
       <c r="B45" s="101" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C45" s="102" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D45" s="103"/>
       <c r="E45" s="120"/>
-      <c r="F45" s="103">
-        <v>8000000</v>
-      </c>
-      <c r="G45" s="120"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="103"/>
+      <c r="G45" s="122">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="154">
-        <v>44009</v>
+        <v>44012</v>
       </c>
       <c r="B46" s="101" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C46" s="102" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D46" s="103"/>
       <c r="E46" s="120"/>
-      <c r="F46" s="103">
-        <v>99000000</v>
-      </c>
-      <c r="G46" s="120"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="103"/>
+      <c r="G46" s="122">
+        <v>776000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="154">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B47" s="101" t="s">
         <v>255</v>
       </c>
-      <c r="C47" s="121" t="s">
-        <v>256</v>
+      <c r="C47" s="123" t="s">
+        <v>258</v>
       </c>
       <c r="D47" s="103"/>
       <c r="E47" s="120"/>
       <c r="F47" s="103"/>
-      <c r="G47" s="120">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="154">
-        <v>44011</v>
-      </c>
-      <c r="B48" s="101" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="121" t="s">
-        <v>256</v>
-      </c>
+      <c r="G47" s="122">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="154"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="102"/>
       <c r="D48" s="103"/>
       <c r="E48" s="120"/>
       <c r="F48" s="103"/>
-      <c r="G48" s="120">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="154">
-        <v>44011</v>
-      </c>
-      <c r="B49" s="101" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="121" t="s">
-        <v>256</v>
-      </c>
-      <c r="D49" s="103"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="120">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="154">
-        <v>44012</v>
-      </c>
-      <c r="B50" s="101" t="s">
-        <v>278</v>
-      </c>
-      <c r="C50" s="121" t="s">
-        <v>291</v>
-      </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="120">
-        <v>776000</v>
-      </c>
-      <c r="F50" s="103"/>
-      <c r="G50" s="120"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="154">
-        <v>44012</v>
-      </c>
-      <c r="B51" s="101" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="102" t="s">
-        <v>256</v>
-      </c>
-      <c r="D51" s="103"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="122">
-        <f>15000*22</f>
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="154">
-        <v>44012</v>
-      </c>
-      <c r="B52" s="101" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="102" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" s="103"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="122">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="154">
-        <v>44012</v>
-      </c>
-      <c r="B53" s="101" t="s">
-        <v>255</v>
-      </c>
-      <c r="C53" s="102" t="s">
-        <v>256</v>
-      </c>
-      <c r="D53" s="103"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="122">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="154">
-        <v>44012</v>
-      </c>
-      <c r="B54" s="101" t="s">
-        <v>268</v>
-      </c>
-      <c r="C54" s="102" t="s">
-        <v>281</v>
-      </c>
-      <c r="D54" s="103"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="122">
-        <v>776000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="154">
-        <v>44012</v>
-      </c>
-      <c r="B55" s="101" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" s="123" t="s">
-        <v>258</v>
-      </c>
-      <c r="D55" s="103"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="122">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="154"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="102"/>
+      <c r="G48" s="122"/>
+    </row>
+    <row r="49" spans="1:7" s="125" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="430" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="431"/>
+      <c r="C49" s="432"/>
+      <c r="D49" s="124">
+        <f>SUM(D8:D48)</f>
+        <v>67068400</v>
+      </c>
+      <c r="E49" s="124">
+        <f>SUM(E8:E48)</f>
+        <v>11987500</v>
+      </c>
+      <c r="F49" s="124">
+        <f>SUM(F8:F48)</f>
+        <v>206120000</v>
+      </c>
+      <c r="G49" s="124">
+        <f>SUM(G8:G48)</f>
+        <v>12462525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="155"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+    </row>
+    <row r="51" spans="1:7" s="125" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="429" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="429"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+    </row>
+    <row r="52" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="155"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+    </row>
+    <row r="53" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="155"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+    </row>
+    <row r="54" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="155"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+    </row>
+    <row r="55" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="155"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="127"/>
+      <c r="G55" s="127"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="154">
+        <v>43984</v>
+      </c>
+      <c r="B56" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="102" t="s">
+        <v>267</v>
+      </c>
       <c r="D56" s="103"/>
       <c r="E56" s="120"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="122"/>
-    </row>
-    <row r="57" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="416" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="417"/>
-      <c r="C57" s="418"/>
-      <c r="D57" s="124">
-        <f>SUM(D8:D56)</f>
-        <v>67068400</v>
-      </c>
-      <c r="E57" s="124">
-        <f>SUM(E8:E56)</f>
-        <v>11987500</v>
-      </c>
-      <c r="F57" s="124">
-        <f>SUM(F8:F56)</f>
-        <v>206120000</v>
-      </c>
-      <c r="G57" s="124">
-        <f>SUM(G8:G56)</f>
-        <v>13162525</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="155"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="127"/>
-    </row>
-    <row r="59" spans="1:8" s="125" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="415" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="415"/>
+      <c r="F56" s="103">
+        <v>10000000</v>
+      </c>
+      <c r="G56" s="120"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="154">
+        <v>43987</v>
+      </c>
+      <c r="B57" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" s="102" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="103"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="103">
+        <v>1512000</v>
+      </c>
+      <c r="G57" s="120"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="154">
+        <v>44008</v>
+      </c>
+      <c r="B58" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="C58" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" s="103"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="103">
+        <v>8000000</v>
+      </c>
+      <c r="G58" s="120"/>
+    </row>
+    <row r="59" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="155"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="126"/>
       <c r="D59" s="127"/>
       <c r="E59" s="127"/>
       <c r="F59" s="127"/>
       <c r="G59" s="127"/>
     </row>
-    <row r="60" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="155"/>
       <c r="B60" s="126"/>
       <c r="C60" s="126"/>
@@ -4564,76 +4525,901 @@
       <c r="F60" s="127"/>
       <c r="G60" s="127"/>
     </row>
-    <row r="61" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="250"/>
-      <c r="B61" s="251"/>
-      <c r="C61" s="252"/>
-      <c r="D61" s="253"/>
-      <c r="E61" s="254"/>
-      <c r="F61" s="253"/>
-      <c r="G61" s="255"/>
-    </row>
-    <row r="62" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="250"/>
-      <c r="B62" s="251"/>
-      <c r="C62" s="252"/>
-      <c r="D62" s="253"/>
-      <c r="E62" s="254"/>
-      <c r="F62" s="253"/>
-      <c r="G62" s="255"/>
-    </row>
-    <row r="63" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="155"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="126"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="127"/>
-    </row>
-    <row r="64" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="156"/>
-      <c r="B64" s="94" t="s">
+    <row r="61" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="155"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="127"/>
+    </row>
+    <row r="62" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="155"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="127"/>
+      <c r="G62" s="127"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="154">
+        <v>43987</v>
+      </c>
+      <c r="B63" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" s="103"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="120">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="154">
+        <v>43992</v>
+      </c>
+      <c r="B64" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="103"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="120">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="154">
+        <v>43994</v>
+      </c>
+      <c r="B65" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="103"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="120">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="154">
+        <v>43998</v>
+      </c>
+      <c r="B66" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" s="103"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="120">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="154">
+        <v>44002</v>
+      </c>
+      <c r="B67" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="103"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="120">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="154">
+        <v>44012</v>
+      </c>
+      <c r="B68" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="103"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="122">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="154">
+        <v>44012</v>
+      </c>
+      <c r="B69" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" s="103"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="122">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="154">
+        <v>44012</v>
+      </c>
+      <c r="B70" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C70" s="123" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" s="103"/>
+      <c r="E70" s="120"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="122">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="155"/>
+      <c r="B71" s="126"/>
+      <c r="C71" s="126"/>
+      <c r="D71" s="127"/>
+      <c r="E71" s="127"/>
+      <c r="F71" s="127"/>
+      <c r="G71" s="127"/>
+    </row>
+    <row r="72" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="155"/>
+      <c r="B72" s="126"/>
+      <c r="C72" s="126"/>
+      <c r="D72" s="127"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="127"/>
+      <c r="G72" s="127"/>
+    </row>
+    <row r="73" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="155"/>
+      <c r="B73" s="126"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="127"/>
+      <c r="E73" s="127"/>
+      <c r="F73" s="127"/>
+      <c r="G73" s="127"/>
+    </row>
+    <row r="74" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="155"/>
+      <c r="B74" s="126"/>
+      <c r="C74" s="126"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="127"/>
+      <c r="G74" s="127"/>
+    </row>
+    <row r="75" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="155"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="127"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="127"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="154">
+        <v>43949</v>
+      </c>
+      <c r="B76" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="D76" s="103"/>
+      <c r="E76" s="120">
+        <v>10000000</v>
+      </c>
+      <c r="F76" s="103"/>
+      <c r="G76" s="120"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="154">
+        <v>43970</v>
+      </c>
+      <c r="B77" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" s="103"/>
+      <c r="E77" s="120">
+        <v>324500</v>
+      </c>
+      <c r="F77" s="103"/>
+      <c r="G77" s="120"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="154">
+        <v>43976</v>
+      </c>
+      <c r="B78" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C78" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" s="103">
+        <v>6307000</v>
+      </c>
+      <c r="E78" s="120"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="120"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="154">
+        <v>43986</v>
+      </c>
+      <c r="B79" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C79" s="102" t="s">
+        <v>284</v>
+      </c>
+      <c r="D79" s="103">
+        <v>961400</v>
+      </c>
+      <c r="E79" s="120"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="120"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="154">
+        <v>44001</v>
+      </c>
+      <c r="B80" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" s="103"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="103">
+        <v>49500000</v>
+      </c>
+      <c r="G80" s="120"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="154">
+        <v>44008</v>
+      </c>
+      <c r="B81" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" s="102" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" s="103"/>
+      <c r="E81" s="120">
+        <v>887000</v>
+      </c>
+      <c r="F81" s="103"/>
+      <c r="G81" s="120"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="154">
+        <v>44009</v>
+      </c>
+      <c r="B82" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="D82" s="103"/>
+      <c r="E82" s="120"/>
+      <c r="F82" s="103">
+        <v>99000000</v>
+      </c>
+      <c r="G82" s="120"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="154">
+        <v>44012</v>
+      </c>
+      <c r="B83" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C83" s="121" t="s">
+        <v>291</v>
+      </c>
+      <c r="D83" s="103"/>
+      <c r="E83" s="120">
+        <v>776000</v>
+      </c>
+      <c r="F83" s="103"/>
+      <c r="G83" s="120"/>
+    </row>
+    <row r="84" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="155"/>
+      <c r="B84" s="126"/>
+      <c r="C84" s="126"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
+      <c r="G84" s="127"/>
+    </row>
+    <row r="85" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="155"/>
+      <c r="B85" s="126"/>
+      <c r="C85" s="126"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
+      <c r="G85" s="127"/>
+    </row>
+    <row r="86" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="155"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="127"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="154">
+        <v>43992</v>
+      </c>
+      <c r="B87" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="C87" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="103"/>
+      <c r="E87" s="120"/>
+      <c r="F87" s="103">
+        <v>4000000</v>
+      </c>
+      <c r="G87" s="120"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="154">
+        <v>43992</v>
+      </c>
+      <c r="B88" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" s="103"/>
+      <c r="E88" s="120"/>
+      <c r="F88" s="103">
+        <v>2100000</v>
+      </c>
+      <c r="G88" s="120"/>
+    </row>
+    <row r="89" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="155"/>
+      <c r="B89" s="126"/>
+      <c r="C89" s="126"/>
+      <c r="D89" s="127"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="127"/>
+      <c r="G89" s="127"/>
+    </row>
+    <row r="90" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="155"/>
+      <c r="B90" s="126"/>
+      <c r="C90" s="126"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="127"/>
+    </row>
+    <row r="91" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="155"/>
+      <c r="B91" s="126"/>
+      <c r="C91" s="126"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="127"/>
+      <c r="F91" s="127"/>
+      <c r="G91" s="127"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="154">
+        <v>43993</v>
+      </c>
+      <c r="B92" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="D92" s="103"/>
+      <c r="E92" s="120"/>
+      <c r="F92" s="103"/>
+      <c r="G92" s="120">
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="154">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="D93" s="103"/>
+      <c r="E93" s="120"/>
+      <c r="F93" s="103"/>
+      <c r="G93" s="120">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="154">
+        <v>43998</v>
+      </c>
+      <c r="B94" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="D94" s="103"/>
+      <c r="E94" s="120"/>
+      <c r="F94" s="103">
+        <v>1903000</v>
+      </c>
+      <c r="G94" s="120"/>
+    </row>
+    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="154">
+        <v>44006</v>
+      </c>
+      <c r="B95" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="D95" s="103"/>
+      <c r="E95" s="120"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="120">
+        <v>6429525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="155"/>
+      <c r="B96" s="126"/>
+      <c r="C96" s="126"/>
+      <c r="D96" s="127"/>
+      <c r="E96" s="127"/>
+      <c r="F96" s="127"/>
+      <c r="G96" s="127"/>
+    </row>
+    <row r="97" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="155"/>
+      <c r="B97" s="126"/>
+      <c r="C97" s="126"/>
+      <c r="D97" s="127"/>
+      <c r="E97" s="127"/>
+      <c r="F97" s="127"/>
+      <c r="G97" s="127"/>
+    </row>
+    <row r="98" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="155"/>
+      <c r="B98" s="126"/>
+      <c r="C98" s="126"/>
+      <c r="D98" s="127"/>
+      <c r="E98" s="127"/>
+      <c r="F98" s="127"/>
+      <c r="G98" s="127"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="154">
+        <v>43976</v>
+      </c>
+      <c r="B99" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="102" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="103"/>
+      <c r="E99" s="120"/>
+      <c r="F99" s="103"/>
+      <c r="G99" s="120">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="154">
+        <v>43997</v>
+      </c>
+      <c r="B100" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" s="102" t="s">
+        <v>254</v>
+      </c>
+      <c r="D100" s="103"/>
+      <c r="E100" s="120"/>
+      <c r="F100" s="103"/>
+      <c r="G100" s="120">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="154">
+        <v>44006</v>
+      </c>
+      <c r="B101" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" s="102" t="s">
+        <v>254</v>
+      </c>
+      <c r="D101" s="103"/>
+      <c r="E101" s="120"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="120">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="154">
+        <v>44007</v>
+      </c>
+      <c r="B102" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" s="102" t="s">
+        <v>254</v>
+      </c>
+      <c r="D102" s="103"/>
+      <c r="E102" s="120"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="120">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="155"/>
+      <c r="B103" s="126"/>
+      <c r="C103" s="126"/>
+      <c r="D103" s="127"/>
+      <c r="E103" s="127"/>
+      <c r="F103" s="127"/>
+      <c r="G103" s="127"/>
+    </row>
+    <row r="104" spans="1:7" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="155"/>
+      <c r="B104" s="126"/>
+      <c r="C104" s="126"/>
+      <c r="D104" s="127"/>
+      <c r="E104" s="127"/>
+      <c r="F104" s="127"/>
+      <c r="G104" s="127"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="154">
+        <v>43987</v>
+      </c>
+      <c r="B105" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="D105" s="103"/>
+      <c r="E105" s="120"/>
+      <c r="F105" s="103"/>
+      <c r="G105" s="120">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="154">
+        <v>43987</v>
+      </c>
+      <c r="B106" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106" s="102" t="s">
+        <v>269</v>
+      </c>
+      <c r="D106" s="103"/>
+      <c r="E106" s="120"/>
+      <c r="F106" s="103">
+        <v>10500000</v>
+      </c>
+      <c r="G106" s="120"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="154">
+        <v>43992</v>
+      </c>
+      <c r="B107" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="D107" s="103"/>
+      <c r="E107" s="120"/>
+      <c r="F107" s="103">
+        <v>2000000</v>
+      </c>
+      <c r="G107" s="120"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="154">
+        <v>43992</v>
+      </c>
+      <c r="B108" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108" s="103"/>
+      <c r="E108" s="120"/>
+      <c r="F108" s="103">
+        <v>2000000</v>
+      </c>
+      <c r="G108" s="120"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="154">
+        <v>44001</v>
+      </c>
+      <c r="B109" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D109" s="103"/>
+      <c r="E109" s="120"/>
+      <c r="F109" s="103">
+        <v>430000</v>
+      </c>
+      <c r="G109" s="120"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="154">
+        <v>44008</v>
+      </c>
+      <c r="B110" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="D110" s="103"/>
+      <c r="E110" s="120"/>
+      <c r="F110" s="103"/>
+      <c r="G110" s="120">
+        <v>887000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="154">
+        <v>44012</v>
+      </c>
+      <c r="B111" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="D111" s="103"/>
+      <c r="E111" s="120"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="122">
+        <v>776000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="250"/>
+      <c r="B112" s="251"/>
+      <c r="C112" s="252"/>
+      <c r="D112" s="253"/>
+      <c r="E112" s="254"/>
+      <c r="F112" s="253"/>
+      <c r="G112" s="255"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="250"/>
+      <c r="B113" s="251"/>
+      <c r="C113" s="252"/>
+      <c r="D113" s="253"/>
+      <c r="E113" s="254"/>
+      <c r="F113" s="253"/>
+      <c r="G113" s="255"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="250"/>
+      <c r="B114" s="251"/>
+      <c r="C114" s="252"/>
+      <c r="D114" s="253"/>
+      <c r="E114" s="254"/>
+      <c r="F114" s="253"/>
+      <c r="G114" s="255"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="250"/>
+      <c r="B115" s="251"/>
+      <c r="C115" s="252"/>
+      <c r="D115" s="253"/>
+      <c r="E115" s="254"/>
+      <c r="F115" s="253"/>
+      <c r="G115" s="255"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="154">
+        <v>43983</v>
+      </c>
+      <c r="B116" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="C116" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="D116" s="103">
+        <v>9800000</v>
+      </c>
+      <c r="E116" s="120"/>
+      <c r="F116" s="103"/>
+      <c r="G116" s="120"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="154">
+        <v>43987</v>
+      </c>
+      <c r="B117" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="C117" s="102" t="s">
+        <v>287</v>
+      </c>
+      <c r="D117" s="103">
+        <v>50000000</v>
+      </c>
+      <c r="E117" s="120"/>
+      <c r="F117" s="103"/>
+      <c r="G117" s="120"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="250"/>
+      <c r="B118" s="251"/>
+      <c r="C118" s="252"/>
+      <c r="D118" s="253"/>
+      <c r="E118" s="254"/>
+      <c r="F118" s="253"/>
+      <c r="G118" s="255"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="250"/>
+      <c r="B119" s="251"/>
+      <c r="C119" s="252"/>
+      <c r="D119" s="253"/>
+      <c r="E119" s="254"/>
+      <c r="F119" s="253"/>
+      <c r="G119" s="255"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="250"/>
+      <c r="B120" s="251"/>
+      <c r="C120" s="252"/>
+      <c r="D120" s="253"/>
+      <c r="E120" s="254"/>
+      <c r="F120" s="253"/>
+      <c r="G120" s="255"/>
+    </row>
+    <row r="121" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="250"/>
+      <c r="B121" s="251"/>
+      <c r="C121" s="252"/>
+      <c r="D121" s="253"/>
+      <c r="E121" s="254"/>
+      <c r="F121" s="253"/>
+      <c r="G121" s="255"/>
+    </row>
+    <row r="122" spans="1:8" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="250"/>
+      <c r="B122" s="251"/>
+      <c r="C122" s="252"/>
+      <c r="D122" s="253"/>
+      <c r="E122" s="254"/>
+      <c r="F122" s="253"/>
+      <c r="G122" s="255"/>
+    </row>
+    <row r="123" spans="1:8" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="155"/>
+      <c r="B123" s="126"/>
+      <c r="C123" s="126"/>
+      <c r="D123" s="127"/>
+      <c r="E123" s="127"/>
+      <c r="F123" s="127"/>
+      <c r="G123" s="127"/>
+    </row>
+    <row r="124" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="156"/>
+      <c r="B124" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="69"/>
-      <c r="D64" s="94" t="s">
+      <c r="C124" s="69"/>
+      <c r="D124" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-    </row>
-    <row r="65" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="156"/>
-      <c r="B65" s="4" t="s">
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+    </row>
+    <row r="125" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="156"/>
+      <c r="B125" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="4" t="s">
+      <c r="C125" s="5"/>
+      <c r="D125" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="139" t="s">
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="94"/>
+      <c r="C128" s="94"/>
+      <c r="D128" s="139" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:G57">
+  <autoFilter ref="A6:G49">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Vay"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3" hiddenButton="1" showButton="0"/>
     <filterColumn colId="5" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -4650,9 +5436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86:D89"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4677,13 +5463,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="316" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="444" t="s">
+      <c r="A1" s="458" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="444"/>
-      <c r="C1" s="444"/>
-      <c r="D1" s="444"/>
-      <c r="E1" s="444"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
       <c r="H1" s="317"/>
       <c r="I1" s="317"/>
       <c r="J1" s="317"/>
@@ -4711,153 +5497,153 @@
       <c r="O2" s="317"/>
     </row>
     <row r="3" spans="1:17" s="316" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="444" t="s">
+      <c r="A3" s="458" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="444"/>
-      <c r="C3" s="444"/>
-      <c r="D3" s="444"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="444"/>
-      <c r="G3" s="444"/>
-      <c r="H3" s="444"/>
-      <c r="I3" s="444"/>
-      <c r="J3" s="444"/>
-      <c r="K3" s="444"/>
-      <c r="L3" s="444"/>
-      <c r="M3" s="444"/>
-      <c r="N3" s="444"/>
-      <c r="O3" s="444"/>
-      <c r="P3" s="444"/>
+      <c r="B3" s="458"/>
+      <c r="C3" s="458"/>
+      <c r="D3" s="458"/>
+      <c r="E3" s="458"/>
+      <c r="F3" s="458"/>
+      <c r="G3" s="458"/>
+      <c r="H3" s="458"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="458"/>
+      <c r="K3" s="458"/>
+      <c r="L3" s="458"/>
+      <c r="M3" s="458"/>
+      <c r="N3" s="458"/>
+      <c r="O3" s="458"/>
+      <c r="P3" s="458"/>
     </row>
     <row r="4" spans="1:17" s="316" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="444" t="s">
+      <c r="A4" s="458" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="444"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="444"/>
-      <c r="E4" s="444"/>
-      <c r="F4" s="444"/>
-      <c r="G4" s="444"/>
-      <c r="H4" s="444"/>
-      <c r="I4" s="444"/>
-      <c r="J4" s="444"/>
-      <c r="K4" s="444"/>
-      <c r="L4" s="444"/>
-      <c r="M4" s="444"/>
-      <c r="N4" s="444"/>
-      <c r="O4" s="444"/>
-      <c r="P4" s="444"/>
+      <c r="B4" s="458"/>
+      <c r="C4" s="458"/>
+      <c r="D4" s="458"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="458"/>
+      <c r="G4" s="458"/>
+      <c r="H4" s="458"/>
+      <c r="I4" s="458"/>
+      <c r="J4" s="458"/>
+      <c r="K4" s="458"/>
+      <c r="L4" s="458"/>
+      <c r="M4" s="458"/>
+      <c r="N4" s="458"/>
+      <c r="O4" s="458"/>
+      <c r="P4" s="458"/>
     </row>
     <row r="5" spans="1:17" s="316" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="444"/>
-      <c r="B5" s="444"/>
-      <c r="C5" s="444"/>
-      <c r="D5" s="444"/>
-      <c r="E5" s="444"/>
-      <c r="F5" s="444"/>
-      <c r="G5" s="444"/>
-      <c r="H5" s="444"/>
-      <c r="I5" s="444"/>
-      <c r="J5" s="444"/>
-      <c r="K5" s="445"/>
-      <c r="L5" s="445"/>
+      <c r="A5" s="458"/>
+      <c r="B5" s="458"/>
+      <c r="C5" s="458"/>
+      <c r="D5" s="458"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="458"/>
+      <c r="G5" s="458"/>
+      <c r="H5" s="458"/>
+      <c r="I5" s="458"/>
+      <c r="J5" s="458"/>
+      <c r="K5" s="459"/>
+      <c r="L5" s="459"/>
       <c r="M5" s="317"/>
       <c r="N5" s="317"/>
       <c r="O5" s="317"/>
     </row>
     <row r="6" spans="1:17" s="324" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="446" t="s">
+      <c r="A6" s="460" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="462" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="452" t="s">
+      <c r="C6" s="466" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="454" t="s">
+      <c r="D6" s="468" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="454"/>
-      <c r="F6" s="455" t="s">
+      <c r="E6" s="468"/>
+      <c r="F6" s="469" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="455"/>
-      <c r="H6" s="455"/>
-      <c r="I6" s="455"/>
-      <c r="J6" s="455"/>
-      <c r="K6" s="455"/>
-      <c r="L6" s="455"/>
-      <c r="M6" s="456"/>
-      <c r="N6" s="456"/>
-      <c r="O6" s="456"/>
-      <c r="P6" s="457" t="s">
+      <c r="G6" s="469"/>
+      <c r="H6" s="469"/>
+      <c r="I6" s="469"/>
+      <c r="J6" s="469"/>
+      <c r="K6" s="469"/>
+      <c r="L6" s="469"/>
+      <c r="M6" s="470"/>
+      <c r="N6" s="470"/>
+      <c r="O6" s="470"/>
+      <c r="P6" s="471" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="324" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="447"/>
-      <c r="B7" s="449"/>
-      <c r="C7" s="453"/>
-      <c r="D7" s="446" t="s">
+      <c r="A7" s="461"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="467"/>
+      <c r="D7" s="460" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="446" t="s">
+      <c r="E7" s="460" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="446" t="s">
+      <c r="F7" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="446" t="s">
+      <c r="G7" s="460" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="450" t="s">
+      <c r="H7" s="464" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="450" t="s">
+      <c r="I7" s="464" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="459" t="s">
+      <c r="J7" s="473" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="459"/>
-      <c r="L7" s="450" t="s">
+      <c r="K7" s="473"/>
+      <c r="L7" s="464" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="450" t="s">
+      <c r="M7" s="464" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="450" t="s">
+      <c r="N7" s="464" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="450" t="s">
+      <c r="O7" s="464" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="458"/>
+      <c r="P7" s="472"/>
     </row>
     <row r="8" spans="1:17" s="324" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="447"/>
-      <c r="B8" s="449"/>
-      <c r="C8" s="453"/>
-      <c r="D8" s="447"/>
-      <c r="E8" s="447"/>
-      <c r="F8" s="447"/>
-      <c r="G8" s="447"/>
-      <c r="H8" s="451"/>
-      <c r="I8" s="451"/>
+      <c r="A8" s="461"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="467"/>
+      <c r="D8" s="461"/>
+      <c r="E8" s="461"/>
+      <c r="F8" s="461"/>
+      <c r="G8" s="461"/>
+      <c r="H8" s="465"/>
+      <c r="I8" s="465"/>
       <c r="J8" s="325" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="451"/>
-      <c r="M8" s="451"/>
-      <c r="N8" s="451"/>
-      <c r="O8" s="451"/>
-      <c r="P8" s="458"/>
+      <c r="L8" s="465"/>
+      <c r="M8" s="465"/>
+      <c r="N8" s="465"/>
+      <c r="O8" s="465"/>
+      <c r="P8" s="472"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="247">
@@ -4954,17 +5740,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="460">
+      <c r="A11" s="478">
         <v>556</v>
       </c>
-      <c r="B11" s="462">
+      <c r="B11" s="480">
         <v>43976</v>
       </c>
-      <c r="C11" s="460"/>
-      <c r="D11" s="460" t="s">
+      <c r="C11" s="478"/>
+      <c r="D11" s="478" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="460" t="s">
+      <c r="E11" s="478" t="s">
         <v>134</v>
       </c>
       <c r="F11" s="247" t="s">
@@ -4999,11 +5785,11 @@
       <c r="P11" s="247"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="461"/>
-      <c r="B12" s="463"/>
-      <c r="C12" s="461"/>
-      <c r="D12" s="461"/>
-      <c r="E12" s="461"/>
+      <c r="A12" s="479"/>
+      <c r="B12" s="481"/>
+      <c r="C12" s="479"/>
+      <c r="D12" s="479"/>
+      <c r="E12" s="479"/>
       <c r="F12" s="413" t="s">
         <v>141</v>
       </c>
@@ -5018,7 +5804,7 @@
         <v>5460000</v>
       </c>
       <c r="J12" s="332"/>
-      <c r="K12" s="573">
+      <c r="K12" s="415">
         <v>0.41</v>
       </c>
       <c r="L12" s="328">
@@ -5034,19 +5820,19 @@
       <c r="P12" s="413"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="434">
+      <c r="A13" s="448">
         <v>557</v>
       </c>
-      <c r="B13" s="425">
+      <c r="B13" s="439">
         <v>43981</v>
       </c>
-      <c r="C13" s="431" t="s">
+      <c r="C13" s="445" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="431" t="s">
+      <c r="D13" s="445" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="431" t="s">
+      <c r="E13" s="445" t="s">
         <v>136</v>
       </c>
       <c r="F13" s="391" t="s">
@@ -5082,11 +5868,11 @@
       <c r="Q13" s="331"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="436"/>
-      <c r="B14" s="427"/>
-      <c r="C14" s="433"/>
-      <c r="D14" s="433"/>
-      <c r="E14" s="433"/>
+      <c r="A14" s="450"/>
+      <c r="B14" s="441"/>
+      <c r="C14" s="447"/>
+      <c r="D14" s="447"/>
+      <c r="E14" s="447"/>
       <c r="F14" s="398" t="s">
         <v>137</v>
       </c>
@@ -5211,19 +5997,19 @@
       <c r="P16" s="333"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="434">
+      <c r="A17" s="448">
         <v>563</v>
       </c>
-      <c r="B17" s="425">
+      <c r="B17" s="439">
         <v>43986</v>
       </c>
-      <c r="C17" s="431" t="s">
+      <c r="C17" s="445" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="428" t="s">
+      <c r="D17" s="442" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="428" t="s">
+      <c r="E17" s="442" t="s">
         <v>145</v>
       </c>
       <c r="F17" s="391" t="s">
@@ -5256,11 +6042,11 @@
       <c r="P17" s="406"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="436"/>
-      <c r="B18" s="427"/>
-      <c r="C18" s="433"/>
-      <c r="D18" s="430"/>
-      <c r="E18" s="430"/>
+      <c r="A18" s="450"/>
+      <c r="B18" s="441"/>
+      <c r="C18" s="447"/>
+      <c r="D18" s="444"/>
+      <c r="E18" s="444"/>
       <c r="F18" s="398" t="s">
         <v>141</v>
       </c>
@@ -5381,17 +6167,17 @@
       <c r="P20" s="333"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="434">
+      <c r="A21" s="448">
         <v>567</v>
       </c>
-      <c r="B21" s="425">
+      <c r="B21" s="439">
         <v>43990</v>
       </c>
-      <c r="C21" s="434"/>
-      <c r="D21" s="428" t="s">
+      <c r="C21" s="448"/>
+      <c r="D21" s="442" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="428" t="s">
+      <c r="E21" s="442" t="s">
         <v>151</v>
       </c>
       <c r="F21" s="391" t="s">
@@ -5424,11 +6210,11 @@
       <c r="P21" s="406"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="436"/>
-      <c r="B22" s="427"/>
-      <c r="C22" s="436"/>
-      <c r="D22" s="430"/>
-      <c r="E22" s="430"/>
+      <c r="A22" s="450"/>
+      <c r="B22" s="441"/>
+      <c r="C22" s="450"/>
+      <c r="D22" s="444"/>
+      <c r="E22" s="444"/>
       <c r="F22" s="398" t="s">
         <v>138</v>
       </c>
@@ -5459,17 +6245,17 @@
       <c r="P22" s="408"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="434">
+      <c r="A23" s="448">
         <v>571</v>
       </c>
-      <c r="B23" s="425">
+      <c r="B23" s="439">
         <v>43990</v>
       </c>
-      <c r="C23" s="434"/>
-      <c r="D23" s="431" t="s">
+      <c r="C23" s="448"/>
+      <c r="D23" s="445" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="431" t="s">
+      <c r="E23" s="445" t="s">
         <v>153</v>
       </c>
       <c r="F23" s="391" t="s">
@@ -5506,11 +6292,11 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="435"/>
-      <c r="B24" s="426"/>
-      <c r="C24" s="435"/>
-      <c r="D24" s="432"/>
-      <c r="E24" s="432"/>
+      <c r="A24" s="449"/>
+      <c r="B24" s="440"/>
+      <c r="C24" s="449"/>
+      <c r="D24" s="446"/>
+      <c r="E24" s="446"/>
       <c r="F24" s="395" t="s">
         <v>149</v>
       </c>
@@ -5541,11 +6327,11 @@
       <c r="P24" s="395"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="435"/>
-      <c r="B25" s="426"/>
-      <c r="C25" s="435"/>
-      <c r="D25" s="432"/>
-      <c r="E25" s="432"/>
+      <c r="A25" s="449"/>
+      <c r="B25" s="440"/>
+      <c r="C25" s="449"/>
+      <c r="D25" s="446"/>
+      <c r="E25" s="446"/>
       <c r="F25" s="395" t="s">
         <v>154</v>
       </c>
@@ -5576,11 +6362,11 @@
       <c r="P25" s="395"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="435"/>
-      <c r="B26" s="426"/>
-      <c r="C26" s="435"/>
-      <c r="D26" s="432"/>
-      <c r="E26" s="432"/>
+      <c r="A26" s="449"/>
+      <c r="B26" s="440"/>
+      <c r="C26" s="449"/>
+      <c r="D26" s="446"/>
+      <c r="E26" s="446"/>
       <c r="F26" s="395" t="s">
         <v>131</v>
       </c>
@@ -5611,11 +6397,11 @@
       <c r="P26" s="395"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="435"/>
-      <c r="B27" s="426"/>
-      <c r="C27" s="435"/>
-      <c r="D27" s="432"/>
-      <c r="E27" s="432"/>
+      <c r="A27" s="449"/>
+      <c r="B27" s="440"/>
+      <c r="C27" s="449"/>
+      <c r="D27" s="446"/>
+      <c r="E27" s="446"/>
       <c r="F27" s="395" t="s">
         <v>155</v>
       </c>
@@ -5646,11 +6432,11 @@
       <c r="P27" s="395"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="435"/>
-      <c r="B28" s="426"/>
-      <c r="C28" s="435"/>
-      <c r="D28" s="432"/>
-      <c r="E28" s="432"/>
+      <c r="A28" s="449"/>
+      <c r="B28" s="440"/>
+      <c r="C28" s="449"/>
+      <c r="D28" s="446"/>
+      <c r="E28" s="446"/>
       <c r="F28" s="395" t="s">
         <v>146</v>
       </c>
@@ -5681,11 +6467,11 @@
       <c r="P28" s="395"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="435"/>
-      <c r="B29" s="426"/>
-      <c r="C29" s="435"/>
-      <c r="D29" s="432"/>
-      <c r="E29" s="432"/>
+      <c r="A29" s="449"/>
+      <c r="B29" s="440"/>
+      <c r="C29" s="449"/>
+      <c r="D29" s="446"/>
+      <c r="E29" s="446"/>
       <c r="F29" s="395" t="s">
         <v>156</v>
       </c>
@@ -5716,11 +6502,11 @@
       <c r="P29" s="405"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="436"/>
-      <c r="B30" s="427"/>
-      <c r="C30" s="436"/>
-      <c r="D30" s="433"/>
-      <c r="E30" s="433"/>
+      <c r="A30" s="450"/>
+      <c r="B30" s="441"/>
+      <c r="C30" s="450"/>
+      <c r="D30" s="447"/>
+      <c r="E30" s="447"/>
       <c r="F30" s="398" t="s">
         <v>157</v>
       </c>
@@ -5751,19 +6537,19 @@
       <c r="P30" s="398"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="460">
+      <c r="A31" s="478">
         <v>586</v>
       </c>
-      <c r="B31" s="462">
+      <c r="B31" s="480">
         <v>43991</v>
       </c>
-      <c r="C31" s="460" t="s">
+      <c r="C31" s="478" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="464" t="s">
+      <c r="D31" s="474" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="466"/>
+      <c r="E31" s="476"/>
       <c r="F31" s="247" t="s">
         <v>146</v>
       </c>
@@ -5796,11 +6582,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="461"/>
-      <c r="B32" s="463"/>
-      <c r="C32" s="461"/>
-      <c r="D32" s="465"/>
-      <c r="E32" s="467"/>
+      <c r="A32" s="479"/>
+      <c r="B32" s="481"/>
+      <c r="C32" s="479"/>
+      <c r="D32" s="475"/>
+      <c r="E32" s="477"/>
       <c r="F32" s="247" t="s">
         <v>131</v>
       </c>
@@ -5968,19 +6754,19 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="434">
+      <c r="A36" s="448">
         <v>576</v>
       </c>
-      <c r="B36" s="425">
+      <c r="B36" s="439">
         <v>43995</v>
       </c>
-      <c r="C36" s="434" t="s">
+      <c r="C36" s="448" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="428" t="s">
+      <c r="D36" s="442" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="431" t="s">
+      <c r="E36" s="445" t="s">
         <v>182</v>
       </c>
       <c r="F36" s="391" t="s">
@@ -6013,11 +6799,11 @@
       <c r="P36" s="391"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="435"/>
-      <c r="B37" s="426"/>
-      <c r="C37" s="435"/>
-      <c r="D37" s="429"/>
-      <c r="E37" s="432"/>
+      <c r="A37" s="449"/>
+      <c r="B37" s="440"/>
+      <c r="C37" s="449"/>
+      <c r="D37" s="443"/>
+      <c r="E37" s="446"/>
       <c r="F37" s="395" t="s">
         <v>154</v>
       </c>
@@ -6048,11 +6834,11 @@
       <c r="P37" s="395"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="436"/>
-      <c r="B38" s="427"/>
-      <c r="C38" s="436"/>
-      <c r="D38" s="430"/>
-      <c r="E38" s="433"/>
+      <c r="A38" s="450"/>
+      <c r="B38" s="441"/>
+      <c r="C38" s="450"/>
+      <c r="D38" s="444"/>
+      <c r="E38" s="447"/>
       <c r="F38" s="398" t="s">
         <v>146</v>
       </c>
@@ -6173,19 +6959,19 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="434">
+      <c r="A41" s="448">
         <v>582</v>
       </c>
-      <c r="B41" s="425">
+      <c r="B41" s="439">
         <v>43995</v>
       </c>
-      <c r="C41" s="434" t="s">
+      <c r="C41" s="448" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="428" t="s">
+      <c r="D41" s="442" t="s">
         <v>177</v>
       </c>
-      <c r="E41" s="431" t="s">
+      <c r="E41" s="445" t="s">
         <v>186</v>
       </c>
       <c r="F41" s="391" t="s">
@@ -6218,11 +7004,11 @@
       <c r="P41" s="391"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="435"/>
-      <c r="B42" s="426"/>
-      <c r="C42" s="435"/>
-      <c r="D42" s="429"/>
-      <c r="E42" s="432"/>
+      <c r="A42" s="449"/>
+      <c r="B42" s="440"/>
+      <c r="C42" s="449"/>
+      <c r="D42" s="443"/>
+      <c r="E42" s="446"/>
       <c r="F42" s="395" t="s">
         <v>137</v>
       </c>
@@ -6253,11 +7039,11 @@
       <c r="P42" s="395"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="435"/>
-      <c r="B43" s="426"/>
-      <c r="C43" s="435"/>
-      <c r="D43" s="429"/>
-      <c r="E43" s="432"/>
+      <c r="A43" s="449"/>
+      <c r="B43" s="440"/>
+      <c r="C43" s="449"/>
+      <c r="D43" s="443"/>
+      <c r="E43" s="446"/>
       <c r="F43" s="395" t="s">
         <v>187</v>
       </c>
@@ -6288,11 +7074,11 @@
       <c r="P43" s="395"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="435"/>
-      <c r="B44" s="426"/>
-      <c r="C44" s="435"/>
-      <c r="D44" s="429"/>
-      <c r="E44" s="432"/>
+      <c r="A44" s="449"/>
+      <c r="B44" s="440"/>
+      <c r="C44" s="449"/>
+      <c r="D44" s="443"/>
+      <c r="E44" s="446"/>
       <c r="F44" s="395" t="s">
         <v>188</v>
       </c>
@@ -6323,11 +7109,11 @@
       <c r="P44" s="395"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="435"/>
-      <c r="B45" s="426"/>
-      <c r="C45" s="435"/>
-      <c r="D45" s="429"/>
-      <c r="E45" s="432"/>
+      <c r="A45" s="449"/>
+      <c r="B45" s="440"/>
+      <c r="C45" s="449"/>
+      <c r="D45" s="443"/>
+      <c r="E45" s="446"/>
       <c r="F45" s="395" t="s">
         <v>189</v>
       </c>
@@ -6358,11 +7144,11 @@
       <c r="P45" s="395"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="435"/>
-      <c r="B46" s="426"/>
-      <c r="C46" s="435"/>
-      <c r="D46" s="429"/>
-      <c r="E46" s="432"/>
+      <c r="A46" s="449"/>
+      <c r="B46" s="440"/>
+      <c r="C46" s="449"/>
+      <c r="D46" s="443"/>
+      <c r="E46" s="446"/>
       <c r="F46" s="395" t="s">
         <v>141</v>
       </c>
@@ -6393,11 +7179,11 @@
       <c r="P46" s="395"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="435"/>
-      <c r="B47" s="426"/>
-      <c r="C47" s="435"/>
-      <c r="D47" s="429"/>
-      <c r="E47" s="432"/>
+      <c r="A47" s="449"/>
+      <c r="B47" s="440"/>
+      <c r="C47" s="449"/>
+      <c r="D47" s="443"/>
+      <c r="E47" s="446"/>
       <c r="F47" s="395" t="s">
         <v>138</v>
       </c>
@@ -6428,11 +7214,11 @@
       <c r="P47" s="395"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="436"/>
-      <c r="B48" s="427"/>
-      <c r="C48" s="436"/>
-      <c r="D48" s="430"/>
-      <c r="E48" s="433"/>
+      <c r="A48" s="450"/>
+      <c r="B48" s="441"/>
+      <c r="C48" s="450"/>
+      <c r="D48" s="444"/>
+      <c r="E48" s="447"/>
       <c r="F48" s="398" t="s">
         <v>146</v>
       </c>
@@ -6464,17 +7250,17 @@
       <c r="Q48" s="331"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="434">
+      <c r="A49" s="448">
         <v>585</v>
       </c>
-      <c r="B49" s="437">
+      <c r="B49" s="451">
         <v>43997</v>
       </c>
-      <c r="C49" s="434"/>
-      <c r="D49" s="428" t="s">
+      <c r="C49" s="448"/>
+      <c r="D49" s="442" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="431" t="s">
+      <c r="E49" s="445" t="s">
         <v>134</v>
       </c>
       <c r="F49" s="391" t="s">
@@ -6510,11 +7296,11 @@
       <c r="Q49" s="331"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="435"/>
-      <c r="B50" s="438"/>
-      <c r="C50" s="435"/>
-      <c r="D50" s="429"/>
-      <c r="E50" s="432"/>
+      <c r="A50" s="449"/>
+      <c r="B50" s="452"/>
+      <c r="C50" s="449"/>
+      <c r="D50" s="443"/>
+      <c r="E50" s="446"/>
       <c r="F50" s="395" t="s">
         <v>154</v>
       </c>
@@ -6546,11 +7332,11 @@
       <c r="Q50" s="331"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="435"/>
-      <c r="B51" s="438"/>
-      <c r="C51" s="435"/>
-      <c r="D51" s="429"/>
-      <c r="E51" s="432"/>
+      <c r="A51" s="449"/>
+      <c r="B51" s="452"/>
+      <c r="C51" s="449"/>
+      <c r="D51" s="443"/>
+      <c r="E51" s="446"/>
       <c r="F51" s="395" t="s">
         <v>131</v>
       </c>
@@ -6582,11 +7368,11 @@
       <c r="Q51" s="331"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="436"/>
-      <c r="B52" s="439"/>
-      <c r="C52" s="436"/>
-      <c r="D52" s="430"/>
-      <c r="E52" s="433"/>
+      <c r="A52" s="450"/>
+      <c r="B52" s="453"/>
+      <c r="C52" s="450"/>
+      <c r="D52" s="444"/>
+      <c r="E52" s="447"/>
       <c r="F52" s="398" t="s">
         <v>155</v>
       </c>
@@ -6618,17 +7404,17 @@
       <c r="Q52" s="331"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="434">
+      <c r="A53" s="448">
         <v>587</v>
       </c>
-      <c r="B53" s="425">
+      <c r="B53" s="439">
         <v>43995</v>
       </c>
-      <c r="C53" s="434"/>
-      <c r="D53" s="428" t="s">
+      <c r="C53" s="448"/>
+      <c r="D53" s="442" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="431" t="s">
+      <c r="E53" s="445" t="s">
         <v>153</v>
       </c>
       <c r="F53" s="391" t="s">
@@ -6662,11 +7448,11 @@
       <c r="Q53" s="331"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="436"/>
-      <c r="B54" s="427"/>
-      <c r="C54" s="436"/>
-      <c r="D54" s="430"/>
-      <c r="E54" s="433"/>
+      <c r="A54" s="450"/>
+      <c r="B54" s="441"/>
+      <c r="C54" s="450"/>
+      <c r="D54" s="444"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="398" t="s">
         <v>190</v>
       </c>
@@ -6744,17 +7530,17 @@
       <c r="Q55" s="331"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="434">
+      <c r="A56" s="448">
         <v>479</v>
       </c>
-      <c r="B56" s="425">
+      <c r="B56" s="439">
         <v>43996</v>
       </c>
-      <c r="C56" s="434"/>
-      <c r="D56" s="428" t="s">
+      <c r="C56" s="448"/>
+      <c r="D56" s="442" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="431" t="s">
+      <c r="E56" s="445" t="s">
         <v>153</v>
       </c>
       <c r="F56" s="391" t="s">
@@ -6788,11 +7574,11 @@
       <c r="Q56" s="331"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="435"/>
-      <c r="B57" s="426"/>
-      <c r="C57" s="435"/>
-      <c r="D57" s="429"/>
-      <c r="E57" s="432"/>
+      <c r="A57" s="449"/>
+      <c r="B57" s="440"/>
+      <c r="C57" s="449"/>
+      <c r="D57" s="443"/>
+      <c r="E57" s="446"/>
       <c r="F57" s="395" t="s">
         <v>190</v>
       </c>
@@ -6824,11 +7610,11 @@
       <c r="Q57" s="331"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="435"/>
-      <c r="B58" s="426"/>
-      <c r="C58" s="435"/>
-      <c r="D58" s="429"/>
-      <c r="E58" s="432"/>
+      <c r="A58" s="449"/>
+      <c r="B58" s="440"/>
+      <c r="C58" s="449"/>
+      <c r="D58" s="443"/>
+      <c r="E58" s="446"/>
       <c r="F58" s="395" t="s">
         <v>146</v>
       </c>
@@ -6860,11 +7646,11 @@
       <c r="Q58" s="331"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="435"/>
-      <c r="B59" s="426"/>
-      <c r="C59" s="435"/>
-      <c r="D59" s="429"/>
-      <c r="E59" s="432"/>
+      <c r="A59" s="449"/>
+      <c r="B59" s="440"/>
+      <c r="C59" s="449"/>
+      <c r="D59" s="443"/>
+      <c r="E59" s="446"/>
       <c r="F59" s="395" t="s">
         <v>141</v>
       </c>
@@ -6896,11 +7682,11 @@
       <c r="Q59" s="331"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="436"/>
-      <c r="B60" s="427"/>
-      <c r="C60" s="436"/>
-      <c r="D60" s="430"/>
-      <c r="E60" s="433"/>
+      <c r="A60" s="450"/>
+      <c r="B60" s="441"/>
+      <c r="C60" s="450"/>
+      <c r="D60" s="444"/>
+      <c r="E60" s="447"/>
       <c r="F60" s="398" t="s">
         <v>138</v>
       </c>
@@ -6980,17 +7766,17 @@
       <c r="Q61" s="331"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="434">
+      <c r="A62" s="448">
         <v>481</v>
       </c>
-      <c r="B62" s="425">
+      <c r="B62" s="439">
         <v>43998</v>
       </c>
-      <c r="C62" s="434"/>
-      <c r="D62" s="428" t="s">
+      <c r="C62" s="448"/>
+      <c r="D62" s="442" t="s">
         <v>240</v>
       </c>
-      <c r="E62" s="431" t="s">
+      <c r="E62" s="445" t="s">
         <v>153</v>
       </c>
       <c r="F62" s="391" t="s">
@@ -7024,11 +7810,11 @@
       <c r="Q62" s="331"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="435"/>
-      <c r="B63" s="426"/>
-      <c r="C63" s="435"/>
-      <c r="D63" s="429"/>
-      <c r="E63" s="432"/>
+      <c r="A63" s="449"/>
+      <c r="B63" s="440"/>
+      <c r="C63" s="449"/>
+      <c r="D63" s="443"/>
+      <c r="E63" s="446"/>
       <c r="F63" s="395" t="s">
         <v>154</v>
       </c>
@@ -7059,11 +7845,11 @@
       <c r="Q63" s="331"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="435"/>
-      <c r="B64" s="426"/>
-      <c r="C64" s="435"/>
-      <c r="D64" s="429"/>
-      <c r="E64" s="432"/>
+      <c r="A64" s="449"/>
+      <c r="B64" s="440"/>
+      <c r="C64" s="449"/>
+      <c r="D64" s="443"/>
+      <c r="E64" s="446"/>
       <c r="F64" s="395" t="s">
         <v>190</v>
       </c>
@@ -7094,11 +7880,11 @@
       <c r="Q64" s="331"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="436"/>
-      <c r="B65" s="427"/>
-      <c r="C65" s="436"/>
-      <c r="D65" s="430"/>
-      <c r="E65" s="433"/>
+      <c r="A65" s="450"/>
+      <c r="B65" s="441"/>
+      <c r="C65" s="450"/>
+      <c r="D65" s="444"/>
+      <c r="E65" s="447"/>
       <c r="F65" s="398" t="s">
         <v>146</v>
       </c>
@@ -7175,17 +7961,17 @@
       <c r="Q66" s="331"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="434">
+      <c r="A67" s="448">
         <v>592</v>
       </c>
-      <c r="B67" s="437">
+      <c r="B67" s="451">
         <v>43999</v>
       </c>
-      <c r="C67" s="434"/>
-      <c r="D67" s="431" t="s">
+      <c r="C67" s="448"/>
+      <c r="D67" s="445" t="s">
         <v>218</v>
       </c>
-      <c r="E67" s="431" t="s">
+      <c r="E67" s="445" t="s">
         <v>219</v>
       </c>
       <c r="F67" s="391" t="s">
@@ -7215,16 +8001,16 @@
         <f>L67</f>
         <v>2700000</v>
       </c>
-      <c r="P67" s="468" t="s">
+      <c r="P67" s="482" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="435"/>
-      <c r="B68" s="438"/>
-      <c r="C68" s="435"/>
-      <c r="D68" s="432"/>
-      <c r="E68" s="432"/>
+      <c r="A68" s="449"/>
+      <c r="B68" s="452"/>
+      <c r="C68" s="449"/>
+      <c r="D68" s="446"/>
+      <c r="E68" s="446"/>
       <c r="F68" s="395" t="s">
         <v>137</v>
       </c>
@@ -7252,14 +8038,14 @@
         <f t="shared" ref="O68:O81" si="8">L68</f>
         <v>235000</v>
       </c>
-      <c r="P68" s="469"/>
+      <c r="P68" s="483"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="435"/>
-      <c r="B69" s="438"/>
-      <c r="C69" s="435"/>
-      <c r="D69" s="432"/>
-      <c r="E69" s="432"/>
+      <c r="A69" s="449"/>
+      <c r="B69" s="452"/>
+      <c r="C69" s="449"/>
+      <c r="D69" s="446"/>
+      <c r="E69" s="446"/>
       <c r="F69" s="395" t="s">
         <v>154</v>
       </c>
@@ -7287,14 +8073,14 @@
         <f t="shared" si="8"/>
         <v>2557500</v>
       </c>
-      <c r="P69" s="469"/>
+      <c r="P69" s="483"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="435"/>
-      <c r="B70" s="438"/>
-      <c r="C70" s="435"/>
-      <c r="D70" s="432"/>
-      <c r="E70" s="432"/>
+      <c r="A70" s="449"/>
+      <c r="B70" s="452"/>
+      <c r="C70" s="449"/>
+      <c r="D70" s="446"/>
+      <c r="E70" s="446"/>
       <c r="F70" s="395" t="s">
         <v>131</v>
       </c>
@@ -7322,14 +8108,14 @@
         <f t="shared" si="8"/>
         <v>2850000</v>
       </c>
-      <c r="P70" s="469"/>
+      <c r="P70" s="483"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="435"/>
-      <c r="B71" s="438"/>
-      <c r="C71" s="435"/>
-      <c r="D71" s="432"/>
-      <c r="E71" s="432"/>
+      <c r="A71" s="449"/>
+      <c r="B71" s="452"/>
+      <c r="C71" s="449"/>
+      <c r="D71" s="446"/>
+      <c r="E71" s="446"/>
       <c r="F71" s="395" t="s">
         <v>155</v>
       </c>
@@ -7357,14 +8143,14 @@
         <f t="shared" si="8"/>
         <v>2910000</v>
       </c>
-      <c r="P71" s="469"/>
+      <c r="P71" s="483"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="435"/>
-      <c r="B72" s="438"/>
-      <c r="C72" s="435"/>
-      <c r="D72" s="432"/>
-      <c r="E72" s="432"/>
+      <c r="A72" s="449"/>
+      <c r="B72" s="452"/>
+      <c r="C72" s="449"/>
+      <c r="D72" s="446"/>
+      <c r="E72" s="446"/>
       <c r="F72" s="395" t="s">
         <v>190</v>
       </c>
@@ -7392,14 +8178,14 @@
         <f t="shared" si="8"/>
         <v>2910000</v>
       </c>
-      <c r="P72" s="469"/>
+      <c r="P72" s="483"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="435"/>
-      <c r="B73" s="438"/>
-      <c r="C73" s="435"/>
-      <c r="D73" s="432"/>
-      <c r="E73" s="432"/>
+      <c r="A73" s="449"/>
+      <c r="B73" s="452"/>
+      <c r="C73" s="449"/>
+      <c r="D73" s="446"/>
+      <c r="E73" s="446"/>
       <c r="F73" s="395" t="s">
         <v>146</v>
       </c>
@@ -7427,14 +8213,14 @@
         <f t="shared" si="8"/>
         <v>6600000</v>
       </c>
-      <c r="P73" s="469"/>
+      <c r="P73" s="483"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="435"/>
-      <c r="B74" s="438"/>
-      <c r="C74" s="435"/>
-      <c r="D74" s="432"/>
-      <c r="E74" s="432"/>
+      <c r="A74" s="449"/>
+      <c r="B74" s="452"/>
+      <c r="C74" s="449"/>
+      <c r="D74" s="446"/>
+      <c r="E74" s="446"/>
       <c r="F74" s="395" t="s">
         <v>141</v>
       </c>
@@ -7462,14 +8248,14 @@
         <f t="shared" si="8"/>
         <v>2730000</v>
       </c>
-      <c r="P74" s="469"/>
+      <c r="P74" s="483"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="436"/>
-      <c r="B75" s="439"/>
-      <c r="C75" s="436"/>
-      <c r="D75" s="433"/>
-      <c r="E75" s="433"/>
+      <c r="A75" s="450"/>
+      <c r="B75" s="453"/>
+      <c r="C75" s="450"/>
+      <c r="D75" s="447"/>
+      <c r="E75" s="447"/>
       <c r="F75" s="398" t="s">
         <v>138</v>
       </c>
@@ -7497,7 +8283,7 @@
         <f t="shared" si="8"/>
         <v>2730000</v>
       </c>
-      <c r="P75" s="470"/>
+      <c r="P75" s="484"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="247">
@@ -7545,17 +8331,17 @@
       <c r="P76" s="247"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="434">
+      <c r="A77" s="448">
         <v>483</v>
       </c>
-      <c r="B77" s="437">
+      <c r="B77" s="451">
         <v>44001</v>
       </c>
-      <c r="C77" s="434"/>
-      <c r="D77" s="431" t="s">
+      <c r="C77" s="448"/>
+      <c r="D77" s="445" t="s">
         <v>150</v>
       </c>
-      <c r="E77" s="431" t="s">
+      <c r="E77" s="445" t="s">
         <v>145</v>
       </c>
       <c r="F77" s="391" t="s">
@@ -7588,11 +8374,11 @@
       <c r="P77" s="391"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="435"/>
-      <c r="B78" s="438"/>
-      <c r="C78" s="435"/>
-      <c r="D78" s="432"/>
-      <c r="E78" s="432"/>
+      <c r="A78" s="449"/>
+      <c r="B78" s="452"/>
+      <c r="C78" s="449"/>
+      <c r="D78" s="446"/>
+      <c r="E78" s="446"/>
       <c r="F78" s="395" t="s">
         <v>155</v>
       </c>
@@ -7623,11 +8409,11 @@
       <c r="P78" s="395"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="436"/>
-      <c r="B79" s="439"/>
-      <c r="C79" s="436"/>
-      <c r="D79" s="433"/>
-      <c r="E79" s="433"/>
+      <c r="A79" s="450"/>
+      <c r="B79" s="453"/>
+      <c r="C79" s="450"/>
+      <c r="D79" s="447"/>
+      <c r="E79" s="447"/>
       <c r="F79" s="398" t="s">
         <v>138</v>
       </c>
@@ -7658,19 +8444,19 @@
       <c r="P79" s="398"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="434">
+      <c r="A80" s="448">
         <v>485</v>
       </c>
-      <c r="B80" s="437">
+      <c r="B80" s="451">
         <v>44002</v>
       </c>
-      <c r="C80" s="434" t="s">
+      <c r="C80" s="448" t="s">
         <v>183</v>
       </c>
-      <c r="D80" s="431" t="s">
+      <c r="D80" s="445" t="s">
         <v>221</v>
       </c>
-      <c r="E80" s="431"/>
+      <c r="E80" s="445"/>
       <c r="F80" s="391" t="s">
         <v>155</v>
       </c>
@@ -7701,11 +8487,11 @@
       <c r="P80" s="391"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="436"/>
-      <c r="B81" s="439"/>
-      <c r="C81" s="436"/>
-      <c r="D81" s="433"/>
-      <c r="E81" s="433"/>
+      <c r="A81" s="450"/>
+      <c r="B81" s="453"/>
+      <c r="C81" s="450"/>
+      <c r="D81" s="447"/>
+      <c r="E81" s="447"/>
       <c r="F81" s="398" t="s">
         <v>138</v>
       </c>
@@ -7912,17 +8698,17 @@
       <c r="P85" s="247"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="434">
+      <c r="A86" s="448">
         <v>1152</v>
       </c>
-      <c r="B86" s="437">
+      <c r="B86" s="451">
         <v>44006</v>
       </c>
-      <c r="C86" s="434"/>
-      <c r="D86" s="428" t="s">
+      <c r="C86" s="448"/>
+      <c r="D86" s="442" t="s">
         <v>225</v>
       </c>
-      <c r="E86" s="431" t="s">
+      <c r="E86" s="445" t="s">
         <v>134</v>
       </c>
       <c r="F86" s="391" t="s">
@@ -7957,11 +8743,11 @@
       <c r="P86" s="391"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="435"/>
-      <c r="B87" s="438"/>
-      <c r="C87" s="435"/>
-      <c r="D87" s="429"/>
-      <c r="E87" s="432"/>
+      <c r="A87" s="449"/>
+      <c r="B87" s="452"/>
+      <c r="C87" s="449"/>
+      <c r="D87" s="443"/>
+      <c r="E87" s="446"/>
       <c r="F87" s="395" t="s">
         <v>149</v>
       </c>
@@ -7992,11 +8778,11 @@
       <c r="P87" s="395"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="435"/>
-      <c r="B88" s="438"/>
-      <c r="C88" s="435"/>
-      <c r="D88" s="429"/>
-      <c r="E88" s="432"/>
+      <c r="A88" s="449"/>
+      <c r="B88" s="452"/>
+      <c r="C88" s="449"/>
+      <c r="D88" s="443"/>
+      <c r="E88" s="446"/>
       <c r="F88" s="395" t="s">
         <v>190</v>
       </c>
@@ -8027,11 +8813,11 @@
       <c r="P88" s="395"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="436"/>
-      <c r="B89" s="439"/>
-      <c r="C89" s="436"/>
-      <c r="D89" s="430"/>
-      <c r="E89" s="433"/>
+      <c r="A89" s="450"/>
+      <c r="B89" s="453"/>
+      <c r="C89" s="450"/>
+      <c r="D89" s="444"/>
+      <c r="E89" s="447"/>
       <c r="F89" s="398" t="s">
         <v>138</v>
       </c>
@@ -8062,19 +8848,19 @@
       <c r="P89" s="398"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="434">
+      <c r="A90" s="448">
         <v>1153</v>
       </c>
-      <c r="B90" s="437">
+      <c r="B90" s="451">
         <v>44005</v>
       </c>
-      <c r="C90" s="434" t="s">
+      <c r="C90" s="448" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="431" t="s">
+      <c r="D90" s="445" t="s">
         <v>226</v>
       </c>
-      <c r="E90" s="431"/>
+      <c r="E90" s="445"/>
       <c r="F90" s="391" t="s">
         <v>190</v>
       </c>
@@ -8105,11 +8891,11 @@
       <c r="P90" s="391"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="436"/>
-      <c r="B91" s="439"/>
-      <c r="C91" s="436"/>
-      <c r="D91" s="433"/>
-      <c r="E91" s="433"/>
+      <c r="A91" s="450"/>
+      <c r="B91" s="453"/>
+      <c r="C91" s="450"/>
+      <c r="D91" s="447"/>
+      <c r="E91" s="447"/>
       <c r="F91" s="398" t="s">
         <v>146</v>
       </c>
@@ -8187,19 +8973,19 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="434">
+      <c r="A93" s="448">
         <v>1154</v>
       </c>
-      <c r="B93" s="437">
+      <c r="B93" s="451">
         <v>44007</v>
       </c>
-      <c r="C93" s="434" t="s">
+      <c r="C93" s="448" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="431" t="s">
+      <c r="D93" s="445" t="s">
         <v>128</v>
       </c>
-      <c r="E93" s="431" t="s">
+      <c r="E93" s="445" t="s">
         <v>136</v>
       </c>
       <c r="F93" s="391" t="s">
@@ -8229,16 +9015,16 @@
       </c>
       <c r="N93" s="392"/>
       <c r="O93" s="392"/>
-      <c r="P93" s="434" t="s">
+      <c r="P93" s="448" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="435"/>
-      <c r="B94" s="438"/>
-      <c r="C94" s="435"/>
-      <c r="D94" s="432"/>
-      <c r="E94" s="432"/>
+      <c r="A94" s="449"/>
+      <c r="B94" s="452"/>
+      <c r="C94" s="449"/>
+      <c r="D94" s="446"/>
+      <c r="E94" s="446"/>
       <c r="F94" s="395" t="s">
         <v>137</v>
       </c>
@@ -8266,14 +9052,14 @@
       </c>
       <c r="N94" s="396"/>
       <c r="O94" s="396"/>
-      <c r="P94" s="435"/>
+      <c r="P94" s="449"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="436"/>
-      <c r="B95" s="439"/>
-      <c r="C95" s="436"/>
-      <c r="D95" s="433"/>
-      <c r="E95" s="433"/>
+      <c r="A95" s="450"/>
+      <c r="B95" s="453"/>
+      <c r="C95" s="450"/>
+      <c r="D95" s="447"/>
+      <c r="E95" s="447"/>
       <c r="F95" s="398" t="s">
         <v>138</v>
       </c>
@@ -8301,7 +9087,7 @@
       </c>
       <c r="N95" s="399"/>
       <c r="O95" s="399"/>
-      <c r="P95" s="436"/>
+      <c r="P95" s="450"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="247">
@@ -8490,17 +9276,17 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="434">
+      <c r="A100" s="448">
         <v>488</v>
       </c>
-      <c r="B100" s="437">
+      <c r="B100" s="451">
         <v>44009</v>
       </c>
-      <c r="C100" s="434"/>
-      <c r="D100" s="431" t="s">
+      <c r="C100" s="448"/>
+      <c r="D100" s="445" t="s">
         <v>150</v>
       </c>
-      <c r="E100" s="431" t="s">
+      <c r="E100" s="445" t="s">
         <v>145</v>
       </c>
       <c r="F100" s="391" t="s">
@@ -8533,11 +9319,11 @@
       <c r="P100" s="391"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="436"/>
-      <c r="B101" s="439"/>
-      <c r="C101" s="436"/>
-      <c r="D101" s="433"/>
-      <c r="E101" s="433"/>
+      <c r="A101" s="450"/>
+      <c r="B101" s="453"/>
+      <c r="C101" s="450"/>
+      <c r="D101" s="447"/>
+      <c r="E101" s="447"/>
       <c r="F101" s="398" t="s">
         <v>190</v>
       </c>
@@ -8568,17 +9354,17 @@
       <c r="P101" s="398"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="434">
+      <c r="A102" s="448">
         <v>490</v>
       </c>
-      <c r="B102" s="437">
+      <c r="B102" s="451">
         <v>44011</v>
       </c>
-      <c r="C102" s="434"/>
-      <c r="D102" s="431" t="s">
+      <c r="C102" s="448"/>
+      <c r="D102" s="445" t="s">
         <v>233</v>
       </c>
-      <c r="E102" s="431" t="s">
+      <c r="E102" s="445" t="s">
         <v>234</v>
       </c>
       <c r="F102" s="391" t="s">
@@ -8611,11 +9397,11 @@
       <c r="P102" s="391"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="435"/>
-      <c r="B103" s="438"/>
-      <c r="C103" s="435"/>
-      <c r="D103" s="432"/>
-      <c r="E103" s="432"/>
+      <c r="A103" s="449"/>
+      <c r="B103" s="452"/>
+      <c r="C103" s="449"/>
+      <c r="D103" s="446"/>
+      <c r="E103" s="446"/>
       <c r="F103" s="395" t="s">
         <v>154</v>
       </c>
@@ -8646,11 +9432,11 @@
       <c r="P103" s="395"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="435"/>
-      <c r="B104" s="438"/>
-      <c r="C104" s="435"/>
-      <c r="D104" s="432"/>
-      <c r="E104" s="432"/>
+      <c r="A104" s="449"/>
+      <c r="B104" s="452"/>
+      <c r="C104" s="449"/>
+      <c r="D104" s="446"/>
+      <c r="E104" s="446"/>
       <c r="F104" s="395" t="s">
         <v>131</v>
       </c>
@@ -8681,11 +9467,11 @@
       <c r="P104" s="395"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="435"/>
-      <c r="B105" s="438"/>
-      <c r="C105" s="435"/>
-      <c r="D105" s="432"/>
-      <c r="E105" s="432"/>
+      <c r="A105" s="449"/>
+      <c r="B105" s="452"/>
+      <c r="C105" s="449"/>
+      <c r="D105" s="446"/>
+      <c r="E105" s="446"/>
       <c r="F105" s="395" t="s">
         <v>155</v>
       </c>
@@ -8716,11 +9502,11 @@
       <c r="P105" s="395"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="436"/>
-      <c r="B106" s="439"/>
-      <c r="C106" s="436"/>
-      <c r="D106" s="433"/>
-      <c r="E106" s="433"/>
+      <c r="A106" s="450"/>
+      <c r="B106" s="453"/>
+      <c r="C106" s="450"/>
+      <c r="D106" s="447"/>
+      <c r="E106" s="447"/>
       <c r="F106" s="398" t="s">
         <v>141</v>
       </c>
@@ -8796,17 +9582,17 @@
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="434">
+      <c r="A108" s="448">
         <v>489</v>
       </c>
-      <c r="B108" s="437">
+      <c r="B108" s="451">
         <v>44010</v>
       </c>
-      <c r="C108" s="434"/>
-      <c r="D108" s="431" t="s">
+      <c r="C108" s="448"/>
+      <c r="D108" s="445" t="s">
         <v>233</v>
       </c>
-      <c r="E108" s="431" t="s">
+      <c r="E108" s="445" t="s">
         <v>234</v>
       </c>
       <c r="F108" s="391" t="s">
@@ -8839,11 +9625,11 @@
       <c r="P108" s="391"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="435"/>
-      <c r="B109" s="438"/>
-      <c r="C109" s="435"/>
-      <c r="D109" s="432"/>
-      <c r="E109" s="432"/>
+      <c r="A109" s="449"/>
+      <c r="B109" s="452"/>
+      <c r="C109" s="449"/>
+      <c r="D109" s="446"/>
+      <c r="E109" s="446"/>
       <c r="F109" s="395" t="s">
         <v>154</v>
       </c>
@@ -8874,11 +9660,11 @@
       <c r="P109" s="395"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="435"/>
-      <c r="B110" s="438"/>
-      <c r="C110" s="435"/>
-      <c r="D110" s="432"/>
-      <c r="E110" s="432"/>
+      <c r="A110" s="449"/>
+      <c r="B110" s="452"/>
+      <c r="C110" s="449"/>
+      <c r="D110" s="446"/>
+      <c r="E110" s="446"/>
       <c r="F110" s="395" t="s">
         <v>131</v>
       </c>
@@ -8909,11 +9695,11 @@
       <c r="P110" s="395"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="435"/>
-      <c r="B111" s="438"/>
-      <c r="C111" s="435"/>
-      <c r="D111" s="432"/>
-      <c r="E111" s="432"/>
+      <c r="A111" s="449"/>
+      <c r="B111" s="452"/>
+      <c r="C111" s="449"/>
+      <c r="D111" s="446"/>
+      <c r="E111" s="446"/>
       <c r="F111" s="395" t="s">
         <v>155</v>
       </c>
@@ -8944,11 +9730,11 @@
       <c r="P111" s="395"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="435"/>
-      <c r="B112" s="438"/>
-      <c r="C112" s="435"/>
-      <c r="D112" s="432"/>
-      <c r="E112" s="432"/>
+      <c r="A112" s="449"/>
+      <c r="B112" s="452"/>
+      <c r="C112" s="449"/>
+      <c r="D112" s="446"/>
+      <c r="E112" s="446"/>
       <c r="F112" s="395" t="s">
         <v>190</v>
       </c>
@@ -8979,11 +9765,11 @@
       <c r="P112" s="395"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="435"/>
-      <c r="B113" s="438"/>
-      <c r="C113" s="435"/>
-      <c r="D113" s="432"/>
-      <c r="E113" s="432"/>
+      <c r="A113" s="449"/>
+      <c r="B113" s="452"/>
+      <c r="C113" s="449"/>
+      <c r="D113" s="446"/>
+      <c r="E113" s="446"/>
       <c r="F113" s="395" t="s">
         <v>146</v>
       </c>
@@ -9014,11 +9800,11 @@
       <c r="P113" s="395"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="435"/>
-      <c r="B114" s="438"/>
-      <c r="C114" s="435"/>
-      <c r="D114" s="432"/>
-      <c r="E114" s="432"/>
+      <c r="A114" s="449"/>
+      <c r="B114" s="452"/>
+      <c r="C114" s="449"/>
+      <c r="D114" s="446"/>
+      <c r="E114" s="446"/>
       <c r="F114" s="395" t="s">
         <v>141</v>
       </c>
@@ -9049,11 +9835,11 @@
       <c r="P114" s="395"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="436"/>
-      <c r="B115" s="439"/>
-      <c r="C115" s="436"/>
-      <c r="D115" s="433"/>
-      <c r="E115" s="433"/>
+      <c r="A115" s="450"/>
+      <c r="B115" s="453"/>
+      <c r="C115" s="450"/>
+      <c r="D115" s="447"/>
+      <c r="E115" s="447"/>
       <c r="F115" s="398" t="s">
         <v>138</v>
       </c>
@@ -9129,14 +9915,14 @@
       </c>
     </row>
     <row r="117" spans="1:17" s="342" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A117" s="442" t="s">
+      <c r="A117" s="456" t="s">
         <v>79</v>
       </c>
-      <c r="B117" s="442"/>
-      <c r="C117" s="442"/>
-      <c r="D117" s="442"/>
-      <c r="E117" s="442"/>
-      <c r="F117" s="442"/>
+      <c r="B117" s="456"/>
+      <c r="C117" s="456"/>
+      <c r="D117" s="456"/>
+      <c r="E117" s="456"/>
+      <c r="F117" s="456"/>
       <c r="G117" s="336">
         <f>SUM(G9:G116)</f>
         <v>1625</v>
@@ -9155,18 +9941,18 @@
       <c r="M117" s="337"/>
       <c r="N117" s="337"/>
       <c r="O117" s="337"/>
-      <c r="P117" s="443"/>
-      <c r="Q117" s="440"/>
+      <c r="P117" s="457"/>
+      <c r="Q117" s="454"/>
     </row>
     <row r="118" spans="1:17" s="342" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A118" s="441" t="s">
+      <c r="A118" s="455" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="441"/>
-      <c r="C118" s="441"/>
-      <c r="D118" s="441"/>
-      <c r="E118" s="441"/>
-      <c r="F118" s="441"/>
+      <c r="B118" s="455"/>
+      <c r="C118" s="455"/>
+      <c r="D118" s="455"/>
+      <c r="E118" s="455"/>
+      <c r="F118" s="455"/>
       <c r="G118" s="336">
         <f>G117</f>
         <v>1625</v>
@@ -9182,18 +9968,18 @@
       <c r="M118" s="339"/>
       <c r="N118" s="339"/>
       <c r="O118" s="339"/>
-      <c r="P118" s="443"/>
-      <c r="Q118" s="440"/>
+      <c r="P118" s="457"/>
+      <c r="Q118" s="454"/>
     </row>
     <row r="119" spans="1:17" s="342" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A119" s="441" t="s">
+      <c r="A119" s="455" t="s">
         <v>80</v>
       </c>
-      <c r="B119" s="441"/>
-      <c r="C119" s="441"/>
-      <c r="D119" s="441"/>
-      <c r="E119" s="441"/>
-      <c r="F119" s="441"/>
+      <c r="B119" s="455"/>
+      <c r="C119" s="455"/>
+      <c r="D119" s="455"/>
+      <c r="E119" s="455"/>
+      <c r="F119" s="455"/>
       <c r="G119" s="343" t="s">
         <v>50</v>
       </c>
@@ -9210,14 +9996,14 @@
       <c r="O119" s="339"/>
     </row>
     <row r="120" spans="1:17" s="342" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A120" s="441" t="s">
+      <c r="A120" s="455" t="s">
         <v>81</v>
       </c>
-      <c r="B120" s="441"/>
-      <c r="C120" s="441"/>
-      <c r="D120" s="441"/>
-      <c r="E120" s="441"/>
-      <c r="F120" s="441"/>
+      <c r="B120" s="455"/>
+      <c r="C120" s="455"/>
+      <c r="D120" s="455"/>
+      <c r="E120" s="455"/>
+      <c r="F120" s="455"/>
       <c r="G120" s="343"/>
       <c r="H120" s="339"/>
       <c r="I120" s="337"/>
@@ -9232,14 +10018,14 @@
       <c r="O120" s="339"/>
     </row>
     <row r="121" spans="1:17" s="342" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A121" s="441" t="s">
+      <c r="A121" s="455" t="s">
         <v>82</v>
       </c>
-      <c r="B121" s="441"/>
-      <c r="C121" s="441"/>
-      <c r="D121" s="441"/>
-      <c r="E121" s="441"/>
-      <c r="F121" s="441"/>
+      <c r="B121" s="455"/>
+      <c r="C121" s="455"/>
+      <c r="D121" s="455"/>
+      <c r="E121" s="455"/>
+      <c r="F121" s="455"/>
       <c r="G121" s="343"/>
       <c r="H121" s="339"/>
       <c r="I121" s="337"/>
@@ -9459,7 +10245,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9478,99 +10264,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="474" t="s">
+      <c r="A1" s="485" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="474"/>
-      <c r="C1" s="474"/>
-      <c r="D1" s="474"/>
+      <c r="B1" s="485"/>
+      <c r="C1" s="485"/>
+      <c r="D1" s="485"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="475" t="s">
+      <c r="A2" s="486" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="475"/>
-      <c r="C2" s="475"/>
-      <c r="D2" s="475"/>
+      <c r="B2" s="486"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="488" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="477"/>
-      <c r="C3" s="477"/>
-      <c r="D3" s="477"/>
-      <c r="E3" s="477"/>
-      <c r="F3" s="477"/>
-      <c r="G3" s="477"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="477"/>
-      <c r="J3" s="477"/>
-      <c r="K3" s="477"/>
-      <c r="L3" s="477"/>
-      <c r="M3" s="477"/>
-      <c r="N3" s="477"/>
-      <c r="O3" s="477"/>
-      <c r="P3" s="477"/>
+      <c r="B3" s="488"/>
+      <c r="C3" s="488"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="488"/>
+      <c r="F3" s="488"/>
+      <c r="G3" s="488"/>
+      <c r="H3" s="488"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="488"/>
+      <c r="K3" s="488"/>
+      <c r="L3" s="488"/>
+      <c r="M3" s="488"/>
+      <c r="N3" s="488"/>
+      <c r="O3" s="488"/>
+      <c r="P3" s="488"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="478" t="s">
+      <c r="A4" s="489" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="478"/>
-      <c r="C4" s="478"/>
-      <c r="D4" s="478"/>
-      <c r="E4" s="478"/>
-      <c r="F4" s="478"/>
-      <c r="G4" s="478"/>
-      <c r="H4" s="478"/>
-      <c r="I4" s="478"/>
-      <c r="J4" s="478"/>
-      <c r="K4" s="479"/>
-      <c r="L4" s="478"/>
-      <c r="M4" s="478"/>
-      <c r="N4" s="478"/>
-      <c r="O4" s="478"/>
-      <c r="P4" s="478"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="489"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="489"/>
+      <c r="F4" s="489"/>
+      <c r="G4" s="489"/>
+      <c r="H4" s="489"/>
+      <c r="I4" s="489"/>
+      <c r="J4" s="489"/>
+      <c r="K4" s="490"/>
+      <c r="L4" s="489"/>
+      <c r="M4" s="489"/>
+      <c r="N4" s="489"/>
+      <c r="O4" s="489"/>
+      <c r="P4" s="489"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="480" t="s">
+      <c r="A5" s="491" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="482" t="s">
+      <c r="B5" s="493" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="484" t="s">
+      <c r="C5" s="495" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="484" t="s">
+      <c r="D5" s="495" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="484"/>
-      <c r="F5" s="484"/>
-      <c r="G5" s="486" t="s">
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="497" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="486"/>
-      <c r="I5" s="486"/>
-      <c r="J5" s="486"/>
-      <c r="K5" s="487"/>
-      <c r="L5" s="488" t="s">
+      <c r="H5" s="497"/>
+      <c r="I5" s="497"/>
+      <c r="J5" s="497"/>
+      <c r="K5" s="498"/>
+      <c r="L5" s="499" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="486" t="s">
+      <c r="M5" s="497" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="486"/>
-      <c r="O5" s="486"/>
-      <c r="P5" s="490" t="s">
+      <c r="N5" s="497"/>
+      <c r="O5" s="497"/>
+      <c r="P5" s="501" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="481"/>
-      <c r="B6" s="483"/>
-      <c r="C6" s="485"/>
+      <c r="A6" s="492"/>
+      <c r="B6" s="494"/>
+      <c r="C6" s="496"/>
       <c r="D6" s="84" t="s">
         <v>41</v>
       </c>
@@ -9595,7 +10381,7 @@
       <c r="K6" s="243" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="489"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="84" t="s">
         <v>46</v>
       </c>
@@ -9605,7 +10391,7 @@
       <c r="O6" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="491"/>
+      <c r="P6" s="502"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="247">
@@ -9722,18 +10508,18 @@
       <c r="P9" s="145"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="434">
+      <c r="A10" s="448">
         <v>480</v>
       </c>
-      <c r="B10" s="425">
+      <c r="B10" s="439">
         <v>43998</v>
       </c>
-      <c r="C10" s="434" t="s">
+      <c r="C10" s="448" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="434"/>
-      <c r="E10" s="468"/>
-      <c r="F10" s="434"/>
+      <c r="D10" s="448"/>
+      <c r="E10" s="482"/>
+      <c r="F10" s="448"/>
       <c r="G10" s="228" t="s">
         <v>135</v>
       </c>
@@ -9760,12 +10546,12 @@
       <c r="P10" s="231"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="435"/>
-      <c r="B11" s="426"/>
-      <c r="C11" s="435"/>
-      <c r="D11" s="435"/>
-      <c r="E11" s="469"/>
-      <c r="F11" s="435"/>
+      <c r="A11" s="449"/>
+      <c r="B11" s="440"/>
+      <c r="C11" s="449"/>
+      <c r="D11" s="449"/>
+      <c r="E11" s="483"/>
+      <c r="F11" s="449"/>
       <c r="G11" s="232" t="s">
         <v>149</v>
       </c>
@@ -9794,12 +10580,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="435"/>
-      <c r="B12" s="426"/>
-      <c r="C12" s="435"/>
-      <c r="D12" s="435"/>
-      <c r="E12" s="469"/>
-      <c r="F12" s="435"/>
+      <c r="A12" s="449"/>
+      <c r="B12" s="440"/>
+      <c r="C12" s="449"/>
+      <c r="D12" s="449"/>
+      <c r="E12" s="483"/>
+      <c r="F12" s="449"/>
       <c r="G12" s="232" t="s">
         <v>154</v>
       </c>
@@ -9828,12 +10614,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="435"/>
-      <c r="B13" s="426"/>
-      <c r="C13" s="435"/>
-      <c r="D13" s="435"/>
-      <c r="E13" s="469"/>
-      <c r="F13" s="435"/>
+      <c r="A13" s="449"/>
+      <c r="B13" s="440"/>
+      <c r="C13" s="449"/>
+      <c r="D13" s="449"/>
+      <c r="E13" s="483"/>
+      <c r="F13" s="449"/>
       <c r="G13" s="232" t="s">
         <v>190</v>
       </c>
@@ -9860,12 +10646,12 @@
       <c r="P13" s="236"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="436"/>
-      <c r="B14" s="427"/>
-      <c r="C14" s="436"/>
-      <c r="D14" s="436"/>
-      <c r="E14" s="470"/>
-      <c r="F14" s="436"/>
+      <c r="A14" s="450"/>
+      <c r="B14" s="441"/>
+      <c r="C14" s="450"/>
+      <c r="D14" s="450"/>
+      <c r="E14" s="484"/>
+      <c r="F14" s="450"/>
       <c r="G14" s="237" t="s">
         <v>146</v>
       </c>
@@ -9892,18 +10678,18 @@
       <c r="P14" s="240"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="434">
+      <c r="A15" s="448">
         <v>484</v>
       </c>
-      <c r="B15" s="425">
+      <c r="B15" s="439">
         <v>44002</v>
       </c>
-      <c r="C15" s="434" t="s">
+      <c r="C15" s="448" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="434"/>
-      <c r="E15" s="468"/>
-      <c r="F15" s="434"/>
+      <c r="D15" s="448"/>
+      <c r="E15" s="482"/>
+      <c r="F15" s="448"/>
       <c r="G15" s="228" t="s">
         <v>155</v>
       </c>
@@ -9930,12 +10716,12 @@
       <c r="P15" s="231"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="436"/>
-      <c r="B16" s="427"/>
-      <c r="C16" s="436"/>
-      <c r="D16" s="436"/>
-      <c r="E16" s="470"/>
-      <c r="F16" s="436"/>
+      <c r="A16" s="450"/>
+      <c r="B16" s="441"/>
+      <c r="C16" s="450"/>
+      <c r="D16" s="450"/>
+      <c r="E16" s="484"/>
+      <c r="F16" s="450"/>
       <c r="G16" s="237" t="s">
         <v>138</v>
       </c>
@@ -9965,53 +10751,53 @@
       <c r="A17" s="414">
         <v>1151</v>
       </c>
-      <c r="B17" s="576">
+      <c r="B17" s="418">
         <v>44006</v>
       </c>
-      <c r="C17" s="577" t="s">
+      <c r="C17" s="419" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="577"/>
-      <c r="E17" s="578"/>
-      <c r="F17" s="577"/>
-      <c r="G17" s="577" t="s">
+      <c r="D17" s="419"/>
+      <c r="E17" s="420"/>
+      <c r="F17" s="419"/>
+      <c r="G17" s="419" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="577">
+      <c r="H17" s="419">
         <v>24</v>
       </c>
-      <c r="I17" s="574">
+      <c r="I17" s="416">
         <v>485000</v>
       </c>
-      <c r="J17" s="574">
+      <c r="J17" s="416">
         <f>H17*I17</f>
         <v>11640000</v>
       </c>
-      <c r="K17" s="579">
+      <c r="K17" s="421">
         <v>0.5</v>
       </c>
-      <c r="L17" s="575">
+      <c r="L17" s="417">
         <f>J17*(1-K17)</f>
         <v>5820000</v>
       </c>
-      <c r="M17" s="577"/>
-      <c r="N17" s="577"/>
-      <c r="O17" s="577"/>
-      <c r="P17" s="578"/>
+      <c r="M17" s="419"/>
+      <c r="N17" s="419"/>
+      <c r="O17" s="419"/>
+      <c r="P17" s="420"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="434">
+      <c r="A18" s="448">
         <v>487</v>
       </c>
-      <c r="B18" s="425">
+      <c r="B18" s="439">
         <v>44009</v>
       </c>
-      <c r="C18" s="434" t="s">
+      <c r="C18" s="448" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="434"/>
-      <c r="E18" s="434"/>
-      <c r="F18" s="434"/>
+      <c r="D18" s="448"/>
+      <c r="E18" s="448"/>
+      <c r="F18" s="448"/>
       <c r="G18" s="228" t="s">
         <v>154</v>
       </c>
@@ -10038,12 +10824,12 @@
       <c r="P18" s="231"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="436"/>
-      <c r="B19" s="427"/>
-      <c r="C19" s="436"/>
-      <c r="D19" s="436"/>
-      <c r="E19" s="436"/>
-      <c r="F19" s="436"/>
+      <c r="A19" s="450"/>
+      <c r="B19" s="441"/>
+      <c r="C19" s="450"/>
+      <c r="D19" s="450"/>
+      <c r="E19" s="450"/>
+      <c r="F19" s="450"/>
       <c r="G19" s="237" t="s">
         <v>190</v>
       </c>
@@ -10090,42 +10876,42 @@
       <c r="H20" s="364">
         <v>12</v>
       </c>
-      <c r="I20" s="580">
+      <c r="I20" s="422">
         <v>485000</v>
       </c>
  